--- a/GB-3  Sales.xlsx
+++ b/GB-3  Sales.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="419">
   <si>
     <t>Oil Filter</t>
   </si>
@@ -1265,13 +1265,25 @@
   </si>
   <si>
     <t>ေဘာဂိြ်ုင္း</t>
+  </si>
+  <si>
+    <t>9.8.2018</t>
+  </si>
+  <si>
+    <t>Fuel Filter 2E900</t>
+  </si>
+  <si>
+    <t>Air Filter (Probox)</t>
+  </si>
+  <si>
+    <t>Prado</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
         <u/>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -1282,7 +1294,7 @@
     <r>
       <rPr>
         <u/>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -1562,7 +1574,7 @@
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1571,7 +1583,7 @@
     <font>
       <b/>
       <u/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1810,7 +1822,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="442">
+  <cellXfs count="440">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2834,16 +2846,10 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="22" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6366,10 +6372,10 @@
       <c r="B1" s="198" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="434" t="s">
+      <c r="C1" s="432" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="435"/>
+      <c r="D1" s="433"/>
       <c r="E1" s="198" t="s">
         <v>116</v>
       </c>
@@ -11746,10 +11752,10 @@
       <c r="B1" s="333" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="436" t="s">
+      <c r="C1" s="434" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="437"/>
+      <c r="D1" s="435"/>
       <c r="E1" s="333" t="s">
         <v>116</v>
       </c>
@@ -15351,7 +15357,7 @@
     <row r="177" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
-      <c r="C177" s="416" t="s">
+      <c r="C177" s="414" t="s">
         <v>189</v>
       </c>
       <c r="D177" s="235" t="s">
@@ -15365,7 +15371,7 @@
       <c r="H177" s="356">
         <v>2650</v>
       </c>
-      <c r="I177" s="422"/>
+      <c r="I177" s="420"/>
     </row>
     <row r="178" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
@@ -15862,7 +15868,7 @@
     <row r="204" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
-      <c r="C204" s="416" t="s">
+      <c r="C204" s="414" t="s">
         <v>197</v>
       </c>
       <c r="D204" s="235"/>
@@ -17376,7 +17382,7 @@
     <row r="284" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
-      <c r="C284" s="420" t="s">
+      <c r="C284" s="418" t="s">
         <v>276</v>
       </c>
       <c r="D284" s="391" t="s">
@@ -17661,8 +17667,8 @@
   </sheetPr>
   <dimension ref="A1:Q298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="L103" sqref="L103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17686,10 +17692,10 @@
       <c r="B1" s="333" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="436" t="s">
+      <c r="C1" s="434" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="437"/>
+      <c r="D1" s="435"/>
       <c r="E1" s="333" t="s">
         <v>116</v>
       </c>
@@ -18440,7 +18446,7 @@
         <v>10</v>
       </c>
       <c r="B40" s="4"/>
-      <c r="C40" s="421" t="s">
+      <c r="C40" s="419" t="s">
         <v>135</v>
       </c>
       <c r="D40" s="366"/>
@@ -18638,12 +18644,12 @@
     <row r="51" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
-      <c r="C51" s="401"/>
+      <c r="C51" s="400"/>
       <c r="D51" s="235"/>
       <c r="E51" s="235"/>
       <c r="F51" s="235"/>
       <c r="G51" s="356"/>
-      <c r="H51" s="403">
+      <c r="H51" s="401">
         <f>SUM(H49:H50)</f>
         <v>39500</v>
       </c>
@@ -18672,7 +18678,7 @@
       <c r="E53" s="83"/>
       <c r="F53" s="83"/>
       <c r="G53" s="84"/>
-      <c r="H53" s="404">
+      <c r="H53" s="402">
         <f>SUM(H51:H52)</f>
         <v>63500</v>
       </c>
@@ -19064,7 +19070,7 @@
       <c r="B74" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="C74" s="430" t="s">
+      <c r="C74" s="428" t="s">
         <v>407</v>
       </c>
       <c r="D74" s="3"/>
@@ -19079,6 +19085,9 @@
       </c>
       <c r="H74" s="50">
         <v>13500</v>
+      </c>
+      <c r="I74" s="341">
+        <v>27000</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19240,7 +19249,7 @@
         <v>10</v>
       </c>
       <c r="B83" s="3"/>
-      <c r="C83" s="431" t="s">
+      <c r="C83" s="429" t="s">
         <v>413</v>
       </c>
       <c r="D83" s="70" t="s">
@@ -19260,7 +19269,7 @@
         <v>11</v>
       </c>
       <c r="B84" s="3"/>
-      <c r="C84" s="431" t="s">
+      <c r="C84" s="429" t="s">
         <v>197</v>
       </c>
       <c r="D84" s="70"/>
@@ -19280,7 +19289,7 @@
         <v>12</v>
       </c>
       <c r="B85" s="3"/>
-      <c r="C85" s="431" t="s">
+      <c r="C85" s="429" t="s">
         <v>127</v>
       </c>
       <c r="D85" s="70"/>
@@ -19298,7 +19307,7 @@
         <v>13</v>
       </c>
       <c r="B86" s="3"/>
-      <c r="C86" s="431" t="s">
+      <c r="C86" s="429" t="s">
         <v>208</v>
       </c>
       <c r="D86" s="70" t="s">
@@ -19382,45 +19391,45 @@
     <row r="91" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="3"/>
-      <c r="C91" s="424" t="s">
+      <c r="C91" s="422" t="s">
         <v>343</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="E91" s="424"/>
-      <c r="F91" s="425"/>
-      <c r="G91" s="425"/>
-      <c r="H91" s="426">
+      <c r="E91" s="422"/>
+      <c r="F91" s="423"/>
+      <c r="G91" s="423"/>
+      <c r="H91" s="424">
         <v>28500</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
-      <c r="B92" s="423"/>
-      <c r="C92" s="424" t="s">
+      <c r="B92" s="421"/>
+      <c r="C92" s="422" t="s">
         <v>363</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E92" s="424"/>
+        <v>254</v>
+      </c>
+      <c r="E92" s="422"/>
       <c r="F92" s="4">
         <v>5</v>
       </c>
-      <c r="G92" s="428">
+      <c r="G92" s="426">
         <v>1500</v>
       </c>
-      <c r="H92" s="428">
+      <c r="H92" s="426">
         <v>7500</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
-      <c r="B93" s="423"/>
-      <c r="C93" s="423"/>
-      <c r="D93" s="423"/>
-      <c r="E93" s="423"/>
+      <c r="B93" s="421"/>
+      <c r="C93" s="421"/>
+      <c r="D93" s="421"/>
+      <c r="E93" s="421"/>
       <c r="F93" s="77"/>
       <c r="G93" s="77"/>
       <c r="H93" s="367">
@@ -19429,144 +19438,264 @@
       </c>
     </row>
     <row r="94" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="192"/>
-      <c r="D94" s="83"/>
-      <c r="E94" s="83"/>
-      <c r="F94" s="83"/>
-      <c r="G94" s="84"/>
-      <c r="H94" s="84"/>
+      <c r="A94" s="3">
+        <v>1</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C94" s="231" t="s">
+        <v>341</v>
+      </c>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="4">
+        <v>1</v>
+      </c>
+      <c r="G94" s="50"/>
+      <c r="H94" s="50">
+        <v>3500</v>
+      </c>
     </row>
     <row r="95" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="399"/>
-      <c r="D95" s="235"/>
-      <c r="E95" s="235"/>
-      <c r="F95" s="235"/>
-      <c r="G95" s="356"/>
-      <c r="H95" s="356"/>
+      <c r="A95" s="3">
+        <v>2</v>
+      </c>
+      <c r="B95" s="3"/>
+      <c r="C95" s="193" t="s">
+        <v>415</v>
+      </c>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="4">
+        <v>1</v>
+      </c>
+      <c r="G95" s="50"/>
+      <c r="H95" s="50">
+        <v>3500</v>
+      </c>
     </row>
     <row r="96" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="393"/>
-      <c r="D96" s="83"/>
-      <c r="E96" s="83"/>
-      <c r="F96" s="83"/>
-      <c r="G96" s="84"/>
-      <c r="H96" s="84"/>
+      <c r="A96" s="3">
+        <v>3</v>
+      </c>
+      <c r="B96" s="3"/>
+      <c r="C96" s="193" t="s">
+        <v>299</v>
+      </c>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F96" s="4">
+        <v>1</v>
+      </c>
+      <c r="G96" s="50"/>
+      <c r="H96" s="50">
+        <v>20400</v>
+      </c>
     </row>
     <row r="97" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="393"/>
-      <c r="D97" s="83"/>
-      <c r="E97" s="83"/>
-      <c r="F97" s="83"/>
-      <c r="G97" s="84"/>
-      <c r="H97" s="84"/>
+      <c r="A97" s="3">
+        <v>4</v>
+      </c>
+      <c r="B97" s="3"/>
+      <c r="C97" s="193" t="s">
+        <v>127</v>
+      </c>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="4">
+        <v>3</v>
+      </c>
+      <c r="G97" s="50">
+        <v>1750</v>
+      </c>
+      <c r="H97" s="50">
+        <v>5250</v>
+      </c>
     </row>
     <row r="98" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="393"/>
-      <c r="D98" s="83"/>
-      <c r="E98" s="83"/>
-      <c r="F98" s="83"/>
-      <c r="G98" s="84"/>
-      <c r="H98" s="84"/>
+      <c r="A98" s="3">
+        <v>5</v>
+      </c>
+      <c r="B98" s="3"/>
+      <c r="C98" s="193" t="s">
+        <v>50</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E98" s="3"/>
+      <c r="F98" s="4">
+        <v>1</v>
+      </c>
+      <c r="G98" s="50"/>
+      <c r="H98" s="50">
+        <v>9000</v>
+      </c>
     </row>
     <row r="99" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="402"/>
-      <c r="D99" s="83"/>
-      <c r="E99" s="83"/>
-      <c r="F99" s="83"/>
-      <c r="G99" s="84"/>
-      <c r="H99" s="404"/>
+      <c r="A99" s="3">
+        <v>6</v>
+      </c>
+      <c r="B99" s="3"/>
+      <c r="C99" s="193" t="s">
+        <v>160</v>
+      </c>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F99" s="4">
+        <v>1</v>
+      </c>
+      <c r="G99" s="50"/>
+      <c r="H99" s="50">
+        <v>30500</v>
+      </c>
     </row>
     <row r="100" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="192"/>
-      <c r="D100" s="83"/>
-      <c r="E100" s="83"/>
-      <c r="F100" s="83"/>
-      <c r="G100" s="84"/>
-      <c r="H100" s="84"/>
+      <c r="A100" s="3">
+        <v>7</v>
+      </c>
+      <c r="B100" s="3"/>
+      <c r="C100" s="193" t="s">
+        <v>416</v>
+      </c>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="4">
+        <v>1</v>
+      </c>
+      <c r="G100" s="50"/>
+      <c r="H100" s="50">
+        <v>2650</v>
+      </c>
     </row>
     <row r="101" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="192"/>
-      <c r="D101" s="83"/>
-      <c r="E101" s="83"/>
-      <c r="F101" s="83"/>
-      <c r="G101" s="84"/>
-      <c r="H101" s="84"/>
+      <c r="A101" s="3">
+        <v>8</v>
+      </c>
+      <c r="B101" s="3"/>
+      <c r="C101" s="193" t="s">
+        <v>60</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E101" s="3"/>
+      <c r="F101" s="4">
+        <v>2</v>
+      </c>
+      <c r="G101" s="50">
+        <v>8000</v>
+      </c>
+      <c r="H101" s="50">
+        <v>16000</v>
+      </c>
     </row>
     <row r="102" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="4"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="399"/>
-      <c r="D102" s="235"/>
-      <c r="E102" s="235"/>
-      <c r="F102" s="235"/>
-      <c r="G102" s="356"/>
-      <c r="H102" s="356"/>
+      <c r="A102" s="3">
+        <v>9</v>
+      </c>
+      <c r="B102" s="3"/>
+      <c r="C102" s="193" t="s">
+        <v>201</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E102" s="3"/>
+      <c r="F102" s="4">
+        <v>2</v>
+      </c>
+      <c r="G102" s="50">
+        <v>10000</v>
+      </c>
+      <c r="H102" s="50">
+        <v>20000</v>
+      </c>
     </row>
     <row r="103" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="4"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="192"/>
-      <c r="D103" s="83"/>
-      <c r="E103" s="83"/>
-      <c r="F103" s="83"/>
-      <c r="G103" s="84"/>
-      <c r="H103" s="84"/>
+      <c r="A103" s="3">
+        <v>10</v>
+      </c>
+      <c r="B103" s="3"/>
+      <c r="C103" s="429" t="s">
+        <v>27</v>
+      </c>
+      <c r="D103" s="70" t="s">
+        <v>417</v>
+      </c>
+      <c r="E103" s="70"/>
+      <c r="F103" s="45">
+        <v>1</v>
+      </c>
+      <c r="G103" s="50"/>
+      <c r="H103" s="50">
+        <v>14000</v>
+      </c>
     </row>
     <row r="104" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="4"/>
-      <c r="B104" s="4"/>
-      <c r="C104" s="399"/>
-      <c r="D104" s="235"/>
-      <c r="E104" s="235"/>
-      <c r="F104" s="235"/>
-      <c r="G104" s="356"/>
-      <c r="H104" s="356"/>
+      <c r="A104" s="3">
+        <v>11</v>
+      </c>
+      <c r="B104" s="3"/>
+      <c r="C104" s="429" t="s">
+        <v>109</v>
+      </c>
+      <c r="D104" s="70"/>
+      <c r="E104" s="70"/>
+      <c r="F104" s="45">
+        <v>1</v>
+      </c>
+      <c r="G104" s="50"/>
+      <c r="H104" s="50">
+        <v>3500</v>
+      </c>
     </row>
     <row r="105" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="4"/>
-      <c r="B105" s="4"/>
-      <c r="C105" s="192"/>
-      <c r="D105" s="83"/>
-      <c r="E105" s="83"/>
-      <c r="F105" s="83"/>
-      <c r="G105" s="84"/>
-      <c r="H105" s="84"/>
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="429"/>
+      <c r="D105" s="70"/>
+      <c r="E105" s="70"/>
+      <c r="F105" s="45"/>
+      <c r="G105" s="50"/>
+      <c r="H105" s="223">
+        <f>SUM(H94:H104)</f>
+        <v>128300</v>
+      </c>
     </row>
     <row r="106" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="4"/>
-      <c r="B106" s="4"/>
-      <c r="C106" s="402"/>
-      <c r="D106" s="83"/>
-      <c r="E106" s="83"/>
-      <c r="F106" s="83"/>
-      <c r="G106" s="84"/>
-      <c r="H106" s="404"/>
+      <c r="A106" s="3"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="429" t="s">
+        <v>343</v>
+      </c>
+      <c r="D106" s="70" t="s">
+        <v>351</v>
+      </c>
+      <c r="E106" s="70"/>
+      <c r="F106" s="45"/>
+      <c r="G106" s="50"/>
+      <c r="H106" s="50">
+        <v>27000</v>
+      </c>
     </row>
     <row r="107" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
-      <c r="C107" s="393"/>
-      <c r="D107" s="83"/>
-      <c r="E107" s="83"/>
-      <c r="F107" s="83"/>
-      <c r="G107" s="84"/>
-      <c r="H107" s="84"/>
+      <c r="A107" s="3"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="193"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="50"/>
+      <c r="H107" s="223">
+        <f>SUM(H105:H106)</f>
+        <v>155300</v>
+      </c>
       <c r="N107" s="101" t="s">
         <v>266</v>
       </c>
@@ -19585,7 +19714,7 @@
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="192"/>
-      <c r="D109" s="405"/>
+      <c r="D109" s="403"/>
       <c r="E109" s="83"/>
       <c r="F109" s="83"/>
       <c r="G109" s="84"/>
@@ -19629,12 +19758,12 @@
       <c r="E113" s="83"/>
       <c r="F113" s="83"/>
       <c r="G113" s="84"/>
-      <c r="H113" s="404"/>
+      <c r="H113" s="402"/>
     </row>
     <row r="114" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
-      <c r="C114" s="401"/>
+      <c r="C114" s="400"/>
       <c r="D114" s="235"/>
       <c r="E114" s="235"/>
       <c r="F114" s="235"/>
@@ -19644,7 +19773,7 @@
     <row r="115" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
-      <c r="C115" s="401"/>
+      <c r="C115" s="400"/>
       <c r="D115" s="235"/>
       <c r="E115" s="235"/>
       <c r="F115" s="235"/>
@@ -19689,12 +19818,12 @@
       <c r="E119" s="83"/>
       <c r="F119" s="83"/>
       <c r="G119" s="84"/>
-      <c r="H119" s="404"/>
+      <c r="H119" s="402"/>
     </row>
     <row r="120" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
-      <c r="C120" s="401"/>
+      <c r="C120" s="400"/>
       <c r="D120" s="235"/>
       <c r="E120" s="235"/>
       <c r="F120" s="235"/>
@@ -19764,7 +19893,7 @@
     <row r="127" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
-      <c r="C127" s="406"/>
+      <c r="C127" s="404"/>
       <c r="D127" s="396"/>
       <c r="E127" s="396"/>
       <c r="F127" s="396"/>
@@ -19784,7 +19913,7 @@
     <row r="129" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="255"/>
       <c r="B129" s="255"/>
-      <c r="C129" s="407"/>
+      <c r="C129" s="405"/>
       <c r="D129" s="398"/>
       <c r="E129" s="398"/>
       <c r="F129" s="398"/>
@@ -19796,10 +19925,10 @@
       <c r="B130" s="255"/>
       <c r="C130" s="235"/>
       <c r="D130" s="235"/>
-      <c r="E130" s="408"/>
+      <c r="E130" s="406"/>
       <c r="F130" s="235"/>
       <c r="G130" s="235"/>
-      <c r="H130" s="409"/>
+      <c r="H130" s="407"/>
     </row>
     <row r="131" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
@@ -19819,7 +19948,7 @@
       <c r="E132" s="235"/>
       <c r="F132" s="235"/>
       <c r="G132" s="235"/>
-      <c r="H132" s="410"/>
+      <c r="H132" s="408"/>
     </row>
     <row r="133" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
@@ -19904,7 +20033,7 @@
     <row r="141" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
-      <c r="C141" s="411"/>
+      <c r="C141" s="409"/>
       <c r="D141" s="83"/>
       <c r="E141" s="83"/>
       <c r="F141" s="83"/>
@@ -19926,10 +20055,10 @@
       <c r="B143" s="255"/>
       <c r="C143" s="235"/>
       <c r="D143" s="235"/>
-      <c r="E143" s="408"/>
+      <c r="E143" s="406"/>
       <c r="F143" s="235"/>
       <c r="G143" s="235"/>
-      <c r="H143" s="412"/>
+      <c r="H143" s="410"/>
     </row>
     <row r="144" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
@@ -19979,7 +20108,7 @@
       <c r="E148" s="83"/>
       <c r="F148" s="83"/>
       <c r="G148" s="84"/>
-      <c r="H148" s="404"/>
+      <c r="H148" s="402"/>
     </row>
     <row r="149" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
@@ -20029,7 +20158,7 @@
       <c r="E153" s="83"/>
       <c r="F153" s="83"/>
       <c r="G153" s="84"/>
-      <c r="H153" s="404"/>
+      <c r="H153" s="402"/>
     </row>
     <row r="154" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
@@ -20129,17 +20258,17 @@
       <c r="E163" s="398"/>
       <c r="F163" s="83"/>
       <c r="G163" s="84"/>
-      <c r="H163" s="404"/>
+      <c r="H163" s="402"/>
     </row>
     <row r="164" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4"/>
       <c r="B164" s="255"/>
       <c r="C164" s="395"/>
       <c r="D164" s="235"/>
-      <c r="E164" s="408"/>
+      <c r="E164" s="406"/>
       <c r="F164" s="396"/>
       <c r="G164" s="397"/>
-      <c r="H164" s="413"/>
+      <c r="H164" s="411"/>
     </row>
     <row r="165" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
@@ -20169,7 +20298,7 @@
       <c r="E167" s="398"/>
       <c r="F167" s="398"/>
       <c r="G167" s="398"/>
-      <c r="H167" s="414"/>
+      <c r="H167" s="412"/>
     </row>
     <row r="168" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
@@ -20259,7 +20388,7 @@
       <c r="E176" s="83"/>
       <c r="F176" s="83"/>
       <c r="G176" s="84"/>
-      <c r="H176" s="404"/>
+      <c r="H176" s="402"/>
     </row>
     <row r="177" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
@@ -20309,7 +20438,7 @@
       <c r="E181" s="83"/>
       <c r="F181" s="83"/>
       <c r="G181" s="84"/>
-      <c r="H181" s="404"/>
+      <c r="H181" s="402"/>
     </row>
     <row r="182" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4"/>
@@ -20334,7 +20463,7 @@
     <row r="184" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="9"/>
       <c r="B184" s="9"/>
-      <c r="C184" s="400"/>
+      <c r="C184" s="399"/>
       <c r="D184" s="118"/>
       <c r="E184" s="118"/>
       <c r="F184" s="118"/>
@@ -20399,7 +20528,7 @@
       <c r="E190" s="83"/>
       <c r="F190" s="83"/>
       <c r="G190" s="84"/>
-      <c r="H190" s="415"/>
+      <c r="H190" s="413"/>
     </row>
     <row r="191" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
@@ -20429,7 +20558,7 @@
       <c r="E193" s="83"/>
       <c r="F193" s="83"/>
       <c r="G193" s="84"/>
-      <c r="H193" s="415"/>
+      <c r="H193" s="413"/>
     </row>
     <row r="194" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4"/>
@@ -20529,7 +20658,7 @@
       <c r="E203" s="83"/>
       <c r="F203" s="83"/>
       <c r="G203" s="84"/>
-      <c r="H203" s="404"/>
+      <c r="H203" s="402"/>
     </row>
     <row r="204" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
@@ -20554,12 +20683,12 @@
     <row r="206" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
-      <c r="C206" s="416"/>
+      <c r="C206" s="414"/>
       <c r="D206" s="235"/>
       <c r="E206" s="235"/>
       <c r="F206" s="235"/>
       <c r="G206" s="84"/>
-      <c r="H206" s="417"/>
+      <c r="H206" s="415"/>
     </row>
     <row r="207" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="23"/>
@@ -20569,7 +20698,7 @@
       <c r="E207" s="95"/>
       <c r="F207" s="95"/>
       <c r="G207" s="95"/>
-      <c r="H207" s="418"/>
+      <c r="H207" s="416"/>
     </row>
     <row r="208" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4"/>
@@ -20629,7 +20758,7 @@
       <c r="E213" s="83"/>
       <c r="F213" s="83"/>
       <c r="G213" s="84"/>
-      <c r="H213" s="404"/>
+      <c r="H213" s="402"/>
     </row>
     <row r="214" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4"/>
@@ -20729,7 +20858,7 @@
       <c r="E223" s="83"/>
       <c r="F223" s="83"/>
       <c r="G223" s="84"/>
-      <c r="H223" s="404"/>
+      <c r="H223" s="402"/>
     </row>
     <row r="224" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
@@ -20754,7 +20883,7 @@
     <row r="226" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
-      <c r="C226" s="419"/>
+      <c r="C226" s="417"/>
       <c r="D226" s="396"/>
       <c r="E226" s="396"/>
       <c r="F226" s="396"/>
@@ -20764,7 +20893,7 @@
     <row r="227" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
-      <c r="C227" s="419"/>
+      <c r="C227" s="417"/>
       <c r="D227" s="396"/>
       <c r="E227" s="396"/>
       <c r="F227" s="396"/>
@@ -20779,7 +20908,7 @@
       <c r="E228" s="83"/>
       <c r="F228" s="83"/>
       <c r="G228" s="84"/>
-      <c r="H228" s="404"/>
+      <c r="H228" s="402"/>
     </row>
     <row r="229" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4"/>
@@ -20849,7 +20978,7 @@
       <c r="E235" s="83"/>
       <c r="F235" s="83"/>
       <c r="G235" s="84"/>
-      <c r="H235" s="404"/>
+      <c r="H235" s="402"/>
     </row>
     <row r="236" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4"/>
@@ -20879,7 +21008,7 @@
       <c r="E238" s="83"/>
       <c r="F238" s="83"/>
       <c r="G238" s="84"/>
-      <c r="H238" s="404"/>
+      <c r="H238" s="402"/>
     </row>
     <row r="239" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4"/>
@@ -20919,7 +21048,7 @@
       <c r="E242" s="83"/>
       <c r="F242" s="83"/>
       <c r="G242" s="84"/>
-      <c r="H242" s="404"/>
+      <c r="H242" s="402"/>
     </row>
     <row r="243" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4"/>
@@ -20999,7 +21128,7 @@
       <c r="E250" s="83"/>
       <c r="F250" s="83"/>
       <c r="G250" s="84"/>
-      <c r="H250" s="404"/>
+      <c r="H250" s="402"/>
     </row>
     <row r="251" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4"/>
@@ -21029,7 +21158,7 @@
       <c r="E253" s="83"/>
       <c r="F253" s="83"/>
       <c r="G253" s="84"/>
-      <c r="H253" s="404"/>
+      <c r="H253" s="402"/>
     </row>
     <row r="254" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4"/>
@@ -21069,7 +21198,7 @@
       <c r="E257" s="83"/>
       <c r="F257" s="83"/>
       <c r="G257" s="84"/>
-      <c r="H257" s="403"/>
+      <c r="H257" s="401"/>
     </row>
     <row r="258" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="4"/>
@@ -21089,7 +21218,7 @@
       <c r="E259" s="83"/>
       <c r="F259" s="83"/>
       <c r="G259" s="84"/>
-      <c r="H259" s="403"/>
+      <c r="H259" s="401"/>
     </row>
     <row r="260" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4"/>
@@ -21169,7 +21298,7 @@
       <c r="E267" s="83"/>
       <c r="F267" s="83"/>
       <c r="G267" s="84"/>
-      <c r="H267" s="404"/>
+      <c r="H267" s="402"/>
     </row>
     <row r="268" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="4"/>
@@ -21498,46 +21627,46 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="429" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="429" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="429" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="429" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" style="429" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" style="429" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="429" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="429" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="429"/>
+    <col min="1" max="1" width="4.42578125" style="427" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="427" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="427" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="427" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" style="427" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" style="427" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="427" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="427" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="427"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="438" t="s">
-        <v>414</v>
-      </c>
-      <c r="B1" s="438"/>
-      <c r="C1" s="438"/>
-      <c r="D1" s="439"/>
-      <c r="E1" s="438"/>
-      <c r="F1" s="438"/>
-      <c r="G1" s="438"/>
-      <c r="H1" s="438"/>
-    </row>
-    <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="436" t="s">
+        <v>418</v>
+      </c>
+      <c r="B1" s="436"/>
+      <c r="C1" s="436"/>
+      <c r="D1" s="437"/>
+      <c r="E1" s="436"/>
+      <c r="F1" s="436"/>
+      <c r="G1" s="436"/>
+      <c r="H1" s="436"/>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="440" t="s">
+      <c r="C2" s="438" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="441"/>
-      <c r="E2" s="427" t="s">
+      <c r="D2" s="439"/>
+      <c r="E2" s="425" t="s">
         <v>116</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -21550,283 +21679,169 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="C3" s="430" t="s">
-        <v>407</v>
-      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="231"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="4">
-        <v>9</v>
-      </c>
-      <c r="G3" s="50">
-        <v>4500</v>
-      </c>
-      <c r="H3" s="50">
-        <v>13500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+    </row>
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="193" t="s">
-        <v>408</v>
-      </c>
+      <c r="C4" s="193"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="4">
-        <v>4</v>
-      </c>
-      <c r="G4" s="50">
-        <v>1200</v>
-      </c>
-      <c r="H4" s="50">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="4"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+    </row>
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="193" t="s">
-        <v>350</v>
-      </c>
+      <c r="C5" s="193"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="50"/>
-      <c r="H5" s="50">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H5" s="50"/>
+    </row>
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="193" t="s">
-        <v>160</v>
-      </c>
+      <c r="C6" s="193"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="50"/>
-      <c r="H6" s="50">
-        <v>30500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H6" s="50"/>
+    </row>
+    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="193" t="s">
-        <v>160</v>
-      </c>
+      <c r="C7" s="193"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="50"/>
-      <c r="H7" s="50">
-        <v>9500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="50"/>
+    </row>
+    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="193" t="s">
-        <v>409</v>
-      </c>
+      <c r="C8" s="193"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
+      <c r="F8" s="4"/>
       <c r="G8" s="50"/>
-      <c r="H8" s="50">
-        <v>2650</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H8" s="50"/>
+    </row>
+    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="193" t="s">
-        <v>410</v>
-      </c>
+      <c r="C9" s="193"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
+      <c r="F9" s="4"/>
       <c r="G9" s="50"/>
-      <c r="H9" s="50">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H9" s="50"/>
+    </row>
+    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="193" t="s">
-        <v>411</v>
-      </c>
+      <c r="C10" s="193"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
+      <c r="F10" s="4"/>
       <c r="G10" s="50"/>
-      <c r="H10" s="50">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H10" s="50"/>
+    </row>
+    <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="193" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>412</v>
-      </c>
+      <c r="C11" s="193"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
+      <c r="F11" s="4"/>
       <c r="G11" s="50"/>
-      <c r="H11" s="50">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H11" s="50"/>
+    </row>
+    <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="431" t="s">
-        <v>413</v>
-      </c>
-      <c r="D12" s="70" t="s">
-        <v>412</v>
-      </c>
+      <c r="C12" s="429"/>
+      <c r="D12" s="70"/>
       <c r="E12" s="70"/>
-      <c r="F12" s="45">
-        <v>1</v>
-      </c>
+      <c r="F12" s="45"/>
       <c r="G12" s="50"/>
-      <c r="H12" s="50">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H12" s="50"/>
+    </row>
+    <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="431" t="s">
-        <v>197</v>
-      </c>
+      <c r="C13" s="429"/>
       <c r="D13" s="70"/>
-      <c r="E13" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="45">
-        <v>1</v>
-      </c>
+      <c r="E13" s="70"/>
+      <c r="F13" s="45"/>
       <c r="G13" s="50"/>
-      <c r="H13" s="50">
-        <v>21350</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
+      <c r="H13" s="50"/>
+    </row>
+    <row r="14" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="431" t="s">
-        <v>127</v>
-      </c>
+      <c r="C14" s="429"/>
       <c r="D14" s="70"/>
       <c r="E14" s="70"/>
-      <c r="F14" s="45">
-        <v>1</v>
-      </c>
+      <c r="F14" s="45"/>
       <c r="G14" s="50"/>
-      <c r="H14" s="50">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>13</v>
-      </c>
+      <c r="H14" s="223"/>
+    </row>
+    <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="431" t="s">
-        <v>208</v>
-      </c>
-      <c r="D15" s="70" t="s">
-        <v>185</v>
-      </c>
+      <c r="C15" s="429"/>
+      <c r="D15" s="70"/>
       <c r="E15" s="70"/>
-      <c r="F15" s="45">
-        <v>1</v>
-      </c>
+      <c r="F15" s="45"/>
       <c r="G15" s="50"/>
-      <c r="H15" s="50">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>14</v>
-      </c>
+      <c r="H15" s="50"/>
+    </row>
+    <row r="16" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="193" t="s">
-        <v>197</v>
-      </c>
+      <c r="C16" s="193"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="4">
-        <v>1</v>
-      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="4"/>
       <c r="G16" s="50"/>
-      <c r="H16" s="50">
-        <v>6300</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="223"/>
+    </row>
+    <row r="17" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="193"/>
@@ -21834,91 +21849,57 @@
       <c r="E17" s="3"/>
       <c r="F17" s="4"/>
       <c r="G17" s="50"/>
-      <c r="H17" s="223">
-        <f>SUM(H3:H16)</f>
-        <v>151350</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H17" s="223"/>
+    </row>
+    <row r="18" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="193" t="s">
-        <v>192</v>
-      </c>
+      <c r="C18" s="193"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="4">
-        <v>1</v>
-      </c>
+      <c r="F18" s="4"/>
       <c r="G18" s="50"/>
-      <c r="H18" s="50">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H18" s="50"/>
+    </row>
+    <row r="19" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="193" t="s">
-        <v>102</v>
-      </c>
+      <c r="C19" s="193"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="4">
-        <v>1</v>
-      </c>
+      <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="373">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="373"/>
+    </row>
+    <row r="20" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="424" t="s">
-        <v>343</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="E20" s="424"/>
-      <c r="F20" s="425"/>
-      <c r="G20" s="425"/>
-      <c r="H20" s="426">
-        <v>28500</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="423"/>
-      <c r="B21" s="423"/>
-      <c r="C21" s="424" t="s">
-        <v>363</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E21" s="424"/>
-      <c r="F21" s="4">
-        <v>5</v>
-      </c>
-      <c r="G21" s="428">
-        <v>1500</v>
-      </c>
-      <c r="H21" s="428">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="432"/>
-      <c r="B22" s="432"/>
-      <c r="C22" s="432"/>
-      <c r="D22" s="432"/>
-      <c r="E22" s="432"/>
-      <c r="F22" s="433"/>
-      <c r="G22" s="433"/>
-      <c r="H22" s="367">
-        <f>SUM(H17:H21)</f>
-        <v>189550</v>
-      </c>
+      <c r="C20" s="422"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="422"/>
+      <c r="F20" s="423"/>
+      <c r="G20" s="423"/>
+      <c r="H20" s="424"/>
+    </row>
+    <row r="21" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="421"/>
+      <c r="B21" s="421"/>
+      <c r="C21" s="422"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="422"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="426"/>
+      <c r="H21" s="426"/>
+    </row>
+    <row r="22" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="430"/>
+      <c r="B22" s="430"/>
+      <c r="C22" s="430"/>
+      <c r="D22" s="430"/>
+      <c r="E22" s="430"/>
+      <c r="F22" s="431"/>
+      <c r="G22" s="431"/>
+      <c r="H22" s="367"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/GB-3  Sales.xlsx
+++ b/GB-3  Sales.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="18195" windowHeight="10545" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="18195" windowHeight="10545" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sales-2017" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="424">
   <si>
     <t>Oil Filter</t>
   </si>
@@ -1277,13 +1277,28 @@
   </si>
   <si>
     <t>Prado</t>
+  </si>
+  <si>
+    <t>10.8.2018</t>
+  </si>
+  <si>
+    <t>Valvoline 15W40</t>
+  </si>
+  <si>
+    <t>Oil Filter E750H</t>
+  </si>
+  <si>
+    <t>Demio/GB</t>
+  </si>
+  <si>
+    <t>Hijet/GB</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
         <u/>
-        <sz val="14"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -1294,7 +1309,7 @@
     <r>
       <rPr>
         <u/>
-        <sz val="14"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -1312,7 +1327,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1574,7 +1589,7 @@
     </font>
     <font>
       <u/>
-      <sz val="14"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1583,7 +1598,15 @@
     <font>
       <b/>
       <u/>
-      <sz val="14"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1822,7 +1845,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="440">
+  <cellXfs count="448">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2807,9 +2830,6 @@
     <xf numFmtId="164" fontId="34" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2912,19 +2932,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="25" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2943,12 +2972,26 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -11727,8 +11770,8 @@
   <dimension ref="A1:Q298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A282" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L243" sqref="L243"/>
+      <pane ySplit="1" topLeftCell="A258" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J116" sqref="J116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14118,20 +14161,20 @@
         <v>2</v>
       </c>
       <c r="B115" s="4"/>
-      <c r="C115" s="334" t="s">
+      <c r="C115" s="364" t="s">
         <v>296</v>
       </c>
-      <c r="D115" s="323"/>
-      <c r="E115" s="323" t="s">
+      <c r="D115" s="366"/>
+      <c r="E115" s="366" t="s">
         <v>14</v>
       </c>
-      <c r="F115" s="323">
+      <c r="F115" s="366">
         <v>11</v>
       </c>
-      <c r="G115" s="294">
+      <c r="G115" s="295">
         <v>4500</v>
       </c>
-      <c r="H115" s="294">
+      <c r="H115" s="295">
         <v>49500</v>
       </c>
     </row>
@@ -14372,18 +14415,18 @@
         <v>8</v>
       </c>
       <c r="B127" s="4"/>
-      <c r="C127" s="390" t="s">
+      <c r="C127" s="389" t="s">
         <v>299</v>
       </c>
-      <c r="D127" s="391"/>
-      <c r="E127" s="391" t="s">
+      <c r="D127" s="390"/>
+      <c r="E127" s="390" t="s">
         <v>22</v>
       </c>
-      <c r="F127" s="391">
-        <v>1</v>
-      </c>
-      <c r="G127" s="392"/>
-      <c r="H127" s="392">
+      <c r="F127" s="390">
+        <v>1</v>
+      </c>
+      <c r="G127" s="391"/>
+      <c r="H127" s="391">
         <v>20400</v>
       </c>
       <c r="I127" s="101" t="s">
@@ -15238,19 +15281,22 @@
         <v>4</v>
       </c>
       <c r="B171" s="4"/>
-      <c r="C171" s="357" t="s">
+      <c r="C171" s="389" t="s">
         <v>303</v>
       </c>
-      <c r="D171" s="8"/>
-      <c r="E171" s="8"/>
-      <c r="F171" s="8">
+      <c r="D171" s="390"/>
+      <c r="E171" s="390"/>
+      <c r="F171" s="390">
         <v>4</v>
       </c>
-      <c r="G171" s="79">
+      <c r="G171" s="391">
         <v>3150</v>
       </c>
-      <c r="H171" s="79">
+      <c r="H171" s="391">
         <v>12600</v>
+      </c>
+      <c r="I171" s="101" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -15357,7 +15403,7 @@
     <row r="177" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
-      <c r="C177" s="414" t="s">
+      <c r="C177" s="413" t="s">
         <v>189</v>
       </c>
       <c r="D177" s="235" t="s">
@@ -15371,7 +15417,7 @@
       <c r="H177" s="356">
         <v>2650</v>
       </c>
-      <c r="I177" s="420"/>
+      <c r="I177" s="419"/>
     </row>
     <row r="178" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
@@ -15837,7 +15883,7 @@
         <v>9</v>
       </c>
       <c r="B202" s="4"/>
-      <c r="C202" s="389" t="s">
+      <c r="C202" s="388" t="s">
         <v>339</v>
       </c>
       <c r="D202" s="275"/>
@@ -15868,18 +15914,18 @@
     <row r="204" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
-      <c r="C204" s="414" t="s">
+      <c r="C204" s="418" t="s">
         <v>197</v>
       </c>
-      <c r="D204" s="235"/>
-      <c r="E204" s="235" t="s">
+      <c r="D204" s="366"/>
+      <c r="E204" s="366" t="s">
         <v>22</v>
       </c>
-      <c r="F204" s="235">
-        <v>1</v>
-      </c>
-      <c r="G204" s="356"/>
-      <c r="H204" s="356">
+      <c r="F204" s="366">
+        <v>1</v>
+      </c>
+      <c r="G204" s="295"/>
+      <c r="H204" s="295">
         <v>21350</v>
       </c>
     </row>
@@ -15902,19 +15948,22 @@
     <row r="206" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
-      <c r="C206" s="383" t="s">
+      <c r="C206" s="417" t="s">
         <v>338</v>
       </c>
-      <c r="D206" s="8" t="s">
+      <c r="D206" s="390" t="s">
         <v>337</v>
       </c>
-      <c r="E206" s="8"/>
-      <c r="F206" s="8">
+      <c r="E206" s="390"/>
+      <c r="F206" s="390">
         <v>4</v>
       </c>
-      <c r="G206" s="50"/>
-      <c r="H206" s="386" t="s">
+      <c r="G206" s="391"/>
+      <c r="H206" s="427" t="s">
         <v>153</v>
+      </c>
+      <c r="I206" s="101" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
@@ -16267,7 +16316,7 @@
     <row r="226" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
-      <c r="C226" s="387" t="s">
+      <c r="C226" s="386" t="s">
         <v>347</v>
       </c>
       <c r="D226" s="45" t="s">
@@ -16285,7 +16334,7 @@
     <row r="227" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
-      <c r="C227" s="387" t="s">
+      <c r="C227" s="386" t="s">
         <v>192</v>
       </c>
       <c r="D227" s="45" t="s">
@@ -17147,7 +17196,7 @@
     <row r="272" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
-      <c r="C272" s="387"/>
+      <c r="C272" s="386"/>
       <c r="D272" s="45"/>
       <c r="E272" s="45"/>
       <c r="F272" s="45"/>
@@ -17382,14 +17431,14 @@
     <row r="284" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
-      <c r="C284" s="418" t="s">
+      <c r="C284" s="417" t="s">
         <v>276</v>
       </c>
-      <c r="D284" s="391" t="s">
+      <c r="D284" s="390" t="s">
         <v>370</v>
       </c>
-      <c r="E284" s="391"/>
-      <c r="F284" s="391">
+      <c r="E284" s="390"/>
+      <c r="F284" s="390">
         <v>2</v>
       </c>
       <c r="G284" s="377">
@@ -17405,7 +17454,7 @@
     <row r="285" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
-      <c r="C285" s="387" t="s">
+      <c r="C285" s="386" t="s">
         <v>354</v>
       </c>
       <c r="D285" s="45"/>
@@ -17667,8 +17716,8 @@
   </sheetPr>
   <dimension ref="A1:Q298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="L103" sqref="L103"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="K95" sqref="K95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17986,18 +18035,18 @@
         <v>5</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="389" t="s">
+      <c r="C15" s="379" t="s">
         <v>299</v>
       </c>
-      <c r="D15" s="275"/>
-      <c r="E15" s="275" t="s">
+      <c r="D15" s="376"/>
+      <c r="E15" s="376" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="275">
-        <v>1</v>
-      </c>
-      <c r="G15" s="278"/>
-      <c r="H15" s="278">
+      <c r="F15" s="376">
+        <v>1</v>
+      </c>
+      <c r="G15" s="377"/>
+      <c r="H15" s="377">
         <v>20400</v>
       </c>
       <c r="I15" s="336" t="s">
@@ -18096,7 +18145,7 @@
     <row r="20" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="387"/>
+      <c r="C20" s="386"/>
       <c r="D20" s="45"/>
       <c r="E20" s="45"/>
       <c r="F20" s="45"/>
@@ -18109,7 +18158,7 @@
     <row r="21" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="387" t="s">
+      <c r="C21" s="386" t="s">
         <v>321</v>
       </c>
       <c r="D21" s="45"/>
@@ -18346,7 +18395,7 @@
         <v>5</v>
       </c>
       <c r="B35" s="4"/>
-      <c r="C35" s="389" t="s">
+      <c r="C35" s="388" t="s">
         <v>342</v>
       </c>
       <c r="D35" s="275"/>
@@ -18426,7 +18475,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="4"/>
-      <c r="C39" s="389" t="s">
+      <c r="C39" s="388" t="s">
         <v>171</v>
       </c>
       <c r="D39" s="275"/>
@@ -18446,7 +18495,7 @@
         <v>10</v>
       </c>
       <c r="B40" s="4"/>
-      <c r="C40" s="419" t="s">
+      <c r="C40" s="418" t="s">
         <v>135</v>
       </c>
       <c r="D40" s="366"/>
@@ -18466,7 +18515,7 @@
         <v>11</v>
       </c>
       <c r="B41" s="4"/>
-      <c r="C41" s="387" t="s">
+      <c r="C41" s="386" t="s">
         <v>50</v>
       </c>
       <c r="D41" s="45" t="s">
@@ -18486,7 +18535,7 @@
         <v>12</v>
       </c>
       <c r="B42" s="4"/>
-      <c r="C42" s="387" t="s">
+      <c r="C42" s="386" t="s">
         <v>27</v>
       </c>
       <c r="D42" s="45" t="s">
@@ -18504,7 +18553,7 @@
     <row r="43" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
-      <c r="C43" s="387"/>
+      <c r="C43" s="386"/>
       <c r="D43" s="45"/>
       <c r="E43" s="45"/>
       <c r="F43" s="45"/>
@@ -18644,12 +18693,12 @@
     <row r="51" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
-      <c r="C51" s="400"/>
+      <c r="C51" s="399"/>
       <c r="D51" s="235"/>
       <c r="E51" s="235"/>
       <c r="F51" s="235"/>
       <c r="G51" s="356"/>
-      <c r="H51" s="401">
+      <c r="H51" s="400">
         <f>SUM(H49:H50)</f>
         <v>39500</v>
       </c>
@@ -18657,7 +18706,7 @@
     <row r="52" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
-      <c r="C52" s="394" t="s">
+      <c r="C52" s="393" t="s">
         <v>343</v>
       </c>
       <c r="D52" s="83" t="s">
@@ -18673,12 +18722,12 @@
     <row r="53" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
-      <c r="C53" s="393"/>
+      <c r="C53" s="392"/>
       <c r="D53" s="83"/>
       <c r="E53" s="83"/>
       <c r="F53" s="83"/>
       <c r="G53" s="84"/>
-      <c r="H53" s="402">
+      <c r="H53" s="401">
         <f>SUM(H51:H52)</f>
         <v>63500</v>
       </c>
@@ -18715,21 +18764,24 @@
         <v>2</v>
       </c>
       <c r="B55" s="4"/>
-      <c r="C55" s="193" t="s">
+      <c r="C55" s="378" t="s">
         <v>397</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="376" t="s">
         <v>398</v>
       </c>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4">
+      <c r="E55" s="376"/>
+      <c r="F55" s="376">
         <v>8</v>
       </c>
-      <c r="G55" s="50">
+      <c r="G55" s="377">
         <v>3000</v>
       </c>
-      <c r="H55" s="50">
+      <c r="H55" s="377">
         <v>24000</v>
+      </c>
+      <c r="I55" s="101" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18911,7 +18963,7 @@
         <v>5</v>
       </c>
       <c r="B65" s="4"/>
-      <c r="C65" s="389" t="s">
+      <c r="C65" s="388" t="s">
         <v>401</v>
       </c>
       <c r="D65" s="275"/>
@@ -18952,7 +19004,7 @@
         <v>7</v>
       </c>
       <c r="B67" s="4"/>
-      <c r="C67" s="389" t="s">
+      <c r="C67" s="388" t="s">
         <v>403</v>
       </c>
       <c r="D67" s="275"/>
@@ -18973,7 +19025,7 @@
         <v>8</v>
       </c>
       <c r="B68" s="4"/>
-      <c r="C68" s="389" t="s">
+      <c r="C68" s="388" t="s">
         <v>109</v>
       </c>
       <c r="D68" s="275"/>
@@ -19005,7 +19057,7 @@
     <row r="70" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
-      <c r="C70" s="387" t="s">
+      <c r="C70" s="386" t="s">
         <v>354</v>
       </c>
       <c r="D70" s="45"/>
@@ -19021,7 +19073,7 @@
     <row r="71" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
-      <c r="C71" s="387" t="s">
+      <c r="C71" s="386" t="s">
         <v>343</v>
       </c>
       <c r="D71" s="45" t="s">
@@ -19037,7 +19089,7 @@
     <row r="72" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
-      <c r="C72" s="387" t="s">
+      <c r="C72" s="386" t="s">
         <v>405</v>
       </c>
       <c r="D72" s="45" t="s">
@@ -19053,7 +19105,7 @@
     <row r="73" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
-      <c r="C73" s="387"/>
+      <c r="C73" s="386"/>
       <c r="D73" s="45"/>
       <c r="E73" s="45"/>
       <c r="F73" s="45"/>
@@ -19070,7 +19122,7 @@
       <c r="B74" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="C74" s="428" t="s">
+      <c r="C74" s="425" t="s">
         <v>407</v>
       </c>
       <c r="D74" s="3"/>
@@ -19115,19 +19167,22 @@
         <v>3</v>
       </c>
       <c r="B76" s="3"/>
-      <c r="C76" s="193" t="s">
+      <c r="C76" s="378" t="s">
         <v>350</v>
       </c>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3" t="s">
+      <c r="D76" s="428"/>
+      <c r="E76" s="428" t="s">
         <v>14</v>
       </c>
-      <c r="F76" s="4">
-        <v>1</v>
-      </c>
-      <c r="G76" s="50"/>
-      <c r="H76" s="50">
+      <c r="F76" s="376">
+        <v>1</v>
+      </c>
+      <c r="G76" s="377"/>
+      <c r="H76" s="377">
         <v>2000</v>
+      </c>
+      <c r="I76" s="101" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19135,19 +19190,22 @@
         <v>4</v>
       </c>
       <c r="B77" s="3"/>
-      <c r="C77" s="193" t="s">
+      <c r="C77" s="378" t="s">
         <v>160</v>
       </c>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3" t="s">
+      <c r="D77" s="428"/>
+      <c r="E77" s="428" t="s">
         <v>22</v>
       </c>
-      <c r="F77" s="4">
-        <v>1</v>
-      </c>
-      <c r="G77" s="50"/>
-      <c r="H77" s="50">
+      <c r="F77" s="376">
+        <v>1</v>
+      </c>
+      <c r="G77" s="377"/>
+      <c r="H77" s="377">
         <v>30500</v>
+      </c>
+      <c r="I77" s="101" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19155,19 +19213,22 @@
         <v>5</v>
       </c>
       <c r="B78" s="3"/>
-      <c r="C78" s="193" t="s">
+      <c r="C78" s="378" t="s">
         <v>160</v>
       </c>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3" t="s">
+      <c r="D78" s="428"/>
+      <c r="E78" s="428" t="s">
         <v>14</v>
       </c>
-      <c r="F78" s="4">
-        <v>1</v>
-      </c>
-      <c r="G78" s="50"/>
-      <c r="H78" s="50">
+      <c r="F78" s="376">
+        <v>1</v>
+      </c>
+      <c r="G78" s="377"/>
+      <c r="H78" s="377">
         <v>9500</v>
+      </c>
+      <c r="I78" s="101" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19175,17 +19236,20 @@
         <v>6</v>
       </c>
       <c r="B79" s="3"/>
-      <c r="C79" s="193" t="s">
+      <c r="C79" s="378" t="s">
         <v>409</v>
       </c>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="4">
-        <v>1</v>
-      </c>
-      <c r="G79" s="50"/>
-      <c r="H79" s="50">
+      <c r="D79" s="428"/>
+      <c r="E79" s="428"/>
+      <c r="F79" s="376">
+        <v>1</v>
+      </c>
+      <c r="G79" s="377"/>
+      <c r="H79" s="377">
         <v>2650</v>
+      </c>
+      <c r="I79" s="101" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19193,38 +19257,44 @@
         <v>7</v>
       </c>
       <c r="B80" s="3"/>
-      <c r="C80" s="193" t="s">
+      <c r="C80" s="378" t="s">
         <v>410</v>
       </c>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="4">
-        <v>1</v>
-      </c>
-      <c r="G80" s="50"/>
-      <c r="H80" s="50">
+      <c r="D80" s="428"/>
+      <c r="E80" s="428"/>
+      <c r="F80" s="376">
+        <v>1</v>
+      </c>
+      <c r="G80" s="377"/>
+      <c r="H80" s="377">
         <v>3000</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I80" s="101" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>8</v>
       </c>
       <c r="B81" s="3"/>
-      <c r="C81" s="193" t="s">
+      <c r="C81" s="378" t="s">
         <v>411</v>
       </c>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="4">
-        <v>1</v>
-      </c>
-      <c r="G81" s="50"/>
-      <c r="H81" s="50">
+      <c r="D81" s="428"/>
+      <c r="E81" s="428"/>
+      <c r="F81" s="376">
+        <v>1</v>
+      </c>
+      <c r="G81" s="377"/>
+      <c r="H81" s="377">
         <v>5000</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I81" s="101" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>9</v>
       </c>
@@ -19244,12 +19314,12 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>10</v>
       </c>
       <c r="B83" s="3"/>
-      <c r="C83" s="429" t="s">
+      <c r="C83" s="426" t="s">
         <v>413</v>
       </c>
       <c r="D83" s="70" t="s">
@@ -19264,50 +19334,59 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>11</v>
       </c>
       <c r="B84" s="3"/>
-      <c r="C84" s="429" t="s">
+      <c r="C84" s="389" t="s">
         <v>197</v>
       </c>
-      <c r="D84" s="70"/>
-      <c r="E84" s="70" t="s">
+      <c r="D84" s="429"/>
+      <c r="E84" s="429" t="s">
         <v>22</v>
       </c>
-      <c r="F84" s="45">
-        <v>1</v>
-      </c>
-      <c r="G84" s="50"/>
-      <c r="H84" s="50">
+      <c r="F84" s="390">
+        <v>1</v>
+      </c>
+      <c r="G84" s="377"/>
+      <c r="H84" s="377">
         <v>21350</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I84" s="101" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>12</v>
       </c>
       <c r="B85" s="3"/>
-      <c r="C85" s="429" t="s">
+      <c r="C85" s="389" t="s">
         <v>127</v>
       </c>
-      <c r="D85" s="70"/>
-      <c r="E85" s="70"/>
-      <c r="F85" s="45">
-        <v>1</v>
-      </c>
-      <c r="G85" s="50"/>
-      <c r="H85" s="50">
+      <c r="D85" s="429"/>
+      <c r="E85" s="429"/>
+      <c r="F85" s="390">
+        <v>1</v>
+      </c>
+      <c r="G85" s="377"/>
+      <c r="H85" s="377">
         <v>1750</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I85" s="101" t="s">
+        <v>414</v>
+      </c>
+      <c r="N85" s="101" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>13</v>
       </c>
       <c r="B86" s="3"/>
-      <c r="C86" s="429" t="s">
+      <c r="C86" s="426" t="s">
         <v>208</v>
       </c>
       <c r="D86" s="70" t="s">
@@ -19322,27 +19401,30 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>14</v>
       </c>
       <c r="B87" s="3"/>
-      <c r="C87" s="193" t="s">
+      <c r="C87" s="378" t="s">
         <v>197</v>
       </c>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3" t="s">
+      <c r="D87" s="428"/>
+      <c r="E87" s="428" t="s">
         <v>14</v>
       </c>
-      <c r="F87" s="4">
-        <v>1</v>
-      </c>
-      <c r="G87" s="50"/>
-      <c r="H87" s="50">
+      <c r="F87" s="376">
+        <v>1</v>
+      </c>
+      <c r="G87" s="377"/>
+      <c r="H87" s="377">
         <v>6300</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I87" s="101" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="3"/>
       <c r="C88" s="193"/>
@@ -19356,7 +19438,7 @@
       </c>
       <c r="I88" s="341"/>
     </row>
-    <row r="89" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="3"/>
       <c r="C89" s="193" t="s">
@@ -19372,7 +19454,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="3"/>
       <c r="C90" s="193" t="s">
@@ -19388,48 +19470,48 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="3"/>
-      <c r="C91" s="422" t="s">
+      <c r="C91" s="421" t="s">
         <v>343</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="E91" s="422"/>
-      <c r="F91" s="423"/>
-      <c r="G91" s="423"/>
-      <c r="H91" s="424">
+      <c r="E91" s="421"/>
+      <c r="F91" s="422"/>
+      <c r="G91" s="422"/>
+      <c r="H91" s="423">
         <v>28500</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
-      <c r="B92" s="421"/>
-      <c r="C92" s="422" t="s">
+      <c r="B92" s="420"/>
+      <c r="C92" s="421" t="s">
         <v>363</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="E92" s="422"/>
+      <c r="E92" s="421"/>
       <c r="F92" s="4">
         <v>5</v>
       </c>
-      <c r="G92" s="426">
+      <c r="G92" s="424">
         <v>1500</v>
       </c>
-      <c r="H92" s="426">
+      <c r="H92" s="424">
         <v>7500</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
-      <c r="B93" s="421"/>
-      <c r="C93" s="421"/>
-      <c r="D93" s="421"/>
-      <c r="E93" s="421"/>
+      <c r="B93" s="420"/>
+      <c r="C93" s="420"/>
+      <c r="D93" s="420"/>
+      <c r="E93" s="420"/>
       <c r="F93" s="77"/>
       <c r="G93" s="77"/>
       <c r="H93" s="367">
@@ -19437,62 +19519,72 @@
         <v>189550</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>1</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="C94" s="231" t="s">
+      <c r="C94" s="430" t="s">
         <v>341</v>
       </c>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="4">
-        <v>1</v>
-      </c>
-      <c r="G94" s="50"/>
-      <c r="H94" s="50">
+      <c r="D94" s="428"/>
+      <c r="E94" s="428"/>
+      <c r="F94" s="376">
+        <v>1</v>
+      </c>
+      <c r="G94" s="377"/>
+      <c r="H94" s="377">
         <v>3500</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I94" s="101" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>2</v>
       </c>
       <c r="B95" s="3"/>
-      <c r="C95" s="193" t="s">
+      <c r="C95" s="378" t="s">
         <v>415</v>
       </c>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="4">
-        <v>1</v>
-      </c>
-      <c r="G95" s="50"/>
-      <c r="H95" s="50">
+      <c r="D95" s="428"/>
+      <c r="E95" s="428"/>
+      <c r="F95" s="376">
+        <v>1</v>
+      </c>
+      <c r="G95" s="377"/>
+      <c r="H95" s="377">
         <v>3500</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I95" s="101" t="s">
+        <v>418</v>
+      </c>
+      <c r="K95" s="431"/>
+    </row>
+    <row r="96" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>3</v>
       </c>
       <c r="B96" s="3"/>
-      <c r="C96" s="193" t="s">
+      <c r="C96" s="378" t="s">
         <v>299</v>
       </c>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3" t="s">
+      <c r="D96" s="428"/>
+      <c r="E96" s="428" t="s">
         <v>22</v>
       </c>
-      <c r="F96" s="4">
-        <v>1</v>
-      </c>
-      <c r="G96" s="50"/>
-      <c r="H96" s="50">
+      <c r="F96" s="376">
+        <v>1</v>
+      </c>
+      <c r="G96" s="377"/>
+      <c r="H96" s="377">
         <v>20400</v>
+      </c>
+      <c r="I96" s="101" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19500,19 +19592,22 @@
         <v>4</v>
       </c>
       <c r="B97" s="3"/>
-      <c r="C97" s="193" t="s">
+      <c r="C97" s="378" t="s">
         <v>127</v>
       </c>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="4">
+      <c r="D97" s="428"/>
+      <c r="E97" s="428"/>
+      <c r="F97" s="376">
         <v>3</v>
       </c>
-      <c r="G97" s="50">
+      <c r="G97" s="377">
         <v>1750</v>
       </c>
-      <c r="H97" s="50">
+      <c r="H97" s="377">
         <v>5250</v>
+      </c>
+      <c r="I97" s="101" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19540,19 +19635,22 @@
         <v>6</v>
       </c>
       <c r="B99" s="3"/>
-      <c r="C99" s="193" t="s">
+      <c r="C99" s="378" t="s">
         <v>160</v>
       </c>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3" t="s">
+      <c r="D99" s="428"/>
+      <c r="E99" s="428" t="s">
         <v>22</v>
       </c>
-      <c r="F99" s="4">
-        <v>1</v>
-      </c>
-      <c r="G99" s="50"/>
-      <c r="H99" s="50">
+      <c r="F99" s="376">
+        <v>1</v>
+      </c>
+      <c r="G99" s="377"/>
+      <c r="H99" s="377">
         <v>30500</v>
+      </c>
+      <c r="I99" s="101" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="100" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19622,7 +19720,7 @@
         <v>10</v>
       </c>
       <c r="B103" s="3"/>
-      <c r="C103" s="429" t="s">
+      <c r="C103" s="426" t="s">
         <v>27</v>
       </c>
       <c r="D103" s="70" t="s">
@@ -19642,23 +19740,26 @@
         <v>11</v>
       </c>
       <c r="B104" s="3"/>
-      <c r="C104" s="429" t="s">
+      <c r="C104" s="389" t="s">
         <v>109</v>
       </c>
-      <c r="D104" s="70"/>
-      <c r="E104" s="70"/>
-      <c r="F104" s="45">
-        <v>1</v>
-      </c>
-      <c r="G104" s="50"/>
-      <c r="H104" s="50">
+      <c r="D104" s="429"/>
+      <c r="E104" s="429"/>
+      <c r="F104" s="390">
+        <v>1</v>
+      </c>
+      <c r="G104" s="377"/>
+      <c r="H104" s="377">
         <v>3500</v>
+      </c>
+      <c r="I104" s="101" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
-      <c r="C105" s="429"/>
+      <c r="C105" s="426"/>
       <c r="D105" s="70"/>
       <c r="E105" s="70"/>
       <c r="F105" s="45"/>
@@ -19671,7 +19772,7 @@
     <row r="106" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
-      <c r="C106" s="429" t="s">
+      <c r="C106" s="426" t="s">
         <v>343</v>
       </c>
       <c r="D106" s="70" t="s">
@@ -19703,7 +19804,7 @@
     <row r="108" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
-      <c r="C108" s="393"/>
+      <c r="C108" s="392"/>
       <c r="D108" s="83"/>
       <c r="E108" s="83"/>
       <c r="F108" s="83"/>
@@ -19714,7 +19815,7 @@
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="192"/>
-      <c r="D109" s="403"/>
+      <c r="D109" s="402"/>
       <c r="E109" s="83"/>
       <c r="F109" s="83"/>
       <c r="G109" s="84"/>
@@ -19733,7 +19834,7 @@
     <row r="111" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
-      <c r="C111" s="393"/>
+      <c r="C111" s="392"/>
       <c r="D111" s="83"/>
       <c r="E111" s="83"/>
       <c r="F111" s="83"/>
@@ -19743,7 +19844,7 @@
     <row r="112" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
-      <c r="C112" s="393"/>
+      <c r="C112" s="392"/>
       <c r="D112" s="83"/>
       <c r="E112" s="83"/>
       <c r="F112" s="83"/>
@@ -19753,17 +19854,17 @@
     <row r="113" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
-      <c r="C113" s="393"/>
+      <c r="C113" s="392"/>
       <c r="D113" s="83"/>
       <c r="E113" s="83"/>
       <c r="F113" s="83"/>
       <c r="G113" s="84"/>
-      <c r="H113" s="402"/>
+      <c r="H113" s="401"/>
     </row>
     <row r="114" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
-      <c r="C114" s="400"/>
+      <c r="C114" s="399"/>
       <c r="D114" s="235"/>
       <c r="E114" s="235"/>
       <c r="F114" s="235"/>
@@ -19773,7 +19874,7 @@
     <row r="115" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
-      <c r="C115" s="400"/>
+      <c r="C115" s="399"/>
       <c r="D115" s="235"/>
       <c r="E115" s="235"/>
       <c r="F115" s="235"/>
@@ -19803,7 +19904,7 @@
     <row r="118" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
-      <c r="C118" s="393"/>
+      <c r="C118" s="392"/>
       <c r="D118" s="83"/>
       <c r="E118" s="83"/>
       <c r="F118" s="83"/>
@@ -19813,17 +19914,17 @@
     <row r="119" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
-      <c r="C119" s="393"/>
+      <c r="C119" s="392"/>
       <c r="D119" s="83"/>
       <c r="E119" s="83"/>
       <c r="F119" s="83"/>
       <c r="G119" s="84"/>
-      <c r="H119" s="402"/>
+      <c r="H119" s="401"/>
     </row>
     <row r="120" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
-      <c r="C120" s="400"/>
+      <c r="C120" s="399"/>
       <c r="D120" s="235"/>
       <c r="E120" s="235"/>
       <c r="F120" s="235"/>
@@ -19833,7 +19934,7 @@
     <row r="121" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
-      <c r="C121" s="393"/>
+      <c r="C121" s="392"/>
       <c r="D121" s="83"/>
       <c r="E121" s="83"/>
       <c r="F121" s="83"/>
@@ -19863,7 +19964,7 @@
     <row r="124" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
-      <c r="C124" s="393"/>
+      <c r="C124" s="392"/>
       <c r="D124" s="83"/>
       <c r="E124" s="83"/>
       <c r="F124" s="83"/>
@@ -19873,7 +19974,7 @@
     <row r="125" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
-      <c r="C125" s="393"/>
+      <c r="C125" s="392"/>
       <c r="D125" s="83"/>
       <c r="E125" s="83"/>
       <c r="F125" s="83"/>
@@ -19893,17 +19994,17 @@
     <row r="127" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
-      <c r="C127" s="404"/>
-      <c r="D127" s="396"/>
-      <c r="E127" s="396"/>
-      <c r="F127" s="396"/>
-      <c r="G127" s="397"/>
-      <c r="H127" s="397"/>
+      <c r="C127" s="403"/>
+      <c r="D127" s="395"/>
+      <c r="E127" s="395"/>
+      <c r="F127" s="395"/>
+      <c r="G127" s="396"/>
+      <c r="H127" s="396"/>
     </row>
     <row r="128" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
-      <c r="C128" s="393"/>
+      <c r="C128" s="392"/>
       <c r="D128" s="83"/>
       <c r="E128" s="83"/>
       <c r="F128" s="83"/>
@@ -19913,11 +20014,11 @@
     <row r="129" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="255"/>
       <c r="B129" s="255"/>
-      <c r="C129" s="405"/>
-      <c r="D129" s="398"/>
-      <c r="E129" s="398"/>
-      <c r="F129" s="398"/>
-      <c r="G129" s="398"/>
+      <c r="C129" s="404"/>
+      <c r="D129" s="397"/>
+      <c r="E129" s="397"/>
+      <c r="F129" s="397"/>
+      <c r="G129" s="397"/>
       <c r="H129" s="84"/>
     </row>
     <row r="130" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19925,10 +20026,10 @@
       <c r="B130" s="255"/>
       <c r="C130" s="235"/>
       <c r="D130" s="235"/>
-      <c r="E130" s="406"/>
+      <c r="E130" s="405"/>
       <c r="F130" s="235"/>
       <c r="G130" s="235"/>
-      <c r="H130" s="407"/>
+      <c r="H130" s="406"/>
     </row>
     <row r="131" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
@@ -19948,12 +20049,12 @@
       <c r="E132" s="235"/>
       <c r="F132" s="235"/>
       <c r="G132" s="235"/>
-      <c r="H132" s="408"/>
+      <c r="H132" s="407"/>
     </row>
     <row r="133" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
-      <c r="C133" s="393"/>
+      <c r="C133" s="392"/>
       <c r="D133" s="83"/>
       <c r="E133" s="83"/>
       <c r="F133" s="83"/>
@@ -19963,7 +20064,7 @@
     <row r="134" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
-      <c r="C134" s="393"/>
+      <c r="C134" s="392"/>
       <c r="D134" s="83"/>
       <c r="E134" s="83"/>
       <c r="F134" s="83"/>
@@ -19993,7 +20094,7 @@
     <row r="137" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
-      <c r="C137" s="393"/>
+      <c r="C137" s="392"/>
       <c r="D137" s="83"/>
       <c r="E137" s="83"/>
       <c r="F137" s="83"/>
@@ -20003,7 +20104,7 @@
     <row r="138" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
-      <c r="C138" s="394"/>
+      <c r="C138" s="393"/>
       <c r="D138" s="83"/>
       <c r="E138" s="83"/>
       <c r="F138" s="83"/>
@@ -20033,7 +20134,7 @@
     <row r="141" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
-      <c r="C141" s="409"/>
+      <c r="C141" s="408"/>
       <c r="D141" s="83"/>
       <c r="E141" s="83"/>
       <c r="F141" s="83"/>
@@ -20045,7 +20146,7 @@
       <c r="B142" s="255"/>
       <c r="C142" s="192"/>
       <c r="D142" s="83"/>
-      <c r="E142" s="398"/>
+      <c r="E142" s="397"/>
       <c r="F142" s="83"/>
       <c r="G142" s="84"/>
       <c r="H142" s="84"/>
@@ -20055,15 +20156,15 @@
       <c r="B143" s="255"/>
       <c r="C143" s="235"/>
       <c r="D143" s="235"/>
-      <c r="E143" s="406"/>
+      <c r="E143" s="405"/>
       <c r="F143" s="235"/>
       <c r="G143" s="235"/>
-      <c r="H143" s="410"/>
+      <c r="H143" s="409"/>
     </row>
     <row r="144" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
-      <c r="C144" s="393"/>
+      <c r="C144" s="392"/>
       <c r="D144" s="83"/>
       <c r="E144" s="83"/>
       <c r="F144" s="83"/>
@@ -20073,7 +20174,7 @@
     <row r="145" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
-      <c r="C145" s="393"/>
+      <c r="C145" s="392"/>
       <c r="D145" s="83"/>
       <c r="E145" s="83"/>
       <c r="F145" s="83"/>
@@ -20083,7 +20184,7 @@
     <row r="146" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
-      <c r="C146" s="394"/>
+      <c r="C146" s="393"/>
       <c r="D146" s="83"/>
       <c r="E146" s="83"/>
       <c r="F146" s="83"/>
@@ -20103,17 +20204,17 @@
     <row r="148" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
-      <c r="C148" s="393"/>
+      <c r="C148" s="392"/>
       <c r="D148" s="83"/>
       <c r="E148" s="83"/>
       <c r="F148" s="83"/>
       <c r="G148" s="84"/>
-      <c r="H148" s="402"/>
+      <c r="H148" s="401"/>
     </row>
     <row r="149" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
-      <c r="C149" s="393"/>
+      <c r="C149" s="392"/>
       <c r="D149" s="83"/>
       <c r="E149" s="83"/>
       <c r="F149" s="83"/>
@@ -20123,7 +20224,7 @@
     <row r="150" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
-      <c r="C150" s="393"/>
+      <c r="C150" s="392"/>
       <c r="D150" s="83"/>
       <c r="E150" s="83"/>
       <c r="F150" s="83"/>
@@ -20153,17 +20254,17 @@
     <row r="153" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
-      <c r="C153" s="393"/>
+      <c r="C153" s="392"/>
       <c r="D153" s="83"/>
       <c r="E153" s="83"/>
       <c r="F153" s="83"/>
       <c r="G153" s="84"/>
-      <c r="H153" s="402"/>
+      <c r="H153" s="401"/>
     </row>
     <row r="154" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
-      <c r="C154" s="393"/>
+      <c r="C154" s="392"/>
       <c r="D154" s="83"/>
       <c r="E154" s="83"/>
       <c r="F154" s="83"/>
@@ -20173,7 +20274,7 @@
     <row r="155" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
-      <c r="C155" s="393"/>
+      <c r="C155" s="392"/>
       <c r="D155" s="83"/>
       <c r="E155" s="83"/>
       <c r="F155" s="83"/>
@@ -20203,7 +20304,7 @@
     <row r="158" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
-      <c r="C158" s="393"/>
+      <c r="C158" s="392"/>
       <c r="D158" s="83"/>
       <c r="E158" s="83"/>
       <c r="F158" s="83"/>
@@ -20213,7 +20314,7 @@
     <row r="159" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
-      <c r="C159" s="388"/>
+      <c r="C159" s="387"/>
       <c r="D159" s="83"/>
       <c r="E159" s="83"/>
       <c r="F159" s="83"/>
@@ -20223,7 +20324,7 @@
     <row r="160" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
-      <c r="C160" s="388"/>
+      <c r="C160" s="387"/>
       <c r="D160" s="83"/>
       <c r="E160" s="83"/>
       <c r="F160" s="83"/>
@@ -20243,7 +20344,7 @@
     <row r="162" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
-      <c r="C162" s="393"/>
+      <c r="C162" s="392"/>
       <c r="D162" s="83"/>
       <c r="E162" s="83"/>
       <c r="F162" s="83"/>
@@ -20255,27 +20356,27 @@
       <c r="B163" s="255"/>
       <c r="C163" s="192"/>
       <c r="D163" s="83"/>
-      <c r="E163" s="398"/>
+      <c r="E163" s="397"/>
       <c r="F163" s="83"/>
       <c r="G163" s="84"/>
-      <c r="H163" s="402"/>
+      <c r="H163" s="401"/>
     </row>
     <row r="164" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4"/>
       <c r="B164" s="255"/>
-      <c r="C164" s="395"/>
+      <c r="C164" s="394"/>
       <c r="D164" s="235"/>
-      <c r="E164" s="406"/>
-      <c r="F164" s="396"/>
-      <c r="G164" s="397"/>
-      <c r="H164" s="411"/>
+      <c r="E164" s="405"/>
+      <c r="F164" s="395"/>
+      <c r="G164" s="396"/>
+      <c r="H164" s="410"/>
     </row>
     <row r="165" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
       <c r="B165" s="255"/>
       <c r="C165" s="192"/>
       <c r="D165" s="83"/>
-      <c r="E165" s="398"/>
+      <c r="E165" s="397"/>
       <c r="F165" s="83"/>
       <c r="G165" s="84"/>
       <c r="H165" s="84"/>
@@ -20284,26 +20385,26 @@
       <c r="A166" s="255"/>
       <c r="B166" s="255"/>
       <c r="C166" s="192"/>
-      <c r="D166" s="398"/>
-      <c r="E166" s="398"/>
+      <c r="D166" s="397"/>
+      <c r="E166" s="397"/>
       <c r="F166" s="83"/>
-      <c r="G166" s="398"/>
+      <c r="G166" s="397"/>
       <c r="H166" s="85"/>
     </row>
     <row r="167" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="255"/>
       <c r="B167" s="255"/>
-      <c r="C167" s="398"/>
-      <c r="D167" s="398"/>
-      <c r="E167" s="398"/>
-      <c r="F167" s="398"/>
-      <c r="G167" s="398"/>
-      <c r="H167" s="412"/>
+      <c r="C167" s="397"/>
+      <c r="D167" s="397"/>
+      <c r="E167" s="397"/>
+      <c r="F167" s="397"/>
+      <c r="G167" s="397"/>
+      <c r="H167" s="411"/>
     </row>
     <row r="168" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
-      <c r="C168" s="393"/>
+      <c r="C168" s="392"/>
       <c r="D168" s="83"/>
       <c r="E168" s="83"/>
       <c r="F168" s="83"/>
@@ -20313,7 +20414,7 @@
     <row r="169" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
-      <c r="C169" s="393"/>
+      <c r="C169" s="392"/>
       <c r="D169" s="83"/>
       <c r="E169" s="83"/>
       <c r="F169" s="83"/>
@@ -20343,7 +20444,7 @@
     <row r="172" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
-      <c r="C172" s="393"/>
+      <c r="C172" s="392"/>
       <c r="D172" s="83"/>
       <c r="E172" s="83"/>
       <c r="F172" s="83"/>
@@ -20353,7 +20454,7 @@
     <row r="173" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
-      <c r="C173" s="388"/>
+      <c r="C173" s="387"/>
       <c r="D173" s="83"/>
       <c r="E173" s="83"/>
       <c r="F173" s="83"/>
@@ -20363,7 +20464,7 @@
     <row r="174" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
-      <c r="C174" s="388"/>
+      <c r="C174" s="387"/>
       <c r="D174" s="83"/>
       <c r="E174" s="83"/>
       <c r="F174" s="83"/>
@@ -20373,7 +20474,7 @@
     <row r="175" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
-      <c r="C175" s="388"/>
+      <c r="C175" s="387"/>
       <c r="D175" s="83"/>
       <c r="E175" s="83"/>
       <c r="F175" s="83"/>
@@ -20383,17 +20484,17 @@
     <row r="176" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
-      <c r="C176" s="388"/>
+      <c r="C176" s="387"/>
       <c r="D176" s="83"/>
       <c r="E176" s="83"/>
       <c r="F176" s="83"/>
       <c r="G176" s="84"/>
-      <c r="H176" s="402"/>
+      <c r="H176" s="401"/>
     </row>
     <row r="177" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
-      <c r="C177" s="388"/>
+      <c r="C177" s="387"/>
       <c r="D177" s="83"/>
       <c r="E177" s="83"/>
       <c r="F177" s="83"/>
@@ -20403,7 +20504,7 @@
     <row r="178" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
-      <c r="C178" s="388"/>
+      <c r="C178" s="387"/>
       <c r="D178" s="83"/>
       <c r="E178" s="83"/>
       <c r="F178" s="83"/>
@@ -20413,7 +20514,7 @@
     <row r="179" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
-      <c r="C179" s="388"/>
+      <c r="C179" s="387"/>
       <c r="D179" s="83"/>
       <c r="E179" s="83"/>
       <c r="F179" s="83"/>
@@ -20423,7 +20524,7 @@
     <row r="180" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
-      <c r="C180" s="388"/>
+      <c r="C180" s="387"/>
       <c r="D180" s="83"/>
       <c r="E180" s="83"/>
       <c r="F180" s="83"/>
@@ -20433,12 +20534,12 @@
     <row r="181" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
-      <c r="C181" s="388"/>
+      <c r="C181" s="387"/>
       <c r="D181" s="83"/>
       <c r="E181" s="83"/>
       <c r="F181" s="83"/>
       <c r="G181" s="84"/>
-      <c r="H181" s="402"/>
+      <c r="H181" s="401"/>
     </row>
     <row r="182" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4"/>
@@ -20453,7 +20554,7 @@
     <row r="183" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
-      <c r="C183" s="393"/>
+      <c r="C183" s="392"/>
       <c r="D183" s="83"/>
       <c r="E183" s="83"/>
       <c r="F183" s="83"/>
@@ -20463,7 +20564,7 @@
     <row r="184" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="9"/>
       <c r="B184" s="9"/>
-      <c r="C184" s="399"/>
+      <c r="C184" s="398"/>
       <c r="D184" s="118"/>
       <c r="E184" s="118"/>
       <c r="F184" s="118"/>
@@ -20473,7 +20574,7 @@
     <row r="185" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
-      <c r="C185" s="393"/>
+      <c r="C185" s="392"/>
       <c r="D185" s="83"/>
       <c r="E185" s="83"/>
       <c r="F185" s="83"/>
@@ -20523,17 +20624,17 @@
     <row r="190" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
-      <c r="C190" s="393"/>
+      <c r="C190" s="392"/>
       <c r="D190" s="83"/>
       <c r="E190" s="83"/>
       <c r="F190" s="83"/>
       <c r="G190" s="84"/>
-      <c r="H190" s="413"/>
+      <c r="H190" s="412"/>
     </row>
     <row r="191" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
-      <c r="C191" s="388"/>
+      <c r="C191" s="387"/>
       <c r="D191" s="83"/>
       <c r="E191" s="83"/>
       <c r="F191" s="83"/>
@@ -20543,7 +20644,7 @@
     <row r="192" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
-      <c r="C192" s="388"/>
+      <c r="C192" s="387"/>
       <c r="D192" s="83"/>
       <c r="E192" s="83"/>
       <c r="F192" s="83"/>
@@ -20553,17 +20654,17 @@
     <row r="193" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
-      <c r="C193" s="388"/>
+      <c r="C193" s="387"/>
       <c r="D193" s="83"/>
       <c r="E193" s="83"/>
       <c r="F193" s="83"/>
       <c r="G193" s="84"/>
-      <c r="H193" s="413"/>
+      <c r="H193" s="412"/>
     </row>
     <row r="194" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
-      <c r="C194" s="393"/>
+      <c r="C194" s="392"/>
       <c r="D194" s="83"/>
       <c r="E194" s="83"/>
       <c r="F194" s="83"/>
@@ -20573,7 +20674,7 @@
     <row r="195" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
-      <c r="C195" s="393"/>
+      <c r="C195" s="392"/>
       <c r="D195" s="83"/>
       <c r="E195" s="83"/>
       <c r="F195" s="83"/>
@@ -20623,7 +20724,7 @@
     <row r="200" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
-      <c r="C200" s="393"/>
+      <c r="C200" s="392"/>
       <c r="D200" s="83"/>
       <c r="E200" s="83"/>
       <c r="F200" s="83"/>
@@ -20633,7 +20734,7 @@
     <row r="201" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
-      <c r="C201" s="388"/>
+      <c r="C201" s="387"/>
       <c r="D201" s="83"/>
       <c r="E201" s="83"/>
       <c r="F201" s="83"/>
@@ -20643,7 +20744,7 @@
     <row r="202" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
-      <c r="C202" s="388"/>
+      <c r="C202" s="387"/>
       <c r="D202" s="83"/>
       <c r="E202" s="83"/>
       <c r="F202" s="83"/>
@@ -20653,17 +20754,17 @@
     <row r="203" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
-      <c r="C203" s="388"/>
+      <c r="C203" s="387"/>
       <c r="D203" s="83"/>
       <c r="E203" s="83"/>
       <c r="F203" s="83"/>
       <c r="G203" s="84"/>
-      <c r="H203" s="402"/>
+      <c r="H203" s="401"/>
     </row>
     <row r="204" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
-      <c r="C204" s="388"/>
+      <c r="C204" s="387"/>
       <c r="D204" s="83"/>
       <c r="E204" s="83"/>
       <c r="F204" s="83"/>
@@ -20673,7 +20774,7 @@
     <row r="205" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
-      <c r="C205" s="388"/>
+      <c r="C205" s="387"/>
       <c r="D205" s="83"/>
       <c r="E205" s="83"/>
       <c r="F205" s="83"/>
@@ -20683,12 +20784,12 @@
     <row r="206" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
-      <c r="C206" s="414"/>
+      <c r="C206" s="413"/>
       <c r="D206" s="235"/>
       <c r="E206" s="235"/>
       <c r="F206" s="235"/>
       <c r="G206" s="84"/>
-      <c r="H206" s="415"/>
+      <c r="H206" s="414"/>
     </row>
     <row r="207" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="23"/>
@@ -20698,12 +20799,12 @@
       <c r="E207" s="95"/>
       <c r="F207" s="95"/>
       <c r="G207" s="95"/>
-      <c r="H207" s="416"/>
+      <c r="H207" s="415"/>
     </row>
     <row r="208" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
-      <c r="C208" s="393"/>
+      <c r="C208" s="392"/>
       <c r="D208" s="83"/>
       <c r="E208" s="83"/>
       <c r="F208" s="83"/>
@@ -20713,7 +20814,7 @@
     <row r="209" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
-      <c r="C209" s="393"/>
+      <c r="C209" s="392"/>
       <c r="D209" s="83"/>
       <c r="E209" s="83"/>
       <c r="F209" s="83"/>
@@ -20758,12 +20859,12 @@
       <c r="E213" s="83"/>
       <c r="F213" s="83"/>
       <c r="G213" s="84"/>
-      <c r="H213" s="402"/>
+      <c r="H213" s="401"/>
     </row>
     <row r="214" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
-      <c r="C214" s="393"/>
+      <c r="C214" s="392"/>
       <c r="D214" s="83"/>
       <c r="E214" s="83"/>
       <c r="F214" s="83"/>
@@ -20773,7 +20874,7 @@
     <row r="215" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
-      <c r="C215" s="393"/>
+      <c r="C215" s="392"/>
       <c r="D215" s="83"/>
       <c r="E215" s="83"/>
       <c r="F215" s="83"/>
@@ -20823,7 +20924,7 @@
     <row r="220" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
-      <c r="C220" s="393"/>
+      <c r="C220" s="392"/>
       <c r="D220" s="83"/>
       <c r="E220" s="83"/>
       <c r="F220" s="83"/>
@@ -20833,7 +20934,7 @@
     <row r="221" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
-      <c r="C221" s="388"/>
+      <c r="C221" s="387"/>
       <c r="D221" s="83"/>
       <c r="E221" s="83"/>
       <c r="F221" s="83"/>
@@ -20843,7 +20944,7 @@
     <row r="222" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
-      <c r="C222" s="388"/>
+      <c r="C222" s="387"/>
       <c r="D222" s="83"/>
       <c r="E222" s="83"/>
       <c r="F222" s="83"/>
@@ -20853,17 +20954,17 @@
     <row r="223" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
-      <c r="C223" s="388"/>
+      <c r="C223" s="387"/>
       <c r="D223" s="83"/>
       <c r="E223" s="83"/>
       <c r="F223" s="83"/>
       <c r="G223" s="84"/>
-      <c r="H223" s="402"/>
+      <c r="H223" s="401"/>
     </row>
     <row r="224" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
-      <c r="C224" s="388"/>
+      <c r="C224" s="387"/>
       <c r="D224" s="83"/>
       <c r="E224" s="83"/>
       <c r="F224" s="83"/>
@@ -20873,7 +20974,7 @@
     <row r="225" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
-      <c r="C225" s="388"/>
+      <c r="C225" s="387"/>
       <c r="D225" s="83"/>
       <c r="E225" s="83"/>
       <c r="F225" s="83"/>
@@ -20883,20 +20984,20 @@
     <row r="226" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
-      <c r="C226" s="417"/>
-      <c r="D226" s="396"/>
-      <c r="E226" s="396"/>
-      <c r="F226" s="396"/>
+      <c r="C226" s="416"/>
+      <c r="D226" s="395"/>
+      <c r="E226" s="395"/>
+      <c r="F226" s="395"/>
       <c r="G226" s="84"/>
       <c r="H226" s="84"/>
     </row>
     <row r="227" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
-      <c r="C227" s="417"/>
-      <c r="D227" s="396"/>
-      <c r="E227" s="396"/>
-      <c r="F227" s="396"/>
+      <c r="C227" s="416"/>
+      <c r="D227" s="395"/>
+      <c r="E227" s="395"/>
+      <c r="F227" s="395"/>
       <c r="G227" s="84"/>
       <c r="H227" s="84"/>
     </row>
@@ -20908,12 +21009,12 @@
       <c r="E228" s="83"/>
       <c r="F228" s="83"/>
       <c r="G228" s="84"/>
-      <c r="H228" s="402"/>
+      <c r="H228" s="401"/>
     </row>
     <row r="229" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
-      <c r="C229" s="393"/>
+      <c r="C229" s="392"/>
       <c r="D229" s="83"/>
       <c r="E229" s="83"/>
       <c r="F229" s="83"/>
@@ -20923,7 +21024,7 @@
     <row r="230" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
-      <c r="C230" s="393"/>
+      <c r="C230" s="392"/>
       <c r="D230" s="83"/>
       <c r="E230" s="83"/>
       <c r="F230" s="83"/>
@@ -20973,17 +21074,17 @@
     <row r="235" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
-      <c r="C235" s="393"/>
+      <c r="C235" s="392"/>
       <c r="D235" s="83"/>
       <c r="E235" s="83"/>
       <c r="F235" s="83"/>
       <c r="G235" s="84"/>
-      <c r="H235" s="402"/>
+      <c r="H235" s="401"/>
     </row>
     <row r="236" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
-      <c r="C236" s="388"/>
+      <c r="C236" s="387"/>
       <c r="D236" s="83"/>
       <c r="E236" s="83"/>
       <c r="F236" s="83"/>
@@ -20993,7 +21094,7 @@
     <row r="237" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
-      <c r="C237" s="388"/>
+      <c r="C237" s="387"/>
       <c r="D237" s="83"/>
       <c r="E237" s="83"/>
       <c r="F237" s="83"/>
@@ -21003,17 +21104,17 @@
     <row r="238" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
-      <c r="C238" s="388"/>
+      <c r="C238" s="387"/>
       <c r="D238" s="83"/>
       <c r="E238" s="83"/>
       <c r="F238" s="83"/>
       <c r="G238" s="84"/>
-      <c r="H238" s="402"/>
+      <c r="H238" s="401"/>
     </row>
     <row r="239" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
-      <c r="C239" s="393"/>
+      <c r="C239" s="392"/>
       <c r="D239" s="83"/>
       <c r="E239" s="83"/>
       <c r="F239" s="83"/>
@@ -21023,7 +21124,7 @@
     <row r="240" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
-      <c r="C240" s="393"/>
+      <c r="C240" s="392"/>
       <c r="D240" s="83"/>
       <c r="E240" s="83"/>
       <c r="F240" s="83"/>
@@ -21048,12 +21149,12 @@
       <c r="E242" s="83"/>
       <c r="F242" s="83"/>
       <c r="G242" s="84"/>
-      <c r="H242" s="402"/>
+      <c r="H242" s="401"/>
     </row>
     <row r="243" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
-      <c r="C243" s="393"/>
+      <c r="C243" s="392"/>
       <c r="D243" s="83"/>
       <c r="E243" s="83"/>
       <c r="F243" s="83"/>
@@ -21063,7 +21164,7 @@
     <row r="244" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
-      <c r="C244" s="393"/>
+      <c r="C244" s="392"/>
       <c r="D244" s="83"/>
       <c r="E244" s="83"/>
       <c r="F244" s="83"/>
@@ -21113,7 +21214,7 @@
     <row r="249" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
-      <c r="C249" s="393"/>
+      <c r="C249" s="392"/>
       <c r="D249" s="83"/>
       <c r="E249" s="83"/>
       <c r="F249" s="83"/>
@@ -21123,17 +21224,17 @@
     <row r="250" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
-      <c r="C250" s="388"/>
+      <c r="C250" s="387"/>
       <c r="D250" s="83"/>
       <c r="E250" s="83"/>
       <c r="F250" s="83"/>
       <c r="G250" s="84"/>
-      <c r="H250" s="402"/>
+      <c r="H250" s="401"/>
     </row>
     <row r="251" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
-      <c r="C251" s="388"/>
+      <c r="C251" s="387"/>
       <c r="D251" s="83"/>
       <c r="E251" s="83"/>
       <c r="F251" s="83"/>
@@ -21143,7 +21244,7 @@
     <row r="252" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
-      <c r="C252" s="388"/>
+      <c r="C252" s="387"/>
       <c r="D252" s="83"/>
       <c r="E252" s="83"/>
       <c r="F252" s="83"/>
@@ -21153,17 +21254,17 @@
     <row r="253" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
-      <c r="C253" s="388"/>
+      <c r="C253" s="387"/>
       <c r="D253" s="83"/>
       <c r="E253" s="83"/>
       <c r="F253" s="83"/>
       <c r="G253" s="84"/>
-      <c r="H253" s="402"/>
+      <c r="H253" s="401"/>
     </row>
     <row r="254" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
-      <c r="C254" s="393"/>
+      <c r="C254" s="392"/>
       <c r="D254" s="83"/>
       <c r="E254" s="83"/>
       <c r="F254" s="83"/>
@@ -21173,7 +21274,7 @@
     <row r="255" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
-      <c r="C255" s="393"/>
+      <c r="C255" s="392"/>
       <c r="D255" s="83"/>
       <c r="E255" s="83"/>
       <c r="F255" s="83"/>
@@ -21198,7 +21299,7 @@
       <c r="E257" s="83"/>
       <c r="F257" s="83"/>
       <c r="G257" s="84"/>
-      <c r="H257" s="401"/>
+      <c r="H257" s="400"/>
     </row>
     <row r="258" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="4"/>
@@ -21218,12 +21319,12 @@
       <c r="E259" s="83"/>
       <c r="F259" s="83"/>
       <c r="G259" s="84"/>
-      <c r="H259" s="401"/>
+      <c r="H259" s="400"/>
     </row>
     <row r="260" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
-      <c r="C260" s="393"/>
+      <c r="C260" s="392"/>
       <c r="D260" s="83"/>
       <c r="E260" s="83"/>
       <c r="F260" s="83"/>
@@ -21233,7 +21334,7 @@
     <row r="261" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
-      <c r="C261" s="393"/>
+      <c r="C261" s="392"/>
       <c r="D261" s="83"/>
       <c r="E261" s="83"/>
       <c r="F261" s="83"/>
@@ -21283,7 +21384,7 @@
     <row r="266" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
-      <c r="C266" s="393"/>
+      <c r="C266" s="392"/>
       <c r="D266" s="83"/>
       <c r="E266" s="83"/>
       <c r="F266" s="83"/>
@@ -21293,17 +21394,17 @@
     <row r="267" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
-      <c r="C267" s="388"/>
+      <c r="C267" s="387"/>
       <c r="D267" s="83"/>
       <c r="E267" s="83"/>
       <c r="F267" s="83"/>
       <c r="G267" s="84"/>
-      <c r="H267" s="402"/>
+      <c r="H267" s="401"/>
     </row>
     <row r="268" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
-      <c r="C268" s="388"/>
+      <c r="C268" s="387"/>
       <c r="D268" s="83"/>
       <c r="E268" s="83"/>
       <c r="F268" s="83"/>
@@ -21313,7 +21414,7 @@
     <row r="269" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
-      <c r="C269" s="388"/>
+      <c r="C269" s="387"/>
       <c r="D269" s="83"/>
       <c r="E269" s="83"/>
       <c r="F269" s="83"/>
@@ -21343,7 +21444,7 @@
     <row r="272" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
-      <c r="C272" s="387"/>
+      <c r="C272" s="386"/>
       <c r="D272" s="45"/>
       <c r="E272" s="45"/>
       <c r="F272" s="45"/>
@@ -21463,7 +21564,7 @@
     <row r="284" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
-      <c r="C284" s="387"/>
+      <c r="C284" s="386"/>
       <c r="D284" s="45"/>
       <c r="E284" s="45"/>
       <c r="F284" s="45"/>
@@ -21473,7 +21574,7 @@
     <row r="285" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
-      <c r="C285" s="387"/>
+      <c r="C285" s="386"/>
       <c r="D285" s="45"/>
       <c r="E285" s="45"/>
       <c r="F285" s="45"/>
@@ -21624,28 +21725,28 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="427" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="427" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="427" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="427" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" style="427" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" style="427" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="427" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="427" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="427"/>
+    <col min="1" max="1" width="4.42578125" style="438" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="438" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="438" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="438" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" style="438" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" style="438" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="438" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="438" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="438"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="436" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="B1" s="436"/>
       <c r="C1" s="436"/>
@@ -21655,251 +21756,408 @@
       <c r="G1" s="436"/>
       <c r="H1" s="436"/>
     </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="438" t="s">
+      <c r="C2" s="439" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="439"/>
-      <c r="E2" s="425" t="s">
+      <c r="D2" s="440"/>
+      <c r="E2" s="441" t="s">
         <v>116</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="231"/>
+      <c r="B3" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C3" s="425" t="s">
+        <v>281</v>
+      </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="222"/>
+      <c r="H3" s="222">
+        <v>40500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="193"/>
+      <c r="C4" s="260" t="s">
+        <v>419</v>
+      </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="222"/>
+      <c r="H4" s="222">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="193"/>
+      <c r="C5" s="260" t="s">
+        <v>342</v>
+      </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="222"/>
+      <c r="H5" s="222">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="193"/>
+      <c r="C6" s="260" t="s">
+        <v>420</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="222"/>
+      <c r="H6" s="222">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="193"/>
+      <c r="C7" s="260" t="s">
+        <v>197</v>
+      </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2</v>
+      </c>
+      <c r="G7" s="222">
+        <v>21350</v>
+      </c>
+      <c r="H7" s="222">
+        <v>42700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="193"/>
+      <c r="C8" s="260" t="s">
+        <v>196</v>
+      </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2</v>
+      </c>
+      <c r="G8" s="222">
+        <v>22300</v>
+      </c>
+      <c r="H8" s="222">
+        <v>44600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="193"/>
+      <c r="C9" s="260" t="s">
+        <v>341</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-    </row>
-    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="222"/>
+      <c r="H9" s="222">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="193"/>
+      <c r="C10" s="260" t="s">
+        <v>54</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-    </row>
-    <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F10" s="3">
+        <v>2</v>
+      </c>
+      <c r="G10" s="222">
+        <v>4500</v>
+      </c>
+      <c r="H10" s="222">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="193"/>
-      <c r="D11" s="3"/>
+      <c r="C11" s="260" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-    </row>
-    <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="222"/>
+      <c r="H11" s="222">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="429"/>
+      <c r="C12" s="386" t="s">
+        <v>161</v>
+      </c>
       <c r="D12" s="70"/>
       <c r="E12" s="70"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-    </row>
-    <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="70">
+        <v>1</v>
+      </c>
+      <c r="G12" s="222"/>
+      <c r="H12" s="222">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="429"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-    </row>
-    <row r="14" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
+      <c r="C13" s="386" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="70" t="s">
+        <v>254</v>
+      </c>
+      <c r="E13" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="70">
+        <v>1</v>
+      </c>
+      <c r="G13" s="222"/>
+      <c r="H13" s="222">
+        <v>22400</v>
+      </c>
+      <c r="M13" s="438" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="429"/>
+      <c r="C14" s="386" t="s">
+        <v>132</v>
+      </c>
       <c r="D14" s="70"/>
       <c r="E14" s="70"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="223"/>
-    </row>
-    <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F14" s="70">
+        <v>1</v>
+      </c>
+      <c r="G14" s="222"/>
+      <c r="H14" s="222">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="429"/>
+      <c r="C15" s="386"/>
       <c r="D15" s="70"/>
       <c r="E15" s="70"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-    </row>
-    <row r="16" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F15" s="70"/>
+      <c r="G15" s="222"/>
+      <c r="H15" s="222">
+        <f>SUM(H3:H14)</f>
+        <v>216250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="193"/>
+      <c r="C16" s="260" t="s">
+        <v>321</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="223"/>
-    </row>
-    <row r="17" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F16" s="3">
+        <v>2</v>
+      </c>
+      <c r="G16" s="222">
+        <v>1700</v>
+      </c>
+      <c r="H16" s="222">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="193"/>
+      <c r="C17" s="260" t="s">
+        <v>354</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="223"/>
-    </row>
-    <row r="18" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F17" s="3">
+        <v>50</v>
+      </c>
+      <c r="G17" s="222">
+        <v>50</v>
+      </c>
+      <c r="H17" s="222">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="193"/>
-      <c r="D18" s="3"/>
+      <c r="C18" s="260" t="s">
+        <v>343</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>386</v>
+      </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-    </row>
-    <row r="19" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F18" s="3"/>
+      <c r="G18" s="222"/>
+      <c r="H18" s="222">
+        <v>28500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="193"/>
+      <c r="C19" s="260"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="373"/>
-    </row>
-    <row r="20" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="442">
+        <f>SUM(H15:H18)</f>
+        <v>250650</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="422"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="422"/>
-      <c r="F20" s="423"/>
-      <c r="G20" s="423"/>
-      <c r="H20" s="424"/>
-    </row>
-    <row r="21" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="421"/>
-      <c r="B21" s="421"/>
-      <c r="C21" s="422"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="422"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="426"/>
-      <c r="H21" s="426"/>
-    </row>
-    <row r="22" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="430"/>
-      <c r="B22" s="430"/>
-      <c r="C22" s="430"/>
-      <c r="D22" s="430"/>
-      <c r="E22" s="430"/>
-      <c r="F22" s="431"/>
-      <c r="G22" s="431"/>
-      <c r="H22" s="367"/>
+      <c r="C20" s="447" t="s">
+        <v>299</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="E20" s="421" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="421"/>
+      <c r="H20" s="443" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="420"/>
+      <c r="B21" s="420"/>
+      <c r="C21" s="447" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="E21" s="421"/>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="444"/>
+      <c r="H21" s="444" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="420"/>
+      <c r="B22" s="420"/>
+      <c r="C22" s="446" t="s">
+        <v>197</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E22" s="420" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="420"/>
+      <c r="H22" s="445" t="s">
+        <v>153</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/GB-3  Sales.xlsx
+++ b/GB-3  Sales.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="18195" windowHeight="10545" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="18195" windowHeight="10545" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sales-2017" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="424">
   <si>
     <t>Oil Filter</t>
   </si>
@@ -1327,7 +1327,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1604,14 +1604,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1845,7 +1837,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="448">
+  <cellXfs count="445">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2878,12 +2870,6 @@
     <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2954,44 +2940,39 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -6415,10 +6396,10 @@
       <c r="B1" s="198" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="432" t="s">
+      <c r="C1" s="435" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="433"/>
+      <c r="D1" s="436"/>
       <c r="E1" s="198" t="s">
         <v>116</v>
       </c>
@@ -11795,10 +11776,10 @@
       <c r="B1" s="333" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="434" t="s">
+      <c r="C1" s="437" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="435"/>
+      <c r="D1" s="438"/>
       <c r="E1" s="333" t="s">
         <v>116</v>
       </c>
@@ -15403,7 +15384,7 @@
     <row r="177" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
-      <c r="C177" s="413" t="s">
+      <c r="C177" s="411" t="s">
         <v>189</v>
       </c>
       <c r="D177" s="235" t="s">
@@ -15417,7 +15398,7 @@
       <c r="H177" s="356">
         <v>2650</v>
       </c>
-      <c r="I177" s="419"/>
+      <c r="I177" s="417"/>
     </row>
     <row r="178" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
@@ -15914,7 +15895,7 @@
     <row r="204" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
-      <c r="C204" s="418" t="s">
+      <c r="C204" s="416" t="s">
         <v>197</v>
       </c>
       <c r="D204" s="366"/>
@@ -15948,7 +15929,7 @@
     <row r="206" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
-      <c r="C206" s="417" t="s">
+      <c r="C206" s="415" t="s">
         <v>338</v>
       </c>
       <c r="D206" s="390" t="s">
@@ -15959,7 +15940,7 @@
         <v>4</v>
       </c>
       <c r="G206" s="391"/>
-      <c r="H206" s="427" t="s">
+      <c r="H206" s="425" t="s">
         <v>153</v>
       </c>
       <c r="I206" s="101" t="s">
@@ -17431,7 +17412,7 @@
     <row r="284" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
-      <c r="C284" s="417" t="s">
+      <c r="C284" s="415" t="s">
         <v>276</v>
       </c>
       <c r="D284" s="390" t="s">
@@ -17716,8 +17697,8 @@
   </sheetPr>
   <dimension ref="A1:Q298"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="K95" sqref="K95"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="M107" sqref="M107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17741,10 +17722,10 @@
       <c r="B1" s="333" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="434" t="s">
+      <c r="C1" s="437" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="435"/>
+      <c r="D1" s="438"/>
       <c r="E1" s="333" t="s">
         <v>116</v>
       </c>
@@ -18495,7 +18476,7 @@
         <v>10</v>
       </c>
       <c r="B40" s="4"/>
-      <c r="C40" s="418" t="s">
+      <c r="C40" s="416" t="s">
         <v>135</v>
       </c>
       <c r="D40" s="366"/>
@@ -19122,7 +19103,7 @@
       <c r="B74" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="C74" s="425" t="s">
+      <c r="C74" s="423" t="s">
         <v>407</v>
       </c>
       <c r="D74" s="3"/>
@@ -19170,8 +19151,8 @@
       <c r="C76" s="378" t="s">
         <v>350</v>
       </c>
-      <c r="D76" s="428"/>
-      <c r="E76" s="428" t="s">
+      <c r="D76" s="426"/>
+      <c r="E76" s="426" t="s">
         <v>14</v>
       </c>
       <c r="F76" s="376">
@@ -19193,8 +19174,8 @@
       <c r="C77" s="378" t="s">
         <v>160</v>
       </c>
-      <c r="D77" s="428"/>
-      <c r="E77" s="428" t="s">
+      <c r="D77" s="426"/>
+      <c r="E77" s="426" t="s">
         <v>22</v>
       </c>
       <c r="F77" s="376">
@@ -19216,8 +19197,8 @@
       <c r="C78" s="378" t="s">
         <v>160</v>
       </c>
-      <c r="D78" s="428"/>
-      <c r="E78" s="428" t="s">
+      <c r="D78" s="426"/>
+      <c r="E78" s="426" t="s">
         <v>14</v>
       </c>
       <c r="F78" s="376">
@@ -19239,8 +19220,8 @@
       <c r="C79" s="378" t="s">
         <v>409</v>
       </c>
-      <c r="D79" s="428"/>
-      <c r="E79" s="428"/>
+      <c r="D79" s="426"/>
+      <c r="E79" s="426"/>
       <c r="F79" s="376">
         <v>1</v>
       </c>
@@ -19260,8 +19241,8 @@
       <c r="C80" s="378" t="s">
         <v>410</v>
       </c>
-      <c r="D80" s="428"/>
-      <c r="E80" s="428"/>
+      <c r="D80" s="426"/>
+      <c r="E80" s="426"/>
       <c r="F80" s="376">
         <v>1</v>
       </c>
@@ -19281,8 +19262,8 @@
       <c r="C81" s="378" t="s">
         <v>411</v>
       </c>
-      <c r="D81" s="428"/>
-      <c r="E81" s="428"/>
+      <c r="D81" s="426"/>
+      <c r="E81" s="426"/>
       <c r="F81" s="376">
         <v>1</v>
       </c>
@@ -19319,7 +19300,7 @@
         <v>10</v>
       </c>
       <c r="B83" s="3"/>
-      <c r="C83" s="426" t="s">
+      <c r="C83" s="424" t="s">
         <v>413</v>
       </c>
       <c r="D83" s="70" t="s">
@@ -19342,8 +19323,8 @@
       <c r="C84" s="389" t="s">
         <v>197</v>
       </c>
-      <c r="D84" s="429"/>
-      <c r="E84" s="429" t="s">
+      <c r="D84" s="427"/>
+      <c r="E84" s="427" t="s">
         <v>22</v>
       </c>
       <c r="F84" s="390">
@@ -19365,8 +19346,8 @@
       <c r="C85" s="389" t="s">
         <v>127</v>
       </c>
-      <c r="D85" s="429"/>
-      <c r="E85" s="429"/>
+      <c r="D85" s="427"/>
+      <c r="E85" s="427"/>
       <c r="F85" s="390">
         <v>1</v>
       </c>
@@ -19386,7 +19367,7 @@
         <v>13</v>
       </c>
       <c r="B86" s="3"/>
-      <c r="C86" s="426" t="s">
+      <c r="C86" s="424" t="s">
         <v>208</v>
       </c>
       <c r="D86" s="70" t="s">
@@ -19409,8 +19390,8 @@
       <c r="C87" s="378" t="s">
         <v>197</v>
       </c>
-      <c r="D87" s="428"/>
-      <c r="E87" s="428" t="s">
+      <c r="D87" s="426"/>
+      <c r="E87" s="426" t="s">
         <v>14</v>
       </c>
       <c r="F87" s="376">
@@ -19473,45 +19454,45 @@
     <row r="91" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="3"/>
-      <c r="C91" s="421" t="s">
+      <c r="C91" s="419" t="s">
         <v>343</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="E91" s="421"/>
-      <c r="F91" s="422"/>
-      <c r="G91" s="422"/>
-      <c r="H91" s="423">
+      <c r="E91" s="419"/>
+      <c r="F91" s="420"/>
+      <c r="G91" s="420"/>
+      <c r="H91" s="421">
         <v>28500</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
-      <c r="B92" s="420"/>
-      <c r="C92" s="421" t="s">
+      <c r="B92" s="418"/>
+      <c r="C92" s="419" t="s">
         <v>363</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="E92" s="421"/>
+      <c r="E92" s="419"/>
       <c r="F92" s="4">
         <v>5</v>
       </c>
-      <c r="G92" s="424">
+      <c r="G92" s="422">
         <v>1500</v>
       </c>
-      <c r="H92" s="424">
+      <c r="H92" s="422">
         <v>7500</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
-      <c r="B93" s="420"/>
-      <c r="C93" s="420"/>
-      <c r="D93" s="420"/>
-      <c r="E93" s="420"/>
+      <c r="B93" s="418"/>
+      <c r="C93" s="418"/>
+      <c r="D93" s="418"/>
+      <c r="E93" s="418"/>
       <c r="F93" s="77"/>
       <c r="G93" s="77"/>
       <c r="H93" s="367">
@@ -19526,11 +19507,11 @@
       <c r="B94" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="C94" s="430" t="s">
+      <c r="C94" s="428" t="s">
         <v>341</v>
       </c>
-      <c r="D94" s="428"/>
-      <c r="E94" s="428"/>
+      <c r="D94" s="426"/>
+      <c r="E94" s="426"/>
       <c r="F94" s="376">
         <v>1</v>
       </c>
@@ -19550,8 +19531,8 @@
       <c r="C95" s="378" t="s">
         <v>415</v>
       </c>
-      <c r="D95" s="428"/>
-      <c r="E95" s="428"/>
+      <c r="D95" s="426"/>
+      <c r="E95" s="426"/>
       <c r="F95" s="376">
         <v>1</v>
       </c>
@@ -19562,7 +19543,7 @@
       <c r="I95" s="101" t="s">
         <v>418</v>
       </c>
-      <c r="K95" s="431"/>
+      <c r="K95" s="429"/>
     </row>
     <row r="96" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
@@ -19572,8 +19553,8 @@
       <c r="C96" s="378" t="s">
         <v>299</v>
       </c>
-      <c r="D96" s="428"/>
-      <c r="E96" s="428" t="s">
+      <c r="D96" s="426"/>
+      <c r="E96" s="426" t="s">
         <v>22</v>
       </c>
       <c r="F96" s="376">
@@ -19595,8 +19576,8 @@
       <c r="C97" s="378" t="s">
         <v>127</v>
       </c>
-      <c r="D97" s="428"/>
-      <c r="E97" s="428"/>
+      <c r="D97" s="426"/>
+      <c r="E97" s="426"/>
       <c r="F97" s="376">
         <v>3</v>
       </c>
@@ -19638,8 +19619,8 @@
       <c r="C99" s="378" t="s">
         <v>160</v>
       </c>
-      <c r="D99" s="428"/>
-      <c r="E99" s="428" t="s">
+      <c r="D99" s="426"/>
+      <c r="E99" s="426" t="s">
         <v>22</v>
       </c>
       <c r="F99" s="376">
@@ -19720,7 +19701,7 @@
         <v>10</v>
       </c>
       <c r="B103" s="3"/>
-      <c r="C103" s="426" t="s">
+      <c r="C103" s="424" t="s">
         <v>27</v>
       </c>
       <c r="D103" s="70" t="s">
@@ -19743,8 +19724,8 @@
       <c r="C104" s="389" t="s">
         <v>109</v>
       </c>
-      <c r="D104" s="429"/>
-      <c r="E104" s="429"/>
+      <c r="D104" s="427"/>
+      <c r="E104" s="427"/>
       <c r="F104" s="390">
         <v>1</v>
       </c>
@@ -19759,7 +19740,7 @@
     <row r="105" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
-      <c r="C105" s="426"/>
+      <c r="C105" s="424"/>
       <c r="D105" s="70"/>
       <c r="E105" s="70"/>
       <c r="F105" s="45"/>
@@ -19772,7 +19753,7 @@
     <row r="106" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
-      <c r="C106" s="426" t="s">
+      <c r="C106" s="424" t="s">
         <v>343</v>
       </c>
       <c r="D106" s="70" t="s">
@@ -19802,219 +19783,403 @@
       </c>
     </row>
     <row r="108" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
-      <c r="C108" s="392"/>
-      <c r="D108" s="83"/>
-      <c r="E108" s="83"/>
-      <c r="F108" s="83"/>
-      <c r="G108" s="84"/>
-      <c r="H108" s="84"/>
+      <c r="A108" s="3">
+        <v>1</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C108" s="188" t="s">
+        <v>281</v>
+      </c>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F108" s="4">
+        <v>1</v>
+      </c>
+      <c r="G108" s="50"/>
+      <c r="H108" s="50">
+        <v>40500</v>
+      </c>
     </row>
     <row r="109" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="4"/>
+      <c r="A109" s="3">
+        <v>2</v>
+      </c>
       <c r="B109" s="4"/>
-      <c r="C109" s="192"/>
-      <c r="D109" s="402"/>
-      <c r="E109" s="83"/>
-      <c r="F109" s="83"/>
-      <c r="G109" s="84"/>
-      <c r="H109" s="84"/>
+      <c r="C109" s="193" t="s">
+        <v>419</v>
+      </c>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109" s="4">
+        <v>1</v>
+      </c>
+      <c r="G109" s="50"/>
+      <c r="H109" s="50">
+        <v>25000</v>
+      </c>
     </row>
     <row r="110" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="4"/>
+      <c r="A110" s="3">
+        <v>3</v>
+      </c>
       <c r="B110" s="4"/>
-      <c r="C110" s="192"/>
-      <c r="D110" s="89"/>
-      <c r="E110" s="83"/>
-      <c r="F110" s="83"/>
-      <c r="G110" s="84"/>
-      <c r="H110" s="84"/>
+      <c r="C110" s="193" t="s">
+        <v>342</v>
+      </c>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F110" s="4">
+        <v>1</v>
+      </c>
+      <c r="G110" s="50"/>
+      <c r="H110" s="50">
+        <v>4500</v>
+      </c>
     </row>
     <row r="111" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="4"/>
+      <c r="A111" s="3">
+        <v>4</v>
+      </c>
       <c r="B111" s="4"/>
-      <c r="C111" s="392"/>
-      <c r="D111" s="83"/>
-      <c r="E111" s="83"/>
-      <c r="F111" s="83"/>
-      <c r="G111" s="84"/>
-      <c r="H111" s="84"/>
+      <c r="C111" s="193" t="s">
+        <v>420</v>
+      </c>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4">
+        <v>1</v>
+      </c>
+      <c r="G111" s="50"/>
+      <c r="H111" s="50">
+        <v>4000</v>
+      </c>
     </row>
     <row r="112" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="4"/>
+      <c r="A112" s="3">
+        <v>5</v>
+      </c>
       <c r="B112" s="4"/>
-      <c r="C112" s="392"/>
-      <c r="D112" s="83"/>
-      <c r="E112" s="83"/>
-      <c r="F112" s="83"/>
-      <c r="G112" s="84"/>
-      <c r="H112" s="84"/>
+      <c r="C112" s="193" t="s">
+        <v>197</v>
+      </c>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F112" s="4">
+        <v>2</v>
+      </c>
+      <c r="G112" s="50">
+        <v>21350</v>
+      </c>
+      <c r="H112" s="50">
+        <v>42700</v>
+      </c>
     </row>
     <row r="113" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="4"/>
+      <c r="A113" s="3">
+        <v>6</v>
+      </c>
       <c r="B113" s="4"/>
-      <c r="C113" s="392"/>
-      <c r="D113" s="83"/>
-      <c r="E113" s="83"/>
-      <c r="F113" s="83"/>
-      <c r="G113" s="84"/>
-      <c r="H113" s="401"/>
+      <c r="C113" s="193" t="s">
+        <v>196</v>
+      </c>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F113" s="4">
+        <v>2</v>
+      </c>
+      <c r="G113" s="50">
+        <v>22300</v>
+      </c>
+      <c r="H113" s="50">
+        <v>44600</v>
+      </c>
     </row>
     <row r="114" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="4"/>
+      <c r="A114" s="3">
+        <v>7</v>
+      </c>
       <c r="B114" s="4"/>
-      <c r="C114" s="399"/>
-      <c r="D114" s="235"/>
-      <c r="E114" s="235"/>
-      <c r="F114" s="235"/>
-      <c r="G114" s="356"/>
-      <c r="H114" s="356"/>
+      <c r="C114" s="193" t="s">
+        <v>341</v>
+      </c>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4">
+        <v>1</v>
+      </c>
+      <c r="G114" s="50"/>
+      <c r="H114" s="50">
+        <v>3500</v>
+      </c>
     </row>
     <row r="115" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="4"/>
+      <c r="A115" s="3">
+        <v>8</v>
+      </c>
       <c r="B115" s="4"/>
-      <c r="C115" s="399"/>
-      <c r="D115" s="235"/>
-      <c r="E115" s="235"/>
-      <c r="F115" s="235"/>
-      <c r="G115" s="356"/>
-      <c r="H115" s="356"/>
+      <c r="C115" s="193" t="s">
+        <v>54</v>
+      </c>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4">
+        <v>2</v>
+      </c>
+      <c r="G115" s="50">
+        <v>4500</v>
+      </c>
+      <c r="H115" s="50">
+        <v>9000</v>
+      </c>
     </row>
     <row r="116" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="4"/>
+      <c r="A116" s="3">
+        <v>9</v>
+      </c>
       <c r="B116" s="4"/>
-      <c r="C116" s="192"/>
-      <c r="D116" s="83"/>
-      <c r="E116" s="83"/>
-      <c r="F116" s="83"/>
-      <c r="G116" s="84"/>
-      <c r="H116" s="84"/>
+      <c r="C116" s="193" t="s">
+        <v>27</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4">
+        <v>1</v>
+      </c>
+      <c r="G116" s="50"/>
+      <c r="H116" s="50">
+        <v>14000</v>
+      </c>
     </row>
     <row r="117" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="4"/>
+      <c r="A117" s="3">
+        <v>10</v>
+      </c>
       <c r="B117" s="4"/>
-      <c r="C117" s="192"/>
-      <c r="D117" s="83"/>
-      <c r="E117" s="83"/>
-      <c r="F117" s="83"/>
-      <c r="G117" s="84"/>
-      <c r="H117" s="84"/>
+      <c r="C117" s="424" t="s">
+        <v>161</v>
+      </c>
+      <c r="D117" s="45"/>
+      <c r="E117" s="45"/>
+      <c r="F117" s="45">
+        <v>1</v>
+      </c>
+      <c r="G117" s="50"/>
+      <c r="H117" s="50">
+        <v>3150</v>
+      </c>
     </row>
     <row r="118" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="4"/>
+      <c r="A118" s="3">
+        <v>11</v>
+      </c>
       <c r="B118" s="4"/>
-      <c r="C118" s="392"/>
-      <c r="D118" s="83"/>
-      <c r="E118" s="83"/>
-      <c r="F118" s="83"/>
-      <c r="G118" s="84"/>
-      <c r="H118" s="84"/>
+      <c r="C118" s="424" t="s">
+        <v>111</v>
+      </c>
+      <c r="D118" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="E118" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="F118" s="45">
+        <v>1</v>
+      </c>
+      <c r="G118" s="50"/>
+      <c r="H118" s="50">
+        <v>22400</v>
+      </c>
     </row>
     <row r="119" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="4"/>
+      <c r="A119" s="3">
+        <v>12</v>
+      </c>
       <c r="B119" s="4"/>
-      <c r="C119" s="392"/>
-      <c r="D119" s="83"/>
-      <c r="E119" s="83"/>
-      <c r="F119" s="83"/>
-      <c r="G119" s="84"/>
-      <c r="H119" s="401"/>
+      <c r="C119" s="424" t="s">
+        <v>350</v>
+      </c>
+      <c r="D119" s="45"/>
+      <c r="E119" s="45"/>
+      <c r="F119" s="45">
+        <v>1</v>
+      </c>
+      <c r="G119" s="50"/>
+      <c r="H119" s="50">
+        <v>2000</v>
+      </c>
     </row>
     <row r="120" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="4"/>
+      <c r="A120" s="3">
+        <v>13</v>
+      </c>
       <c r="B120" s="4"/>
-      <c r="C120" s="399"/>
-      <c r="D120" s="235"/>
-      <c r="E120" s="235"/>
-      <c r="F120" s="235"/>
-      <c r="G120" s="356"/>
-      <c r="H120" s="356"/>
+      <c r="C120" s="424" t="s">
+        <v>132</v>
+      </c>
+      <c r="D120" s="45"/>
+      <c r="E120" s="45"/>
+      <c r="F120" s="45">
+        <v>1</v>
+      </c>
+      <c r="G120" s="50"/>
+      <c r="H120" s="50">
+        <v>2900</v>
+      </c>
     </row>
     <row r="121" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="4"/>
+      <c r="A121" s="3"/>
       <c r="B121" s="4"/>
-      <c r="C121" s="392"/>
-      <c r="D121" s="83"/>
-      <c r="E121" s="83"/>
-      <c r="F121" s="83"/>
-      <c r="G121" s="84"/>
-      <c r="H121" s="84"/>
+      <c r="C121" s="424"/>
+      <c r="D121" s="45"/>
+      <c r="E121" s="45"/>
+      <c r="F121" s="45"/>
+      <c r="G121" s="50"/>
+      <c r="H121" s="257">
+        <f>SUM(H108:H120)</f>
+        <v>218250</v>
+      </c>
     </row>
     <row r="122" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="4"/>
+      <c r="A122" s="3"/>
       <c r="B122" s="4"/>
-      <c r="C122" s="192"/>
-      <c r="D122" s="83"/>
-      <c r="E122" s="83"/>
-      <c r="F122" s="83"/>
-      <c r="G122" s="84"/>
-      <c r="H122" s="84"/>
+      <c r="C122" s="193" t="s">
+        <v>321</v>
+      </c>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4">
+        <v>2</v>
+      </c>
+      <c r="G122" s="50">
+        <v>1700</v>
+      </c>
+      <c r="H122" s="50">
+        <v>3400</v>
+      </c>
     </row>
     <row r="123" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="4"/>
+      <c r="A123" s="3"/>
       <c r="B123" s="4"/>
-      <c r="C123" s="192"/>
-      <c r="D123" s="83"/>
-      <c r="E123" s="83"/>
-      <c r="F123" s="83"/>
-      <c r="G123" s="84"/>
-      <c r="H123" s="84"/>
+      <c r="C123" s="193" t="s">
+        <v>354</v>
+      </c>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4">
+        <v>50</v>
+      </c>
+      <c r="G123" s="50">
+        <v>50</v>
+      </c>
+      <c r="H123" s="50">
+        <v>2500</v>
+      </c>
     </row>
     <row r="124" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="4"/>
+      <c r="A124" s="3"/>
       <c r="B124" s="4"/>
-      <c r="C124" s="392"/>
-      <c r="D124" s="83"/>
-      <c r="E124" s="83"/>
-      <c r="F124" s="83"/>
-      <c r="G124" s="84"/>
-      <c r="H124" s="84"/>
+      <c r="C124" s="193" t="s">
+        <v>343</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="50"/>
+      <c r="H124" s="50">
+        <v>28500</v>
+      </c>
     </row>
     <row r="125" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="4"/>
+      <c r="A125" s="3"/>
       <c r="B125" s="4"/>
-      <c r="C125" s="392"/>
-      <c r="D125" s="83"/>
-      <c r="E125" s="83"/>
-      <c r="F125" s="83"/>
-      <c r="G125" s="84"/>
-      <c r="H125" s="84"/>
+      <c r="C125" s="246"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="374">
+        <f>SUM(H121:H124)</f>
+        <v>252650</v>
+      </c>
     </row>
     <row r="126" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="4"/>
+      <c r="A126" s="3"/>
       <c r="B126" s="4"/>
-      <c r="C126" s="192"/>
-      <c r="D126" s="83"/>
-      <c r="E126" s="83"/>
-      <c r="F126" s="83"/>
-      <c r="G126" s="84"/>
-      <c r="H126" s="84"/>
+      <c r="C126" s="420" t="s">
+        <v>299</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="E126" s="420" t="s">
+        <v>22</v>
+      </c>
+      <c r="F126" s="4">
+        <v>1</v>
+      </c>
+      <c r="G126" s="420"/>
+      <c r="H126" s="421" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="127" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="4"/>
-      <c r="B127" s="4"/>
-      <c r="C127" s="403"/>
-      <c r="D127" s="395"/>
-      <c r="E127" s="395"/>
-      <c r="F127" s="395"/>
-      <c r="G127" s="396"/>
-      <c r="H127" s="396"/>
+      <c r="A127" s="418"/>
+      <c r="B127" s="77"/>
+      <c r="C127" s="420" t="s">
+        <v>127</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="E127" s="420"/>
+      <c r="F127" s="4">
+        <v>1</v>
+      </c>
+      <c r="G127" s="422"/>
+      <c r="H127" s="422" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="128" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="4"/>
-      <c r="B128" s="4"/>
-      <c r="C128" s="392"/>
-      <c r="D128" s="83"/>
-      <c r="E128" s="83"/>
-      <c r="F128" s="83"/>
-      <c r="G128" s="84"/>
-      <c r="H128" s="84"/>
+      <c r="A128" s="418"/>
+      <c r="B128" s="77"/>
+      <c r="C128" s="188" t="s">
+        <v>197</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="E128" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="F128" s="4">
+        <v>1</v>
+      </c>
+      <c r="G128" s="77"/>
+      <c r="H128" s="444" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="129" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="255"/>
       <c r="B129" s="255"/>
-      <c r="C129" s="404"/>
+      <c r="C129" s="402"/>
       <c r="D129" s="397"/>
       <c r="E129" s="397"/>
       <c r="F129" s="397"/>
@@ -20026,10 +20191,10 @@
       <c r="B130" s="255"/>
       <c r="C130" s="235"/>
       <c r="D130" s="235"/>
-      <c r="E130" s="405"/>
+      <c r="E130" s="403"/>
       <c r="F130" s="235"/>
       <c r="G130" s="235"/>
-      <c r="H130" s="406"/>
+      <c r="H130" s="404"/>
     </row>
     <row r="131" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
@@ -20049,7 +20214,7 @@
       <c r="E132" s="235"/>
       <c r="F132" s="235"/>
       <c r="G132" s="235"/>
-      <c r="H132" s="407"/>
+      <c r="H132" s="405"/>
     </row>
     <row r="133" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
@@ -20134,7 +20299,7 @@
     <row r="141" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
-      <c r="C141" s="408"/>
+      <c r="C141" s="406"/>
       <c r="D141" s="83"/>
       <c r="E141" s="83"/>
       <c r="F141" s="83"/>
@@ -20156,10 +20321,10 @@
       <c r="B143" s="255"/>
       <c r="C143" s="235"/>
       <c r="D143" s="235"/>
-      <c r="E143" s="405"/>
+      <c r="E143" s="403"/>
       <c r="F143" s="235"/>
       <c r="G143" s="235"/>
-      <c r="H143" s="409"/>
+      <c r="H143" s="407"/>
     </row>
     <row r="144" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
@@ -20366,10 +20531,10 @@
       <c r="B164" s="255"/>
       <c r="C164" s="394"/>
       <c r="D164" s="235"/>
-      <c r="E164" s="405"/>
+      <c r="E164" s="403"/>
       <c r="F164" s="395"/>
       <c r="G164" s="396"/>
-      <c r="H164" s="410"/>
+      <c r="H164" s="408"/>
     </row>
     <row r="165" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
@@ -20399,7 +20564,7 @@
       <c r="E167" s="397"/>
       <c r="F167" s="397"/>
       <c r="G167" s="397"/>
-      <c r="H167" s="411"/>
+      <c r="H167" s="409"/>
     </row>
     <row r="168" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
@@ -20629,7 +20794,7 @@
       <c r="E190" s="83"/>
       <c r="F190" s="83"/>
       <c r="G190" s="84"/>
-      <c r="H190" s="412"/>
+      <c r="H190" s="410"/>
     </row>
     <row r="191" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
@@ -20659,7 +20824,7 @@
       <c r="E193" s="83"/>
       <c r="F193" s="83"/>
       <c r="G193" s="84"/>
-      <c r="H193" s="412"/>
+      <c r="H193" s="410"/>
     </row>
     <row r="194" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4"/>
@@ -20784,12 +20949,12 @@
     <row r="206" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
-      <c r="C206" s="413"/>
+      <c r="C206" s="411"/>
       <c r="D206" s="235"/>
       <c r="E206" s="235"/>
       <c r="F206" s="235"/>
       <c r="G206" s="84"/>
-      <c r="H206" s="414"/>
+      <c r="H206" s="412"/>
     </row>
     <row r="207" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="23"/>
@@ -20799,7 +20964,7 @@
       <c r="E207" s="95"/>
       <c r="F207" s="95"/>
       <c r="G207" s="95"/>
-      <c r="H207" s="415"/>
+      <c r="H207" s="413"/>
     </row>
     <row r="208" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4"/>
@@ -20984,7 +21149,7 @@
     <row r="226" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
-      <c r="C226" s="416"/>
+      <c r="C226" s="414"/>
       <c r="D226" s="395"/>
       <c r="E226" s="395"/>
       <c r="F226" s="395"/>
@@ -20994,7 +21159,7 @@
     <row r="227" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
-      <c r="C227" s="416"/>
+      <c r="C227" s="414"/>
       <c r="D227" s="395"/>
       <c r="E227" s="395"/>
       <c r="F227" s="395"/>
@@ -21725,49 +21890,48 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="438" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="438" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="438" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="438" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" style="438" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" style="438" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="438" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="438" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="438"/>
+    <col min="1" max="1" width="4.42578125" style="430" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="430" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="430" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="430" customWidth="1"/>
+    <col min="5" max="6" width="4.7109375" style="430" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="430" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="430" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="430"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="436" t="s">
+      <c r="A1" s="439" t="s">
         <v>423</v>
       </c>
-      <c r="B1" s="436"/>
-      <c r="C1" s="436"/>
-      <c r="D1" s="437"/>
-      <c r="E1" s="436"/>
-      <c r="F1" s="436"/>
-      <c r="G1" s="436"/>
-      <c r="H1" s="436"/>
+      <c r="B1" s="439"/>
+      <c r="C1" s="439"/>
+      <c r="D1" s="440"/>
+      <c r="E1" s="439"/>
+      <c r="F1" s="439"/>
+      <c r="G1" s="439"/>
+      <c r="H1" s="439"/>
     </row>
     <row r="2" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="439" t="s">
+      <c r="C2" s="442" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="440"/>
-      <c r="E2" s="441" t="s">
+      <c r="D2" s="443"/>
+      <c r="E2" s="431" t="s">
         <v>116</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -21787,7 +21951,7 @@
       <c r="B3" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="C3" s="425" t="s">
+      <c r="C3" s="231" t="s">
         <v>281</v>
       </c>
       <c r="D3" s="3"/>
@@ -22001,7 +22165,7 @@
       <c r="H13" s="222">
         <v>22400</v>
       </c>
-      <c r="M13" s="438" t="s">
+      <c r="M13" s="430" t="s">
         <v>266</v>
       </c>
     </row>
@@ -22011,7 +22175,7 @@
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="386" t="s">
-        <v>132</v>
+        <v>350</v>
       </c>
       <c r="D14" s="70"/>
       <c r="E14" s="70"/>
@@ -22020,142 +22184,160 @@
       </c>
       <c r="G14" s="222"/>
       <c r="H14" s="222">
-        <v>2900</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="386"/>
+      <c r="C15" s="386" t="s">
+        <v>132</v>
+      </c>
       <c r="D15" s="70"/>
       <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
+      <c r="F15" s="70">
+        <v>1</v>
+      </c>
       <c r="G15" s="222"/>
       <c r="H15" s="222">
-        <f>SUM(H3:H14)</f>
-        <v>216250</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="260" t="s">
-        <v>321</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3">
-        <v>2</v>
-      </c>
-      <c r="G16" s="222">
-        <v>1700</v>
-      </c>
-      <c r="H16" s="222">
-        <v>3400</v>
+      <c r="C16" s="386"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="222"/>
+      <c r="H16" s="50">
+        <f>SUM(H3:H15)</f>
+        <v>218250</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="260" t="s">
-        <v>354</v>
+        <v>321</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="G17" s="222">
-        <v>50</v>
+        <v>1700</v>
       </c>
       <c r="H17" s="222">
-        <v>2500</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="260" t="s">
-        <v>343</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>386</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="222"/>
+      <c r="F18" s="3">
+        <v>50</v>
+      </c>
+      <c r="G18" s="222">
+        <v>50</v>
+      </c>
       <c r="H18" s="222">
-        <v>28500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="260"/>
-      <c r="D19" s="3"/>
+      <c r="C19" s="260" t="s">
+        <v>343</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>386</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="442">
-        <f>SUM(H15:H18)</f>
-        <v>250650</v>
+      <c r="G19" s="222"/>
+      <c r="H19" s="222">
+        <v>28500</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="447" t="s">
+      <c r="C20" s="260"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="373">
+        <f>SUM(H16:H19)</f>
+        <v>252650</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="441" t="s">
         <v>299</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="E20" s="421" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
-      <c r="G20" s="421"/>
-      <c r="H20" s="443" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="420"/>
-      <c r="B21" s="420"/>
-      <c r="C21" s="447" t="s">
-        <v>127</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="E21" s="421"/>
+      <c r="E21" s="419" t="s">
+        <v>22</v>
+      </c>
       <c r="F21" s="3">
         <v>1</v>
       </c>
-      <c r="G21" s="444"/>
-      <c r="H21" s="444" t="s">
+      <c r="G21" s="419"/>
+      <c r="H21" s="432" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="420"/>
-      <c r="B22" s="420"/>
-      <c r="C22" s="446" t="s">
+      <c r="A22" s="418"/>
+      <c r="B22" s="418"/>
+      <c r="C22" s="441" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="E22" s="419"/>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="433"/>
+      <c r="H22" s="433" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="418"/>
+      <c r="B23" s="418"/>
+      <c r="C23" s="423" t="s">
         <v>197</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="E22" s="420" t="s">
+      <c r="E23" s="418" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="3">
-        <v>1</v>
-      </c>
-      <c r="G22" s="420"/>
-      <c r="H22" s="445" t="s">
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="418"/>
+      <c r="H23" s="434" t="s">
         <v>153</v>
       </c>
     </row>

--- a/GB-3  Sales.xlsx
+++ b/GB-3  Sales.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="426">
   <si>
     <t>Oil Filter</t>
   </si>
@@ -1317,6 +1317,12 @@
       </rPr>
       <t xml:space="preserve"> ရွင္းေငြ</t>
     </r>
+  </si>
+  <si>
+    <t>11.8.2018</t>
+  </si>
+  <si>
+    <t>1Pcsက်န္</t>
   </si>
 </sst>
 </file>
@@ -1837,7 +1843,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="445">
+  <cellXfs count="451">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2947,6 +2953,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2965,14 +2972,23 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -6396,10 +6412,10 @@
       <c r="B1" s="198" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="435" t="s">
+      <c r="C1" s="436" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="436"/>
+      <c r="D1" s="437"/>
       <c r="E1" s="198" t="s">
         <v>116</v>
       </c>
@@ -11776,10 +11792,10 @@
       <c r="B1" s="333" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="437" t="s">
+      <c r="C1" s="438" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="438"/>
+      <c r="D1" s="439"/>
       <c r="E1" s="333" t="s">
         <v>116</v>
       </c>
@@ -17697,8 +17713,8 @@
   </sheetPr>
   <dimension ref="A1:Q298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="M107" sqref="M107"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="J83" sqref="J83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17722,10 +17738,10 @@
       <c r="B1" s="333" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="437" t="s">
+      <c r="C1" s="438" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="438"/>
+      <c r="D1" s="439"/>
       <c r="E1" s="333" t="s">
         <v>116</v>
       </c>
@@ -18939,7 +18955,7 @@
         <v>22400</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>5</v>
       </c>
@@ -18960,7 +18976,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>6</v>
       </c>
@@ -18980,7 +18996,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>7</v>
       </c>
@@ -19001,7 +19017,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>8</v>
       </c>
@@ -19022,7 +19038,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="260"/>
@@ -19035,7 +19051,7 @@
         <v>99450</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="386" t="s">
@@ -19051,7 +19067,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="386" t="s">
@@ -19067,7 +19083,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="386" t="s">
@@ -19083,7 +19099,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="386"/>
@@ -19096,34 +19112,37 @@
         <v>130450</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>1</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="C74" s="423" t="s">
+      <c r="C74" s="449" t="s">
         <v>407</v>
       </c>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3" t="s">
+      <c r="D74" s="426"/>
+      <c r="E74" s="426" t="s">
         <v>14</v>
       </c>
-      <c r="F74" s="4">
+      <c r="F74" s="376">
         <v>9</v>
       </c>
-      <c r="G74" s="50">
+      <c r="G74" s="377">
         <v>4500</v>
       </c>
-      <c r="H74" s="50">
+      <c r="H74" s="377">
         <v>13500</v>
       </c>
       <c r="I74" s="341">
         <v>27000</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J74" s="341" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>2</v>
       </c>
@@ -19143,7 +19162,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>3</v>
       </c>
@@ -19166,7 +19185,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>4</v>
       </c>
@@ -19189,7 +19208,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>5</v>
       </c>
@@ -19212,7 +19231,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>6</v>
       </c>
@@ -19233,7 +19252,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>7</v>
       </c>
@@ -19789,19 +19808,22 @@
       <c r="B108" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="C108" s="188" t="s">
+      <c r="C108" s="375" t="s">
         <v>281</v>
       </c>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4" t="s">
+      <c r="D108" s="376"/>
+      <c r="E108" s="376" t="s">
         <v>8</v>
       </c>
-      <c r="F108" s="4">
-        <v>1</v>
-      </c>
-      <c r="G108" s="50"/>
-      <c r="H108" s="50">
+      <c r="F108" s="376">
+        <v>1</v>
+      </c>
+      <c r="G108" s="377"/>
+      <c r="H108" s="377">
         <v>40500</v>
+      </c>
+      <c r="I108" s="101" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19867,84 +19889,96 @@
         <v>5</v>
       </c>
       <c r="B112" s="4"/>
-      <c r="C112" s="193" t="s">
+      <c r="C112" s="378" t="s">
         <v>197</v>
       </c>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4" t="s">
+      <c r="D112" s="376"/>
+      <c r="E112" s="376" t="s">
         <v>22</v>
       </c>
-      <c r="F112" s="4">
+      <c r="F112" s="376">
         <v>2</v>
       </c>
-      <c r="G112" s="50">
+      <c r="G112" s="377">
         <v>21350</v>
       </c>
-      <c r="H112" s="50">
+      <c r="H112" s="377">
         <v>42700</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I112" s="101" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>6</v>
       </c>
       <c r="B113" s="4"/>
-      <c r="C113" s="193" t="s">
+      <c r="C113" s="378" t="s">
         <v>196</v>
       </c>
-      <c r="D113" s="4"/>
-      <c r="E113" s="4" t="s">
+      <c r="D113" s="376"/>
+      <c r="E113" s="376" t="s">
         <v>8</v>
       </c>
-      <c r="F113" s="4">
+      <c r="F113" s="376">
         <v>2</v>
       </c>
-      <c r="G113" s="50">
+      <c r="G113" s="377">
         <v>22300</v>
       </c>
-      <c r="H113" s="50">
+      <c r="H113" s="377">
         <v>44600</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I113" s="101" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>7</v>
       </c>
       <c r="B114" s="4"/>
-      <c r="C114" s="193" t="s">
+      <c r="C114" s="378" t="s">
         <v>341</v>
       </c>
-      <c r="D114" s="4"/>
-      <c r="E114" s="4"/>
-      <c r="F114" s="4">
-        <v>1</v>
-      </c>
-      <c r="G114" s="50"/>
-      <c r="H114" s="50">
+      <c r="D114" s="376"/>
+      <c r="E114" s="376"/>
+      <c r="F114" s="376">
+        <v>1</v>
+      </c>
+      <c r="G114" s="377"/>
+      <c r="H114" s="377">
         <v>3500</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I114" s="101" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>8</v>
       </c>
       <c r="B115" s="4"/>
-      <c r="C115" s="193" t="s">
+      <c r="C115" s="378" t="s">
         <v>54</v>
       </c>
-      <c r="D115" s="4"/>
-      <c r="E115" s="4"/>
-      <c r="F115" s="4">
+      <c r="D115" s="376"/>
+      <c r="E115" s="376"/>
+      <c r="F115" s="376">
         <v>2</v>
       </c>
-      <c r="G115" s="50">
+      <c r="G115" s="377">
         <v>4500</v>
       </c>
-      <c r="H115" s="50">
+      <c r="H115" s="377">
         <v>9000</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I115" s="101" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>9</v>
       </c>
@@ -19964,25 +19998,28 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>10</v>
       </c>
       <c r="B117" s="4"/>
-      <c r="C117" s="424" t="s">
+      <c r="C117" s="389" t="s">
         <v>161</v>
       </c>
-      <c r="D117" s="45"/>
-      <c r="E117" s="45"/>
-      <c r="F117" s="45">
-        <v>1</v>
-      </c>
-      <c r="G117" s="50"/>
-      <c r="H117" s="50">
+      <c r="D117" s="390"/>
+      <c r="E117" s="390"/>
+      <c r="F117" s="390">
+        <v>1</v>
+      </c>
+      <c r="G117" s="377"/>
+      <c r="H117" s="377">
         <v>3150</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I117" s="101" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>11</v>
       </c>
@@ -20004,43 +20041,46 @@
         <v>22400</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>12</v>
       </c>
       <c r="B119" s="4"/>
-      <c r="C119" s="424" t="s">
+      <c r="C119" s="450" t="s">
         <v>350</v>
       </c>
-      <c r="D119" s="45"/>
-      <c r="E119" s="45"/>
-      <c r="F119" s="45">
-        <v>1</v>
-      </c>
-      <c r="G119" s="50"/>
-      <c r="H119" s="50">
+      <c r="D119" s="395"/>
+      <c r="E119" s="395"/>
+      <c r="F119" s="395">
+        <v>1</v>
+      </c>
+      <c r="G119" s="84"/>
+      <c r="H119" s="84">
         <v>2000</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>13</v>
       </c>
       <c r="B120" s="4"/>
-      <c r="C120" s="424" t="s">
+      <c r="C120" s="389" t="s">
         <v>132</v>
       </c>
-      <c r="D120" s="45"/>
-      <c r="E120" s="45"/>
-      <c r="F120" s="45">
-        <v>1</v>
-      </c>
-      <c r="G120" s="50"/>
-      <c r="H120" s="50">
+      <c r="D120" s="390"/>
+      <c r="E120" s="390"/>
+      <c r="F120" s="390">
+        <v>1</v>
+      </c>
+      <c r="G120" s="377"/>
+      <c r="H120" s="377">
         <v>2900</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I120" s="101" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="4"/>
       <c r="C121" s="424"/>
@@ -20053,7 +20093,7 @@
         <v>218250</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="4"/>
       <c r="C122" s="193" t="s">
@@ -20071,7 +20111,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="4"/>
       <c r="C123" s="193" t="s">
@@ -20089,7 +20129,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="4"/>
       <c r="C124" s="193" t="s">
@@ -20105,7 +20145,7 @@
         <v>28500</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="4"/>
       <c r="C125" s="246"/>
@@ -20118,62 +20158,71 @@
         <v>252650</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="4"/>
-      <c r="C126" s="420" t="s">
+      <c r="C126" s="444" t="s">
         <v>299</v>
       </c>
-      <c r="D126" s="4" t="s">
+      <c r="D126" s="376" t="s">
         <v>421</v>
       </c>
-      <c r="E126" s="420" t="s">
+      <c r="E126" s="444" t="s">
         <v>22</v>
       </c>
-      <c r="F126" s="4">
-        <v>1</v>
-      </c>
-      <c r="G126" s="420"/>
-      <c r="H126" s="421" t="s">
+      <c r="F126" s="376">
+        <v>1</v>
+      </c>
+      <c r="G126" s="444"/>
+      <c r="H126" s="445" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I126" s="101" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="418"/>
       <c r="B127" s="77"/>
-      <c r="C127" s="420" t="s">
+      <c r="C127" s="444" t="s">
         <v>127</v>
       </c>
-      <c r="D127" s="4" t="s">
+      <c r="D127" s="376" t="s">
         <v>421</v>
       </c>
-      <c r="E127" s="420"/>
-      <c r="F127" s="4">
-        <v>1</v>
-      </c>
-      <c r="G127" s="422"/>
-      <c r="H127" s="422" t="s">
+      <c r="E127" s="444"/>
+      <c r="F127" s="376">
+        <v>1</v>
+      </c>
+      <c r="G127" s="446"/>
+      <c r="H127" s="446" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I127" s="101" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="418"/>
       <c r="B128" s="77"/>
-      <c r="C128" s="188" t="s">
+      <c r="C128" s="375" t="s">
         <v>197</v>
       </c>
-      <c r="D128" s="4" t="s">
+      <c r="D128" s="376" t="s">
         <v>422</v>
       </c>
-      <c r="E128" s="77" t="s">
+      <c r="E128" s="447" t="s">
         <v>14</v>
       </c>
-      <c r="F128" s="4">
-        <v>1</v>
-      </c>
-      <c r="G128" s="77"/>
-      <c r="H128" s="444" t="s">
+      <c r="F128" s="376">
+        <v>1</v>
+      </c>
+      <c r="G128" s="447"/>
+      <c r="H128" s="448" t="s">
         <v>153</v>
+      </c>
+      <c r="I128" s="101" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21909,16 +21958,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="439" t="s">
+      <c r="A1" s="440" t="s">
         <v>423</v>
       </c>
-      <c r="B1" s="439"/>
-      <c r="C1" s="439"/>
-      <c r="D1" s="440"/>
-      <c r="E1" s="439"/>
-      <c r="F1" s="439"/>
-      <c r="G1" s="439"/>
-      <c r="H1" s="439"/>
+      <c r="B1" s="440"/>
+      <c r="C1" s="440"/>
+      <c r="D1" s="441"/>
+      <c r="E1" s="440"/>
+      <c r="F1" s="440"/>
+      <c r="G1" s="440"/>
+      <c r="H1" s="440"/>
     </row>
     <row r="2" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -22286,7 +22335,7 @@
     <row r="21" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="441" t="s">
+      <c r="C21" s="435" t="s">
         <v>299</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -22306,7 +22355,7 @@
     <row r="22" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="418"/>
       <c r="B22" s="418"/>
-      <c r="C22" s="441" t="s">
+      <c r="C22" s="435" t="s">
         <v>127</v>
       </c>
       <c r="D22" s="3" t="s">

--- a/GB-3  Sales.xlsx
+++ b/GB-3  Sales.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="18195" windowHeight="10545" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="18195" windowHeight="10545" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sales-2017" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="430">
   <si>
     <t>Oil Filter</t>
   </si>
@@ -1132,9 +1132,6 @@
     <t>ရွဴး</t>
   </si>
   <si>
-    <t>Swift</t>
-  </si>
-  <si>
     <t>GB3</t>
   </si>
   <si>
@@ -1292,13 +1289,28 @@
   </si>
   <si>
     <t>Hijet/GB</t>
+  </si>
+  <si>
+    <t>11.8.2018</t>
+  </si>
+  <si>
+    <t>1Pcsက်န္</t>
+  </si>
+  <si>
+    <t>12.8.2018</t>
+  </si>
+  <si>
+    <t>Air Filter 21030</t>
+  </si>
+  <si>
+    <t>Disk Brake</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
         <u/>
-        <sz val="11"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -1309,7 +1321,7 @@
     <r>
       <rPr>
         <u/>
-        <sz val="11"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -1319,10 +1331,10 @@
     </r>
   </si>
   <si>
-    <t>11.8.2018</t>
-  </si>
-  <si>
-    <t>1Pcsက်န္</t>
+    <t>13.8.2018</t>
+  </si>
+  <si>
+    <t>Switz</t>
   </si>
 </sst>
 </file>
@@ -1333,7 +1345,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1595,16 +1607,7 @@
     </font>
     <font>
       <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1843,7 +1846,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="451">
+  <cellXfs count="449">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2821,9 +2824,6 @@
     <xf numFmtId="164" fontId="2" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="34" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2876,16 +2876,7 @@
     <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2947,37 +2938,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2987,6 +2951,39 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6389,7 +6386,7 @@
   <dimension ref="A1:M260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L226" sqref="L226"/>
     </sheetView>
   </sheetViews>
@@ -6412,10 +6409,10 @@
       <c r="B1" s="198" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="436" t="s">
+      <c r="C1" s="440" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="437"/>
+      <c r="D1" s="441"/>
       <c r="E1" s="198" t="s">
         <v>116</v>
       </c>
@@ -11766,9 +11763,9 @@
   </sheetPr>
   <dimension ref="A1:Q298"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A258" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J116" sqref="J116"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M286" sqref="M286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11792,10 +11789,10 @@
       <c r="B1" s="333" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="438" t="s">
+      <c r="C1" s="442" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="439"/>
+      <c r="D1" s="443"/>
       <c r="E1" s="333" t="s">
         <v>116</v>
       </c>
@@ -14412,18 +14409,18 @@
         <v>8</v>
       </c>
       <c r="B127" s="4"/>
-      <c r="C127" s="389" t="s">
+      <c r="C127" s="388" t="s">
         <v>299</v>
       </c>
-      <c r="D127" s="390"/>
-      <c r="E127" s="390" t="s">
+      <c r="D127" s="389"/>
+      <c r="E127" s="389" t="s">
         <v>22</v>
       </c>
-      <c r="F127" s="390">
-        <v>1</v>
-      </c>
-      <c r="G127" s="391"/>
-      <c r="H127" s="391">
+      <c r="F127" s="389">
+        <v>1</v>
+      </c>
+      <c r="G127" s="390"/>
+      <c r="H127" s="390">
         <v>20400</v>
       </c>
       <c r="I127" s="101" t="s">
@@ -15001,17 +14998,20 @@
         <v>4</v>
       </c>
       <c r="B157" s="4"/>
-      <c r="C157" s="357" t="s">
+      <c r="C157" s="388" t="s">
         <v>320</v>
       </c>
-      <c r="D157" s="8"/>
-      <c r="E157" s="8"/>
-      <c r="F157" s="8">
-        <v>1</v>
-      </c>
-      <c r="G157" s="79"/>
-      <c r="H157" s="79">
+      <c r="D157" s="389"/>
+      <c r="E157" s="389"/>
+      <c r="F157" s="389">
+        <v>1</v>
+      </c>
+      <c r="G157" s="390"/>
+      <c r="H157" s="390">
         <v>3150</v>
+      </c>
+      <c r="I157" s="101" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -15278,22 +15278,22 @@
         <v>4</v>
       </c>
       <c r="B171" s="4"/>
-      <c r="C171" s="389" t="s">
+      <c r="C171" s="388" t="s">
         <v>303</v>
       </c>
-      <c r="D171" s="390"/>
-      <c r="E171" s="390"/>
-      <c r="F171" s="390">
+      <c r="D171" s="389"/>
+      <c r="E171" s="389"/>
+      <c r="F171" s="389">
         <v>4</v>
       </c>
-      <c r="G171" s="391">
+      <c r="G171" s="390">
         <v>3150</v>
       </c>
-      <c r="H171" s="391">
+      <c r="H171" s="390">
         <v>12600</v>
       </c>
       <c r="I171" s="101" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -15400,7 +15400,7 @@
     <row r="177" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
-      <c r="C177" s="411" t="s">
+      <c r="C177" s="407" t="s">
         <v>189</v>
       </c>
       <c r="D177" s="235" t="s">
@@ -15414,24 +15414,27 @@
       <c r="H177" s="356">
         <v>2650</v>
       </c>
-      <c r="I177" s="417"/>
+      <c r="I177" s="413"/>
     </row>
     <row r="178" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
-      <c r="C178" s="383" t="s">
+      <c r="C178" s="411" t="s">
         <v>108</v>
       </c>
-      <c r="D178" s="8" t="s">
+      <c r="D178" s="389" t="s">
         <v>332</v>
       </c>
-      <c r="E178" s="8"/>
-      <c r="F178" s="8">
-        <v>1</v>
-      </c>
-      <c r="G178" s="79"/>
-      <c r="H178" s="79">
+      <c r="E178" s="389"/>
+      <c r="F178" s="389">
+        <v>1</v>
+      </c>
+      <c r="G178" s="390"/>
+      <c r="H178" s="390">
         <v>3500</v>
+      </c>
+      <c r="I178" s="101" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -15543,17 +15546,20 @@
         <v>2</v>
       </c>
       <c r="B185" s="4"/>
-      <c r="C185" s="234" t="s">
+      <c r="C185" s="448" t="s">
         <v>108</v>
       </c>
-      <c r="D185" s="8"/>
-      <c r="E185" s="8"/>
-      <c r="F185" s="8">
-        <v>1</v>
-      </c>
-      <c r="G185" s="79"/>
-      <c r="H185" s="79">
+      <c r="D185" s="389"/>
+      <c r="E185" s="389"/>
+      <c r="F185" s="389">
+        <v>1</v>
+      </c>
+      <c r="G185" s="390"/>
+      <c r="H185" s="390">
         <v>3500</v>
+      </c>
+      <c r="I185" s="101" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -15654,7 +15660,7 @@
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
       <c r="G190" s="50"/>
-      <c r="H190" s="385">
+      <c r="H190" s="384">
         <f>SUM(H184:H189)</f>
         <v>45850</v>
       </c>
@@ -15713,7 +15719,7 @@
       <c r="E193" s="4"/>
       <c r="F193" s="4"/>
       <c r="G193" s="50"/>
-      <c r="H193" s="385">
+      <c r="H193" s="384">
         <f>SUM(H190:H192)</f>
         <v>74200</v>
       </c>
@@ -15822,17 +15828,20 @@
         <v>6</v>
       </c>
       <c r="B199" s="4"/>
-      <c r="C199" s="357" t="s">
+      <c r="C199" s="388" t="s">
         <v>108</v>
       </c>
-      <c r="D199" s="8"/>
-      <c r="E199" s="8"/>
-      <c r="F199" s="8">
-        <v>1</v>
-      </c>
-      <c r="G199" s="79"/>
-      <c r="H199" s="79">
+      <c r="D199" s="389"/>
+      <c r="E199" s="389"/>
+      <c r="F199" s="389">
+        <v>1</v>
+      </c>
+      <c r="G199" s="390"/>
+      <c r="H199" s="390">
         <v>3500</v>
+      </c>
+      <c r="I199" s="101" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -15880,7 +15889,7 @@
         <v>9</v>
       </c>
       <c r="B202" s="4"/>
-      <c r="C202" s="388" t="s">
+      <c r="C202" s="387" t="s">
         <v>339</v>
       </c>
       <c r="D202" s="275"/>
@@ -15911,7 +15920,7 @@
     <row r="204" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
-      <c r="C204" s="416" t="s">
+      <c r="C204" s="412" t="s">
         <v>197</v>
       </c>
       <c r="D204" s="366"/>
@@ -15945,22 +15954,22 @@
     <row r="206" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
-      <c r="C206" s="415" t="s">
+      <c r="C206" s="411" t="s">
         <v>338</v>
       </c>
-      <c r="D206" s="390" t="s">
+      <c r="D206" s="389" t="s">
         <v>337</v>
       </c>
-      <c r="E206" s="390"/>
-      <c r="F206" s="390">
+      <c r="E206" s="389"/>
+      <c r="F206" s="389">
         <v>4</v>
       </c>
-      <c r="G206" s="391"/>
-      <c r="H206" s="425" t="s">
+      <c r="G206" s="390"/>
+      <c r="H206" s="421" t="s">
         <v>153</v>
       </c>
       <c r="I206" s="101" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
@@ -15971,7 +15980,7 @@
       <c r="E207" s="23"/>
       <c r="F207" s="23"/>
       <c r="G207" s="23"/>
-      <c r="H207" s="384">
+      <c r="H207" s="383">
         <f>SUM(H203:H206)</f>
         <v>130650</v>
       </c>
@@ -16313,7 +16322,7 @@
     <row r="226" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
-      <c r="C226" s="386" t="s">
+      <c r="C226" s="385" t="s">
         <v>347</v>
       </c>
       <c r="D226" s="45" t="s">
@@ -16331,7 +16340,7 @@
     <row r="227" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
-      <c r="C227" s="386" t="s">
+      <c r="C227" s="385" t="s">
         <v>192</v>
       </c>
       <c r="D227" s="45" t="s">
@@ -16568,7 +16577,7 @@
         <v>21350</v>
       </c>
       <c r="I239" s="101" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="240" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -16589,7 +16598,7 @@
         <v>1750</v>
       </c>
       <c r="I240" s="101" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="241" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -16645,7 +16654,7 @@
         <v>21350</v>
       </c>
       <c r="I243" s="101" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -17193,7 +17202,7 @@
     <row r="272" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
-      <c r="C272" s="386"/>
+      <c r="C272" s="385"/>
       <c r="D272" s="45"/>
       <c r="E272" s="45"/>
       <c r="F272" s="45"/>
@@ -17225,7 +17234,7 @@
         <v>2000</v>
       </c>
       <c r="I273" s="101" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="274" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -17288,7 +17297,7 @@
         <v>4500</v>
       </c>
       <c r="I276" s="101" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="277" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -17309,7 +17318,7 @@
         <v>2000</v>
       </c>
       <c r="I277" s="101" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="278" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -17401,7 +17410,7 @@
         <v>84</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>369</v>
+        <v>429</v>
       </c>
       <c r="E282" s="4"/>
       <c r="F282" s="4">
@@ -17428,14 +17437,14 @@
     <row r="284" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
-      <c r="C284" s="415" t="s">
+      <c r="C284" s="411" t="s">
         <v>276</v>
       </c>
-      <c r="D284" s="390" t="s">
-        <v>370</v>
-      </c>
-      <c r="E284" s="390"/>
-      <c r="F284" s="390">
+      <c r="D284" s="389" t="s">
+        <v>369</v>
+      </c>
+      <c r="E284" s="389"/>
+      <c r="F284" s="389">
         <v>2</v>
       </c>
       <c r="G284" s="377">
@@ -17445,13 +17454,13 @@
         <v>8000</v>
       </c>
       <c r="I284" s="101" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="285" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
-      <c r="C285" s="386" t="s">
+      <c r="C285" s="385" t="s">
         <v>354</v>
       </c>
       <c r="D285" s="45"/>
@@ -17484,7 +17493,7 @@
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="188" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D287" s="4" t="s">
         <v>51</v>
@@ -17514,7 +17523,7 @@
         <v>1</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C289" s="375" t="s">
         <v>204</v>
@@ -17531,7 +17540,7 @@
         <v>4700</v>
       </c>
       <c r="I289" s="101" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="290" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -17562,10 +17571,10 @@
       </c>
       <c r="B291" s="4"/>
       <c r="C291" s="193" t="s">
+        <v>372</v>
+      </c>
+      <c r="D291" s="4" t="s">
         <v>373</v>
-      </c>
-      <c r="D291" s="4" t="s">
-        <v>374</v>
       </c>
       <c r="E291" s="4"/>
       <c r="F291" s="4">
@@ -17598,7 +17607,7 @@
         <v>22300</v>
       </c>
       <c r="I292" s="101" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="293" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -17619,7 +17628,7 @@
         <v>2500</v>
       </c>
       <c r="I293" s="101" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="294" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -17639,7 +17648,7 @@
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="260" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D295" s="4"/>
       <c r="E295" s="4"/>
@@ -17713,8 +17722,8 @@
   </sheetPr>
   <dimension ref="A1:Q298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="J83" sqref="J83"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="L134" sqref="L134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17738,10 +17747,10 @@
       <c r="B1" s="333" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="438" t="s">
+      <c r="C1" s="442" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="439"/>
+      <c r="D1" s="443"/>
       <c r="E1" s="333" t="s">
         <v>116</v>
       </c>
@@ -17761,7 +17770,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C2" s="375" t="s">
         <v>276</v>
@@ -17780,7 +17789,7 @@
         <v>36000</v>
       </c>
       <c r="I2" s="87" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17789,7 +17798,7 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="375" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D3" s="376"/>
       <c r="E3" s="376" t="s">
@@ -17805,7 +17814,7 @@
         <v>13100</v>
       </c>
       <c r="I3" s="87" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17814,7 +17823,7 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="313" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D4" s="275"/>
       <c r="E4" s="275" t="s">
@@ -17828,7 +17837,7 @@
         <v>21350</v>
       </c>
       <c r="I4" s="86" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17849,7 +17858,7 @@
         <v>2500</v>
       </c>
       <c r="I5" s="87" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17870,7 +17879,7 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="260" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -17936,13 +17945,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C11" s="188" t="s">
         <v>273</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4">
@@ -17965,7 +17974,7 @@
         <v>50</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4">
@@ -18024,7 +18033,7 @@
         <v>9000</v>
       </c>
       <c r="I14" s="87" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18047,7 +18056,7 @@
         <v>20400</v>
       </c>
       <c r="I15" s="336" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18068,7 +18077,7 @@
         <v>1750</v>
       </c>
       <c r="I16" s="87" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18089,7 +18098,7 @@
         <v>3500</v>
       </c>
       <c r="I17" s="87" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18101,7 +18110,7 @@
         <v>350</v>
       </c>
       <c r="D18" s="376" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E18" s="376"/>
       <c r="F18" s="376">
@@ -18114,7 +18123,7 @@
         <v>8000</v>
       </c>
       <c r="I18" s="87" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18123,7 +18132,7 @@
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="260" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>4</v>
@@ -18142,7 +18151,7 @@
     <row r="20" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="386"/>
+      <c r="C20" s="385"/>
       <c r="D20" s="45"/>
       <c r="E20" s="45"/>
       <c r="F20" s="45"/>
@@ -18155,7 +18164,7 @@
     <row r="21" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="386" t="s">
+      <c r="C21" s="385" t="s">
         <v>321</v>
       </c>
       <c r="D21" s="45"/>
@@ -18218,7 +18227,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C25" s="188" t="s">
         <v>78</v>
@@ -18241,7 +18250,7 @@
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="193" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -18258,7 +18267,7 @@
         <v>343</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -18284,7 +18293,7 @@
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="260" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -18312,7 +18321,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C31" s="315" t="s">
         <v>125</v>
@@ -18355,7 +18364,7 @@
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="313" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D33" s="275"/>
       <c r="E33" s="275"/>
@@ -18373,7 +18382,7 @@
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="193" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D34" s="4">
         <v>45</v>
@@ -18392,7 +18401,7 @@
         <v>5</v>
       </c>
       <c r="B35" s="4"/>
-      <c r="C35" s="388" t="s">
+      <c r="C35" s="387" t="s">
         <v>342</v>
       </c>
       <c r="D35" s="275"/>
@@ -18472,7 +18481,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="4"/>
-      <c r="C39" s="388" t="s">
+      <c r="C39" s="387" t="s">
         <v>171</v>
       </c>
       <c r="D39" s="275"/>
@@ -18492,7 +18501,7 @@
         <v>10</v>
       </c>
       <c r="B40" s="4"/>
-      <c r="C40" s="416" t="s">
+      <c r="C40" s="412" t="s">
         <v>135</v>
       </c>
       <c r="D40" s="366"/>
@@ -18512,7 +18521,7 @@
         <v>11</v>
       </c>
       <c r="B41" s="4"/>
-      <c r="C41" s="386" t="s">
+      <c r="C41" s="385" t="s">
         <v>50</v>
       </c>
       <c r="D41" s="45" t="s">
@@ -18532,7 +18541,7 @@
         <v>12</v>
       </c>
       <c r="B42" s="4"/>
-      <c r="C42" s="386" t="s">
+      <c r="C42" s="385" t="s">
         <v>27</v>
       </c>
       <c r="D42" s="45" t="s">
@@ -18550,7 +18559,7 @@
     <row r="43" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
-      <c r="C43" s="386"/>
+      <c r="C43" s="385"/>
       <c r="D43" s="45"/>
       <c r="E43" s="45"/>
       <c r="F43" s="45"/>
@@ -18564,7 +18573,7 @@
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="193" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -18580,10 +18589,10 @@
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="193" t="s">
+        <v>391</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>392</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>393</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4">
@@ -18644,10 +18653,10 @@
         <v>1</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C49" s="315" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D49" s="275"/>
       <c r="E49" s="275"/>
@@ -18659,7 +18668,7 @@
         <v>3500</v>
       </c>
       <c r="I49" s="101" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18684,18 +18693,18 @@
         <v>36000</v>
       </c>
       <c r="I50" s="101" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
-      <c r="C51" s="399"/>
+      <c r="C51" s="398"/>
       <c r="D51" s="235"/>
       <c r="E51" s="235"/>
       <c r="F51" s="235"/>
       <c r="G51" s="356"/>
-      <c r="H51" s="400">
+      <c r="H51" s="399">
         <f>SUM(H49:H50)</f>
         <v>39500</v>
       </c>
@@ -18703,7 +18712,7 @@
     <row r="52" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
-      <c r="C52" s="393" t="s">
+      <c r="C52" s="392" t="s">
         <v>343</v>
       </c>
       <c r="D52" s="83" t="s">
@@ -18719,12 +18728,12 @@
     <row r="53" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
-      <c r="C53" s="392"/>
+      <c r="C53" s="391"/>
       <c r="D53" s="83"/>
       <c r="E53" s="83"/>
       <c r="F53" s="83"/>
       <c r="G53" s="84"/>
-      <c r="H53" s="401">
+      <c r="H53" s="400">
         <f>SUM(H51:H52)</f>
         <v>63500</v>
       </c>
@@ -18734,7 +18743,7 @@
         <v>1</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C54" s="315" t="s">
         <v>197</v>
@@ -18753,7 +18762,7 @@
         <v>12600</v>
       </c>
       <c r="I54" s="101" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18762,10 +18771,10 @@
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="378" t="s">
+        <v>396</v>
+      </c>
+      <c r="D55" s="376" t="s">
         <v>397</v>
-      </c>
-      <c r="D55" s="376" t="s">
-        <v>398</v>
       </c>
       <c r="E55" s="376"/>
       <c r="F55" s="376">
@@ -18778,7 +18787,7 @@
         <v>24000</v>
       </c>
       <c r="I55" s="101" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18787,7 +18796,7 @@
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="193" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>254</v>
@@ -18819,7 +18828,7 @@
         <v>1750</v>
       </c>
       <c r="I57" s="101" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18869,7 +18878,7 @@
         <v>1</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C61" s="315" t="s">
         <v>188</v>
@@ -18886,7 +18895,7 @@
         <v>22300</v>
       </c>
       <c r="I61" s="101" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18909,7 +18918,7 @@
         <v>5350</v>
       </c>
       <c r="I62" s="101" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18930,7 +18939,7 @@
         <v>3150</v>
       </c>
       <c r="I63" s="101" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18960,8 +18969,8 @@
         <v>5</v>
       </c>
       <c r="B65" s="4"/>
-      <c r="C65" s="388" t="s">
-        <v>401</v>
+      <c r="C65" s="387" t="s">
+        <v>400</v>
       </c>
       <c r="D65" s="275"/>
       <c r="E65" s="275"/>
@@ -18973,7 +18982,7 @@
         <v>2750</v>
       </c>
       <c r="I65" s="101" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18982,10 +18991,10 @@
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="260" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4">
@@ -19001,8 +19010,8 @@
         <v>7</v>
       </c>
       <c r="B67" s="4"/>
-      <c r="C67" s="388" t="s">
-        <v>403</v>
+      <c r="C67" s="387" t="s">
+        <v>402</v>
       </c>
       <c r="D67" s="275"/>
       <c r="E67" s="275"/>
@@ -19014,7 +19023,7 @@
         <v>5000</v>
       </c>
       <c r="I67" s="101" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19022,7 +19031,7 @@
         <v>8</v>
       </c>
       <c r="B68" s="4"/>
-      <c r="C68" s="388" t="s">
+      <c r="C68" s="387" t="s">
         <v>109</v>
       </c>
       <c r="D68" s="275"/>
@@ -19035,7 +19044,7 @@
         <v>3500</v>
       </c>
       <c r="I68" s="101" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19054,7 +19063,7 @@
     <row r="70" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
-      <c r="C70" s="386" t="s">
+      <c r="C70" s="385" t="s">
         <v>354</v>
       </c>
       <c r="D70" s="45"/>
@@ -19070,7 +19079,7 @@
     <row r="71" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
-      <c r="C71" s="386" t="s">
+      <c r="C71" s="385" t="s">
         <v>343</v>
       </c>
       <c r="D71" s="45" t="s">
@@ -19086,11 +19095,11 @@
     <row r="72" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
-      <c r="C72" s="386" t="s">
-        <v>405</v>
+      <c r="C72" s="385" t="s">
+        <v>404</v>
       </c>
       <c r="D72" s="45" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E72" s="45"/>
       <c r="F72" s="45"/>
@@ -19102,7 +19111,7 @@
     <row r="73" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
-      <c r="C73" s="386"/>
+      <c r="C73" s="385"/>
       <c r="D73" s="45"/>
       <c r="E73" s="45"/>
       <c r="F73" s="45"/>
@@ -19117,13 +19126,13 @@
         <v>1</v>
       </c>
       <c r="B74" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C74" s="436" t="s">
         <v>406</v>
       </c>
-      <c r="C74" s="449" t="s">
-        <v>407</v>
-      </c>
-      <c r="D74" s="426"/>
-      <c r="E74" s="426" t="s">
+      <c r="D74" s="422"/>
+      <c r="E74" s="422" t="s">
         <v>14</v>
       </c>
       <c r="F74" s="376">
@@ -19139,7 +19148,7 @@
         <v>27000</v>
       </c>
       <c r="J74" s="341" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19148,7 +19157,7 @@
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="193" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -19170,8 +19179,8 @@
       <c r="C76" s="378" t="s">
         <v>350</v>
       </c>
-      <c r="D76" s="426"/>
-      <c r="E76" s="426" t="s">
+      <c r="D76" s="422"/>
+      <c r="E76" s="422" t="s">
         <v>14</v>
       </c>
       <c r="F76" s="376">
@@ -19182,7 +19191,7 @@
         <v>2000</v>
       </c>
       <c r="I76" s="101" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19193,8 +19202,8 @@
       <c r="C77" s="378" t="s">
         <v>160</v>
       </c>
-      <c r="D77" s="426"/>
-      <c r="E77" s="426" t="s">
+      <c r="D77" s="422"/>
+      <c r="E77" s="422" t="s">
         <v>22</v>
       </c>
       <c r="F77" s="376">
@@ -19205,7 +19214,7 @@
         <v>30500</v>
       </c>
       <c r="I77" s="101" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19216,8 +19225,8 @@
       <c r="C78" s="378" t="s">
         <v>160</v>
       </c>
-      <c r="D78" s="426"/>
-      <c r="E78" s="426" t="s">
+      <c r="D78" s="422"/>
+      <c r="E78" s="422" t="s">
         <v>14</v>
       </c>
       <c r="F78" s="376">
@@ -19228,7 +19237,7 @@
         <v>9500</v>
       </c>
       <c r="I78" s="101" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19237,10 +19246,10 @@
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="378" t="s">
-        <v>409</v>
-      </c>
-      <c r="D79" s="426"/>
-      <c r="E79" s="426"/>
+        <v>408</v>
+      </c>
+      <c r="D79" s="422"/>
+      <c r="E79" s="422"/>
       <c r="F79" s="376">
         <v>1</v>
       </c>
@@ -19249,7 +19258,7 @@
         <v>2650</v>
       </c>
       <c r="I79" s="101" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19258,10 +19267,10 @@
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="378" t="s">
-        <v>410</v>
-      </c>
-      <c r="D80" s="426"/>
-      <c r="E80" s="426"/>
+        <v>409</v>
+      </c>
+      <c r="D80" s="422"/>
+      <c r="E80" s="422"/>
       <c r="F80" s="376">
         <v>1</v>
       </c>
@@ -19270,7 +19279,7 @@
         <v>3000</v>
       </c>
       <c r="I80" s="101" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19279,10 +19288,10 @@
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="378" t="s">
-        <v>411</v>
-      </c>
-      <c r="D81" s="426"/>
-      <c r="E81" s="426"/>
+        <v>410</v>
+      </c>
+      <c r="D81" s="422"/>
+      <c r="E81" s="422"/>
       <c r="F81" s="376">
         <v>1</v>
       </c>
@@ -19291,7 +19300,7 @@
         <v>5000</v>
       </c>
       <c r="I81" s="101" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19303,7 +19312,7 @@
         <v>71</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="4">
@@ -19319,11 +19328,11 @@
         <v>10</v>
       </c>
       <c r="B83" s="3"/>
-      <c r="C83" s="424" t="s">
-        <v>413</v>
+      <c r="C83" s="420" t="s">
+        <v>412</v>
       </c>
       <c r="D83" s="70" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E83" s="70"/>
       <c r="F83" s="45">
@@ -19339,14 +19348,14 @@
         <v>11</v>
       </c>
       <c r="B84" s="3"/>
-      <c r="C84" s="389" t="s">
+      <c r="C84" s="388" t="s">
         <v>197</v>
       </c>
-      <c r="D84" s="427"/>
-      <c r="E84" s="427" t="s">
+      <c r="D84" s="423"/>
+      <c r="E84" s="423" t="s">
         <v>22</v>
       </c>
-      <c r="F84" s="390">
+      <c r="F84" s="389">
         <v>1</v>
       </c>
       <c r="G84" s="377"/>
@@ -19354,7 +19363,7 @@
         <v>21350</v>
       </c>
       <c r="I84" s="101" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19362,12 +19371,12 @@
         <v>12</v>
       </c>
       <c r="B85" s="3"/>
-      <c r="C85" s="389" t="s">
+      <c r="C85" s="388" t="s">
         <v>127</v>
       </c>
-      <c r="D85" s="427"/>
-      <c r="E85" s="427"/>
-      <c r="F85" s="390">
+      <c r="D85" s="423"/>
+      <c r="E85" s="423"/>
+      <c r="F85" s="389">
         <v>1</v>
       </c>
       <c r="G85" s="377"/>
@@ -19375,7 +19384,7 @@
         <v>1750</v>
       </c>
       <c r="I85" s="101" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N85" s="101" t="s">
         <v>266</v>
@@ -19386,7 +19395,7 @@
         <v>13</v>
       </c>
       <c r="B86" s="3"/>
-      <c r="C86" s="424" t="s">
+      <c r="C86" s="420" t="s">
         <v>208</v>
       </c>
       <c r="D86" s="70" t="s">
@@ -19409,8 +19418,8 @@
       <c r="C87" s="378" t="s">
         <v>197</v>
       </c>
-      <c r="D87" s="426"/>
-      <c r="E87" s="426" t="s">
+      <c r="D87" s="422"/>
+      <c r="E87" s="422" t="s">
         <v>14</v>
       </c>
       <c r="F87" s="376">
@@ -19421,7 +19430,7 @@
         <v>6300</v>
       </c>
       <c r="I87" s="101" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19473,45 +19482,45 @@
     <row r="91" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="3"/>
-      <c r="C91" s="419" t="s">
+      <c r="C91" s="415" t="s">
         <v>343</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="E91" s="419"/>
-      <c r="F91" s="420"/>
-      <c r="G91" s="420"/>
-      <c r="H91" s="421">
+        <v>385</v>
+      </c>
+      <c r="E91" s="415"/>
+      <c r="F91" s="416"/>
+      <c r="G91" s="416"/>
+      <c r="H91" s="417">
         <v>28500</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
-      <c r="B92" s="418"/>
-      <c r="C92" s="419" t="s">
+      <c r="B92" s="414"/>
+      <c r="C92" s="415" t="s">
         <v>363</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="E92" s="419"/>
+      <c r="E92" s="415"/>
       <c r="F92" s="4">
         <v>5</v>
       </c>
-      <c r="G92" s="422">
+      <c r="G92" s="418">
         <v>1500</v>
       </c>
-      <c r="H92" s="422">
+      <c r="H92" s="418">
         <v>7500</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
-      <c r="B93" s="418"/>
-      <c r="C93" s="418"/>
-      <c r="D93" s="418"/>
-      <c r="E93" s="418"/>
+      <c r="B93" s="414"/>
+      <c r="C93" s="414"/>
+      <c r="D93" s="414"/>
+      <c r="E93" s="414"/>
       <c r="F93" s="77"/>
       <c r="G93" s="77"/>
       <c r="H93" s="367">
@@ -19524,13 +19533,13 @@
         <v>1</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="C94" s="428" t="s">
+        <v>413</v>
+      </c>
+      <c r="C94" s="424" t="s">
         <v>341</v>
       </c>
-      <c r="D94" s="426"/>
-      <c r="E94" s="426"/>
+      <c r="D94" s="422"/>
+      <c r="E94" s="422"/>
       <c r="F94" s="376">
         <v>1</v>
       </c>
@@ -19539,7 +19548,7 @@
         <v>3500</v>
       </c>
       <c r="I94" s="101" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19548,10 +19557,10 @@
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="378" t="s">
-        <v>415</v>
-      </c>
-      <c r="D95" s="426"/>
-      <c r="E95" s="426"/>
+        <v>414</v>
+      </c>
+      <c r="D95" s="422"/>
+      <c r="E95" s="422"/>
       <c r="F95" s="376">
         <v>1</v>
       </c>
@@ -19560,9 +19569,9 @@
         <v>3500</v>
       </c>
       <c r="I95" s="101" t="s">
-        <v>418</v>
-      </c>
-      <c r="K95" s="429"/>
+        <v>417</v>
+      </c>
+      <c r="K95" s="425"/>
     </row>
     <row r="96" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
@@ -19572,8 +19581,8 @@
       <c r="C96" s="378" t="s">
         <v>299</v>
       </c>
-      <c r="D96" s="426"/>
-      <c r="E96" s="426" t="s">
+      <c r="D96" s="422"/>
+      <c r="E96" s="422" t="s">
         <v>22</v>
       </c>
       <c r="F96" s="376">
@@ -19584,7 +19593,7 @@
         <v>20400</v>
       </c>
       <c r="I96" s="101" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19595,8 +19604,8 @@
       <c r="C97" s="378" t="s">
         <v>127</v>
       </c>
-      <c r="D97" s="426"/>
-      <c r="E97" s="426"/>
+      <c r="D97" s="422"/>
+      <c r="E97" s="422"/>
       <c r="F97" s="376">
         <v>3</v>
       </c>
@@ -19607,7 +19616,7 @@
         <v>5250</v>
       </c>
       <c r="I97" s="101" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19638,8 +19647,8 @@
       <c r="C99" s="378" t="s">
         <v>160</v>
       </c>
-      <c r="D99" s="426"/>
-      <c r="E99" s="426" t="s">
+      <c r="D99" s="422"/>
+      <c r="E99" s="422" t="s">
         <v>22</v>
       </c>
       <c r="F99" s="376">
@@ -19650,7 +19659,7 @@
         <v>30500</v>
       </c>
       <c r="I99" s="101" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="100" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19659,7 +19668,7 @@
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="193" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -19720,11 +19729,11 @@
         <v>10</v>
       </c>
       <c r="B103" s="3"/>
-      <c r="C103" s="424" t="s">
+      <c r="C103" s="420" t="s">
         <v>27</v>
       </c>
       <c r="D103" s="70" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E103" s="70"/>
       <c r="F103" s="45">
@@ -19740,12 +19749,12 @@
         <v>11</v>
       </c>
       <c r="B104" s="3"/>
-      <c r="C104" s="389" t="s">
+      <c r="C104" s="388" t="s">
         <v>109</v>
       </c>
-      <c r="D104" s="427"/>
-      <c r="E104" s="427"/>
-      <c r="F104" s="390">
+      <c r="D104" s="423"/>
+      <c r="E104" s="423"/>
+      <c r="F104" s="389">
         <v>1</v>
       </c>
       <c r="G104" s="377"/>
@@ -19753,13 +19762,13 @@
         <v>3500</v>
       </c>
       <c r="I104" s="101" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
-      <c r="C105" s="424"/>
+      <c r="C105" s="420"/>
       <c r="D105" s="70"/>
       <c r="E105" s="70"/>
       <c r="F105" s="45"/>
@@ -19772,7 +19781,7 @@
     <row r="106" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
-      <c r="C106" s="424" t="s">
+      <c r="C106" s="420" t="s">
         <v>343</v>
       </c>
       <c r="D106" s="70" t="s">
@@ -19806,7 +19815,7 @@
         <v>1</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C108" s="375" t="s">
         <v>281</v>
@@ -19823,7 +19832,7 @@
         <v>40500</v>
       </c>
       <c r="I108" s="101" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19832,7 +19841,7 @@
       </c>
       <c r="B109" s="4"/>
       <c r="C109" s="193" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D109" s="4"/>
       <c r="E109" s="4" t="s">
@@ -19872,7 +19881,7 @@
       </c>
       <c r="B111" s="4"/>
       <c r="C111" s="193" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
@@ -19906,7 +19915,7 @@
         <v>42700</v>
       </c>
       <c r="I112" s="101" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19931,7 +19940,7 @@
         <v>44600</v>
       </c>
       <c r="I113" s="101" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19952,7 +19961,7 @@
         <v>3500</v>
       </c>
       <c r="I114" s="101" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19975,7 +19984,7 @@
         <v>9000</v>
       </c>
       <c r="I115" s="101" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20003,12 +20012,12 @@
         <v>10</v>
       </c>
       <c r="B117" s="4"/>
-      <c r="C117" s="389" t="s">
+      <c r="C117" s="388" t="s">
         <v>161</v>
       </c>
-      <c r="D117" s="390"/>
-      <c r="E117" s="390"/>
-      <c r="F117" s="390">
+      <c r="D117" s="389"/>
+      <c r="E117" s="389"/>
+      <c r="F117" s="389">
         <v>1</v>
       </c>
       <c r="G117" s="377"/>
@@ -20016,7 +20025,7 @@
         <v>3150</v>
       </c>
       <c r="I117" s="101" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20024,7 +20033,7 @@
         <v>11</v>
       </c>
       <c r="B118" s="4"/>
-      <c r="C118" s="424" t="s">
+      <c r="C118" s="420" t="s">
         <v>111</v>
       </c>
       <c r="D118" s="45" t="s">
@@ -20046,12 +20055,12 @@
         <v>12</v>
       </c>
       <c r="B119" s="4"/>
-      <c r="C119" s="450" t="s">
+      <c r="C119" s="437" t="s">
         <v>350</v>
       </c>
-      <c r="D119" s="395"/>
-      <c r="E119" s="395"/>
-      <c r="F119" s="395">
+      <c r="D119" s="394"/>
+      <c r="E119" s="394"/>
+      <c r="F119" s="394">
         <v>1</v>
       </c>
       <c r="G119" s="84"/>
@@ -20064,12 +20073,12 @@
         <v>13</v>
       </c>
       <c r="B120" s="4"/>
-      <c r="C120" s="389" t="s">
+      <c r="C120" s="388" t="s">
         <v>132</v>
       </c>
-      <c r="D120" s="390"/>
-      <c r="E120" s="390"/>
-      <c r="F120" s="390">
+      <c r="D120" s="389"/>
+      <c r="E120" s="389"/>
+      <c r="F120" s="389">
         <v>1</v>
       </c>
       <c r="G120" s="377"/>
@@ -20077,13 +20086,13 @@
         <v>2900</v>
       </c>
       <c r="I120" s="101" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="4"/>
-      <c r="C121" s="424"/>
+      <c r="C121" s="420"/>
       <c r="D121" s="45"/>
       <c r="E121" s="45"/>
       <c r="F121" s="45"/>
@@ -20136,7 +20145,7 @@
         <v>343</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
@@ -20161,194 +20170,281 @@
     <row r="126" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="4"/>
-      <c r="C126" s="444" t="s">
+      <c r="C126" s="431" t="s">
         <v>299</v>
       </c>
       <c r="D126" s="376" t="s">
-        <v>421</v>
-      </c>
-      <c r="E126" s="444" t="s">
+        <v>420</v>
+      </c>
+      <c r="E126" s="431" t="s">
         <v>22</v>
       </c>
       <c r="F126" s="376">
         <v>1</v>
       </c>
-      <c r="G126" s="444"/>
-      <c r="H126" s="445" t="s">
+      <c r="G126" s="431"/>
+      <c r="H126" s="432" t="s">
         <v>153</v>
       </c>
       <c r="I126" s="101" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="418"/>
+      <c r="A127" s="414"/>
       <c r="B127" s="77"/>
-      <c r="C127" s="444" t="s">
+      <c r="C127" s="431" t="s">
         <v>127</v>
       </c>
       <c r="D127" s="376" t="s">
-        <v>421</v>
-      </c>
-      <c r="E127" s="444"/>
+        <v>420</v>
+      </c>
+      <c r="E127" s="431"/>
       <c r="F127" s="376">
         <v>1</v>
       </c>
-      <c r="G127" s="446"/>
-      <c r="H127" s="446" t="s">
+      <c r="G127" s="433"/>
+      <c r="H127" s="433" t="s">
         <v>153</v>
       </c>
       <c r="I127" s="101" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="418"/>
+      <c r="A128" s="414"/>
       <c r="B128" s="77"/>
       <c r="C128" s="375" t="s">
         <v>197</v>
       </c>
       <c r="D128" s="376" t="s">
+        <v>421</v>
+      </c>
+      <c r="E128" s="434" t="s">
+        <v>14</v>
+      </c>
+      <c r="F128" s="376">
+        <v>1</v>
+      </c>
+      <c r="G128" s="434"/>
+      <c r="H128" s="435" t="s">
+        <v>153</v>
+      </c>
+      <c r="I128" s="101" t="s">
         <v>422</v>
       </c>
-      <c r="E128" s="447" t="s">
+    </row>
+    <row r="129" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <v>1</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C129" s="231" t="s">
+        <v>343</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="222"/>
+      <c r="H129" s="50">
+        <v>28500</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
+        <v>2</v>
+      </c>
+      <c r="B130" s="3"/>
+      <c r="C130" s="260" t="s">
+        <v>321</v>
+      </c>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="4">
+        <v>3</v>
+      </c>
+      <c r="G130" s="222"/>
+      <c r="H130" s="50">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="3"/>
+      <c r="B131" s="3"/>
+      <c r="C131" s="260"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="222"/>
+      <c r="H131" s="223">
+        <f>SUM(H129:H130)</f>
+        <v>33700</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="4">
+        <v>1</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C132" s="231" t="s">
+        <v>109</v>
+      </c>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="4">
+        <v>1</v>
+      </c>
+      <c r="G132" s="50"/>
+      <c r="H132" s="50">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="4">
+        <v>2</v>
+      </c>
+      <c r="B133" s="3"/>
+      <c r="C133" s="260" t="s">
+        <v>120</v>
+      </c>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="4">
+        <v>4</v>
+      </c>
+      <c r="G133" s="50">
+        <v>3000</v>
+      </c>
+      <c r="H133" s="50">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="4">
+        <v>3</v>
+      </c>
+      <c r="B134" s="3"/>
+      <c r="C134" s="260" t="s">
+        <v>406</v>
+      </c>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F128" s="376">
-        <v>1</v>
-      </c>
-      <c r="G128" s="447"/>
-      <c r="H128" s="448" t="s">
-        <v>153</v>
-      </c>
-      <c r="I128" s="101" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="255"/>
-      <c r="B129" s="255"/>
-      <c r="C129" s="402"/>
-      <c r="D129" s="397"/>
-      <c r="E129" s="397"/>
-      <c r="F129" s="397"/>
-      <c r="G129" s="397"/>
-      <c r="H129" s="84"/>
-    </row>
-    <row r="130" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="4"/>
-      <c r="B130" s="255"/>
-      <c r="C130" s="235"/>
-      <c r="D130" s="235"/>
-      <c r="E130" s="403"/>
-      <c r="F130" s="235"/>
-      <c r="G130" s="235"/>
-      <c r="H130" s="404"/>
-    </row>
-    <row r="131" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="4"/>
-      <c r="B131" s="255"/>
-      <c r="C131" s="235"/>
-      <c r="D131" s="235"/>
-      <c r="E131" s="235"/>
-      <c r="F131" s="235"/>
-      <c r="G131" s="235"/>
-      <c r="H131" s="356"/>
-    </row>
-    <row r="132" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="4"/>
-      <c r="B132" s="255"/>
-      <c r="C132" s="235"/>
-      <c r="D132" s="235"/>
-      <c r="E132" s="235"/>
-      <c r="F132" s="235"/>
-      <c r="G132" s="235"/>
-      <c r="H132" s="405"/>
-    </row>
-    <row r="133" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="4"/>
-      <c r="B133" s="4"/>
-      <c r="C133" s="392"/>
-      <c r="D133" s="83"/>
-      <c r="E133" s="83"/>
-      <c r="F133" s="83"/>
-      <c r="G133" s="84"/>
-      <c r="H133" s="84"/>
-    </row>
-    <row r="134" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="4"/>
-      <c r="B134" s="4"/>
-      <c r="C134" s="392"/>
-      <c r="D134" s="83"/>
-      <c r="E134" s="83"/>
-      <c r="F134" s="83"/>
-      <c r="G134" s="84"/>
-      <c r="H134" s="84"/>
+      <c r="F134" s="4">
+        <v>5</v>
+      </c>
+      <c r="G134" s="50">
+        <v>4500</v>
+      </c>
+      <c r="H134" s="50">
+        <v>22500</v>
+      </c>
     </row>
     <row r="135" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="4"/>
-      <c r="B135" s="4"/>
-      <c r="C135" s="192"/>
-      <c r="D135" s="83"/>
-      <c r="E135" s="83"/>
-      <c r="F135" s="83"/>
-      <c r="G135" s="84"/>
-      <c r="H135" s="84"/>
+      <c r="A135" s="4">
+        <v>4</v>
+      </c>
+      <c r="B135" s="3"/>
+      <c r="C135" s="260" t="s">
+        <v>132</v>
+      </c>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="4">
+        <v>1</v>
+      </c>
+      <c r="G135" s="50"/>
+      <c r="H135" s="50">
+        <v>2900</v>
+      </c>
     </row>
     <row r="136" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="4"/>
-      <c r="B136" s="4"/>
-      <c r="C136" s="192"/>
-      <c r="D136" s="83"/>
-      <c r="E136" s="83"/>
-      <c r="F136" s="83"/>
-      <c r="G136" s="84"/>
-      <c r="H136" s="84"/>
+      <c r="A136" s="4">
+        <v>5</v>
+      </c>
+      <c r="B136" s="3"/>
+      <c r="C136" s="260" t="s">
+        <v>425</v>
+      </c>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="50"/>
+      <c r="H136" s="50">
+        <v>2650</v>
+      </c>
     </row>
     <row r="137" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="4"/>
-      <c r="B137" s="4"/>
-      <c r="C137" s="392"/>
-      <c r="D137" s="83"/>
-      <c r="E137" s="83"/>
-      <c r="F137" s="83"/>
-      <c r="G137" s="84"/>
-      <c r="H137" s="84"/>
+      <c r="A137" s="3"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="260"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="4"/>
+      <c r="G137" s="222"/>
+      <c r="H137" s="257">
+        <f>SUM(H132:H136)</f>
+        <v>43550</v>
+      </c>
     </row>
     <row r="138" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="4"/>
-      <c r="B138" s="4"/>
-      <c r="C138" s="393"/>
-      <c r="D138" s="83"/>
-      <c r="E138" s="83"/>
-      <c r="F138" s="83"/>
-      <c r="G138" s="84"/>
-      <c r="H138" s="84"/>
+      <c r="A138" s="3"/>
+      <c r="B138" s="3"/>
+      <c r="C138" s="260" t="s">
+        <v>426</v>
+      </c>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="4">
+        <v>1</v>
+      </c>
+      <c r="G138" s="222"/>
+      <c r="H138" s="50">
+        <v>1000</v>
+      </c>
     </row>
     <row r="139" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="4"/>
-      <c r="B139" s="4"/>
-      <c r="C139" s="192"/>
-      <c r="D139" s="83"/>
-      <c r="E139" s="83"/>
-      <c r="F139" s="83"/>
-      <c r="G139" s="84"/>
-      <c r="H139" s="84"/>
+      <c r="A139" s="3"/>
+      <c r="B139" s="3"/>
+      <c r="C139" s="260" t="s">
+        <v>354</v>
+      </c>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="4">
+        <v>100</v>
+      </c>
+      <c r="G139" s="222">
+        <v>50</v>
+      </c>
+      <c r="H139" s="50">
+        <v>5000</v>
+      </c>
     </row>
     <row r="140" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="4"/>
-      <c r="B140" s="4"/>
-      <c r="C140" s="192"/>
-      <c r="D140" s="83"/>
-      <c r="E140" s="83"/>
-      <c r="F140" s="83"/>
-      <c r="G140" s="84"/>
-      <c r="H140" s="84"/>
+      <c r="A140" s="3"/>
+      <c r="B140" s="3"/>
+      <c r="C140" s="260"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="3"/>
+      <c r="G140" s="222"/>
+      <c r="H140" s="223">
+        <f>SUM(H137:H139)</f>
+        <v>49550</v>
+      </c>
     </row>
     <row r="141" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
-      <c r="C141" s="406"/>
+      <c r="C141" s="402"/>
       <c r="D141" s="83"/>
       <c r="E141" s="83"/>
       <c r="F141" s="83"/>
@@ -20360,7 +20456,7 @@
       <c r="B142" s="255"/>
       <c r="C142" s="192"/>
       <c r="D142" s="83"/>
-      <c r="E142" s="397"/>
+      <c r="E142" s="396"/>
       <c r="F142" s="83"/>
       <c r="G142" s="84"/>
       <c r="H142" s="84"/>
@@ -20370,15 +20466,15 @@
       <c r="B143" s="255"/>
       <c r="C143" s="235"/>
       <c r="D143" s="235"/>
-      <c r="E143" s="403"/>
+      <c r="E143" s="401"/>
       <c r="F143" s="235"/>
       <c r="G143" s="235"/>
-      <c r="H143" s="407"/>
+      <c r="H143" s="403"/>
     </row>
     <row r="144" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
-      <c r="C144" s="392"/>
+      <c r="C144" s="391"/>
       <c r="D144" s="83"/>
       <c r="E144" s="83"/>
       <c r="F144" s="83"/>
@@ -20388,7 +20484,7 @@
     <row r="145" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
-      <c r="C145" s="392"/>
+      <c r="C145" s="391"/>
       <c r="D145" s="83"/>
       <c r="E145" s="83"/>
       <c r="F145" s="83"/>
@@ -20398,7 +20494,7 @@
     <row r="146" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
-      <c r="C146" s="393"/>
+      <c r="C146" s="392"/>
       <c r="D146" s="83"/>
       <c r="E146" s="83"/>
       <c r="F146" s="83"/>
@@ -20418,17 +20514,17 @@
     <row r="148" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
-      <c r="C148" s="392"/>
+      <c r="C148" s="391"/>
       <c r="D148" s="83"/>
       <c r="E148" s="83"/>
       <c r="F148" s="83"/>
       <c r="G148" s="84"/>
-      <c r="H148" s="401"/>
+      <c r="H148" s="400"/>
     </row>
     <row r="149" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
-      <c r="C149" s="392"/>
+      <c r="C149" s="391"/>
       <c r="D149" s="83"/>
       <c r="E149" s="83"/>
       <c r="F149" s="83"/>
@@ -20438,7 +20534,7 @@
     <row r="150" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
-      <c r="C150" s="392"/>
+      <c r="C150" s="391"/>
       <c r="D150" s="83"/>
       <c r="E150" s="83"/>
       <c r="F150" s="83"/>
@@ -20468,17 +20564,17 @@
     <row r="153" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
-      <c r="C153" s="392"/>
+      <c r="C153" s="391"/>
       <c r="D153" s="83"/>
       <c r="E153" s="83"/>
       <c r="F153" s="83"/>
       <c r="G153" s="84"/>
-      <c r="H153" s="401"/>
+      <c r="H153" s="400"/>
     </row>
     <row r="154" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
-      <c r="C154" s="392"/>
+      <c r="C154" s="391"/>
       <c r="D154" s="83"/>
       <c r="E154" s="83"/>
       <c r="F154" s="83"/>
@@ -20488,7 +20584,7 @@
     <row r="155" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
-      <c r="C155" s="392"/>
+      <c r="C155" s="391"/>
       <c r="D155" s="83"/>
       <c r="E155" s="83"/>
       <c r="F155" s="83"/>
@@ -20518,7 +20614,7 @@
     <row r="158" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
-      <c r="C158" s="392"/>
+      <c r="C158" s="391"/>
       <c r="D158" s="83"/>
       <c r="E158" s="83"/>
       <c r="F158" s="83"/>
@@ -20528,7 +20624,7 @@
     <row r="159" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
-      <c r="C159" s="387"/>
+      <c r="C159" s="386"/>
       <c r="D159" s="83"/>
       <c r="E159" s="83"/>
       <c r="F159" s="83"/>
@@ -20538,7 +20634,7 @@
     <row r="160" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
-      <c r="C160" s="387"/>
+      <c r="C160" s="386"/>
       <c r="D160" s="83"/>
       <c r="E160" s="83"/>
       <c r="F160" s="83"/>
@@ -20558,7 +20654,7 @@
     <row r="162" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
-      <c r="C162" s="392"/>
+      <c r="C162" s="391"/>
       <c r="D162" s="83"/>
       <c r="E162" s="83"/>
       <c r="F162" s="83"/>
@@ -20570,27 +20666,27 @@
       <c r="B163" s="255"/>
       <c r="C163" s="192"/>
       <c r="D163" s="83"/>
-      <c r="E163" s="397"/>
+      <c r="E163" s="396"/>
       <c r="F163" s="83"/>
       <c r="G163" s="84"/>
-      <c r="H163" s="401"/>
+      <c r="H163" s="400"/>
     </row>
     <row r="164" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4"/>
       <c r="B164" s="255"/>
-      <c r="C164" s="394"/>
+      <c r="C164" s="393"/>
       <c r="D164" s="235"/>
-      <c r="E164" s="403"/>
-      <c r="F164" s="395"/>
-      <c r="G164" s="396"/>
-      <c r="H164" s="408"/>
+      <c r="E164" s="401"/>
+      <c r="F164" s="394"/>
+      <c r="G164" s="395"/>
+      <c r="H164" s="404"/>
     </row>
     <row r="165" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
       <c r="B165" s="255"/>
       <c r="C165" s="192"/>
       <c r="D165" s="83"/>
-      <c r="E165" s="397"/>
+      <c r="E165" s="396"/>
       <c r="F165" s="83"/>
       <c r="G165" s="84"/>
       <c r="H165" s="84"/>
@@ -20599,26 +20695,26 @@
       <c r="A166" s="255"/>
       <c r="B166" s="255"/>
       <c r="C166" s="192"/>
-      <c r="D166" s="397"/>
-      <c r="E166" s="397"/>
+      <c r="D166" s="396"/>
+      <c r="E166" s="396"/>
       <c r="F166" s="83"/>
-      <c r="G166" s="397"/>
+      <c r="G166" s="396"/>
       <c r="H166" s="85"/>
     </row>
     <row r="167" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="255"/>
       <c r="B167" s="255"/>
-      <c r="C167" s="397"/>
-      <c r="D167" s="397"/>
-      <c r="E167" s="397"/>
-      <c r="F167" s="397"/>
-      <c r="G167" s="397"/>
-      <c r="H167" s="409"/>
+      <c r="C167" s="396"/>
+      <c r="D167" s="396"/>
+      <c r="E167" s="396"/>
+      <c r="F167" s="396"/>
+      <c r="G167" s="396"/>
+      <c r="H167" s="405"/>
     </row>
     <row r="168" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
-      <c r="C168" s="392"/>
+      <c r="C168" s="391"/>
       <c r="D168" s="83"/>
       <c r="E168" s="83"/>
       <c r="F168" s="83"/>
@@ -20628,7 +20724,7 @@
     <row r="169" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
-      <c r="C169" s="392"/>
+      <c r="C169" s="391"/>
       <c r="D169" s="83"/>
       <c r="E169" s="83"/>
       <c r="F169" s="83"/>
@@ -20658,7 +20754,7 @@
     <row r="172" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
-      <c r="C172" s="392"/>
+      <c r="C172" s="391"/>
       <c r="D172" s="83"/>
       <c r="E172" s="83"/>
       <c r="F172" s="83"/>
@@ -20668,7 +20764,7 @@
     <row r="173" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
-      <c r="C173" s="387"/>
+      <c r="C173" s="386"/>
       <c r="D173" s="83"/>
       <c r="E173" s="83"/>
       <c r="F173" s="83"/>
@@ -20678,7 +20774,7 @@
     <row r="174" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
-      <c r="C174" s="387"/>
+      <c r="C174" s="386"/>
       <c r="D174" s="83"/>
       <c r="E174" s="83"/>
       <c r="F174" s="83"/>
@@ -20688,7 +20784,7 @@
     <row r="175" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
-      <c r="C175" s="387"/>
+      <c r="C175" s="386"/>
       <c r="D175" s="83"/>
       <c r="E175" s="83"/>
       <c r="F175" s="83"/>
@@ -20698,17 +20794,17 @@
     <row r="176" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
-      <c r="C176" s="387"/>
+      <c r="C176" s="386"/>
       <c r="D176" s="83"/>
       <c r="E176" s="83"/>
       <c r="F176" s="83"/>
       <c r="G176" s="84"/>
-      <c r="H176" s="401"/>
+      <c r="H176" s="400"/>
     </row>
     <row r="177" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
-      <c r="C177" s="387"/>
+      <c r="C177" s="386"/>
       <c r="D177" s="83"/>
       <c r="E177" s="83"/>
       <c r="F177" s="83"/>
@@ -20718,7 +20814,7 @@
     <row r="178" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
-      <c r="C178" s="387"/>
+      <c r="C178" s="386"/>
       <c r="D178" s="83"/>
       <c r="E178" s="83"/>
       <c r="F178" s="83"/>
@@ -20728,7 +20824,7 @@
     <row r="179" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
-      <c r="C179" s="387"/>
+      <c r="C179" s="386"/>
       <c r="D179" s="83"/>
       <c r="E179" s="83"/>
       <c r="F179" s="83"/>
@@ -20738,7 +20834,7 @@
     <row r="180" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
-      <c r="C180" s="387"/>
+      <c r="C180" s="386"/>
       <c r="D180" s="83"/>
       <c r="E180" s="83"/>
       <c r="F180" s="83"/>
@@ -20748,12 +20844,12 @@
     <row r="181" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
-      <c r="C181" s="387"/>
+      <c r="C181" s="386"/>
       <c r="D181" s="83"/>
       <c r="E181" s="83"/>
       <c r="F181" s="83"/>
       <c r="G181" s="84"/>
-      <c r="H181" s="401"/>
+      <c r="H181" s="400"/>
     </row>
     <row r="182" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4"/>
@@ -20768,7 +20864,7 @@
     <row r="183" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
-      <c r="C183" s="392"/>
+      <c r="C183" s="391"/>
       <c r="D183" s="83"/>
       <c r="E183" s="83"/>
       <c r="F183" s="83"/>
@@ -20778,7 +20874,7 @@
     <row r="184" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="9"/>
       <c r="B184" s="9"/>
-      <c r="C184" s="398"/>
+      <c r="C184" s="397"/>
       <c r="D184" s="118"/>
       <c r="E184" s="118"/>
       <c r="F184" s="118"/>
@@ -20788,7 +20884,7 @@
     <row r="185" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
-      <c r="C185" s="392"/>
+      <c r="C185" s="391"/>
       <c r="D185" s="83"/>
       <c r="E185" s="83"/>
       <c r="F185" s="83"/>
@@ -20838,17 +20934,17 @@
     <row r="190" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
-      <c r="C190" s="392"/>
+      <c r="C190" s="391"/>
       <c r="D190" s="83"/>
       <c r="E190" s="83"/>
       <c r="F190" s="83"/>
       <c r="G190" s="84"/>
-      <c r="H190" s="410"/>
+      <c r="H190" s="406"/>
     </row>
     <row r="191" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
-      <c r="C191" s="387"/>
+      <c r="C191" s="386"/>
       <c r="D191" s="83"/>
       <c r="E191" s="83"/>
       <c r="F191" s="83"/>
@@ -20858,7 +20954,7 @@
     <row r="192" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
-      <c r="C192" s="387"/>
+      <c r="C192" s="386"/>
       <c r="D192" s="83"/>
       <c r="E192" s="83"/>
       <c r="F192" s="83"/>
@@ -20868,17 +20964,17 @@
     <row r="193" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
-      <c r="C193" s="387"/>
+      <c r="C193" s="386"/>
       <c r="D193" s="83"/>
       <c r="E193" s="83"/>
       <c r="F193" s="83"/>
       <c r="G193" s="84"/>
-      <c r="H193" s="410"/>
+      <c r="H193" s="406"/>
     </row>
     <row r="194" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
-      <c r="C194" s="392"/>
+      <c r="C194" s="391"/>
       <c r="D194" s="83"/>
       <c r="E194" s="83"/>
       <c r="F194" s="83"/>
@@ -20888,7 +20984,7 @@
     <row r="195" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
-      <c r="C195" s="392"/>
+      <c r="C195" s="391"/>
       <c r="D195" s="83"/>
       <c r="E195" s="83"/>
       <c r="F195" s="83"/>
@@ -20938,7 +21034,7 @@
     <row r="200" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
-      <c r="C200" s="392"/>
+      <c r="C200" s="391"/>
       <c r="D200" s="83"/>
       <c r="E200" s="83"/>
       <c r="F200" s="83"/>
@@ -20948,7 +21044,7 @@
     <row r="201" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
-      <c r="C201" s="387"/>
+      <c r="C201" s="386"/>
       <c r="D201" s="83"/>
       <c r="E201" s="83"/>
       <c r="F201" s="83"/>
@@ -20958,7 +21054,7 @@
     <row r="202" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
-      <c r="C202" s="387"/>
+      <c r="C202" s="386"/>
       <c r="D202" s="83"/>
       <c r="E202" s="83"/>
       <c r="F202" s="83"/>
@@ -20968,17 +21064,17 @@
     <row r="203" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
-      <c r="C203" s="387"/>
+      <c r="C203" s="386"/>
       <c r="D203" s="83"/>
       <c r="E203" s="83"/>
       <c r="F203" s="83"/>
       <c r="G203" s="84"/>
-      <c r="H203" s="401"/>
+      <c r="H203" s="400"/>
     </row>
     <row r="204" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
-      <c r="C204" s="387"/>
+      <c r="C204" s="386"/>
       <c r="D204" s="83"/>
       <c r="E204" s="83"/>
       <c r="F204" s="83"/>
@@ -20988,7 +21084,7 @@
     <row r="205" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
-      <c r="C205" s="387"/>
+      <c r="C205" s="386"/>
       <c r="D205" s="83"/>
       <c r="E205" s="83"/>
       <c r="F205" s="83"/>
@@ -20998,12 +21094,12 @@
     <row r="206" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
-      <c r="C206" s="411"/>
+      <c r="C206" s="407"/>
       <c r="D206" s="235"/>
       <c r="E206" s="235"/>
       <c r="F206" s="235"/>
       <c r="G206" s="84"/>
-      <c r="H206" s="412"/>
+      <c r="H206" s="408"/>
     </row>
     <row r="207" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="23"/>
@@ -21013,12 +21109,12 @@
       <c r="E207" s="95"/>
       <c r="F207" s="95"/>
       <c r="G207" s="95"/>
-      <c r="H207" s="413"/>
+      <c r="H207" s="409"/>
     </row>
     <row r="208" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
-      <c r="C208" s="392"/>
+      <c r="C208" s="391"/>
       <c r="D208" s="83"/>
       <c r="E208" s="83"/>
       <c r="F208" s="83"/>
@@ -21028,7 +21124,7 @@
     <row r="209" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
-      <c r="C209" s="392"/>
+      <c r="C209" s="391"/>
       <c r="D209" s="83"/>
       <c r="E209" s="83"/>
       <c r="F209" s="83"/>
@@ -21073,12 +21169,12 @@
       <c r="E213" s="83"/>
       <c r="F213" s="83"/>
       <c r="G213" s="84"/>
-      <c r="H213" s="401"/>
+      <c r="H213" s="400"/>
     </row>
     <row r="214" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
-      <c r="C214" s="392"/>
+      <c r="C214" s="391"/>
       <c r="D214" s="83"/>
       <c r="E214" s="83"/>
       <c r="F214" s="83"/>
@@ -21088,7 +21184,7 @@
     <row r="215" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
-      <c r="C215" s="392"/>
+      <c r="C215" s="391"/>
       <c r="D215" s="83"/>
       <c r="E215" s="83"/>
       <c r="F215" s="83"/>
@@ -21138,7 +21234,7 @@
     <row r="220" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
-      <c r="C220" s="392"/>
+      <c r="C220" s="391"/>
       <c r="D220" s="83"/>
       <c r="E220" s="83"/>
       <c r="F220" s="83"/>
@@ -21148,7 +21244,7 @@
     <row r="221" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
-      <c r="C221" s="387"/>
+      <c r="C221" s="386"/>
       <c r="D221" s="83"/>
       <c r="E221" s="83"/>
       <c r="F221" s="83"/>
@@ -21158,7 +21254,7 @@
     <row r="222" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
-      <c r="C222" s="387"/>
+      <c r="C222" s="386"/>
       <c r="D222" s="83"/>
       <c r="E222" s="83"/>
       <c r="F222" s="83"/>
@@ -21168,17 +21264,17 @@
     <row r="223" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
-      <c r="C223" s="387"/>
+      <c r="C223" s="386"/>
       <c r="D223" s="83"/>
       <c r="E223" s="83"/>
       <c r="F223" s="83"/>
       <c r="G223" s="84"/>
-      <c r="H223" s="401"/>
+      <c r="H223" s="400"/>
     </row>
     <row r="224" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
-      <c r="C224" s="387"/>
+      <c r="C224" s="386"/>
       <c r="D224" s="83"/>
       <c r="E224" s="83"/>
       <c r="F224" s="83"/>
@@ -21188,7 +21284,7 @@
     <row r="225" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
-      <c r="C225" s="387"/>
+      <c r="C225" s="386"/>
       <c r="D225" s="83"/>
       <c r="E225" s="83"/>
       <c r="F225" s="83"/>
@@ -21198,20 +21294,20 @@
     <row r="226" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
-      <c r="C226" s="414"/>
-      <c r="D226" s="395"/>
-      <c r="E226" s="395"/>
-      <c r="F226" s="395"/>
+      <c r="C226" s="410"/>
+      <c r="D226" s="394"/>
+      <c r="E226" s="394"/>
+      <c r="F226" s="394"/>
       <c r="G226" s="84"/>
       <c r="H226" s="84"/>
     </row>
     <row r="227" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
-      <c r="C227" s="414"/>
-      <c r="D227" s="395"/>
-      <c r="E227" s="395"/>
-      <c r="F227" s="395"/>
+      <c r="C227" s="410"/>
+      <c r="D227" s="394"/>
+      <c r="E227" s="394"/>
+      <c r="F227" s="394"/>
       <c r="G227" s="84"/>
       <c r="H227" s="84"/>
     </row>
@@ -21223,12 +21319,12 @@
       <c r="E228" s="83"/>
       <c r="F228" s="83"/>
       <c r="G228" s="84"/>
-      <c r="H228" s="401"/>
+      <c r="H228" s="400"/>
     </row>
     <row r="229" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
-      <c r="C229" s="392"/>
+      <c r="C229" s="391"/>
       <c r="D229" s="83"/>
       <c r="E229" s="83"/>
       <c r="F229" s="83"/>
@@ -21238,7 +21334,7 @@
     <row r="230" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
-      <c r="C230" s="392"/>
+      <c r="C230" s="391"/>
       <c r="D230" s="83"/>
       <c r="E230" s="83"/>
       <c r="F230" s="83"/>
@@ -21288,17 +21384,17 @@
     <row r="235" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
-      <c r="C235" s="392"/>
+      <c r="C235" s="391"/>
       <c r="D235" s="83"/>
       <c r="E235" s="83"/>
       <c r="F235" s="83"/>
       <c r="G235" s="84"/>
-      <c r="H235" s="401"/>
+      <c r="H235" s="400"/>
     </row>
     <row r="236" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
-      <c r="C236" s="387"/>
+      <c r="C236" s="386"/>
       <c r="D236" s="83"/>
       <c r="E236" s="83"/>
       <c r="F236" s="83"/>
@@ -21308,7 +21404,7 @@
     <row r="237" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
-      <c r="C237" s="387"/>
+      <c r="C237" s="386"/>
       <c r="D237" s="83"/>
       <c r="E237" s="83"/>
       <c r="F237" s="83"/>
@@ -21318,17 +21414,17 @@
     <row r="238" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
-      <c r="C238" s="387"/>
+      <c r="C238" s="386"/>
       <c r="D238" s="83"/>
       <c r="E238" s="83"/>
       <c r="F238" s="83"/>
       <c r="G238" s="84"/>
-      <c r="H238" s="401"/>
+      <c r="H238" s="400"/>
     </row>
     <row r="239" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
-      <c r="C239" s="392"/>
+      <c r="C239" s="391"/>
       <c r="D239" s="83"/>
       <c r="E239" s="83"/>
       <c r="F239" s="83"/>
@@ -21338,7 +21434,7 @@
     <row r="240" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
-      <c r="C240" s="392"/>
+      <c r="C240" s="391"/>
       <c r="D240" s="83"/>
       <c r="E240" s="83"/>
       <c r="F240" s="83"/>
@@ -21363,12 +21459,12 @@
       <c r="E242" s="83"/>
       <c r="F242" s="83"/>
       <c r="G242" s="84"/>
-      <c r="H242" s="401"/>
+      <c r="H242" s="400"/>
     </row>
     <row r="243" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
-      <c r="C243" s="392"/>
+      <c r="C243" s="391"/>
       <c r="D243" s="83"/>
       <c r="E243" s="83"/>
       <c r="F243" s="83"/>
@@ -21378,7 +21474,7 @@
     <row r="244" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
-      <c r="C244" s="392"/>
+      <c r="C244" s="391"/>
       <c r="D244" s="83"/>
       <c r="E244" s="83"/>
       <c r="F244" s="83"/>
@@ -21428,7 +21524,7 @@
     <row r="249" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
-      <c r="C249" s="392"/>
+      <c r="C249" s="391"/>
       <c r="D249" s="83"/>
       <c r="E249" s="83"/>
       <c r="F249" s="83"/>
@@ -21438,17 +21534,17 @@
     <row r="250" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
-      <c r="C250" s="387"/>
+      <c r="C250" s="386"/>
       <c r="D250" s="83"/>
       <c r="E250" s="83"/>
       <c r="F250" s="83"/>
       <c r="G250" s="84"/>
-      <c r="H250" s="401"/>
+      <c r="H250" s="400"/>
     </row>
     <row r="251" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
-      <c r="C251" s="387"/>
+      <c r="C251" s="386"/>
       <c r="D251" s="83"/>
       <c r="E251" s="83"/>
       <c r="F251" s="83"/>
@@ -21458,7 +21554,7 @@
     <row r="252" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
-      <c r="C252" s="387"/>
+      <c r="C252" s="386"/>
       <c r="D252" s="83"/>
       <c r="E252" s="83"/>
       <c r="F252" s="83"/>
@@ -21468,17 +21564,17 @@
     <row r="253" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
-      <c r="C253" s="387"/>
+      <c r="C253" s="386"/>
       <c r="D253" s="83"/>
       <c r="E253" s="83"/>
       <c r="F253" s="83"/>
       <c r="G253" s="84"/>
-      <c r="H253" s="401"/>
+      <c r="H253" s="400"/>
     </row>
     <row r="254" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
-      <c r="C254" s="392"/>
+      <c r="C254" s="391"/>
       <c r="D254" s="83"/>
       <c r="E254" s="83"/>
       <c r="F254" s="83"/>
@@ -21488,7 +21584,7 @@
     <row r="255" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
-      <c r="C255" s="392"/>
+      <c r="C255" s="391"/>
       <c r="D255" s="83"/>
       <c r="E255" s="83"/>
       <c r="F255" s="83"/>
@@ -21513,7 +21609,7 @@
       <c r="E257" s="83"/>
       <c r="F257" s="83"/>
       <c r="G257" s="84"/>
-      <c r="H257" s="400"/>
+      <c r="H257" s="399"/>
     </row>
     <row r="258" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="4"/>
@@ -21533,12 +21629,12 @@
       <c r="E259" s="83"/>
       <c r="F259" s="83"/>
       <c r="G259" s="84"/>
-      <c r="H259" s="400"/>
+      <c r="H259" s="399"/>
     </row>
     <row r="260" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
-      <c r="C260" s="392"/>
+      <c r="C260" s="391"/>
       <c r="D260" s="83"/>
       <c r="E260" s="83"/>
       <c r="F260" s="83"/>
@@ -21548,7 +21644,7 @@
     <row r="261" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
-      <c r="C261" s="392"/>
+      <c r="C261" s="391"/>
       <c r="D261" s="83"/>
       <c r="E261" s="83"/>
       <c r="F261" s="83"/>
@@ -21598,7 +21694,7 @@
     <row r="266" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
-      <c r="C266" s="392"/>
+      <c r="C266" s="391"/>
       <c r="D266" s="83"/>
       <c r="E266" s="83"/>
       <c r="F266" s="83"/>
@@ -21608,17 +21704,17 @@
     <row r="267" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
-      <c r="C267" s="387"/>
+      <c r="C267" s="386"/>
       <c r="D267" s="83"/>
       <c r="E267" s="83"/>
       <c r="F267" s="83"/>
       <c r="G267" s="84"/>
-      <c r="H267" s="401"/>
+      <c r="H267" s="400"/>
     </row>
     <row r="268" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
-      <c r="C268" s="387"/>
+      <c r="C268" s="386"/>
       <c r="D268" s="83"/>
       <c r="E268" s="83"/>
       <c r="F268" s="83"/>
@@ -21628,7 +21724,7 @@
     <row r="269" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
-      <c r="C269" s="387"/>
+      <c r="C269" s="386"/>
       <c r="D269" s="83"/>
       <c r="E269" s="83"/>
       <c r="F269" s="83"/>
@@ -21658,7 +21754,7 @@
     <row r="272" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
-      <c r="C272" s="386"/>
+      <c r="C272" s="385"/>
       <c r="D272" s="45"/>
       <c r="E272" s="45"/>
       <c r="F272" s="45"/>
@@ -21778,7 +21874,7 @@
     <row r="284" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
-      <c r="C284" s="386"/>
+      <c r="C284" s="385"/>
       <c r="D284" s="45"/>
       <c r="E284" s="45"/>
       <c r="F284" s="45"/>
@@ -21788,7 +21884,7 @@
     <row r="285" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
-      <c r="C285" s="386"/>
+      <c r="C285" s="385"/>
       <c r="D285" s="45"/>
       <c r="E285" s="45"/>
       <c r="F285" s="45"/>
@@ -21942,384 +22038,297 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H23"/>
+      <selection activeCell="A3" sqref="A3:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="430" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="430" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="430" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="430" customWidth="1"/>
-    <col min="5" max="6" width="4.7109375" style="430" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="430" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="430" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="430"/>
+    <col min="1" max="1" width="4.42578125" style="426" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="426" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="426" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="426" customWidth="1"/>
+    <col min="5" max="6" width="4.7109375" style="426" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="426" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="426" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="426"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="440" t="s">
-        <v>423</v>
-      </c>
-      <c r="B1" s="440"/>
-      <c r="C1" s="440"/>
-      <c r="D1" s="441"/>
-      <c r="E1" s="440"/>
-      <c r="F1" s="440"/>
-      <c r="G1" s="440"/>
-      <c r="H1" s="440"/>
-    </row>
-    <row r="2" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="444" t="s">
+        <v>427</v>
+      </c>
+      <c r="B1" s="444"/>
+      <c r="C1" s="444"/>
+      <c r="D1" s="445"/>
+      <c r="E1" s="444"/>
+      <c r="F1" s="444"/>
+      <c r="G1" s="444"/>
+      <c r="H1" s="444"/>
+    </row>
+    <row r="2" spans="1:13" s="101" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="438" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="438" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="442" t="s">
+      <c r="C2" s="446" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="443"/>
-      <c r="E2" s="431" t="s">
+      <c r="D2" s="447"/>
+      <c r="E2" s="439" t="s">
         <v>116</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="438" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="438" t="s">
         <v>184</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="438" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>418</v>
+    <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>424</v>
       </c>
       <c r="C3" s="231" t="s">
-        <v>281</v>
+        <v>109</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="222"/>
-      <c r="H3" s="222">
-        <v>40500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="E3" s="3"/>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="260" t="s">
-        <v>419</v>
+        <v>120</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="222"/>
-      <c r="H4" s="222">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="E4" s="3"/>
+      <c r="F4" s="4">
+        <v>4</v>
+      </c>
+      <c r="G4" s="50">
+        <v>3000</v>
+      </c>
+      <c r="H4" s="50">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="260" t="s">
-        <v>342</v>
+        <v>406</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="222"/>
-      <c r="H5" s="222">
+      <c r="F5" s="4">
+        <v>5</v>
+      </c>
+      <c r="G5" s="50">
         <v>4500</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="H5" s="50">
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="260" t="s">
-        <v>420</v>
+        <v>132</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="222"/>
-      <c r="H6" s="222">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="260" t="s">
-        <v>197</v>
+        <v>425</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="3">
-        <v>2</v>
-      </c>
-      <c r="G7" s="222">
-        <v>21350</v>
-      </c>
-      <c r="H7" s="222">
-        <v>42700</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="260" t="s">
-        <v>196</v>
-      </c>
+      <c r="C8" s="260"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2</v>
-      </c>
-      <c r="G8" s="222">
-        <v>22300</v>
-      </c>
-      <c r="H8" s="222">
-        <v>44600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="222"/>
+      <c r="H8" s="257">
+        <f>SUM(H3:H7)</f>
+        <v>43550</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="260" t="s">
-        <v>341</v>
+        <v>426</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>1</v>
       </c>
       <c r="G9" s="222"/>
-      <c r="H9" s="222">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
+      <c r="H9" s="50">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="260" t="s">
-        <v>54</v>
+        <v>354</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3">
-        <v>2</v>
+      <c r="F10" s="4">
+        <v>100</v>
       </c>
       <c r="G10" s="222">
-        <v>4500</v>
-      </c>
-      <c r="H10" s="222">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H10" s="50">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="260" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="C11" s="260"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="222"/>
-      <c r="H11" s="222">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
+      <c r="H11" s="223">
+        <f>SUM(H8:H10)</f>
+        <v>49550</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="386" t="s">
-        <v>161</v>
-      </c>
+      <c r="C12" s="385"/>
       <c r="D12" s="70"/>
       <c r="E12" s="70"/>
-      <c r="F12" s="70">
-        <v>1</v>
-      </c>
+      <c r="F12" s="70"/>
       <c r="G12" s="222"/>
-      <c r="H12" s="222">
-        <v>3150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
+      <c r="H12" s="222"/>
+    </row>
+    <row r="13" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="386" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" s="70" t="s">
-        <v>254</v>
-      </c>
-      <c r="E13" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="70">
-        <v>1</v>
-      </c>
+      <c r="C13" s="385"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
       <c r="G13" s="222"/>
-      <c r="H13" s="222">
-        <v>22400</v>
-      </c>
-      <c r="M13" s="430" t="s">
+      <c r="H13" s="222"/>
+      <c r="M13" s="426" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
+    <row r="14" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="386" t="s">
-        <v>350</v>
-      </c>
+      <c r="C14" s="385"/>
       <c r="D14" s="70"/>
       <c r="E14" s="70"/>
-      <c r="F14" s="70">
-        <v>1</v>
-      </c>
+      <c r="F14" s="70"/>
       <c r="G14" s="222"/>
-      <c r="H14" s="222">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>13</v>
-      </c>
+      <c r="H14" s="222"/>
+    </row>
+    <row r="15" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="386" t="s">
-        <v>132</v>
-      </c>
+      <c r="C15" s="385"/>
       <c r="D15" s="70"/>
       <c r="E15" s="70"/>
-      <c r="F15" s="70">
-        <v>1</v>
-      </c>
+      <c r="F15" s="70"/>
       <c r="G15" s="222"/>
-      <c r="H15" s="222">
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="222"/>
+    </row>
+    <row r="16" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="386"/>
+      <c r="C16" s="385"/>
       <c r="D16" s="70"/>
       <c r="E16" s="70"/>
       <c r="F16" s="70"/>
       <c r="G16" s="222"/>
-      <c r="H16" s="50">
-        <f>SUM(H3:H15)</f>
-        <v>218250</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="50"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="260" t="s">
-        <v>321</v>
-      </c>
+      <c r="C17" s="260"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="3">
-        <v>2</v>
-      </c>
-      <c r="G17" s="222">
-        <v>1700</v>
-      </c>
-      <c r="H17" s="222">
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="3"/>
+      <c r="G17" s="222"/>
+      <c r="H17" s="222"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="260" t="s">
-        <v>354</v>
-      </c>
+      <c r="C18" s="260"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="3">
-        <v>50</v>
-      </c>
-      <c r="G18" s="222">
-        <v>50</v>
-      </c>
-      <c r="H18" s="222">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="3"/>
+      <c r="G18" s="222"/>
+      <c r="H18" s="222"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="260" t="s">
-        <v>343</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>386</v>
-      </c>
+      <c r="C19" s="260"/>
+      <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="222"/>
-      <c r="H19" s="222">
-        <v>28500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="222"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="260"/>
@@ -22327,68 +22336,37 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="373">
-        <f>SUM(H16:H19)</f>
-        <v>252650</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="373"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="435" t="s">
-        <v>299</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="E21" s="419" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1</v>
-      </c>
-      <c r="G21" s="419"/>
-      <c r="H21" s="432" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="418"/>
-      <c r="B22" s="418"/>
-      <c r="C22" s="435" t="s">
-        <v>127</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="E22" s="419"/>
-      <c r="F22" s="3">
-        <v>1</v>
-      </c>
-      <c r="G22" s="433"/>
-      <c r="H22" s="433" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="418"/>
-      <c r="B23" s="418"/>
-      <c r="C23" s="423" t="s">
-        <v>197</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="E23" s="418" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="418"/>
-      <c r="H23" s="434" t="s">
-        <v>153</v>
-      </c>
+      <c r="C21" s="430"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="415"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="415"/>
+      <c r="H21" s="427"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="414"/>
+      <c r="B22" s="414"/>
+      <c r="C22" s="430"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="415"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="428"/>
+      <c r="H22" s="428"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="414"/>
+      <c r="B23" s="414"/>
+      <c r="C23" s="419"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="414"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="414"/>
+      <c r="H23" s="429"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/GB-3  Sales.xlsx
+++ b/GB-3  Sales.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="18195" windowHeight="10545" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="18195" windowHeight="10545" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sales-2017" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="430">
   <si>
     <t>Oil Filter</t>
   </si>
@@ -1846,7 +1846,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="449">
+  <cellXfs count="447">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2877,12 +2877,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2959,6 +2953,9 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2982,9 +2979,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6409,10 +6403,10 @@
       <c r="B1" s="198" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="440" t="s">
+      <c r="C1" s="439" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="441"/>
+      <c r="D1" s="440"/>
       <c r="E1" s="198" t="s">
         <v>116</v>
       </c>
@@ -11763,7 +11757,7 @@
   </sheetPr>
   <dimension ref="A1:Q298"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M286" sqref="M286"/>
     </sheetView>
@@ -11789,10 +11783,10 @@
       <c r="B1" s="333" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="442" t="s">
+      <c r="C1" s="441" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="443"/>
+      <c r="D1" s="442"/>
       <c r="E1" s="333" t="s">
         <v>116</v>
       </c>
@@ -15400,7 +15394,7 @@
     <row r="177" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
-      <c r="C177" s="407" t="s">
+      <c r="C177" s="405" t="s">
         <v>189</v>
       </c>
       <c r="D177" s="235" t="s">
@@ -15414,12 +15408,12 @@
       <c r="H177" s="356">
         <v>2650</v>
       </c>
-      <c r="I177" s="413"/>
+      <c r="I177" s="411"/>
     </row>
     <row r="178" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
-      <c r="C178" s="411" t="s">
+      <c r="C178" s="409" t="s">
         <v>108</v>
       </c>
       <c r="D178" s="389" t="s">
@@ -15546,7 +15540,7 @@
         <v>2</v>
       </c>
       <c r="B185" s="4"/>
-      <c r="C185" s="448" t="s">
+      <c r="C185" s="438" t="s">
         <v>108</v>
       </c>
       <c r="D185" s="389"/>
@@ -15920,7 +15914,7 @@
     <row r="204" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
-      <c r="C204" s="412" t="s">
+      <c r="C204" s="410" t="s">
         <v>197</v>
       </c>
       <c r="D204" s="366"/>
@@ -15954,7 +15948,7 @@
     <row r="206" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
-      <c r="C206" s="411" t="s">
+      <c r="C206" s="409" t="s">
         <v>338</v>
       </c>
       <c r="D206" s="389" t="s">
@@ -15965,7 +15959,7 @@
         <v>4</v>
       </c>
       <c r="G206" s="390"/>
-      <c r="H206" s="421" t="s">
+      <c r="H206" s="419" t="s">
         <v>153</v>
       </c>
       <c r="I206" s="101" t="s">
@@ -17437,7 +17431,7 @@
     <row r="284" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
-      <c r="C284" s="411" t="s">
+      <c r="C284" s="409" t="s">
         <v>276</v>
       </c>
       <c r="D284" s="389" t="s">
@@ -17722,8 +17716,8 @@
   </sheetPr>
   <dimension ref="A1:Q298"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="L134" sqref="L134"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="N138" sqref="N138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17747,10 +17741,10 @@
       <c r="B1" s="333" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="442" t="s">
+      <c r="C1" s="441" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="443"/>
+      <c r="D1" s="442"/>
       <c r="E1" s="333" t="s">
         <v>116</v>
       </c>
@@ -18501,7 +18495,7 @@
         <v>10</v>
       </c>
       <c r="B40" s="4"/>
-      <c r="C40" s="412" t="s">
+      <c r="C40" s="410" t="s">
         <v>135</v>
       </c>
       <c r="D40" s="366"/>
@@ -19128,11 +19122,11 @@
       <c r="B74" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="C74" s="436" t="s">
+      <c r="C74" s="434" t="s">
         <v>406</v>
       </c>
-      <c r="D74" s="422"/>
-      <c r="E74" s="422" t="s">
+      <c r="D74" s="420"/>
+      <c r="E74" s="420" t="s">
         <v>14</v>
       </c>
       <c r="F74" s="376">
@@ -19179,8 +19173,8 @@
       <c r="C76" s="378" t="s">
         <v>350</v>
       </c>
-      <c r="D76" s="422"/>
-      <c r="E76" s="422" t="s">
+      <c r="D76" s="420"/>
+      <c r="E76" s="420" t="s">
         <v>14</v>
       </c>
       <c r="F76" s="376">
@@ -19202,8 +19196,8 @@
       <c r="C77" s="378" t="s">
         <v>160</v>
       </c>
-      <c r="D77" s="422"/>
-      <c r="E77" s="422" t="s">
+      <c r="D77" s="420"/>
+      <c r="E77" s="420" t="s">
         <v>22</v>
       </c>
       <c r="F77" s="376">
@@ -19225,8 +19219,8 @@
       <c r="C78" s="378" t="s">
         <v>160</v>
       </c>
-      <c r="D78" s="422"/>
-      <c r="E78" s="422" t="s">
+      <c r="D78" s="420"/>
+      <c r="E78" s="420" t="s">
         <v>14</v>
       </c>
       <c r="F78" s="376">
@@ -19248,8 +19242,8 @@
       <c r="C79" s="378" t="s">
         <v>408</v>
       </c>
-      <c r="D79" s="422"/>
-      <c r="E79" s="422"/>
+      <c r="D79" s="420"/>
+      <c r="E79" s="420"/>
       <c r="F79" s="376">
         <v>1</v>
       </c>
@@ -19269,8 +19263,8 @@
       <c r="C80" s="378" t="s">
         <v>409</v>
       </c>
-      <c r="D80" s="422"/>
-      <c r="E80" s="422"/>
+      <c r="D80" s="420"/>
+      <c r="E80" s="420"/>
       <c r="F80" s="376">
         <v>1</v>
       </c>
@@ -19290,8 +19284,8 @@
       <c r="C81" s="378" t="s">
         <v>410</v>
       </c>
-      <c r="D81" s="422"/>
-      <c r="E81" s="422"/>
+      <c r="D81" s="420"/>
+      <c r="E81" s="420"/>
       <c r="F81" s="376">
         <v>1</v>
       </c>
@@ -19328,7 +19322,7 @@
         <v>10</v>
       </c>
       <c r="B83" s="3"/>
-      <c r="C83" s="420" t="s">
+      <c r="C83" s="418" t="s">
         <v>412</v>
       </c>
       <c r="D83" s="70" t="s">
@@ -19351,8 +19345,8 @@
       <c r="C84" s="388" t="s">
         <v>197</v>
       </c>
-      <c r="D84" s="423"/>
-      <c r="E84" s="423" t="s">
+      <c r="D84" s="421"/>
+      <c r="E84" s="421" t="s">
         <v>22</v>
       </c>
       <c r="F84" s="389">
@@ -19374,8 +19368,8 @@
       <c r="C85" s="388" t="s">
         <v>127</v>
       </c>
-      <c r="D85" s="423"/>
-      <c r="E85" s="423"/>
+      <c r="D85" s="421"/>
+      <c r="E85" s="421"/>
       <c r="F85" s="389">
         <v>1</v>
       </c>
@@ -19395,7 +19389,7 @@
         <v>13</v>
       </c>
       <c r="B86" s="3"/>
-      <c r="C86" s="420" t="s">
+      <c r="C86" s="418" t="s">
         <v>208</v>
       </c>
       <c r="D86" s="70" t="s">
@@ -19418,8 +19412,8 @@
       <c r="C87" s="378" t="s">
         <v>197</v>
       </c>
-      <c r="D87" s="422"/>
-      <c r="E87" s="422" t="s">
+      <c r="D87" s="420"/>
+      <c r="E87" s="420" t="s">
         <v>14</v>
       </c>
       <c r="F87" s="376">
@@ -19482,45 +19476,45 @@
     <row r="91" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="3"/>
-      <c r="C91" s="415" t="s">
+      <c r="C91" s="413" t="s">
         <v>343</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="E91" s="415"/>
-      <c r="F91" s="416"/>
-      <c r="G91" s="416"/>
-      <c r="H91" s="417">
+      <c r="E91" s="413"/>
+      <c r="F91" s="414"/>
+      <c r="G91" s="414"/>
+      <c r="H91" s="415">
         <v>28500</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
-      <c r="B92" s="414"/>
-      <c r="C92" s="415" t="s">
+      <c r="B92" s="412"/>
+      <c r="C92" s="413" t="s">
         <v>363</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="E92" s="415"/>
+      <c r="E92" s="413"/>
       <c r="F92" s="4">
         <v>5</v>
       </c>
-      <c r="G92" s="418">
+      <c r="G92" s="416">
         <v>1500</v>
       </c>
-      <c r="H92" s="418">
+      <c r="H92" s="416">
         <v>7500</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
-      <c r="B93" s="414"/>
-      <c r="C93" s="414"/>
-      <c r="D93" s="414"/>
-      <c r="E93" s="414"/>
+      <c r="B93" s="412"/>
+      <c r="C93" s="412"/>
+      <c r="D93" s="412"/>
+      <c r="E93" s="412"/>
       <c r="F93" s="77"/>
       <c r="G93" s="77"/>
       <c r="H93" s="367">
@@ -19535,11 +19529,11 @@
       <c r="B94" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="C94" s="424" t="s">
+      <c r="C94" s="422" t="s">
         <v>341</v>
       </c>
-      <c r="D94" s="422"/>
-      <c r="E94" s="422"/>
+      <c r="D94" s="420"/>
+      <c r="E94" s="420"/>
       <c r="F94" s="376">
         <v>1</v>
       </c>
@@ -19559,8 +19553,8 @@
       <c r="C95" s="378" t="s">
         <v>414</v>
       </c>
-      <c r="D95" s="422"/>
-      <c r="E95" s="422"/>
+      <c r="D95" s="420"/>
+      <c r="E95" s="420"/>
       <c r="F95" s="376">
         <v>1</v>
       </c>
@@ -19571,7 +19565,7 @@
       <c r="I95" s="101" t="s">
         <v>417</v>
       </c>
-      <c r="K95" s="425"/>
+      <c r="K95" s="423"/>
     </row>
     <row r="96" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
@@ -19581,8 +19575,8 @@
       <c r="C96" s="378" t="s">
         <v>299</v>
       </c>
-      <c r="D96" s="422"/>
-      <c r="E96" s="422" t="s">
+      <c r="D96" s="420"/>
+      <c r="E96" s="420" t="s">
         <v>22</v>
       </c>
       <c r="F96" s="376">
@@ -19604,8 +19598,8 @@
       <c r="C97" s="378" t="s">
         <v>127</v>
       </c>
-      <c r="D97" s="422"/>
-      <c r="E97" s="422"/>
+      <c r="D97" s="420"/>
+      <c r="E97" s="420"/>
       <c r="F97" s="376">
         <v>3</v>
       </c>
@@ -19647,8 +19641,8 @@
       <c r="C99" s="378" t="s">
         <v>160</v>
       </c>
-      <c r="D99" s="422"/>
-      <c r="E99" s="422" t="s">
+      <c r="D99" s="420"/>
+      <c r="E99" s="420" t="s">
         <v>22</v>
       </c>
       <c r="F99" s="376">
@@ -19729,7 +19723,7 @@
         <v>10</v>
       </c>
       <c r="B103" s="3"/>
-      <c r="C103" s="420" t="s">
+      <c r="C103" s="418" t="s">
         <v>27</v>
       </c>
       <c r="D103" s="70" t="s">
@@ -19752,8 +19746,8 @@
       <c r="C104" s="388" t="s">
         <v>109</v>
       </c>
-      <c r="D104" s="423"/>
-      <c r="E104" s="423"/>
+      <c r="D104" s="421"/>
+      <c r="E104" s="421"/>
       <c r="F104" s="389">
         <v>1</v>
       </c>
@@ -19768,7 +19762,7 @@
     <row r="105" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
-      <c r="C105" s="420"/>
+      <c r="C105" s="418"/>
       <c r="D105" s="70"/>
       <c r="E105" s="70"/>
       <c r="F105" s="45"/>
@@ -19781,7 +19775,7 @@
     <row r="106" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
-      <c r="C106" s="420" t="s">
+      <c r="C106" s="418" t="s">
         <v>343</v>
       </c>
       <c r="D106" s="70" t="s">
@@ -20033,7 +20027,7 @@
         <v>11</v>
       </c>
       <c r="B118" s="4"/>
-      <c r="C118" s="420" t="s">
+      <c r="C118" s="418" t="s">
         <v>111</v>
       </c>
       <c r="D118" s="45" t="s">
@@ -20055,7 +20049,7 @@
         <v>12</v>
       </c>
       <c r="B119" s="4"/>
-      <c r="C119" s="437" t="s">
+      <c r="C119" s="435" t="s">
         <v>350</v>
       </c>
       <c r="D119" s="394"/>
@@ -20092,7 +20086,7 @@
     <row r="121" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="4"/>
-      <c r="C121" s="420"/>
+      <c r="C121" s="418"/>
       <c r="D121" s="45"/>
       <c r="E121" s="45"/>
       <c r="F121" s="45"/>
@@ -20170,20 +20164,20 @@
     <row r="126" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="4"/>
-      <c r="C126" s="431" t="s">
+      <c r="C126" s="429" t="s">
         <v>299</v>
       </c>
       <c r="D126" s="376" t="s">
         <v>420</v>
       </c>
-      <c r="E126" s="431" t="s">
+      <c r="E126" s="429" t="s">
         <v>22</v>
       </c>
       <c r="F126" s="376">
         <v>1</v>
       </c>
-      <c r="G126" s="431"/>
-      <c r="H126" s="432" t="s">
+      <c r="G126" s="429"/>
+      <c r="H126" s="430" t="s">
         <v>153</v>
       </c>
       <c r="I126" s="101" t="s">
@@ -20191,20 +20185,20 @@
       </c>
     </row>
     <row r="127" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="414"/>
+      <c r="A127" s="412"/>
       <c r="B127" s="77"/>
-      <c r="C127" s="431" t="s">
+      <c r="C127" s="429" t="s">
         <v>127</v>
       </c>
       <c r="D127" s="376" t="s">
         <v>420</v>
       </c>
-      <c r="E127" s="431"/>
+      <c r="E127" s="429"/>
       <c r="F127" s="376">
         <v>1</v>
       </c>
-      <c r="G127" s="433"/>
-      <c r="H127" s="433" t="s">
+      <c r="G127" s="431"/>
+      <c r="H127" s="431" t="s">
         <v>153</v>
       </c>
       <c r="I127" s="101" t="s">
@@ -20212,7 +20206,7 @@
       </c>
     </row>
     <row r="128" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="414"/>
+      <c r="A128" s="412"/>
       <c r="B128" s="77"/>
       <c r="C128" s="375" t="s">
         <v>197</v>
@@ -20220,14 +20214,14 @@
       <c r="D128" s="376" t="s">
         <v>421</v>
       </c>
-      <c r="E128" s="434" t="s">
+      <c r="E128" s="432" t="s">
         <v>14</v>
       </c>
       <c r="F128" s="376">
         <v>1</v>
       </c>
-      <c r="G128" s="434"/>
-      <c r="H128" s="435" t="s">
+      <c r="G128" s="432"/>
+      <c r="H128" s="433" t="s">
         <v>153</v>
       </c>
       <c r="I128" s="101" t="s">
@@ -20442,74 +20436,124 @@
       </c>
     </row>
     <row r="141" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="4"/>
-      <c r="B141" s="4"/>
-      <c r="C141" s="402"/>
-      <c r="D141" s="83"/>
-      <c r="E141" s="83"/>
-      <c r="F141" s="83"/>
-      <c r="G141" s="84"/>
-      <c r="H141" s="84"/>
+      <c r="A141" s="4">
+        <v>1</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C141" s="188" t="s">
+        <v>200</v>
+      </c>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F141" s="3">
+        <v>1</v>
+      </c>
+      <c r="G141" s="222"/>
+      <c r="H141" s="50">
+        <v>40500</v>
+      </c>
     </row>
     <row r="142" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="4"/>
-      <c r="B142" s="255"/>
-      <c r="C142" s="192"/>
-      <c r="D142" s="83"/>
-      <c r="E142" s="396"/>
-      <c r="F142" s="83"/>
-      <c r="G142" s="84"/>
-      <c r="H142" s="84"/>
+      <c r="A142" s="4">
+        <v>2</v>
+      </c>
+      <c r="B142" s="3"/>
+      <c r="C142" s="237" t="s">
+        <v>200</v>
+      </c>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F142" s="3">
+        <v>1</v>
+      </c>
+      <c r="G142" s="222"/>
+      <c r="H142" s="50">
+        <v>10500</v>
+      </c>
     </row>
     <row r="143" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="4"/>
-      <c r="B143" s="255"/>
-      <c r="C143" s="235"/>
-      <c r="D143" s="235"/>
-      <c r="E143" s="401"/>
-      <c r="F143" s="235"/>
-      <c r="G143" s="235"/>
-      <c r="H143" s="403"/>
+      <c r="A143" s="4">
+        <v>3</v>
+      </c>
+      <c r="B143" s="3"/>
+      <c r="C143" s="237" t="s">
+        <v>329</v>
+      </c>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="3">
+        <v>1</v>
+      </c>
+      <c r="G143" s="222"/>
+      <c r="H143" s="50">
+        <v>3350</v>
+      </c>
     </row>
     <row r="144" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
-      <c r="B144" s="4"/>
-      <c r="C144" s="391"/>
-      <c r="D144" s="83"/>
-      <c r="E144" s="83"/>
-      <c r="F144" s="83"/>
-      <c r="G144" s="84"/>
-      <c r="H144" s="84"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="260"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="50"/>
+      <c r="H144" s="223">
+        <f>SUM(H141:H143)</f>
+        <v>54350</v>
+      </c>
     </row>
     <row r="145" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
-      <c r="B145" s="4"/>
-      <c r="C145" s="391"/>
-      <c r="D145" s="83"/>
-      <c r="E145" s="83"/>
-      <c r="F145" s="83"/>
-      <c r="G145" s="84"/>
-      <c r="H145" s="84"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="193" t="s">
+        <v>321</v>
+      </c>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="4">
+        <v>5</v>
+      </c>
+      <c r="G145" s="50">
+        <v>1700</v>
+      </c>
+      <c r="H145" s="50">
+        <v>8500</v>
+      </c>
     </row>
     <row r="146" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="4"/>
-      <c r="B146" s="4"/>
-      <c r="C146" s="392"/>
-      <c r="D146" s="83"/>
-      <c r="E146" s="83"/>
-      <c r="F146" s="83"/>
-      <c r="G146" s="84"/>
-      <c r="H146" s="84"/>
+      <c r="A146" s="3"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="193" t="s">
+        <v>343</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="E146" s="3"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="222"/>
+      <c r="H146" s="50">
+        <v>27000</v>
+      </c>
     </row>
     <row r="147" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="4"/>
-      <c r="B147" s="4"/>
-      <c r="C147" s="192"/>
-      <c r="D147" s="83"/>
-      <c r="E147" s="83"/>
-      <c r="F147" s="83"/>
-      <c r="G147" s="84"/>
-      <c r="H147" s="84"/>
+      <c r="A147" s="3"/>
+      <c r="B147" s="3"/>
+      <c r="C147" s="260"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="222"/>
+      <c r="H147" s="223">
+        <f>SUM(H144:H146)</f>
+        <v>89850</v>
+      </c>
     </row>
     <row r="148" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
@@ -20679,7 +20723,7 @@
       <c r="E164" s="401"/>
       <c r="F164" s="394"/>
       <c r="G164" s="395"/>
-      <c r="H164" s="404"/>
+      <c r="H164" s="402"/>
     </row>
     <row r="165" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
@@ -20709,7 +20753,7 @@
       <c r="E167" s="396"/>
       <c r="F167" s="396"/>
       <c r="G167" s="396"/>
-      <c r="H167" s="405"/>
+      <c r="H167" s="403"/>
     </row>
     <row r="168" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
@@ -20939,7 +20983,7 @@
       <c r="E190" s="83"/>
       <c r="F190" s="83"/>
       <c r="G190" s="84"/>
-      <c r="H190" s="406"/>
+      <c r="H190" s="404"/>
     </row>
     <row r="191" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
@@ -20969,7 +21013,7 @@
       <c r="E193" s="83"/>
       <c r="F193" s="83"/>
       <c r="G193" s="84"/>
-      <c r="H193" s="406"/>
+      <c r="H193" s="404"/>
     </row>
     <row r="194" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4"/>
@@ -21094,12 +21138,12 @@
     <row r="206" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
-      <c r="C206" s="407"/>
+      <c r="C206" s="405"/>
       <c r="D206" s="235"/>
       <c r="E206" s="235"/>
       <c r="F206" s="235"/>
       <c r="G206" s="84"/>
-      <c r="H206" s="408"/>
+      <c r="H206" s="406"/>
     </row>
     <row r="207" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="23"/>
@@ -21109,7 +21153,7 @@
       <c r="E207" s="95"/>
       <c r="F207" s="95"/>
       <c r="G207" s="95"/>
-      <c r="H207" s="409"/>
+      <c r="H207" s="407"/>
     </row>
     <row r="208" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4"/>
@@ -21294,7 +21338,7 @@
     <row r="226" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
-      <c r="C226" s="410"/>
+      <c r="C226" s="408"/>
       <c r="D226" s="394"/>
       <c r="E226" s="394"/>
       <c r="F226" s="394"/>
@@ -21304,7 +21348,7 @@
     <row r="227" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
-      <c r="C227" s="410"/>
+      <c r="C227" s="408"/>
       <c r="D227" s="394"/>
       <c r="E227" s="394"/>
       <c r="F227" s="394"/>
@@ -22038,54 +22082,54 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H11"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="426" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="426" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="426" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="426" customWidth="1"/>
-    <col min="5" max="6" width="4.7109375" style="426" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="426" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="426" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="426"/>
+    <col min="1" max="1" width="4.42578125" style="424" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="424" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="424" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="424" customWidth="1"/>
+    <col min="5" max="6" width="4.7109375" style="424" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="424" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="424" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="424"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="444" t="s">
+      <c r="A1" s="443" t="s">
         <v>427</v>
       </c>
-      <c r="B1" s="444"/>
-      <c r="C1" s="444"/>
-      <c r="D1" s="445"/>
-      <c r="E1" s="444"/>
-      <c r="F1" s="444"/>
-      <c r="G1" s="444"/>
-      <c r="H1" s="444"/>
+      <c r="B1" s="443"/>
+      <c r="C1" s="443"/>
+      <c r="D1" s="444"/>
+      <c r="E1" s="443"/>
+      <c r="F1" s="443"/>
+      <c r="G1" s="443"/>
+      <c r="H1" s="443"/>
     </row>
     <row r="2" spans="1:13" s="101" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="438" t="s">
+      <c r="A2" s="436" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="438" t="s">
+      <c r="B2" s="436" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="446" t="s">
+      <c r="C2" s="445" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="447"/>
-      <c r="E2" s="439" t="s">
+      <c r="D2" s="446"/>
+      <c r="E2" s="437" t="s">
         <v>116</v>
       </c>
-      <c r="F2" s="438" t="s">
+      <c r="F2" s="436" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="438" t="s">
+      <c r="G2" s="436" t="s">
         <v>184</v>
       </c>
-      <c r="H2" s="438" t="s">
+      <c r="H2" s="436" t="s">
         <v>186</v>
       </c>
     </row>
@@ -22094,19 +22138,21 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="C3" s="231" t="s">
-        <v>109</v>
+        <v>428</v>
+      </c>
+      <c r="C3" s="188" t="s">
+        <v>200</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="50"/>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="222"/>
       <c r="H3" s="50">
-        <v>3500</v>
+        <v>40500</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -22114,19 +22160,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="260" t="s">
-        <v>120</v>
+      <c r="C4" s="237" t="s">
+        <v>200</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4">
-        <v>4</v>
-      </c>
-      <c r="G4" s="50">
-        <v>3000</v>
-      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="222"/>
       <c r="H4" s="50">
-        <v>12000</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -22134,103 +22180,88 @@
         <v>3</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="260" t="s">
-        <v>406</v>
+      <c r="C5" s="237" t="s">
+        <v>329</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="4">
-        <v>5</v>
-      </c>
-      <c r="G5" s="50">
-        <v>4500</v>
-      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="222"/>
       <c r="H5" s="50">
-        <v>22500</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
+      <c r="A6" s="4"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="260" t="s">
-        <v>132</v>
-      </c>
+      <c r="C6" s="260"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
+      <c r="F6" s="4"/>
       <c r="G6" s="50"/>
-      <c r="H6" s="50">
-        <v>2900</v>
+      <c r="H6" s="223">
+        <f>SUM(H3:H5)</f>
+        <v>54350</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
+      <c r="A7" s="4"/>
       <c r="B7" s="3"/>
       <c r="C7" s="260" t="s">
-        <v>425</v>
+        <v>321</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="50"/>
+      <c r="F7" s="4">
+        <v>5</v>
+      </c>
+      <c r="G7" s="50">
+        <v>1700</v>
+      </c>
       <c r="H7" s="50">
-        <v>2650</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="260"/>
-      <c r="D8" s="3"/>
+      <c r="C8" s="260" t="s">
+        <v>343</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>351</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="4"/>
       <c r="G8" s="222"/>
-      <c r="H8" s="257">
-        <f>SUM(H3:H7)</f>
-        <v>43550</v>
+      <c r="H8" s="50">
+        <v>27000</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="260" t="s">
-        <v>426</v>
-      </c>
+      <c r="C9" s="260"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
+      <c r="F9" s="4"/>
       <c r="G9" s="222"/>
-      <c r="H9" s="50">
-        <v>1000</v>
+      <c r="H9" s="223">
+        <f>SUM(H6:H8)</f>
+        <v>89850</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="260" t="s">
-        <v>354</v>
-      </c>
+      <c r="C10" s="260"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="4">
-        <v>100</v>
-      </c>
-      <c r="G10" s="222">
-        <v>50</v>
-      </c>
-      <c r="H10" s="50">
-        <v>5000</v>
-      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="222"/>
+      <c r="H10" s="50"/>
     </row>
     <row r="11" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
@@ -22240,10 +22271,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="222"/>
-      <c r="H11" s="223">
-        <f>SUM(H8:H10)</f>
-        <v>49550</v>
-      </c>
+      <c r="H11" s="223"/>
     </row>
     <row r="12" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -22264,7 +22292,7 @@
       <c r="F13" s="70"/>
       <c r="G13" s="222"/>
       <c r="H13" s="222"/>
-      <c r="M13" s="426" t="s">
+      <c r="M13" s="424" t="s">
         <v>266</v>
       </c>
     </row>
@@ -22341,32 +22369,32 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="430"/>
+      <c r="C21" s="428"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="415"/>
+      <c r="E21" s="413"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="415"/>
-      <c r="H21" s="427"/>
+      <c r="G21" s="413"/>
+      <c r="H21" s="425"/>
     </row>
     <row r="22" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="414"/>
-      <c r="B22" s="414"/>
-      <c r="C22" s="430"/>
+      <c r="A22" s="412"/>
+      <c r="B22" s="412"/>
+      <c r="C22" s="428"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="415"/>
+      <c r="E22" s="413"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="428"/>
-      <c r="H22" s="428"/>
+      <c r="G22" s="426"/>
+      <c r="H22" s="426"/>
     </row>
     <row r="23" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="414"/>
-      <c r="B23" s="414"/>
-      <c r="C23" s="419"/>
+      <c r="A23" s="412"/>
+      <c r="B23" s="412"/>
+      <c r="C23" s="417"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="414"/>
+      <c r="E23" s="412"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="414"/>
-      <c r="H23" s="429"/>
+      <c r="G23" s="412"/>
+      <c r="H23" s="427"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/GB-3  Sales.xlsx
+++ b/GB-3  Sales.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="18195" windowHeight="10545" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="18195" windowHeight="10545" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sales-2017" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="431">
   <si>
     <t>Oil Filter</t>
   </si>
@@ -1335,6 +1335,9 @@
   </si>
   <si>
     <t>Switz</t>
+  </si>
+  <si>
+    <t>14.8.2018</t>
   </si>
 </sst>
 </file>
@@ -17716,7 +17719,7 @@
   </sheetPr>
   <dimension ref="A1:Q298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+    <sheetView topLeftCell="A136" workbookViewId="0">
       <selection activeCell="N138" sqref="N138"/>
     </sheetView>
   </sheetViews>
@@ -22081,8 +22084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -22138,60 +22141,40 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C3" s="188" t="s">
-        <v>200</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="222"/>
-      <c r="H3" s="50">
-        <v>40500</v>
-      </c>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="237" t="s">
-        <v>200</v>
-      </c>
+      <c r="C4" s="237"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="222"/>
-      <c r="H4" s="50">
-        <v>10500</v>
-      </c>
+      <c r="H4" s="50"/>
     </row>
     <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="237" t="s">
-        <v>329</v>
-      </c>
+      <c r="C5" s="237"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
+      <c r="F5" s="3"/>
       <c r="G5" s="222"/>
-      <c r="H5" s="50">
-        <v>3350</v>
-      </c>
+      <c r="H5" s="50"/>
     </row>
     <row r="6" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -22201,44 +22184,27 @@
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
       <c r="G6" s="50"/>
-      <c r="H6" s="223">
-        <f>SUM(H3:H5)</f>
-        <v>54350</v>
-      </c>
+      <c r="H6" s="223"/>
     </row>
     <row r="7" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="260" t="s">
-        <v>321</v>
-      </c>
+      <c r="C7" s="260"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="4">
-        <v>5</v>
-      </c>
-      <c r="G7" s="50">
-        <v>1700</v>
-      </c>
-      <c r="H7" s="50">
-        <v>8500</v>
-      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
     </row>
     <row r="8" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="260" t="s">
-        <v>343</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>351</v>
-      </c>
+      <c r="C8" s="260"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="4"/>
       <c r="G8" s="222"/>
-      <c r="H8" s="50">
-        <v>27000</v>
-      </c>
+      <c r="H8" s="50"/>
     </row>
     <row r="9" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -22248,10 +22214,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
       <c r="G9" s="222"/>
-      <c r="H9" s="223">
-        <f>SUM(H6:H8)</f>
-        <v>89850</v>
-      </c>
+      <c r="H9" s="223"/>
     </row>
     <row r="10" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>

--- a/GB-3  Sales.xlsx
+++ b/GB-3  Sales.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="18195" windowHeight="10545" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="18195" windowHeight="10425" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sales-2017" sheetId="1" r:id="rId1"/>
@@ -12,9 +12,10 @@
     <sheet name="Juiy-2018" sheetId="3" r:id="rId3"/>
     <sheet name="August-2018" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'August-2018'!$A$1:$H$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'August-2018'!$A$1:$H$155</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Juiy-2018'!$A$1:$H$118</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Jun-2018 -Sales'!$A$1:$H$256</definedName>
   </definedNames>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="437">
   <si>
     <t>Oil Filter</t>
   </si>
@@ -1338,6 +1339,24 @@
   </si>
   <si>
     <t>14.8.2018</t>
+  </si>
+  <si>
+    <t>Meal</t>
+  </si>
+  <si>
+    <t>15.8.2018</t>
+  </si>
+  <si>
+    <t>AMS 10W30</t>
+  </si>
+  <si>
+    <t>မိိန္းလံုး</t>
+  </si>
+  <si>
+    <t>Hilux</t>
+  </si>
+  <si>
+    <t>စက္ေက်ာက္ျပား</t>
   </si>
 </sst>
 </file>
@@ -1849,7 +1868,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="447">
+  <cellXfs count="441">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2856,15 +2875,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2877,15 +2887,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="34" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2944,9 +2945,6 @@
     <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2958,6 +2956,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6406,10 +6407,10 @@
       <c r="B1" s="198" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="439" t="s">
+      <c r="C1" s="433" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="440"/>
+      <c r="D1" s="434"/>
       <c r="E1" s="198" t="s">
         <v>116</v>
       </c>
@@ -11761,7 +11762,7 @@
   <dimension ref="A1:Q298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M286" sqref="M286"/>
     </sheetView>
   </sheetViews>
@@ -11786,10 +11787,10 @@
       <c r="B1" s="333" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="441" t="s">
+      <c r="C1" s="435" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="442"/>
+      <c r="D1" s="436"/>
       <c r="E1" s="333" t="s">
         <v>116</v>
       </c>
@@ -15397,7 +15398,7 @@
     <row r="177" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
-      <c r="C177" s="405" t="s">
+      <c r="C177" s="399" t="s">
         <v>189</v>
       </c>
       <c r="D177" s="235" t="s">
@@ -15411,12 +15412,12 @@
       <c r="H177" s="356">
         <v>2650</v>
       </c>
-      <c r="I177" s="411"/>
+      <c r="I177" s="405"/>
     </row>
     <row r="178" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
-      <c r="C178" s="409" t="s">
+      <c r="C178" s="403" t="s">
         <v>108</v>
       </c>
       <c r="D178" s="389" t="s">
@@ -15543,7 +15544,7 @@
         <v>2</v>
       </c>
       <c r="B185" s="4"/>
-      <c r="C185" s="438" t="s">
+      <c r="C185" s="431" t="s">
         <v>108</v>
       </c>
       <c r="D185" s="389"/>
@@ -15917,7 +15918,7 @@
     <row r="204" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
-      <c r="C204" s="410" t="s">
+      <c r="C204" s="404" t="s">
         <v>197</v>
       </c>
       <c r="D204" s="366"/>
@@ -15951,7 +15952,7 @@
     <row r="206" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
-      <c r="C206" s="409" t="s">
+      <c r="C206" s="403" t="s">
         <v>338</v>
       </c>
       <c r="D206" s="389" t="s">
@@ -15962,7 +15963,7 @@
         <v>4</v>
       </c>
       <c r="G206" s="390"/>
-      <c r="H206" s="419" t="s">
+      <c r="H206" s="413" t="s">
         <v>153</v>
       </c>
       <c r="I206" s="101" t="s">
@@ -17434,7 +17435,7 @@
     <row r="284" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
-      <c r="C284" s="409" t="s">
+      <c r="C284" s="403" t="s">
         <v>276</v>
       </c>
       <c r="D284" s="389" t="s">
@@ -17719,8 +17720,8 @@
   </sheetPr>
   <dimension ref="A1:Q298"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="N138" sqref="N138"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="L174" sqref="L174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17744,10 +17745,10 @@
       <c r="B1" s="333" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="441" t="s">
+      <c r="C1" s="435" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="442"/>
+      <c r="D1" s="436"/>
       <c r="E1" s="333" t="s">
         <v>116</v>
       </c>
@@ -17819,18 +17820,18 @@
         <v>3</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="313" t="s">
+      <c r="C4" s="378" t="s">
         <v>377</v>
       </c>
-      <c r="D4" s="275"/>
-      <c r="E4" s="275" t="s">
+      <c r="D4" s="376"/>
+      <c r="E4" s="376" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="275">
-        <v>1</v>
-      </c>
-      <c r="G4" s="278"/>
-      <c r="H4" s="278">
+      <c r="F4" s="376">
+        <v>1</v>
+      </c>
+      <c r="G4" s="377"/>
+      <c r="H4" s="377">
         <v>21350</v>
       </c>
       <c r="I4" s="86" t="s">
@@ -18320,18 +18321,18 @@
       <c r="B31" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="C31" s="315" t="s">
+      <c r="C31" s="375" t="s">
         <v>125</v>
       </c>
-      <c r="D31" s="275"/>
-      <c r="E31" s="275"/>
-      <c r="F31" s="275">
+      <c r="D31" s="376"/>
+      <c r="E31" s="376"/>
+      <c r="F31" s="376">
         <v>4</v>
       </c>
-      <c r="G31" s="278">
+      <c r="G31" s="377">
         <v>3800</v>
       </c>
-      <c r="H31" s="278">
+      <c r="H31" s="377">
         <v>15200</v>
       </c>
     </row>
@@ -18340,18 +18341,18 @@
         <v>2</v>
       </c>
       <c r="B32" s="4"/>
-      <c r="C32" s="313" t="s">
+      <c r="C32" s="378" t="s">
         <v>176</v>
       </c>
-      <c r="D32" s="275"/>
-      <c r="E32" s="275" t="s">
+      <c r="D32" s="376"/>
+      <c r="E32" s="376" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="275">
-        <v>1</v>
-      </c>
-      <c r="G32" s="278"/>
-      <c r="H32" s="278">
+      <c r="F32" s="376">
+        <v>1</v>
+      </c>
+      <c r="G32" s="377"/>
+      <c r="H32" s="377">
         <v>30500</v>
       </c>
     </row>
@@ -18360,16 +18361,16 @@
         <v>3</v>
       </c>
       <c r="B33" s="4"/>
-      <c r="C33" s="313" t="s">
+      <c r="C33" s="378" t="s">
         <v>388</v>
       </c>
-      <c r="D33" s="275"/>
-      <c r="E33" s="275"/>
-      <c r="F33" s="275">
-        <v>1</v>
-      </c>
-      <c r="G33" s="278"/>
-      <c r="H33" s="278">
+      <c r="D33" s="376"/>
+      <c r="E33" s="376"/>
+      <c r="F33" s="376">
+        <v>1</v>
+      </c>
+      <c r="G33" s="377"/>
+      <c r="H33" s="377">
         <v>2350</v>
       </c>
     </row>
@@ -18398,18 +18399,18 @@
         <v>5</v>
       </c>
       <c r="B35" s="4"/>
-      <c r="C35" s="387" t="s">
+      <c r="C35" s="379" t="s">
         <v>342</v>
       </c>
-      <c r="D35" s="275"/>
-      <c r="E35" s="275" t="s">
+      <c r="D35" s="376"/>
+      <c r="E35" s="376" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="275">
-        <v>1</v>
-      </c>
-      <c r="G35" s="278"/>
-      <c r="H35" s="278">
+      <c r="F35" s="376">
+        <v>1</v>
+      </c>
+      <c r="G35" s="377"/>
+      <c r="H35" s="377">
         <v>4500</v>
       </c>
     </row>
@@ -18478,18 +18479,18 @@
         <v>9</v>
       </c>
       <c r="B39" s="4"/>
-      <c r="C39" s="387" t="s">
+      <c r="C39" s="379" t="s">
         <v>171</v>
       </c>
-      <c r="D39" s="275"/>
-      <c r="E39" s="275"/>
-      <c r="F39" s="275">
+      <c r="D39" s="376"/>
+      <c r="E39" s="376"/>
+      <c r="F39" s="376">
         <v>4</v>
       </c>
-      <c r="G39" s="278">
+      <c r="G39" s="377">
         <v>3800</v>
       </c>
-      <c r="H39" s="278">
+      <c r="H39" s="377">
         <v>15200</v>
       </c>
     </row>
@@ -18498,18 +18499,18 @@
         <v>10</v>
       </c>
       <c r="B40" s="4"/>
-      <c r="C40" s="410" t="s">
+      <c r="C40" s="403" t="s">
         <v>135</v>
       </c>
-      <c r="D40" s="366"/>
-      <c r="E40" s="366" t="s">
+      <c r="D40" s="389"/>
+      <c r="E40" s="389" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="366">
-        <v>1</v>
-      </c>
-      <c r="G40" s="278"/>
-      <c r="H40" s="278">
+      <c r="F40" s="389">
+        <v>1</v>
+      </c>
+      <c r="G40" s="377"/>
+      <c r="H40" s="377">
         <v>1500</v>
       </c>
     </row>
@@ -18652,16 +18653,16 @@
       <c r="B49" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="C49" s="315" t="s">
+      <c r="C49" s="375" t="s">
         <v>394</v>
       </c>
-      <c r="D49" s="275"/>
-      <c r="E49" s="275"/>
-      <c r="F49" s="275">
-        <v>1</v>
-      </c>
-      <c r="G49" s="278"/>
-      <c r="H49" s="278">
+      <c r="D49" s="376"/>
+      <c r="E49" s="376"/>
+      <c r="F49" s="376">
+        <v>1</v>
+      </c>
+      <c r="G49" s="377"/>
+      <c r="H49" s="377">
         <v>3500</v>
       </c>
       <c r="I49" s="101" t="s">
@@ -18673,20 +18674,20 @@
         <v>2</v>
       </c>
       <c r="B50" s="4"/>
-      <c r="C50" s="315" t="s">
+      <c r="C50" s="375" t="s">
         <v>342</v>
       </c>
-      <c r="D50" s="275"/>
-      <c r="E50" s="275" t="s">
+      <c r="D50" s="376"/>
+      <c r="E50" s="376" t="s">
         <v>14</v>
       </c>
-      <c r="F50" s="275">
+      <c r="F50" s="376">
         <v>8</v>
       </c>
-      <c r="G50" s="278">
+      <c r="G50" s="377">
         <v>4500</v>
       </c>
-      <c r="H50" s="278">
+      <c r="H50" s="377">
         <v>36000</v>
       </c>
       <c r="I50" s="101" t="s">
@@ -18696,12 +18697,12 @@
     <row r="51" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
-      <c r="C51" s="398"/>
+      <c r="C51" s="395"/>
       <c r="D51" s="235"/>
       <c r="E51" s="235"/>
       <c r="F51" s="235"/>
       <c r="G51" s="356"/>
-      <c r="H51" s="399">
+      <c r="H51" s="396">
         <f>SUM(H49:H50)</f>
         <v>39500</v>
       </c>
@@ -18730,7 +18731,7 @@
       <c r="E53" s="83"/>
       <c r="F53" s="83"/>
       <c r="G53" s="84"/>
-      <c r="H53" s="400">
+      <c r="H53" s="397">
         <f>SUM(H51:H52)</f>
         <v>63500</v>
       </c>
@@ -18742,20 +18743,20 @@
       <c r="B54" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="C54" s="315" t="s">
+      <c r="C54" s="375" t="s">
         <v>197</v>
       </c>
-      <c r="D54" s="275"/>
-      <c r="E54" s="275" t="s">
+      <c r="D54" s="376"/>
+      <c r="E54" s="376" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="275">
+      <c r="F54" s="376">
         <v>2</v>
       </c>
-      <c r="G54" s="278">
+      <c r="G54" s="377">
         <v>6300</v>
       </c>
-      <c r="H54" s="278">
+      <c r="H54" s="377">
         <v>12600</v>
       </c>
       <c r="I54" s="101" t="s">
@@ -18812,16 +18813,16 @@
         <v>4</v>
       </c>
       <c r="B57" s="4"/>
-      <c r="C57" s="313" t="s">
+      <c r="C57" s="378" t="s">
         <v>127</v>
       </c>
-      <c r="D57" s="275"/>
-      <c r="E57" s="275"/>
-      <c r="F57" s="275">
-        <v>1</v>
-      </c>
-      <c r="G57" s="278"/>
-      <c r="H57" s="278">
+      <c r="D57" s="376"/>
+      <c r="E57" s="376"/>
+      <c r="F57" s="376">
+        <v>1</v>
+      </c>
+      <c r="G57" s="377"/>
+      <c r="H57" s="377">
         <v>1750</v>
       </c>
       <c r="I57" s="101" t="s">
@@ -18877,18 +18878,18 @@
       <c r="B61" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="C61" s="315" t="s">
+      <c r="C61" s="375" t="s">
         <v>188</v>
       </c>
-      <c r="D61" s="275"/>
-      <c r="E61" s="275" t="s">
+      <c r="D61" s="376"/>
+      <c r="E61" s="376" t="s">
         <v>8</v>
       </c>
-      <c r="F61" s="275">
-        <v>1</v>
-      </c>
-      <c r="G61" s="278"/>
-      <c r="H61" s="278">
+      <c r="F61" s="376">
+        <v>1</v>
+      </c>
+      <c r="G61" s="377"/>
+      <c r="H61" s="377">
         <v>22300</v>
       </c>
       <c r="I61" s="101" t="s">
@@ -18900,18 +18901,18 @@
         <v>2</v>
       </c>
       <c r="B62" s="4"/>
-      <c r="C62" s="313" t="s">
+      <c r="C62" s="378" t="s">
         <v>188</v>
       </c>
-      <c r="D62" s="275"/>
-      <c r="E62" s="275" t="s">
+      <c r="D62" s="376"/>
+      <c r="E62" s="376" t="s">
         <v>14</v>
       </c>
-      <c r="F62" s="275">
-        <v>1</v>
-      </c>
-      <c r="G62" s="278"/>
-      <c r="H62" s="278">
+      <c r="F62" s="376">
+        <v>1</v>
+      </c>
+      <c r="G62" s="377"/>
+      <c r="H62" s="377">
         <v>5350</v>
       </c>
       <c r="I62" s="101" t="s">
@@ -18923,16 +18924,16 @@
         <v>3</v>
       </c>
       <c r="B63" s="4"/>
-      <c r="C63" s="313" t="s">
+      <c r="C63" s="378" t="s">
         <v>161</v>
       </c>
-      <c r="D63" s="275"/>
-      <c r="E63" s="275"/>
-      <c r="F63" s="275">
-        <v>1</v>
-      </c>
-      <c r="G63" s="278"/>
-      <c r="H63" s="278">
+      <c r="D63" s="376"/>
+      <c r="E63" s="376"/>
+      <c r="F63" s="376">
+        <v>1</v>
+      </c>
+      <c r="G63" s="377"/>
+      <c r="H63" s="377">
         <v>3150</v>
       </c>
       <c r="I63" s="101" t="s">
@@ -18966,16 +18967,16 @@
         <v>5</v>
       </c>
       <c r="B65" s="4"/>
-      <c r="C65" s="387" t="s">
+      <c r="C65" s="379" t="s">
         <v>400</v>
       </c>
-      <c r="D65" s="275"/>
-      <c r="E65" s="275"/>
-      <c r="F65" s="275">
-        <v>1</v>
-      </c>
-      <c r="G65" s="278"/>
-      <c r="H65" s="278">
+      <c r="D65" s="376"/>
+      <c r="E65" s="376"/>
+      <c r="F65" s="376">
+        <v>1</v>
+      </c>
+      <c r="G65" s="377"/>
+      <c r="H65" s="377">
         <v>2750</v>
       </c>
       <c r="I65" s="101" t="s">
@@ -19007,16 +19008,16 @@
         <v>7</v>
       </c>
       <c r="B67" s="4"/>
-      <c r="C67" s="387" t="s">
+      <c r="C67" s="379" t="s">
         <v>402</v>
       </c>
-      <c r="D67" s="275"/>
-      <c r="E67" s="275"/>
-      <c r="F67" s="275">
-        <v>1</v>
-      </c>
-      <c r="G67" s="278"/>
-      <c r="H67" s="278">
+      <c r="D67" s="376"/>
+      <c r="E67" s="376"/>
+      <c r="F67" s="376">
+        <v>1</v>
+      </c>
+      <c r="G67" s="377"/>
+      <c r="H67" s="377">
         <v>5000</v>
       </c>
       <c r="I67" s="101" t="s">
@@ -19028,16 +19029,16 @@
         <v>8</v>
       </c>
       <c r="B68" s="4"/>
-      <c r="C68" s="387" t="s">
+      <c r="C68" s="379" t="s">
         <v>109</v>
       </c>
-      <c r="D68" s="275"/>
-      <c r="E68" s="275"/>
-      <c r="F68" s="275">
-        <v>1</v>
-      </c>
-      <c r="G68" s="278"/>
-      <c r="H68" s="278">
+      <c r="D68" s="376"/>
+      <c r="E68" s="376"/>
+      <c r="F68" s="376">
+        <v>1</v>
+      </c>
+      <c r="G68" s="377"/>
+      <c r="H68" s="377">
         <v>3500</v>
       </c>
       <c r="I68" s="101" t="s">
@@ -19125,11 +19126,11 @@
       <c r="B74" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="C74" s="434" t="s">
+      <c r="C74" s="416" t="s">
         <v>406</v>
       </c>
-      <c r="D74" s="420"/>
-      <c r="E74" s="420" t="s">
+      <c r="D74" s="414"/>
+      <c r="E74" s="414" t="s">
         <v>14</v>
       </c>
       <c r="F74" s="376">
@@ -19176,8 +19177,8 @@
       <c r="C76" s="378" t="s">
         <v>350</v>
       </c>
-      <c r="D76" s="420"/>
-      <c r="E76" s="420" t="s">
+      <c r="D76" s="414"/>
+      <c r="E76" s="414" t="s">
         <v>14</v>
       </c>
       <c r="F76" s="376">
@@ -19199,8 +19200,8 @@
       <c r="C77" s="378" t="s">
         <v>160</v>
       </c>
-      <c r="D77" s="420"/>
-      <c r="E77" s="420" t="s">
+      <c r="D77" s="414"/>
+      <c r="E77" s="414" t="s">
         <v>22</v>
       </c>
       <c r="F77" s="376">
@@ -19222,8 +19223,8 @@
       <c r="C78" s="378" t="s">
         <v>160</v>
       </c>
-      <c r="D78" s="420"/>
-      <c r="E78" s="420" t="s">
+      <c r="D78" s="414"/>
+      <c r="E78" s="414" t="s">
         <v>14</v>
       </c>
       <c r="F78" s="376">
@@ -19245,8 +19246,8 @@
       <c r="C79" s="378" t="s">
         <v>408</v>
       </c>
-      <c r="D79" s="420"/>
-      <c r="E79" s="420"/>
+      <c r="D79" s="414"/>
+      <c r="E79" s="414"/>
       <c r="F79" s="376">
         <v>1</v>
       </c>
@@ -19266,8 +19267,8 @@
       <c r="C80" s="378" t="s">
         <v>409</v>
       </c>
-      <c r="D80" s="420"/>
-      <c r="E80" s="420"/>
+      <c r="D80" s="414"/>
+      <c r="E80" s="414"/>
       <c r="F80" s="376">
         <v>1</v>
       </c>
@@ -19287,8 +19288,8 @@
       <c r="C81" s="378" t="s">
         <v>410</v>
       </c>
-      <c r="D81" s="420"/>
-      <c r="E81" s="420"/>
+      <c r="D81" s="414"/>
+      <c r="E81" s="414"/>
       <c r="F81" s="376">
         <v>1</v>
       </c>
@@ -19325,7 +19326,7 @@
         <v>10</v>
       </c>
       <c r="B83" s="3"/>
-      <c r="C83" s="418" t="s">
+      <c r="C83" s="412" t="s">
         <v>412</v>
       </c>
       <c r="D83" s="70" t="s">
@@ -19348,8 +19349,8 @@
       <c r="C84" s="388" t="s">
         <v>197</v>
       </c>
-      <c r="D84" s="421"/>
-      <c r="E84" s="421" t="s">
+      <c r="D84" s="415"/>
+      <c r="E84" s="415" t="s">
         <v>22</v>
       </c>
       <c r="F84" s="389">
@@ -19371,8 +19372,8 @@
       <c r="C85" s="388" t="s">
         <v>127</v>
       </c>
-      <c r="D85" s="421"/>
-      <c r="E85" s="421"/>
+      <c r="D85" s="415"/>
+      <c r="E85" s="415"/>
       <c r="F85" s="389">
         <v>1</v>
       </c>
@@ -19392,7 +19393,7 @@
         <v>13</v>
       </c>
       <c r="B86" s="3"/>
-      <c r="C86" s="418" t="s">
+      <c r="C86" s="412" t="s">
         <v>208</v>
       </c>
       <c r="D86" s="70" t="s">
@@ -19415,8 +19416,8 @@
       <c r="C87" s="378" t="s">
         <v>197</v>
       </c>
-      <c r="D87" s="420"/>
-      <c r="E87" s="420" t="s">
+      <c r="D87" s="414"/>
+      <c r="E87" s="414" t="s">
         <v>14</v>
       </c>
       <c r="F87" s="376">
@@ -19479,45 +19480,45 @@
     <row r="91" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="3"/>
-      <c r="C91" s="413" t="s">
+      <c r="C91" s="407" t="s">
         <v>343</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="E91" s="413"/>
-      <c r="F91" s="414"/>
-      <c r="G91" s="414"/>
-      <c r="H91" s="415">
+      <c r="E91" s="407"/>
+      <c r="F91" s="408"/>
+      <c r="G91" s="408"/>
+      <c r="H91" s="409">
         <v>28500</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
-      <c r="B92" s="412"/>
-      <c r="C92" s="413" t="s">
+      <c r="B92" s="406"/>
+      <c r="C92" s="407" t="s">
         <v>363</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="E92" s="413"/>
+      <c r="E92" s="407"/>
       <c r="F92" s="4">
         <v>5</v>
       </c>
-      <c r="G92" s="416">
+      <c r="G92" s="410">
         <v>1500</v>
       </c>
-      <c r="H92" s="416">
+      <c r="H92" s="410">
         <v>7500</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
-      <c r="B93" s="412"/>
-      <c r="C93" s="412"/>
-      <c r="D93" s="412"/>
-      <c r="E93" s="412"/>
+      <c r="B93" s="406"/>
+      <c r="C93" s="406"/>
+      <c r="D93" s="406"/>
+      <c r="E93" s="406"/>
       <c r="F93" s="77"/>
       <c r="G93" s="77"/>
       <c r="H93" s="367">
@@ -19532,11 +19533,11 @@
       <c r="B94" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="C94" s="422" t="s">
+      <c r="C94" s="416" t="s">
         <v>341</v>
       </c>
-      <c r="D94" s="420"/>
-      <c r="E94" s="420"/>
+      <c r="D94" s="414"/>
+      <c r="E94" s="414"/>
       <c r="F94" s="376">
         <v>1</v>
       </c>
@@ -19556,8 +19557,8 @@
       <c r="C95" s="378" t="s">
         <v>414</v>
       </c>
-      <c r="D95" s="420"/>
-      <c r="E95" s="420"/>
+      <c r="D95" s="414"/>
+      <c r="E95" s="414"/>
       <c r="F95" s="376">
         <v>1</v>
       </c>
@@ -19568,7 +19569,7 @@
       <c r="I95" s="101" t="s">
         <v>417</v>
       </c>
-      <c r="K95" s="423"/>
+      <c r="K95" s="417"/>
     </row>
     <row r="96" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
@@ -19578,8 +19579,8 @@
       <c r="C96" s="378" t="s">
         <v>299</v>
       </c>
-      <c r="D96" s="420"/>
-      <c r="E96" s="420" t="s">
+      <c r="D96" s="414"/>
+      <c r="E96" s="414" t="s">
         <v>22</v>
       </c>
       <c r="F96" s="376">
@@ -19601,8 +19602,8 @@
       <c r="C97" s="378" t="s">
         <v>127</v>
       </c>
-      <c r="D97" s="420"/>
-      <c r="E97" s="420"/>
+      <c r="D97" s="414"/>
+      <c r="E97" s="414"/>
       <c r="F97" s="376">
         <v>3</v>
       </c>
@@ -19644,8 +19645,8 @@
       <c r="C99" s="378" t="s">
         <v>160</v>
       </c>
-      <c r="D99" s="420"/>
-      <c r="E99" s="420" t="s">
+      <c r="D99" s="414"/>
+      <c r="E99" s="414" t="s">
         <v>22</v>
       </c>
       <c r="F99" s="376">
@@ -19726,7 +19727,7 @@
         <v>10</v>
       </c>
       <c r="B103" s="3"/>
-      <c r="C103" s="418" t="s">
+      <c r="C103" s="412" t="s">
         <v>27</v>
       </c>
       <c r="D103" s="70" t="s">
@@ -19749,8 +19750,8 @@
       <c r="C104" s="388" t="s">
         <v>109</v>
       </c>
-      <c r="D104" s="421"/>
-      <c r="E104" s="421"/>
+      <c r="D104" s="415"/>
+      <c r="E104" s="415"/>
       <c r="F104" s="389">
         <v>1</v>
       </c>
@@ -19765,7 +19766,7 @@
     <row r="105" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
-      <c r="C105" s="418"/>
+      <c r="C105" s="412"/>
       <c r="D105" s="70"/>
       <c r="E105" s="70"/>
       <c r="F105" s="45"/>
@@ -19778,7 +19779,7 @@
     <row r="106" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
-      <c r="C106" s="418" t="s">
+      <c r="C106" s="412" t="s">
         <v>343</v>
       </c>
       <c r="D106" s="70" t="s">
@@ -20030,7 +20031,7 @@
         <v>11</v>
       </c>
       <c r="B118" s="4"/>
-      <c r="C118" s="418" t="s">
+      <c r="C118" s="412" t="s">
         <v>111</v>
       </c>
       <c r="D118" s="45" t="s">
@@ -20052,12 +20053,12 @@
         <v>12</v>
       </c>
       <c r="B119" s="4"/>
-      <c r="C119" s="435" t="s">
+      <c r="C119" s="428" t="s">
         <v>350</v>
       </c>
-      <c r="D119" s="394"/>
-      <c r="E119" s="394"/>
-      <c r="F119" s="394">
+      <c r="D119" s="393"/>
+      <c r="E119" s="393"/>
+      <c r="F119" s="393">
         <v>1</v>
       </c>
       <c r="G119" s="84"/>
@@ -20089,7 +20090,7 @@
     <row r="121" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="4"/>
-      <c r="C121" s="418"/>
+      <c r="C121" s="412"/>
       <c r="D121" s="45"/>
       <c r="E121" s="45"/>
       <c r="F121" s="45"/>
@@ -20167,20 +20168,20 @@
     <row r="126" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="4"/>
-      <c r="C126" s="429" t="s">
+      <c r="C126" s="423" t="s">
         <v>299</v>
       </c>
       <c r="D126" s="376" t="s">
         <v>420</v>
       </c>
-      <c r="E126" s="429" t="s">
+      <c r="E126" s="423" t="s">
         <v>22</v>
       </c>
       <c r="F126" s="376">
         <v>1</v>
       </c>
-      <c r="G126" s="429"/>
-      <c r="H126" s="430" t="s">
+      <c r="G126" s="423"/>
+      <c r="H126" s="424" t="s">
         <v>153</v>
       </c>
       <c r="I126" s="101" t="s">
@@ -20188,20 +20189,20 @@
       </c>
     </row>
     <row r="127" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="412"/>
+      <c r="A127" s="406"/>
       <c r="B127" s="77"/>
-      <c r="C127" s="429" t="s">
+      <c r="C127" s="423" t="s">
         <v>127</v>
       </c>
       <c r="D127" s="376" t="s">
         <v>420</v>
       </c>
-      <c r="E127" s="429"/>
+      <c r="E127" s="423"/>
       <c r="F127" s="376">
         <v>1</v>
       </c>
-      <c r="G127" s="431"/>
-      <c r="H127" s="431" t="s">
+      <c r="G127" s="425"/>
+      <c r="H127" s="425" t="s">
         <v>153</v>
       </c>
       <c r="I127" s="101" t="s">
@@ -20209,7 +20210,7 @@
       </c>
     </row>
     <row r="128" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="412"/>
+      <c r="A128" s="406"/>
       <c r="B128" s="77"/>
       <c r="C128" s="375" t="s">
         <v>197</v>
@@ -20217,21 +20218,21 @@
       <c r="D128" s="376" t="s">
         <v>421</v>
       </c>
-      <c r="E128" s="432" t="s">
+      <c r="E128" s="426" t="s">
         <v>14</v>
       </c>
       <c r="F128" s="376">
         <v>1</v>
       </c>
-      <c r="G128" s="432"/>
-      <c r="H128" s="433" t="s">
+      <c r="G128" s="426"/>
+      <c r="H128" s="427" t="s">
         <v>153</v>
       </c>
       <c r="I128" s="101" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>1</v>
       </c>
@@ -20251,7 +20252,7 @@
         <v>28500</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>2</v>
       </c>
@@ -20269,7 +20270,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="260"/>
@@ -20282,103 +20283,118 @@
         <v>33700</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>1</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="C132" s="231" t="s">
+      <c r="C132" s="416" t="s">
         <v>109</v>
       </c>
-      <c r="D132" s="3"/>
-      <c r="E132" s="3"/>
-      <c r="F132" s="4">
-        <v>1</v>
-      </c>
-      <c r="G132" s="50"/>
-      <c r="H132" s="50">
+      <c r="D132" s="414"/>
+      <c r="E132" s="414"/>
+      <c r="F132" s="376">
+        <v>1</v>
+      </c>
+      <c r="G132" s="377"/>
+      <c r="H132" s="377">
         <v>3500</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I132" s="101" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>2</v>
       </c>
       <c r="B133" s="3"/>
-      <c r="C133" s="260" t="s">
+      <c r="C133" s="379" t="s">
         <v>120</v>
       </c>
-      <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
-      <c r="F133" s="4">
+      <c r="D133" s="414"/>
+      <c r="E133" s="414"/>
+      <c r="F133" s="376">
         <v>4</v>
       </c>
-      <c r="G133" s="50">
+      <c r="G133" s="377">
         <v>3000</v>
       </c>
-      <c r="H133" s="50">
+      <c r="H133" s="377">
         <v>12000</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I133" s="101" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>3</v>
       </c>
       <c r="B134" s="3"/>
-      <c r="C134" s="260" t="s">
+      <c r="C134" s="379" t="s">
         <v>406</v>
       </c>
-      <c r="D134" s="3"/>
-      <c r="E134" s="3" t="s">
+      <c r="D134" s="414"/>
+      <c r="E134" s="414" t="s">
         <v>14</v>
       </c>
-      <c r="F134" s="4">
+      <c r="F134" s="376">
         <v>5</v>
       </c>
-      <c r="G134" s="50">
+      <c r="G134" s="377">
         <v>4500</v>
       </c>
-      <c r="H134" s="50">
+      <c r="H134" s="377">
         <v>22500</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I134" s="101" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>4</v>
       </c>
       <c r="B135" s="3"/>
-      <c r="C135" s="260" t="s">
+      <c r="C135" s="379" t="s">
         <v>132</v>
       </c>
-      <c r="D135" s="3"/>
-      <c r="E135" s="3"/>
-      <c r="F135" s="4">
-        <v>1</v>
-      </c>
-      <c r="G135" s="50"/>
-      <c r="H135" s="50">
+      <c r="D135" s="414"/>
+      <c r="E135" s="414"/>
+      <c r="F135" s="376">
+        <v>1</v>
+      </c>
+      <c r="G135" s="377"/>
+      <c r="H135" s="377">
         <v>2900</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I135" s="101" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>5</v>
       </c>
       <c r="B136" s="3"/>
-      <c r="C136" s="260" t="s">
+      <c r="C136" s="379" t="s">
         <v>425</v>
       </c>
-      <c r="D136" s="3"/>
-      <c r="E136" s="3"/>
-      <c r="F136" s="4"/>
-      <c r="G136" s="50"/>
-      <c r="H136" s="50">
+      <c r="D136" s="414"/>
+      <c r="E136" s="414"/>
+      <c r="F136" s="376"/>
+      <c r="G136" s="377"/>
+      <c r="H136" s="377">
         <v>2650</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I136" s="101" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="260"/>
@@ -20391,7 +20407,7 @@
         <v>43550</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="260" t="s">
@@ -20407,7 +20423,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="260" t="s">
@@ -20425,7 +20441,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="260"/>
@@ -20438,67 +20454,76 @@
         <v>49550</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>1</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="C141" s="188" t="s">
+      <c r="C141" s="375" t="s">
         <v>200</v>
       </c>
-      <c r="D141" s="3"/>
-      <c r="E141" s="3" t="s">
+      <c r="D141" s="414"/>
+      <c r="E141" s="414" t="s">
         <v>8</v>
       </c>
-      <c r="F141" s="3">
-        <v>1</v>
-      </c>
-      <c r="G141" s="222"/>
-      <c r="H141" s="50">
+      <c r="F141" s="414">
+        <v>1</v>
+      </c>
+      <c r="G141" s="432"/>
+      <c r="H141" s="377">
         <v>40500</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I141" s="101" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>2</v>
       </c>
       <c r="B142" s="3"/>
-      <c r="C142" s="237" t="s">
+      <c r="C142" s="378" t="s">
         <v>200</v>
       </c>
-      <c r="D142" s="3"/>
-      <c r="E142" s="3" t="s">
+      <c r="D142" s="414"/>
+      <c r="E142" s="414" t="s">
         <v>14</v>
       </c>
-      <c r="F142" s="3">
-        <v>1</v>
-      </c>
-      <c r="G142" s="222"/>
-      <c r="H142" s="50">
+      <c r="F142" s="414">
+        <v>1</v>
+      </c>
+      <c r="G142" s="432"/>
+      <c r="H142" s="377">
         <v>10500</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I142" s="101" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>3</v>
       </c>
       <c r="B143" s="3"/>
-      <c r="C143" s="237" t="s">
+      <c r="C143" s="378" t="s">
         <v>329</v>
       </c>
-      <c r="D143" s="3"/>
-      <c r="E143" s="3"/>
-      <c r="F143" s="3">
-        <v>1</v>
-      </c>
-      <c r="G143" s="222"/>
-      <c r="H143" s="50">
+      <c r="D143" s="414"/>
+      <c r="E143" s="414"/>
+      <c r="F143" s="414">
+        <v>1</v>
+      </c>
+      <c r="G143" s="432"/>
+      <c r="H143" s="377">
         <v>3350</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I143" s="101" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="3"/>
       <c r="C144" s="260"/>
@@ -20559,256 +20584,462 @@
       </c>
     </row>
     <row r="148" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="4"/>
-      <c r="B148" s="4"/>
-      <c r="C148" s="391"/>
-      <c r="D148" s="83"/>
-      <c r="E148" s="83"/>
-      <c r="F148" s="83"/>
-      <c r="G148" s="84"/>
-      <c r="H148" s="400"/>
+      <c r="A148" s="4">
+        <v>1</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C148" s="188" t="s">
+        <v>160</v>
+      </c>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F148" s="3">
+        <v>1</v>
+      </c>
+      <c r="G148" s="222"/>
+      <c r="H148" s="50">
+        <v>30500</v>
+      </c>
     </row>
     <row r="149" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="4"/>
+      <c r="A149" s="4">
+        <v>2</v>
+      </c>
       <c r="B149" s="4"/>
-      <c r="C149" s="391"/>
-      <c r="D149" s="83"/>
-      <c r="E149" s="83"/>
-      <c r="F149" s="83"/>
-      <c r="G149" s="84"/>
-      <c r="H149" s="84"/>
+      <c r="C149" s="193" t="s">
+        <v>127</v>
+      </c>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3">
+        <v>1</v>
+      </c>
+      <c r="G149" s="222"/>
+      <c r="H149" s="50">
+        <v>1750</v>
+      </c>
     </row>
     <row r="150" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="4"/>
+      <c r="A150" s="4">
+        <v>3</v>
+      </c>
       <c r="B150" s="4"/>
-      <c r="C150" s="391"/>
-      <c r="D150" s="83"/>
-      <c r="E150" s="83"/>
-      <c r="F150" s="83"/>
-      <c r="G150" s="84"/>
-      <c r="H150" s="84"/>
+      <c r="C150" s="193" t="s">
+        <v>109</v>
+      </c>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="3">
+        <v>1</v>
+      </c>
+      <c r="G150" s="222"/>
+      <c r="H150" s="50">
+        <v>3500</v>
+      </c>
     </row>
     <row r="151" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="4"/>
-      <c r="B151" s="4"/>
-      <c r="C151" s="192"/>
-      <c r="D151" s="83"/>
-      <c r="E151" s="83"/>
-      <c r="F151" s="83"/>
-      <c r="G151" s="84"/>
-      <c r="H151" s="84"/>
+      <c r="A151" s="4">
+        <v>4</v>
+      </c>
+      <c r="B151" s="3"/>
+      <c r="C151" s="193" t="s">
+        <v>60</v>
+      </c>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
+      <c r="F151" s="3">
+        <v>2</v>
+      </c>
+      <c r="G151" s="222">
+        <v>8000</v>
+      </c>
+      <c r="H151" s="50">
+        <v>16000</v>
+      </c>
     </row>
     <row r="152" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="4"/>
-      <c r="B152" s="4"/>
-      <c r="C152" s="192"/>
-      <c r="D152" s="83"/>
-      <c r="E152" s="83"/>
-      <c r="F152" s="83"/>
-      <c r="G152" s="84"/>
-      <c r="H152" s="84"/>
+      <c r="A152" s="4">
+        <v>5</v>
+      </c>
+      <c r="B152" s="3"/>
+      <c r="C152" s="193" t="s">
+        <v>66</v>
+      </c>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3">
+        <v>1</v>
+      </c>
+      <c r="G152" s="222"/>
+      <c r="H152" s="50">
+        <v>18000</v>
+      </c>
     </row>
     <row r="153" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
-      <c r="B153" s="4"/>
-      <c r="C153" s="391"/>
-      <c r="D153" s="83"/>
-      <c r="E153" s="83"/>
-      <c r="F153" s="83"/>
-      <c r="G153" s="84"/>
-      <c r="H153" s="400"/>
+      <c r="B153" s="3"/>
+      <c r="C153" s="260"/>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3"/>
+      <c r="F153" s="4"/>
+      <c r="G153" s="50"/>
+      <c r="H153" s="223">
+        <f>SUM(H148:H152)</f>
+        <v>69750</v>
+      </c>
     </row>
     <row r="154" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
-      <c r="B154" s="4"/>
-      <c r="C154" s="391"/>
-      <c r="D154" s="83"/>
-      <c r="E154" s="83"/>
-      <c r="F154" s="83"/>
-      <c r="G154" s="84"/>
-      <c r="H154" s="84"/>
+      <c r="B154" s="3"/>
+      <c r="C154" s="260" t="s">
+        <v>431</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="E154" s="3"/>
+      <c r="F154" s="4"/>
+      <c r="G154" s="50"/>
+      <c r="H154" s="50">
+        <v>27000</v>
+      </c>
     </row>
     <row r="155" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="4"/>
-      <c r="B155" s="4"/>
-      <c r="C155" s="391"/>
-      <c r="D155" s="83"/>
-      <c r="E155" s="83"/>
-      <c r="F155" s="83"/>
-      <c r="G155" s="84"/>
-      <c r="H155" s="84"/>
+      <c r="A155" s="3"/>
+      <c r="B155" s="3"/>
+      <c r="C155" s="260"/>
+      <c r="D155" s="3"/>
+      <c r="E155" s="3"/>
+      <c r="F155" s="4"/>
+      <c r="G155" s="222"/>
+      <c r="H155" s="223">
+        <f>SUM(H153:H154)</f>
+        <v>96750</v>
+      </c>
     </row>
     <row r="156" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="4"/>
-      <c r="B156" s="4"/>
-      <c r="C156" s="192"/>
-      <c r="D156" s="83"/>
-      <c r="E156" s="83"/>
-      <c r="F156" s="83"/>
-      <c r="G156" s="84"/>
-      <c r="H156" s="84"/>
+      <c r="A156" s="4">
+        <v>1</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C156" s="188" t="s">
+        <v>406</v>
+      </c>
+      <c r="D156" s="3"/>
+      <c r="E156" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F156" s="3">
+        <v>2</v>
+      </c>
+      <c r="G156" s="222">
+        <v>4500</v>
+      </c>
+      <c r="H156" s="50">
+        <v>9000</v>
+      </c>
     </row>
     <row r="157" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="4"/>
+      <c r="A157" s="4">
+        <v>2</v>
+      </c>
       <c r="B157" s="4"/>
-      <c r="C157" s="192"/>
-      <c r="D157" s="83"/>
-      <c r="E157" s="83"/>
-      <c r="F157" s="83"/>
-      <c r="G157" s="84"/>
-      <c r="H157" s="84"/>
+      <c r="C157" s="193" t="s">
+        <v>111</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F157" s="3">
+        <v>1</v>
+      </c>
+      <c r="G157" s="222"/>
+      <c r="H157" s="50">
+        <v>22400</v>
+      </c>
     </row>
     <row r="158" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="4"/>
+      <c r="A158" s="4">
+        <v>3</v>
+      </c>
       <c r="B158" s="4"/>
-      <c r="C158" s="391"/>
-      <c r="D158" s="83"/>
-      <c r="E158" s="83"/>
-      <c r="F158" s="83"/>
-      <c r="G158" s="84"/>
-      <c r="H158" s="84"/>
+      <c r="C158" s="193" t="s">
+        <v>196</v>
+      </c>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F158" s="3">
+        <v>1</v>
+      </c>
+      <c r="G158" s="222"/>
+      <c r="H158" s="50">
+        <v>22300</v>
+      </c>
     </row>
     <row r="159" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="4"/>
-      <c r="B159" s="4"/>
-      <c r="C159" s="386"/>
-      <c r="D159" s="83"/>
-      <c r="E159" s="83"/>
-      <c r="F159" s="83"/>
-      <c r="G159" s="84"/>
-      <c r="H159" s="84"/>
+      <c r="A159" s="4">
+        <v>4</v>
+      </c>
+      <c r="B159" s="3"/>
+      <c r="C159" s="193" t="s">
+        <v>196</v>
+      </c>
+      <c r="D159" s="3"/>
+      <c r="E159" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F159" s="3">
+        <v>1</v>
+      </c>
+      <c r="G159" s="222"/>
+      <c r="H159" s="50">
+        <v>5350</v>
+      </c>
     </row>
     <row r="160" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="4"/>
-      <c r="B160" s="4"/>
-      <c r="C160" s="386"/>
-      <c r="D160" s="83"/>
-      <c r="E160" s="83"/>
-      <c r="F160" s="83"/>
-      <c r="G160" s="84"/>
-      <c r="H160" s="84"/>
-    </row>
-    <row r="161" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="4"/>
-      <c r="B161" s="4"/>
-      <c r="C161" s="192"/>
-      <c r="D161" s="83"/>
-      <c r="E161" s="83"/>
-      <c r="F161" s="83"/>
-      <c r="G161" s="84"/>
-      <c r="H161" s="84"/>
-    </row>
-    <row r="162" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="4"/>
-      <c r="B162" s="4"/>
-      <c r="C162" s="391"/>
-      <c r="D162" s="83"/>
-      <c r="E162" s="83"/>
-      <c r="F162" s="83"/>
-      <c r="G162" s="84"/>
-      <c r="H162" s="84"/>
-    </row>
-    <row r="163" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="4"/>
-      <c r="B163" s="255"/>
-      <c r="C163" s="192"/>
-      <c r="D163" s="83"/>
-      <c r="E163" s="396"/>
-      <c r="F163" s="83"/>
-      <c r="G163" s="84"/>
-      <c r="H163" s="400"/>
-    </row>
-    <row r="164" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="4"/>
-      <c r="B164" s="255"/>
-      <c r="C164" s="393"/>
-      <c r="D164" s="235"/>
-      <c r="E164" s="401"/>
-      <c r="F164" s="394"/>
-      <c r="G164" s="395"/>
-      <c r="H164" s="402"/>
-    </row>
-    <row r="165" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="4"/>
-      <c r="B165" s="255"/>
-      <c r="C165" s="192"/>
-      <c r="D165" s="83"/>
-      <c r="E165" s="396"/>
-      <c r="F165" s="83"/>
-      <c r="G165" s="84"/>
-      <c r="H165" s="84"/>
-    </row>
-    <row r="166" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="255"/>
-      <c r="B166" s="255"/>
-      <c r="C166" s="192"/>
-      <c r="D166" s="396"/>
-      <c r="E166" s="396"/>
-      <c r="F166" s="83"/>
-      <c r="G166" s="396"/>
-      <c r="H166" s="85"/>
-    </row>
-    <row r="167" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="255"/>
-      <c r="B167" s="255"/>
-      <c r="C167" s="396"/>
-      <c r="D167" s="396"/>
-      <c r="E167" s="396"/>
-      <c r="F167" s="396"/>
-      <c r="G167" s="396"/>
-      <c r="H167" s="403"/>
-    </row>
-    <row r="168" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="4"/>
-      <c r="B168" s="4"/>
-      <c r="C168" s="391"/>
-      <c r="D168" s="83"/>
-      <c r="E168" s="83"/>
-      <c r="F168" s="83"/>
-      <c r="G168" s="84"/>
-      <c r="H168" s="84"/>
-    </row>
-    <row r="169" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="4"/>
-      <c r="B169" s="4"/>
-      <c r="C169" s="391"/>
-      <c r="D169" s="83"/>
-      <c r="E169" s="83"/>
-      <c r="F169" s="83"/>
-      <c r="G169" s="84"/>
-      <c r="H169" s="84"/>
-    </row>
-    <row r="170" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="4"/>
-      <c r="B170" s="4"/>
-      <c r="C170" s="192"/>
-      <c r="D170" s="83"/>
-      <c r="E170" s="83"/>
-      <c r="F170" s="83"/>
-      <c r="G170" s="84"/>
-      <c r="H170" s="84"/>
-    </row>
-    <row r="171" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="4"/>
-      <c r="B171" s="4"/>
-      <c r="C171" s="192"/>
-      <c r="D171" s="83"/>
-      <c r="E171" s="83"/>
-      <c r="F171" s="83"/>
-      <c r="G171" s="84"/>
-      <c r="H171" s="84"/>
-    </row>
-    <row r="172" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="4"/>
-      <c r="B172" s="4"/>
-      <c r="C172" s="391"/>
-      <c r="D172" s="83"/>
-      <c r="E172" s="83"/>
-      <c r="F172" s="83"/>
-      <c r="G172" s="84"/>
-      <c r="H172" s="84"/>
-    </row>
-    <row r="173" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="4">
+        <v>5</v>
+      </c>
+      <c r="B160" s="3"/>
+      <c r="C160" s="193" t="s">
+        <v>54</v>
+      </c>
+      <c r="D160" s="3"/>
+      <c r="E160" s="3"/>
+      <c r="F160" s="3">
+        <v>1</v>
+      </c>
+      <c r="G160" s="222"/>
+      <c r="H160" s="50">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="4">
+        <v>6</v>
+      </c>
+      <c r="B161" s="3"/>
+      <c r="C161" s="260" t="s">
+        <v>433</v>
+      </c>
+      <c r="D161" s="3"/>
+      <c r="E161" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F161" s="4">
+        <v>1</v>
+      </c>
+      <c r="G161" s="50"/>
+      <c r="H161" s="50">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="4">
+        <v>7</v>
+      </c>
+      <c r="B162" s="3"/>
+      <c r="C162" s="260" t="s">
+        <v>350</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E162" s="3"/>
+      <c r="F162" s="4">
+        <v>1</v>
+      </c>
+      <c r="G162" s="50"/>
+      <c r="H162" s="50">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="4">
+        <v>8</v>
+      </c>
+      <c r="B163" s="3"/>
+      <c r="C163" s="260" t="s">
+        <v>434</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E163" s="3"/>
+      <c r="F163" s="4">
+        <v>2</v>
+      </c>
+      <c r="G163" s="222">
+        <v>12000</v>
+      </c>
+      <c r="H163" s="50">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="4">
+        <v>9</v>
+      </c>
+      <c r="B164" s="3"/>
+      <c r="C164" s="260" t="s">
+        <v>128</v>
+      </c>
+      <c r="D164" s="3"/>
+      <c r="E164" s="3"/>
+      <c r="F164" s="4">
+        <v>4</v>
+      </c>
+      <c r="G164" s="222">
+        <v>3000</v>
+      </c>
+      <c r="H164" s="50">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="4">
+        <v>10</v>
+      </c>
+      <c r="B165" s="3"/>
+      <c r="C165" s="260" t="s">
+        <v>197</v>
+      </c>
+      <c r="D165" s="3"/>
+      <c r="E165" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F165" s="4">
+        <v>1</v>
+      </c>
+      <c r="G165" s="222"/>
+      <c r="H165" s="50">
+        <v>21350</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="4">
+        <v>11</v>
+      </c>
+      <c r="B166" s="3"/>
+      <c r="C166" s="260" t="s">
+        <v>127</v>
+      </c>
+      <c r="D166" s="3"/>
+      <c r="E166" s="3"/>
+      <c r="F166" s="3">
+        <v>1</v>
+      </c>
+      <c r="G166" s="222"/>
+      <c r="H166" s="50">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="4">
+        <v>12</v>
+      </c>
+      <c r="B167" s="3"/>
+      <c r="C167" s="385" t="s">
+        <v>27</v>
+      </c>
+      <c r="D167" s="70" t="s">
+        <v>435</v>
+      </c>
+      <c r="E167" s="70"/>
+      <c r="F167" s="70">
+        <v>1</v>
+      </c>
+      <c r="G167" s="222"/>
+      <c r="H167" s="50">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="4">
+        <v>13</v>
+      </c>
+      <c r="B168" s="3"/>
+      <c r="C168" s="385" t="s">
+        <v>109</v>
+      </c>
+      <c r="D168" s="70"/>
+      <c r="E168" s="70"/>
+      <c r="F168" s="70">
+        <v>1</v>
+      </c>
+      <c r="G168" s="222"/>
+      <c r="H168" s="50">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="3"/>
+      <c r="B169" s="3"/>
+      <c r="C169" s="385"/>
+      <c r="D169" s="70"/>
+      <c r="E169" s="70"/>
+      <c r="F169" s="70"/>
+      <c r="G169" s="222"/>
+      <c r="H169" s="257">
+        <f>SUM(H156:H168)</f>
+        <v>183150</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="3"/>
+      <c r="B170" s="3"/>
+      <c r="C170" s="412" t="s">
+        <v>431</v>
+      </c>
+      <c r="D170" s="70" t="s">
+        <v>385</v>
+      </c>
+      <c r="E170" s="70"/>
+      <c r="F170" s="70"/>
+      <c r="G170" s="222"/>
+      <c r="H170" s="50">
+        <v>28500</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="3"/>
+      <c r="B171" s="3"/>
+      <c r="C171" s="412" t="s">
+        <v>436</v>
+      </c>
+      <c r="D171" s="70"/>
+      <c r="E171" s="70"/>
+      <c r="F171" s="70"/>
+      <c r="G171" s="222"/>
+      <c r="H171" s="50">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="3"/>
+      <c r="B172" s="3"/>
+      <c r="C172" s="260"/>
+      <c r="D172" s="3"/>
+      <c r="E172" s="3"/>
+      <c r="F172" s="3"/>
+      <c r="G172" s="222"/>
+      <c r="H172" s="257">
+        <f>SUM(H169:H171)</f>
+        <v>212450</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="386"/>
@@ -20817,8 +21048,11 @@
       <c r="F173" s="83"/>
       <c r="G173" s="84"/>
       <c r="H173" s="84"/>
-    </row>
-    <row r="174" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L173" s="101" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="386"/>
@@ -20827,8 +21061,11 @@
       <c r="F174" s="83"/>
       <c r="G174" s="84"/>
       <c r="H174" s="84"/>
-    </row>
-    <row r="175" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L174" s="101" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="386"/>
@@ -20838,7 +21075,7 @@
       <c r="G175" s="84"/>
       <c r="H175" s="84"/>
     </row>
-    <row r="176" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="386"/>
@@ -20846,7 +21083,7 @@
       <c r="E176" s="83"/>
       <c r="F176" s="83"/>
       <c r="G176" s="84"/>
-      <c r="H176" s="400"/>
+      <c r="H176" s="397"/>
     </row>
     <row r="177" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
@@ -20896,7 +21133,7 @@
       <c r="E181" s="83"/>
       <c r="F181" s="83"/>
       <c r="G181" s="84"/>
-      <c r="H181" s="400"/>
+      <c r="H181" s="397"/>
     </row>
     <row r="182" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4"/>
@@ -20921,7 +21158,7 @@
     <row r="184" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="9"/>
       <c r="B184" s="9"/>
-      <c r="C184" s="397"/>
+      <c r="C184" s="394"/>
       <c r="D184" s="118"/>
       <c r="E184" s="118"/>
       <c r="F184" s="118"/>
@@ -20986,7 +21223,7 @@
       <c r="E190" s="83"/>
       <c r="F190" s="83"/>
       <c r="G190" s="84"/>
-      <c r="H190" s="404"/>
+      <c r="H190" s="398"/>
     </row>
     <row r="191" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
@@ -21016,7 +21253,7 @@
       <c r="E193" s="83"/>
       <c r="F193" s="83"/>
       <c r="G193" s="84"/>
-      <c r="H193" s="404"/>
+      <c r="H193" s="398"/>
     </row>
     <row r="194" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4"/>
@@ -21116,7 +21353,7 @@
       <c r="E203" s="83"/>
       <c r="F203" s="83"/>
       <c r="G203" s="84"/>
-      <c r="H203" s="400"/>
+      <c r="H203" s="397"/>
     </row>
     <row r="204" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
@@ -21141,12 +21378,12 @@
     <row r="206" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
-      <c r="C206" s="405"/>
+      <c r="C206" s="399"/>
       <c r="D206" s="235"/>
       <c r="E206" s="235"/>
       <c r="F206" s="235"/>
       <c r="G206" s="84"/>
-      <c r="H206" s="406"/>
+      <c r="H206" s="400"/>
     </row>
     <row r="207" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="23"/>
@@ -21156,7 +21393,7 @@
       <c r="E207" s="95"/>
       <c r="F207" s="95"/>
       <c r="G207" s="95"/>
-      <c r="H207" s="407"/>
+      <c r="H207" s="401"/>
     </row>
     <row r="208" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4"/>
@@ -21216,7 +21453,7 @@
       <c r="E213" s="83"/>
       <c r="F213" s="83"/>
       <c r="G213" s="84"/>
-      <c r="H213" s="400"/>
+      <c r="H213" s="397"/>
     </row>
     <row r="214" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4"/>
@@ -21316,7 +21553,7 @@
       <c r="E223" s="83"/>
       <c r="F223" s="83"/>
       <c r="G223" s="84"/>
-      <c r="H223" s="400"/>
+      <c r="H223" s="397"/>
     </row>
     <row r="224" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
@@ -21341,20 +21578,20 @@
     <row r="226" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
-      <c r="C226" s="408"/>
-      <c r="D226" s="394"/>
-      <c r="E226" s="394"/>
-      <c r="F226" s="394"/>
+      <c r="C226" s="402"/>
+      <c r="D226" s="393"/>
+      <c r="E226" s="393"/>
+      <c r="F226" s="393"/>
       <c r="G226" s="84"/>
       <c r="H226" s="84"/>
     </row>
     <row r="227" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
-      <c r="C227" s="408"/>
-      <c r="D227" s="394"/>
-      <c r="E227" s="394"/>
-      <c r="F227" s="394"/>
+      <c r="C227" s="402"/>
+      <c r="D227" s="393"/>
+      <c r="E227" s="393"/>
+      <c r="F227" s="393"/>
       <c r="G227" s="84"/>
       <c r="H227" s="84"/>
     </row>
@@ -21366,7 +21603,7 @@
       <c r="E228" s="83"/>
       <c r="F228" s="83"/>
       <c r="G228" s="84"/>
-      <c r="H228" s="400"/>
+      <c r="H228" s="397"/>
     </row>
     <row r="229" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4"/>
@@ -21436,7 +21673,7 @@
       <c r="E235" s="83"/>
       <c r="F235" s="83"/>
       <c r="G235" s="84"/>
-      <c r="H235" s="400"/>
+      <c r="H235" s="397"/>
     </row>
     <row r="236" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4"/>
@@ -21466,7 +21703,7 @@
       <c r="E238" s="83"/>
       <c r="F238" s="83"/>
       <c r="G238" s="84"/>
-      <c r="H238" s="400"/>
+      <c r="H238" s="397"/>
     </row>
     <row r="239" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4"/>
@@ -21506,7 +21743,7 @@
       <c r="E242" s="83"/>
       <c r="F242" s="83"/>
       <c r="G242" s="84"/>
-      <c r="H242" s="400"/>
+      <c r="H242" s="397"/>
     </row>
     <row r="243" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4"/>
@@ -21586,7 +21823,7 @@
       <c r="E250" s="83"/>
       <c r="F250" s="83"/>
       <c r="G250" s="84"/>
-      <c r="H250" s="400"/>
+      <c r="H250" s="397"/>
     </row>
     <row r="251" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4"/>
@@ -21616,7 +21853,7 @@
       <c r="E253" s="83"/>
       <c r="F253" s="83"/>
       <c r="G253" s="84"/>
-      <c r="H253" s="400"/>
+      <c r="H253" s="397"/>
     </row>
     <row r="254" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4"/>
@@ -21656,7 +21893,7 @@
       <c r="E257" s="83"/>
       <c r="F257" s="83"/>
       <c r="G257" s="84"/>
-      <c r="H257" s="399"/>
+      <c r="H257" s="396"/>
     </row>
     <row r="258" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="4"/>
@@ -21676,7 +21913,7 @@
       <c r="E259" s="83"/>
       <c r="F259" s="83"/>
       <c r="G259" s="84"/>
-      <c r="H259" s="399"/>
+      <c r="H259" s="396"/>
     </row>
     <row r="260" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4"/>
@@ -21756,7 +21993,7 @@
       <c r="E267" s="83"/>
       <c r="F267" s="83"/>
       <c r="G267" s="84"/>
-      <c r="H267" s="400"/>
+      <c r="H267" s="397"/>
     </row>
     <row r="268" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="4"/>
@@ -22069,7 +22306,7 @@
       <c r="H298" s="257"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H93">
+  <autoFilter ref="A1:H155">
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="1">
@@ -22082,142 +22319,148 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="424" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="424" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="424" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="424" customWidth="1"/>
-    <col min="5" max="6" width="4.7109375" style="424" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="424" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="424" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="424"/>
+    <col min="1" max="1" width="4.42578125" style="418" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="418" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="418" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="418" customWidth="1"/>
+    <col min="5" max="6" width="4.7109375" style="418" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="418" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="418" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="418"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="443" t="s">
+    <row r="1" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="437" t="s">
         <v>427</v>
       </c>
-      <c r="B1" s="443"/>
-      <c r="C1" s="443"/>
-      <c r="D1" s="444"/>
-      <c r="E1" s="443"/>
-      <c r="F1" s="443"/>
-      <c r="G1" s="443"/>
-      <c r="H1" s="443"/>
-    </row>
-    <row r="2" spans="1:13" s="101" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="436" t="s">
+      <c r="B1" s="437"/>
+      <c r="C1" s="437"/>
+      <c r="D1" s="438"/>
+      <c r="E1" s="437"/>
+      <c r="F1" s="437"/>
+      <c r="G1" s="437"/>
+      <c r="H1" s="437"/>
+    </row>
+    <row r="2" spans="1:13" s="101" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="429" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="436" t="s">
+      <c r="B2" s="429" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="445" t="s">
+      <c r="C2" s="439" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="446"/>
-      <c r="E2" s="437" t="s">
+      <c r="D2" s="440"/>
+      <c r="E2" s="430" t="s">
         <v>116</v>
       </c>
-      <c r="F2" s="436" t="s">
+      <c r="F2" s="429" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="436" t="s">
+      <c r="G2" s="429" t="s">
         <v>184</v>
       </c>
-      <c r="H2" s="436" t="s">
+      <c r="H2" s="429" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="C3" s="188" t="s">
-        <v>16</v>
-      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="188"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="222"/>
       <c r="H3" s="50"/>
     </row>
-    <row r="4" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="237"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="193"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="222"/>
       <c r="H4" s="50"/>
     </row>
-    <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="237"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="193"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="222"/>
       <c r="H5" s="50"/>
     </row>
-    <row r="6" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+    <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="260"/>
+      <c r="C6" s="193"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="223"/>
-    </row>
-    <row r="7" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="222"/>
+      <c r="H6" s="50"/>
+    </row>
+    <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="260"/>
+      <c r="C7" s="193"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="50"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="222"/>
       <c r="H7" s="50"/>
     </row>
-    <row r="8" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+    <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
       <c r="B8" s="3"/>
       <c r="C8" s="260"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="222"/>
+      <c r="G8" s="50"/>
       <c r="H8" s="50"/>
     </row>
-    <row r="9" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+    <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="260"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="222"/>
-      <c r="H9" s="223"/>
-    </row>
-    <row r="10" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+    </row>
+    <row r="10" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
       <c r="B10" s="3"/>
       <c r="C10" s="260"/>
       <c r="D10" s="3"/>
@@ -22226,60 +22469,70 @@
       <c r="G10" s="222"/>
       <c r="H10" s="50"/>
     </row>
-    <row r="11" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+    <row r="11" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
       <c r="B11" s="3"/>
       <c r="C11" s="260"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="4"/>
       <c r="G11" s="222"/>
-      <c r="H11" s="223"/>
-    </row>
-    <row r="12" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="H11" s="50"/>
+    </row>
+    <row r="12" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="385"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
+      <c r="C12" s="260"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
       <c r="G12" s="222"/>
-      <c r="H12" s="222"/>
-    </row>
-    <row r="13" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="H12" s="50"/>
+    </row>
+    <row r="13" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="385"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
+      <c r="C13" s="260"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
       <c r="G13" s="222"/>
-      <c r="H13" s="222"/>
-      <c r="M13" s="424" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+      <c r="H13" s="50"/>
+    </row>
+    <row r="14" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
       <c r="B14" s="3"/>
       <c r="C14" s="385"/>
       <c r="D14" s="70"/>
       <c r="E14" s="70"/>
       <c r="F14" s="70"/>
       <c r="G14" s="222"/>
-      <c r="H14" s="222"/>
-    </row>
-    <row r="15" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="H14" s="50"/>
+    </row>
+    <row r="15" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
       <c r="B15" s="3"/>
       <c r="C15" s="385"/>
       <c r="D15" s="70"/>
       <c r="E15" s="70"/>
       <c r="F15" s="70"/>
       <c r="G15" s="222"/>
-      <c r="H15" s="222"/>
-    </row>
-    <row r="16" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="50"/>
+      <c r="M15" s="418" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="385"/>
@@ -22287,29 +22540,29 @@
       <c r="E16" s="70"/>
       <c r="F16" s="70"/>
       <c r="G16" s="222"/>
-      <c r="H16" s="50"/>
-    </row>
-    <row r="17" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="257"/>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="260"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="C17" s="385"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
       <c r="G17" s="222"/>
-      <c r="H17" s="222"/>
-    </row>
-    <row r="18" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="50"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="260"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="C18" s="385"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
       <c r="G18" s="222"/>
-      <c r="H18" s="222"/>
-    </row>
-    <row r="19" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="50"/>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="260"/>
@@ -22317,47 +22570,67 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="222"/>
-      <c r="H19" s="222"/>
-    </row>
-    <row r="20" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="223"/>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="260"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="373"/>
-    </row>
-    <row r="21" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="222"/>
+      <c r="H20" s="222"/>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="428"/>
+      <c r="C21" s="260"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="413"/>
+      <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="413"/>
-      <c r="H21" s="425"/>
-    </row>
-    <row r="22" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="412"/>
-      <c r="B22" s="412"/>
-      <c r="C22" s="428"/>
+      <c r="G21" s="222"/>
+      <c r="H21" s="222"/>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="260"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="413"/>
+      <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="426"/>
-      <c r="H22" s="426"/>
-    </row>
-    <row r="23" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="412"/>
-      <c r="B23" s="412"/>
-      <c r="C23" s="417"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="373"/>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="422"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="412"/>
+      <c r="E23" s="407"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="412"/>
-      <c r="H23" s="427"/>
+      <c r="G23" s="407"/>
+      <c r="H23" s="419"/>
+    </row>
+    <row r="24" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="406"/>
+      <c r="B24" s="406"/>
+      <c r="C24" s="422"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="407"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="420"/>
+      <c r="H24" s="420"/>
+    </row>
+    <row r="25" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="406"/>
+      <c r="B25" s="406"/>
+      <c r="C25" s="411"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="406"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="406"/>
+      <c r="H25" s="421"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -22367,4 +22640,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="11" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/GB-3  Sales.xlsx
+++ b/GB-3  Sales.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="441">
   <si>
     <t>Oil Filter</t>
   </si>
@@ -1357,6 +1357,18 @@
   </si>
   <si>
     <t>စက္ေက်ာက္ျပား</t>
+  </si>
+  <si>
+    <t>16.8.2018</t>
+  </si>
+  <si>
+    <t>Oil Filter 2254</t>
+  </si>
+  <si>
+    <t>Aircon Filter CA1102</t>
+  </si>
+  <si>
+    <t>မီတာခ</t>
   </si>
 </sst>
 </file>
@@ -1868,7 +1880,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="441">
+  <cellXfs count="436">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2914,9 +2926,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2936,10 +2945,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -6407,10 +6412,10 @@
       <c r="B1" s="198" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="433" t="s">
+      <c r="C1" s="428" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="434"/>
+      <c r="D1" s="429"/>
       <c r="E1" s="198" t="s">
         <v>116</v>
       </c>
@@ -11787,10 +11792,10 @@
       <c r="B1" s="333" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="435" t="s">
+      <c r="C1" s="430" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="436"/>
+      <c r="D1" s="431"/>
       <c r="E1" s="333" t="s">
         <v>116</v>
       </c>
@@ -15544,7 +15549,7 @@
         <v>2</v>
       </c>
       <c r="B185" s="4"/>
-      <c r="C185" s="431" t="s">
+      <c r="C185" s="426" t="s">
         <v>108</v>
       </c>
       <c r="D185" s="389"/>
@@ -15963,7 +15968,7 @@
         <v>4</v>
       </c>
       <c r="G206" s="390"/>
-      <c r="H206" s="413" t="s">
+      <c r="H206" s="412" t="s">
         <v>153</v>
       </c>
       <c r="I206" s="101" t="s">
@@ -17720,8 +17725,8 @@
   </sheetPr>
   <dimension ref="A1:Q298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="L174" sqref="L174"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="K156" sqref="K156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17745,10 +17750,10 @@
       <c r="B1" s="333" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="435" t="s">
+      <c r="C1" s="430" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="436"/>
+      <c r="D1" s="431"/>
       <c r="E1" s="333" t="s">
         <v>116</v>
       </c>
@@ -19126,11 +19131,11 @@
       <c r="B74" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="C74" s="416" t="s">
+      <c r="C74" s="415" t="s">
         <v>406</v>
       </c>
-      <c r="D74" s="414"/>
-      <c r="E74" s="414" t="s">
+      <c r="D74" s="413"/>
+      <c r="E74" s="413" t="s">
         <v>14</v>
       </c>
       <c r="F74" s="376">
@@ -19177,8 +19182,8 @@
       <c r="C76" s="378" t="s">
         <v>350</v>
       </c>
-      <c r="D76" s="414"/>
-      <c r="E76" s="414" t="s">
+      <c r="D76" s="413"/>
+      <c r="E76" s="413" t="s">
         <v>14</v>
       </c>
       <c r="F76" s="376">
@@ -19200,8 +19205,8 @@
       <c r="C77" s="378" t="s">
         <v>160</v>
       </c>
-      <c r="D77" s="414"/>
-      <c r="E77" s="414" t="s">
+      <c r="D77" s="413"/>
+      <c r="E77" s="413" t="s">
         <v>22</v>
       </c>
       <c r="F77" s="376">
@@ -19223,8 +19228,8 @@
       <c r="C78" s="378" t="s">
         <v>160</v>
       </c>
-      <c r="D78" s="414"/>
-      <c r="E78" s="414" t="s">
+      <c r="D78" s="413"/>
+      <c r="E78" s="413" t="s">
         <v>14</v>
       </c>
       <c r="F78" s="376">
@@ -19246,8 +19251,8 @@
       <c r="C79" s="378" t="s">
         <v>408</v>
       </c>
-      <c r="D79" s="414"/>
-      <c r="E79" s="414"/>
+      <c r="D79" s="413"/>
+      <c r="E79" s="413"/>
       <c r="F79" s="376">
         <v>1</v>
       </c>
@@ -19267,8 +19272,8 @@
       <c r="C80" s="378" t="s">
         <v>409</v>
       </c>
-      <c r="D80" s="414"/>
-      <c r="E80" s="414"/>
+      <c r="D80" s="413"/>
+      <c r="E80" s="413"/>
       <c r="F80" s="376">
         <v>1</v>
       </c>
@@ -19288,8 +19293,8 @@
       <c r="C81" s="378" t="s">
         <v>410</v>
       </c>
-      <c r="D81" s="414"/>
-      <c r="E81" s="414"/>
+      <c r="D81" s="413"/>
+      <c r="E81" s="413"/>
       <c r="F81" s="376">
         <v>1</v>
       </c>
@@ -19326,7 +19331,7 @@
         <v>10</v>
       </c>
       <c r="B83" s="3"/>
-      <c r="C83" s="412" t="s">
+      <c r="C83" s="411" t="s">
         <v>412</v>
       </c>
       <c r="D83" s="70" t="s">
@@ -19349,8 +19354,8 @@
       <c r="C84" s="388" t="s">
         <v>197</v>
       </c>
-      <c r="D84" s="415"/>
-      <c r="E84" s="415" t="s">
+      <c r="D84" s="414"/>
+      <c r="E84" s="414" t="s">
         <v>22</v>
       </c>
       <c r="F84" s="389">
@@ -19372,8 +19377,8 @@
       <c r="C85" s="388" t="s">
         <v>127</v>
       </c>
-      <c r="D85" s="415"/>
-      <c r="E85" s="415"/>
+      <c r="D85" s="414"/>
+      <c r="E85" s="414"/>
       <c r="F85" s="389">
         <v>1</v>
       </c>
@@ -19393,7 +19398,7 @@
         <v>13</v>
       </c>
       <c r="B86" s="3"/>
-      <c r="C86" s="412" t="s">
+      <c r="C86" s="411" t="s">
         <v>208</v>
       </c>
       <c r="D86" s="70" t="s">
@@ -19416,8 +19421,8 @@
       <c r="C87" s="378" t="s">
         <v>197</v>
       </c>
-      <c r="D87" s="414"/>
-      <c r="E87" s="414" t="s">
+      <c r="D87" s="413"/>
+      <c r="E87" s="413" t="s">
         <v>14</v>
       </c>
       <c r="F87" s="376">
@@ -19533,11 +19538,11 @@
       <c r="B94" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="C94" s="416" t="s">
+      <c r="C94" s="415" t="s">
         <v>341</v>
       </c>
-      <c r="D94" s="414"/>
-      <c r="E94" s="414"/>
+      <c r="D94" s="413"/>
+      <c r="E94" s="413"/>
       <c r="F94" s="376">
         <v>1</v>
       </c>
@@ -19557,8 +19562,8 @@
       <c r="C95" s="378" t="s">
         <v>414</v>
       </c>
-      <c r="D95" s="414"/>
-      <c r="E95" s="414"/>
+      <c r="D95" s="413"/>
+      <c r="E95" s="413"/>
       <c r="F95" s="376">
         <v>1</v>
       </c>
@@ -19569,7 +19574,7 @@
       <c r="I95" s="101" t="s">
         <v>417</v>
       </c>
-      <c r="K95" s="417"/>
+      <c r="K95" s="416"/>
     </row>
     <row r="96" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
@@ -19579,8 +19584,8 @@
       <c r="C96" s="378" t="s">
         <v>299</v>
       </c>
-      <c r="D96" s="414"/>
-      <c r="E96" s="414" t="s">
+      <c r="D96" s="413"/>
+      <c r="E96" s="413" t="s">
         <v>22</v>
       </c>
       <c r="F96" s="376">
@@ -19602,8 +19607,8 @@
       <c r="C97" s="378" t="s">
         <v>127</v>
       </c>
-      <c r="D97" s="414"/>
-      <c r="E97" s="414"/>
+      <c r="D97" s="413"/>
+      <c r="E97" s="413"/>
       <c r="F97" s="376">
         <v>3</v>
       </c>
@@ -19645,8 +19650,8 @@
       <c r="C99" s="378" t="s">
         <v>160</v>
       </c>
-      <c r="D99" s="414"/>
-      <c r="E99" s="414" t="s">
+      <c r="D99" s="413"/>
+      <c r="E99" s="413" t="s">
         <v>22</v>
       </c>
       <c r="F99" s="376">
@@ -19727,7 +19732,7 @@
         <v>10</v>
       </c>
       <c r="B103" s="3"/>
-      <c r="C103" s="412" t="s">
+      <c r="C103" s="411" t="s">
         <v>27</v>
       </c>
       <c r="D103" s="70" t="s">
@@ -19750,8 +19755,8 @@
       <c r="C104" s="388" t="s">
         <v>109</v>
       </c>
-      <c r="D104" s="415"/>
-      <c r="E104" s="415"/>
+      <c r="D104" s="414"/>
+      <c r="E104" s="414"/>
       <c r="F104" s="389">
         <v>1</v>
       </c>
@@ -19766,7 +19771,7 @@
     <row r="105" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
-      <c r="C105" s="412"/>
+      <c r="C105" s="411"/>
       <c r="D105" s="70"/>
       <c r="E105" s="70"/>
       <c r="F105" s="45"/>
@@ -19779,7 +19784,7 @@
     <row r="106" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
-      <c r="C106" s="412" t="s">
+      <c r="C106" s="411" t="s">
         <v>343</v>
       </c>
       <c r="D106" s="70" t="s">
@@ -20031,7 +20036,7 @@
         <v>11</v>
       </c>
       <c r="B118" s="4"/>
-      <c r="C118" s="412" t="s">
+      <c r="C118" s="411" t="s">
         <v>111</v>
       </c>
       <c r="D118" s="45" t="s">
@@ -20053,7 +20058,7 @@
         <v>12</v>
       </c>
       <c r="B119" s="4"/>
-      <c r="C119" s="428" t="s">
+      <c r="C119" s="423" t="s">
         <v>350</v>
       </c>
       <c r="D119" s="393"/>
@@ -20090,7 +20095,7 @@
     <row r="121" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="4"/>
-      <c r="C121" s="412"/>
+      <c r="C121" s="411"/>
       <c r="D121" s="45"/>
       <c r="E121" s="45"/>
       <c r="F121" s="45"/>
@@ -20168,20 +20173,20 @@
     <row r="126" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="4"/>
-      <c r="C126" s="423" t="s">
+      <c r="C126" s="418" t="s">
         <v>299</v>
       </c>
       <c r="D126" s="376" t="s">
         <v>420</v>
       </c>
-      <c r="E126" s="423" t="s">
+      <c r="E126" s="418" t="s">
         <v>22</v>
       </c>
       <c r="F126" s="376">
         <v>1</v>
       </c>
-      <c r="G126" s="423"/>
-      <c r="H126" s="424" t="s">
+      <c r="G126" s="418"/>
+      <c r="H126" s="419" t="s">
         <v>153</v>
       </c>
       <c r="I126" s="101" t="s">
@@ -20191,18 +20196,18 @@
     <row r="127" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="406"/>
       <c r="B127" s="77"/>
-      <c r="C127" s="423" t="s">
+      <c r="C127" s="418" t="s">
         <v>127</v>
       </c>
       <c r="D127" s="376" t="s">
         <v>420</v>
       </c>
-      <c r="E127" s="423"/>
+      <c r="E127" s="418"/>
       <c r="F127" s="376">
         <v>1</v>
       </c>
-      <c r="G127" s="425"/>
-      <c r="H127" s="425" t="s">
+      <c r="G127" s="420"/>
+      <c r="H127" s="420" t="s">
         <v>153</v>
       </c>
       <c r="I127" s="101" t="s">
@@ -20218,14 +20223,14 @@
       <c r="D128" s="376" t="s">
         <v>421</v>
       </c>
-      <c r="E128" s="426" t="s">
+      <c r="E128" s="421" t="s">
         <v>14</v>
       </c>
       <c r="F128" s="376">
         <v>1</v>
       </c>
-      <c r="G128" s="426"/>
-      <c r="H128" s="427" t="s">
+      <c r="G128" s="421"/>
+      <c r="H128" s="422" t="s">
         <v>153</v>
       </c>
       <c r="I128" s="101" t="s">
@@ -20290,11 +20295,11 @@
       <c r="B132" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="C132" s="416" t="s">
+      <c r="C132" s="415" t="s">
         <v>109</v>
       </c>
-      <c r="D132" s="414"/>
-      <c r="E132" s="414"/>
+      <c r="D132" s="413"/>
+      <c r="E132" s="413"/>
       <c r="F132" s="376">
         <v>1</v>
       </c>
@@ -20314,8 +20319,8 @@
       <c r="C133" s="379" t="s">
         <v>120</v>
       </c>
-      <c r="D133" s="414"/>
-      <c r="E133" s="414"/>
+      <c r="D133" s="413"/>
+      <c r="E133" s="413"/>
       <c r="F133" s="376">
         <v>4</v>
       </c>
@@ -20337,8 +20342,8 @@
       <c r="C134" s="379" t="s">
         <v>406</v>
       </c>
-      <c r="D134" s="414"/>
-      <c r="E134" s="414" t="s">
+      <c r="D134" s="413"/>
+      <c r="E134" s="413" t="s">
         <v>14</v>
       </c>
       <c r="F134" s="376">
@@ -20362,8 +20367,8 @@
       <c r="C135" s="379" t="s">
         <v>132</v>
       </c>
-      <c r="D135" s="414"/>
-      <c r="E135" s="414"/>
+      <c r="D135" s="413"/>
+      <c r="E135" s="413"/>
       <c r="F135" s="376">
         <v>1</v>
       </c>
@@ -20383,8 +20388,8 @@
       <c r="C136" s="379" t="s">
         <v>425</v>
       </c>
-      <c r="D136" s="414"/>
-      <c r="E136" s="414"/>
+      <c r="D136" s="413"/>
+      <c r="E136" s="413"/>
       <c r="F136" s="376"/>
       <c r="G136" s="377"/>
       <c r="H136" s="377">
@@ -20464,14 +20469,14 @@
       <c r="C141" s="375" t="s">
         <v>200</v>
       </c>
-      <c r="D141" s="414"/>
-      <c r="E141" s="414" t="s">
+      <c r="D141" s="413"/>
+      <c r="E141" s="413" t="s">
         <v>8</v>
       </c>
-      <c r="F141" s="414">
-        <v>1</v>
-      </c>
-      <c r="G141" s="432"/>
+      <c r="F141" s="413">
+        <v>1</v>
+      </c>
+      <c r="G141" s="427"/>
       <c r="H141" s="377">
         <v>40500</v>
       </c>
@@ -20487,14 +20492,14 @@
       <c r="C142" s="378" t="s">
         <v>200</v>
       </c>
-      <c r="D142" s="414"/>
-      <c r="E142" s="414" t="s">
+      <c r="D142" s="413"/>
+      <c r="E142" s="413" t="s">
         <v>14</v>
       </c>
-      <c r="F142" s="414">
-        <v>1</v>
-      </c>
-      <c r="G142" s="432"/>
+      <c r="F142" s="413">
+        <v>1</v>
+      </c>
+      <c r="G142" s="427"/>
       <c r="H142" s="377">
         <v>10500</v>
       </c>
@@ -20510,12 +20515,12 @@
       <c r="C143" s="378" t="s">
         <v>329</v>
       </c>
-      <c r="D143" s="414"/>
-      <c r="E143" s="414"/>
-      <c r="F143" s="414">
-        <v>1</v>
-      </c>
-      <c r="G143" s="432"/>
+      <c r="D143" s="413"/>
+      <c r="E143" s="413"/>
+      <c r="F143" s="413">
+        <v>1</v>
+      </c>
+      <c r="G143" s="427"/>
       <c r="H143" s="377">
         <v>3350</v>
       </c>
@@ -20536,7 +20541,7 @@
         <v>54350</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="3"/>
       <c r="C145" s="193" t="s">
@@ -20554,7 +20559,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="193" t="s">
@@ -20570,7 +20575,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="260"/>
@@ -20583,65 +20588,74 @@
         <v>89850</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>1</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="C148" s="188" t="s">
+      <c r="C148" s="375" t="s">
         <v>160</v>
       </c>
-      <c r="D148" s="3"/>
-      <c r="E148" s="3" t="s">
+      <c r="D148" s="413"/>
+      <c r="E148" s="413" t="s">
         <v>22</v>
       </c>
-      <c r="F148" s="3">
-        <v>1</v>
-      </c>
-      <c r="G148" s="222"/>
-      <c r="H148" s="50">
+      <c r="F148" s="413">
+        <v>1</v>
+      </c>
+      <c r="G148" s="427"/>
+      <c r="H148" s="377">
         <v>30500</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I148" s="101" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>2</v>
       </c>
       <c r="B149" s="4"/>
-      <c r="C149" s="193" t="s">
+      <c r="C149" s="378" t="s">
         <v>127</v>
       </c>
-      <c r="D149" s="3"/>
-      <c r="E149" s="3"/>
-      <c r="F149" s="3">
-        <v>1</v>
-      </c>
-      <c r="G149" s="222"/>
-      <c r="H149" s="50">
+      <c r="D149" s="413"/>
+      <c r="E149" s="413"/>
+      <c r="F149" s="413">
+        <v>1</v>
+      </c>
+      <c r="G149" s="427"/>
+      <c r="H149" s="377">
         <v>1750</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I149" s="101" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>3</v>
       </c>
       <c r="B150" s="4"/>
-      <c r="C150" s="193" t="s">
+      <c r="C150" s="378" t="s">
         <v>109</v>
       </c>
-      <c r="D150" s="3"/>
-      <c r="E150" s="3"/>
-      <c r="F150" s="3">
-        <v>1</v>
-      </c>
-      <c r="G150" s="222"/>
-      <c r="H150" s="50">
+      <c r="D150" s="413"/>
+      <c r="E150" s="413"/>
+      <c r="F150" s="413">
+        <v>1</v>
+      </c>
+      <c r="G150" s="427"/>
+      <c r="H150" s="377">
         <v>3500</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I150" s="101" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>4</v>
       </c>
@@ -20661,7 +20675,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>5</v>
       </c>
@@ -20679,7 +20693,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
       <c r="B153" s="3"/>
       <c r="C153" s="260"/>
@@ -20692,13 +20706,13 @@
         <v>69750</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
       <c r="B154" s="3"/>
       <c r="C154" s="260" t="s">
         <v>431</v>
       </c>
-      <c r="D154" s="3" t="s">
+      <c r="D154" s="4" t="s">
         <v>351</v>
       </c>
       <c r="E154" s="3"/>
@@ -20708,7 +20722,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="260"/>
@@ -20721,31 +20735,34 @@
         <v>96750</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>1</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="C156" s="188" t="s">
+      <c r="C156" s="375" t="s">
         <v>406</v>
       </c>
-      <c r="D156" s="3"/>
-      <c r="E156" s="3" t="s">
+      <c r="D156" s="413"/>
+      <c r="E156" s="413" t="s">
         <v>14</v>
       </c>
-      <c r="F156" s="3">
+      <c r="F156" s="413">
         <v>2</v>
       </c>
-      <c r="G156" s="222">
+      <c r="G156" s="427">
         <v>4500</v>
       </c>
-      <c r="H156" s="50">
+      <c r="H156" s="377">
         <v>9000</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I156" s="101" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>2</v>
       </c>
@@ -20753,7 +20770,7 @@
       <c r="C157" s="193" t="s">
         <v>111</v>
       </c>
-      <c r="D157" s="3" t="s">
+      <c r="D157" s="4" t="s">
         <v>254</v>
       </c>
       <c r="E157" s="3" t="s">
@@ -20767,62 +20784,71 @@
         <v>22400</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>3</v>
       </c>
       <c r="B158" s="4"/>
-      <c r="C158" s="193" t="s">
+      <c r="C158" s="378" t="s">
         <v>196</v>
       </c>
-      <c r="D158" s="3"/>
-      <c r="E158" s="3" t="s">
+      <c r="D158" s="376"/>
+      <c r="E158" s="413" t="s">
         <v>8</v>
       </c>
-      <c r="F158" s="3">
-        <v>1</v>
-      </c>
-      <c r="G158" s="222"/>
-      <c r="H158" s="50">
+      <c r="F158" s="413">
+        <v>1</v>
+      </c>
+      <c r="G158" s="427"/>
+      <c r="H158" s="377">
         <v>22300</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I158" s="101" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>4</v>
       </c>
       <c r="B159" s="3"/>
-      <c r="C159" s="193" t="s">
+      <c r="C159" s="378" t="s">
         <v>196</v>
       </c>
-      <c r="D159" s="3"/>
-      <c r="E159" s="3" t="s">
+      <c r="D159" s="376"/>
+      <c r="E159" s="413" t="s">
         <v>14</v>
       </c>
-      <c r="F159" s="3">
-        <v>1</v>
-      </c>
-      <c r="G159" s="222"/>
-      <c r="H159" s="50">
+      <c r="F159" s="413">
+        <v>1</v>
+      </c>
+      <c r="G159" s="427"/>
+      <c r="H159" s="377">
         <v>5350</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I159" s="101" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>5</v>
       </c>
       <c r="B160" s="3"/>
-      <c r="C160" s="193" t="s">
+      <c r="C160" s="378" t="s">
         <v>54</v>
       </c>
-      <c r="D160" s="3"/>
-      <c r="E160" s="3"/>
-      <c r="F160" s="3">
-        <v>1</v>
-      </c>
-      <c r="G160" s="222"/>
-      <c r="H160" s="50">
+      <c r="D160" s="376"/>
+      <c r="E160" s="413"/>
+      <c r="F160" s="413">
+        <v>1</v>
+      </c>
+      <c r="G160" s="427"/>
+      <c r="H160" s="377">
         <v>4500</v>
+      </c>
+      <c r="I160" s="101" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="161" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20833,7 +20859,7 @@
       <c r="C161" s="260" t="s">
         <v>433</v>
       </c>
-      <c r="D161" s="3"/>
+      <c r="D161" s="4"/>
       <c r="E161" s="3" t="s">
         <v>22</v>
       </c>
@@ -20853,7 +20879,7 @@
       <c r="C162" s="260" t="s">
         <v>350</v>
       </c>
-      <c r="D162" s="3" t="s">
+      <c r="D162" s="4" t="s">
         <v>254</v>
       </c>
       <c r="E162" s="3"/>
@@ -20873,7 +20899,7 @@
       <c r="C163" s="260" t="s">
         <v>434</v>
       </c>
-      <c r="D163" s="3" t="s">
+      <c r="D163" s="4" t="s">
         <v>244</v>
       </c>
       <c r="E163" s="3"/>
@@ -20895,7 +20921,7 @@
       <c r="C164" s="260" t="s">
         <v>128</v>
       </c>
-      <c r="D164" s="3"/>
+      <c r="D164" s="4"/>
       <c r="E164" s="3"/>
       <c r="F164" s="4">
         <v>4</v>
@@ -20912,19 +20938,22 @@
         <v>10</v>
       </c>
       <c r="B165" s="3"/>
-      <c r="C165" s="260" t="s">
+      <c r="C165" s="379" t="s">
         <v>197</v>
       </c>
-      <c r="D165" s="3"/>
-      <c r="E165" s="3" t="s">
+      <c r="D165" s="376"/>
+      <c r="E165" s="413" t="s">
         <v>22</v>
       </c>
-      <c r="F165" s="4">
-        <v>1</v>
-      </c>
-      <c r="G165" s="222"/>
-      <c r="H165" s="50">
+      <c r="F165" s="376">
+        <v>1</v>
+      </c>
+      <c r="G165" s="427"/>
+      <c r="H165" s="377">
         <v>21350</v>
+      </c>
+      <c r="I165" s="101" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20932,17 +20961,20 @@
         <v>11</v>
       </c>
       <c r="B166" s="3"/>
-      <c r="C166" s="260" t="s">
+      <c r="C166" s="379" t="s">
         <v>127</v>
       </c>
-      <c r="D166" s="3"/>
-      <c r="E166" s="3"/>
-      <c r="F166" s="3">
-        <v>1</v>
-      </c>
-      <c r="G166" s="222"/>
-      <c r="H166" s="50">
+      <c r="D166" s="376"/>
+      <c r="E166" s="413"/>
+      <c r="F166" s="413">
+        <v>1</v>
+      </c>
+      <c r="G166" s="427"/>
+      <c r="H166" s="377">
         <v>1750</v>
+      </c>
+      <c r="I166" s="101" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="167" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20953,7 +20985,7 @@
       <c r="C167" s="385" t="s">
         <v>27</v>
       </c>
-      <c r="D167" s="70" t="s">
+      <c r="D167" s="45" t="s">
         <v>435</v>
       </c>
       <c r="E167" s="70"/>
@@ -20970,24 +21002,27 @@
         <v>13</v>
       </c>
       <c r="B168" s="3"/>
-      <c r="C168" s="385" t="s">
+      <c r="C168" s="403" t="s">
         <v>109</v>
       </c>
-      <c r="D168" s="70"/>
-      <c r="E168" s="70"/>
-      <c r="F168" s="70">
-        <v>1</v>
-      </c>
-      <c r="G168" s="222"/>
-      <c r="H168" s="50">
+      <c r="D168" s="389"/>
+      <c r="E168" s="414"/>
+      <c r="F168" s="414">
+        <v>1</v>
+      </c>
+      <c r="G168" s="427"/>
+      <c r="H168" s="377">
         <v>3500</v>
+      </c>
+      <c r="I168" s="101" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="169" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="385"/>
-      <c r="D169" s="70"/>
+      <c r="D169" s="45"/>
       <c r="E169" s="70"/>
       <c r="F169" s="70"/>
       <c r="G169" s="222"/>
@@ -20999,10 +21034,10 @@
     <row r="170" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
-      <c r="C170" s="412" t="s">
+      <c r="C170" s="411" t="s">
         <v>431</v>
       </c>
-      <c r="D170" s="70" t="s">
+      <c r="D170" s="45" t="s">
         <v>385</v>
       </c>
       <c r="E170" s="70"/>
@@ -21015,7 +21050,7 @@
     <row r="171" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
-      <c r="C171" s="412" t="s">
+      <c r="C171" s="411" t="s">
         <v>436</v>
       </c>
       <c r="D171" s="70"/>
@@ -22319,184 +22354,234 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="418" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="418" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="418" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="418" customWidth="1"/>
-    <col min="5" max="6" width="4.7109375" style="418" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="418" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="418" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="418"/>
+    <col min="1" max="1" width="4.28515625" style="417" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="417" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="417" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="417" customWidth="1"/>
+    <col min="5" max="6" width="4.7109375" style="417" customWidth="1"/>
+    <col min="7" max="7" width="11" style="417" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="417" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="417"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="437" t="s">
+    <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="432" t="s">
         <v>427</v>
       </c>
-      <c r="B1" s="437"/>
-      <c r="C1" s="437"/>
-      <c r="D1" s="438"/>
-      <c r="E1" s="437"/>
-      <c r="F1" s="437"/>
-      <c r="G1" s="437"/>
-      <c r="H1" s="437"/>
-    </row>
-    <row r="2" spans="1:13" s="101" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="429" t="s">
+      <c r="B1" s="432"/>
+      <c r="C1" s="432"/>
+      <c r="D1" s="433"/>
+      <c r="E1" s="432"/>
+      <c r="F1" s="432"/>
+      <c r="G1" s="432"/>
+      <c r="H1" s="432"/>
+    </row>
+    <row r="2" spans="1:8" s="101" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="424" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="429" t="s">
+      <c r="B2" s="424" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="439" t="s">
+      <c r="C2" s="434" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="440"/>
-      <c r="E2" s="430" t="s">
+      <c r="D2" s="435"/>
+      <c r="E2" s="425" t="s">
         <v>116</v>
       </c>
-      <c r="F2" s="429" t="s">
+      <c r="F2" s="424" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="429" t="s">
+      <c r="G2" s="424" t="s">
         <v>184</v>
       </c>
-      <c r="H2" s="429" t="s">
+      <c r="H2" s="424" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="188"/>
-      <c r="D3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C3" s="188" t="s">
+        <v>438</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
       <c r="G3" s="222"/>
-      <c r="H3" s="50"/>
-    </row>
-    <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="50">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="193"/>
-      <c r="D4" s="3"/>
+      <c r="C4" s="193" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4" s="4"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
       <c r="G4" s="222"/>
-      <c r="H4" s="50"/>
-    </row>
-    <row r="5" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="50">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="193"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="C5" s="193" t="s">
+        <v>197</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
       <c r="G5" s="222"/>
-      <c r="H5" s="50"/>
-    </row>
-    <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="50">
+        <v>21350</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="193"/>
-      <c r="D6" s="3"/>
+      <c r="C6" s="193" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="4"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
       <c r="G6" s="222"/>
-      <c r="H6" s="50"/>
-    </row>
-    <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="50">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="193"/>
-      <c r="D7" s="3"/>
+      <c r="C7" s="193" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>165</v>
+      </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
       <c r="G7" s="222"/>
-      <c r="H7" s="50"/>
-    </row>
-    <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
+      <c r="H7" s="50">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
       <c r="B8" s="3"/>
       <c r="C8" s="260"/>
-      <c r="D8" s="3"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="3"/>
       <c r="F8" s="4"/>
       <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-    </row>
-    <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
+      <c r="H8" s="223">
+        <f>SUM(H3:H7)</f>
+        <v>45100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="260"/>
-      <c r="D9" s="3"/>
+      <c r="C9" s="193" t="s">
+        <v>321</v>
+      </c>
+      <c r="D9" s="4"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
       <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-    </row>
-    <row r="10" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
+      <c r="H9" s="50">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="260"/>
-      <c r="D10" s="3"/>
+      <c r="C10" s="193" t="s">
+        <v>440</v>
+      </c>
+      <c r="D10" s="4"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
       <c r="G10" s="222"/>
-      <c r="H10" s="50"/>
-    </row>
-    <row r="11" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>9</v>
-      </c>
+      <c r="H10" s="50">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="260"/>
-      <c r="D11" s="3"/>
+      <c r="C11" s="193" t="s">
+        <v>431</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>351</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
       <c r="G11" s="222"/>
-      <c r="H11" s="50"/>
-    </row>
-    <row r="12" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>10</v>
-      </c>
+      <c r="H11" s="50">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
       <c r="B12" s="3"/>
       <c r="C12" s="260"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="4"/>
       <c r="G12" s="222"/>
-      <c r="H12" s="50"/>
-    </row>
-    <row r="13" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>11</v>
-      </c>
+      <c r="H12" s="223">
+        <f>SUM(H8:H11)</f>
+        <v>123800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
       <c r="B13" s="3"/>
       <c r="C13" s="260"/>
       <c r="D13" s="3"/>
@@ -22505,132 +22590,10 @@
       <c r="G13" s="222"/>
       <c r="H13" s="50"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="385"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="222"/>
-      <c r="H14" s="50"/>
-    </row>
-    <row r="15" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="385"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="222"/>
-      <c r="H15" s="50"/>
-      <c r="M15" s="418" t="s">
+    <row r="15" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="417" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="385"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="222"/>
-      <c r="H16" s="257"/>
-    </row>
-    <row r="17" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="385"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="222"/>
-      <c r="H17" s="50"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="385"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="222"/>
-      <c r="H18" s="50"/>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="260"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="222"/>
-      <c r="H19" s="223"/>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="260"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="222"/>
-      <c r="H20" s="222"/>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="260"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="222"/>
-      <c r="H21" s="222"/>
-    </row>
-    <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="260"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="373"/>
-    </row>
-    <row r="23" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="422"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="407"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="407"/>
-      <c r="H23" s="419"/>
-    </row>
-    <row r="24" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="406"/>
-      <c r="B24" s="406"/>
-      <c r="C24" s="422"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="407"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="420"/>
-      <c r="H24" s="420"/>
-    </row>
-    <row r="25" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="406"/>
-      <c r="B25" s="406"/>
-      <c r="C25" s="411"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="406"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="406"/>
-      <c r="H25" s="421"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/GB-3  Sales.xlsx
+++ b/GB-3  Sales.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="18195" windowHeight="10425" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="18195" windowHeight="10425" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sales-2017" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="441">
   <si>
     <t>Oil Filter</t>
   </si>
@@ -17725,8 +17725,8 @@
   </sheetPr>
   <dimension ref="A1:Q298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="K156" sqref="K156"/>
+    <sheetView topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="M169" sqref="M169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21075,110 +21075,182 @@
       </c>
     </row>
     <row r="173" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="4"/>
-      <c r="B173" s="4"/>
-      <c r="C173" s="386"/>
-      <c r="D173" s="83"/>
-      <c r="E173" s="83"/>
-      <c r="F173" s="83"/>
-      <c r="G173" s="84"/>
-      <c r="H173" s="84"/>
+      <c r="A173" s="4">
+        <v>1</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C173" s="188" t="s">
+        <v>438</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E173" s="3"/>
+      <c r="F173" s="3">
+        <v>1</v>
+      </c>
+      <c r="G173" s="222"/>
+      <c r="H173" s="50">
+        <v>5000</v>
+      </c>
       <c r="L173" s="101" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="174" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="4"/>
+      <c r="A174" s="4">
+        <v>2</v>
+      </c>
       <c r="B174" s="4"/>
-      <c r="C174" s="386"/>
-      <c r="D174" s="83"/>
-      <c r="E174" s="83"/>
-      <c r="F174" s="83"/>
-      <c r="G174" s="84"/>
-      <c r="H174" s="84"/>
+      <c r="C174" s="193" t="s">
+        <v>439</v>
+      </c>
+      <c r="D174" s="4"/>
+      <c r="E174" s="3"/>
+      <c r="F174" s="3">
+        <v>1</v>
+      </c>
+      <c r="G174" s="222"/>
+      <c r="H174" s="50">
+        <v>4000</v>
+      </c>
       <c r="L174" s="101" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="175" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="4"/>
+      <c r="A175" s="4">
+        <v>3</v>
+      </c>
       <c r="B175" s="4"/>
-      <c r="C175" s="386"/>
-      <c r="D175" s="83"/>
-      <c r="E175" s="83"/>
-      <c r="F175" s="83"/>
-      <c r="G175" s="84"/>
-      <c r="H175" s="84"/>
+      <c r="C175" s="193" t="s">
+        <v>197</v>
+      </c>
+      <c r="D175" s="4"/>
+      <c r="E175" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F175" s="3">
+        <v>1</v>
+      </c>
+      <c r="G175" s="222"/>
+      <c r="H175" s="50">
+        <v>21350</v>
+      </c>
     </row>
     <row r="176" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="4"/>
-      <c r="B176" s="4"/>
-      <c r="C176" s="386"/>
-      <c r="D176" s="83"/>
-      <c r="E176" s="83"/>
-      <c r="F176" s="83"/>
-      <c r="G176" s="84"/>
-      <c r="H176" s="397"/>
+      <c r="A176" s="4">
+        <v>4</v>
+      </c>
+      <c r="B176" s="3"/>
+      <c r="C176" s="193" t="s">
+        <v>127</v>
+      </c>
+      <c r="D176" s="4"/>
+      <c r="E176" s="3"/>
+      <c r="F176" s="3">
+        <v>1</v>
+      </c>
+      <c r="G176" s="222"/>
+      <c r="H176" s="50">
+        <v>1750</v>
+      </c>
     </row>
     <row r="177" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="4"/>
-      <c r="B177" s="4"/>
-      <c r="C177" s="386"/>
-      <c r="D177" s="83"/>
-      <c r="E177" s="83"/>
-      <c r="F177" s="83"/>
-      <c r="G177" s="84"/>
-      <c r="H177" s="84"/>
+      <c r="A177" s="4">
+        <v>5</v>
+      </c>
+      <c r="B177" s="3"/>
+      <c r="C177" s="193" t="s">
+        <v>27</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E177" s="3"/>
+      <c r="F177" s="3">
+        <v>1</v>
+      </c>
+      <c r="G177" s="222"/>
+      <c r="H177" s="50">
+        <v>13000</v>
+      </c>
     </row>
     <row r="178" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
-      <c r="B178" s="4"/>
-      <c r="C178" s="386"/>
-      <c r="D178" s="83"/>
-      <c r="E178" s="83"/>
-      <c r="F178" s="83"/>
-      <c r="G178" s="84"/>
-      <c r="H178" s="84"/>
+      <c r="B178" s="3"/>
+      <c r="C178" s="260"/>
+      <c r="D178" s="4"/>
+      <c r="E178" s="3"/>
+      <c r="F178" s="4"/>
+      <c r="G178" s="50"/>
+      <c r="H178" s="223">
+        <f>SUM(H173:H177)</f>
+        <v>45100</v>
+      </c>
     </row>
     <row r="179" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
-      <c r="B179" s="4"/>
-      <c r="C179" s="386"/>
-      <c r="D179" s="83"/>
-      <c r="E179" s="83"/>
-      <c r="F179" s="83"/>
-      <c r="G179" s="84"/>
-      <c r="H179" s="84"/>
+      <c r="B179" s="3"/>
+      <c r="C179" s="193" t="s">
+        <v>321</v>
+      </c>
+      <c r="D179" s="4"/>
+      <c r="E179" s="3"/>
+      <c r="F179" s="4">
+        <v>1</v>
+      </c>
+      <c r="G179" s="50"/>
+      <c r="H179" s="50">
+        <v>1700</v>
+      </c>
     </row>
     <row r="180" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4"/>
-      <c r="B180" s="4"/>
-      <c r="C180" s="386"/>
-      <c r="D180" s="83"/>
-      <c r="E180" s="83"/>
-      <c r="F180" s="83"/>
-      <c r="G180" s="84"/>
-      <c r="H180" s="84"/>
+      <c r="B180" s="3"/>
+      <c r="C180" s="193" t="s">
+        <v>440</v>
+      </c>
+      <c r="D180" s="4"/>
+      <c r="E180" s="3"/>
+      <c r="F180" s="4">
+        <v>1</v>
+      </c>
+      <c r="G180" s="222"/>
+      <c r="H180" s="50">
+        <v>50000</v>
+      </c>
     </row>
     <row r="181" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4"/>
-      <c r="B181" s="4"/>
-      <c r="C181" s="386"/>
-      <c r="D181" s="83"/>
-      <c r="E181" s="83"/>
-      <c r="F181" s="83"/>
-      <c r="G181" s="84"/>
-      <c r="H181" s="397"/>
+      <c r="B181" s="3"/>
+      <c r="C181" s="193" t="s">
+        <v>431</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="E181" s="3"/>
+      <c r="F181" s="4"/>
+      <c r="G181" s="222"/>
+      <c r="H181" s="50">
+        <v>27000</v>
+      </c>
     </row>
     <row r="182" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4"/>
-      <c r="B182" s="4"/>
-      <c r="C182" s="192"/>
-      <c r="D182" s="83"/>
-      <c r="E182" s="83"/>
-      <c r="F182" s="83"/>
-      <c r="G182" s="84"/>
-      <c r="H182" s="84"/>
+      <c r="B182" s="3"/>
+      <c r="C182" s="260"/>
+      <c r="D182" s="3"/>
+      <c r="E182" s="3"/>
+      <c r="F182" s="4"/>
+      <c r="G182" s="222"/>
+      <c r="H182" s="223">
+        <f>SUM(H178:H181)</f>
+        <v>123800</v>
+      </c>
     </row>
     <row r="183" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4"/>
@@ -22356,8 +22428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/GB-3  Sales.xlsx
+++ b/GB-3  Sales.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="445">
   <si>
     <t>Oil Filter</t>
   </si>
@@ -1369,6 +1369,18 @@
   </si>
   <si>
     <t>မီတာခ</t>
+  </si>
+  <si>
+    <t>17.8.2018</t>
+  </si>
+  <si>
+    <t>Bizol 10W40(Green)</t>
+  </si>
+  <si>
+    <t>Mazada</t>
+  </si>
+  <si>
+    <t>ေပၚေဘာဂိြ်ဳင္း</t>
   </si>
 </sst>
 </file>
@@ -11767,7 +11779,7 @@
   <dimension ref="A1:Q298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M286" sqref="M286"/>
     </sheetView>
   </sheetViews>
@@ -17725,7 +17737,7 @@
   </sheetPr>
   <dimension ref="A1:Q298"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
+    <sheetView topLeftCell="A157" workbookViewId="0">
       <selection activeCell="M169" sqref="M169"/>
     </sheetView>
   </sheetViews>
@@ -22426,13 +22438,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="417" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" style="417" customWidth="1"/>
@@ -22444,7 +22456,7 @@
     <col min="9" max="16384" width="9.140625" style="417"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="432" t="s">
         <v>427</v>
       </c>
@@ -22456,7 +22468,7 @@
       <c r="G1" s="432"/>
       <c r="H1" s="432"/>
     </row>
-    <row r="2" spans="1:8" s="101" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="101" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="424" t="s">
         <v>92</v>
       </c>
@@ -22480,18 +22492,18 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C3" s="188" t="s">
-        <v>438</v>
+        <v>208</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3">
@@ -22499,119 +22511,140 @@
       </c>
       <c r="G3" s="222"/>
       <c r="H3" s="50">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="193" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="F4" s="3">
         <v>1</v>
       </c>
       <c r="G4" s="222"/>
       <c r="H4" s="50">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>58500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="193" t="s">
-        <v>197</v>
+        <v>127</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="E5" s="3"/>
       <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="222"/>
+        <v>2</v>
+      </c>
+      <c r="G5" s="50">
+        <v>1750</v>
+      </c>
       <c r="H5" s="50">
-        <v>21350</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="193" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="222"/>
+      <c r="G6" s="50"/>
       <c r="H6" s="50">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="193" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E7" s="3"/>
+        <v>160</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="222"/>
+        <v>2</v>
+      </c>
+      <c r="G7" s="50">
+        <v>30500</v>
+      </c>
       <c r="H7" s="50">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+        <v>61000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="260"/>
-      <c r="D8" s="4"/>
+      <c r="C8" s="260" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>443</v>
+      </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="223">
-        <f>SUM(H3:H7)</f>
-        <v>45100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+      <c r="G8" s="50">
+        <v>9000</v>
+      </c>
+      <c r="H8" s="50">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="193" t="s">
-        <v>321</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>444</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>443</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="4">
-        <v>1</v>
-      </c>
-      <c r="G9" s="50"/>
+        <v>2</v>
+      </c>
+      <c r="G9" s="50">
+        <v>13000</v>
+      </c>
       <c r="H9" s="50">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
       <c r="B10" s="3"/>
       <c r="C10" s="193" t="s">
-        <v>440</v>
+        <v>189</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="3"/>
@@ -22620,50 +22653,100 @@
       </c>
       <c r="G10" s="222"/>
       <c r="H10" s="50">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="193" t="s">
-        <v>431</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>351</v>
-      </c>
+      <c r="C11" s="193"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
       <c r="G11" s="222"/>
-      <c r="H11" s="50">
-        <v>27000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="223">
+        <f>SUM(H3:H10)</f>
+        <v>186150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="260"/>
-      <c r="D12" s="3"/>
+      <c r="C12" s="193" t="s">
+        <v>431</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>346</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="4"/>
       <c r="G12" s="222"/>
-      <c r="H12" s="223">
-        <f>SUM(H8:H11)</f>
-        <v>123800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="50">
+        <v>25500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="260"/>
+      <c r="C13" s="260" t="s">
+        <v>321</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="222"/>
-      <c r="H13" s="50"/>
-    </row>
-    <row r="15" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="417" t="s">
+      <c r="F13" s="4">
+        <v>6</v>
+      </c>
+      <c r="G13" s="222">
+        <v>1700</v>
+      </c>
+      <c r="H13" s="50">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="260" t="s">
+        <v>384</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4">
+        <v>3</v>
+      </c>
+      <c r="G14" s="50">
+        <v>800</v>
+      </c>
+      <c r="H14" s="50">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="260" t="s">
+        <v>354</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3">
+        <v>40</v>
+      </c>
+      <c r="G15" s="50">
+        <v>100</v>
+      </c>
+      <c r="H15" s="50">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="374">
+        <f>SUM(H11:H15)</f>
+        <v>228550</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="417" t="s">
         <v>266</v>
       </c>
     </row>

--- a/GB-3  Sales.xlsx
+++ b/GB-3  Sales.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="18195" windowHeight="10425" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="18195" windowHeight="10425" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sales-2017" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="450">
   <si>
     <t>Oil Filter</t>
   </si>
@@ -1381,6 +1381,21 @@
   </si>
   <si>
     <t>ေပၚေဘာဂိြ်ဳင္း</t>
+  </si>
+  <si>
+    <t>18.8.2018</t>
+  </si>
+  <si>
+    <t>Bizol 0W20</t>
+  </si>
+  <si>
+    <t>Disel 15W40 (17/8)</t>
+  </si>
+  <si>
+    <t>19.8.2018</t>
+  </si>
+  <si>
+    <t>Meal 15*1500</t>
   </si>
 </sst>
 </file>
@@ -1892,7 +1907,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="436">
+  <cellXfs count="433">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2901,9 +2916,6 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2913,16 +2925,9 @@
     <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2977,6 +2982,7 @@
     <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6424,10 +6430,10 @@
       <c r="B1" s="198" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="428" t="s">
+      <c r="C1" s="425" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="429"/>
+      <c r="D1" s="426"/>
       <c r="E1" s="198" t="s">
         <v>116</v>
       </c>
@@ -11804,10 +11810,10 @@
       <c r="B1" s="333" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="430" t="s">
+      <c r="C1" s="427" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="431"/>
+      <c r="D1" s="428"/>
       <c r="E1" s="333" t="s">
         <v>116</v>
       </c>
@@ -15415,7 +15421,7 @@
     <row r="177" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
-      <c r="C177" s="399" t="s">
+      <c r="C177" s="397" t="s">
         <v>189</v>
       </c>
       <c r="D177" s="235" t="s">
@@ -15429,12 +15435,12 @@
       <c r="H177" s="356">
         <v>2650</v>
       </c>
-      <c r="I177" s="405"/>
+      <c r="I177" s="401"/>
     </row>
     <row r="178" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
-      <c r="C178" s="403" t="s">
+      <c r="C178" s="399" t="s">
         <v>108</v>
       </c>
       <c r="D178" s="389" t="s">
@@ -15561,7 +15567,7 @@
         <v>2</v>
       </c>
       <c r="B185" s="4"/>
-      <c r="C185" s="426" t="s">
+      <c r="C185" s="422" t="s">
         <v>108</v>
       </c>
       <c r="D185" s="389"/>
@@ -15935,7 +15941,7 @@
     <row r="204" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
-      <c r="C204" s="404" t="s">
+      <c r="C204" s="400" t="s">
         <v>197</v>
       </c>
       <c r="D204" s="366"/>
@@ -15969,7 +15975,7 @@
     <row r="206" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
-      <c r="C206" s="403" t="s">
+      <c r="C206" s="399" t="s">
         <v>338</v>
       </c>
       <c r="D206" s="389" t="s">
@@ -15980,7 +15986,7 @@
         <v>4</v>
       </c>
       <c r="G206" s="390"/>
-      <c r="H206" s="412" t="s">
+      <c r="H206" s="408" t="s">
         <v>153</v>
       </c>
       <c r="I206" s="101" t="s">
@@ -17452,7 +17458,7 @@
     <row r="284" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
-      <c r="C284" s="403" t="s">
+      <c r="C284" s="399" t="s">
         <v>276</v>
       </c>
       <c r="D284" s="389" t="s">
@@ -17737,8 +17743,8 @@
   </sheetPr>
   <dimension ref="A1:Q298"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="M169" sqref="M169"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="L213" sqref="L213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17762,10 +17768,10 @@
       <c r="B1" s="333" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="430" t="s">
+      <c r="C1" s="427" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="431"/>
+      <c r="D1" s="428"/>
       <c r="E1" s="333" t="s">
         <v>116</v>
       </c>
@@ -18516,7 +18522,7 @@
         <v>10</v>
       </c>
       <c r="B40" s="4"/>
-      <c r="C40" s="403" t="s">
+      <c r="C40" s="399" t="s">
         <v>135</v>
       </c>
       <c r="D40" s="389"/>
@@ -18714,12 +18720,12 @@
     <row r="51" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
-      <c r="C51" s="395"/>
+      <c r="C51" s="394"/>
       <c r="D51" s="235"/>
       <c r="E51" s="235"/>
       <c r="F51" s="235"/>
       <c r="G51" s="356"/>
-      <c r="H51" s="396">
+      <c r="H51" s="395">
         <f>SUM(H49:H50)</f>
         <v>39500</v>
       </c>
@@ -18748,7 +18754,7 @@
       <c r="E53" s="83"/>
       <c r="F53" s="83"/>
       <c r="G53" s="84"/>
-      <c r="H53" s="397">
+      <c r="H53" s="396">
         <f>SUM(H51:H52)</f>
         <v>63500</v>
       </c>
@@ -19143,11 +19149,11 @@
       <c r="B74" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="C74" s="415" t="s">
+      <c r="C74" s="411" t="s">
         <v>406</v>
       </c>
-      <c r="D74" s="413"/>
-      <c r="E74" s="413" t="s">
+      <c r="D74" s="409"/>
+      <c r="E74" s="409" t="s">
         <v>14</v>
       </c>
       <c r="F74" s="376">
@@ -19194,8 +19200,8 @@
       <c r="C76" s="378" t="s">
         <v>350</v>
       </c>
-      <c r="D76" s="413"/>
-      <c r="E76" s="413" t="s">
+      <c r="D76" s="409"/>
+      <c r="E76" s="409" t="s">
         <v>14</v>
       </c>
       <c r="F76" s="376">
@@ -19217,8 +19223,8 @@
       <c r="C77" s="378" t="s">
         <v>160</v>
       </c>
-      <c r="D77" s="413"/>
-      <c r="E77" s="413" t="s">
+      <c r="D77" s="409"/>
+      <c r="E77" s="409" t="s">
         <v>22</v>
       </c>
       <c r="F77" s="376">
@@ -19240,8 +19246,8 @@
       <c r="C78" s="378" t="s">
         <v>160</v>
       </c>
-      <c r="D78" s="413"/>
-      <c r="E78" s="413" t="s">
+      <c r="D78" s="409"/>
+      <c r="E78" s="409" t="s">
         <v>14</v>
       </c>
       <c r="F78" s="376">
@@ -19263,8 +19269,8 @@
       <c r="C79" s="378" t="s">
         <v>408</v>
       </c>
-      <c r="D79" s="413"/>
-      <c r="E79" s="413"/>
+      <c r="D79" s="409"/>
+      <c r="E79" s="409"/>
       <c r="F79" s="376">
         <v>1</v>
       </c>
@@ -19284,8 +19290,8 @@
       <c r="C80" s="378" t="s">
         <v>409</v>
       </c>
-      <c r="D80" s="413"/>
-      <c r="E80" s="413"/>
+      <c r="D80" s="409"/>
+      <c r="E80" s="409"/>
       <c r="F80" s="376">
         <v>1</v>
       </c>
@@ -19305,8 +19311,8 @@
       <c r="C81" s="378" t="s">
         <v>410</v>
       </c>
-      <c r="D81" s="413"/>
-      <c r="E81" s="413"/>
+      <c r="D81" s="409"/>
+      <c r="E81" s="409"/>
       <c r="F81" s="376">
         <v>1</v>
       </c>
@@ -19343,7 +19349,7 @@
         <v>10</v>
       </c>
       <c r="B83" s="3"/>
-      <c r="C83" s="411" t="s">
+      <c r="C83" s="407" t="s">
         <v>412</v>
       </c>
       <c r="D83" s="70" t="s">
@@ -19366,8 +19372,8 @@
       <c r="C84" s="388" t="s">
         <v>197</v>
       </c>
-      <c r="D84" s="414"/>
-      <c r="E84" s="414" t="s">
+      <c r="D84" s="410"/>
+      <c r="E84" s="410" t="s">
         <v>22</v>
       </c>
       <c r="F84" s="389">
@@ -19389,8 +19395,8 @@
       <c r="C85" s="388" t="s">
         <v>127</v>
       </c>
-      <c r="D85" s="414"/>
-      <c r="E85" s="414"/>
+      <c r="D85" s="410"/>
+      <c r="E85" s="410"/>
       <c r="F85" s="389">
         <v>1</v>
       </c>
@@ -19410,7 +19416,7 @@
         <v>13</v>
       </c>
       <c r="B86" s="3"/>
-      <c r="C86" s="411" t="s">
+      <c r="C86" s="407" t="s">
         <v>208</v>
       </c>
       <c r="D86" s="70" t="s">
@@ -19433,8 +19439,8 @@
       <c r="C87" s="378" t="s">
         <v>197</v>
       </c>
-      <c r="D87" s="413"/>
-      <c r="E87" s="413" t="s">
+      <c r="D87" s="409"/>
+      <c r="E87" s="409" t="s">
         <v>14</v>
       </c>
       <c r="F87" s="376">
@@ -19497,45 +19503,45 @@
     <row r="91" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="3"/>
-      <c r="C91" s="407" t="s">
+      <c r="C91" s="403" t="s">
         <v>343</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="E91" s="407"/>
-      <c r="F91" s="408"/>
-      <c r="G91" s="408"/>
-      <c r="H91" s="409">
+      <c r="E91" s="403"/>
+      <c r="F91" s="404"/>
+      <c r="G91" s="404"/>
+      <c r="H91" s="405">
         <v>28500</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
-      <c r="B92" s="406"/>
-      <c r="C92" s="407" t="s">
+      <c r="B92" s="402"/>
+      <c r="C92" s="403" t="s">
         <v>363</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="E92" s="407"/>
+      <c r="E92" s="403"/>
       <c r="F92" s="4">
         <v>5</v>
       </c>
-      <c r="G92" s="410">
+      <c r="G92" s="406">
         <v>1500</v>
       </c>
-      <c r="H92" s="410">
+      <c r="H92" s="406">
         <v>7500</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
-      <c r="B93" s="406"/>
-      <c r="C93" s="406"/>
-      <c r="D93" s="406"/>
-      <c r="E93" s="406"/>
+      <c r="B93" s="402"/>
+      <c r="C93" s="402"/>
+      <c r="D93" s="402"/>
+      <c r="E93" s="402"/>
       <c r="F93" s="77"/>
       <c r="G93" s="77"/>
       <c r="H93" s="367">
@@ -19550,11 +19556,11 @@
       <c r="B94" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="C94" s="415" t="s">
+      <c r="C94" s="411" t="s">
         <v>341</v>
       </c>
-      <c r="D94" s="413"/>
-      <c r="E94" s="413"/>
+      <c r="D94" s="409"/>
+      <c r="E94" s="409"/>
       <c r="F94" s="376">
         <v>1</v>
       </c>
@@ -19574,8 +19580,8 @@
       <c r="C95" s="378" t="s">
         <v>414</v>
       </c>
-      <c r="D95" s="413"/>
-      <c r="E95" s="413"/>
+      <c r="D95" s="409"/>
+      <c r="E95" s="409"/>
       <c r="F95" s="376">
         <v>1</v>
       </c>
@@ -19586,7 +19592,7 @@
       <c r="I95" s="101" t="s">
         <v>417</v>
       </c>
-      <c r="K95" s="416"/>
+      <c r="K95" s="412"/>
     </row>
     <row r="96" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
@@ -19596,8 +19602,8 @@
       <c r="C96" s="378" t="s">
         <v>299</v>
       </c>
-      <c r="D96" s="413"/>
-      <c r="E96" s="413" t="s">
+      <c r="D96" s="409"/>
+      <c r="E96" s="409" t="s">
         <v>22</v>
       </c>
       <c r="F96" s="376">
@@ -19619,8 +19625,8 @@
       <c r="C97" s="378" t="s">
         <v>127</v>
       </c>
-      <c r="D97" s="413"/>
-      <c r="E97" s="413"/>
+      <c r="D97" s="409"/>
+      <c r="E97" s="409"/>
       <c r="F97" s="376">
         <v>3</v>
       </c>
@@ -19662,8 +19668,8 @@
       <c r="C99" s="378" t="s">
         <v>160</v>
       </c>
-      <c r="D99" s="413"/>
-      <c r="E99" s="413" t="s">
+      <c r="D99" s="409"/>
+      <c r="E99" s="409" t="s">
         <v>22</v>
       </c>
       <c r="F99" s="376">
@@ -19744,7 +19750,7 @@
         <v>10</v>
       </c>
       <c r="B103" s="3"/>
-      <c r="C103" s="411" t="s">
+      <c r="C103" s="407" t="s">
         <v>27</v>
       </c>
       <c r="D103" s="70" t="s">
@@ -19767,8 +19773,8 @@
       <c r="C104" s="388" t="s">
         <v>109</v>
       </c>
-      <c r="D104" s="414"/>
-      <c r="E104" s="414"/>
+      <c r="D104" s="410"/>
+      <c r="E104" s="410"/>
       <c r="F104" s="389">
         <v>1</v>
       </c>
@@ -19783,7 +19789,7 @@
     <row r="105" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
-      <c r="C105" s="411"/>
+      <c r="C105" s="407"/>
       <c r="D105" s="70"/>
       <c r="E105" s="70"/>
       <c r="F105" s="45"/>
@@ -19796,7 +19802,7 @@
     <row r="106" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
-      <c r="C106" s="411" t="s">
+      <c r="C106" s="407" t="s">
         <v>343</v>
       </c>
       <c r="D106" s="70" t="s">
@@ -20048,7 +20054,7 @@
         <v>11</v>
       </c>
       <c r="B118" s="4"/>
-      <c r="C118" s="411" t="s">
+      <c r="C118" s="407" t="s">
         <v>111</v>
       </c>
       <c r="D118" s="45" t="s">
@@ -20070,7 +20076,7 @@
         <v>12</v>
       </c>
       <c r="B119" s="4"/>
-      <c r="C119" s="423" t="s">
+      <c r="C119" s="419" t="s">
         <v>350</v>
       </c>
       <c r="D119" s="393"/>
@@ -20107,7 +20113,7 @@
     <row r="121" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="4"/>
-      <c r="C121" s="411"/>
+      <c r="C121" s="407"/>
       <c r="D121" s="45"/>
       <c r="E121" s="45"/>
       <c r="F121" s="45"/>
@@ -20185,20 +20191,20 @@
     <row r="126" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="4"/>
-      <c r="C126" s="418" t="s">
+      <c r="C126" s="414" t="s">
         <v>299</v>
       </c>
       <c r="D126" s="376" t="s">
         <v>420</v>
       </c>
-      <c r="E126" s="418" t="s">
+      <c r="E126" s="414" t="s">
         <v>22</v>
       </c>
       <c r="F126" s="376">
         <v>1</v>
       </c>
-      <c r="G126" s="418"/>
-      <c r="H126" s="419" t="s">
+      <c r="G126" s="414"/>
+      <c r="H126" s="415" t="s">
         <v>153</v>
       </c>
       <c r="I126" s="101" t="s">
@@ -20206,20 +20212,20 @@
       </c>
     </row>
     <row r="127" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="406"/>
+      <c r="A127" s="402"/>
       <c r="B127" s="77"/>
-      <c r="C127" s="418" t="s">
+      <c r="C127" s="414" t="s">
         <v>127</v>
       </c>
       <c r="D127" s="376" t="s">
         <v>420</v>
       </c>
-      <c r="E127" s="418"/>
+      <c r="E127" s="414"/>
       <c r="F127" s="376">
         <v>1</v>
       </c>
-      <c r="G127" s="420"/>
-      <c r="H127" s="420" t="s">
+      <c r="G127" s="416"/>
+      <c r="H127" s="416" t="s">
         <v>153</v>
       </c>
       <c r="I127" s="101" t="s">
@@ -20227,7 +20233,7 @@
       </c>
     </row>
     <row r="128" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="406"/>
+      <c r="A128" s="402"/>
       <c r="B128" s="77"/>
       <c r="C128" s="375" t="s">
         <v>197</v>
@@ -20235,14 +20241,14 @@
       <c r="D128" s="376" t="s">
         <v>421</v>
       </c>
-      <c r="E128" s="421" t="s">
+      <c r="E128" s="417" t="s">
         <v>14</v>
       </c>
       <c r="F128" s="376">
         <v>1</v>
       </c>
-      <c r="G128" s="421"/>
-      <c r="H128" s="422" t="s">
+      <c r="G128" s="417"/>
+      <c r="H128" s="418" t="s">
         <v>153</v>
       </c>
       <c r="I128" s="101" t="s">
@@ -20307,11 +20313,11 @@
       <c r="B132" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="C132" s="415" t="s">
+      <c r="C132" s="411" t="s">
         <v>109</v>
       </c>
-      <c r="D132" s="413"/>
-      <c r="E132" s="413"/>
+      <c r="D132" s="409"/>
+      <c r="E132" s="409"/>
       <c r="F132" s="376">
         <v>1</v>
       </c>
@@ -20331,8 +20337,8 @@
       <c r="C133" s="379" t="s">
         <v>120</v>
       </c>
-      <c r="D133" s="413"/>
-      <c r="E133" s="413"/>
+      <c r="D133" s="409"/>
+      <c r="E133" s="409"/>
       <c r="F133" s="376">
         <v>4</v>
       </c>
@@ -20354,8 +20360,8 @@
       <c r="C134" s="379" t="s">
         <v>406</v>
       </c>
-      <c r="D134" s="413"/>
-      <c r="E134" s="413" t="s">
+      <c r="D134" s="409"/>
+      <c r="E134" s="409" t="s">
         <v>14</v>
       </c>
       <c r="F134" s="376">
@@ -20379,8 +20385,8 @@
       <c r="C135" s="379" t="s">
         <v>132</v>
       </c>
-      <c r="D135" s="413"/>
-      <c r="E135" s="413"/>
+      <c r="D135" s="409"/>
+      <c r="E135" s="409"/>
       <c r="F135" s="376">
         <v>1</v>
       </c>
@@ -20400,8 +20406,8 @@
       <c r="C136" s="379" t="s">
         <v>425</v>
       </c>
-      <c r="D136" s="413"/>
-      <c r="E136" s="413"/>
+      <c r="D136" s="409"/>
+      <c r="E136" s="409"/>
       <c r="F136" s="376"/>
       <c r="G136" s="377"/>
       <c r="H136" s="377">
@@ -20481,14 +20487,14 @@
       <c r="C141" s="375" t="s">
         <v>200</v>
       </c>
-      <c r="D141" s="413"/>
-      <c r="E141" s="413" t="s">
+      <c r="D141" s="409"/>
+      <c r="E141" s="409" t="s">
         <v>8</v>
       </c>
-      <c r="F141" s="413">
-        <v>1</v>
-      </c>
-      <c r="G141" s="427"/>
+      <c r="F141" s="409">
+        <v>1</v>
+      </c>
+      <c r="G141" s="423"/>
       <c r="H141" s="377">
         <v>40500</v>
       </c>
@@ -20504,14 +20510,14 @@
       <c r="C142" s="378" t="s">
         <v>200</v>
       </c>
-      <c r="D142" s="413"/>
-      <c r="E142" s="413" t="s">
+      <c r="D142" s="409"/>
+      <c r="E142" s="409" t="s">
         <v>14</v>
       </c>
-      <c r="F142" s="413">
-        <v>1</v>
-      </c>
-      <c r="G142" s="427"/>
+      <c r="F142" s="409">
+        <v>1</v>
+      </c>
+      <c r="G142" s="423"/>
       <c r="H142" s="377">
         <v>10500</v>
       </c>
@@ -20527,12 +20533,12 @@
       <c r="C143" s="378" t="s">
         <v>329</v>
       </c>
-      <c r="D143" s="413"/>
-      <c r="E143" s="413"/>
-      <c r="F143" s="413">
-        <v>1</v>
-      </c>
-      <c r="G143" s="427"/>
+      <c r="D143" s="409"/>
+      <c r="E143" s="409"/>
+      <c r="F143" s="409">
+        <v>1</v>
+      </c>
+      <c r="G143" s="423"/>
       <c r="H143" s="377">
         <v>3350</v>
       </c>
@@ -20610,14 +20616,14 @@
       <c r="C148" s="375" t="s">
         <v>160</v>
       </c>
-      <c r="D148" s="413"/>
-      <c r="E148" s="413" t="s">
+      <c r="D148" s="409"/>
+      <c r="E148" s="409" t="s">
         <v>22</v>
       </c>
-      <c r="F148" s="413">
-        <v>1</v>
-      </c>
-      <c r="G148" s="427"/>
+      <c r="F148" s="409">
+        <v>1</v>
+      </c>
+      <c r="G148" s="423"/>
       <c r="H148" s="377">
         <v>30500</v>
       </c>
@@ -20633,12 +20639,12 @@
       <c r="C149" s="378" t="s">
         <v>127</v>
       </c>
-      <c r="D149" s="413"/>
-      <c r="E149" s="413"/>
-      <c r="F149" s="413">
-        <v>1</v>
-      </c>
-      <c r="G149" s="427"/>
+      <c r="D149" s="409"/>
+      <c r="E149" s="409"/>
+      <c r="F149" s="409">
+        <v>1</v>
+      </c>
+      <c r="G149" s="423"/>
       <c r="H149" s="377">
         <v>1750</v>
       </c>
@@ -20654,12 +20660,12 @@
       <c r="C150" s="378" t="s">
         <v>109</v>
       </c>
-      <c r="D150" s="413"/>
-      <c r="E150" s="413"/>
-      <c r="F150" s="413">
-        <v>1</v>
-      </c>
-      <c r="G150" s="427"/>
+      <c r="D150" s="409"/>
+      <c r="E150" s="409"/>
+      <c r="F150" s="409">
+        <v>1</v>
+      </c>
+      <c r="G150" s="423"/>
       <c r="H150" s="377">
         <v>3500</v>
       </c>
@@ -20757,14 +20763,14 @@
       <c r="C156" s="375" t="s">
         <v>406</v>
       </c>
-      <c r="D156" s="413"/>
-      <c r="E156" s="413" t="s">
+      <c r="D156" s="409"/>
+      <c r="E156" s="409" t="s">
         <v>14</v>
       </c>
-      <c r="F156" s="413">
+      <c r="F156" s="409">
         <v>2</v>
       </c>
-      <c r="G156" s="427">
+      <c r="G156" s="423">
         <v>4500</v>
       </c>
       <c r="H156" s="377">
@@ -20805,13 +20811,13 @@
         <v>196</v>
       </c>
       <c r="D158" s="376"/>
-      <c r="E158" s="413" t="s">
+      <c r="E158" s="409" t="s">
         <v>8</v>
       </c>
-      <c r="F158" s="413">
-        <v>1</v>
-      </c>
-      <c r="G158" s="427"/>
+      <c r="F158" s="409">
+        <v>1</v>
+      </c>
+      <c r="G158" s="423"/>
       <c r="H158" s="377">
         <v>22300</v>
       </c>
@@ -20828,13 +20834,13 @@
         <v>196</v>
       </c>
       <c r="D159" s="376"/>
-      <c r="E159" s="413" t="s">
+      <c r="E159" s="409" t="s">
         <v>14</v>
       </c>
-      <c r="F159" s="413">
-        <v>1</v>
-      </c>
-      <c r="G159" s="427"/>
+      <c r="F159" s="409">
+        <v>1</v>
+      </c>
+      <c r="G159" s="423"/>
       <c r="H159" s="377">
         <v>5350</v>
       </c>
@@ -20851,11 +20857,11 @@
         <v>54</v>
       </c>
       <c r="D160" s="376"/>
-      <c r="E160" s="413"/>
-      <c r="F160" s="413">
-        <v>1</v>
-      </c>
-      <c r="G160" s="427"/>
+      <c r="E160" s="409"/>
+      <c r="F160" s="409">
+        <v>1</v>
+      </c>
+      <c r="G160" s="423"/>
       <c r="H160" s="377">
         <v>4500</v>
       </c>
@@ -20954,13 +20960,13 @@
         <v>197</v>
       </c>
       <c r="D165" s="376"/>
-      <c r="E165" s="413" t="s">
+      <c r="E165" s="409" t="s">
         <v>22</v>
       </c>
       <c r="F165" s="376">
         <v>1</v>
       </c>
-      <c r="G165" s="427"/>
+      <c r="G165" s="423"/>
       <c r="H165" s="377">
         <v>21350</v>
       </c>
@@ -20977,11 +20983,11 @@
         <v>127</v>
       </c>
       <c r="D166" s="376"/>
-      <c r="E166" s="413"/>
-      <c r="F166" s="413">
-        <v>1</v>
-      </c>
-      <c r="G166" s="427"/>
+      <c r="E166" s="409"/>
+      <c r="F166" s="409">
+        <v>1</v>
+      </c>
+      <c r="G166" s="423"/>
       <c r="H166" s="377">
         <v>1750</v>
       </c>
@@ -21014,15 +21020,15 @@
         <v>13</v>
       </c>
       <c r="B168" s="3"/>
-      <c r="C168" s="403" t="s">
+      <c r="C168" s="399" t="s">
         <v>109</v>
       </c>
       <c r="D168" s="389"/>
-      <c r="E168" s="414"/>
-      <c r="F168" s="414">
-        <v>1</v>
-      </c>
-      <c r="G168" s="427"/>
+      <c r="E168" s="410"/>
+      <c r="F168" s="410">
+        <v>1</v>
+      </c>
+      <c r="G168" s="423"/>
       <c r="H168" s="377">
         <v>3500</v>
       </c>
@@ -21046,7 +21052,7 @@
     <row r="170" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
-      <c r="C170" s="411" t="s">
+      <c r="C170" s="407" t="s">
         <v>431</v>
       </c>
       <c r="D170" s="45" t="s">
@@ -21062,7 +21068,7 @@
     <row r="171" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
-      <c r="C171" s="411" t="s">
+      <c r="C171" s="407" t="s">
         <v>436</v>
       </c>
       <c r="D171" s="70"/>
@@ -21093,19 +21099,22 @@
       <c r="B173" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="C173" s="188" t="s">
+      <c r="C173" s="315" t="s">
         <v>438</v>
       </c>
-      <c r="D173" s="4" t="s">
+      <c r="D173" s="275" t="s">
         <v>104</v>
       </c>
-      <c r="E173" s="3"/>
-      <c r="F173" s="3">
-        <v>1</v>
-      </c>
-      <c r="G173" s="222"/>
-      <c r="H173" s="50">
+      <c r="E173" s="265"/>
+      <c r="F173" s="265">
+        <v>1</v>
+      </c>
+      <c r="G173" s="266"/>
+      <c r="H173" s="278">
         <v>5000</v>
+      </c>
+      <c r="I173" s="101" t="s">
+        <v>445</v>
       </c>
       <c r="L173" s="101" t="s">
         <v>266</v>
@@ -21137,19 +21146,22 @@
         <v>3</v>
       </c>
       <c r="B175" s="4"/>
-      <c r="C175" s="193" t="s">
+      <c r="C175" s="313" t="s">
         <v>197</v>
       </c>
-      <c r="D175" s="4"/>
-      <c r="E175" s="3" t="s">
+      <c r="D175" s="275"/>
+      <c r="E175" s="265" t="s">
         <v>22</v>
       </c>
-      <c r="F175" s="3">
-        <v>1</v>
-      </c>
-      <c r="G175" s="222"/>
-      <c r="H175" s="50">
+      <c r="F175" s="265">
+        <v>1</v>
+      </c>
+      <c r="G175" s="266"/>
+      <c r="H175" s="278">
         <v>21350</v>
+      </c>
+      <c r="I175" s="101" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="176" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21157,20 +21169,23 @@
         <v>4</v>
       </c>
       <c r="B176" s="3"/>
-      <c r="C176" s="193" t="s">
+      <c r="C176" s="313" t="s">
         <v>127</v>
       </c>
-      <c r="D176" s="4"/>
-      <c r="E176" s="3"/>
-      <c r="F176" s="3">
-        <v>1</v>
-      </c>
-      <c r="G176" s="222"/>
-      <c r="H176" s="50">
+      <c r="D176" s="275"/>
+      <c r="E176" s="265"/>
+      <c r="F176" s="265">
+        <v>1</v>
+      </c>
+      <c r="G176" s="266"/>
+      <c r="H176" s="278">
         <v>1750</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I176" s="101" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>5</v>
       </c>
@@ -21190,7 +21205,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
       <c r="B178" s="3"/>
       <c r="C178" s="260"/>
@@ -21203,7 +21218,7 @@
         <v>45100</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
       <c r="B179" s="3"/>
       <c r="C179" s="193" t="s">
@@ -21219,7 +21234,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4"/>
       <c r="B180" s="3"/>
       <c r="C180" s="193" t="s">
@@ -21235,7 +21250,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4"/>
       <c r="B181" s="3"/>
       <c r="C181" s="193" t="s">
@@ -21251,7 +21266,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4"/>
       <c r="B182" s="3"/>
       <c r="C182" s="260"/>
@@ -21264,365 +21279,684 @@
         <v>123800</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="4"/>
-      <c r="B183" s="4"/>
-      <c r="C183" s="391"/>
-      <c r="D183" s="83"/>
-      <c r="E183" s="83"/>
-      <c r="F183" s="83"/>
-      <c r="G183" s="84"/>
-      <c r="H183" s="84"/>
-    </row>
-    <row r="184" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="9"/>
-      <c r="B184" s="9"/>
-      <c r="C184" s="394"/>
-      <c r="D184" s="118"/>
-      <c r="E184" s="118"/>
-      <c r="F184" s="118"/>
-      <c r="G184" s="103"/>
-      <c r="H184" s="103"/>
-    </row>
-    <row r="185" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="4"/>
+    <row r="183" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="4">
+        <v>1</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="C183" s="188" t="s">
+        <v>208</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E183" s="3"/>
+      <c r="F183" s="3">
+        <v>1</v>
+      </c>
+      <c r="G183" s="222"/>
+      <c r="H183" s="50">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="4">
+        <v>2</v>
+      </c>
+      <c r="B184" s="4"/>
+      <c r="C184" s="313" t="s">
+        <v>442</v>
+      </c>
+      <c r="D184" s="275"/>
+      <c r="E184" s="265" t="s">
+        <v>22</v>
+      </c>
+      <c r="F184" s="265">
+        <v>1</v>
+      </c>
+      <c r="G184" s="266"/>
+      <c r="H184" s="278">
+        <v>58500</v>
+      </c>
+      <c r="I184" s="101" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="4">
+        <v>3</v>
+      </c>
       <c r="B185" s="4"/>
-      <c r="C185" s="391"/>
-      <c r="D185" s="83"/>
-      <c r="E185" s="83"/>
-      <c r="F185" s="83"/>
-      <c r="G185" s="84"/>
-      <c r="H185" s="84"/>
-    </row>
-    <row r="186" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="4"/>
-      <c r="B186" s="4"/>
-      <c r="C186" s="192"/>
-      <c r="D186" s="83"/>
-      <c r="E186" s="83"/>
-      <c r="F186" s="83"/>
-      <c r="G186" s="84"/>
-      <c r="H186" s="84"/>
-    </row>
-    <row r="187" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="4"/>
-      <c r="B187" s="4"/>
-      <c r="C187" s="192"/>
-      <c r="D187" s="83"/>
-      <c r="E187" s="83"/>
-      <c r="F187" s="83"/>
-      <c r="G187" s="84"/>
-      <c r="H187" s="84"/>
-    </row>
-    <row r="188" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="4"/>
-      <c r="B188" s="4"/>
-      <c r="C188" s="192"/>
-      <c r="D188" s="83"/>
-      <c r="E188" s="83"/>
-      <c r="F188" s="83"/>
-      <c r="G188" s="84"/>
-      <c r="H188" s="84"/>
-    </row>
-    <row r="189" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="4"/>
-      <c r="B189" s="4"/>
-      <c r="C189" s="192"/>
-      <c r="D189" s="83"/>
-      <c r="E189" s="83"/>
-      <c r="F189" s="83"/>
-      <c r="G189" s="84"/>
-      <c r="H189" s="84"/>
-    </row>
-    <row r="190" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="4"/>
-      <c r="B190" s="4"/>
-      <c r="C190" s="391"/>
-      <c r="D190" s="83"/>
-      <c r="E190" s="83"/>
-      <c r="F190" s="83"/>
-      <c r="G190" s="84"/>
-      <c r="H190" s="398"/>
-    </row>
-    <row r="191" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C185" s="313" t="s">
+        <v>127</v>
+      </c>
+      <c r="D185" s="275"/>
+      <c r="E185" s="265"/>
+      <c r="F185" s="265">
+        <v>2</v>
+      </c>
+      <c r="G185" s="278">
+        <v>1750</v>
+      </c>
+      <c r="H185" s="278">
+        <v>3500</v>
+      </c>
+      <c r="I185" s="101" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="4">
+        <v>4</v>
+      </c>
+      <c r="B186" s="3"/>
+      <c r="C186" s="313" t="s">
+        <v>54</v>
+      </c>
+      <c r="D186" s="275"/>
+      <c r="E186" s="265"/>
+      <c r="F186" s="265">
+        <v>1</v>
+      </c>
+      <c r="G186" s="278"/>
+      <c r="H186" s="278">
+        <v>4500</v>
+      </c>
+      <c r="I186" s="101" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="4">
+        <v>5</v>
+      </c>
+      <c r="B187" s="3"/>
+      <c r="C187" s="313" t="s">
+        <v>160</v>
+      </c>
+      <c r="D187" s="275"/>
+      <c r="E187" s="265" t="s">
+        <v>22</v>
+      </c>
+      <c r="F187" s="265">
+        <v>2</v>
+      </c>
+      <c r="G187" s="278">
+        <v>30500</v>
+      </c>
+      <c r="H187" s="278">
+        <v>61000</v>
+      </c>
+      <c r="I187" s="101" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="4">
+        <v>6</v>
+      </c>
+      <c r="B188" s="3"/>
+      <c r="C188" s="260" t="s">
+        <v>50</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="E188" s="3"/>
+      <c r="F188" s="4">
+        <v>2</v>
+      </c>
+      <c r="G188" s="50">
+        <v>9000</v>
+      </c>
+      <c r="H188" s="50">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="4">
+        <v>7</v>
+      </c>
+      <c r="B189" s="3"/>
+      <c r="C189" s="193" t="s">
+        <v>444</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="E189" s="3"/>
+      <c r="F189" s="4">
+        <v>2</v>
+      </c>
+      <c r="G189" s="50">
+        <v>13000</v>
+      </c>
+      <c r="H189" s="50">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="4">
+        <v>8</v>
+      </c>
+      <c r="B190" s="3"/>
+      <c r="C190" s="313" t="s">
+        <v>189</v>
+      </c>
+      <c r="D190" s="275"/>
+      <c r="E190" s="265"/>
+      <c r="F190" s="275">
+        <v>1</v>
+      </c>
+      <c r="G190" s="266"/>
+      <c r="H190" s="278">
+        <v>2650</v>
+      </c>
+      <c r="I190" s="101" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
-      <c r="B191" s="4"/>
-      <c r="C191" s="386"/>
-      <c r="D191" s="83"/>
-      <c r="E191" s="83"/>
-      <c r="F191" s="83"/>
-      <c r="G191" s="84"/>
-      <c r="H191" s="84"/>
-    </row>
-    <row r="192" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B191" s="3"/>
+      <c r="C191" s="193"/>
+      <c r="D191" s="4"/>
+      <c r="E191" s="3"/>
+      <c r="F191" s="4"/>
+      <c r="G191" s="222"/>
+      <c r="H191" s="223">
+        <f>SUM(H183:H190)</f>
+        <v>186150</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4"/>
-      <c r="B192" s="4"/>
-      <c r="C192" s="386"/>
-      <c r="D192" s="83"/>
-      <c r="E192" s="83"/>
-      <c r="F192" s="83"/>
-      <c r="G192" s="84"/>
-      <c r="H192" s="84"/>
+      <c r="B192" s="3"/>
+      <c r="C192" s="193" t="s">
+        <v>431</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E192" s="3"/>
+      <c r="F192" s="4"/>
+      <c r="G192" s="222"/>
+      <c r="H192" s="50">
+        <v>25500</v>
+      </c>
     </row>
     <row r="193" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4"/>
-      <c r="B193" s="4"/>
-      <c r="C193" s="386"/>
-      <c r="D193" s="83"/>
-      <c r="E193" s="83"/>
-      <c r="F193" s="83"/>
-      <c r="G193" s="84"/>
-      <c r="H193" s="398"/>
+      <c r="B193" s="3"/>
+      <c r="C193" s="260" t="s">
+        <v>321</v>
+      </c>
+      <c r="D193" s="3"/>
+      <c r="E193" s="3"/>
+      <c r="F193" s="4">
+        <v>6</v>
+      </c>
+      <c r="G193" s="222">
+        <v>1700</v>
+      </c>
+      <c r="H193" s="50">
+        <v>10500</v>
+      </c>
     </row>
     <row r="194" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4"/>
-      <c r="B194" s="4"/>
-      <c r="C194" s="391"/>
-      <c r="D194" s="83"/>
-      <c r="E194" s="83"/>
-      <c r="F194" s="83"/>
-      <c r="G194" s="84"/>
-      <c r="H194" s="84"/>
+      <c r="B194" s="3"/>
+      <c r="C194" s="260" t="s">
+        <v>384</v>
+      </c>
+      <c r="D194" s="3"/>
+      <c r="E194" s="3"/>
+      <c r="F194" s="4">
+        <v>3</v>
+      </c>
+      <c r="G194" s="50">
+        <v>800</v>
+      </c>
+      <c r="H194" s="50">
+        <v>2400</v>
+      </c>
     </row>
     <row r="195" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4"/>
-      <c r="B195" s="4"/>
-      <c r="C195" s="391"/>
-      <c r="D195" s="83"/>
-      <c r="E195" s="83"/>
-      <c r="F195" s="83"/>
-      <c r="G195" s="84"/>
-      <c r="H195" s="84"/>
+      <c r="B195" s="3"/>
+      <c r="C195" s="260" t="s">
+        <v>354</v>
+      </c>
+      <c r="D195" s="3"/>
+      <c r="E195" s="3"/>
+      <c r="F195" s="3">
+        <v>40</v>
+      </c>
+      <c r="G195" s="50">
+        <v>100</v>
+      </c>
+      <c r="H195" s="50">
+        <v>4000</v>
+      </c>
     </row>
     <row r="196" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="4"/>
-      <c r="B196" s="4"/>
-      <c r="C196" s="192"/>
-      <c r="D196" s="83"/>
-      <c r="E196" s="83"/>
-      <c r="F196" s="83"/>
-      <c r="G196" s="84"/>
-      <c r="H196" s="84"/>
+      <c r="A196" s="424"/>
+      <c r="B196" s="424"/>
+      <c r="C196" s="424"/>
+      <c r="D196" s="424"/>
+      <c r="E196" s="424"/>
+      <c r="F196" s="424"/>
+      <c r="G196" s="424"/>
+      <c r="H196" s="374">
+        <f>SUM(H191:H195)</f>
+        <v>228550</v>
+      </c>
     </row>
     <row r="197" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="4"/>
-      <c r="B197" s="4"/>
-      <c r="C197" s="192"/>
-      <c r="D197" s="83"/>
-      <c r="E197" s="83"/>
-      <c r="F197" s="83"/>
-      <c r="G197" s="84"/>
-      <c r="H197" s="84"/>
+      <c r="A197" s="4">
+        <v>1</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C197" s="188" t="s">
+        <v>196</v>
+      </c>
+      <c r="D197" s="4"/>
+      <c r="E197" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F197" s="3">
+        <v>1</v>
+      </c>
+      <c r="G197" s="50"/>
+      <c r="H197" s="50">
+        <v>22300</v>
+      </c>
     </row>
     <row r="198" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="4"/>
+      <c r="A198" s="4">
+        <v>2</v>
+      </c>
       <c r="B198" s="4"/>
-      <c r="C198" s="192"/>
-      <c r="D198" s="83"/>
-      <c r="E198" s="83"/>
-      <c r="F198" s="83"/>
-      <c r="G198" s="84"/>
-      <c r="H198" s="84"/>
+      <c r="C198" s="193" t="s">
+        <v>196</v>
+      </c>
+      <c r="D198" s="4"/>
+      <c r="E198" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F198" s="3">
+        <v>4</v>
+      </c>
+      <c r="G198" s="50">
+        <v>5350</v>
+      </c>
+      <c r="H198" s="50">
+        <v>21400</v>
+      </c>
     </row>
     <row r="199" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="4"/>
+      <c r="A199" s="4">
+        <v>3</v>
+      </c>
       <c r="B199" s="4"/>
-      <c r="C199" s="192"/>
-      <c r="D199" s="83"/>
-      <c r="E199" s="83"/>
-      <c r="F199" s="83"/>
-      <c r="G199" s="84"/>
-      <c r="H199" s="84"/>
+      <c r="C199" s="193" t="s">
+        <v>438</v>
+      </c>
+      <c r="D199" s="4"/>
+      <c r="E199" s="3"/>
+      <c r="F199" s="3">
+        <v>1</v>
+      </c>
+      <c r="G199" s="50"/>
+      <c r="H199" s="50">
+        <v>5000</v>
+      </c>
     </row>
     <row r="200" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="4"/>
-      <c r="B200" s="4"/>
-      <c r="C200" s="391"/>
-      <c r="D200" s="83"/>
-      <c r="E200" s="83"/>
-      <c r="F200" s="83"/>
-      <c r="G200" s="84"/>
-      <c r="H200" s="84"/>
+      <c r="A200" s="4">
+        <v>4</v>
+      </c>
+      <c r="B200" s="3"/>
+      <c r="C200" s="193" t="s">
+        <v>350</v>
+      </c>
+      <c r="D200" s="4"/>
+      <c r="E200" s="3"/>
+      <c r="F200" s="3">
+        <v>1</v>
+      </c>
+      <c r="G200" s="50"/>
+      <c r="H200" s="50">
+        <v>2000</v>
+      </c>
     </row>
     <row r="201" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="4"/>
-      <c r="B201" s="4"/>
-      <c r="C201" s="386"/>
-      <c r="D201" s="83"/>
-      <c r="E201" s="83"/>
-      <c r="F201" s="83"/>
-      <c r="G201" s="84"/>
-      <c r="H201" s="84"/>
+      <c r="A201" s="4">
+        <v>5</v>
+      </c>
+      <c r="B201" s="3"/>
+      <c r="C201" s="193" t="s">
+        <v>446</v>
+      </c>
+      <c r="D201" s="4"/>
+      <c r="E201" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F201" s="3">
+        <v>1</v>
+      </c>
+      <c r="G201" s="50"/>
+      <c r="H201" s="50">
+        <v>66500</v>
+      </c>
     </row>
     <row r="202" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="4"/>
-      <c r="B202" s="4"/>
-      <c r="C202" s="386"/>
-      <c r="D202" s="83"/>
-      <c r="E202" s="83"/>
-      <c r="F202" s="83"/>
-      <c r="G202" s="84"/>
-      <c r="H202" s="84"/>
+      <c r="A202" s="4">
+        <v>6</v>
+      </c>
+      <c r="B202" s="3"/>
+      <c r="C202" s="260" t="s">
+        <v>223</v>
+      </c>
+      <c r="D202" s="4"/>
+      <c r="E202" s="3"/>
+      <c r="F202" s="4">
+        <v>1</v>
+      </c>
+      <c r="G202" s="50"/>
+      <c r="H202" s="50">
+        <v>2500</v>
+      </c>
     </row>
     <row r="203" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="4"/>
-      <c r="B203" s="4"/>
-      <c r="C203" s="386"/>
-      <c r="D203" s="83"/>
-      <c r="E203" s="83"/>
-      <c r="F203" s="83"/>
-      <c r="G203" s="84"/>
-      <c r="H203" s="397"/>
+      <c r="A203" s="4">
+        <v>7</v>
+      </c>
+      <c r="B203" s="3"/>
+      <c r="C203" s="260" t="s">
+        <v>151</v>
+      </c>
+      <c r="D203" s="4"/>
+      <c r="E203" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F203" s="4">
+        <v>2</v>
+      </c>
+      <c r="G203" s="50">
+        <v>6300</v>
+      </c>
+      <c r="H203" s="50">
+        <v>12600</v>
+      </c>
     </row>
     <row r="204" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
-      <c r="B204" s="4"/>
-      <c r="C204" s="386"/>
-      <c r="D204" s="83"/>
-      <c r="E204" s="83"/>
-      <c r="F204" s="83"/>
-      <c r="G204" s="84"/>
-      <c r="H204" s="84"/>
+      <c r="B204" s="3"/>
+      <c r="C204" s="193"/>
+      <c r="D204" s="4"/>
+      <c r="E204" s="3"/>
+      <c r="F204" s="4"/>
+      <c r="G204" s="50"/>
+      <c r="H204" s="223">
+        <f>SUM(H197:H203)</f>
+        <v>132300</v>
+      </c>
     </row>
     <row r="205" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4"/>
-      <c r="B205" s="4"/>
-      <c r="C205" s="386"/>
-      <c r="D205" s="83"/>
-      <c r="E205" s="83"/>
-      <c r="F205" s="83"/>
-      <c r="G205" s="84"/>
-      <c r="H205" s="84"/>
+      <c r="B205" s="3"/>
+      <c r="C205" s="193" t="s">
+        <v>447</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F205" s="4">
+        <v>5</v>
+      </c>
+      <c r="G205" s="50">
+        <v>4500</v>
+      </c>
+      <c r="H205" s="50">
+        <v>22500</v>
+      </c>
     </row>
     <row r="206" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
-      <c r="B206" s="4"/>
-      <c r="C206" s="399"/>
-      <c r="D206" s="235"/>
-      <c r="E206" s="235"/>
-      <c r="F206" s="235"/>
-      <c r="G206" s="84"/>
-      <c r="H206" s="400"/>
-    </row>
-    <row r="207" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A207" s="23"/>
-      <c r="B207" s="23"/>
-      <c r="C207" s="95"/>
-      <c r="D207" s="95"/>
-      <c r="E207" s="95"/>
-      <c r="F207" s="95"/>
-      <c r="G207" s="95"/>
-      <c r="H207" s="401"/>
+      <c r="B206" s="3"/>
+      <c r="C206" s="193" t="s">
+        <v>431</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E206" s="3"/>
+      <c r="F206" s="4">
+        <v>1</v>
+      </c>
+      <c r="G206" s="50"/>
+      <c r="H206" s="50">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="4"/>
+      <c r="B207" s="3"/>
+      <c r="C207" s="193"/>
+      <c r="D207" s="4"/>
+      <c r="E207" s="3"/>
+      <c r="F207" s="4"/>
+      <c r="G207" s="50"/>
+      <c r="H207" s="223">
+        <f>SUM(H204:H206)</f>
+        <v>178800</v>
+      </c>
     </row>
     <row r="208" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="4"/>
-      <c r="B208" s="4"/>
-      <c r="C208" s="391"/>
-      <c r="D208" s="83"/>
-      <c r="E208" s="83"/>
-      <c r="F208" s="83"/>
-      <c r="G208" s="84"/>
-      <c r="H208" s="84"/>
+      <c r="A208" s="4">
+        <v>1</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="C208" s="188" t="s">
+        <v>341</v>
+      </c>
+      <c r="D208" s="4"/>
+      <c r="E208" s="3"/>
+      <c r="F208" s="3">
+        <v>1</v>
+      </c>
+      <c r="G208" s="50"/>
+      <c r="H208" s="50">
+        <v>3500</v>
+      </c>
     </row>
     <row r="209" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="4"/>
+      <c r="A209" s="4">
+        <v>2</v>
+      </c>
       <c r="B209" s="4"/>
-      <c r="C209" s="391"/>
-      <c r="D209" s="83"/>
-      <c r="E209" s="83"/>
-      <c r="F209" s="83"/>
-      <c r="G209" s="84"/>
-      <c r="H209" s="84"/>
+      <c r="C209" s="193" t="s">
+        <v>342</v>
+      </c>
+      <c r="D209" s="4"/>
+      <c r="E209" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F209" s="3">
+        <v>9</v>
+      </c>
+      <c r="G209" s="50">
+        <v>4500</v>
+      </c>
+      <c r="H209" s="50">
+        <v>40500</v>
+      </c>
     </row>
     <row r="210" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="4"/>
+      <c r="A210" s="4">
+        <v>3</v>
+      </c>
       <c r="B210" s="4"/>
-      <c r="C210" s="192"/>
-      <c r="D210" s="83"/>
-      <c r="E210" s="83"/>
-      <c r="F210" s="83"/>
-      <c r="G210" s="84"/>
-      <c r="H210" s="84"/>
+      <c r="C210" s="193" t="s">
+        <v>109</v>
+      </c>
+      <c r="D210" s="4"/>
+      <c r="E210" s="3"/>
+      <c r="F210" s="3">
+        <v>1</v>
+      </c>
+      <c r="G210" s="50"/>
+      <c r="H210" s="50">
+        <v>3500</v>
+      </c>
     </row>
     <row r="211" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="4"/>
-      <c r="B211" s="4"/>
-      <c r="C211" s="192"/>
-      <c r="D211" s="83"/>
-      <c r="E211" s="83"/>
-      <c r="F211" s="83"/>
-      <c r="G211" s="84"/>
-      <c r="H211" s="84"/>
+      <c r="A211" s="4">
+        <v>4</v>
+      </c>
+      <c r="B211" s="3"/>
+      <c r="C211" s="193" t="s">
+        <v>160</v>
+      </c>
+      <c r="D211" s="4"/>
+      <c r="E211" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F211" s="3">
+        <v>1</v>
+      </c>
+      <c r="G211" s="50"/>
+      <c r="H211" s="50">
+        <v>30500</v>
+      </c>
     </row>
     <row r="212" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="4"/>
-      <c r="B212" s="4"/>
-      <c r="C212" s="192"/>
-      <c r="D212" s="83"/>
-      <c r="E212" s="83"/>
-      <c r="F212" s="83"/>
-      <c r="G212" s="84"/>
-      <c r="H212" s="84"/>
+      <c r="A212" s="4">
+        <v>5</v>
+      </c>
+      <c r="B212" s="3"/>
+      <c r="C212" s="193" t="s">
+        <v>127</v>
+      </c>
+      <c r="D212" s="4"/>
+      <c r="E212" s="3"/>
+      <c r="F212" s="3">
+        <v>3</v>
+      </c>
+      <c r="G212" s="50">
+        <v>1750</v>
+      </c>
+      <c r="H212" s="50">
+        <v>5250</v>
+      </c>
     </row>
     <row r="213" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="4"/>
-      <c r="B213" s="4"/>
-      <c r="C213" s="192"/>
-      <c r="D213" s="83"/>
-      <c r="E213" s="83"/>
-      <c r="F213" s="83"/>
-      <c r="G213" s="84"/>
-      <c r="H213" s="397"/>
+      <c r="A213" s="4">
+        <v>6</v>
+      </c>
+      <c r="B213" s="3"/>
+      <c r="C213" s="260" t="s">
+        <v>197</v>
+      </c>
+      <c r="D213" s="4"/>
+      <c r="E213" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F213" s="4">
+        <v>1</v>
+      </c>
+      <c r="G213" s="50"/>
+      <c r="H213" s="50">
+        <v>21350</v>
+      </c>
     </row>
     <row r="214" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="4"/>
-      <c r="B214" s="4"/>
-      <c r="C214" s="391"/>
-      <c r="D214" s="83"/>
-      <c r="E214" s="83"/>
-      <c r="F214" s="83"/>
-      <c r="G214" s="84"/>
-      <c r="H214" s="84"/>
+      <c r="A214" s="4">
+        <v>7</v>
+      </c>
+      <c r="B214" s="3"/>
+      <c r="C214" s="260" t="s">
+        <v>108</v>
+      </c>
+      <c r="D214" s="4"/>
+      <c r="E214" s="3"/>
+      <c r="F214" s="4">
+        <v>1</v>
+      </c>
+      <c r="G214" s="50"/>
+      <c r="H214" s="50">
+        <v>3500</v>
+      </c>
     </row>
     <row r="215" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="4"/>
-      <c r="B215" s="4"/>
-      <c r="C215" s="391"/>
-      <c r="D215" s="83"/>
-      <c r="E215" s="83"/>
-      <c r="F215" s="83"/>
-      <c r="G215" s="84"/>
-      <c r="H215" s="84"/>
+      <c r="A215" s="4">
+        <v>8</v>
+      </c>
+      <c r="B215" s="3"/>
+      <c r="C215" s="193" t="s">
+        <v>78</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E215" s="3"/>
+      <c r="F215" s="4">
+        <v>1</v>
+      </c>
+      <c r="G215" s="50"/>
+      <c r="H215" s="50">
+        <v>9000</v>
+      </c>
     </row>
     <row r="216" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4"/>
-      <c r="B216" s="4"/>
-      <c r="C216" s="192"/>
-      <c r="D216" s="83"/>
-      <c r="E216" s="83"/>
-      <c r="F216" s="83"/>
-      <c r="G216" s="84"/>
-      <c r="H216" s="84"/>
+      <c r="B216" s="3"/>
+      <c r="C216" s="193"/>
+      <c r="D216" s="4"/>
+      <c r="E216" s="3"/>
+      <c r="F216" s="4"/>
+      <c r="G216" s="50"/>
+      <c r="H216" s="223">
+        <f>SUM(H208:H215)</f>
+        <v>117100</v>
+      </c>
     </row>
     <row r="217" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4"/>
-      <c r="B217" s="4"/>
-      <c r="C217" s="192"/>
-      <c r="D217" s="83"/>
-      <c r="E217" s="83"/>
-      <c r="F217" s="83"/>
-      <c r="G217" s="84"/>
-      <c r="H217" s="84"/>
+      <c r="B217" s="3"/>
+      <c r="C217" s="193" t="s">
+        <v>449</v>
+      </c>
+      <c r="D217" s="4"/>
+      <c r="E217" s="3"/>
+      <c r="F217" s="4"/>
+      <c r="G217" s="50"/>
+      <c r="H217" s="50">
+        <v>22500</v>
+      </c>
     </row>
     <row r="218" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4"/>
-      <c r="B218" s="4"/>
-      <c r="C218" s="192"/>
-      <c r="D218" s="83"/>
-      <c r="E218" s="83"/>
-      <c r="F218" s="83"/>
-      <c r="G218" s="84"/>
-      <c r="H218" s="84"/>
+      <c r="B218" s="3"/>
+      <c r="C218" s="193"/>
+      <c r="D218" s="4"/>
+      <c r="E218" s="3"/>
+      <c r="F218" s="4"/>
+      <c r="G218" s="50"/>
+      <c r="H218" s="223">
+        <f>SUM(H216:H217)</f>
+        <v>139600</v>
+      </c>
     </row>
     <row r="219" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4"/>
@@ -21672,7 +22006,7 @@
       <c r="E223" s="83"/>
       <c r="F223" s="83"/>
       <c r="G223" s="84"/>
-      <c r="H223" s="397"/>
+      <c r="H223" s="396"/>
     </row>
     <row r="224" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
@@ -21697,7 +22031,7 @@
     <row r="226" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
-      <c r="C226" s="402"/>
+      <c r="C226" s="398"/>
       <c r="D226" s="393"/>
       <c r="E226" s="393"/>
       <c r="F226" s="393"/>
@@ -21707,7 +22041,7 @@
     <row r="227" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
-      <c r="C227" s="402"/>
+      <c r="C227" s="398"/>
       <c r="D227" s="393"/>
       <c r="E227" s="393"/>
       <c r="F227" s="393"/>
@@ -21722,7 +22056,7 @@
       <c r="E228" s="83"/>
       <c r="F228" s="83"/>
       <c r="G228" s="84"/>
-      <c r="H228" s="397"/>
+      <c r="H228" s="396"/>
     </row>
     <row r="229" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4"/>
@@ -21792,7 +22126,7 @@
       <c r="E235" s="83"/>
       <c r="F235" s="83"/>
       <c r="G235" s="84"/>
-      <c r="H235" s="397"/>
+      <c r="H235" s="396"/>
     </row>
     <row r="236" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4"/>
@@ -21822,7 +22156,7 @@
       <c r="E238" s="83"/>
       <c r="F238" s="83"/>
       <c r="G238" s="84"/>
-      <c r="H238" s="397"/>
+      <c r="H238" s="396"/>
     </row>
     <row r="239" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4"/>
@@ -21862,7 +22196,7 @@
       <c r="E242" s="83"/>
       <c r="F242" s="83"/>
       <c r="G242" s="84"/>
-      <c r="H242" s="397"/>
+      <c r="H242" s="396"/>
     </row>
     <row r="243" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4"/>
@@ -21942,7 +22276,7 @@
       <c r="E250" s="83"/>
       <c r="F250" s="83"/>
       <c r="G250" s="84"/>
-      <c r="H250" s="397"/>
+      <c r="H250" s="396"/>
     </row>
     <row r="251" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4"/>
@@ -21972,7 +22306,7 @@
       <c r="E253" s="83"/>
       <c r="F253" s="83"/>
       <c r="G253" s="84"/>
-      <c r="H253" s="397"/>
+      <c r="H253" s="396"/>
     </row>
     <row r="254" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4"/>
@@ -22012,7 +22346,7 @@
       <c r="E257" s="83"/>
       <c r="F257" s="83"/>
       <c r="G257" s="84"/>
-      <c r="H257" s="396"/>
+      <c r="H257" s="395"/>
     </row>
     <row r="258" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="4"/>
@@ -22032,7 +22366,7 @@
       <c r="E259" s="83"/>
       <c r="F259" s="83"/>
       <c r="G259" s="84"/>
-      <c r="H259" s="396"/>
+      <c r="H259" s="395"/>
     </row>
     <row r="260" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4"/>
@@ -22112,7 +22446,7 @@
       <c r="E267" s="83"/>
       <c r="F267" s="83"/>
       <c r="G267" s="84"/>
-      <c r="H267" s="397"/>
+      <c r="H267" s="396"/>
     </row>
     <row r="268" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="4"/>
@@ -22438,57 +22772,57 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="417" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="417" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="417" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="417" customWidth="1"/>
-    <col min="5" max="6" width="4.7109375" style="417" customWidth="1"/>
-    <col min="7" max="7" width="11" style="417" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="417" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="417"/>
+    <col min="1" max="1" width="4.28515625" style="413" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="413" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="413" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="413" customWidth="1"/>
+    <col min="5" max="6" width="4.7109375" style="413" customWidth="1"/>
+    <col min="7" max="7" width="11" style="413" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="413" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="413"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="432" t="s">
+      <c r="A1" s="429" t="s">
         <v>427</v>
       </c>
-      <c r="B1" s="432"/>
-      <c r="C1" s="432"/>
-      <c r="D1" s="433"/>
-      <c r="E1" s="432"/>
-      <c r="F1" s="432"/>
-      <c r="G1" s="432"/>
-      <c r="H1" s="432"/>
+      <c r="B1" s="429"/>
+      <c r="C1" s="429"/>
+      <c r="D1" s="430"/>
+      <c r="E1" s="429"/>
+      <c r="F1" s="429"/>
+      <c r="G1" s="429"/>
+      <c r="H1" s="429"/>
     </row>
     <row r="2" spans="1:8" s="101" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="424" t="s">
+      <c r="A2" s="420" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="424" t="s">
+      <c r="B2" s="420" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="434" t="s">
+      <c r="C2" s="431" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="435"/>
-      <c r="E2" s="425" t="s">
+      <c r="D2" s="432"/>
+      <c r="E2" s="421" t="s">
         <v>116</v>
       </c>
-      <c r="F2" s="424" t="s">
+      <c r="F2" s="420" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="424" t="s">
+      <c r="G2" s="420" t="s">
         <v>184</v>
       </c>
-      <c r="H2" s="424" t="s">
+      <c r="H2" s="420" t="s">
         <v>186</v>
       </c>
     </row>
@@ -22497,21 +22831,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="C3" s="188" t="s">
-        <v>208</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>165</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="D3" s="4"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3">
         <v>1</v>
       </c>
-      <c r="G3" s="222"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="50">
-        <v>12000</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -22520,18 +22852,20 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="193" t="s">
-        <v>442</v>
+        <v>342</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="222"/>
+        <v>9</v>
+      </c>
+      <c r="G4" s="50">
+        <v>4500</v>
+      </c>
       <c r="H4" s="50">
-        <v>58500</v>
+        <v>40500</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -22540,16 +22874,14 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="193" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3">
-        <v>2</v>
-      </c>
-      <c r="G5" s="50">
-        <v>1750</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G5" s="50"/>
       <c r="H5" s="50">
         <v>3500</v>
       </c>
@@ -22560,16 +22892,18 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="193" t="s">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="F6" s="3">
         <v>1</v>
       </c>
       <c r="G6" s="50"/>
       <c r="H6" s="50">
-        <v>4500</v>
+        <v>30500</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -22578,20 +22912,18 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="193" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="E7" s="3"/>
       <c r="F7" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" s="50">
-        <v>30500</v>
+        <v>1750</v>
       </c>
       <c r="H7" s="50">
-        <v>61000</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -22600,20 +22932,18 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="260" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>197</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="F8" s="4">
-        <v>2</v>
-      </c>
-      <c r="G8" s="50">
-        <v>9000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G8" s="50"/>
       <c r="H8" s="50">
-        <v>18000</v>
+        <v>21350</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -22621,21 +22951,17 @@
         <v>7</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="193" t="s">
-        <v>444</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>443</v>
-      </c>
+      <c r="C9" s="260" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="4"/>
       <c r="E9" s="3"/>
       <c r="F9" s="4">
-        <v>2</v>
-      </c>
-      <c r="G9" s="50">
-        <v>13000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G9" s="50"/>
       <c r="H9" s="50">
-        <v>26000</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -22644,16 +22970,18 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="193" t="s">
-        <v>189</v>
-      </c>
-      <c r="D10" s="4"/>
+        <v>78</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="4">
         <v>1</v>
       </c>
-      <c r="G10" s="222"/>
+      <c r="G10" s="50"/>
       <c r="H10" s="50">
-        <v>2650</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -22663,90 +22991,74 @@
       <c r="D11" s="4"/>
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="222"/>
+      <c r="G11" s="50"/>
       <c r="H11" s="223">
         <f>SUM(H3:H10)</f>
-        <v>186150</v>
+        <v>117100</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="3"/>
       <c r="C12" s="193" t="s">
-        <v>431</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>346</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="D12" s="4"/>
       <c r="E12" s="3"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="222"/>
+      <c r="G12" s="50"/>
       <c r="H12" s="50">
-        <v>25500</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="260" t="s">
-        <v>321</v>
-      </c>
-      <c r="D13" s="3"/>
+      <c r="C13" s="193"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="4">
-        <v>6</v>
-      </c>
-      <c r="G13" s="222">
-        <v>1700</v>
-      </c>
-      <c r="H13" s="50">
-        <v>10500</v>
+      <c r="F13" s="4"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="223">
+        <f>SUM(H11:H12)</f>
+        <v>139600</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="260" t="s">
-        <v>384</v>
-      </c>
+      <c r="C14" s="260"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="4">
-        <v>3</v>
-      </c>
-      <c r="G14" s="50">
-        <v>800</v>
-      </c>
-      <c r="H14" s="50">
-        <v>2400</v>
-      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
     </row>
     <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="260" t="s">
-        <v>354</v>
-      </c>
+      <c r="C15" s="260"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="3">
-        <v>40</v>
-      </c>
-      <c r="G15" s="50">
-        <v>100</v>
-      </c>
-      <c r="H15" s="50">
-        <v>4000</v>
-      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
     </row>
     <row r="16" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H16" s="374">
-        <f>SUM(H11:H15)</f>
-        <v>228550</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="417" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="260"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+    </row>
+    <row r="17" spans="5:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="374"/>
+    </row>
+    <row r="18" spans="5:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="413" t="s">
         <v>266</v>
       </c>
     </row>

--- a/GB-3  Sales.xlsx
+++ b/GB-3  Sales.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="18195" windowHeight="10425" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="18195" windowHeight="10425" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sales-2017" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="464">
   <si>
     <t>Oil Filter</t>
   </si>
@@ -1305,13 +1305,121 @@
   </si>
   <si>
     <t>Disk Brake</t>
+  </si>
+  <si>
+    <t>13.8.2018</t>
+  </si>
+  <si>
+    <t>Switz</t>
+  </si>
+  <si>
+    <t>14.8.2018</t>
+  </si>
+  <si>
+    <t>Meal</t>
+  </si>
+  <si>
+    <t>15.8.2018</t>
+  </si>
+  <si>
+    <t>AMS 10W30</t>
+  </si>
+  <si>
+    <t>မိိန္းလံုး</t>
+  </si>
+  <si>
+    <t>Hilux</t>
+  </si>
+  <si>
+    <t>စက္ေက်ာက္ျပား</t>
+  </si>
+  <si>
+    <t>16.8.2018</t>
+  </si>
+  <si>
+    <t>Oil Filter 2254</t>
+  </si>
+  <si>
+    <t>Aircon Filter CA1102</t>
+  </si>
+  <si>
+    <t>မီတာခ</t>
+  </si>
+  <si>
+    <t>17.8.2018</t>
+  </si>
+  <si>
+    <t>Bizol 10W40(Green)</t>
+  </si>
+  <si>
+    <t>Mazada</t>
+  </si>
+  <si>
+    <t>ေပၚေဘာဂိြ်ဳင္း</t>
+  </si>
+  <si>
+    <t>18.8.2018</t>
+  </si>
+  <si>
+    <t>Bizol 0W20</t>
+  </si>
+  <si>
+    <t>Disel 15W40 (17/8)</t>
+  </si>
+  <si>
+    <t>19.8.2018</t>
+  </si>
+  <si>
+    <t>Meal 15*1500</t>
+  </si>
+  <si>
+    <t>20.8.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lukoil CVT </t>
+  </si>
+  <si>
+    <t>Toyota Plug 18/16တံုး</t>
+  </si>
+  <si>
+    <t>ေကာ္မဲ/နီ</t>
+  </si>
+  <si>
+    <t>19/8/18</t>
+  </si>
+  <si>
+    <t>၀ါရွာ/ေကာ္သီး/</t>
+  </si>
+  <si>
+    <t>20/8/18</t>
+  </si>
+  <si>
+    <t>ေကာ္မဲ</t>
+  </si>
+  <si>
+    <t>Meal 20*1500</t>
+  </si>
+  <si>
+    <t>21.8.2018</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>Air Filter 17220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sparko </t>
+  </si>
+  <si>
+    <t>21*1500</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
         <u/>
-        <sz val="16"/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -1322,7 +1430,7 @@
     <r>
       <rPr>
         <u/>
-        <sz val="16"/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -1330,72 +1438,6 @@
       </rPr>
       <t xml:space="preserve"> ရွင္းေငြ</t>
     </r>
-  </si>
-  <si>
-    <t>13.8.2018</t>
-  </si>
-  <si>
-    <t>Switz</t>
-  </si>
-  <si>
-    <t>14.8.2018</t>
-  </si>
-  <si>
-    <t>Meal</t>
-  </si>
-  <si>
-    <t>15.8.2018</t>
-  </si>
-  <si>
-    <t>AMS 10W30</t>
-  </si>
-  <si>
-    <t>မိိန္းလံုး</t>
-  </si>
-  <si>
-    <t>Hilux</t>
-  </si>
-  <si>
-    <t>စက္ေက်ာက္ျပား</t>
-  </si>
-  <si>
-    <t>16.8.2018</t>
-  </si>
-  <si>
-    <t>Oil Filter 2254</t>
-  </si>
-  <si>
-    <t>Aircon Filter CA1102</t>
-  </si>
-  <si>
-    <t>မီတာခ</t>
-  </si>
-  <si>
-    <t>17.8.2018</t>
-  </si>
-  <si>
-    <t>Bizol 10W40(Green)</t>
-  </si>
-  <si>
-    <t>Mazada</t>
-  </si>
-  <si>
-    <t>ေပၚေဘာဂိြ်ဳင္း</t>
-  </si>
-  <si>
-    <t>18.8.2018</t>
-  </si>
-  <si>
-    <t>Bizol 0W20</t>
-  </si>
-  <si>
-    <t>Disel 15W40 (17/8)</t>
-  </si>
-  <si>
-    <t>19.8.2018</t>
-  </si>
-  <si>
-    <t>Meal 15*1500</t>
   </si>
 </sst>
 </file>
@@ -1406,7 +1448,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1668,11 +1710,42 @@
     </font>
     <font>
       <u/>
-      <sz val="16"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Zawgyi-One"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Zawgyi-One"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1907,7 +1980,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="433">
+  <cellXfs count="448">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2913,9 +2986,6 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2926,9 +2996,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2961,21 +3028,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2983,6 +3040,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2995,17 +3077,43 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6430,10 +6538,10 @@
       <c r="B1" s="198" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="425" t="s">
+      <c r="C1" s="428" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="426"/>
+      <c r="D1" s="429"/>
       <c r="E1" s="198" t="s">
         <v>116</v>
       </c>
@@ -11810,10 +11918,10 @@
       <c r="B1" s="333" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="427" t="s">
+      <c r="C1" s="430" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="428"/>
+      <c r="D1" s="431"/>
       <c r="E1" s="333" t="s">
         <v>116</v>
       </c>
@@ -15032,7 +15140,7 @@
         <v>3150</v>
       </c>
       <c r="I157" s="101" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -15421,7 +15529,7 @@
     <row r="177" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
-      <c r="C177" s="397" t="s">
+      <c r="C177" s="396" t="s">
         <v>189</v>
       </c>
       <c r="D177" s="235" t="s">
@@ -15435,12 +15543,12 @@
       <c r="H177" s="356">
         <v>2650</v>
       </c>
-      <c r="I177" s="401"/>
+      <c r="I177" s="399"/>
     </row>
     <row r="178" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
-      <c r="C178" s="399" t="s">
+      <c r="C178" s="397" t="s">
         <v>108</v>
       </c>
       <c r="D178" s="389" t="s">
@@ -15455,7 +15563,7 @@
         <v>3500</v>
       </c>
       <c r="I178" s="101" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -15567,7 +15675,7 @@
         <v>2</v>
       </c>
       <c r="B185" s="4"/>
-      <c r="C185" s="422" t="s">
+      <c r="C185" s="416" t="s">
         <v>108</v>
       </c>
       <c r="D185" s="389"/>
@@ -15580,7 +15688,7 @@
         <v>3500</v>
       </c>
       <c r="I185" s="101" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -15862,7 +15970,7 @@
         <v>3500</v>
       </c>
       <c r="I199" s="101" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -15941,7 +16049,7 @@
     <row r="204" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
-      <c r="C204" s="400" t="s">
+      <c r="C204" s="398" t="s">
         <v>197</v>
       </c>
       <c r="D204" s="366"/>
@@ -15975,7 +16083,7 @@
     <row r="206" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
-      <c r="C206" s="399" t="s">
+      <c r="C206" s="397" t="s">
         <v>338</v>
       </c>
       <c r="D206" s="389" t="s">
@@ -15986,7 +16094,7 @@
         <v>4</v>
       </c>
       <c r="G206" s="390"/>
-      <c r="H206" s="408" t="s">
+      <c r="H206" s="406" t="s">
         <v>153</v>
       </c>
       <c r="I206" s="101" t="s">
@@ -17431,7 +17539,7 @@
         <v>84</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E282" s="4"/>
       <c r="F282" s="4">
@@ -17458,7 +17566,7 @@
     <row r="284" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
-      <c r="C284" s="399" t="s">
+      <c r="C284" s="397" t="s">
         <v>276</v>
       </c>
       <c r="D284" s="389" t="s">
@@ -17743,8 +17851,8 @@
   </sheetPr>
   <dimension ref="A1:Q298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="L213" sqref="L213"/>
+    <sheetView topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="M220" sqref="M220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17768,10 +17876,10 @@
       <c r="B1" s="333" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="427" t="s">
+      <c r="C1" s="430" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="428"/>
+      <c r="D1" s="431"/>
       <c r="E1" s="333" t="s">
         <v>116</v>
       </c>
@@ -18017,19 +18125,22 @@
         <v>3</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="193" t="s">
+      <c r="C13" s="378" t="s">
         <v>173</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4">
+      <c r="D13" s="376"/>
+      <c r="E13" s="376"/>
+      <c r="F13" s="376">
         <v>2</v>
       </c>
-      <c r="G13" s="50">
+      <c r="G13" s="377">
         <v>1200</v>
       </c>
-      <c r="H13" s="50">
+      <c r="H13" s="377">
         <v>2400</v>
+      </c>
+      <c r="I13" s="101" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18522,7 +18633,7 @@
         <v>10</v>
       </c>
       <c r="B40" s="4"/>
-      <c r="C40" s="399" t="s">
+      <c r="C40" s="397" t="s">
         <v>135</v>
       </c>
       <c r="D40" s="389"/>
@@ -18720,12 +18831,12 @@
     <row r="51" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
-      <c r="C51" s="394"/>
+      <c r="C51" s="393"/>
       <c r="D51" s="235"/>
       <c r="E51" s="235"/>
       <c r="F51" s="235"/>
       <c r="G51" s="356"/>
-      <c r="H51" s="395">
+      <c r="H51" s="394">
         <f>SUM(H49:H50)</f>
         <v>39500</v>
       </c>
@@ -18754,7 +18865,7 @@
       <c r="E53" s="83"/>
       <c r="F53" s="83"/>
       <c r="G53" s="84"/>
-      <c r="H53" s="396">
+      <c r="H53" s="395">
         <f>SUM(H51:H52)</f>
         <v>63500</v>
       </c>
@@ -19149,11 +19260,11 @@
       <c r="B74" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="C74" s="411" t="s">
+      <c r="C74" s="409" t="s">
         <v>406</v>
       </c>
-      <c r="D74" s="409"/>
-      <c r="E74" s="409" t="s">
+      <c r="D74" s="407"/>
+      <c r="E74" s="407" t="s">
         <v>14</v>
       </c>
       <c r="F74" s="376">
@@ -19177,18 +19288,18 @@
         <v>2</v>
       </c>
       <c r="B75" s="3"/>
-      <c r="C75" s="193" t="s">
+      <c r="C75" s="357" t="s">
         <v>407</v>
       </c>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="4">
+      <c r="D75" s="47"/>
+      <c r="E75" s="47"/>
+      <c r="F75" s="8">
         <v>4</v>
       </c>
-      <c r="G75" s="50">
+      <c r="G75" s="79">
         <v>1200</v>
       </c>
-      <c r="H75" s="50">
+      <c r="H75" s="79">
         <v>4800</v>
       </c>
     </row>
@@ -19200,8 +19311,8 @@
       <c r="C76" s="378" t="s">
         <v>350</v>
       </c>
-      <c r="D76" s="409"/>
-      <c r="E76" s="409" t="s">
+      <c r="D76" s="407"/>
+      <c r="E76" s="407" t="s">
         <v>14</v>
       </c>
       <c r="F76" s="376">
@@ -19223,8 +19334,8 @@
       <c r="C77" s="378" t="s">
         <v>160</v>
       </c>
-      <c r="D77" s="409"/>
-      <c r="E77" s="409" t="s">
+      <c r="D77" s="407"/>
+      <c r="E77" s="407" t="s">
         <v>22</v>
       </c>
       <c r="F77" s="376">
@@ -19246,8 +19357,8 @@
       <c r="C78" s="378" t="s">
         <v>160</v>
       </c>
-      <c r="D78" s="409"/>
-      <c r="E78" s="409" t="s">
+      <c r="D78" s="407"/>
+      <c r="E78" s="407" t="s">
         <v>14</v>
       </c>
       <c r="F78" s="376">
@@ -19269,8 +19380,8 @@
       <c r="C79" s="378" t="s">
         <v>408</v>
       </c>
-      <c r="D79" s="409"/>
-      <c r="E79" s="409"/>
+      <c r="D79" s="407"/>
+      <c r="E79" s="407"/>
       <c r="F79" s="376">
         <v>1</v>
       </c>
@@ -19290,8 +19401,8 @@
       <c r="C80" s="378" t="s">
         <v>409</v>
       </c>
-      <c r="D80" s="409"/>
-      <c r="E80" s="409"/>
+      <c r="D80" s="407"/>
+      <c r="E80" s="407"/>
       <c r="F80" s="376">
         <v>1</v>
       </c>
@@ -19311,8 +19422,8 @@
       <c r="C81" s="378" t="s">
         <v>410</v>
       </c>
-      <c r="D81" s="409"/>
-      <c r="E81" s="409"/>
+      <c r="D81" s="407"/>
+      <c r="E81" s="407"/>
       <c r="F81" s="376">
         <v>1</v>
       </c>
@@ -19349,7 +19460,7 @@
         <v>10</v>
       </c>
       <c r="B83" s="3"/>
-      <c r="C83" s="407" t="s">
+      <c r="C83" s="405" t="s">
         <v>412</v>
       </c>
       <c r="D83" s="70" t="s">
@@ -19372,8 +19483,8 @@
       <c r="C84" s="388" t="s">
         <v>197</v>
       </c>
-      <c r="D84" s="410"/>
-      <c r="E84" s="410" t="s">
+      <c r="D84" s="408"/>
+      <c r="E84" s="408" t="s">
         <v>22</v>
       </c>
       <c r="F84" s="389">
@@ -19395,8 +19506,8 @@
       <c r="C85" s="388" t="s">
         <v>127</v>
       </c>
-      <c r="D85" s="410"/>
-      <c r="E85" s="410"/>
+      <c r="D85" s="408"/>
+      <c r="E85" s="408"/>
       <c r="F85" s="389">
         <v>1</v>
       </c>
@@ -19416,7 +19527,7 @@
         <v>13</v>
       </c>
       <c r="B86" s="3"/>
-      <c r="C86" s="407" t="s">
+      <c r="C86" s="405" t="s">
         <v>208</v>
       </c>
       <c r="D86" s="70" t="s">
@@ -19439,8 +19550,8 @@
       <c r="C87" s="378" t="s">
         <v>197</v>
       </c>
-      <c r="D87" s="409"/>
-      <c r="E87" s="409" t="s">
+      <c r="D87" s="407"/>
+      <c r="E87" s="407" t="s">
         <v>14</v>
       </c>
       <c r="F87" s="376">
@@ -19503,45 +19614,45 @@
     <row r="91" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="3"/>
-      <c r="C91" s="403" t="s">
+      <c r="C91" s="401" t="s">
         <v>343</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="E91" s="403"/>
-      <c r="F91" s="404"/>
-      <c r="G91" s="404"/>
-      <c r="H91" s="405">
+      <c r="E91" s="401"/>
+      <c r="F91" s="402"/>
+      <c r="G91" s="402"/>
+      <c r="H91" s="403">
         <v>28500</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
-      <c r="B92" s="402"/>
-      <c r="C92" s="403" t="s">
+      <c r="B92" s="400"/>
+      <c r="C92" s="401" t="s">
         <v>363</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="E92" s="403"/>
+      <c r="E92" s="401"/>
       <c r="F92" s="4">
         <v>5</v>
       </c>
-      <c r="G92" s="406">
+      <c r="G92" s="404">
         <v>1500</v>
       </c>
-      <c r="H92" s="406">
+      <c r="H92" s="404">
         <v>7500</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
-      <c r="B93" s="402"/>
-      <c r="C93" s="402"/>
-      <c r="D93" s="402"/>
-      <c r="E93" s="402"/>
+      <c r="B93" s="400"/>
+      <c r="C93" s="400"/>
+      <c r="D93" s="400"/>
+      <c r="E93" s="400"/>
       <c r="F93" s="77"/>
       <c r="G93" s="77"/>
       <c r="H93" s="367">
@@ -19556,11 +19667,11 @@
       <c r="B94" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="C94" s="411" t="s">
+      <c r="C94" s="409" t="s">
         <v>341</v>
       </c>
-      <c r="D94" s="409"/>
-      <c r="E94" s="409"/>
+      <c r="D94" s="407"/>
+      <c r="E94" s="407"/>
       <c r="F94" s="376">
         <v>1</v>
       </c>
@@ -19580,8 +19691,8 @@
       <c r="C95" s="378" t="s">
         <v>414</v>
       </c>
-      <c r="D95" s="409"/>
-      <c r="E95" s="409"/>
+      <c r="D95" s="407"/>
+      <c r="E95" s="407"/>
       <c r="F95" s="376">
         <v>1</v>
       </c>
@@ -19592,7 +19703,7 @@
       <c r="I95" s="101" t="s">
         <v>417</v>
       </c>
-      <c r="K95" s="412"/>
+      <c r="K95" s="410"/>
     </row>
     <row r="96" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
@@ -19602,8 +19713,8 @@
       <c r="C96" s="378" t="s">
         <v>299</v>
       </c>
-      <c r="D96" s="409"/>
-      <c r="E96" s="409" t="s">
+      <c r="D96" s="407"/>
+      <c r="E96" s="407" t="s">
         <v>22</v>
       </c>
       <c r="F96" s="376">
@@ -19625,8 +19736,8 @@
       <c r="C97" s="378" t="s">
         <v>127</v>
       </c>
-      <c r="D97" s="409"/>
-      <c r="E97" s="409"/>
+      <c r="D97" s="407"/>
+      <c r="E97" s="407"/>
       <c r="F97" s="376">
         <v>3</v>
       </c>
@@ -19668,8 +19779,8 @@
       <c r="C99" s="378" t="s">
         <v>160</v>
       </c>
-      <c r="D99" s="409"/>
-      <c r="E99" s="409" t="s">
+      <c r="D99" s="407"/>
+      <c r="E99" s="407" t="s">
         <v>22</v>
       </c>
       <c r="F99" s="376">
@@ -19688,16 +19799,16 @@
         <v>7</v>
       </c>
       <c r="B100" s="3"/>
-      <c r="C100" s="193" t="s">
+      <c r="C100" s="357" t="s">
         <v>415</v>
       </c>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="4">
-        <v>1</v>
-      </c>
-      <c r="G100" s="50"/>
-      <c r="H100" s="50">
+      <c r="D100" s="47"/>
+      <c r="E100" s="47"/>
+      <c r="F100" s="8">
+        <v>1</v>
+      </c>
+      <c r="G100" s="79"/>
+      <c r="H100" s="79">
         <v>2650</v>
       </c>
     </row>
@@ -19750,7 +19861,7 @@
         <v>10</v>
       </c>
       <c r="B103" s="3"/>
-      <c r="C103" s="407" t="s">
+      <c r="C103" s="405" t="s">
         <v>27</v>
       </c>
       <c r="D103" s="70" t="s">
@@ -19773,8 +19884,8 @@
       <c r="C104" s="388" t="s">
         <v>109</v>
       </c>
-      <c r="D104" s="410"/>
-      <c r="E104" s="410"/>
+      <c r="D104" s="408"/>
+      <c r="E104" s="408"/>
       <c r="F104" s="389">
         <v>1</v>
       </c>
@@ -19789,7 +19900,7 @@
     <row r="105" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
-      <c r="C105" s="407"/>
+      <c r="C105" s="405"/>
       <c r="D105" s="70"/>
       <c r="E105" s="70"/>
       <c r="F105" s="45"/>
@@ -19802,7 +19913,7 @@
     <row r="106" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
-      <c r="C106" s="407" t="s">
+      <c r="C106" s="405" t="s">
         <v>343</v>
       </c>
       <c r="D106" s="70" t="s">
@@ -19881,19 +19992,22 @@
         <v>3</v>
       </c>
       <c r="B110" s="4"/>
-      <c r="C110" s="193" t="s">
+      <c r="C110" s="378" t="s">
         <v>342</v>
       </c>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4" t="s">
+      <c r="D110" s="376"/>
+      <c r="E110" s="376" t="s">
         <v>14</v>
       </c>
-      <c r="F110" s="4">
-        <v>1</v>
-      </c>
-      <c r="G110" s="50"/>
-      <c r="H110" s="50">
+      <c r="F110" s="376">
+        <v>1</v>
+      </c>
+      <c r="G110" s="377"/>
+      <c r="H110" s="377">
         <v>4500</v>
+      </c>
+      <c r="I110" s="101" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19901,16 +20015,16 @@
         <v>4</v>
       </c>
       <c r="B111" s="4"/>
-      <c r="C111" s="193" t="s">
+      <c r="C111" s="357" t="s">
         <v>419</v>
       </c>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="4">
-        <v>1</v>
-      </c>
-      <c r="G111" s="50"/>
-      <c r="H111" s="50">
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8">
+        <v>1</v>
+      </c>
+      <c r="G111" s="79"/>
+      <c r="H111" s="79">
         <v>4000</v>
       </c>
     </row>
@@ -20054,7 +20168,7 @@
         <v>11</v>
       </c>
       <c r="B118" s="4"/>
-      <c r="C118" s="407" t="s">
+      <c r="C118" s="405" t="s">
         <v>111</v>
       </c>
       <c r="D118" s="45" t="s">
@@ -20076,16 +20190,16 @@
         <v>12</v>
       </c>
       <c r="B119" s="4"/>
-      <c r="C119" s="419" t="s">
+      <c r="C119" s="421" t="s">
         <v>350</v>
       </c>
-      <c r="D119" s="393"/>
-      <c r="E119" s="393"/>
-      <c r="F119" s="393">
-        <v>1</v>
-      </c>
-      <c r="G119" s="84"/>
-      <c r="H119" s="84">
+      <c r="D119" s="235"/>
+      <c r="E119" s="235"/>
+      <c r="F119" s="235">
+        <v>1</v>
+      </c>
+      <c r="G119" s="356"/>
+      <c r="H119" s="356">
         <v>2000</v>
       </c>
     </row>
@@ -20113,7 +20227,7 @@
     <row r="121" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="4"/>
-      <c r="C121" s="407"/>
+      <c r="C121" s="405"/>
       <c r="D121" s="45"/>
       <c r="E121" s="45"/>
       <c r="F121" s="45"/>
@@ -20191,20 +20305,20 @@
     <row r="126" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="4"/>
-      <c r="C126" s="414" t="s">
+      <c r="C126" s="411" t="s">
         <v>299</v>
       </c>
       <c r="D126" s="376" t="s">
         <v>420</v>
       </c>
-      <c r="E126" s="414" t="s">
+      <c r="E126" s="411" t="s">
         <v>22</v>
       </c>
       <c r="F126" s="376">
         <v>1</v>
       </c>
-      <c r="G126" s="414"/>
-      <c r="H126" s="415" t="s">
+      <c r="G126" s="411"/>
+      <c r="H126" s="412" t="s">
         <v>153</v>
       </c>
       <c r="I126" s="101" t="s">
@@ -20212,20 +20326,20 @@
       </c>
     </row>
     <row r="127" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="402"/>
+      <c r="A127" s="400"/>
       <c r="B127" s="77"/>
-      <c r="C127" s="414" t="s">
+      <c r="C127" s="411" t="s">
         <v>127</v>
       </c>
       <c r="D127" s="376" t="s">
         <v>420</v>
       </c>
-      <c r="E127" s="414"/>
+      <c r="E127" s="411"/>
       <c r="F127" s="376">
         <v>1</v>
       </c>
-      <c r="G127" s="416"/>
-      <c r="H127" s="416" t="s">
+      <c r="G127" s="413"/>
+      <c r="H127" s="413" t="s">
         <v>153</v>
       </c>
       <c r="I127" s="101" t="s">
@@ -20233,7 +20347,7 @@
       </c>
     </row>
     <row r="128" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="402"/>
+      <c r="A128" s="400"/>
       <c r="B128" s="77"/>
       <c r="C128" s="375" t="s">
         <v>197</v>
@@ -20241,14 +20355,14 @@
       <c r="D128" s="376" t="s">
         <v>421</v>
       </c>
-      <c r="E128" s="417" t="s">
+      <c r="E128" s="414" t="s">
         <v>14</v>
       </c>
       <c r="F128" s="376">
         <v>1</v>
       </c>
-      <c r="G128" s="417"/>
-      <c r="H128" s="418" t="s">
+      <c r="G128" s="414"/>
+      <c r="H128" s="415" t="s">
         <v>153</v>
       </c>
       <c r="I128" s="101" t="s">
@@ -20313,11 +20427,11 @@
       <c r="B132" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="C132" s="411" t="s">
+      <c r="C132" s="409" t="s">
         <v>109</v>
       </c>
-      <c r="D132" s="409"/>
-      <c r="E132" s="409"/>
+      <c r="D132" s="407"/>
+      <c r="E132" s="407"/>
       <c r="F132" s="376">
         <v>1</v>
       </c>
@@ -20326,7 +20440,7 @@
         <v>3500</v>
       </c>
       <c r="I132" s="101" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20337,8 +20451,8 @@
       <c r="C133" s="379" t="s">
         <v>120</v>
       </c>
-      <c r="D133" s="409"/>
-      <c r="E133" s="409"/>
+      <c r="D133" s="407"/>
+      <c r="E133" s="407"/>
       <c r="F133" s="376">
         <v>4</v>
       </c>
@@ -20349,7 +20463,7 @@
         <v>12000</v>
       </c>
       <c r="I133" s="101" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20360,8 +20474,8 @@
       <c r="C134" s="379" t="s">
         <v>406</v>
       </c>
-      <c r="D134" s="409"/>
-      <c r="E134" s="409" t="s">
+      <c r="D134" s="407"/>
+      <c r="E134" s="407" t="s">
         <v>14</v>
       </c>
       <c r="F134" s="376">
@@ -20374,7 +20488,7 @@
         <v>22500</v>
       </c>
       <c r="I134" s="101" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20385,8 +20499,8 @@
       <c r="C135" s="379" t="s">
         <v>132</v>
       </c>
-      <c r="D135" s="409"/>
-      <c r="E135" s="409"/>
+      <c r="D135" s="407"/>
+      <c r="E135" s="407"/>
       <c r="F135" s="376">
         <v>1</v>
       </c>
@@ -20395,7 +20509,7 @@
         <v>2900</v>
       </c>
       <c r="I135" s="101" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20406,15 +20520,15 @@
       <c r="C136" s="379" t="s">
         <v>425</v>
       </c>
-      <c r="D136" s="409"/>
-      <c r="E136" s="409"/>
+      <c r="D136" s="407"/>
+      <c r="E136" s="407"/>
       <c r="F136" s="376"/>
       <c r="G136" s="377"/>
       <c r="H136" s="377">
         <v>2650</v>
       </c>
       <c r="I136" s="101" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20482,24 +20596,24 @@
         <v>1</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C141" s="375" t="s">
         <v>200</v>
       </c>
-      <c r="D141" s="409"/>
-      <c r="E141" s="409" t="s">
+      <c r="D141" s="407"/>
+      <c r="E141" s="407" t="s">
         <v>8</v>
       </c>
-      <c r="F141" s="409">
-        <v>1</v>
-      </c>
-      <c r="G141" s="423"/>
+      <c r="F141" s="407">
+        <v>1</v>
+      </c>
+      <c r="G141" s="417"/>
       <c r="H141" s="377">
         <v>40500</v>
       </c>
       <c r="I141" s="101" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20510,19 +20624,19 @@
       <c r="C142" s="378" t="s">
         <v>200</v>
       </c>
-      <c r="D142" s="409"/>
-      <c r="E142" s="409" t="s">
+      <c r="D142" s="407"/>
+      <c r="E142" s="407" t="s">
         <v>14</v>
       </c>
-      <c r="F142" s="409">
-        <v>1</v>
-      </c>
-      <c r="G142" s="423"/>
+      <c r="F142" s="407">
+        <v>1</v>
+      </c>
+      <c r="G142" s="417"/>
       <c r="H142" s="377">
         <v>10500</v>
       </c>
       <c r="I142" s="101" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20533,17 +20647,17 @@
       <c r="C143" s="378" t="s">
         <v>329</v>
       </c>
-      <c r="D143" s="409"/>
-      <c r="E143" s="409"/>
-      <c r="F143" s="409">
-        <v>1</v>
-      </c>
-      <c r="G143" s="423"/>
+      <c r="D143" s="407"/>
+      <c r="E143" s="407"/>
+      <c r="F143" s="407">
+        <v>1</v>
+      </c>
+      <c r="G143" s="417"/>
       <c r="H143" s="377">
         <v>3350</v>
       </c>
       <c r="I143" s="101" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20611,24 +20725,24 @@
         <v>1</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C148" s="375" t="s">
         <v>160</v>
       </c>
-      <c r="D148" s="409"/>
-      <c r="E148" s="409" t="s">
+      <c r="D148" s="407"/>
+      <c r="E148" s="407" t="s">
         <v>22</v>
       </c>
-      <c r="F148" s="409">
-        <v>1</v>
-      </c>
-      <c r="G148" s="423"/>
+      <c r="F148" s="407">
+        <v>1</v>
+      </c>
+      <c r="G148" s="417"/>
       <c r="H148" s="377">
         <v>30500</v>
       </c>
       <c r="I148" s="101" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20639,17 +20753,17 @@
       <c r="C149" s="378" t="s">
         <v>127</v>
       </c>
-      <c r="D149" s="409"/>
-      <c r="E149" s="409"/>
-      <c r="F149" s="409">
-        <v>1</v>
-      </c>
-      <c r="G149" s="423"/>
+      <c r="D149" s="407"/>
+      <c r="E149" s="407"/>
+      <c r="F149" s="407">
+        <v>1</v>
+      </c>
+      <c r="G149" s="417"/>
       <c r="H149" s="377">
         <v>1750</v>
       </c>
       <c r="I149" s="101" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20660,17 +20774,17 @@
       <c r="C150" s="378" t="s">
         <v>109</v>
       </c>
-      <c r="D150" s="409"/>
-      <c r="E150" s="409"/>
-      <c r="F150" s="409">
-        <v>1</v>
-      </c>
-      <c r="G150" s="423"/>
+      <c r="D150" s="407"/>
+      <c r="E150" s="407"/>
+      <c r="F150" s="407">
+        <v>1</v>
+      </c>
+      <c r="G150" s="417"/>
       <c r="H150" s="377">
         <v>3500</v>
       </c>
       <c r="I150" s="101" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20728,7 +20842,7 @@
       <c r="A154" s="4"/>
       <c r="B154" s="3"/>
       <c r="C154" s="260" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D154" s="4" t="s">
         <v>351</v>
@@ -20758,26 +20872,26 @@
         <v>1</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C156" s="375" t="s">
         <v>406</v>
       </c>
-      <c r="D156" s="409"/>
-      <c r="E156" s="409" t="s">
+      <c r="D156" s="407"/>
+      <c r="E156" s="407" t="s">
         <v>14</v>
       </c>
-      <c r="F156" s="409">
+      <c r="F156" s="407">
         <v>2</v>
       </c>
-      <c r="G156" s="423">
+      <c r="G156" s="417">
         <v>4500</v>
       </c>
       <c r="H156" s="377">
         <v>9000</v>
       </c>
       <c r="I156" s="101" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20811,18 +20925,18 @@
         <v>196</v>
       </c>
       <c r="D158" s="376"/>
-      <c r="E158" s="409" t="s">
+      <c r="E158" s="407" t="s">
         <v>8</v>
       </c>
-      <c r="F158" s="409">
-        <v>1</v>
-      </c>
-      <c r="G158" s="423"/>
+      <c r="F158" s="407">
+        <v>1</v>
+      </c>
+      <c r="G158" s="417"/>
       <c r="H158" s="377">
         <v>22300</v>
       </c>
       <c r="I158" s="101" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20834,18 +20948,18 @@
         <v>196</v>
       </c>
       <c r="D159" s="376"/>
-      <c r="E159" s="409" t="s">
+      <c r="E159" s="407" t="s">
         <v>14</v>
       </c>
-      <c r="F159" s="409">
-        <v>1</v>
-      </c>
-      <c r="G159" s="423"/>
+      <c r="F159" s="407">
+        <v>1</v>
+      </c>
+      <c r="G159" s="417"/>
       <c r="H159" s="377">
         <v>5350</v>
       </c>
       <c r="I159" s="101" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20857,16 +20971,16 @@
         <v>54</v>
       </c>
       <c r="D160" s="376"/>
-      <c r="E160" s="409"/>
-      <c r="F160" s="409">
-        <v>1</v>
-      </c>
-      <c r="G160" s="423"/>
+      <c r="E160" s="407"/>
+      <c r="F160" s="407">
+        <v>1</v>
+      </c>
+      <c r="G160" s="417"/>
       <c r="H160" s="377">
         <v>4500</v>
       </c>
       <c r="I160" s="101" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="161" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20875,7 +20989,7 @@
       </c>
       <c r="B161" s="3"/>
       <c r="C161" s="260" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D161" s="4"/>
       <c r="E161" s="3" t="s">
@@ -20915,7 +21029,7 @@
       </c>
       <c r="B163" s="3"/>
       <c r="C163" s="260" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>244</v>
@@ -20936,19 +21050,22 @@
         <v>9</v>
       </c>
       <c r="B164" s="3"/>
-      <c r="C164" s="260" t="s">
+      <c r="C164" s="379" t="s">
         <v>128</v>
       </c>
-      <c r="D164" s="4"/>
-      <c r="E164" s="3"/>
-      <c r="F164" s="4">
+      <c r="D164" s="376"/>
+      <c r="E164" s="407"/>
+      <c r="F164" s="376">
         <v>4</v>
       </c>
-      <c r="G164" s="222">
+      <c r="G164" s="417">
         <v>3000</v>
       </c>
-      <c r="H164" s="50">
+      <c r="H164" s="377">
         <v>12000</v>
+      </c>
+      <c r="I164" s="101" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="165" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20960,18 +21077,18 @@
         <v>197</v>
       </c>
       <c r="D165" s="376"/>
-      <c r="E165" s="409" t="s">
+      <c r="E165" s="407" t="s">
         <v>22</v>
       </c>
       <c r="F165" s="376">
         <v>1</v>
       </c>
-      <c r="G165" s="423"/>
+      <c r="G165" s="417"/>
       <c r="H165" s="377">
         <v>21350</v>
       </c>
       <c r="I165" s="101" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20983,16 +21100,16 @@
         <v>127</v>
       </c>
       <c r="D166" s="376"/>
-      <c r="E166" s="409"/>
-      <c r="F166" s="409">
-        <v>1</v>
-      </c>
-      <c r="G166" s="423"/>
+      <c r="E166" s="407"/>
+      <c r="F166" s="407">
+        <v>1</v>
+      </c>
+      <c r="G166" s="417"/>
       <c r="H166" s="377">
         <v>1750</v>
       </c>
       <c r="I166" s="101" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="167" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21004,7 +21121,7 @@
         <v>27</v>
       </c>
       <c r="D167" s="45" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E167" s="70"/>
       <c r="F167" s="70">
@@ -21020,20 +21137,20 @@
         <v>13</v>
       </c>
       <c r="B168" s="3"/>
-      <c r="C168" s="399" t="s">
+      <c r="C168" s="397" t="s">
         <v>109</v>
       </c>
       <c r="D168" s="389"/>
-      <c r="E168" s="410"/>
-      <c r="F168" s="410">
-        <v>1</v>
-      </c>
-      <c r="G168" s="423"/>
+      <c r="E168" s="408"/>
+      <c r="F168" s="408">
+        <v>1</v>
+      </c>
+      <c r="G168" s="417"/>
       <c r="H168" s="377">
         <v>3500</v>
       </c>
       <c r="I168" s="101" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="169" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21052,8 +21169,8 @@
     <row r="170" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
-      <c r="C170" s="407" t="s">
-        <v>431</v>
+      <c r="C170" s="405" t="s">
+        <v>430</v>
       </c>
       <c r="D170" s="45" t="s">
         <v>385</v>
@@ -21068,8 +21185,8 @@
     <row r="171" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
-      <c r="C171" s="407" t="s">
-        <v>436</v>
+      <c r="C171" s="405" t="s">
+        <v>435</v>
       </c>
       <c r="D171" s="70"/>
       <c r="E171" s="70"/>
@@ -21097,10 +21214,10 @@
         <v>1</v>
       </c>
       <c r="B173" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="C173" s="315" t="s">
         <v>437</v>
-      </c>
-      <c r="C173" s="315" t="s">
-        <v>438</v>
       </c>
       <c r="D173" s="275" t="s">
         <v>104</v>
@@ -21114,7 +21231,7 @@
         <v>5000</v>
       </c>
       <c r="I173" s="101" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L173" s="101" t="s">
         <v>266</v>
@@ -21125,17 +21242,20 @@
         <v>2</v>
       </c>
       <c r="B174" s="4"/>
-      <c r="C174" s="193" t="s">
-        <v>439</v>
-      </c>
-      <c r="D174" s="4"/>
-      <c r="E174" s="3"/>
-      <c r="F174" s="3">
-        <v>1</v>
-      </c>
-      <c r="G174" s="222"/>
-      <c r="H174" s="50">
+      <c r="C174" s="357" t="s">
+        <v>438</v>
+      </c>
+      <c r="D174" s="8"/>
+      <c r="E174" s="47"/>
+      <c r="F174" s="47">
+        <v>1</v>
+      </c>
+      <c r="G174" s="422"/>
+      <c r="H174" s="79">
         <v>4000</v>
+      </c>
+      <c r="I174" s="19" t="s">
+        <v>459</v>
       </c>
       <c r="L174" s="101" t="s">
         <v>266</v>
@@ -21161,7 +21281,7 @@
         <v>21350</v>
       </c>
       <c r="I175" s="101" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="176" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21182,7 +21302,7 @@
         <v>1750</v>
       </c>
       <c r="I176" s="101" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21238,7 +21358,7 @@
       <c r="A180" s="4"/>
       <c r="B180" s="3"/>
       <c r="C180" s="193" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D180" s="4"/>
       <c r="E180" s="3"/>
@@ -21254,7 +21374,7 @@
       <c r="A181" s="4"/>
       <c r="B181" s="3"/>
       <c r="C181" s="193" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D181" s="4" t="s">
         <v>351</v>
@@ -21284,7 +21404,7 @@
         <v>1</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C183" s="188" t="s">
         <v>208</v>
@@ -21307,7 +21427,7 @@
       </c>
       <c r="B184" s="4"/>
       <c r="C184" s="313" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D184" s="275"/>
       <c r="E184" s="265" t="s">
@@ -21321,7 +21441,7 @@
         <v>58500</v>
       </c>
       <c r="I184" s="101" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21344,7 +21464,7 @@
         <v>3500</v>
       </c>
       <c r="I185" s="101" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21365,7 +21485,7 @@
         <v>4500</v>
       </c>
       <c r="I186" s="101" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21390,7 +21510,7 @@
         <v>61000</v>
       </c>
       <c r="I187" s="101" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21402,7 +21522,7 @@
         <v>50</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E188" s="3"/>
       <c r="F188" s="4">
@@ -21421,10 +21541,10 @@
       </c>
       <c r="B189" s="3"/>
       <c r="C189" s="193" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E189" s="3"/>
       <c r="F189" s="4">
@@ -21455,7 +21575,7 @@
         <v>2650</v>
       </c>
       <c r="I190" s="101" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21475,7 +21595,7 @@
       <c r="A192" s="4"/>
       <c r="B192" s="3"/>
       <c r="C192" s="193" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D192" s="4" t="s">
         <v>346</v>
@@ -21487,7 +21607,7 @@
         <v>25500</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4"/>
       <c r="B193" s="3"/>
       <c r="C193" s="260" t="s">
@@ -21505,7 +21625,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4"/>
       <c r="B194" s="3"/>
       <c r="C194" s="260" t="s">
@@ -21523,7 +21643,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4"/>
       <c r="B195" s="3"/>
       <c r="C195" s="260" t="s">
@@ -21541,160 +21661,181 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="424"/>
-      <c r="B196" s="424"/>
-      <c r="C196" s="424"/>
-      <c r="D196" s="424"/>
-      <c r="E196" s="424"/>
-      <c r="F196" s="424"/>
-      <c r="G196" s="424"/>
+    <row r="196" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="418"/>
+      <c r="B196" s="418"/>
+      <c r="C196" s="418"/>
+      <c r="D196" s="418"/>
+      <c r="E196" s="418"/>
+      <c r="F196" s="418"/>
+      <c r="G196" s="418"/>
       <c r="H196" s="374">
         <f>SUM(H191:H195)</f>
         <v>228550</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>1</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="C197" s="188" t="s">
+        <v>444</v>
+      </c>
+      <c r="C197" s="375" t="s">
         <v>196</v>
       </c>
-      <c r="D197" s="4"/>
-      <c r="E197" s="3" t="s">
+      <c r="D197" s="376"/>
+      <c r="E197" s="407" t="s">
         <v>8</v>
       </c>
-      <c r="F197" s="3">
-        <v>1</v>
-      </c>
-      <c r="G197" s="50"/>
-      <c r="H197" s="50">
+      <c r="F197" s="407">
+        <v>1</v>
+      </c>
+      <c r="G197" s="377"/>
+      <c r="H197" s="377">
         <v>22300</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I197" s="101" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>2</v>
       </c>
       <c r="B198" s="4"/>
-      <c r="C198" s="193" t="s">
+      <c r="C198" s="378" t="s">
         <v>196</v>
       </c>
-      <c r="D198" s="4"/>
-      <c r="E198" s="3" t="s">
+      <c r="D198" s="376"/>
+      <c r="E198" s="407" t="s">
         <v>14</v>
       </c>
-      <c r="F198" s="3">
+      <c r="F198" s="407">
         <v>4</v>
       </c>
-      <c r="G198" s="50">
+      <c r="G198" s="377">
         <v>5350</v>
       </c>
-      <c r="H198" s="50">
+      <c r="H198" s="377">
         <v>21400</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I198" s="101" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>3</v>
       </c>
       <c r="B199" s="4"/>
-      <c r="C199" s="193" t="s">
-        <v>438</v>
-      </c>
-      <c r="D199" s="4"/>
-      <c r="E199" s="3"/>
-      <c r="F199" s="3">
-        <v>1</v>
-      </c>
-      <c r="G199" s="50"/>
-      <c r="H199" s="50">
+      <c r="C199" s="378" t="s">
+        <v>437</v>
+      </c>
+      <c r="D199" s="376"/>
+      <c r="E199" s="407"/>
+      <c r="F199" s="407">
+        <v>1</v>
+      </c>
+      <c r="G199" s="377"/>
+      <c r="H199" s="377">
         <v>5000</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I199" s="101" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>4</v>
       </c>
       <c r="B200" s="3"/>
-      <c r="C200" s="193" t="s">
+      <c r="C200" s="378" t="s">
         <v>350</v>
       </c>
-      <c r="D200" s="4"/>
-      <c r="E200" s="3"/>
-      <c r="F200" s="3">
-        <v>1</v>
-      </c>
-      <c r="G200" s="50"/>
-      <c r="H200" s="50">
+      <c r="D200" s="376"/>
+      <c r="E200" s="407"/>
+      <c r="F200" s="407">
+        <v>1</v>
+      </c>
+      <c r="G200" s="377"/>
+      <c r="H200" s="377">
         <v>2000</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I200" s="101" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>5</v>
       </c>
       <c r="B201" s="3"/>
-      <c r="C201" s="193" t="s">
-        <v>446</v>
-      </c>
-      <c r="D201" s="4"/>
-      <c r="E201" s="3" t="s">
+      <c r="C201" s="378" t="s">
+        <v>445</v>
+      </c>
+      <c r="D201" s="376"/>
+      <c r="E201" s="407" t="s">
         <v>8</v>
       </c>
-      <c r="F201" s="3">
-        <v>1</v>
-      </c>
-      <c r="G201" s="50"/>
-      <c r="H201" s="50">
+      <c r="F201" s="407">
+        <v>1</v>
+      </c>
+      <c r="G201" s="377"/>
+      <c r="H201" s="377">
         <v>66500</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I201" s="101" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>6</v>
       </c>
       <c r="B202" s="3"/>
-      <c r="C202" s="260" t="s">
+      <c r="C202" s="379" t="s">
         <v>223</v>
       </c>
-      <c r="D202" s="4"/>
-      <c r="E202" s="3"/>
-      <c r="F202" s="4">
-        <v>1</v>
-      </c>
-      <c r="G202" s="50"/>
-      <c r="H202" s="50">
+      <c r="D202" s="376"/>
+      <c r="E202" s="407"/>
+      <c r="F202" s="376">
+        <v>1</v>
+      </c>
+      <c r="G202" s="377"/>
+      <c r="H202" s="377">
         <v>2500</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I202" s="101" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>7</v>
       </c>
       <c r="B203" s="3"/>
-      <c r="C203" s="260" t="s">
+      <c r="C203" s="379" t="s">
         <v>151</v>
       </c>
-      <c r="D203" s="4"/>
-      <c r="E203" s="3" t="s">
+      <c r="D203" s="376"/>
+      <c r="E203" s="407" t="s">
         <v>14</v>
       </c>
-      <c r="F203" s="4">
+      <c r="F203" s="376">
         <v>2</v>
       </c>
-      <c r="G203" s="50">
+      <c r="G203" s="377">
         <v>6300</v>
       </c>
-      <c r="H203" s="50">
+      <c r="H203" s="377">
         <v>12600</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I203" s="101" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
       <c r="B204" s="3"/>
       <c r="C204" s="193"/>
@@ -21707,11 +21848,11 @@
         <v>132300</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4"/>
       <c r="B205" s="3"/>
       <c r="C205" s="193" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D205" s="4" t="s">
         <v>254</v>
@@ -21729,11 +21870,11 @@
         <v>22500</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
       <c r="B206" s="3"/>
       <c r="C206" s="193" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D206" s="4" t="s">
         <v>357</v>
@@ -21747,7 +21888,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="4"/>
       <c r="B207" s="3"/>
       <c r="C207" s="193"/>
@@ -21760,145 +21901,166 @@
         <v>178800</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <v>1</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="C208" s="188" t="s">
+        <v>447</v>
+      </c>
+      <c r="C208" s="375" t="s">
         <v>341</v>
       </c>
-      <c r="D208" s="4"/>
-      <c r="E208" s="3"/>
-      <c r="F208" s="3">
-        <v>1</v>
-      </c>
-      <c r="G208" s="50"/>
-      <c r="H208" s="50">
+      <c r="D208" s="376"/>
+      <c r="E208" s="407"/>
+      <c r="F208" s="407">
+        <v>1</v>
+      </c>
+      <c r="G208" s="377"/>
+      <c r="H208" s="377">
         <v>3500</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I208" s="101" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>2</v>
       </c>
       <c r="B209" s="4"/>
-      <c r="C209" s="193" t="s">
+      <c r="C209" s="424" t="s">
         <v>342</v>
       </c>
-      <c r="D209" s="4"/>
-      <c r="E209" s="3" t="s">
+      <c r="D209" s="425"/>
+      <c r="E209" s="426" t="s">
         <v>14</v>
       </c>
-      <c r="F209" s="3">
+      <c r="F209" s="426">
         <v>9</v>
       </c>
-      <c r="G209" s="50">
+      <c r="G209" s="427">
         <v>4500</v>
       </c>
-      <c r="H209" s="50">
+      <c r="H209" s="427">
         <v>40500</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I209" s="341" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <v>3</v>
       </c>
       <c r="B210" s="4"/>
-      <c r="C210" s="193" t="s">
+      <c r="C210" s="378" t="s">
         <v>109</v>
       </c>
-      <c r="D210" s="4"/>
-      <c r="E210" s="3"/>
-      <c r="F210" s="3">
-        <v>1</v>
-      </c>
-      <c r="G210" s="50"/>
-      <c r="H210" s="50">
+      <c r="D210" s="376"/>
+      <c r="E210" s="407"/>
+      <c r="F210" s="407">
+        <v>1</v>
+      </c>
+      <c r="G210" s="377"/>
+      <c r="H210" s="377">
         <v>3500</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I210" s="101" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>4</v>
       </c>
       <c r="B211" s="3"/>
-      <c r="C211" s="193" t="s">
+      <c r="C211" s="378" t="s">
         <v>160</v>
       </c>
-      <c r="D211" s="4"/>
-      <c r="E211" s="3" t="s">
+      <c r="D211" s="376"/>
+      <c r="E211" s="407" t="s">
         <v>22</v>
       </c>
-      <c r="F211" s="3">
-        <v>1</v>
-      </c>
-      <c r="G211" s="50"/>
-      <c r="H211" s="50">
+      <c r="F211" s="407">
+        <v>1</v>
+      </c>
+      <c r="G211" s="377"/>
+      <c r="H211" s="377">
         <v>30500</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I211" s="101" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <v>5</v>
       </c>
       <c r="B212" s="3"/>
-      <c r="C212" s="193" t="s">
+      <c r="C212" s="378" t="s">
         <v>127</v>
       </c>
-      <c r="D212" s="4"/>
-      <c r="E212" s="3"/>
-      <c r="F212" s="3">
+      <c r="D212" s="376"/>
+      <c r="E212" s="407"/>
+      <c r="F212" s="407">
         <v>3</v>
       </c>
-      <c r="G212" s="50">
+      <c r="G212" s="377">
         <v>1750</v>
       </c>
-      <c r="H212" s="50">
+      <c r="H212" s="377">
         <v>5250</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I212" s="101" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>6</v>
       </c>
       <c r="B213" s="3"/>
-      <c r="C213" s="260" t="s">
+      <c r="C213" s="379" t="s">
         <v>197</v>
       </c>
-      <c r="D213" s="4"/>
-      <c r="E213" s="3" t="s">
+      <c r="D213" s="376"/>
+      <c r="E213" s="407" t="s">
         <v>22</v>
       </c>
-      <c r="F213" s="4">
-        <v>1</v>
-      </c>
-      <c r="G213" s="50"/>
-      <c r="H213" s="50">
+      <c r="F213" s="376">
+        <v>1</v>
+      </c>
+      <c r="G213" s="377"/>
+      <c r="H213" s="377">
         <v>21350</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I213" s="101" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>7</v>
       </c>
       <c r="B214" s="3"/>
-      <c r="C214" s="260" t="s">
+      <c r="C214" s="379" t="s">
         <v>108</v>
       </c>
-      <c r="D214" s="4"/>
-      <c r="E214" s="3"/>
-      <c r="F214" s="4">
-        <v>1</v>
-      </c>
-      <c r="G214" s="50"/>
-      <c r="H214" s="50">
+      <c r="D214" s="376"/>
+      <c r="E214" s="407"/>
+      <c r="F214" s="376">
+        <v>1</v>
+      </c>
+      <c r="G214" s="377"/>
+      <c r="H214" s="377">
         <v>3500</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I214" s="101" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>8</v>
       </c>
@@ -21918,7 +22080,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4"/>
       <c r="B216" s="3"/>
       <c r="C216" s="193"/>
@@ -21931,11 +22093,11 @@
         <v>117100</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4"/>
       <c r="B217" s="3"/>
       <c r="C217" s="193" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D217" s="4"/>
       <c r="E217" s="3"/>
@@ -21945,7 +22107,7 @@
         <v>22500</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4"/>
       <c r="B218" s="3"/>
       <c r="C218" s="193"/>
@@ -21958,167 +22120,329 @@
         <v>139600</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="4"/>
-      <c r="B219" s="4"/>
-      <c r="C219" s="192"/>
-      <c r="D219" s="83"/>
-      <c r="E219" s="83"/>
-      <c r="F219" s="83"/>
-      <c r="G219" s="84"/>
-      <c r="H219" s="84"/>
-    </row>
-    <row r="220" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="4"/>
+    <row r="219" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="4">
+        <v>1</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="C219" s="375" t="s">
+        <v>108</v>
+      </c>
+      <c r="D219" s="376"/>
+      <c r="E219" s="407"/>
+      <c r="F219" s="407">
+        <v>2</v>
+      </c>
+      <c r="G219" s="377">
+        <v>3500</v>
+      </c>
+      <c r="H219" s="377">
+        <v>7000</v>
+      </c>
+      <c r="I219" s="101" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="4">
+        <v>2</v>
+      </c>
       <c r="B220" s="4"/>
-      <c r="C220" s="391"/>
-      <c r="D220" s="83"/>
-      <c r="E220" s="83"/>
-      <c r="F220" s="83"/>
-      <c r="G220" s="84"/>
-      <c r="H220" s="84"/>
-    </row>
-    <row r="221" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="4"/>
+      <c r="C220" s="424" t="s">
+        <v>342</v>
+      </c>
+      <c r="D220" s="425"/>
+      <c r="E220" s="426" t="s">
+        <v>14</v>
+      </c>
+      <c r="F220" s="426">
+        <v>10</v>
+      </c>
+      <c r="G220" s="427">
+        <v>4500</v>
+      </c>
+      <c r="H220" s="427">
+        <v>45000</v>
+      </c>
+      <c r="I220" s="341" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="4">
+        <v>3</v>
+      </c>
       <c r="B221" s="4"/>
-      <c r="C221" s="386"/>
-      <c r="D221" s="83"/>
-      <c r="E221" s="83"/>
-      <c r="F221" s="83"/>
-      <c r="G221" s="84"/>
-      <c r="H221" s="84"/>
-    </row>
-    <row r="222" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="4"/>
-      <c r="B222" s="4"/>
-      <c r="C222" s="386"/>
-      <c r="D222" s="83"/>
-      <c r="E222" s="83"/>
-      <c r="F222" s="83"/>
-      <c r="G222" s="84"/>
-      <c r="H222" s="84"/>
-    </row>
-    <row r="223" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="4"/>
-      <c r="B223" s="4"/>
-      <c r="C223" s="386"/>
-      <c r="D223" s="83"/>
-      <c r="E223" s="83"/>
-      <c r="F223" s="83"/>
-      <c r="G223" s="84"/>
-      <c r="H223" s="396"/>
-    </row>
-    <row r="224" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="4"/>
-      <c r="B224" s="4"/>
-      <c r="C224" s="386"/>
-      <c r="D224" s="83"/>
-      <c r="E224" s="83"/>
-      <c r="F224" s="83"/>
-      <c r="G224" s="84"/>
-      <c r="H224" s="84"/>
-    </row>
-    <row r="225" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="4"/>
-      <c r="B225" s="4"/>
-      <c r="C225" s="386"/>
-      <c r="D225" s="83"/>
-      <c r="E225" s="83"/>
-      <c r="F225" s="83"/>
-      <c r="G225" s="84"/>
-      <c r="H225" s="84"/>
-    </row>
-    <row r="226" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="4"/>
-      <c r="B226" s="4"/>
-      <c r="C226" s="398"/>
-      <c r="D226" s="393"/>
-      <c r="E226" s="393"/>
-      <c r="F226" s="393"/>
-      <c r="G226" s="84"/>
-      <c r="H226" s="84"/>
-    </row>
-    <row r="227" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="4"/>
-      <c r="B227" s="4"/>
-      <c r="C227" s="398"/>
-      <c r="D227" s="393"/>
-      <c r="E227" s="393"/>
-      <c r="F227" s="393"/>
-      <c r="G227" s="84"/>
-      <c r="H227" s="84"/>
-    </row>
-    <row r="228" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="4"/>
-      <c r="B228" s="4"/>
-      <c r="C228" s="192"/>
-      <c r="D228" s="83"/>
-      <c r="E228" s="83"/>
-      <c r="F228" s="83"/>
-      <c r="G228" s="84"/>
-      <c r="H228" s="396"/>
-    </row>
-    <row r="229" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C221" s="378" t="s">
+        <v>402</v>
+      </c>
+      <c r="D221" s="376"/>
+      <c r="E221" s="407"/>
+      <c r="F221" s="407">
+        <v>1</v>
+      </c>
+      <c r="G221" s="377"/>
+      <c r="H221" s="377">
+        <v>5000</v>
+      </c>
+      <c r="I221" s="101" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="4">
+        <v>4</v>
+      </c>
+      <c r="B222" s="3"/>
+      <c r="C222" s="378" t="s">
+        <v>450</v>
+      </c>
+      <c r="D222" s="376"/>
+      <c r="E222" s="407" t="s">
+        <v>22</v>
+      </c>
+      <c r="F222" s="407">
+        <v>1</v>
+      </c>
+      <c r="G222" s="377"/>
+      <c r="H222" s="377">
+        <v>36500</v>
+      </c>
+      <c r="I222" s="101" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="4">
+        <v>5</v>
+      </c>
+      <c r="B223" s="3"/>
+      <c r="C223" s="378" t="s">
+        <v>197</v>
+      </c>
+      <c r="D223" s="376"/>
+      <c r="E223" s="407" t="s">
+        <v>22</v>
+      </c>
+      <c r="F223" s="407">
+        <v>1</v>
+      </c>
+      <c r="G223" s="377"/>
+      <c r="H223" s="377">
+        <v>24500</v>
+      </c>
+      <c r="I223" s="101" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="4">
+        <v>6</v>
+      </c>
+      <c r="B224" s="3"/>
+      <c r="C224" s="423" t="s">
+        <v>223</v>
+      </c>
+      <c r="D224" s="8"/>
+      <c r="E224" s="47"/>
+      <c r="F224" s="8">
+        <v>1</v>
+      </c>
+      <c r="G224" s="79"/>
+      <c r="H224" s="79">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="4">
+        <v>7</v>
+      </c>
+      <c r="B225" s="3"/>
+      <c r="C225" s="193" t="s">
+        <v>10</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E225" s="3"/>
+      <c r="F225" s="4">
+        <v>2</v>
+      </c>
+      <c r="G225" s="50">
+        <v>8000</v>
+      </c>
+      <c r="H225" s="50">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="4">
+        <v>8</v>
+      </c>
+      <c r="B226" s="3"/>
+      <c r="C226" s="378" t="s">
+        <v>451</v>
+      </c>
+      <c r="D226" s="376"/>
+      <c r="E226" s="407"/>
+      <c r="F226" s="376">
+        <v>4</v>
+      </c>
+      <c r="G226" s="377">
+        <v>2500</v>
+      </c>
+      <c r="H226" s="377">
+        <v>10000</v>
+      </c>
+      <c r="I226" s="101" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="4">
+        <v>9</v>
+      </c>
+      <c r="B227" s="3"/>
+      <c r="C227" s="378" t="s">
+        <v>281</v>
+      </c>
+      <c r="D227" s="376"/>
+      <c r="E227" s="407" t="s">
+        <v>8</v>
+      </c>
+      <c r="F227" s="376">
+        <v>2</v>
+      </c>
+      <c r="G227" s="377">
+        <v>44500</v>
+      </c>
+      <c r="H227" s="377">
+        <v>89000</v>
+      </c>
+      <c r="I227" s="101" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="4">
+        <v>10</v>
+      </c>
+      <c r="B228" s="3"/>
+      <c r="C228" s="378" t="s">
+        <v>281</v>
+      </c>
+      <c r="D228" s="376"/>
+      <c r="E228" s="407" t="s">
+        <v>14</v>
+      </c>
+      <c r="F228" s="376">
+        <v>1</v>
+      </c>
+      <c r="G228" s="377"/>
+      <c r="H228" s="377">
+        <v>12000</v>
+      </c>
+      <c r="I228" s="101" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4"/>
-      <c r="B229" s="4"/>
-      <c r="C229" s="391"/>
-      <c r="D229" s="83"/>
-      <c r="E229" s="83"/>
-      <c r="F229" s="83"/>
-      <c r="G229" s="84"/>
-      <c r="H229" s="84"/>
-    </row>
-    <row r="230" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B229" s="3"/>
+      <c r="C229" s="193"/>
+      <c r="D229" s="4"/>
+      <c r="E229" s="3"/>
+      <c r="F229" s="4"/>
+      <c r="G229" s="50"/>
+      <c r="H229" s="223">
+        <f>SUM(H219:H228)</f>
+        <v>247500</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="4"/>
-      <c r="B230" s="4"/>
-      <c r="C230" s="391"/>
-      <c r="D230" s="83"/>
-      <c r="E230" s="83"/>
-      <c r="F230" s="83"/>
-      <c r="G230" s="84"/>
-      <c r="H230" s="84"/>
-    </row>
-    <row r="231" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B230" s="3"/>
+      <c r="C230" s="260" t="s">
+        <v>452</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="E230" s="3"/>
+      <c r="F230" s="4">
+        <v>5</v>
+      </c>
+      <c r="G230" s="50">
+        <v>1700</v>
+      </c>
+      <c r="H230" s="50">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="4"/>
-      <c r="B231" s="4"/>
-      <c r="C231" s="192"/>
-      <c r="D231" s="83"/>
-      <c r="E231" s="83"/>
-      <c r="F231" s="83"/>
-      <c r="G231" s="84"/>
-      <c r="H231" s="84"/>
-    </row>
-    <row r="232" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B231" s="3"/>
+      <c r="C231" s="260" t="s">
+        <v>454</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="E231" s="3"/>
+      <c r="F231" s="4"/>
+      <c r="G231" s="50"/>
+      <c r="H231" s="50">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="4"/>
-      <c r="B232" s="4"/>
-      <c r="C232" s="192"/>
-      <c r="D232" s="83"/>
-      <c r="E232" s="83"/>
-      <c r="F232" s="83"/>
-      <c r="G232" s="84"/>
-      <c r="H232" s="84"/>
-    </row>
-    <row r="233" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="4"/>
-      <c r="B233" s="4"/>
-      <c r="C233" s="192"/>
-      <c r="D233" s="83"/>
-      <c r="E233" s="83"/>
-      <c r="F233" s="83"/>
-      <c r="G233" s="84"/>
-      <c r="H233" s="84"/>
-    </row>
-    <row r="234" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="4"/>
-      <c r="B234" s="4"/>
-      <c r="C234" s="192"/>
-      <c r="D234" s="83"/>
-      <c r="E234" s="83"/>
-      <c r="F234" s="83"/>
-      <c r="G234" s="84"/>
-      <c r="H234" s="84"/>
-    </row>
-    <row r="235" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B232" s="3"/>
+      <c r="C232" s="260" t="s">
+        <v>456</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="E232" s="3"/>
+      <c r="F232" s="3"/>
+      <c r="G232" s="50"/>
+      <c r="H232" s="50">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="418"/>
+      <c r="B233" s="418"/>
+      <c r="C233" s="231" t="s">
+        <v>457</v>
+      </c>
+      <c r="D233" s="418"/>
+      <c r="E233" s="418"/>
+      <c r="F233" s="418"/>
+      <c r="G233" s="418"/>
+      <c r="H233" s="373">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="419"/>
+      <c r="B234" s="419"/>
+      <c r="C234" s="419"/>
+      <c r="D234" s="419"/>
+      <c r="E234" s="419" t="s">
+        <v>266</v>
+      </c>
+      <c r="F234" s="419"/>
+      <c r="G234" s="419"/>
+      <c r="H234" s="420">
+        <f>SUM(H229:H233)</f>
+        <v>289900</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="391"/>
@@ -22126,9 +22450,9 @@
       <c r="E235" s="83"/>
       <c r="F235" s="83"/>
       <c r="G235" s="84"/>
-      <c r="H235" s="396"/>
-    </row>
-    <row r="236" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H235" s="395"/>
+    </row>
+    <row r="236" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="386"/>
@@ -22138,7 +22462,7 @@
       <c r="G236" s="84"/>
       <c r="H236" s="84"/>
     </row>
-    <row r="237" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="386"/>
@@ -22148,7 +22472,7 @@
       <c r="G237" s="84"/>
       <c r="H237" s="84"/>
     </row>
-    <row r="238" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="386"/>
@@ -22156,9 +22480,9 @@
       <c r="E238" s="83"/>
       <c r="F238" s="83"/>
       <c r="G238" s="84"/>
-      <c r="H238" s="396"/>
-    </row>
-    <row r="239" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H238" s="395"/>
+    </row>
+    <row r="239" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="391"/>
@@ -22168,7 +22492,7 @@
       <c r="G239" s="84"/>
       <c r="H239" s="84"/>
     </row>
-    <row r="240" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="391"/>
@@ -22196,7 +22520,7 @@
       <c r="E242" s="83"/>
       <c r="F242" s="83"/>
       <c r="G242" s="84"/>
-      <c r="H242" s="396"/>
+      <c r="H242" s="395"/>
     </row>
     <row r="243" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4"/>
@@ -22276,7 +22600,7 @@
       <c r="E250" s="83"/>
       <c r="F250" s="83"/>
       <c r="G250" s="84"/>
-      <c r="H250" s="396"/>
+      <c r="H250" s="395"/>
     </row>
     <row r="251" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4"/>
@@ -22306,7 +22630,7 @@
       <c r="E253" s="83"/>
       <c r="F253" s="83"/>
       <c r="G253" s="84"/>
-      <c r="H253" s="396"/>
+      <c r="H253" s="395"/>
     </row>
     <row r="254" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4"/>
@@ -22346,7 +22670,7 @@
       <c r="E257" s="83"/>
       <c r="F257" s="83"/>
       <c r="G257" s="84"/>
-      <c r="H257" s="395"/>
+      <c r="H257" s="394"/>
     </row>
     <row r="258" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="4"/>
@@ -22366,7 +22690,7 @@
       <c r="E259" s="83"/>
       <c r="F259" s="83"/>
       <c r="G259" s="84"/>
-      <c r="H259" s="395"/>
+      <c r="H259" s="394"/>
     </row>
     <row r="260" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4"/>
@@ -22446,7 +22770,7 @@
       <c r="E267" s="83"/>
       <c r="F267" s="83"/>
       <c r="G267" s="84"/>
-      <c r="H267" s="396"/>
+      <c r="H267" s="395"/>
     </row>
     <row r="268" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="4"/>
@@ -22772,294 +23096,392 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="413" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="413" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="413" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="413" customWidth="1"/>
-    <col min="5" max="6" width="4.7109375" style="413" customWidth="1"/>
-    <col min="7" max="7" width="11" style="413" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="413" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="413"/>
+    <col min="1" max="1" width="4.28515625" style="435" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="435" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" style="435" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="435" customWidth="1"/>
+    <col min="5" max="6" width="4.7109375" style="435" customWidth="1"/>
+    <col min="7" max="7" width="11" style="435" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="435" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="435"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="429" t="s">
-        <v>427</v>
-      </c>
-      <c r="B1" s="429"/>
-      <c r="C1" s="429"/>
-      <c r="D1" s="430"/>
-      <c r="E1" s="429"/>
-      <c r="F1" s="429"/>
-      <c r="G1" s="429"/>
-      <c r="H1" s="429"/>
-    </row>
-    <row r="2" spans="1:8" s="101" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="420" t="s">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="433" t="s">
+        <v>463</v>
+      </c>
+      <c r="B1" s="433"/>
+      <c r="C1" s="433"/>
+      <c r="D1" s="434"/>
+      <c r="E1" s="433"/>
+      <c r="F1" s="433"/>
+      <c r="G1" s="433"/>
+      <c r="H1" s="433"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="436" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="420" t="s">
+      <c r="B2" s="436" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="431" t="s">
+      <c r="C2" s="437" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="432"/>
-      <c r="E2" s="421" t="s">
+      <c r="D2" s="438"/>
+      <c r="E2" s="439" t="s">
         <v>116</v>
       </c>
-      <c r="F2" s="420" t="s">
+      <c r="F2" s="436" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="420" t="s">
+      <c r="G2" s="436" t="s">
         <v>184</v>
       </c>
-      <c r="H2" s="420" t="s">
+      <c r="H2" s="436" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="436">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="C3" s="188" t="s">
+        <v>458</v>
+      </c>
+      <c r="C3" s="440" t="s">
         <v>341</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3">
+      <c r="D3" s="436"/>
+      <c r="E3" s="436"/>
+      <c r="F3" s="436">
         <v>1</v>
       </c>
       <c r="G3" s="50"/>
       <c r="H3" s="50">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="436">
+        <v>2</v>
+      </c>
+      <c r="B4" s="436"/>
+      <c r="C4" s="446" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="436"/>
+      <c r="E4" s="436"/>
+      <c r="F4" s="436">
+        <v>2</v>
+      </c>
+      <c r="G4" s="50">
         <v>3500</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="H4" s="50">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="436">
+        <v>3</v>
+      </c>
+      <c r="B5" s="436"/>
+      <c r="C5" s="446" t="s">
+        <v>350</v>
+      </c>
+      <c r="D5" s="436"/>
+      <c r="E5" s="436"/>
+      <c r="F5" s="436">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="193" t="s">
-        <v>342</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3" t="s">
+      <c r="G5" s="50">
+        <v>2000</v>
+      </c>
+      <c r="H5" s="50">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="436">
+        <v>4</v>
+      </c>
+      <c r="B6" s="436"/>
+      <c r="C6" s="446" t="s">
+        <v>406</v>
+      </c>
+      <c r="D6" s="436"/>
+      <c r="E6" s="436" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="3">
-        <v>9</v>
-      </c>
-      <c r="G4" s="50">
+      <c r="F6" s="436">
+        <v>11</v>
+      </c>
+      <c r="G6" s="50">
         <v>4500</v>
       </c>
-      <c r="H4" s="50">
-        <v>40500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="193" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="193" t="s">
+      <c r="H6" s="50">
+        <v>49500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="436">
+        <v>5</v>
+      </c>
+      <c r="B7" s="436"/>
+      <c r="C7" s="447" t="s">
         <v>160</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="3" t="s">
+      <c r="D7" s="47" t="s">
+        <v>337</v>
+      </c>
+      <c r="E7" s="442" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50">
-        <v>30500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="193" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3">
-        <v>3</v>
-      </c>
-      <c r="G7" s="50">
-        <v>1750</v>
-      </c>
-      <c r="H7" s="50">
-        <v>5250</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="F7" s="442">
+        <v>1</v>
+      </c>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="436">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="260" t="s">
-        <v>197</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="B8" s="436"/>
+      <c r="C8" s="446" t="s">
+        <v>223</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="436"/>
+      <c r="F8" s="436">
         <v>1</v>
       </c>
       <c r="G8" s="50"/>
       <c r="H8" s="50">
-        <v>21350</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="436">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="260" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4">
+      <c r="B9" s="436"/>
+      <c r="C9" s="446" t="s">
+        <v>460</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="436"/>
+      <c r="F9" s="436">
         <v>1</v>
       </c>
       <c r="G9" s="50"/>
       <c r="H9" s="50">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="436">
         <v>8</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="193" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
-      <c r="G10" s="50"/>
+      <c r="B10" s="436"/>
+      <c r="C10" s="446" t="s">
+        <v>204</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="436" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="436">
+        <v>3</v>
+      </c>
+      <c r="G10" s="50">
+        <v>4700</v>
+      </c>
       <c r="H10" s="50">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="193"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
+        <v>14100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="436">
+        <v>9</v>
+      </c>
+      <c r="B11" s="436"/>
+      <c r="C11" s="446" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="436"/>
+      <c r="F11" s="436">
+        <v>1</v>
+      </c>
       <c r="G11" s="50"/>
-      <c r="H11" s="223">
-        <f>SUM(H3:H10)</f>
-        <v>117100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="193" t="s">
-        <v>449</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="50"/>
+      <c r="H11" s="50">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="436">
+        <v>10</v>
+      </c>
+      <c r="B12" s="436"/>
+      <c r="C12" s="446" t="s">
+        <v>356</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="436"/>
+      <c r="F12" s="436">
+        <v>4</v>
+      </c>
+      <c r="G12" s="50">
+        <v>3800</v>
+      </c>
       <c r="H12" s="50">
-        <v>22500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="193"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
+        <v>15200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="436">
+        <v>11</v>
+      </c>
+      <c r="B13" s="436"/>
+      <c r="C13" s="446" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="436" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="436">
+        <v>1</v>
+      </c>
       <c r="G13" s="50"/>
-      <c r="H13" s="223">
-        <f>SUM(H11:H12)</f>
-        <v>139600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="260"/>
+      <c r="H13" s="50">
+        <v>24500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="436">
+        <v>12</v>
+      </c>
+      <c r="B14" s="436"/>
+      <c r="C14" s="446" t="s">
+        <v>127</v>
+      </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
+      <c r="E14" s="436"/>
+      <c r="F14" s="436">
+        <v>1</v>
+      </c>
       <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-    </row>
-    <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="260"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
+      <c r="H14" s="50">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="436">
+        <v>13</v>
+      </c>
+      <c r="B15" s="436"/>
+      <c r="C15" s="446" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E15" s="436"/>
+      <c r="F15" s="436">
+        <v>1</v>
+      </c>
       <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-    </row>
-    <row r="16" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="260"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-    </row>
-    <row r="17" spans="5:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H17" s="374"/>
-    </row>
-    <row r="18" spans="5:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="413" t="s">
-        <v>266</v>
+      <c r="H15" s="50">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="436"/>
+      <c r="B16" s="436"/>
+      <c r="C16" s="193"/>
+      <c r="D16" s="436"/>
+      <c r="E16" s="436"/>
+      <c r="F16" s="436"/>
+      <c r="G16" s="441"/>
+      <c r="H16" s="223">
+        <f>SUM(H3:H15)</f>
+        <v>189550</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="436"/>
+      <c r="B17" s="436"/>
+      <c r="C17" s="193" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="436"/>
+      <c r="E17" s="436"/>
+      <c r="F17" s="436">
+        <v>1</v>
+      </c>
+      <c r="G17" s="441"/>
+      <c r="H17" s="50">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="443"/>
+      <c r="B18" s="443"/>
+      <c r="C18" s="440" t="s">
+        <v>461</v>
+      </c>
+      <c r="D18" s="443"/>
+      <c r="E18" s="443"/>
+      <c r="F18" s="436">
+        <v>1</v>
+      </c>
+      <c r="G18" s="443"/>
+      <c r="H18" s="373">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="443"/>
+      <c r="B19" s="443"/>
+      <c r="C19" s="444" t="s">
+        <v>430</v>
+      </c>
+      <c r="D19" s="400" t="s">
+        <v>462</v>
+      </c>
+      <c r="E19" s="443"/>
+      <c r="F19" s="443"/>
+      <c r="G19" s="443"/>
+      <c r="H19" s="373">
+        <v>31500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="445"/>
+      <c r="B20" s="445"/>
+      <c r="C20" s="445"/>
+      <c r="D20" s="445"/>
+      <c r="E20" s="445"/>
+      <c r="F20" s="445"/>
+      <c r="G20" s="445"/>
+      <c r="H20" s="432">
+        <f>SUM(H16:H19)</f>
+        <v>224250</v>
       </c>
     </row>
   </sheetData>

--- a/GB-3  Sales.xlsx
+++ b/GB-3  Sales.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1861" uniqueCount="466">
   <si>
     <t>Oil Filter</t>
   </si>
@@ -1419,7 +1419,7 @@
       <rPr>
         <b/>
         <u/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -1430,7 +1430,7 @@
     <r>
       <rPr>
         <u/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -1438,6 +1438,12 @@
       </rPr>
       <t xml:space="preserve"> ရွင္းေငြ</t>
     </r>
+  </si>
+  <si>
+    <t>22.8.2018</t>
+  </si>
+  <si>
+    <t>United brake Fluid</t>
   </si>
 </sst>
 </file>
@@ -1448,7 +1454,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1710,7 +1716,7 @@
     </font>
     <font>
       <u/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1719,7 +1725,7 @@
     <font>
       <b/>
       <u/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1727,22 +1733,7 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Zawgyi-One"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Zawgyi-One"/>
       <family val="2"/>
@@ -1980,7 +1971,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="448">
+  <cellXfs count="443">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3065,6 +3056,13 @@
     <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3077,44 +3075,26 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -6538,10 +6518,10 @@
       <c r="B1" s="198" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="428" t="s">
+      <c r="C1" s="431" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="429"/>
+      <c r="D1" s="432"/>
       <c r="E1" s="198" t="s">
         <v>116</v>
       </c>
@@ -11918,10 +11898,10 @@
       <c r="B1" s="333" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="430" t="s">
+      <c r="C1" s="433" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="431"/>
+      <c r="D1" s="434"/>
       <c r="E1" s="333" t="s">
         <v>116</v>
       </c>
@@ -17851,8 +17831,8 @@
   </sheetPr>
   <dimension ref="A1:Q298"/>
   <sheetViews>
-    <sheetView topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="M220" sqref="M220"/>
+    <sheetView topLeftCell="A233" workbookViewId="0">
+      <selection activeCell="L242" sqref="L242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17876,10 +17856,10 @@
       <c r="B1" s="333" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="430" t="s">
+      <c r="C1" s="433" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="431"/>
+      <c r="D1" s="434"/>
       <c r="E1" s="333" t="s">
         <v>116</v>
       </c>
@@ -22443,184 +22423,338 @@
       </c>
     </row>
     <row r="235" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="4"/>
-      <c r="B235" s="4"/>
-      <c r="C235" s="391"/>
-      <c r="D235" s="83"/>
-      <c r="E235" s="83"/>
-      <c r="F235" s="83"/>
-      <c r="G235" s="84"/>
-      <c r="H235" s="395"/>
+      <c r="A235" s="428">
+        <v>1</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="C235" s="188" t="s">
+        <v>341</v>
+      </c>
+      <c r="D235" s="428"/>
+      <c r="E235" s="4"/>
+      <c r="F235" s="4">
+        <v>1</v>
+      </c>
+      <c r="G235" s="50"/>
+      <c r="H235" s="50">
+        <v>5000</v>
+      </c>
     </row>
     <row r="236" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="4"/>
-      <c r="B236" s="4"/>
-      <c r="C236" s="386"/>
-      <c r="D236" s="83"/>
-      <c r="E236" s="83"/>
-      <c r="F236" s="83"/>
-      <c r="G236" s="84"/>
-      <c r="H236" s="84"/>
+      <c r="A236" s="428">
+        <v>2</v>
+      </c>
+      <c r="B236" s="428"/>
+      <c r="C236" s="193" t="s">
+        <v>109</v>
+      </c>
+      <c r="D236" s="428"/>
+      <c r="E236" s="4"/>
+      <c r="F236" s="4">
+        <v>2</v>
+      </c>
+      <c r="G236" s="50">
+        <v>3500</v>
+      </c>
+      <c r="H236" s="50">
+        <v>7000</v>
+      </c>
     </row>
     <row r="237" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="4"/>
-      <c r="B237" s="4"/>
-      <c r="C237" s="386"/>
-      <c r="D237" s="83"/>
-      <c r="E237" s="83"/>
-      <c r="F237" s="83"/>
-      <c r="G237" s="84"/>
-      <c r="H237" s="84"/>
+      <c r="A237" s="428">
+        <v>3</v>
+      </c>
+      <c r="B237" s="428"/>
+      <c r="C237" s="193" t="s">
+        <v>350</v>
+      </c>
+      <c r="D237" s="428"/>
+      <c r="E237" s="4"/>
+      <c r="F237" s="4">
+        <v>2</v>
+      </c>
+      <c r="G237" s="50">
+        <v>2000</v>
+      </c>
+      <c r="H237" s="50">
+        <v>4000</v>
+      </c>
     </row>
     <row r="238" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="4"/>
-      <c r="B238" s="4"/>
-      <c r="C238" s="386"/>
-      <c r="D238" s="83"/>
-      <c r="E238" s="83"/>
-      <c r="F238" s="83"/>
-      <c r="G238" s="84"/>
-      <c r="H238" s="395"/>
+      <c r="A238" s="428">
+        <v>4</v>
+      </c>
+      <c r="B238" s="428"/>
+      <c r="C238" s="193" t="s">
+        <v>406</v>
+      </c>
+      <c r="D238" s="428"/>
+      <c r="E238" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F238" s="4">
+        <v>11</v>
+      </c>
+      <c r="G238" s="50">
+        <v>4500</v>
+      </c>
+      <c r="H238" s="50">
+        <v>49500</v>
+      </c>
     </row>
     <row r="239" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="4"/>
-      <c r="B239" s="4"/>
-      <c r="C239" s="391"/>
-      <c r="D239" s="83"/>
-      <c r="E239" s="83"/>
-      <c r="F239" s="83"/>
-      <c r="G239" s="84"/>
-      <c r="H239" s="84"/>
+      <c r="A239" s="428">
+        <v>5</v>
+      </c>
+      <c r="B239" s="428"/>
+      <c r="C239" s="357" t="s">
+        <v>160</v>
+      </c>
+      <c r="D239" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="E239" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F239" s="8">
+        <v>1</v>
+      </c>
+      <c r="G239" s="79"/>
+      <c r="H239" s="79">
+        <v>32000</v>
+      </c>
     </row>
     <row r="240" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="4"/>
-      <c r="B240" s="4"/>
-      <c r="C240" s="391"/>
-      <c r="D240" s="83"/>
-      <c r="E240" s="83"/>
-      <c r="F240" s="83"/>
-      <c r="G240" s="84"/>
-      <c r="H240" s="84"/>
+      <c r="A240" s="428">
+        <v>6</v>
+      </c>
+      <c r="B240" s="428"/>
+      <c r="C240" s="193" t="s">
+        <v>223</v>
+      </c>
+      <c r="D240" s="4"/>
+      <c r="E240" s="4"/>
+      <c r="F240" s="4">
+        <v>1</v>
+      </c>
+      <c r="G240" s="50"/>
+      <c r="H240" s="50">
+        <v>2500</v>
+      </c>
     </row>
     <row r="241" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="4"/>
-      <c r="B241" s="4"/>
-      <c r="C241" s="192"/>
-      <c r="D241" s="83"/>
-      <c r="E241" s="83"/>
-      <c r="F241" s="83"/>
-      <c r="G241" s="84"/>
-      <c r="H241" s="84"/>
+      <c r="A241" s="428">
+        <v>7</v>
+      </c>
+      <c r="B241" s="428"/>
+      <c r="C241" s="193" t="s">
+        <v>460</v>
+      </c>
+      <c r="D241" s="4"/>
+      <c r="E241" s="4"/>
+      <c r="F241" s="4">
+        <v>1</v>
+      </c>
+      <c r="G241" s="50"/>
+      <c r="H241" s="50">
+        <v>4000</v>
+      </c>
     </row>
     <row r="242" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="4"/>
-      <c r="B242" s="4"/>
-      <c r="C242" s="192"/>
-      <c r="D242" s="83"/>
-      <c r="E242" s="83"/>
-      <c r="F242" s="83"/>
-      <c r="G242" s="84"/>
-      <c r="H242" s="395"/>
+      <c r="A242" s="428">
+        <v>8</v>
+      </c>
+      <c r="B242" s="428"/>
+      <c r="C242" s="193" t="s">
+        <v>204</v>
+      </c>
+      <c r="D242" s="4"/>
+      <c r="E242" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F242" s="4">
+        <v>3</v>
+      </c>
+      <c r="G242" s="50">
+        <v>4700</v>
+      </c>
+      <c r="H242" s="50">
+        <v>14100</v>
+      </c>
     </row>
     <row r="243" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="4"/>
-      <c r="B243" s="4"/>
-      <c r="C243" s="391"/>
-      <c r="D243" s="83"/>
-      <c r="E243" s="83"/>
-      <c r="F243" s="83"/>
-      <c r="G243" s="84"/>
-      <c r="H243" s="84"/>
+      <c r="A243" s="428">
+        <v>9</v>
+      </c>
+      <c r="B243" s="428"/>
+      <c r="C243" s="193" t="s">
+        <v>71</v>
+      </c>
+      <c r="D243" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E243" s="4"/>
+      <c r="F243" s="4">
+        <v>1</v>
+      </c>
+      <c r="G243" s="50"/>
+      <c r="H243" s="50">
+        <v>17000</v>
+      </c>
     </row>
     <row r="244" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="4"/>
-      <c r="B244" s="4"/>
-      <c r="C244" s="391"/>
-      <c r="D244" s="83"/>
-      <c r="E244" s="83"/>
-      <c r="F244" s="83"/>
-      <c r="G244" s="84"/>
-      <c r="H244" s="84"/>
+      <c r="A244" s="428">
+        <v>10</v>
+      </c>
+      <c r="B244" s="428"/>
+      <c r="C244" s="193" t="s">
+        <v>356</v>
+      </c>
+      <c r="D244" s="4"/>
+      <c r="E244" s="4"/>
+      <c r="F244" s="4">
+        <v>4</v>
+      </c>
+      <c r="G244" s="50">
+        <v>3800</v>
+      </c>
+      <c r="H244" s="50">
+        <v>15200</v>
+      </c>
     </row>
     <row r="245" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="4"/>
-      <c r="B245" s="4"/>
-      <c r="C245" s="192"/>
-      <c r="D245" s="83"/>
-      <c r="E245" s="83"/>
-      <c r="F245" s="83"/>
-      <c r="G245" s="84"/>
-      <c r="H245" s="84"/>
+      <c r="A245" s="428">
+        <v>11</v>
+      </c>
+      <c r="B245" s="428"/>
+      <c r="C245" s="193" t="s">
+        <v>151</v>
+      </c>
+      <c r="D245" s="4"/>
+      <c r="E245" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F245" s="4">
+        <v>1</v>
+      </c>
+      <c r="G245" s="50"/>
+      <c r="H245" s="50">
+        <v>24500</v>
+      </c>
     </row>
     <row r="246" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="4"/>
-      <c r="B246" s="4"/>
-      <c r="C246" s="192"/>
-      <c r="D246" s="83"/>
-      <c r="E246" s="83"/>
-      <c r="F246" s="83"/>
-      <c r="G246" s="84"/>
-      <c r="H246" s="84"/>
+      <c r="A246" s="428">
+        <v>12</v>
+      </c>
+      <c r="B246" s="428"/>
+      <c r="C246" s="193" t="s">
+        <v>127</v>
+      </c>
+      <c r="D246" s="4"/>
+      <c r="E246" s="4"/>
+      <c r="F246" s="4">
+        <v>1</v>
+      </c>
+      <c r="G246" s="50"/>
+      <c r="H246" s="50">
+        <v>1750</v>
+      </c>
     </row>
     <row r="247" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="4"/>
-      <c r="B247" s="4"/>
-      <c r="C247" s="192"/>
-      <c r="D247" s="83"/>
-      <c r="E247" s="83"/>
-      <c r="F247" s="83"/>
-      <c r="G247" s="84"/>
-      <c r="H247" s="84"/>
+      <c r="A247" s="428">
+        <v>13</v>
+      </c>
+      <c r="B247" s="428"/>
+      <c r="C247" s="193" t="s">
+        <v>27</v>
+      </c>
+      <c r="D247" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="E247" s="4"/>
+      <c r="F247" s="4">
+        <v>1</v>
+      </c>
+      <c r="G247" s="50"/>
+      <c r="H247" s="50">
+        <v>13000</v>
+      </c>
     </row>
     <row r="248" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="4"/>
-      <c r="B248" s="4"/>
-      <c r="C248" s="192"/>
-      <c r="D248" s="83"/>
-      <c r="E248" s="83"/>
-      <c r="F248" s="83"/>
-      <c r="G248" s="84"/>
-      <c r="H248" s="84"/>
+      <c r="A248" s="428"/>
+      <c r="B248" s="428"/>
+      <c r="C248" s="237"/>
+      <c r="D248" s="4"/>
+      <c r="E248" s="4"/>
+      <c r="F248" s="4"/>
+      <c r="G248" s="429"/>
+      <c r="H248" s="223">
+        <f>SUM(H235:H247)</f>
+        <v>189550</v>
+      </c>
     </row>
     <row r="249" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="4"/>
-      <c r="B249" s="4"/>
-      <c r="C249" s="391"/>
-      <c r="D249" s="83"/>
-      <c r="E249" s="83"/>
-      <c r="F249" s="83"/>
-      <c r="G249" s="84"/>
-      <c r="H249" s="84"/>
+      <c r="A249" s="428"/>
+      <c r="B249" s="428"/>
+      <c r="C249" s="193" t="s">
+        <v>124</v>
+      </c>
+      <c r="D249" s="428"/>
+      <c r="E249" s="4"/>
+      <c r="F249" s="4">
+        <v>1</v>
+      </c>
+      <c r="G249" s="429"/>
+      <c r="H249" s="50">
+        <v>1500</v>
+      </c>
     </row>
     <row r="250" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="4"/>
-      <c r="B250" s="4"/>
-      <c r="C250" s="386"/>
-      <c r="D250" s="83"/>
-      <c r="E250" s="83"/>
-      <c r="F250" s="83"/>
-      <c r="G250" s="84"/>
-      <c r="H250" s="395"/>
+      <c r="A250" s="430"/>
+      <c r="B250" s="430"/>
+      <c r="C250" s="231" t="s">
+        <v>461</v>
+      </c>
+      <c r="D250" s="430"/>
+      <c r="E250" s="23"/>
+      <c r="F250" s="4">
+        <v>1</v>
+      </c>
+      <c r="G250" s="430"/>
+      <c r="H250" s="373">
+        <v>1700</v>
+      </c>
     </row>
     <row r="251" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="4"/>
-      <c r="B251" s="4"/>
-      <c r="C251" s="386"/>
-      <c r="D251" s="83"/>
-      <c r="E251" s="83"/>
-      <c r="F251" s="83"/>
-      <c r="G251" s="84"/>
-      <c r="H251" s="84"/>
-    </row>
-    <row r="252" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="4"/>
-      <c r="B252" s="4"/>
-      <c r="C252" s="386"/>
-      <c r="D252" s="83"/>
-      <c r="E252" s="83"/>
-      <c r="F252" s="83"/>
-      <c r="G252" s="84"/>
-      <c r="H252" s="84"/>
+      <c r="A251" s="430"/>
+      <c r="B251" s="430"/>
+      <c r="C251" s="400" t="s">
+        <v>430</v>
+      </c>
+      <c r="D251" s="77" t="s">
+        <v>462</v>
+      </c>
+      <c r="E251" s="430"/>
+      <c r="F251" s="430"/>
+      <c r="G251" s="430"/>
+      <c r="H251" s="373">
+        <v>31500</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="430"/>
+      <c r="B252" s="430"/>
+      <c r="C252" s="430"/>
+      <c r="D252" s="430"/>
+      <c r="E252" s="430"/>
+      <c r="F252" s="430"/>
+      <c r="G252" s="430"/>
+      <c r="H252" s="367">
+        <f>SUM(H248:H251)</f>
+        <v>224250</v>
+      </c>
     </row>
     <row r="253" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="4"/>
@@ -23099,38 +23233,38 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="435" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="435" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" style="435" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="435" customWidth="1"/>
-    <col min="5" max="6" width="4.7109375" style="435" customWidth="1"/>
-    <col min="7" max="7" width="11" style="435" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="435" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="435"/>
+    <col min="1" max="1" width="4.28515625" style="101" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="101" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" style="101" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="101" customWidth="1"/>
+    <col min="5" max="6" width="4.7109375" style="101" customWidth="1"/>
+    <col min="7" max="7" width="11" style="101" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="101" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="101"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="433" t="s">
+    <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="435" t="s">
         <v>463</v>
       </c>
-      <c r="B1" s="433"/>
-      <c r="C1" s="433"/>
-      <c r="D1" s="434"/>
-      <c r="E1" s="433"/>
-      <c r="F1" s="433"/>
-      <c r="G1" s="433"/>
-      <c r="H1" s="433"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="436" t="s">
+      <c r="B1" s="435"/>
+      <c r="C1" s="435"/>
+      <c r="D1" s="436"/>
+      <c r="E1" s="435"/>
+      <c r="F1" s="435"/>
+      <c r="G1" s="435"/>
+      <c r="H1" s="435"/>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="436" t="s">
+      <c r="B2" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C2" s="437" t="s">
@@ -23140,349 +23274,245 @@
       <c r="E2" s="439" t="s">
         <v>116</v>
       </c>
-      <c r="F2" s="436" t="s">
+      <c r="F2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="436" t="s">
+      <c r="G2" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="H2" s="436" t="s">
+      <c r="H2" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="436">
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="C3" s="440" t="s">
-        <v>341</v>
-      </c>
-      <c r="D3" s="436"/>
-      <c r="E3" s="436"/>
-      <c r="F3" s="436">
-        <v>1</v>
-      </c>
-      <c r="G3" s="50"/>
+        <v>464</v>
+      </c>
+      <c r="C3" s="188" t="s">
+        <v>465</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4">
+        <v>2</v>
+      </c>
+      <c r="G3" s="50">
+        <v>3500</v>
+      </c>
       <c r="H3" s="50">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="436">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="436"/>
-      <c r="C4" s="446" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" s="436"/>
-      <c r="E4" s="436"/>
-      <c r="F4" s="436">
-        <v>2</v>
-      </c>
-      <c r="G4" s="50">
-        <v>3500</v>
-      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="193" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="50"/>
       <c r="H4" s="50">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="436">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="436"/>
-      <c r="C5" s="446" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="193" t="s">
         <v>350</v>
       </c>
-      <c r="D5" s="436"/>
-      <c r="E5" s="436"/>
-      <c r="F5" s="436">
-        <v>2</v>
-      </c>
-      <c r="G5" s="50">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50">
         <v>2000</v>
       </c>
-      <c r="H5" s="50">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="436">
+    </row>
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="436"/>
-      <c r="C6" s="446" t="s">
-        <v>406</v>
-      </c>
-      <c r="D6" s="436"/>
-      <c r="E6" s="436" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="436">
+      <c r="B6" s="4"/>
+      <c r="C6" s="246"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+    </row>
+    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="440"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+    </row>
+    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="246"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+    </row>
+    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="246"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+    </row>
+    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="246"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+    </row>
+    <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="246"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+    </row>
+    <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="246"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+    </row>
+    <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="G6" s="50">
-        <v>4500</v>
-      </c>
-      <c r="H6" s="50">
-        <v>49500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="436">
-        <v>5</v>
-      </c>
-      <c r="B7" s="436"/>
-      <c r="C7" s="447" t="s">
-        <v>160</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>337</v>
-      </c>
-      <c r="E7" s="442" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="442">
-        <v>1</v>
-      </c>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79">
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="436">
-        <v>6</v>
-      </c>
-      <c r="B8" s="436"/>
-      <c r="C8" s="446" t="s">
-        <v>223</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="436"/>
-      <c r="F8" s="436">
-        <v>1</v>
-      </c>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="436">
-        <v>7</v>
-      </c>
-      <c r="B9" s="436"/>
-      <c r="C9" s="446" t="s">
-        <v>460</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="436"/>
-      <c r="F9" s="436">
-        <v>1</v>
-      </c>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="436">
-        <v>8</v>
-      </c>
-      <c r="B10" s="436"/>
-      <c r="C10" s="446" t="s">
-        <v>204</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="436" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="436">
-        <v>3</v>
-      </c>
-      <c r="G10" s="50">
-        <v>4700</v>
-      </c>
-      <c r="H10" s="50">
-        <v>14100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="436">
-        <v>9</v>
-      </c>
-      <c r="B11" s="436"/>
-      <c r="C11" s="446" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="436"/>
-      <c r="F11" s="436">
-        <v>1</v>
-      </c>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50">
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="436">
-        <v>10</v>
-      </c>
-      <c r="B12" s="436"/>
-      <c r="C12" s="446" t="s">
-        <v>356</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="436"/>
-      <c r="F12" s="436">
-        <v>4</v>
-      </c>
-      <c r="G12" s="50">
-        <v>3800</v>
-      </c>
-      <c r="H12" s="50">
-        <v>15200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="436">
-        <v>11</v>
-      </c>
-      <c r="B13" s="436"/>
-      <c r="C13" s="446" t="s">
-        <v>151</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="436" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="436">
-        <v>1</v>
-      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="246"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
       <c r="G13" s="50"/>
-      <c r="H13" s="50">
-        <v>24500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="436">
+      <c r="H13" s="50"/>
+    </row>
+    <row r="14" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="436"/>
-      <c r="C14" s="446" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="436"/>
-      <c r="F14" s="436">
-        <v>1</v>
-      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="246"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
       <c r="G14" s="50"/>
-      <c r="H14" s="50">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="436">
+      <c r="H14" s="50"/>
+    </row>
+    <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="436"/>
-      <c r="C15" s="446" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="E15" s="436"/>
-      <c r="F15" s="436">
-        <v>1</v>
-      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="246"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
       <c r="G15" s="50"/>
-      <c r="H15" s="50">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="436"/>
-      <c r="B16" s="436"/>
-      <c r="C16" s="193"/>
-      <c r="D16" s="436"/>
-      <c r="E16" s="436"/>
-      <c r="F16" s="436"/>
-      <c r="G16" s="441"/>
-      <c r="H16" s="223">
-        <f>SUM(H3:H15)</f>
-        <v>189550</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="436"/>
-      <c r="B17" s="436"/>
-      <c r="C17" s="193" t="s">
-        <v>124</v>
-      </c>
-      <c r="D17" s="436"/>
-      <c r="E17" s="436"/>
-      <c r="F17" s="436">
-        <v>1</v>
-      </c>
-      <c r="G17" s="441"/>
-      <c r="H17" s="50">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="443"/>
-      <c r="B18" s="443"/>
-      <c r="C18" s="440" t="s">
-        <v>461</v>
-      </c>
-      <c r="D18" s="443"/>
-      <c r="E18" s="443"/>
-      <c r="F18" s="436">
-        <v>1</v>
-      </c>
-      <c r="G18" s="443"/>
-      <c r="H18" s="373">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="443"/>
-      <c r="B19" s="443"/>
-      <c r="C19" s="444" t="s">
-        <v>430</v>
-      </c>
-      <c r="D19" s="400" t="s">
-        <v>462</v>
-      </c>
-      <c r="E19" s="443"/>
-      <c r="F19" s="443"/>
-      <c r="G19" s="443"/>
-      <c r="H19" s="373">
-        <v>31500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="445"/>
-      <c r="B20" s="445"/>
-      <c r="C20" s="445"/>
-      <c r="D20" s="445"/>
-      <c r="E20" s="445"/>
-      <c r="F20" s="445"/>
-      <c r="G20" s="445"/>
-      <c r="H20" s="432">
-        <f>SUM(H16:H19)</f>
-        <v>224250</v>
-      </c>
+      <c r="H15" s="50"/>
+    </row>
+    <row r="16" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="246"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+    </row>
+    <row r="17" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="246"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+    </row>
+    <row r="18" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="188"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="373"/>
+    </row>
+    <row r="19" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="373"/>
+    </row>
+    <row r="20" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="441"/>
+      <c r="B20" s="441"/>
+      <c r="C20" s="441"/>
+      <c r="D20" s="441"/>
+      <c r="E20" s="441"/>
+      <c r="F20" s="441"/>
+      <c r="G20" s="441"/>
+      <c r="H20" s="442"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/GB-3  Sales.xlsx
+++ b/GB-3  Sales.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'August-2018'!$A$1:$H$155</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'August-2018'!$A$1:$H$261</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Juiy-2018'!$A$1:$H$118</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Jun-2018 -Sales'!$A$1:$H$256</definedName>
   </definedNames>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1861" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="475">
   <si>
     <t>Oil Filter</t>
   </si>
@@ -1293,9 +1293,6 @@
   </si>
   <si>
     <t>11.8.2018</t>
-  </si>
-  <si>
-    <t>1Pcsက်န္</t>
   </si>
   <si>
     <t>12.8.2018</t>
@@ -1445,6 +1442,36 @@
   <si>
     <t>United brake Fluid</t>
   </si>
+  <si>
+    <t>1Pcs</t>
+  </si>
+  <si>
+    <t>Meal 21*1500</t>
+  </si>
+  <si>
+    <t>ေကာ္ဘူး</t>
+  </si>
+  <si>
+    <t>အျကီး/အလတ္/အေသး</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                       </t>
+  </si>
+  <si>
+    <t>23.8.2018</t>
+  </si>
+  <si>
+    <t>မွန္ျကည္ေဆး</t>
+  </si>
+  <si>
+    <t>Meal 22*1500</t>
+  </si>
+  <si>
+    <t>Meal 1*1500</t>
+  </si>
+  <si>
+    <t>22/8</t>
+  </si>
 </sst>
 </file>
 
@@ -1454,7 +1481,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1738,6 +1765,21 @@
       <name val="Zawgyi-One"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1971,7 +2013,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="443">
+  <cellXfs count="446">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2840,7 +2882,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2858,10 +2899,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3063,6 +3100,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="39" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3087,14 +3148,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -6518,10 +6571,10 @@
       <c r="B1" s="198" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="431" t="s">
+      <c r="C1" s="438" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="432"/>
+      <c r="D1" s="439"/>
       <c r="E1" s="198" t="s">
         <v>116</v>
       </c>
@@ -6613,13 +6666,13 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="359"/>
+      <c r="A5" s="356"/>
       <c r="B5" s="153"/>
       <c r="C5" s="153"/>
-      <c r="D5" s="360"/>
-      <c r="E5" s="360"/>
-      <c r="F5" s="359"/>
-      <c r="G5" s="361"/>
+      <c r="D5" s="357"/>
+      <c r="E5" s="357"/>
+      <c r="F5" s="356"/>
+      <c r="G5" s="358"/>
       <c r="H5" s="104">
         <f>SUM(H2:H4)</f>
         <v>31850</v>
@@ -7296,8 +7349,8 @@
       <c r="F35" s="275">
         <v>1</v>
       </c>
-      <c r="G35" s="369"/>
-      <c r="H35" s="369">
+      <c r="G35" s="366"/>
+      <c r="H35" s="366">
         <v>4500</v>
       </c>
       <c r="I35" t="s">
@@ -8912,7 +8965,7 @@
         <v>5</v>
       </c>
       <c r="B112" s="155"/>
-      <c r="C112" s="350" t="s">
+      <c r="C112" s="349" t="s">
         <v>108</v>
       </c>
       <c r="D112" s="276"/>
@@ -11873,8 +11926,8 @@
   <dimension ref="A1:Q298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M286" sqref="M286"/>
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P126" sqref="P126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11898,10 +11951,10 @@
       <c r="B1" s="333" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="433" t="s">
+      <c r="C1" s="440" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="434"/>
+      <c r="D1" s="441"/>
       <c r="E1" s="333" t="s">
         <v>116</v>
       </c>
@@ -11916,17 +11969,17 @@
       </c>
       <c r="I1" s="335"/>
     </row>
-    <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="77" t="s">
         <v>243</v>
       </c>
-      <c r="C2" s="351" t="s">
+      <c r="C2" s="436" t="s">
         <v>251</v>
       </c>
-      <c r="D2" s="352"/>
+      <c r="D2" s="437"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8">
         <v>8</v>
@@ -11939,15 +11992,15 @@
       </c>
       <c r="I2" s="87"/>
     </row>
-    <row r="3" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="95"/>
-      <c r="C3" s="344" t="s">
+      <c r="C3" s="310" t="s">
         <v>252</v>
       </c>
-      <c r="D3" s="265"/>
+      <c r="D3" s="345"/>
       <c r="E3" s="275"/>
       <c r="F3" s="275">
         <v>1</v>
@@ -12095,7 +12148,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="95"/>
-      <c r="C10" s="345" t="s">
+      <c r="C10" s="344" t="s">
         <v>247</v>
       </c>
       <c r="D10" s="319"/>
@@ -12185,11 +12238,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="339"/>
-      <c r="C14" s="354" t="s">
+      <c r="C14" s="351" t="s">
         <v>250</v>
       </c>
       <c r="D14" s="8"/>
-      <c r="E14" s="353"/>
+      <c r="E14" s="350"/>
       <c r="F14" s="8">
         <v>1</v>
       </c>
@@ -12207,11 +12260,11 @@
         <v>161</v>
       </c>
       <c r="D15" s="275"/>
-      <c r="E15" s="347"/>
+      <c r="E15" s="346"/>
       <c r="F15" s="275">
         <v>1</v>
       </c>
-      <c r="G15" s="347"/>
+      <c r="G15" s="346"/>
       <c r="H15" s="325">
         <v>3150</v>
       </c>
@@ -12224,15 +12277,15 @@
         <v>15</v>
       </c>
       <c r="B16" s="23"/>
-      <c r="C16" s="364" t="s">
+      <c r="C16" s="361" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="365"/>
-      <c r="E16" s="365"/>
-      <c r="F16" s="366">
-        <v>1</v>
-      </c>
-      <c r="G16" s="365"/>
+      <c r="D16" s="362"/>
+      <c r="E16" s="362"/>
+      <c r="F16" s="363">
+        <v>1</v>
+      </c>
+      <c r="G16" s="362"/>
       <c r="H16" s="295">
         <v>4500</v>
       </c>
@@ -12248,7 +12301,7 @@
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
-      <c r="H17" s="367">
+      <c r="H17" s="364">
         <f>SUM(H2:H16)</f>
         <v>216450</v>
       </c>
@@ -12293,7 +12346,7 @@
       <c r="B20" s="240" t="s">
         <v>255</v>
       </c>
-      <c r="C20" s="362" t="s">
+      <c r="C20" s="359" t="s">
         <v>60</v>
       </c>
       <c r="D20" s="103" t="s">
@@ -12335,7 +12388,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="239"/>
-      <c r="C22" s="363" t="s">
+      <c r="C22" s="360" t="s">
         <v>257</v>
       </c>
       <c r="D22" s="239" t="s">
@@ -12377,16 +12430,16 @@
         <v>5</v>
       </c>
       <c r="B24" s="239"/>
-      <c r="C24" s="349" t="s">
+      <c r="C24" s="348" t="s">
         <v>109</v>
       </c>
-      <c r="D24" s="349"/>
-      <c r="E24" s="349"/>
-      <c r="F24" s="349">
-        <v>1</v>
-      </c>
-      <c r="G24" s="349"/>
-      <c r="H24" s="349">
+      <c r="D24" s="348"/>
+      <c r="E24" s="348"/>
+      <c r="F24" s="348">
+        <v>1</v>
+      </c>
+      <c r="G24" s="348"/>
+      <c r="H24" s="348">
         <v>3500</v>
       </c>
       <c r="I24" s="101" t="s">
@@ -12398,18 +12451,18 @@
         <v>6</v>
       </c>
       <c r="B25" s="239"/>
-      <c r="C25" s="349" t="s">
+      <c r="C25" s="348" t="s">
         <v>197</v>
       </c>
-      <c r="D25" s="349"/>
-      <c r="E25" s="349" t="s">
+      <c r="D25" s="348"/>
+      <c r="E25" s="348" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="349">
-        <v>1</v>
-      </c>
-      <c r="G25" s="349"/>
-      <c r="H25" s="349">
+      <c r="F25" s="348">
+        <v>1</v>
+      </c>
+      <c r="G25" s="348"/>
+      <c r="H25" s="348">
         <v>21350</v>
       </c>
       <c r="I25" s="101" t="s">
@@ -12421,16 +12474,16 @@
         <v>7</v>
       </c>
       <c r="B26" s="239"/>
-      <c r="C26" s="349" t="s">
+      <c r="C26" s="348" t="s">
         <v>127</v>
       </c>
-      <c r="D26" s="349"/>
-      <c r="E26" s="349"/>
+      <c r="D26" s="348"/>
+      <c r="E26" s="348"/>
       <c r="F26" s="278">
         <v>1</v>
       </c>
-      <c r="G26" s="349"/>
-      <c r="H26" s="349">
+      <c r="G26" s="348"/>
+      <c r="H26" s="348">
         <v>1750</v>
       </c>
       <c r="I26" s="101" t="s">
@@ -12442,16 +12495,16 @@
         <v>8</v>
       </c>
       <c r="B27" s="239"/>
-      <c r="C27" s="349" t="s">
+      <c r="C27" s="348" t="s">
         <v>206</v>
       </c>
-      <c r="D27" s="349"/>
-      <c r="E27" s="349"/>
-      <c r="F27" s="349">
-        <v>1</v>
-      </c>
-      <c r="G27" s="349"/>
-      <c r="H27" s="349">
+      <c r="D27" s="348"/>
+      <c r="E27" s="348"/>
+      <c r="F27" s="348">
+        <v>1</v>
+      </c>
+      <c r="G27" s="348"/>
+      <c r="H27" s="348">
         <v>4500</v>
       </c>
       <c r="I27" s="101" t="s">
@@ -12466,7 +12519,7 @@
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
-      <c r="H28" s="368">
+      <c r="H28" s="365">
         <f>SUM(H20:H27)</f>
         <v>135100</v>
       </c>
@@ -12481,7 +12534,7 @@
       <c r="C29" s="309" t="s">
         <v>262</v>
       </c>
-      <c r="D29" s="348"/>
+      <c r="D29" s="347"/>
       <c r="E29" s="275"/>
       <c r="F29" s="275">
         <v>1</v>
@@ -12643,16 +12696,16 @@
         <v>9</v>
       </c>
       <c r="B37" s="95"/>
-      <c r="C37" s="357" t="s">
+      <c r="C37" s="354" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="355"/>
+      <c r="D37" s="352"/>
       <c r="E37" s="235"/>
       <c r="F37" s="235">
         <v>1</v>
       </c>
-      <c r="G37" s="356"/>
-      <c r="H37" s="356">
+      <c r="G37" s="353"/>
+      <c r="H37" s="353">
         <v>4000</v>
       </c>
     </row>
@@ -13136,7 +13189,7 @@
         <v>3</v>
       </c>
       <c r="B61" s="27"/>
-      <c r="C61" s="358" t="s">
+      <c r="C61" s="355" t="s">
         <v>102</v>
       </c>
       <c r="D61" s="27"/>
@@ -13405,7 +13458,7 @@
         <v>3</v>
       </c>
       <c r="B74" s="4"/>
-      <c r="C74" s="357" t="s">
+      <c r="C74" s="354" t="s">
         <v>174</v>
       </c>
       <c r="D74" s="8"/>
@@ -13423,7 +13476,7 @@
         <v>4</v>
       </c>
       <c r="B75" s="4"/>
-      <c r="C75" s="345" t="s">
+      <c r="C75" s="344" t="s">
         <v>281</v>
       </c>
       <c r="D75" s="275"/>
@@ -13513,7 +13566,7 @@
         <v>8</v>
       </c>
       <c r="B79" s="4"/>
-      <c r="C79" s="357" t="s">
+      <c r="C79" s="354" t="s">
         <v>174</v>
       </c>
       <c r="D79" s="8"/>
@@ -13607,7 +13660,7 @@
         <v>3</v>
       </c>
       <c r="B84" s="4"/>
-      <c r="C84" s="345" t="s">
+      <c r="C84" s="344" t="s">
         <v>175</v>
       </c>
       <c r="D84" s="275"/>
@@ -13630,7 +13683,7 @@
         <v>4</v>
       </c>
       <c r="B85" s="4"/>
-      <c r="C85" s="345" t="s">
+      <c r="C85" s="344" t="s">
         <v>108</v>
       </c>
       <c r="D85" s="275"/>
@@ -13840,7 +13893,7 @@
         <v>4</v>
       </c>
       <c r="B95" s="4"/>
-      <c r="C95" s="357" t="s">
+      <c r="C95" s="354" t="s">
         <v>206</v>
       </c>
       <c r="D95" s="8"/>
@@ -13985,7 +14038,7 @@
         <v>3</v>
       </c>
       <c r="B102" s="4"/>
-      <c r="C102" s="357" t="s">
+      <c r="C102" s="354" t="s">
         <v>189</v>
       </c>
       <c r="D102" s="8"/>
@@ -14028,7 +14081,7 @@
         <v>5</v>
       </c>
       <c r="B104" s="4"/>
-      <c r="C104" s="357" t="s">
+      <c r="C104" s="354" t="s">
         <v>223</v>
       </c>
       <c r="D104" s="8"/>
@@ -14140,7 +14193,7 @@
       <c r="C109" s="313" t="s">
         <v>292</v>
       </c>
-      <c r="D109" s="346"/>
+      <c r="D109" s="345"/>
       <c r="E109" s="275" t="s">
         <v>14</v>
       </c>
@@ -14264,14 +14317,14 @@
         <v>2</v>
       </c>
       <c r="B115" s="4"/>
-      <c r="C115" s="364" t="s">
+      <c r="C115" s="361" t="s">
         <v>296</v>
       </c>
-      <c r="D115" s="366"/>
-      <c r="E115" s="366" t="s">
+      <c r="D115" s="363"/>
+      <c r="E115" s="363" t="s">
         <v>14</v>
       </c>
-      <c r="F115" s="366">
+      <c r="F115" s="363">
         <v>11</v>
       </c>
       <c r="G115" s="295">
@@ -14518,18 +14571,18 @@
         <v>8</v>
       </c>
       <c r="B127" s="4"/>
-      <c r="C127" s="388" t="s">
+      <c r="C127" s="385" t="s">
         <v>299</v>
       </c>
-      <c r="D127" s="389"/>
-      <c r="E127" s="389" t="s">
+      <c r="D127" s="386"/>
+      <c r="E127" s="386" t="s">
         <v>22</v>
       </c>
-      <c r="F127" s="389">
-        <v>1</v>
-      </c>
-      <c r="G127" s="390"/>
-      <c r="H127" s="390">
+      <c r="F127" s="386">
+        <v>1</v>
+      </c>
+      <c r="G127" s="387"/>
+      <c r="H127" s="387">
         <v>20400</v>
       </c>
       <c r="I127" s="101" t="s">
@@ -14617,7 +14670,7 @@
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
-      <c r="H132" s="370">
+      <c r="H132" s="367">
         <f>SUM(H129:H131)</f>
         <v>170150</v>
       </c>
@@ -14845,7 +14898,7 @@
       <c r="E143" s="258"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
-      <c r="H143" s="371">
+      <c r="H143" s="368">
         <f>SUM(H133:H142)</f>
         <v>229500</v>
       </c>
@@ -15061,18 +15114,18 @@
         <v>2</v>
       </c>
       <c r="B155" s="4"/>
-      <c r="C155" s="375" t="s">
+      <c r="C155" s="372" t="s">
         <v>160</v>
       </c>
-      <c r="D155" s="376"/>
-      <c r="E155" s="376" t="s">
+      <c r="D155" s="373"/>
+      <c r="E155" s="373" t="s">
         <v>22</v>
       </c>
-      <c r="F155" s="376">
-        <v>1</v>
-      </c>
-      <c r="G155" s="377"/>
-      <c r="H155" s="377">
+      <c r="F155" s="373">
+        <v>1</v>
+      </c>
+      <c r="G155" s="374"/>
+      <c r="H155" s="374">
         <v>30500</v>
       </c>
       <c r="I155" s="101" t="s">
@@ -15084,18 +15137,18 @@
         <v>3</v>
       </c>
       <c r="B156" s="4"/>
-      <c r="C156" s="378" t="s">
+      <c r="C156" s="375" t="s">
         <v>160</v>
       </c>
-      <c r="D156" s="376"/>
-      <c r="E156" s="376" t="s">
+      <c r="D156" s="373"/>
+      <c r="E156" s="373" t="s">
         <v>14</v>
       </c>
-      <c r="F156" s="376">
-        <v>1</v>
-      </c>
-      <c r="G156" s="377"/>
-      <c r="H156" s="377">
+      <c r="F156" s="373">
+        <v>1</v>
+      </c>
+      <c r="G156" s="374"/>
+      <c r="H156" s="374">
         <v>9500</v>
       </c>
       <c r="I156" s="101" t="s">
@@ -15107,20 +15160,20 @@
         <v>4</v>
       </c>
       <c r="B157" s="4"/>
-      <c r="C157" s="388" t="s">
+      <c r="C157" s="385" t="s">
         <v>320</v>
       </c>
-      <c r="D157" s="389"/>
-      <c r="E157" s="389"/>
-      <c r="F157" s="389">
-        <v>1</v>
-      </c>
-      <c r="G157" s="390"/>
-      <c r="H157" s="390">
+      <c r="D157" s="386"/>
+      <c r="E157" s="386"/>
+      <c r="F157" s="386">
+        <v>1</v>
+      </c>
+      <c r="G157" s="387"/>
+      <c r="H157" s="387">
         <v>3150</v>
       </c>
       <c r="I157" s="101" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -15148,18 +15201,18 @@
         <v>6</v>
       </c>
       <c r="B159" s="4"/>
-      <c r="C159" s="379" t="s">
+      <c r="C159" s="376" t="s">
         <v>228</v>
       </c>
-      <c r="D159" s="376"/>
-      <c r="E159" s="376" t="s">
+      <c r="D159" s="373"/>
+      <c r="E159" s="373" t="s">
         <v>22</v>
       </c>
-      <c r="F159" s="376">
-        <v>1</v>
-      </c>
-      <c r="G159" s="377"/>
-      <c r="H159" s="377">
+      <c r="F159" s="373">
+        <v>1</v>
+      </c>
+      <c r="G159" s="374"/>
+      <c r="H159" s="374">
         <v>22400</v>
       </c>
       <c r="I159" s="101" t="s">
@@ -15193,18 +15246,18 @@
         <v>8</v>
       </c>
       <c r="B161" s="4"/>
-      <c r="C161" s="378" t="s">
+      <c r="C161" s="375" t="s">
         <v>151</v>
       </c>
-      <c r="D161" s="376"/>
-      <c r="E161" s="376" t="s">
+      <c r="D161" s="373"/>
+      <c r="E161" s="373" t="s">
         <v>22</v>
       </c>
-      <c r="F161" s="376">
-        <v>1</v>
-      </c>
-      <c r="G161" s="377"/>
-      <c r="H161" s="377">
+      <c r="F161" s="373">
+        <v>1</v>
+      </c>
+      <c r="G161" s="374"/>
+      <c r="H161" s="374">
         <v>21350</v>
       </c>
       <c r="I161" s="101" t="s">
@@ -15216,16 +15269,16 @@
         <v>9</v>
       </c>
       <c r="B162" s="4"/>
-      <c r="C162" s="375" t="s">
+      <c r="C162" s="372" t="s">
         <v>127</v>
       </c>
-      <c r="D162" s="376"/>
-      <c r="E162" s="376"/>
-      <c r="F162" s="376">
-        <v>1</v>
-      </c>
-      <c r="G162" s="377"/>
-      <c r="H162" s="377">
+      <c r="D162" s="373"/>
+      <c r="E162" s="373"/>
+      <c r="F162" s="373">
+        <v>1</v>
+      </c>
+      <c r="G162" s="374"/>
+      <c r="H162" s="374">
         <v>1750</v>
       </c>
       <c r="I162" s="101" t="s">
@@ -15250,7 +15303,7 @@
         <v>10</v>
       </c>
       <c r="B164" s="255"/>
-      <c r="C164" s="372" t="s">
+      <c r="C164" s="369" t="s">
         <v>321</v>
       </c>
       <c r="D164" s="8" t="s">
@@ -15299,7 +15352,7 @@
         <v>1</v>
       </c>
       <c r="G166" s="255"/>
-      <c r="H166" s="373">
+      <c r="H166" s="370">
         <v>3500</v>
       </c>
     </row>
@@ -15311,7 +15364,7 @@
       <c r="E167" s="255"/>
       <c r="F167" s="255"/>
       <c r="G167" s="255"/>
-      <c r="H167" s="374">
+      <c r="H167" s="371">
         <f>SUM(H163:H166)</f>
         <v>139450</v>
       </c>
@@ -15343,18 +15396,18 @@
         <v>2</v>
       </c>
       <c r="B169" s="4"/>
-      <c r="C169" s="375" t="s">
+      <c r="C169" s="372" t="s">
         <v>197</v>
       </c>
-      <c r="D169" s="376"/>
-      <c r="E169" s="376" t="s">
+      <c r="D169" s="373"/>
+      <c r="E169" s="373" t="s">
         <v>22</v>
       </c>
-      <c r="F169" s="376">
-        <v>1</v>
-      </c>
-      <c r="G169" s="377"/>
-      <c r="H169" s="377">
+      <c r="F169" s="373">
+        <v>1</v>
+      </c>
+      <c r="G169" s="374"/>
+      <c r="H169" s="374">
         <v>21350</v>
       </c>
       <c r="I169" s="101" t="s">
@@ -15366,16 +15419,16 @@
         <v>3</v>
       </c>
       <c r="B170" s="4"/>
-      <c r="C170" s="378" t="s">
+      <c r="C170" s="375" t="s">
         <v>326</v>
       </c>
-      <c r="D170" s="376"/>
-      <c r="E170" s="376"/>
-      <c r="F170" s="376">
-        <v>1</v>
-      </c>
-      <c r="G170" s="377"/>
-      <c r="H170" s="377">
+      <c r="D170" s="373"/>
+      <c r="E170" s="373"/>
+      <c r="F170" s="373">
+        <v>1</v>
+      </c>
+      <c r="G170" s="374"/>
+      <c r="H170" s="374">
         <v>2650</v>
       </c>
       <c r="I170" s="101" t="s">
@@ -15387,18 +15440,18 @@
         <v>4</v>
       </c>
       <c r="B171" s="4"/>
-      <c r="C171" s="388" t="s">
+      <c r="C171" s="385" t="s">
         <v>303</v>
       </c>
-      <c r="D171" s="389"/>
-      <c r="E171" s="389"/>
-      <c r="F171" s="389">
+      <c r="D171" s="386"/>
+      <c r="E171" s="386"/>
+      <c r="F171" s="386">
         <v>4</v>
       </c>
-      <c r="G171" s="390">
+      <c r="G171" s="387">
         <v>3150</v>
       </c>
-      <c r="H171" s="390">
+      <c r="H171" s="387">
         <v>12600</v>
       </c>
       <c r="I171" s="101" t="s">
@@ -15410,18 +15463,18 @@
         <v>5</v>
       </c>
       <c r="B172" s="4"/>
-      <c r="C172" s="375" t="s">
+      <c r="C172" s="372" t="s">
         <v>200</v>
       </c>
-      <c r="D172" s="376"/>
-      <c r="E172" s="376" t="s">
+      <c r="D172" s="373"/>
+      <c r="E172" s="373" t="s">
         <v>8</v>
       </c>
-      <c r="F172" s="376">
-        <v>1</v>
-      </c>
-      <c r="G172" s="377"/>
-      <c r="H172" s="377">
+      <c r="F172" s="373">
+        <v>1</v>
+      </c>
+      <c r="G172" s="374"/>
+      <c r="H172" s="374">
         <v>40500</v>
       </c>
       <c r="I172" s="101" t="s">
@@ -15433,16 +15486,16 @@
         <v>6</v>
       </c>
       <c r="B173" s="4"/>
-      <c r="C173" s="379" t="s">
+      <c r="C173" s="376" t="s">
         <v>189</v>
       </c>
-      <c r="D173" s="376"/>
-      <c r="E173" s="376"/>
-      <c r="F173" s="376">
-        <v>1</v>
-      </c>
-      <c r="G173" s="377"/>
-      <c r="H173" s="377">
+      <c r="D173" s="373"/>
+      <c r="E173" s="373"/>
+      <c r="F173" s="373">
+        <v>1</v>
+      </c>
+      <c r="G173" s="374"/>
+      <c r="H173" s="374">
         <v>2650</v>
       </c>
       <c r="I173" s="101" t="s">
@@ -15454,18 +15507,18 @@
         <v>7</v>
       </c>
       <c r="B174" s="4"/>
-      <c r="C174" s="379" t="s">
+      <c r="C174" s="376" t="s">
         <v>228</v>
       </c>
-      <c r="D174" s="376"/>
-      <c r="E174" s="376" t="s">
+      <c r="D174" s="373"/>
+      <c r="E174" s="373" t="s">
         <v>22</v>
       </c>
-      <c r="F174" s="376">
-        <v>1</v>
-      </c>
-      <c r="G174" s="377"/>
-      <c r="H174" s="377">
+      <c r="F174" s="373">
+        <v>1</v>
+      </c>
+      <c r="G174" s="374"/>
+      <c r="H174" s="374">
         <v>22400</v>
       </c>
       <c r="I174" s="101" t="s">
@@ -15477,16 +15530,16 @@
         <v>8</v>
       </c>
       <c r="B175" s="4"/>
-      <c r="C175" s="379" t="s">
+      <c r="C175" s="376" t="s">
         <v>329</v>
       </c>
-      <c r="D175" s="376"/>
-      <c r="E175" s="376"/>
-      <c r="F175" s="376">
-        <v>1</v>
-      </c>
-      <c r="G175" s="377"/>
-      <c r="H175" s="377">
+      <c r="D175" s="373"/>
+      <c r="E175" s="373"/>
+      <c r="F175" s="373">
+        <v>1</v>
+      </c>
+      <c r="G175" s="374"/>
+      <c r="H175" s="374">
         <v>3350</v>
       </c>
       <c r="I175" s="101" t="s">
@@ -15509,7 +15562,7 @@
     <row r="177" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
-      <c r="C177" s="396" t="s">
+      <c r="C177" s="393" t="s">
         <v>189</v>
       </c>
       <c r="D177" s="235" t="s">
@@ -15519,31 +15572,31 @@
       <c r="F177" s="235">
         <v>1</v>
       </c>
-      <c r="G177" s="356"/>
-      <c r="H177" s="356">
+      <c r="G177" s="353"/>
+      <c r="H177" s="353">
         <v>2650</v>
       </c>
-      <c r="I177" s="399"/>
+      <c r="I177" s="396"/>
     </row>
     <row r="178" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
-      <c r="C178" s="397" t="s">
+      <c r="C178" s="394" t="s">
         <v>108</v>
       </c>
-      <c r="D178" s="389" t="s">
+      <c r="D178" s="386" t="s">
         <v>332</v>
       </c>
-      <c r="E178" s="389"/>
-      <c r="F178" s="389">
-        <v>1</v>
-      </c>
-      <c r="G178" s="390"/>
-      <c r="H178" s="390">
+      <c r="E178" s="386"/>
+      <c r="F178" s="386">
+        <v>1</v>
+      </c>
+      <c r="G178" s="387"/>
+      <c r="H178" s="387">
         <v>3500</v>
       </c>
       <c r="I178" s="101" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -15592,18 +15645,18 @@
     <row r="182" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
-      <c r="C182" s="378" t="s">
+      <c r="C182" s="375" t="s">
         <v>223</v>
       </c>
-      <c r="D182" s="376" t="s">
+      <c r="D182" s="373" t="s">
         <v>327</v>
       </c>
-      <c r="E182" s="376"/>
-      <c r="F182" s="376">
-        <v>1</v>
-      </c>
-      <c r="G182" s="377"/>
-      <c r="H182" s="377"/>
+      <c r="E182" s="373"/>
+      <c r="F182" s="373">
+        <v>1</v>
+      </c>
+      <c r="G182" s="374"/>
+      <c r="H182" s="374"/>
       <c r="I182" s="101" t="s">
         <v>334</v>
       </c>
@@ -15611,18 +15664,18 @@
     <row r="183" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="27"/>
       <c r="B183" s="27"/>
-      <c r="C183" s="380" t="s">
+      <c r="C183" s="377" t="s">
         <v>54</v>
       </c>
-      <c r="D183" s="381" t="s">
+      <c r="D183" s="378" t="s">
         <v>328</v>
       </c>
-      <c r="E183" s="381"/>
-      <c r="F183" s="381">
-        <v>1</v>
-      </c>
-      <c r="G183" s="382"/>
-      <c r="H183" s="382"/>
+      <c r="E183" s="378"/>
+      <c r="F183" s="378">
+        <v>1</v>
+      </c>
+      <c r="G183" s="379"/>
+      <c r="H183" s="379"/>
       <c r="I183" s="101" t="s">
         <v>334</v>
       </c>
@@ -15634,16 +15687,16 @@
       <c r="B184" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="C184" s="375" t="s">
+      <c r="C184" s="372" t="s">
         <v>132</v>
       </c>
-      <c r="D184" s="376"/>
-      <c r="E184" s="376"/>
-      <c r="F184" s="376">
-        <v>1</v>
-      </c>
-      <c r="G184" s="377"/>
-      <c r="H184" s="377">
+      <c r="D184" s="373"/>
+      <c r="E184" s="373"/>
+      <c r="F184" s="373">
+        <v>1</v>
+      </c>
+      <c r="G184" s="374"/>
+      <c r="H184" s="374">
         <v>2900</v>
       </c>
       <c r="I184" s="101" t="s">
@@ -15655,20 +15708,20 @@
         <v>2</v>
       </c>
       <c r="B185" s="4"/>
-      <c r="C185" s="416" t="s">
+      <c r="C185" s="413" t="s">
         <v>108</v>
       </c>
-      <c r="D185" s="389"/>
-      <c r="E185" s="389"/>
-      <c r="F185" s="389">
-        <v>1</v>
-      </c>
-      <c r="G185" s="390"/>
-      <c r="H185" s="390">
+      <c r="D185" s="386"/>
+      <c r="E185" s="386"/>
+      <c r="F185" s="386">
+        <v>1</v>
+      </c>
+      <c r="G185" s="387"/>
+      <c r="H185" s="387">
         <v>3500</v>
       </c>
       <c r="I185" s="101" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -15676,16 +15729,16 @@
         <v>3</v>
       </c>
       <c r="B186" s="4"/>
-      <c r="C186" s="378" t="s">
+      <c r="C186" s="375" t="s">
         <v>331</v>
       </c>
-      <c r="D186" s="376"/>
-      <c r="E186" s="376"/>
-      <c r="F186" s="376">
-        <v>1</v>
-      </c>
-      <c r="G186" s="377"/>
-      <c r="H186" s="377">
+      <c r="D186" s="373"/>
+      <c r="E186" s="373"/>
+      <c r="F186" s="373">
+        <v>1</v>
+      </c>
+      <c r="G186" s="374"/>
+      <c r="H186" s="374">
         <v>1500</v>
       </c>
       <c r="I186" s="101" t="s">
@@ -15697,20 +15750,20 @@
         <v>4</v>
       </c>
       <c r="B187" s="4"/>
-      <c r="C187" s="378" t="s">
+      <c r="C187" s="375" t="s">
         <v>204</v>
       </c>
-      <c r="D187" s="376"/>
-      <c r="E187" s="376" t="s">
+      <c r="D187" s="373"/>
+      <c r="E187" s="373" t="s">
         <v>14</v>
       </c>
-      <c r="F187" s="376">
+      <c r="F187" s="373">
         <v>3</v>
       </c>
-      <c r="G187" s="377">
+      <c r="G187" s="374">
         <v>4700</v>
       </c>
-      <c r="H187" s="377">
+      <c r="H187" s="374">
         <v>14100</v>
       </c>
       <c r="I187" s="101" t="s">
@@ -15722,18 +15775,18 @@
         <v>5</v>
       </c>
       <c r="B188" s="4"/>
-      <c r="C188" s="378" t="s">
+      <c r="C188" s="375" t="s">
         <v>151</v>
       </c>
-      <c r="D188" s="376"/>
-      <c r="E188" s="376" t="s">
+      <c r="D188" s="373"/>
+      <c r="E188" s="373" t="s">
         <v>22</v>
       </c>
-      <c r="F188" s="376">
-        <v>1</v>
-      </c>
-      <c r="G188" s="377"/>
-      <c r="H188" s="377">
+      <c r="F188" s="373">
+        <v>1</v>
+      </c>
+      <c r="G188" s="374"/>
+      <c r="H188" s="374">
         <v>21350</v>
       </c>
       <c r="I188" s="101" t="s">
@@ -15745,16 +15798,16 @@
         <v>6</v>
       </c>
       <c r="B189" s="4"/>
-      <c r="C189" s="378" t="s">
+      <c r="C189" s="375" t="s">
         <v>223</v>
       </c>
-      <c r="D189" s="376"/>
-      <c r="E189" s="376"/>
-      <c r="F189" s="376">
-        <v>1</v>
-      </c>
-      <c r="G189" s="377"/>
-      <c r="H189" s="377">
+      <c r="D189" s="373"/>
+      <c r="E189" s="373"/>
+      <c r="F189" s="373">
+        <v>1</v>
+      </c>
+      <c r="G189" s="374"/>
+      <c r="H189" s="374">
         <v>2500</v>
       </c>
       <c r="I189" s="101" t="s">
@@ -15769,7 +15822,7 @@
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
       <c r="G190" s="50"/>
-      <c r="H190" s="384">
+      <c r="H190" s="381">
         <f>SUM(H184:H189)</f>
         <v>45850</v>
       </c>
@@ -15777,20 +15830,20 @@
     <row r="191" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
-      <c r="C191" s="379" t="s">
+      <c r="C191" s="376" t="s">
         <v>311</v>
       </c>
-      <c r="D191" s="376" t="s">
+      <c r="D191" s="373" t="s">
         <v>333</v>
       </c>
-      <c r="E191" s="376"/>
-      <c r="F191" s="376">
+      <c r="E191" s="373"/>
+      <c r="F191" s="373">
         <v>2</v>
       </c>
-      <c r="G191" s="377">
+      <c r="G191" s="374">
         <v>3500</v>
       </c>
-      <c r="H191" s="377">
+      <c r="H191" s="374">
         <v>7000</v>
       </c>
       <c r="I191" s="101" t="s">
@@ -15800,20 +15853,20 @@
     <row r="192" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
-      <c r="C192" s="379" t="s">
+      <c r="C192" s="376" t="s">
         <v>197</v>
       </c>
-      <c r="D192" s="376" t="s">
+      <c r="D192" s="373" t="s">
         <v>165</v>
       </c>
-      <c r="E192" s="376" t="s">
+      <c r="E192" s="373" t="s">
         <v>22</v>
       </c>
-      <c r="F192" s="376">
-        <v>1</v>
-      </c>
-      <c r="G192" s="377"/>
-      <c r="H192" s="377">
+      <c r="F192" s="373">
+        <v>1</v>
+      </c>
+      <c r="G192" s="374"/>
+      <c r="H192" s="374">
         <v>21350</v>
       </c>
       <c r="I192" s="101" t="s">
@@ -15828,7 +15881,7 @@
       <c r="E193" s="4"/>
       <c r="F193" s="4"/>
       <c r="G193" s="50"/>
-      <c r="H193" s="384">
+      <c r="H193" s="381">
         <f>SUM(H190:H192)</f>
         <v>74200</v>
       </c>
@@ -15876,18 +15929,18 @@
         <v>3</v>
       </c>
       <c r="B196" s="4"/>
-      <c r="C196" s="378" t="s">
+      <c r="C196" s="375" t="s">
         <v>197</v>
       </c>
-      <c r="D196" s="376"/>
-      <c r="E196" s="376" t="s">
+      <c r="D196" s="373"/>
+      <c r="E196" s="373" t="s">
         <v>22</v>
       </c>
-      <c r="F196" s="376">
-        <v>1</v>
-      </c>
-      <c r="G196" s="377"/>
-      <c r="H196" s="377">
+      <c r="F196" s="373">
+        <v>1</v>
+      </c>
+      <c r="G196" s="374"/>
+      <c r="H196" s="374">
         <v>21350</v>
       </c>
       <c r="I196" s="101" t="s">
@@ -15937,20 +15990,20 @@
         <v>6</v>
       </c>
       <c r="B199" s="4"/>
-      <c r="C199" s="388" t="s">
+      <c r="C199" s="385" t="s">
         <v>108</v>
       </c>
-      <c r="D199" s="389"/>
-      <c r="E199" s="389"/>
-      <c r="F199" s="389">
-        <v>1</v>
-      </c>
-      <c r="G199" s="390"/>
-      <c r="H199" s="390">
+      <c r="D199" s="386"/>
+      <c r="E199" s="386"/>
+      <c r="F199" s="386">
+        <v>1</v>
+      </c>
+      <c r="G199" s="387"/>
+      <c r="H199" s="387">
         <v>3500</v>
       </c>
       <c r="I199" s="101" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -15998,7 +16051,7 @@
         <v>9</v>
       </c>
       <c r="B202" s="4"/>
-      <c r="C202" s="387" t="s">
+      <c r="C202" s="384" t="s">
         <v>339</v>
       </c>
       <c r="D202" s="275"/>
@@ -16029,14 +16082,14 @@
     <row r="204" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
-      <c r="C204" s="398" t="s">
+      <c r="C204" s="395" t="s">
         <v>197</v>
       </c>
-      <c r="D204" s="366"/>
-      <c r="E204" s="366" t="s">
+      <c r="D204" s="363"/>
+      <c r="E204" s="363" t="s">
         <v>22</v>
       </c>
-      <c r="F204" s="366">
+      <c r="F204" s="363">
         <v>1</v>
       </c>
       <c r="G204" s="295"/>
@@ -16047,34 +16100,34 @@
     <row r="205" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
-      <c r="C205" s="379" t="s">
+      <c r="C205" s="376" t="s">
         <v>127</v>
       </c>
-      <c r="D205" s="376"/>
-      <c r="E205" s="376"/>
-      <c r="F205" s="376">
-        <v>1</v>
-      </c>
-      <c r="G205" s="377"/>
-      <c r="H205" s="377">
+      <c r="D205" s="373"/>
+      <c r="E205" s="373"/>
+      <c r="F205" s="373">
+        <v>1</v>
+      </c>
+      <c r="G205" s="374"/>
+      <c r="H205" s="374">
         <v>1750</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
-      <c r="C206" s="397" t="s">
+      <c r="C206" s="394" t="s">
         <v>338</v>
       </c>
-      <c r="D206" s="389" t="s">
+      <c r="D206" s="386" t="s">
         <v>337</v>
       </c>
-      <c r="E206" s="389"/>
-      <c r="F206" s="389">
+      <c r="E206" s="386"/>
+      <c r="F206" s="386">
         <v>4</v>
       </c>
-      <c r="G206" s="390"/>
-      <c r="H206" s="406" t="s">
+      <c r="G206" s="387"/>
+      <c r="H206" s="403" t="s">
         <v>153</v>
       </c>
       <c r="I206" s="101" t="s">
@@ -16089,7 +16142,7 @@
       <c r="E207" s="23"/>
       <c r="F207" s="23"/>
       <c r="G207" s="23"/>
-      <c r="H207" s="383">
+      <c r="H207" s="380">
         <f>SUM(H203:H206)</f>
         <v>130650</v>
       </c>
@@ -16101,16 +16154,16 @@
       <c r="B208" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="C208" s="375" t="s">
+      <c r="C208" s="372" t="s">
         <v>132</v>
       </c>
-      <c r="D208" s="376"/>
-      <c r="E208" s="376"/>
-      <c r="F208" s="376">
-        <v>1</v>
-      </c>
-      <c r="G208" s="377"/>
-      <c r="H208" s="377">
+      <c r="D208" s="373"/>
+      <c r="E208" s="373"/>
+      <c r="F208" s="373">
+        <v>1</v>
+      </c>
+      <c r="G208" s="374"/>
+      <c r="H208" s="374">
         <v>2900</v>
       </c>
     </row>
@@ -16119,16 +16172,16 @@
         <v>2</v>
       </c>
       <c r="B209" s="4"/>
-      <c r="C209" s="375" t="s">
+      <c r="C209" s="372" t="s">
         <v>341</v>
       </c>
-      <c r="D209" s="376"/>
-      <c r="E209" s="376"/>
-      <c r="F209" s="376">
-        <v>1</v>
-      </c>
-      <c r="G209" s="377"/>
-      <c r="H209" s="377">
+      <c r="D209" s="373"/>
+      <c r="E209" s="373"/>
+      <c r="F209" s="373">
+        <v>1</v>
+      </c>
+      <c r="G209" s="374"/>
+      <c r="H209" s="374">
         <v>3500</v>
       </c>
     </row>
@@ -16137,20 +16190,20 @@
         <v>3</v>
       </c>
       <c r="B210" s="4"/>
-      <c r="C210" s="378" t="s">
+      <c r="C210" s="375" t="s">
         <v>342</v>
       </c>
-      <c r="D210" s="376"/>
-      <c r="E210" s="376" t="s">
+      <c r="D210" s="373"/>
+      <c r="E210" s="373" t="s">
         <v>14</v>
       </c>
-      <c r="F210" s="376">
+      <c r="F210" s="373">
         <v>4</v>
       </c>
-      <c r="G210" s="377">
+      <c r="G210" s="374">
         <v>4500</v>
       </c>
-      <c r="H210" s="377">
+      <c r="H210" s="374">
         <v>18000</v>
       </c>
     </row>
@@ -16159,16 +16212,16 @@
         <v>4</v>
       </c>
       <c r="B211" s="4"/>
-      <c r="C211" s="378" t="s">
+      <c r="C211" s="375" t="s">
         <v>109</v>
       </c>
-      <c r="D211" s="376"/>
-      <c r="E211" s="376"/>
-      <c r="F211" s="376">
-        <v>1</v>
-      </c>
-      <c r="G211" s="377"/>
-      <c r="H211" s="377">
+      <c r="D211" s="373"/>
+      <c r="E211" s="373"/>
+      <c r="F211" s="373">
+        <v>1</v>
+      </c>
+      <c r="G211" s="374"/>
+      <c r="H211" s="374">
         <v>3500</v>
       </c>
     </row>
@@ -16177,18 +16230,18 @@
         <v>5</v>
       </c>
       <c r="B212" s="4"/>
-      <c r="C212" s="378" t="s">
+      <c r="C212" s="375" t="s">
         <v>160</v>
       </c>
-      <c r="D212" s="376"/>
-      <c r="E212" s="376" t="s">
+      <c r="D212" s="373"/>
+      <c r="E212" s="373" t="s">
         <v>14</v>
       </c>
-      <c r="F212" s="376">
-        <v>1</v>
-      </c>
-      <c r="G212" s="377"/>
-      <c r="H212" s="377">
+      <c r="F212" s="373">
+        <v>1</v>
+      </c>
+      <c r="G212" s="374"/>
+      <c r="H212" s="374">
         <v>9500</v>
       </c>
     </row>
@@ -16212,16 +16265,16 @@
       <c r="B214" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="C214" s="375" t="s">
+      <c r="C214" s="372" t="s">
         <v>54</v>
       </c>
-      <c r="D214" s="376"/>
-      <c r="E214" s="376"/>
-      <c r="F214" s="376">
-        <v>1</v>
-      </c>
-      <c r="G214" s="377"/>
-      <c r="H214" s="377">
+      <c r="D214" s="373"/>
+      <c r="E214" s="373"/>
+      <c r="F214" s="373">
+        <v>1</v>
+      </c>
+      <c r="G214" s="374"/>
+      <c r="H214" s="374">
         <v>4500</v>
       </c>
     </row>
@@ -16230,18 +16283,18 @@
         <v>2</v>
       </c>
       <c r="B215" s="4"/>
-      <c r="C215" s="375" t="s">
+      <c r="C215" s="372" t="s">
         <v>176</v>
       </c>
-      <c r="D215" s="376"/>
-      <c r="E215" s="376" t="s">
+      <c r="D215" s="373"/>
+      <c r="E215" s="373" t="s">
         <v>22</v>
       </c>
-      <c r="F215" s="376">
-        <v>1</v>
-      </c>
-      <c r="G215" s="377"/>
-      <c r="H215" s="377">
+      <c r="F215" s="373">
+        <v>1</v>
+      </c>
+      <c r="G215" s="374"/>
+      <c r="H215" s="374">
         <v>30500</v>
       </c>
     </row>
@@ -16250,16 +16303,16 @@
         <v>3</v>
       </c>
       <c r="B216" s="4"/>
-      <c r="C216" s="378" t="s">
+      <c r="C216" s="375" t="s">
         <v>127</v>
       </c>
-      <c r="D216" s="376"/>
-      <c r="E216" s="376"/>
-      <c r="F216" s="376">
-        <v>1</v>
-      </c>
-      <c r="G216" s="377"/>
-      <c r="H216" s="377">
+      <c r="D216" s="373"/>
+      <c r="E216" s="373"/>
+      <c r="F216" s="373">
+        <v>1</v>
+      </c>
+      <c r="G216" s="374"/>
+      <c r="H216" s="374">
         <v>1750</v>
       </c>
     </row>
@@ -16288,18 +16341,18 @@
         <v>5</v>
       </c>
       <c r="B218" s="4"/>
-      <c r="C218" s="378" t="s">
+      <c r="C218" s="375" t="s">
         <v>188</v>
       </c>
-      <c r="D218" s="376"/>
-      <c r="E218" s="376" t="s">
+      <c r="D218" s="373"/>
+      <c r="E218" s="373" t="s">
         <v>8</v>
       </c>
-      <c r="F218" s="376">
-        <v>1</v>
-      </c>
-      <c r="G218" s="377"/>
-      <c r="H218" s="377">
+      <c r="F218" s="373">
+        <v>1</v>
+      </c>
+      <c r="G218" s="374"/>
+      <c r="H218" s="374">
         <v>22300</v>
       </c>
     </row>
@@ -16399,16 +16452,16 @@
     <row r="224" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
-      <c r="C224" s="379" t="s">
+      <c r="C224" s="376" t="s">
         <v>127</v>
       </c>
-      <c r="D224" s="376"/>
-      <c r="E224" s="376"/>
-      <c r="F224" s="376">
-        <v>1</v>
-      </c>
-      <c r="G224" s="377"/>
-      <c r="H224" s="377">
+      <c r="D224" s="373"/>
+      <c r="E224" s="373"/>
+      <c r="F224" s="373">
+        <v>1</v>
+      </c>
+      <c r="G224" s="374"/>
+      <c r="H224" s="374">
         <v>1750</v>
       </c>
     </row>
@@ -16431,7 +16484,7 @@
     <row r="226" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
-      <c r="C226" s="385" t="s">
+      <c r="C226" s="382" t="s">
         <v>347</v>
       </c>
       <c r="D226" s="45" t="s">
@@ -16449,7 +16502,7 @@
     <row r="227" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
-      <c r="C227" s="385" t="s">
+      <c r="C227" s="382" t="s">
         <v>192</v>
       </c>
       <c r="D227" s="45" t="s">
@@ -16522,16 +16575,16 @@
         <v>3</v>
       </c>
       <c r="B231" s="4"/>
-      <c r="C231" s="378" t="s">
+      <c r="C231" s="375" t="s">
         <v>109</v>
       </c>
-      <c r="D231" s="376"/>
-      <c r="E231" s="376"/>
-      <c r="F231" s="376">
-        <v>1</v>
-      </c>
-      <c r="G231" s="377"/>
-      <c r="H231" s="377">
+      <c r="D231" s="373"/>
+      <c r="E231" s="373"/>
+      <c r="F231" s="373">
+        <v>1</v>
+      </c>
+      <c r="G231" s="374"/>
+      <c r="H231" s="374">
         <v>3500</v>
       </c>
       <c r="I231" s="101" t="s">
@@ -16565,18 +16618,18 @@
         <v>5</v>
       </c>
       <c r="B233" s="4"/>
-      <c r="C233" s="378" t="s">
+      <c r="C233" s="375" t="s">
         <v>197</v>
       </c>
-      <c r="D233" s="376"/>
-      <c r="E233" s="376" t="s">
+      <c r="D233" s="373"/>
+      <c r="E233" s="373" t="s">
         <v>22</v>
       </c>
-      <c r="F233" s="376">
-        <v>1</v>
-      </c>
-      <c r="G233" s="377"/>
-      <c r="H233" s="377">
+      <c r="F233" s="373">
+        <v>1</v>
+      </c>
+      <c r="G233" s="374"/>
+      <c r="H233" s="374">
         <v>21350</v>
       </c>
       <c r="I233" s="101" t="s">
@@ -16588,16 +16641,16 @@
         <v>6</v>
       </c>
       <c r="B234" s="4"/>
-      <c r="C234" s="378" t="s">
+      <c r="C234" s="375" t="s">
         <v>127</v>
       </c>
-      <c r="D234" s="376"/>
-      <c r="E234" s="376"/>
-      <c r="F234" s="376">
-        <v>1</v>
-      </c>
-      <c r="G234" s="377"/>
-      <c r="H234" s="377">
+      <c r="D234" s="373"/>
+      <c r="E234" s="373"/>
+      <c r="F234" s="373">
+        <v>1</v>
+      </c>
+      <c r="G234" s="374"/>
+      <c r="H234" s="374">
         <v>1750</v>
       </c>
       <c r="I234" s="101" t="s">
@@ -16671,14 +16724,14 @@
       <c r="B239" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="C239" s="364" t="s">
+      <c r="C239" s="361" t="s">
         <v>197</v>
       </c>
-      <c r="D239" s="366"/>
-      <c r="E239" s="366" t="s">
+      <c r="D239" s="363"/>
+      <c r="E239" s="363" t="s">
         <v>22</v>
       </c>
-      <c r="F239" s="366">
+      <c r="F239" s="363">
         <v>1</v>
       </c>
       <c r="G239" s="295"/>
@@ -16694,12 +16747,12 @@
         <v>2</v>
       </c>
       <c r="B240" s="4"/>
-      <c r="C240" s="364" t="s">
+      <c r="C240" s="361" t="s">
         <v>127</v>
       </c>
-      <c r="D240" s="366"/>
-      <c r="E240" s="366"/>
-      <c r="F240" s="366">
+      <c r="D240" s="363"/>
+      <c r="E240" s="363"/>
+      <c r="F240" s="363">
         <v>1</v>
       </c>
       <c r="G240" s="295"/>
@@ -16748,14 +16801,14 @@
       <c r="B243" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="C243" s="364" t="s">
+      <c r="C243" s="361" t="s">
         <v>197</v>
       </c>
-      <c r="D243" s="366"/>
-      <c r="E243" s="366" t="s">
+      <c r="D243" s="363"/>
+      <c r="E243" s="363" t="s">
         <v>22</v>
       </c>
-      <c r="F243" s="366">
+      <c r="F243" s="363">
         <v>1</v>
       </c>
       <c r="G243" s="295"/>
@@ -16771,16 +16824,16 @@
         <v>2</v>
       </c>
       <c r="B244" s="4"/>
-      <c r="C244" s="375" t="s">
+      <c r="C244" s="372" t="s">
         <v>127</v>
       </c>
-      <c r="D244" s="376"/>
-      <c r="E244" s="376"/>
-      <c r="F244" s="376">
-        <v>1</v>
-      </c>
-      <c r="G244" s="377"/>
-      <c r="H244" s="377">
+      <c r="D244" s="373"/>
+      <c r="E244" s="373"/>
+      <c r="F244" s="373">
+        <v>1</v>
+      </c>
+      <c r="G244" s="374"/>
+      <c r="H244" s="374">
         <v>1750</v>
       </c>
       <c r="I244" s="101" t="s">
@@ -16814,16 +16867,16 @@
         <v>4</v>
       </c>
       <c r="B246" s="4"/>
-      <c r="C246" s="378" t="s">
+      <c r="C246" s="375" t="s">
         <v>173</v>
       </c>
-      <c r="D246" s="376"/>
-      <c r="E246" s="376"/>
-      <c r="F246" s="376">
-        <v>1</v>
-      </c>
-      <c r="G246" s="377"/>
-      <c r="H246" s="377">
+      <c r="D246" s="373"/>
+      <c r="E246" s="373"/>
+      <c r="F246" s="373">
+        <v>1</v>
+      </c>
+      <c r="G246" s="374"/>
+      <c r="H246" s="374">
         <v>1200</v>
       </c>
       <c r="I246" s="101" t="s">
@@ -16835,18 +16888,18 @@
         <v>5</v>
       </c>
       <c r="B247" s="4"/>
-      <c r="C247" s="378" t="s">
+      <c r="C247" s="375" t="s">
         <v>160</v>
       </c>
-      <c r="D247" s="376"/>
-      <c r="E247" s="376" t="s">
+      <c r="D247" s="373"/>
+      <c r="E247" s="373" t="s">
         <v>22</v>
       </c>
-      <c r="F247" s="376">
-        <v>1</v>
-      </c>
-      <c r="G247" s="377"/>
-      <c r="H247" s="377">
+      <c r="F247" s="373">
+        <v>1</v>
+      </c>
+      <c r="G247" s="374"/>
+      <c r="H247" s="374">
         <v>30500</v>
       </c>
       <c r="I247" s="101" t="s">
@@ -16858,16 +16911,16 @@
         <v>6</v>
       </c>
       <c r="B248" s="4"/>
-      <c r="C248" s="378" t="s">
+      <c r="C248" s="375" t="s">
         <v>223</v>
       </c>
-      <c r="D248" s="376"/>
-      <c r="E248" s="376"/>
-      <c r="F248" s="376">
-        <v>1</v>
-      </c>
-      <c r="G248" s="377"/>
-      <c r="H248" s="377">
+      <c r="D248" s="373"/>
+      <c r="E248" s="373"/>
+      <c r="F248" s="373">
+        <v>1</v>
+      </c>
+      <c r="G248" s="374"/>
+      <c r="H248" s="374">
         <v>2500</v>
       </c>
       <c r="I248" s="101" t="s">
@@ -16879,16 +16932,16 @@
         <v>7</v>
       </c>
       <c r="B249" s="4"/>
-      <c r="C249" s="375" t="s">
+      <c r="C249" s="372" t="s">
         <v>161</v>
       </c>
-      <c r="D249" s="376"/>
-      <c r="E249" s="376"/>
-      <c r="F249" s="376">
-        <v>1</v>
-      </c>
-      <c r="G249" s="377"/>
-      <c r="H249" s="377">
+      <c r="D249" s="373"/>
+      <c r="E249" s="373"/>
+      <c r="F249" s="373">
+        <v>1</v>
+      </c>
+      <c r="G249" s="374"/>
+      <c r="H249" s="374">
         <v>3350</v>
       </c>
       <c r="I249" s="101" t="s">
@@ -16998,18 +17051,18 @@
         <v>3</v>
       </c>
       <c r="B256" s="4"/>
-      <c r="C256" s="378" t="s">
+      <c r="C256" s="375" t="s">
         <v>356</v>
       </c>
-      <c r="D256" s="376"/>
-      <c r="E256" s="376"/>
-      <c r="F256" s="376">
+      <c r="D256" s="373"/>
+      <c r="E256" s="373"/>
+      <c r="F256" s="373">
         <v>3</v>
       </c>
-      <c r="G256" s="377">
+      <c r="G256" s="374">
         <v>4000</v>
       </c>
-      <c r="H256" s="377">
+      <c r="H256" s="374">
         <v>12000</v>
       </c>
       <c r="I256" s="101" t="s">
@@ -17087,20 +17140,20 @@
         <v>2</v>
       </c>
       <c r="B261" s="4"/>
-      <c r="C261" s="375" t="s">
+      <c r="C261" s="372" t="s">
         <v>200</v>
       </c>
-      <c r="D261" s="376"/>
-      <c r="E261" s="376" t="s">
+      <c r="D261" s="373"/>
+      <c r="E261" s="373" t="s">
         <v>14</v>
       </c>
-      <c r="F261" s="376">
+      <c r="F261" s="373">
         <v>8</v>
       </c>
-      <c r="G261" s="377">
+      <c r="G261" s="374">
         <v>4500</v>
       </c>
-      <c r="H261" s="377">
+      <c r="H261" s="374">
         <v>36000</v>
       </c>
       <c r="I261" s="101" t="s">
@@ -17112,18 +17165,18 @@
         <v>3</v>
       </c>
       <c r="B262" s="4"/>
-      <c r="C262" s="378" t="s">
+      <c r="C262" s="375" t="s">
         <v>204</v>
       </c>
-      <c r="D262" s="376"/>
-      <c r="E262" s="376" t="s">
+      <c r="D262" s="373"/>
+      <c r="E262" s="373" t="s">
         <v>14</v>
       </c>
-      <c r="F262" s="376">
-        <v>1</v>
-      </c>
-      <c r="G262" s="377"/>
-      <c r="H262" s="377">
+      <c r="F262" s="373">
+        <v>1</v>
+      </c>
+      <c r="G262" s="374"/>
+      <c r="H262" s="374">
         <v>4700</v>
       </c>
       <c r="I262" s="101" t="s">
@@ -17197,20 +17250,20 @@
         <v>7</v>
       </c>
       <c r="B266" s="4"/>
-      <c r="C266" s="375" t="s">
+      <c r="C266" s="372" t="s">
         <v>111</v>
       </c>
-      <c r="D266" s="376"/>
-      <c r="E266" s="376" t="s">
+      <c r="D266" s="373"/>
+      <c r="E266" s="373" t="s">
         <v>14</v>
       </c>
-      <c r="F266" s="376">
+      <c r="F266" s="373">
         <v>2</v>
       </c>
-      <c r="G266" s="377">
+      <c r="G266" s="374">
         <v>6550</v>
       </c>
-      <c r="H266" s="377">
+      <c r="H266" s="374">
         <v>13100</v>
       </c>
       <c r="I266" s="101" t="s">
@@ -17233,20 +17286,20 @@
     <row r="268" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
-      <c r="C268" s="379" t="s">
+      <c r="C268" s="376" t="s">
         <v>363</v>
       </c>
-      <c r="D268" s="376"/>
-      <c r="E268" s="376" t="s">
+      <c r="D268" s="373"/>
+      <c r="E268" s="373" t="s">
         <v>14</v>
       </c>
-      <c r="F268" s="376">
+      <c r="F268" s="373">
         <v>2</v>
       </c>
-      <c r="G268" s="377">
+      <c r="G268" s="374">
         <v>1500</v>
       </c>
-      <c r="H268" s="377">
+      <c r="H268" s="374">
         <v>3000</v>
       </c>
       <c r="I268" s="101" t="s">
@@ -17256,18 +17309,18 @@
     <row r="269" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
-      <c r="C269" s="379" t="s">
+      <c r="C269" s="376" t="s">
         <v>364</v>
       </c>
-      <c r="D269" s="376"/>
-      <c r="E269" s="376" t="s">
+      <c r="D269" s="373"/>
+      <c r="E269" s="373" t="s">
         <v>14</v>
       </c>
-      <c r="F269" s="376">
-        <v>1</v>
-      </c>
-      <c r="G269" s="377"/>
-      <c r="H269" s="377">
+      <c r="F269" s="373">
+        <v>1</v>
+      </c>
+      <c r="G269" s="374"/>
+      <c r="H269" s="374">
         <v>2000</v>
       </c>
       <c r="I269" s="101" t="s">
@@ -17311,7 +17364,7 @@
     <row r="272" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
-      <c r="C272" s="385"/>
+      <c r="C272" s="382"/>
       <c r="D272" s="45"/>
       <c r="E272" s="45"/>
       <c r="F272" s="45"/>
@@ -17328,18 +17381,18 @@
       <c r="B273" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="C273" s="375" t="s">
+      <c r="C273" s="372" t="s">
         <v>173</v>
       </c>
-      <c r="D273" s="376"/>
-      <c r="E273" s="376"/>
-      <c r="F273" s="376">
+      <c r="D273" s="373"/>
+      <c r="E273" s="373"/>
+      <c r="F273" s="373">
         <v>2</v>
       </c>
-      <c r="G273" s="377">
+      <c r="G273" s="374">
         <v>1000</v>
       </c>
-      <c r="H273" s="377">
+      <c r="H273" s="374">
         <v>2000</v>
       </c>
       <c r="I273" s="101" t="s">
@@ -17391,18 +17444,18 @@
         <v>4</v>
       </c>
       <c r="B276" s="4"/>
-      <c r="C276" s="378" t="s">
+      <c r="C276" s="375" t="s">
         <v>276</v>
       </c>
-      <c r="D276" s="376"/>
-      <c r="E276" s="376" t="s">
+      <c r="D276" s="373"/>
+      <c r="E276" s="373" t="s">
         <v>14</v>
       </c>
-      <c r="F276" s="376">
-        <v>1</v>
-      </c>
-      <c r="G276" s="377"/>
-      <c r="H276" s="377">
+      <c r="F276" s="373">
+        <v>1</v>
+      </c>
+      <c r="G276" s="374"/>
+      <c r="H276" s="374">
         <v>4500</v>
       </c>
       <c r="I276" s="101" t="s">
@@ -17414,16 +17467,16 @@
         <v>5</v>
       </c>
       <c r="B277" s="4"/>
-      <c r="C277" s="378" t="s">
+      <c r="C277" s="375" t="s">
         <v>350</v>
       </c>
-      <c r="D277" s="376"/>
-      <c r="E277" s="376"/>
-      <c r="F277" s="376">
-        <v>1</v>
-      </c>
-      <c r="G277" s="377"/>
-      <c r="H277" s="377">
+      <c r="D277" s="373"/>
+      <c r="E277" s="373"/>
+      <c r="F277" s="373">
+        <v>1</v>
+      </c>
+      <c r="G277" s="374"/>
+      <c r="H277" s="374">
         <v>2000</v>
       </c>
       <c r="I277" s="101" t="s">
@@ -17519,7 +17572,7 @@
         <v>84</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E282" s="4"/>
       <c r="F282" s="4">
@@ -17546,20 +17599,20 @@
     <row r="284" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
-      <c r="C284" s="397" t="s">
+      <c r="C284" s="394" t="s">
         <v>276</v>
       </c>
-      <c r="D284" s="389" t="s">
+      <c r="D284" s="386" t="s">
         <v>369</v>
       </c>
-      <c r="E284" s="389"/>
-      <c r="F284" s="389">
+      <c r="E284" s="386"/>
+      <c r="F284" s="386">
         <v>2</v>
       </c>
-      <c r="G284" s="377">
+      <c r="G284" s="374">
         <v>4000</v>
       </c>
-      <c r="H284" s="377">
+      <c r="H284" s="374">
         <v>8000</v>
       </c>
       <c r="I284" s="101" t="s">
@@ -17569,7 +17622,7 @@
     <row r="285" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
-      <c r="C285" s="385" t="s">
+      <c r="C285" s="382" t="s">
         <v>354</v>
       </c>
       <c r="D285" s="45"/>
@@ -17622,7 +17675,7 @@
       <c r="E288" s="255"/>
       <c r="F288" s="255"/>
       <c r="G288" s="255"/>
-      <c r="H288" s="374">
+      <c r="H288" s="371">
         <f>SUM(H283:H287)</f>
         <v>134000</v>
       </c>
@@ -17634,18 +17687,18 @@
       <c r="B289" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="C289" s="375" t="s">
+      <c r="C289" s="372" t="s">
         <v>204</v>
       </c>
-      <c r="D289" s="376"/>
-      <c r="E289" s="376" t="s">
+      <c r="D289" s="373"/>
+      <c r="E289" s="373" t="s">
         <v>14</v>
       </c>
-      <c r="F289" s="376">
-        <v>1</v>
-      </c>
-      <c r="G289" s="377"/>
-      <c r="H289" s="377">
+      <c r="F289" s="373">
+        <v>1</v>
+      </c>
+      <c r="G289" s="374"/>
+      <c r="H289" s="374">
         <v>4700</v>
       </c>
       <c r="I289" s="101" t="s">
@@ -17701,18 +17754,18 @@
         <v>4</v>
       </c>
       <c r="B292" s="4"/>
-      <c r="C292" s="378" t="s">
+      <c r="C292" s="375" t="s">
         <v>188</v>
       </c>
-      <c r="D292" s="376"/>
-      <c r="E292" s="376" t="s">
+      <c r="D292" s="373"/>
+      <c r="E292" s="373" t="s">
         <v>8</v>
       </c>
-      <c r="F292" s="376">
-        <v>1</v>
-      </c>
-      <c r="G292" s="377"/>
-      <c r="H292" s="377">
+      <c r="F292" s="373">
+        <v>1</v>
+      </c>
+      <c r="G292" s="374"/>
+      <c r="H292" s="374">
         <v>22300</v>
       </c>
       <c r="I292" s="101" t="s">
@@ -17724,16 +17777,16 @@
         <v>5</v>
       </c>
       <c r="B293" s="4"/>
-      <c r="C293" s="378" t="s">
+      <c r="C293" s="375" t="s">
         <v>162</v>
       </c>
-      <c r="D293" s="376"/>
-      <c r="E293" s="376"/>
-      <c r="F293" s="376">
-        <v>1</v>
-      </c>
-      <c r="G293" s="377"/>
-      <c r="H293" s="377">
+      <c r="D293" s="373"/>
+      <c r="E293" s="373"/>
+      <c r="F293" s="373">
+        <v>1</v>
+      </c>
+      <c r="G293" s="374"/>
+      <c r="H293" s="374">
         <v>2500</v>
       </c>
       <c r="I293" s="101" t="s">
@@ -17831,8 +17884,8 @@
   </sheetPr>
   <dimension ref="A1:Q298"/>
   <sheetViews>
-    <sheetView topLeftCell="A233" workbookViewId="0">
-      <selection activeCell="L242" sqref="L242"/>
+    <sheetView topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="O269" sqref="O269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17856,10 +17909,10 @@
       <c r="B1" s="333" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="433" t="s">
+      <c r="C1" s="440" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="434"/>
+      <c r="D1" s="441"/>
       <c r="E1" s="333" t="s">
         <v>116</v>
       </c>
@@ -17881,20 +17934,20 @@
       <c r="B2" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="C2" s="375" t="s">
-        <v>276</v>
-      </c>
-      <c r="D2" s="376"/>
-      <c r="E2" s="376" t="s">
+      <c r="C2" s="372" t="s">
+        <v>342</v>
+      </c>
+      <c r="D2" s="373"/>
+      <c r="E2" s="373" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="376">
+      <c r="F2" s="373">
         <v>9</v>
       </c>
-      <c r="G2" s="377">
+      <c r="G2" s="374">
         <v>4000</v>
       </c>
-      <c r="H2" s="377">
+      <c r="H2" s="374">
         <v>36000</v>
       </c>
       <c r="I2" s="87" t="s">
@@ -17906,20 +17959,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="375" t="s">
+      <c r="C3" s="372" t="s">
         <v>376</v>
       </c>
-      <c r="D3" s="376"/>
-      <c r="E3" s="376" t="s">
+      <c r="D3" s="373"/>
+      <c r="E3" s="373" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="376">
+      <c r="F3" s="373">
         <v>2</v>
       </c>
-      <c r="G3" s="377">
+      <c r="G3" s="374">
         <v>6550</v>
       </c>
-      <c r="H3" s="377">
+      <c r="H3" s="374">
         <v>13100</v>
       </c>
       <c r="I3" s="87" t="s">
@@ -17931,18 +17984,18 @@
         <v>3</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="378" t="s">
+      <c r="C4" s="375" t="s">
         <v>377</v>
       </c>
-      <c r="D4" s="376"/>
-      <c r="E4" s="376" t="s">
+      <c r="D4" s="373"/>
+      <c r="E4" s="373" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="376">
-        <v>1</v>
-      </c>
-      <c r="G4" s="377"/>
-      <c r="H4" s="377">
+      <c r="F4" s="373">
+        <v>1</v>
+      </c>
+      <c r="G4" s="374"/>
+      <c r="H4" s="374">
         <v>21350</v>
       </c>
       <c r="I4" s="86" t="s">
@@ -17954,16 +18007,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="378" t="s">
+      <c r="C5" s="375" t="s">
         <v>223</v>
       </c>
-      <c r="D5" s="376"/>
-      <c r="E5" s="376"/>
-      <c r="F5" s="376">
-        <v>1</v>
-      </c>
-      <c r="G5" s="377"/>
-      <c r="H5" s="377">
+      <c r="D5" s="373"/>
+      <c r="E5" s="373"/>
+      <c r="F5" s="373">
+        <v>1</v>
+      </c>
+      <c r="G5" s="374"/>
+      <c r="H5" s="374">
         <v>2500</v>
       </c>
       <c r="I5" s="87" t="s">
@@ -18105,22 +18158,22 @@
         <v>3</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="378" t="s">
+      <c r="C13" s="375" t="s">
         <v>173</v>
       </c>
-      <c r="D13" s="376"/>
-      <c r="E13" s="376"/>
-      <c r="F13" s="376">
+      <c r="D13" s="373"/>
+      <c r="E13" s="373"/>
+      <c r="F13" s="373">
         <v>2</v>
       </c>
-      <c r="G13" s="377">
+      <c r="G13" s="374">
         <v>1200</v>
       </c>
-      <c r="H13" s="377">
+      <c r="H13" s="374">
         <v>2400</v>
       </c>
       <c r="I13" s="101" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18128,20 +18181,20 @@
         <v>4</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="378" t="s">
+      <c r="C14" s="375" t="s">
         <v>342</v>
       </c>
-      <c r="D14" s="376"/>
-      <c r="E14" s="376" t="s">
+      <c r="D14" s="373"/>
+      <c r="E14" s="373" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="376">
+      <c r="F14" s="373">
         <v>2</v>
       </c>
-      <c r="G14" s="377">
+      <c r="G14" s="374">
         <v>4500</v>
       </c>
-      <c r="H14" s="377">
+      <c r="H14" s="374">
         <v>9000</v>
       </c>
       <c r="I14" s="87" t="s">
@@ -18153,18 +18206,18 @@
         <v>5</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="379" t="s">
+      <c r="C15" s="376" t="s">
         <v>299</v>
       </c>
-      <c r="D15" s="376"/>
-      <c r="E15" s="376" t="s">
+      <c r="D15" s="373"/>
+      <c r="E15" s="373" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="376">
-        <v>1</v>
-      </c>
-      <c r="G15" s="377"/>
-      <c r="H15" s="377">
+      <c r="F15" s="373">
+        <v>1</v>
+      </c>
+      <c r="G15" s="374"/>
+      <c r="H15" s="374">
         <v>20400</v>
       </c>
       <c r="I15" s="336" t="s">
@@ -18176,16 +18229,16 @@
         <v>6</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="379" t="s">
+      <c r="C16" s="376" t="s">
         <v>127</v>
       </c>
-      <c r="D16" s="376"/>
-      <c r="E16" s="376"/>
-      <c r="F16" s="376">
-        <v>1</v>
-      </c>
-      <c r="G16" s="377"/>
-      <c r="H16" s="377">
+      <c r="D16" s="373"/>
+      <c r="E16" s="373"/>
+      <c r="F16" s="373">
+        <v>1</v>
+      </c>
+      <c r="G16" s="374"/>
+      <c r="H16" s="374">
         <v>1750</v>
       </c>
       <c r="I16" s="87" t="s">
@@ -18197,16 +18250,16 @@
         <v>7</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="379" t="s">
+      <c r="C17" s="376" t="s">
         <v>109</v>
       </c>
-      <c r="D17" s="376"/>
-      <c r="E17" s="376"/>
-      <c r="F17" s="376">
-        <v>1</v>
-      </c>
-      <c r="G17" s="377"/>
-      <c r="H17" s="377">
+      <c r="D17" s="373"/>
+      <c r="E17" s="373"/>
+      <c r="F17" s="373">
+        <v>1</v>
+      </c>
+      <c r="G17" s="374"/>
+      <c r="H17" s="374">
         <v>3500</v>
       </c>
       <c r="I17" s="87" t="s">
@@ -18218,20 +18271,20 @@
         <v>8</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="379" t="s">
+      <c r="C18" s="376" t="s">
         <v>350</v>
       </c>
-      <c r="D18" s="376" t="s">
+      <c r="D18" s="373" t="s">
         <v>382</v>
       </c>
-      <c r="E18" s="376"/>
-      <c r="F18" s="376">
+      <c r="E18" s="373"/>
+      <c r="F18" s="373">
         <v>4</v>
       </c>
-      <c r="G18" s="377">
+      <c r="G18" s="374">
         <v>2000</v>
       </c>
-      <c r="H18" s="377">
+      <c r="H18" s="374">
         <v>8000</v>
       </c>
       <c r="I18" s="87" t="s">
@@ -18263,7 +18316,7 @@
     <row r="20" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="385"/>
+      <c r="C20" s="382"/>
       <c r="D20" s="45"/>
       <c r="E20" s="45"/>
       <c r="F20" s="45"/>
@@ -18276,7 +18329,7 @@
     <row r="21" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="385" t="s">
+      <c r="C21" s="382" t="s">
         <v>321</v>
       </c>
       <c r="D21" s="45"/>
@@ -18329,7 +18382,7 @@
       <c r="E24" s="255"/>
       <c r="F24" s="255"/>
       <c r="G24" s="255"/>
-      <c r="H24" s="374">
+      <c r="H24" s="371">
         <f>SUM(H20:H23)</f>
         <v>151150</v>
       </c>
@@ -18435,18 +18488,18 @@
       <c r="B31" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="C31" s="375" t="s">
+      <c r="C31" s="372" t="s">
         <v>125</v>
       </c>
-      <c r="D31" s="376"/>
-      <c r="E31" s="376"/>
-      <c r="F31" s="376">
+      <c r="D31" s="373"/>
+      <c r="E31" s="373"/>
+      <c r="F31" s="373">
         <v>4</v>
       </c>
-      <c r="G31" s="377">
+      <c r="G31" s="374">
         <v>3800</v>
       </c>
-      <c r="H31" s="377">
+      <c r="H31" s="374">
         <v>15200</v>
       </c>
     </row>
@@ -18455,18 +18508,18 @@
         <v>2</v>
       </c>
       <c r="B32" s="4"/>
-      <c r="C32" s="378" t="s">
+      <c r="C32" s="375" t="s">
         <v>176</v>
       </c>
-      <c r="D32" s="376"/>
-      <c r="E32" s="376" t="s">
+      <c r="D32" s="373"/>
+      <c r="E32" s="373" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="376">
-        <v>1</v>
-      </c>
-      <c r="G32" s="377"/>
-      <c r="H32" s="377">
+      <c r="F32" s="373">
+        <v>1</v>
+      </c>
+      <c r="G32" s="374"/>
+      <c r="H32" s="374">
         <v>30500</v>
       </c>
     </row>
@@ -18475,16 +18528,16 @@
         <v>3</v>
       </c>
       <c r="B33" s="4"/>
-      <c r="C33" s="378" t="s">
+      <c r="C33" s="375" t="s">
         <v>388</v>
       </c>
-      <c r="D33" s="376"/>
-      <c r="E33" s="376"/>
-      <c r="F33" s="376">
-        <v>1</v>
-      </c>
-      <c r="G33" s="377"/>
-      <c r="H33" s="377">
+      <c r="D33" s="373"/>
+      <c r="E33" s="373"/>
+      <c r="F33" s="373">
+        <v>1</v>
+      </c>
+      <c r="G33" s="374"/>
+      <c r="H33" s="374">
         <v>2350</v>
       </c>
     </row>
@@ -18513,18 +18566,18 @@
         <v>5</v>
       </c>
       <c r="B35" s="4"/>
-      <c r="C35" s="379" t="s">
+      <c r="C35" s="375" t="s">
         <v>342</v>
       </c>
-      <c r="D35" s="376"/>
-      <c r="E35" s="376" t="s">
+      <c r="D35" s="373"/>
+      <c r="E35" s="373" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="376">
-        <v>1</v>
-      </c>
-      <c r="G35" s="377"/>
-      <c r="H35" s="377">
+      <c r="F35" s="373">
+        <v>1</v>
+      </c>
+      <c r="G35" s="374"/>
+      <c r="H35" s="374">
         <v>4500</v>
       </c>
     </row>
@@ -18593,18 +18646,18 @@
         <v>9</v>
       </c>
       <c r="B39" s="4"/>
-      <c r="C39" s="379" t="s">
+      <c r="C39" s="376" t="s">
         <v>171</v>
       </c>
-      <c r="D39" s="376"/>
-      <c r="E39" s="376"/>
-      <c r="F39" s="376">
+      <c r="D39" s="373"/>
+      <c r="E39" s="373"/>
+      <c r="F39" s="373">
         <v>4</v>
       </c>
-      <c r="G39" s="377">
+      <c r="G39" s="374">
         <v>3800</v>
       </c>
-      <c r="H39" s="377">
+      <c r="H39" s="374">
         <v>15200</v>
       </c>
     </row>
@@ -18613,18 +18666,18 @@
         <v>10</v>
       </c>
       <c r="B40" s="4"/>
-      <c r="C40" s="397" t="s">
+      <c r="C40" s="394" t="s">
         <v>135</v>
       </c>
-      <c r="D40" s="389"/>
-      <c r="E40" s="389" t="s">
+      <c r="D40" s="386"/>
+      <c r="E40" s="386" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="389">
-        <v>1</v>
-      </c>
-      <c r="G40" s="377"/>
-      <c r="H40" s="377">
+      <c r="F40" s="386">
+        <v>1</v>
+      </c>
+      <c r="G40" s="374"/>
+      <c r="H40" s="374">
         <v>1500</v>
       </c>
     </row>
@@ -18633,7 +18686,7 @@
         <v>11</v>
       </c>
       <c r="B41" s="4"/>
-      <c r="C41" s="385" t="s">
+      <c r="C41" s="382" t="s">
         <v>50</v>
       </c>
       <c r="D41" s="45" t="s">
@@ -18653,7 +18706,7 @@
         <v>12</v>
       </c>
       <c r="B42" s="4"/>
-      <c r="C42" s="385" t="s">
+      <c r="C42" s="382" t="s">
         <v>27</v>
       </c>
       <c r="D42" s="45" t="s">
@@ -18671,7 +18724,7 @@
     <row r="43" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
-      <c r="C43" s="385"/>
+      <c r="C43" s="382"/>
       <c r="D43" s="45"/>
       <c r="E43" s="45"/>
       <c r="F43" s="45"/>
@@ -18743,7 +18796,7 @@
       <c r="E47" s="255"/>
       <c r="F47" s="255"/>
       <c r="G47" s="255"/>
-      <c r="H47" s="373">
+      <c r="H47" s="370">
         <v>27000</v>
       </c>
     </row>
@@ -18767,16 +18820,16 @@
       <c r="B49" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="C49" s="375" t="s">
+      <c r="C49" s="372" t="s">
         <v>394</v>
       </c>
-      <c r="D49" s="376"/>
-      <c r="E49" s="376"/>
-      <c r="F49" s="376">
-        <v>1</v>
-      </c>
-      <c r="G49" s="377"/>
-      <c r="H49" s="377">
+      <c r="D49" s="373"/>
+      <c r="E49" s="373"/>
+      <c r="F49" s="373">
+        <v>1</v>
+      </c>
+      <c r="G49" s="374"/>
+      <c r="H49" s="374">
         <v>3500</v>
       </c>
       <c r="I49" s="101" t="s">
@@ -18788,20 +18841,20 @@
         <v>2</v>
       </c>
       <c r="B50" s="4"/>
-      <c r="C50" s="375" t="s">
+      <c r="C50" s="406" t="s">
         <v>342</v>
       </c>
-      <c r="D50" s="376"/>
-      <c r="E50" s="376" t="s">
+      <c r="D50" s="373"/>
+      <c r="E50" s="373" t="s">
         <v>14</v>
       </c>
-      <c r="F50" s="376">
+      <c r="F50" s="373">
         <v>8</v>
       </c>
-      <c r="G50" s="377">
+      <c r="G50" s="374">
         <v>4500</v>
       </c>
-      <c r="H50" s="377">
+      <c r="H50" s="374">
         <v>36000</v>
       </c>
       <c r="I50" s="101" t="s">
@@ -18811,12 +18864,12 @@
     <row r="51" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
-      <c r="C51" s="393"/>
+      <c r="C51" s="390"/>
       <c r="D51" s="235"/>
       <c r="E51" s="235"/>
       <c r="F51" s="235"/>
-      <c r="G51" s="356"/>
-      <c r="H51" s="394">
+      <c r="G51" s="353"/>
+      <c r="H51" s="391">
         <f>SUM(H49:H50)</f>
         <v>39500</v>
       </c>
@@ -18824,7 +18877,7 @@
     <row r="52" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
-      <c r="C52" s="392" t="s">
+      <c r="C52" s="389" t="s">
         <v>343</v>
       </c>
       <c r="D52" s="83" t="s">
@@ -18840,12 +18893,12 @@
     <row r="53" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
-      <c r="C53" s="391"/>
+      <c r="C53" s="388"/>
       <c r="D53" s="83"/>
       <c r="E53" s="83"/>
       <c r="F53" s="83"/>
       <c r="G53" s="84"/>
-      <c r="H53" s="395">
+      <c r="H53" s="392">
         <f>SUM(H51:H52)</f>
         <v>63500</v>
       </c>
@@ -18857,20 +18910,20 @@
       <c r="B54" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="C54" s="375" t="s">
+      <c r="C54" s="372" t="s">
         <v>197</v>
       </c>
-      <c r="D54" s="376"/>
-      <c r="E54" s="376" t="s">
+      <c r="D54" s="373"/>
+      <c r="E54" s="373" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="376">
+      <c r="F54" s="373">
         <v>2</v>
       </c>
-      <c r="G54" s="377">
+      <c r="G54" s="374">
         <v>6300</v>
       </c>
-      <c r="H54" s="377">
+      <c r="H54" s="374">
         <v>12600</v>
       </c>
       <c r="I54" s="101" t="s">
@@ -18882,20 +18935,20 @@
         <v>2</v>
       </c>
       <c r="B55" s="4"/>
-      <c r="C55" s="378" t="s">
+      <c r="C55" s="375" t="s">
         <v>396</v>
       </c>
-      <c r="D55" s="376" t="s">
+      <c r="D55" s="373" t="s">
         <v>397</v>
       </c>
-      <c r="E55" s="376"/>
-      <c r="F55" s="376">
+      <c r="E55" s="373"/>
+      <c r="F55" s="373">
         <v>8</v>
       </c>
-      <c r="G55" s="377">
+      <c r="G55" s="374">
         <v>3000</v>
       </c>
-      <c r="H55" s="377">
+      <c r="H55" s="374">
         <v>24000</v>
       </c>
       <c r="I55" s="101" t="s">
@@ -18927,16 +18980,16 @@
         <v>4</v>
       </c>
       <c r="B57" s="4"/>
-      <c r="C57" s="378" t="s">
+      <c r="C57" s="375" t="s">
         <v>127</v>
       </c>
-      <c r="D57" s="376"/>
-      <c r="E57" s="376"/>
-      <c r="F57" s="376">
-        <v>1</v>
-      </c>
-      <c r="G57" s="377"/>
-      <c r="H57" s="377">
+      <c r="D57" s="373"/>
+      <c r="E57" s="373"/>
+      <c r="F57" s="373">
+        <v>1</v>
+      </c>
+      <c r="G57" s="374"/>
+      <c r="H57" s="374">
         <v>1750</v>
       </c>
       <c r="I57" s="101" t="s">
@@ -18992,18 +19045,18 @@
       <c r="B61" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="C61" s="375" t="s">
+      <c r="C61" s="372" t="s">
         <v>188</v>
       </c>
-      <c r="D61" s="376"/>
-      <c r="E61" s="376" t="s">
+      <c r="D61" s="373"/>
+      <c r="E61" s="373" t="s">
         <v>8</v>
       </c>
-      <c r="F61" s="376">
-        <v>1</v>
-      </c>
-      <c r="G61" s="377"/>
-      <c r="H61" s="377">
+      <c r="F61" s="373">
+        <v>1</v>
+      </c>
+      <c r="G61" s="374"/>
+      <c r="H61" s="374">
         <v>22300</v>
       </c>
       <c r="I61" s="101" t="s">
@@ -19015,18 +19068,18 @@
         <v>2</v>
       </c>
       <c r="B62" s="4"/>
-      <c r="C62" s="378" t="s">
+      <c r="C62" s="375" t="s">
         <v>188</v>
       </c>
-      <c r="D62" s="376"/>
-      <c r="E62" s="376" t="s">
+      <c r="D62" s="373"/>
+      <c r="E62" s="373" t="s">
         <v>14</v>
       </c>
-      <c r="F62" s="376">
-        <v>1</v>
-      </c>
-      <c r="G62" s="377"/>
-      <c r="H62" s="377">
+      <c r="F62" s="373">
+        <v>1</v>
+      </c>
+      <c r="G62" s="374"/>
+      <c r="H62" s="374">
         <v>5350</v>
       </c>
       <c r="I62" s="101" t="s">
@@ -19038,16 +19091,16 @@
         <v>3</v>
       </c>
       <c r="B63" s="4"/>
-      <c r="C63" s="378" t="s">
+      <c r="C63" s="375" t="s">
         <v>161</v>
       </c>
-      <c r="D63" s="376"/>
-      <c r="E63" s="376"/>
-      <c r="F63" s="376">
-        <v>1</v>
-      </c>
-      <c r="G63" s="377"/>
-      <c r="H63" s="377">
+      <c r="D63" s="373"/>
+      <c r="E63" s="373"/>
+      <c r="F63" s="373">
+        <v>1</v>
+      </c>
+      <c r="G63" s="374"/>
+      <c r="H63" s="374">
         <v>3150</v>
       </c>
       <c r="I63" s="101" t="s">
@@ -19081,16 +19134,16 @@
         <v>5</v>
       </c>
       <c r="B65" s="4"/>
-      <c r="C65" s="379" t="s">
+      <c r="C65" s="376" t="s">
         <v>400</v>
       </c>
-      <c r="D65" s="376"/>
-      <c r="E65" s="376"/>
-      <c r="F65" s="376">
-        <v>1</v>
-      </c>
-      <c r="G65" s="377"/>
-      <c r="H65" s="377">
+      <c r="D65" s="373"/>
+      <c r="E65" s="373"/>
+      <c r="F65" s="373">
+        <v>1</v>
+      </c>
+      <c r="G65" s="374"/>
+      <c r="H65" s="374">
         <v>2750</v>
       </c>
       <c r="I65" s="101" t="s">
@@ -19122,16 +19175,16 @@
         <v>7</v>
       </c>
       <c r="B67" s="4"/>
-      <c r="C67" s="379" t="s">
+      <c r="C67" s="376" t="s">
         <v>402</v>
       </c>
-      <c r="D67" s="376"/>
-      <c r="E67" s="376"/>
-      <c r="F67" s="376">
-        <v>1</v>
-      </c>
-      <c r="G67" s="377"/>
-      <c r="H67" s="377">
+      <c r="D67" s="373"/>
+      <c r="E67" s="373"/>
+      <c r="F67" s="373">
+        <v>1</v>
+      </c>
+      <c r="G67" s="374"/>
+      <c r="H67" s="374">
         <v>5000</v>
       </c>
       <c r="I67" s="101" t="s">
@@ -19143,16 +19196,16 @@
         <v>8</v>
       </c>
       <c r="B68" s="4"/>
-      <c r="C68" s="379" t="s">
+      <c r="C68" s="376" t="s">
         <v>109</v>
       </c>
-      <c r="D68" s="376"/>
-      <c r="E68" s="376"/>
-      <c r="F68" s="376">
-        <v>1</v>
-      </c>
-      <c r="G68" s="377"/>
-      <c r="H68" s="377">
+      <c r="D68" s="373"/>
+      <c r="E68" s="373"/>
+      <c r="F68" s="373">
+        <v>1</v>
+      </c>
+      <c r="G68" s="374"/>
+      <c r="H68" s="374">
         <v>3500</v>
       </c>
       <c r="I68" s="101" t="s">
@@ -19175,7 +19228,7 @@
     <row r="70" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
-      <c r="C70" s="385" t="s">
+      <c r="C70" s="382" t="s">
         <v>354</v>
       </c>
       <c r="D70" s="45"/>
@@ -19191,7 +19244,7 @@
     <row r="71" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
-      <c r="C71" s="385" t="s">
+      <c r="C71" s="382" t="s">
         <v>343</v>
       </c>
       <c r="D71" s="45" t="s">
@@ -19207,7 +19260,7 @@
     <row r="72" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
-      <c r="C72" s="385" t="s">
+      <c r="C72" s="382" t="s">
         <v>404</v>
       </c>
       <c r="D72" s="45" t="s">
@@ -19223,7 +19276,7 @@
     <row r="73" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
-      <c r="C73" s="385"/>
+      <c r="C73" s="382"/>
       <c r="D73" s="45"/>
       <c r="E73" s="45"/>
       <c r="F73" s="45"/>
@@ -19240,35 +19293,33 @@
       <c r="B74" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="C74" s="409" t="s">
+      <c r="C74" s="406" t="s">
         <v>406</v>
       </c>
-      <c r="D74" s="407"/>
-      <c r="E74" s="407" t="s">
+      <c r="D74" s="404"/>
+      <c r="E74" s="404" t="s">
         <v>14</v>
       </c>
-      <c r="F74" s="376">
+      <c r="F74" s="373">
         <v>9</v>
       </c>
-      <c r="G74" s="377">
+      <c r="G74" s="374">
         <v>4500</v>
       </c>
-      <c r="H74" s="377">
+      <c r="H74" s="374">
         <v>13500</v>
       </c>
       <c r="I74" s="341">
         <v>27000</v>
       </c>
-      <c r="J74" s="341" t="s">
-        <v>423</v>
-      </c>
+      <c r="J74" s="341"/>
     </row>
     <row r="75" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>2</v>
       </c>
       <c r="B75" s="3"/>
-      <c r="C75" s="357" t="s">
+      <c r="C75" s="354" t="s">
         <v>407</v>
       </c>
       <c r="D75" s="47"/>
@@ -19288,18 +19339,18 @@
         <v>3</v>
       </c>
       <c r="B76" s="3"/>
-      <c r="C76" s="378" t="s">
+      <c r="C76" s="375" t="s">
         <v>350</v>
       </c>
-      <c r="D76" s="407"/>
-      <c r="E76" s="407" t="s">
+      <c r="D76" s="404"/>
+      <c r="E76" s="404" t="s">
         <v>14</v>
       </c>
-      <c r="F76" s="376">
-        <v>1</v>
-      </c>
-      <c r="G76" s="377"/>
-      <c r="H76" s="377">
+      <c r="F76" s="373">
+        <v>1</v>
+      </c>
+      <c r="G76" s="374"/>
+      <c r="H76" s="374">
         <v>2000</v>
       </c>
       <c r="I76" s="101" t="s">
@@ -19311,18 +19362,18 @@
         <v>4</v>
       </c>
       <c r="B77" s="3"/>
-      <c r="C77" s="378" t="s">
+      <c r="C77" s="375" t="s">
         <v>160</v>
       </c>
-      <c r="D77" s="407"/>
-      <c r="E77" s="407" t="s">
+      <c r="D77" s="404"/>
+      <c r="E77" s="404" t="s">
         <v>22</v>
       </c>
-      <c r="F77" s="376">
-        <v>1</v>
-      </c>
-      <c r="G77" s="377"/>
-      <c r="H77" s="377">
+      <c r="F77" s="373">
+        <v>1</v>
+      </c>
+      <c r="G77" s="374"/>
+      <c r="H77" s="374">
         <v>30500</v>
       </c>
       <c r="I77" s="101" t="s">
@@ -19334,18 +19385,18 @@
         <v>5</v>
       </c>
       <c r="B78" s="3"/>
-      <c r="C78" s="378" t="s">
+      <c r="C78" s="375" t="s">
         <v>160</v>
       </c>
-      <c r="D78" s="407"/>
-      <c r="E78" s="407" t="s">
+      <c r="D78" s="404"/>
+      <c r="E78" s="404" t="s">
         <v>14</v>
       </c>
-      <c r="F78" s="376">
-        <v>1</v>
-      </c>
-      <c r="G78" s="377"/>
-      <c r="H78" s="377">
+      <c r="F78" s="373">
+        <v>1</v>
+      </c>
+      <c r="G78" s="374"/>
+      <c r="H78" s="374">
         <v>9500</v>
       </c>
       <c r="I78" s="101" t="s">
@@ -19357,16 +19408,16 @@
         <v>6</v>
       </c>
       <c r="B79" s="3"/>
-      <c r="C79" s="378" t="s">
+      <c r="C79" s="375" t="s">
         <v>408</v>
       </c>
-      <c r="D79" s="407"/>
-      <c r="E79" s="407"/>
-      <c r="F79" s="376">
-        <v>1</v>
-      </c>
-      <c r="G79" s="377"/>
-      <c r="H79" s="377">
+      <c r="D79" s="404"/>
+      <c r="E79" s="404"/>
+      <c r="F79" s="373">
+        <v>1</v>
+      </c>
+      <c r="G79" s="374"/>
+      <c r="H79" s="374">
         <v>2650</v>
       </c>
       <c r="I79" s="101" t="s">
@@ -19378,16 +19429,16 @@
         <v>7</v>
       </c>
       <c r="B80" s="3"/>
-      <c r="C80" s="378" t="s">
+      <c r="C80" s="375" t="s">
         <v>409</v>
       </c>
-      <c r="D80" s="407"/>
-      <c r="E80" s="407"/>
-      <c r="F80" s="376">
-        <v>1</v>
-      </c>
-      <c r="G80" s="377"/>
-      <c r="H80" s="377">
+      <c r="D80" s="404"/>
+      <c r="E80" s="404"/>
+      <c r="F80" s="373">
+        <v>1</v>
+      </c>
+      <c r="G80" s="374"/>
+      <c r="H80" s="374">
         <v>3000</v>
       </c>
       <c r="I80" s="101" t="s">
@@ -19399,16 +19450,16 @@
         <v>8</v>
       </c>
       <c r="B81" s="3"/>
-      <c r="C81" s="378" t="s">
+      <c r="C81" s="375" t="s">
         <v>410</v>
       </c>
-      <c r="D81" s="407"/>
-      <c r="E81" s="407"/>
-      <c r="F81" s="376">
-        <v>1</v>
-      </c>
-      <c r="G81" s="377"/>
-      <c r="H81" s="377">
+      <c r="D81" s="404"/>
+      <c r="E81" s="404"/>
+      <c r="F81" s="373">
+        <v>1</v>
+      </c>
+      <c r="G81" s="374"/>
+      <c r="H81" s="374">
         <v>5000</v>
       </c>
       <c r="I81" s="101" t="s">
@@ -19440,7 +19491,7 @@
         <v>10</v>
       </c>
       <c r="B83" s="3"/>
-      <c r="C83" s="405" t="s">
+      <c r="C83" s="402" t="s">
         <v>412</v>
       </c>
       <c r="D83" s="70" t="s">
@@ -19460,18 +19511,18 @@
         <v>11</v>
       </c>
       <c r="B84" s="3"/>
-      <c r="C84" s="388" t="s">
+      <c r="C84" s="385" t="s">
         <v>197</v>
       </c>
-      <c r="D84" s="408"/>
-      <c r="E84" s="408" t="s">
+      <c r="D84" s="405"/>
+      <c r="E84" s="405" t="s">
         <v>22</v>
       </c>
-      <c r="F84" s="389">
-        <v>1</v>
-      </c>
-      <c r="G84" s="377"/>
-      <c r="H84" s="377">
+      <c r="F84" s="386">
+        <v>1</v>
+      </c>
+      <c r="G84" s="374"/>
+      <c r="H84" s="374">
         <v>21350</v>
       </c>
       <c r="I84" s="101" t="s">
@@ -19483,16 +19534,16 @@
         <v>12</v>
       </c>
       <c r="B85" s="3"/>
-      <c r="C85" s="388" t="s">
+      <c r="C85" s="385" t="s">
         <v>127</v>
       </c>
-      <c r="D85" s="408"/>
-      <c r="E85" s="408"/>
-      <c r="F85" s="389">
-        <v>1</v>
-      </c>
-      <c r="G85" s="377"/>
-      <c r="H85" s="377">
+      <c r="D85" s="405"/>
+      <c r="E85" s="405"/>
+      <c r="F85" s="386">
+        <v>1</v>
+      </c>
+      <c r="G85" s="374"/>
+      <c r="H85" s="374">
         <v>1750</v>
       </c>
       <c r="I85" s="101" t="s">
@@ -19507,7 +19558,7 @@
         <v>13</v>
       </c>
       <c r="B86" s="3"/>
-      <c r="C86" s="405" t="s">
+      <c r="C86" s="402" t="s">
         <v>208</v>
       </c>
       <c r="D86" s="70" t="s">
@@ -19527,18 +19578,18 @@
         <v>14</v>
       </c>
       <c r="B87" s="3"/>
-      <c r="C87" s="378" t="s">
+      <c r="C87" s="375" t="s">
         <v>197</v>
       </c>
-      <c r="D87" s="407"/>
-      <c r="E87" s="407" t="s">
+      <c r="D87" s="404"/>
+      <c r="E87" s="404" t="s">
         <v>14</v>
       </c>
-      <c r="F87" s="376">
-        <v>1</v>
-      </c>
-      <c r="G87" s="377"/>
-      <c r="H87" s="377">
+      <c r="F87" s="373">
+        <v>1</v>
+      </c>
+      <c r="G87" s="374"/>
+      <c r="H87" s="374">
         <v>6300</v>
       </c>
       <c r="I87" s="101" t="s">
@@ -19587,55 +19638,55 @@
         <v>1</v>
       </c>
       <c r="G90" s="4"/>
-      <c r="H90" s="373">
+      <c r="H90" s="370">
         <v>1000</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="3"/>
-      <c r="C91" s="401" t="s">
+      <c r="C91" s="398" t="s">
         <v>343</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="E91" s="401"/>
-      <c r="F91" s="402"/>
-      <c r="G91" s="402"/>
-      <c r="H91" s="403">
+      <c r="E91" s="398"/>
+      <c r="F91" s="399"/>
+      <c r="G91" s="399"/>
+      <c r="H91" s="400">
         <v>28500</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
-      <c r="B92" s="400"/>
-      <c r="C92" s="401" t="s">
+      <c r="B92" s="397"/>
+      <c r="C92" s="398" t="s">
         <v>363</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="E92" s="401"/>
+      <c r="E92" s="398"/>
       <c r="F92" s="4">
         <v>5</v>
       </c>
-      <c r="G92" s="404">
+      <c r="G92" s="401">
         <v>1500</v>
       </c>
-      <c r="H92" s="404">
+      <c r="H92" s="401">
         <v>7500</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
-      <c r="B93" s="400"/>
-      <c r="C93" s="400"/>
-      <c r="D93" s="400"/>
-      <c r="E93" s="400"/>
+      <c r="B93" s="397"/>
+      <c r="C93" s="397"/>
+      <c r="D93" s="397"/>
+      <c r="E93" s="397"/>
       <c r="F93" s="77"/>
       <c r="G93" s="77"/>
-      <c r="H93" s="367">
+      <c r="H93" s="364">
         <f>SUM(H88:H92)</f>
         <v>189550</v>
       </c>
@@ -19647,16 +19698,16 @@
       <c r="B94" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="C94" s="409" t="s">
+      <c r="C94" s="406" t="s">
         <v>341</v>
       </c>
-      <c r="D94" s="407"/>
-      <c r="E94" s="407"/>
-      <c r="F94" s="376">
-        <v>1</v>
-      </c>
-      <c r="G94" s="377"/>
-      <c r="H94" s="377">
+      <c r="D94" s="404"/>
+      <c r="E94" s="404"/>
+      <c r="F94" s="373">
+        <v>1</v>
+      </c>
+      <c r="G94" s="374"/>
+      <c r="H94" s="374">
         <v>3500</v>
       </c>
       <c r="I94" s="101" t="s">
@@ -19668,40 +19719,40 @@
         <v>2</v>
       </c>
       <c r="B95" s="3"/>
-      <c r="C95" s="378" t="s">
+      <c r="C95" s="375" t="s">
         <v>414</v>
       </c>
-      <c r="D95" s="407"/>
-      <c r="E95" s="407"/>
-      <c r="F95" s="376">
-        <v>1</v>
-      </c>
-      <c r="G95" s="377"/>
-      <c r="H95" s="377">
+      <c r="D95" s="404"/>
+      <c r="E95" s="404"/>
+      <c r="F95" s="373">
+        <v>1</v>
+      </c>
+      <c r="G95" s="374"/>
+      <c r="H95" s="374">
         <v>3500</v>
       </c>
       <c r="I95" s="101" t="s">
         <v>417</v>
       </c>
-      <c r="K95" s="410"/>
+      <c r="K95" s="407"/>
     </row>
     <row r="96" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>3</v>
       </c>
       <c r="B96" s="3"/>
-      <c r="C96" s="378" t="s">
+      <c r="C96" s="375" t="s">
         <v>299</v>
       </c>
-      <c r="D96" s="407"/>
-      <c r="E96" s="407" t="s">
+      <c r="D96" s="404"/>
+      <c r="E96" s="404" t="s">
         <v>22</v>
       </c>
-      <c r="F96" s="376">
-        <v>1</v>
-      </c>
-      <c r="G96" s="377"/>
-      <c r="H96" s="377">
+      <c r="F96" s="373">
+        <v>1</v>
+      </c>
+      <c r="G96" s="374"/>
+      <c r="H96" s="374">
         <v>20400</v>
       </c>
       <c r="I96" s="101" t="s">
@@ -19713,18 +19764,18 @@
         <v>4</v>
       </c>
       <c r="B97" s="3"/>
-      <c r="C97" s="378" t="s">
+      <c r="C97" s="375" t="s">
         <v>127</v>
       </c>
-      <c r="D97" s="407"/>
-      <c r="E97" s="407"/>
-      <c r="F97" s="376">
+      <c r="D97" s="404"/>
+      <c r="E97" s="404"/>
+      <c r="F97" s="373">
         <v>3</v>
       </c>
-      <c r="G97" s="377">
+      <c r="G97" s="374">
         <v>1750</v>
       </c>
-      <c r="H97" s="377">
+      <c r="H97" s="374">
         <v>5250</v>
       </c>
       <c r="I97" s="101" t="s">
@@ -19756,18 +19807,18 @@
         <v>6</v>
       </c>
       <c r="B99" s="3"/>
-      <c r="C99" s="378" t="s">
+      <c r="C99" s="375" t="s">
         <v>160</v>
       </c>
-      <c r="D99" s="407"/>
-      <c r="E99" s="407" t="s">
+      <c r="D99" s="404"/>
+      <c r="E99" s="404" t="s">
         <v>22</v>
       </c>
-      <c r="F99" s="376">
-        <v>1</v>
-      </c>
-      <c r="G99" s="377"/>
-      <c r="H99" s="377">
+      <c r="F99" s="373">
+        <v>1</v>
+      </c>
+      <c r="G99" s="374"/>
+      <c r="H99" s="374">
         <v>30500</v>
       </c>
       <c r="I99" s="101" t="s">
@@ -19779,7 +19830,7 @@
         <v>7</v>
       </c>
       <c r="B100" s="3"/>
-      <c r="C100" s="357" t="s">
+      <c r="C100" s="354" t="s">
         <v>415</v>
       </c>
       <c r="D100" s="47"/>
@@ -19841,7 +19892,7 @@
         <v>10</v>
       </c>
       <c r="B103" s="3"/>
-      <c r="C103" s="405" t="s">
+      <c r="C103" s="402" t="s">
         <v>27</v>
       </c>
       <c r="D103" s="70" t="s">
@@ -19861,16 +19912,16 @@
         <v>11</v>
       </c>
       <c r="B104" s="3"/>
-      <c r="C104" s="388" t="s">
+      <c r="C104" s="385" t="s">
         <v>109</v>
       </c>
-      <c r="D104" s="408"/>
-      <c r="E104" s="408"/>
-      <c r="F104" s="389">
-        <v>1</v>
-      </c>
-      <c r="G104" s="377"/>
-      <c r="H104" s="377">
+      <c r="D104" s="405"/>
+      <c r="E104" s="405"/>
+      <c r="F104" s="386">
+        <v>1</v>
+      </c>
+      <c r="G104" s="374"/>
+      <c r="H104" s="374">
         <v>3500</v>
       </c>
       <c r="I104" s="101" t="s">
@@ -19880,7 +19931,7 @@
     <row r="105" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
-      <c r="C105" s="405"/>
+      <c r="C105" s="402"/>
       <c r="D105" s="70"/>
       <c r="E105" s="70"/>
       <c r="F105" s="45"/>
@@ -19893,7 +19944,7 @@
     <row r="106" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
-      <c r="C106" s="405" t="s">
+      <c r="C106" s="402" t="s">
         <v>343</v>
       </c>
       <c r="D106" s="70" t="s">
@@ -19929,18 +19980,18 @@
       <c r="B108" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="C108" s="375" t="s">
+      <c r="C108" s="372" t="s">
         <v>281</v>
       </c>
-      <c r="D108" s="376"/>
-      <c r="E108" s="376" t="s">
+      <c r="D108" s="373"/>
+      <c r="E108" s="373" t="s">
         <v>8</v>
       </c>
-      <c r="F108" s="376">
-        <v>1</v>
-      </c>
-      <c r="G108" s="377"/>
-      <c r="H108" s="377">
+      <c r="F108" s="373">
+        <v>1</v>
+      </c>
+      <c r="G108" s="374"/>
+      <c r="H108" s="374">
         <v>40500</v>
       </c>
       <c r="I108" s="101" t="s">
@@ -19972,22 +20023,22 @@
         <v>3</v>
       </c>
       <c r="B110" s="4"/>
-      <c r="C110" s="378" t="s">
+      <c r="C110" s="375" t="s">
         <v>342</v>
       </c>
-      <c r="D110" s="376"/>
-      <c r="E110" s="376" t="s">
+      <c r="D110" s="373"/>
+      <c r="E110" s="373" t="s">
         <v>14</v>
       </c>
-      <c r="F110" s="376">
-        <v>1</v>
-      </c>
-      <c r="G110" s="377"/>
-      <c r="H110" s="377">
+      <c r="F110" s="373">
+        <v>1</v>
+      </c>
+      <c r="G110" s="374"/>
+      <c r="H110" s="374">
         <v>4500</v>
       </c>
       <c r="I110" s="101" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19995,7 +20046,7 @@
         <v>4</v>
       </c>
       <c r="B111" s="4"/>
-      <c r="C111" s="357" t="s">
+      <c r="C111" s="354" t="s">
         <v>419</v>
       </c>
       <c r="D111" s="8"/>
@@ -20013,20 +20064,20 @@
         <v>5</v>
       </c>
       <c r="B112" s="4"/>
-      <c r="C112" s="378" t="s">
+      <c r="C112" s="375" t="s">
         <v>197</v>
       </c>
-      <c r="D112" s="376"/>
-      <c r="E112" s="376" t="s">
+      <c r="D112" s="373"/>
+      <c r="E112" s="373" t="s">
         <v>22</v>
       </c>
-      <c r="F112" s="376">
+      <c r="F112" s="373">
         <v>2</v>
       </c>
-      <c r="G112" s="377">
+      <c r="G112" s="374">
         <v>21350</v>
       </c>
-      <c r="H112" s="377">
+      <c r="H112" s="374">
         <v>42700</v>
       </c>
       <c r="I112" s="101" t="s">
@@ -20038,20 +20089,20 @@
         <v>6</v>
       </c>
       <c r="B113" s="4"/>
-      <c r="C113" s="378" t="s">
+      <c r="C113" s="375" t="s">
         <v>196</v>
       </c>
-      <c r="D113" s="376"/>
-      <c r="E113" s="376" t="s">
+      <c r="D113" s="373"/>
+      <c r="E113" s="373" t="s">
         <v>8</v>
       </c>
-      <c r="F113" s="376">
+      <c r="F113" s="373">
         <v>2</v>
       </c>
-      <c r="G113" s="377">
+      <c r="G113" s="374">
         <v>22300</v>
       </c>
-      <c r="H113" s="377">
+      <c r="H113" s="374">
         <v>44600</v>
       </c>
       <c r="I113" s="101" t="s">
@@ -20063,16 +20114,16 @@
         <v>7</v>
       </c>
       <c r="B114" s="4"/>
-      <c r="C114" s="378" t="s">
+      <c r="C114" s="375" t="s">
         <v>341</v>
       </c>
-      <c r="D114" s="376"/>
-      <c r="E114" s="376"/>
-      <c r="F114" s="376">
-        <v>1</v>
-      </c>
-      <c r="G114" s="377"/>
-      <c r="H114" s="377">
+      <c r="D114" s="373"/>
+      <c r="E114" s="373"/>
+      <c r="F114" s="373">
+        <v>1</v>
+      </c>
+      <c r="G114" s="374"/>
+      <c r="H114" s="374">
         <v>3500</v>
       </c>
       <c r="I114" s="101" t="s">
@@ -20084,18 +20135,18 @@
         <v>8</v>
       </c>
       <c r="B115" s="4"/>
-      <c r="C115" s="378" t="s">
+      <c r="C115" s="375" t="s">
         <v>54</v>
       </c>
-      <c r="D115" s="376"/>
-      <c r="E115" s="376"/>
-      <c r="F115" s="376">
+      <c r="D115" s="373"/>
+      <c r="E115" s="373"/>
+      <c r="F115" s="373">
         <v>2</v>
       </c>
-      <c r="G115" s="377">
+      <c r="G115" s="374">
         <v>4500</v>
       </c>
-      <c r="H115" s="377">
+      <c r="H115" s="374">
         <v>9000</v>
       </c>
       <c r="I115" s="101" t="s">
@@ -20127,16 +20178,16 @@
         <v>10</v>
       </c>
       <c r="B117" s="4"/>
-      <c r="C117" s="388" t="s">
+      <c r="C117" s="385" t="s">
         <v>161</v>
       </c>
-      <c r="D117" s="389"/>
-      <c r="E117" s="389"/>
-      <c r="F117" s="389">
-        <v>1</v>
-      </c>
-      <c r="G117" s="377"/>
-      <c r="H117" s="377">
+      <c r="D117" s="386"/>
+      <c r="E117" s="386"/>
+      <c r="F117" s="386">
+        <v>1</v>
+      </c>
+      <c r="G117" s="374"/>
+      <c r="H117" s="374">
         <v>3150</v>
       </c>
       <c r="I117" s="101" t="s">
@@ -20148,7 +20199,7 @@
         <v>11</v>
       </c>
       <c r="B118" s="4"/>
-      <c r="C118" s="405" t="s">
+      <c r="C118" s="402" t="s">
         <v>111</v>
       </c>
       <c r="D118" s="45" t="s">
@@ -20170,7 +20221,7 @@
         <v>12</v>
       </c>
       <c r="B119" s="4"/>
-      <c r="C119" s="421" t="s">
+      <c r="C119" s="418" t="s">
         <v>350</v>
       </c>
       <c r="D119" s="235"/>
@@ -20178,8 +20229,8 @@
       <c r="F119" s="235">
         <v>1</v>
       </c>
-      <c r="G119" s="356"/>
-      <c r="H119" s="356">
+      <c r="G119" s="353"/>
+      <c r="H119" s="353">
         <v>2000</v>
       </c>
     </row>
@@ -20188,16 +20239,16 @@
         <v>13</v>
       </c>
       <c r="B120" s="4"/>
-      <c r="C120" s="388" t="s">
+      <c r="C120" s="385" t="s">
         <v>132</v>
       </c>
-      <c r="D120" s="389"/>
-      <c r="E120" s="389"/>
-      <c r="F120" s="389">
-        <v>1</v>
-      </c>
-      <c r="G120" s="377"/>
-      <c r="H120" s="377">
+      <c r="D120" s="386"/>
+      <c r="E120" s="386"/>
+      <c r="F120" s="386">
+        <v>1</v>
+      </c>
+      <c r="G120" s="374"/>
+      <c r="H120" s="374">
         <v>2900</v>
       </c>
       <c r="I120" s="101" t="s">
@@ -20207,7 +20258,7 @@
     <row r="121" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="4"/>
-      <c r="C121" s="405"/>
+      <c r="C121" s="402"/>
       <c r="D121" s="45"/>
       <c r="E121" s="45"/>
       <c r="F121" s="45"/>
@@ -20277,7 +20328,7 @@
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
-      <c r="H125" s="374">
+      <c r="H125" s="371">
         <f>SUM(H121:H124)</f>
         <v>252650</v>
       </c>
@@ -20285,20 +20336,20 @@
     <row r="126" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="4"/>
-      <c r="C126" s="411" t="s">
+      <c r="C126" s="408" t="s">
         <v>299</v>
       </c>
-      <c r="D126" s="376" t="s">
+      <c r="D126" s="373" t="s">
         <v>420</v>
       </c>
-      <c r="E126" s="411" t="s">
+      <c r="E126" s="408" t="s">
         <v>22</v>
       </c>
-      <c r="F126" s="376">
-        <v>1</v>
-      </c>
-      <c r="G126" s="411"/>
-      <c r="H126" s="412" t="s">
+      <c r="F126" s="373">
+        <v>1</v>
+      </c>
+      <c r="G126" s="408"/>
+      <c r="H126" s="409" t="s">
         <v>153</v>
       </c>
       <c r="I126" s="101" t="s">
@@ -20306,20 +20357,20 @@
       </c>
     </row>
     <row r="127" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="400"/>
+      <c r="A127" s="397"/>
       <c r="B127" s="77"/>
-      <c r="C127" s="411" t="s">
+      <c r="C127" s="408" t="s">
         <v>127</v>
       </c>
-      <c r="D127" s="376" t="s">
+      <c r="D127" s="373" t="s">
         <v>420</v>
       </c>
-      <c r="E127" s="411"/>
-      <c r="F127" s="376">
-        <v>1</v>
-      </c>
-      <c r="G127" s="413"/>
-      <c r="H127" s="413" t="s">
+      <c r="E127" s="408"/>
+      <c r="F127" s="373">
+        <v>1</v>
+      </c>
+      <c r="G127" s="410"/>
+      <c r="H127" s="410" t="s">
         <v>153</v>
       </c>
       <c r="I127" s="101" t="s">
@@ -20327,22 +20378,22 @@
       </c>
     </row>
     <row r="128" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="400"/>
+      <c r="A128" s="397"/>
       <c r="B128" s="77"/>
-      <c r="C128" s="375" t="s">
+      <c r="C128" s="372" t="s">
         <v>197</v>
       </c>
-      <c r="D128" s="376" t="s">
+      <c r="D128" s="373" t="s">
         <v>421</v>
       </c>
-      <c r="E128" s="414" t="s">
+      <c r="E128" s="411" t="s">
         <v>14</v>
       </c>
-      <c r="F128" s="376">
-        <v>1</v>
-      </c>
-      <c r="G128" s="414"/>
-      <c r="H128" s="415" t="s">
+      <c r="F128" s="373">
+        <v>1</v>
+      </c>
+      <c r="G128" s="411"/>
+      <c r="H128" s="412" t="s">
         <v>153</v>
       </c>
       <c r="I128" s="101" t="s">
@@ -20405,22 +20456,22 @@
         <v>1</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="C132" s="409" t="s">
+        <v>423</v>
+      </c>
+      <c r="C132" s="406" t="s">
         <v>109</v>
       </c>
-      <c r="D132" s="407"/>
-      <c r="E132" s="407"/>
-      <c r="F132" s="376">
-        <v>1</v>
-      </c>
-      <c r="G132" s="377"/>
-      <c r="H132" s="377">
+      <c r="D132" s="404"/>
+      <c r="E132" s="404"/>
+      <c r="F132" s="373">
+        <v>1</v>
+      </c>
+      <c r="G132" s="374"/>
+      <c r="H132" s="374">
         <v>3500</v>
       </c>
       <c r="I132" s="101" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20428,22 +20479,22 @@
         <v>2</v>
       </c>
       <c r="B133" s="3"/>
-      <c r="C133" s="379" t="s">
+      <c r="C133" s="376" t="s">
         <v>120</v>
       </c>
-      <c r="D133" s="407"/>
-      <c r="E133" s="407"/>
-      <c r="F133" s="376">
+      <c r="D133" s="404"/>
+      <c r="E133" s="404"/>
+      <c r="F133" s="373">
         <v>4</v>
       </c>
-      <c r="G133" s="377">
+      <c r="G133" s="374">
         <v>3000</v>
       </c>
-      <c r="H133" s="377">
+      <c r="H133" s="374">
         <v>12000</v>
       </c>
       <c r="I133" s="101" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20451,24 +20502,24 @@
         <v>3</v>
       </c>
       <c r="B134" s="3"/>
-      <c r="C134" s="379" t="s">
+      <c r="C134" s="375" t="s">
         <v>406</v>
       </c>
-      <c r="D134" s="407"/>
-      <c r="E134" s="407" t="s">
+      <c r="D134" s="404"/>
+      <c r="E134" s="404" t="s">
         <v>14</v>
       </c>
-      <c r="F134" s="376">
+      <c r="F134" s="373">
         <v>5</v>
       </c>
-      <c r="G134" s="377">
+      <c r="G134" s="374">
         <v>4500</v>
       </c>
-      <c r="H134" s="377">
+      <c r="H134" s="374">
         <v>22500</v>
       </c>
       <c r="I134" s="101" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20476,20 +20527,20 @@
         <v>4</v>
       </c>
       <c r="B135" s="3"/>
-      <c r="C135" s="379" t="s">
+      <c r="C135" s="376" t="s">
         <v>132</v>
       </c>
-      <c r="D135" s="407"/>
-      <c r="E135" s="407"/>
-      <c r="F135" s="376">
-        <v>1</v>
-      </c>
-      <c r="G135" s="377"/>
-      <c r="H135" s="377">
+      <c r="D135" s="404"/>
+      <c r="E135" s="404"/>
+      <c r="F135" s="373">
+        <v>1</v>
+      </c>
+      <c r="G135" s="374"/>
+      <c r="H135" s="374">
         <v>2900</v>
       </c>
       <c r="I135" s="101" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20497,18 +20548,18 @@
         <v>5</v>
       </c>
       <c r="B136" s="3"/>
-      <c r="C136" s="379" t="s">
-        <v>425</v>
-      </c>
-      <c r="D136" s="407"/>
-      <c r="E136" s="407"/>
-      <c r="F136" s="376"/>
-      <c r="G136" s="377"/>
-      <c r="H136" s="377">
+      <c r="C136" s="376" t="s">
+        <v>424</v>
+      </c>
+      <c r="D136" s="404"/>
+      <c r="E136" s="404"/>
+      <c r="F136" s="373"/>
+      <c r="G136" s="374"/>
+      <c r="H136" s="374">
         <v>2650</v>
       </c>
       <c r="I136" s="101" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20528,7 +20579,7 @@
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="260" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -20576,24 +20627,24 @@
         <v>1</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="C141" s="375" t="s">
+        <v>426</v>
+      </c>
+      <c r="C141" s="372" t="s">
         <v>200</v>
       </c>
-      <c r="D141" s="407"/>
-      <c r="E141" s="407" t="s">
+      <c r="D141" s="404"/>
+      <c r="E141" s="404" t="s">
         <v>8</v>
       </c>
-      <c r="F141" s="407">
-        <v>1</v>
-      </c>
-      <c r="G141" s="417"/>
-      <c r="H141" s="377">
+      <c r="F141" s="404">
+        <v>1</v>
+      </c>
+      <c r="G141" s="414"/>
+      <c r="H141" s="374">
         <v>40500</v>
       </c>
       <c r="I141" s="101" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20601,22 +20652,22 @@
         <v>2</v>
       </c>
       <c r="B142" s="3"/>
-      <c r="C142" s="378" t="s">
+      <c r="C142" s="375" t="s">
         <v>200</v>
       </c>
-      <c r="D142" s="407"/>
-      <c r="E142" s="407" t="s">
+      <c r="D142" s="404"/>
+      <c r="E142" s="404" t="s">
         <v>14</v>
       </c>
-      <c r="F142" s="407">
-        <v>1</v>
-      </c>
-      <c r="G142" s="417"/>
-      <c r="H142" s="377">
+      <c r="F142" s="404">
+        <v>1</v>
+      </c>
+      <c r="G142" s="414"/>
+      <c r="H142" s="374">
         <v>10500</v>
       </c>
       <c r="I142" s="101" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20624,20 +20675,20 @@
         <v>3</v>
       </c>
       <c r="B143" s="3"/>
-      <c r="C143" s="378" t="s">
+      <c r="C143" s="375" t="s">
         <v>329</v>
       </c>
-      <c r="D143" s="407"/>
-      <c r="E143" s="407"/>
-      <c r="F143" s="407">
-        <v>1</v>
-      </c>
-      <c r="G143" s="417"/>
-      <c r="H143" s="377">
+      <c r="D143" s="404"/>
+      <c r="E143" s="404"/>
+      <c r="F143" s="404">
+        <v>1</v>
+      </c>
+      <c r="G143" s="414"/>
+      <c r="H143" s="374">
         <v>3350</v>
       </c>
       <c r="I143" s="101" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20705,24 +20756,24 @@
         <v>1</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="C148" s="375" t="s">
+        <v>428</v>
+      </c>
+      <c r="C148" s="372" t="s">
         <v>160</v>
       </c>
-      <c r="D148" s="407"/>
-      <c r="E148" s="407" t="s">
+      <c r="D148" s="404"/>
+      <c r="E148" s="404" t="s">
         <v>22</v>
       </c>
-      <c r="F148" s="407">
-        <v>1</v>
-      </c>
-      <c r="G148" s="417"/>
-      <c r="H148" s="377">
+      <c r="F148" s="404">
+        <v>1</v>
+      </c>
+      <c r="G148" s="414"/>
+      <c r="H148" s="374">
         <v>30500</v>
       </c>
       <c r="I148" s="101" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20730,20 +20781,20 @@
         <v>2</v>
       </c>
       <c r="B149" s="4"/>
-      <c r="C149" s="378" t="s">
+      <c r="C149" s="375" t="s">
         <v>127</v>
       </c>
-      <c r="D149" s="407"/>
-      <c r="E149" s="407"/>
-      <c r="F149" s="407">
-        <v>1</v>
-      </c>
-      <c r="G149" s="417"/>
-      <c r="H149" s="377">
+      <c r="D149" s="404"/>
+      <c r="E149" s="404"/>
+      <c r="F149" s="404">
+        <v>1</v>
+      </c>
+      <c r="G149" s="414"/>
+      <c r="H149" s="374">
         <v>1750</v>
       </c>
       <c r="I149" s="101" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20751,20 +20802,20 @@
         <v>3</v>
       </c>
       <c r="B150" s="4"/>
-      <c r="C150" s="378" t="s">
+      <c r="C150" s="375" t="s">
         <v>109</v>
       </c>
-      <c r="D150" s="407"/>
-      <c r="E150" s="407"/>
-      <c r="F150" s="407">
-        <v>1</v>
-      </c>
-      <c r="G150" s="417"/>
-      <c r="H150" s="377">
+      <c r="D150" s="404"/>
+      <c r="E150" s="404"/>
+      <c r="F150" s="404">
+        <v>1</v>
+      </c>
+      <c r="G150" s="414"/>
+      <c r="H150" s="374">
         <v>3500</v>
       </c>
       <c r="I150" s="101" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20822,7 +20873,7 @@
       <c r="A154" s="4"/>
       <c r="B154" s="3"/>
       <c r="C154" s="260" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D154" s="4" t="s">
         <v>351</v>
@@ -20852,26 +20903,26 @@
         <v>1</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="C156" s="375" t="s">
+        <v>430</v>
+      </c>
+      <c r="C156" s="406" t="s">
         <v>406</v>
       </c>
-      <c r="D156" s="407"/>
-      <c r="E156" s="407" t="s">
+      <c r="D156" s="404"/>
+      <c r="E156" s="404" t="s">
         <v>14</v>
       </c>
-      <c r="F156" s="407">
+      <c r="F156" s="373">
         <v>2</v>
       </c>
-      <c r="G156" s="417">
+      <c r="G156" s="374">
         <v>4500</v>
       </c>
-      <c r="H156" s="377">
+      <c r="H156" s="374">
         <v>9000</v>
       </c>
       <c r="I156" s="101" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20901,22 +20952,22 @@
         <v>3</v>
       </c>
       <c r="B158" s="4"/>
-      <c r="C158" s="378" t="s">
+      <c r="C158" s="375" t="s">
         <v>196</v>
       </c>
-      <c r="D158" s="376"/>
-      <c r="E158" s="407" t="s">
+      <c r="D158" s="373"/>
+      <c r="E158" s="404" t="s">
         <v>8</v>
       </c>
-      <c r="F158" s="407">
-        <v>1</v>
-      </c>
-      <c r="G158" s="417"/>
-      <c r="H158" s="377">
+      <c r="F158" s="404">
+        <v>1</v>
+      </c>
+      <c r="G158" s="414"/>
+      <c r="H158" s="374">
         <v>22300</v>
       </c>
       <c r="I158" s="101" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20924,22 +20975,22 @@
         <v>4</v>
       </c>
       <c r="B159" s="3"/>
-      <c r="C159" s="378" t="s">
+      <c r="C159" s="375" t="s">
         <v>196</v>
       </c>
-      <c r="D159" s="376"/>
-      <c r="E159" s="407" t="s">
+      <c r="D159" s="373"/>
+      <c r="E159" s="404" t="s">
         <v>14</v>
       </c>
-      <c r="F159" s="407">
-        <v>1</v>
-      </c>
-      <c r="G159" s="417"/>
-      <c r="H159" s="377">
+      <c r="F159" s="404">
+        <v>1</v>
+      </c>
+      <c r="G159" s="414"/>
+      <c r="H159" s="374">
         <v>5350</v>
       </c>
       <c r="I159" s="101" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20947,20 +20998,20 @@
         <v>5</v>
       </c>
       <c r="B160" s="3"/>
-      <c r="C160" s="378" t="s">
+      <c r="C160" s="375" t="s">
         <v>54</v>
       </c>
-      <c r="D160" s="376"/>
-      <c r="E160" s="407"/>
-      <c r="F160" s="407">
-        <v>1</v>
-      </c>
-      <c r="G160" s="417"/>
-      <c r="H160" s="377">
+      <c r="D160" s="373"/>
+      <c r="E160" s="404"/>
+      <c r="F160" s="404">
+        <v>1</v>
+      </c>
+      <c r="G160" s="414"/>
+      <c r="H160" s="374">
         <v>4500</v>
       </c>
       <c r="I160" s="101" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="161" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20969,7 +21020,7 @@
       </c>
       <c r="B161" s="3"/>
       <c r="C161" s="260" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D161" s="4"/>
       <c r="E161" s="3" t="s">
@@ -21009,7 +21060,7 @@
       </c>
       <c r="B163" s="3"/>
       <c r="C163" s="260" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>244</v>
@@ -21030,22 +21081,22 @@
         <v>9</v>
       </c>
       <c r="B164" s="3"/>
-      <c r="C164" s="379" t="s">
+      <c r="C164" s="376" t="s">
         <v>128</v>
       </c>
-      <c r="D164" s="376"/>
-      <c r="E164" s="407"/>
-      <c r="F164" s="376">
+      <c r="D164" s="373"/>
+      <c r="E164" s="404"/>
+      <c r="F164" s="373">
         <v>4</v>
       </c>
-      <c r="G164" s="417">
+      <c r="G164" s="414">
         <v>3000</v>
       </c>
-      <c r="H164" s="377">
+      <c r="H164" s="374">
         <v>12000</v>
       </c>
       <c r="I164" s="101" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="165" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21053,22 +21104,22 @@
         <v>10</v>
       </c>
       <c r="B165" s="3"/>
-      <c r="C165" s="379" t="s">
+      <c r="C165" s="376" t="s">
         <v>197</v>
       </c>
-      <c r="D165" s="376"/>
-      <c r="E165" s="407" t="s">
+      <c r="D165" s="373"/>
+      <c r="E165" s="404" t="s">
         <v>22</v>
       </c>
-      <c r="F165" s="376">
-        <v>1</v>
-      </c>
-      <c r="G165" s="417"/>
-      <c r="H165" s="377">
+      <c r="F165" s="373">
+        <v>1</v>
+      </c>
+      <c r="G165" s="414"/>
+      <c r="H165" s="374">
         <v>21350</v>
       </c>
       <c r="I165" s="101" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21076,20 +21127,20 @@
         <v>11</v>
       </c>
       <c r="B166" s="3"/>
-      <c r="C166" s="379" t="s">
+      <c r="C166" s="376" t="s">
         <v>127</v>
       </c>
-      <c r="D166" s="376"/>
-      <c r="E166" s="407"/>
-      <c r="F166" s="407">
-        <v>1</v>
-      </c>
-      <c r="G166" s="417"/>
-      <c r="H166" s="377">
+      <c r="D166" s="373"/>
+      <c r="E166" s="404"/>
+      <c r="F166" s="404">
+        <v>1</v>
+      </c>
+      <c r="G166" s="414"/>
+      <c r="H166" s="374">
         <v>1750</v>
       </c>
       <c r="I166" s="101" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="167" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21097,11 +21148,11 @@
         <v>12</v>
       </c>
       <c r="B167" s="3"/>
-      <c r="C167" s="385" t="s">
+      <c r="C167" s="382" t="s">
         <v>27</v>
       </c>
       <c r="D167" s="45" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E167" s="70"/>
       <c r="F167" s="70">
@@ -21117,26 +21168,26 @@
         <v>13</v>
       </c>
       <c r="B168" s="3"/>
-      <c r="C168" s="397" t="s">
+      <c r="C168" s="394" t="s">
         <v>109</v>
       </c>
-      <c r="D168" s="389"/>
-      <c r="E168" s="408"/>
-      <c r="F168" s="408">
-        <v>1</v>
-      </c>
-      <c r="G168" s="417"/>
-      <c r="H168" s="377">
+      <c r="D168" s="386"/>
+      <c r="E168" s="405"/>
+      <c r="F168" s="405">
+        <v>1</v>
+      </c>
+      <c r="G168" s="414"/>
+      <c r="H168" s="374">
         <v>3500</v>
       </c>
       <c r="I168" s="101" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="169" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
-      <c r="C169" s="385"/>
+      <c r="C169" s="382"/>
       <c r="D169" s="45"/>
       <c r="E169" s="70"/>
       <c r="F169" s="70"/>
@@ -21149,8 +21200,8 @@
     <row r="170" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
-      <c r="C170" s="405" t="s">
-        <v>430</v>
+      <c r="C170" s="402" t="s">
+        <v>429</v>
       </c>
       <c r="D170" s="45" t="s">
         <v>385</v>
@@ -21165,8 +21216,8 @@
     <row r="171" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
-      <c r="C171" s="405" t="s">
-        <v>435</v>
+      <c r="C171" s="402" t="s">
+        <v>434</v>
       </c>
       <c r="D171" s="70"/>
       <c r="E171" s="70"/>
@@ -21194,10 +21245,10 @@
         <v>1</v>
       </c>
       <c r="B173" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="C173" s="315" t="s">
         <v>436</v>
-      </c>
-      <c r="C173" s="315" t="s">
-        <v>437</v>
       </c>
       <c r="D173" s="275" t="s">
         <v>104</v>
@@ -21211,7 +21262,7 @@
         <v>5000</v>
       </c>
       <c r="I173" s="101" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L173" s="101" t="s">
         <v>266</v>
@@ -21222,20 +21273,20 @@
         <v>2</v>
       </c>
       <c r="B174" s="4"/>
-      <c r="C174" s="357" t="s">
-        <v>438</v>
+      <c r="C174" s="354" t="s">
+        <v>437</v>
       </c>
       <c r="D174" s="8"/>
       <c r="E174" s="47"/>
       <c r="F174" s="47">
         <v>1</v>
       </c>
-      <c r="G174" s="422"/>
+      <c r="G174" s="419"/>
       <c r="H174" s="79">
         <v>4000</v>
       </c>
       <c r="I174" s="19" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L174" s="101" t="s">
         <v>266</v>
@@ -21261,7 +21312,7 @@
         <v>21350</v>
       </c>
       <c r="I175" s="101" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="176" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21282,7 +21333,7 @@
         <v>1750</v>
       </c>
       <c r="I176" s="101" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21338,7 +21389,7 @@
       <c r="A180" s="4"/>
       <c r="B180" s="3"/>
       <c r="C180" s="193" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D180" s="4"/>
       <c r="E180" s="3"/>
@@ -21354,7 +21405,7 @@
       <c r="A181" s="4"/>
       <c r="B181" s="3"/>
       <c r="C181" s="193" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D181" s="4" t="s">
         <v>351</v>
@@ -21384,7 +21435,7 @@
         <v>1</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C183" s="188" t="s">
         <v>208</v>
@@ -21407,7 +21458,7 @@
       </c>
       <c r="B184" s="4"/>
       <c r="C184" s="313" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D184" s="275"/>
       <c r="E184" s="265" t="s">
@@ -21421,7 +21472,7 @@
         <v>58500</v>
       </c>
       <c r="I184" s="101" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21444,7 +21495,7 @@
         <v>3500</v>
       </c>
       <c r="I185" s="101" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21465,7 +21516,7 @@
         <v>4500</v>
       </c>
       <c r="I186" s="101" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21490,7 +21541,7 @@
         <v>61000</v>
       </c>
       <c r="I187" s="101" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21502,7 +21553,7 @@
         <v>50</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E188" s="3"/>
       <c r="F188" s="4">
@@ -21521,10 +21572,10 @@
       </c>
       <c r="B189" s="3"/>
       <c r="C189" s="193" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E189" s="3"/>
       <c r="F189" s="4">
@@ -21555,7 +21606,7 @@
         <v>2650</v>
       </c>
       <c r="I190" s="101" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21575,7 +21626,7 @@
       <c r="A192" s="4"/>
       <c r="B192" s="3"/>
       <c r="C192" s="193" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D192" s="4" t="s">
         <v>346</v>
@@ -21642,14 +21693,14 @@
       </c>
     </row>
     <row r="196" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="418"/>
-      <c r="B196" s="418"/>
-      <c r="C196" s="418"/>
-      <c r="D196" s="418"/>
-      <c r="E196" s="418"/>
-      <c r="F196" s="418"/>
-      <c r="G196" s="418"/>
-      <c r="H196" s="374">
+      <c r="A196" s="415"/>
+      <c r="B196" s="415"/>
+      <c r="C196" s="415"/>
+      <c r="D196" s="415"/>
+      <c r="E196" s="415"/>
+      <c r="F196" s="415"/>
+      <c r="G196" s="415"/>
+      <c r="H196" s="371">
         <f>SUM(H191:H195)</f>
         <v>228550</v>
       </c>
@@ -21659,24 +21710,24 @@
         <v>1</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="C197" s="375" t="s">
+        <v>443</v>
+      </c>
+      <c r="C197" s="372" t="s">
         <v>196</v>
       </c>
-      <c r="D197" s="376"/>
-      <c r="E197" s="407" t="s">
+      <c r="D197" s="373"/>
+      <c r="E197" s="404" t="s">
         <v>8</v>
       </c>
-      <c r="F197" s="407">
-        <v>1</v>
-      </c>
-      <c r="G197" s="377"/>
-      <c r="H197" s="377">
+      <c r="F197" s="404">
+        <v>1</v>
+      </c>
+      <c r="G197" s="374"/>
+      <c r="H197" s="374">
         <v>22300</v>
       </c>
       <c r="I197" s="101" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21684,24 +21735,24 @@
         <v>2</v>
       </c>
       <c r="B198" s="4"/>
-      <c r="C198" s="378" t="s">
+      <c r="C198" s="375" t="s">
         <v>196</v>
       </c>
-      <c r="D198" s="376"/>
-      <c r="E198" s="407" t="s">
+      <c r="D198" s="373"/>
+      <c r="E198" s="404" t="s">
         <v>14</v>
       </c>
-      <c r="F198" s="407">
+      <c r="F198" s="404">
         <v>4</v>
       </c>
-      <c r="G198" s="377">
+      <c r="G198" s="374">
         <v>5350</v>
       </c>
-      <c r="H198" s="377">
+      <c r="H198" s="374">
         <v>21400</v>
       </c>
       <c r="I198" s="101" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21709,20 +21760,20 @@
         <v>3</v>
       </c>
       <c r="B199" s="4"/>
-      <c r="C199" s="378" t="s">
-        <v>437</v>
-      </c>
-      <c r="D199" s="376"/>
-      <c r="E199" s="407"/>
-      <c r="F199" s="407">
-        <v>1</v>
-      </c>
-      <c r="G199" s="377"/>
-      <c r="H199" s="377">
+      <c r="C199" s="375" t="s">
+        <v>436</v>
+      </c>
+      <c r="D199" s="373"/>
+      <c r="E199" s="404"/>
+      <c r="F199" s="404">
+        <v>1</v>
+      </c>
+      <c r="G199" s="374"/>
+      <c r="H199" s="374">
         <v>5000</v>
       </c>
       <c r="I199" s="101" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21730,20 +21781,20 @@
         <v>4</v>
       </c>
       <c r="B200" s="3"/>
-      <c r="C200" s="378" t="s">
+      <c r="C200" s="375" t="s">
         <v>350</v>
       </c>
-      <c r="D200" s="376"/>
-      <c r="E200" s="407"/>
-      <c r="F200" s="407">
-        <v>1</v>
-      </c>
-      <c r="G200" s="377"/>
-      <c r="H200" s="377">
+      <c r="D200" s="373"/>
+      <c r="E200" s="404"/>
+      <c r="F200" s="404">
+        <v>1</v>
+      </c>
+      <c r="G200" s="374"/>
+      <c r="H200" s="374">
         <v>2000</v>
       </c>
       <c r="I200" s="101" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21751,22 +21802,22 @@
         <v>5</v>
       </c>
       <c r="B201" s="3"/>
-      <c r="C201" s="378" t="s">
-        <v>445</v>
-      </c>
-      <c r="D201" s="376"/>
-      <c r="E201" s="407" t="s">
+      <c r="C201" s="375" t="s">
+        <v>444</v>
+      </c>
+      <c r="D201" s="373"/>
+      <c r="E201" s="404" t="s">
         <v>8</v>
       </c>
-      <c r="F201" s="407">
-        <v>1</v>
-      </c>
-      <c r="G201" s="377"/>
-      <c r="H201" s="377">
+      <c r="F201" s="404">
+        <v>1</v>
+      </c>
+      <c r="G201" s="374"/>
+      <c r="H201" s="374">
         <v>66500</v>
       </c>
       <c r="I201" s="101" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21774,20 +21825,20 @@
         <v>6</v>
       </c>
       <c r="B202" s="3"/>
-      <c r="C202" s="379" t="s">
+      <c r="C202" s="376" t="s">
         <v>223</v>
       </c>
-      <c r="D202" s="376"/>
-      <c r="E202" s="407"/>
-      <c r="F202" s="376">
-        <v>1</v>
-      </c>
-      <c r="G202" s="377"/>
-      <c r="H202" s="377">
+      <c r="D202" s="373"/>
+      <c r="E202" s="404"/>
+      <c r="F202" s="373">
+        <v>1</v>
+      </c>
+      <c r="G202" s="374"/>
+      <c r="H202" s="374">
         <v>2500</v>
       </c>
       <c r="I202" s="101" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21795,24 +21846,24 @@
         <v>7</v>
       </c>
       <c r="B203" s="3"/>
-      <c r="C203" s="379" t="s">
+      <c r="C203" s="376" t="s">
         <v>151</v>
       </c>
-      <c r="D203" s="376"/>
-      <c r="E203" s="407" t="s">
+      <c r="D203" s="373"/>
+      <c r="E203" s="404" t="s">
         <v>14</v>
       </c>
-      <c r="F203" s="376">
+      <c r="F203" s="373">
         <v>2</v>
       </c>
-      <c r="G203" s="377">
+      <c r="G203" s="374">
         <v>6300</v>
       </c>
-      <c r="H203" s="377">
+      <c r="H203" s="374">
         <v>12600</v>
       </c>
       <c r="I203" s="101" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21832,7 +21883,7 @@
       <c r="A205" s="4"/>
       <c r="B205" s="3"/>
       <c r="C205" s="193" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D205" s="4" t="s">
         <v>254</v>
@@ -21854,7 +21905,7 @@
       <c r="A206" s="4"/>
       <c r="B206" s="3"/>
       <c r="C206" s="193" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D206" s="4" t="s">
         <v>357</v>
@@ -21886,22 +21937,22 @@
         <v>1</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="C208" s="375" t="s">
+        <v>446</v>
+      </c>
+      <c r="C208" s="372" t="s">
         <v>341</v>
       </c>
-      <c r="D208" s="376"/>
-      <c r="E208" s="407"/>
-      <c r="F208" s="407">
-        <v>1</v>
-      </c>
-      <c r="G208" s="377"/>
-      <c r="H208" s="377">
+      <c r="D208" s="373"/>
+      <c r="E208" s="404"/>
+      <c r="F208" s="404">
+        <v>1</v>
+      </c>
+      <c r="G208" s="374"/>
+      <c r="H208" s="374">
         <v>3500</v>
       </c>
       <c r="I208" s="101" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21909,24 +21960,24 @@
         <v>2</v>
       </c>
       <c r="B209" s="4"/>
-      <c r="C209" s="424" t="s">
+      <c r="C209" s="421" t="s">
         <v>342</v>
       </c>
-      <c r="D209" s="425"/>
-      <c r="E209" s="426" t="s">
+      <c r="D209" s="422"/>
+      <c r="E209" s="423" t="s">
         <v>14</v>
       </c>
-      <c r="F209" s="426">
+      <c r="F209" s="422">
         <v>9</v>
       </c>
-      <c r="G209" s="427">
+      <c r="G209" s="424">
         <v>4500</v>
       </c>
-      <c r="H209" s="427">
+      <c r="H209" s="424">
         <v>40500</v>
       </c>
       <c r="I209" s="341" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21934,20 +21985,20 @@
         <v>3</v>
       </c>
       <c r="B210" s="4"/>
-      <c r="C210" s="378" t="s">
+      <c r="C210" s="375" t="s">
         <v>109</v>
       </c>
-      <c r="D210" s="376"/>
-      <c r="E210" s="407"/>
-      <c r="F210" s="407">
-        <v>1</v>
-      </c>
-      <c r="G210" s="377"/>
-      <c r="H210" s="377">
+      <c r="D210" s="373"/>
+      <c r="E210" s="404"/>
+      <c r="F210" s="404">
+        <v>1</v>
+      </c>
+      <c r="G210" s="374"/>
+      <c r="H210" s="374">
         <v>3500</v>
       </c>
       <c r="I210" s="101" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="211" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21955,22 +22006,22 @@
         <v>4</v>
       </c>
       <c r="B211" s="3"/>
-      <c r="C211" s="378" t="s">
+      <c r="C211" s="375" t="s">
         <v>160</v>
       </c>
-      <c r="D211" s="376"/>
-      <c r="E211" s="407" t="s">
+      <c r="D211" s="373"/>
+      <c r="E211" s="404" t="s">
         <v>22</v>
       </c>
-      <c r="F211" s="407">
-        <v>1</v>
-      </c>
-      <c r="G211" s="377"/>
-      <c r="H211" s="377">
+      <c r="F211" s="404">
+        <v>1</v>
+      </c>
+      <c r="G211" s="374"/>
+      <c r="H211" s="374">
         <v>30500</v>
       </c>
       <c r="I211" s="101" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21978,22 +22029,22 @@
         <v>5</v>
       </c>
       <c r="B212" s="3"/>
-      <c r="C212" s="378" t="s">
+      <c r="C212" s="375" t="s">
         <v>127</v>
       </c>
-      <c r="D212" s="376"/>
-      <c r="E212" s="407"/>
-      <c r="F212" s="407">
+      <c r="D212" s="373"/>
+      <c r="E212" s="404"/>
+      <c r="F212" s="404">
         <v>3</v>
       </c>
-      <c r="G212" s="377">
+      <c r="G212" s="374">
         <v>1750</v>
       </c>
-      <c r="H212" s="377">
+      <c r="H212" s="374">
         <v>5250</v>
       </c>
       <c r="I212" s="101" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="213" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -22001,22 +22052,22 @@
         <v>6</v>
       </c>
       <c r="B213" s="3"/>
-      <c r="C213" s="379" t="s">
+      <c r="C213" s="376" t="s">
         <v>197</v>
       </c>
-      <c r="D213" s="376"/>
-      <c r="E213" s="407" t="s">
+      <c r="D213" s="373"/>
+      <c r="E213" s="404" t="s">
         <v>22</v>
       </c>
-      <c r="F213" s="376">
-        <v>1</v>
-      </c>
-      <c r="G213" s="377"/>
-      <c r="H213" s="377">
+      <c r="F213" s="373">
+        <v>1</v>
+      </c>
+      <c r="G213" s="374"/>
+      <c r="H213" s="374">
         <v>21350</v>
       </c>
       <c r="I213" s="101" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -22024,20 +22075,20 @@
         <v>7</v>
       </c>
       <c r="B214" s="3"/>
-      <c r="C214" s="379" t="s">
+      <c r="C214" s="376" t="s">
         <v>108</v>
       </c>
-      <c r="D214" s="376"/>
-      <c r="E214" s="407"/>
-      <c r="F214" s="376">
-        <v>1</v>
-      </c>
-      <c r="G214" s="377"/>
-      <c r="H214" s="377">
+      <c r="D214" s="373"/>
+      <c r="E214" s="404"/>
+      <c r="F214" s="373">
+        <v>1</v>
+      </c>
+      <c r="G214" s="374"/>
+      <c r="H214" s="374">
         <v>3500</v>
       </c>
       <c r="I214" s="101" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -22077,7 +22128,7 @@
       <c r="A217" s="4"/>
       <c r="B217" s="3"/>
       <c r="C217" s="193" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D217" s="4"/>
       <c r="E217" s="3"/>
@@ -22105,24 +22156,24 @@
         <v>1</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="C219" s="375" t="s">
+        <v>448</v>
+      </c>
+      <c r="C219" s="372" t="s">
         <v>108</v>
       </c>
-      <c r="D219" s="376"/>
-      <c r="E219" s="407"/>
-      <c r="F219" s="407">
+      <c r="D219" s="373"/>
+      <c r="E219" s="404"/>
+      <c r="F219" s="404">
         <v>2</v>
       </c>
-      <c r="G219" s="377">
+      <c r="G219" s="374">
         <v>3500</v>
       </c>
-      <c r="H219" s="377">
+      <c r="H219" s="374">
         <v>7000</v>
       </c>
       <c r="I219" s="101" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="220" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -22130,24 +22181,24 @@
         <v>2</v>
       </c>
       <c r="B220" s="4"/>
-      <c r="C220" s="424" t="s">
+      <c r="C220" s="421" t="s">
         <v>342</v>
       </c>
-      <c r="D220" s="425"/>
-      <c r="E220" s="426" t="s">
+      <c r="D220" s="422"/>
+      <c r="E220" s="423" t="s">
         <v>14</v>
       </c>
-      <c r="F220" s="426">
+      <c r="F220" s="422">
         <v>10</v>
       </c>
-      <c r="G220" s="427">
+      <c r="G220" s="424">
         <v>4500</v>
       </c>
-      <c r="H220" s="427">
+      <c r="H220" s="424">
         <v>45000</v>
       </c>
       <c r="I220" s="341" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="221" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -22155,20 +22206,20 @@
         <v>3</v>
       </c>
       <c r="B221" s="4"/>
-      <c r="C221" s="378" t="s">
+      <c r="C221" s="375" t="s">
         <v>402</v>
       </c>
-      <c r="D221" s="376"/>
-      <c r="E221" s="407"/>
-      <c r="F221" s="407">
-        <v>1</v>
-      </c>
-      <c r="G221" s="377"/>
-      <c r="H221" s="377">
+      <c r="D221" s="373"/>
+      <c r="E221" s="404"/>
+      <c r="F221" s="404">
+        <v>1</v>
+      </c>
+      <c r="G221" s="374"/>
+      <c r="H221" s="374">
         <v>5000</v>
       </c>
       <c r="I221" s="101" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -22176,22 +22227,22 @@
         <v>4</v>
       </c>
       <c r="B222" s="3"/>
-      <c r="C222" s="378" t="s">
-        <v>450</v>
-      </c>
-      <c r="D222" s="376"/>
-      <c r="E222" s="407" t="s">
+      <c r="C222" s="375" t="s">
+        <v>449</v>
+      </c>
+      <c r="D222" s="373"/>
+      <c r="E222" s="404" t="s">
         <v>22</v>
       </c>
-      <c r="F222" s="407">
-        <v>1</v>
-      </c>
-      <c r="G222" s="377"/>
-      <c r="H222" s="377">
+      <c r="F222" s="404">
+        <v>1</v>
+      </c>
+      <c r="G222" s="374"/>
+      <c r="H222" s="374">
         <v>36500</v>
       </c>
       <c r="I222" s="101" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="223" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -22199,22 +22250,22 @@
         <v>5</v>
       </c>
       <c r="B223" s="3"/>
-      <c r="C223" s="378" t="s">
+      <c r="C223" s="375" t="s">
         <v>197</v>
       </c>
-      <c r="D223" s="376"/>
-      <c r="E223" s="407" t="s">
+      <c r="D223" s="373"/>
+      <c r="E223" s="404" t="s">
         <v>22</v>
       </c>
-      <c r="F223" s="407">
-        <v>1</v>
-      </c>
-      <c r="G223" s="377"/>
-      <c r="H223" s="377">
+      <c r="F223" s="404">
+        <v>1</v>
+      </c>
+      <c r="G223" s="374"/>
+      <c r="H223" s="374">
         <v>24500</v>
       </c>
       <c r="I223" s="101" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="224" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -22222,7 +22273,7 @@
         <v>6</v>
       </c>
       <c r="B224" s="3"/>
-      <c r="C224" s="423" t="s">
+      <c r="C224" s="420" t="s">
         <v>223</v>
       </c>
       <c r="D224" s="8"/>
@@ -22262,22 +22313,22 @@
         <v>8</v>
       </c>
       <c r="B226" s="3"/>
-      <c r="C226" s="378" t="s">
-        <v>451</v>
-      </c>
-      <c r="D226" s="376"/>
-      <c r="E226" s="407"/>
-      <c r="F226" s="376">
+      <c r="C226" s="375" t="s">
+        <v>450</v>
+      </c>
+      <c r="D226" s="373"/>
+      <c r="E226" s="404"/>
+      <c r="F226" s="373">
         <v>4</v>
       </c>
-      <c r="G226" s="377">
+      <c r="G226" s="374">
         <v>2500</v>
       </c>
-      <c r="H226" s="377">
+      <c r="H226" s="374">
         <v>10000</v>
       </c>
       <c r="I226" s="101" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="227" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -22285,24 +22336,24 @@
         <v>9</v>
       </c>
       <c r="B227" s="3"/>
-      <c r="C227" s="378" t="s">
+      <c r="C227" s="375" t="s">
         <v>281</v>
       </c>
-      <c r="D227" s="376"/>
-      <c r="E227" s="407" t="s">
+      <c r="D227" s="373"/>
+      <c r="E227" s="404" t="s">
         <v>8</v>
       </c>
-      <c r="F227" s="376">
+      <c r="F227" s="373">
         <v>2</v>
       </c>
-      <c r="G227" s="377">
+      <c r="G227" s="374">
         <v>44500</v>
       </c>
-      <c r="H227" s="377">
+      <c r="H227" s="374">
         <v>89000</v>
       </c>
       <c r="I227" s="101" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="228" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -22310,22 +22361,22 @@
         <v>10</v>
       </c>
       <c r="B228" s="3"/>
-      <c r="C228" s="378" t="s">
+      <c r="C228" s="375" t="s">
         <v>281</v>
       </c>
-      <c r="D228" s="376"/>
-      <c r="E228" s="407" t="s">
+      <c r="D228" s="373"/>
+      <c r="E228" s="404" t="s">
         <v>14</v>
       </c>
-      <c r="F228" s="376">
-        <v>1</v>
-      </c>
-      <c r="G228" s="377"/>
-      <c r="H228" s="377">
+      <c r="F228" s="373">
+        <v>1</v>
+      </c>
+      <c r="G228" s="374"/>
+      <c r="H228" s="374">
         <v>12000</v>
       </c>
       <c r="I228" s="101" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="229" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -22345,10 +22396,10 @@
       <c r="A230" s="4"/>
       <c r="B230" s="3"/>
       <c r="C230" s="260" t="s">
+        <v>451</v>
+      </c>
+      <c r="D230" s="3" t="s">
         <v>452</v>
-      </c>
-      <c r="D230" s="3" t="s">
-        <v>453</v>
       </c>
       <c r="E230" s="3"/>
       <c r="F230" s="4">
@@ -22365,10 +22416,10 @@
       <c r="A231" s="4"/>
       <c r="B231" s="3"/>
       <c r="C231" s="260" t="s">
+        <v>453</v>
+      </c>
+      <c r="D231" s="3" t="s">
         <v>454</v>
-      </c>
-      <c r="D231" s="3" t="s">
-        <v>455</v>
       </c>
       <c r="E231" s="3"/>
       <c r="F231" s="4"/>
@@ -22381,10 +22432,10 @@
       <c r="A232" s="4"/>
       <c r="B232" s="3"/>
       <c r="C232" s="260" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E232" s="3"/>
       <c r="F232" s="3"/>
@@ -22394,201 +22445,216 @@
       </c>
     </row>
     <row r="233" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="418"/>
-      <c r="B233" s="418"/>
+      <c r="A233" s="415"/>
+      <c r="B233" s="415"/>
       <c r="C233" s="231" t="s">
-        <v>457</v>
-      </c>
-      <c r="D233" s="418"/>
-      <c r="E233" s="418"/>
-      <c r="F233" s="418"/>
-      <c r="G233" s="418"/>
-      <c r="H233" s="373">
+        <v>456</v>
+      </c>
+      <c r="D233" s="415"/>
+      <c r="E233" s="415"/>
+      <c r="F233" s="415"/>
+      <c r="G233" s="415"/>
+      <c r="H233" s="370">
         <v>30000</v>
       </c>
     </row>
     <row r="234" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="419"/>
-      <c r="B234" s="419"/>
-      <c r="C234" s="419"/>
-      <c r="D234" s="419"/>
-      <c r="E234" s="419" t="s">
+      <c r="A234" s="416"/>
+      <c r="B234" s="416"/>
+      <c r="C234" s="416"/>
+      <c r="D234" s="416"/>
+      <c r="E234" s="416" t="s">
         <v>266</v>
       </c>
-      <c r="F234" s="419"/>
-      <c r="G234" s="419"/>
-      <c r="H234" s="420">
+      <c r="F234" s="416"/>
+      <c r="G234" s="416"/>
+      <c r="H234" s="417">
         <f>SUM(H229:H233)</f>
         <v>289900</v>
       </c>
     </row>
     <row r="235" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="428">
+      <c r="A235" s="425">
         <v>1</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="C235" s="188" t="s">
+        <v>457</v>
+      </c>
+      <c r="C235" s="372" t="s">
         <v>341</v>
       </c>
-      <c r="D235" s="428"/>
-      <c r="E235" s="4"/>
-      <c r="F235" s="4">
-        <v>1</v>
-      </c>
-      <c r="G235" s="50"/>
-      <c r="H235" s="50">
+      <c r="D235" s="432"/>
+      <c r="E235" s="373"/>
+      <c r="F235" s="373">
+        <v>1</v>
+      </c>
+      <c r="G235" s="374"/>
+      <c r="H235" s="374">
         <v>5000</v>
       </c>
+      <c r="I235" s="101" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="236" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="428">
+      <c r="A236" s="425">
         <v>2</v>
       </c>
-      <c r="B236" s="428"/>
-      <c r="C236" s="193" t="s">
+      <c r="B236" s="425"/>
+      <c r="C236" s="421" t="s">
         <v>109</v>
       </c>
-      <c r="D236" s="428"/>
-      <c r="E236" s="4"/>
-      <c r="F236" s="4">
+      <c r="D236" s="433"/>
+      <c r="E236" s="422"/>
+      <c r="F236" s="422">
         <v>2</v>
       </c>
-      <c r="G236" s="50">
+      <c r="G236" s="424">
         <v>3500</v>
       </c>
-      <c r="H236" s="50">
+      <c r="H236" s="424">
         <v>7000</v>
       </c>
+      <c r="I236" s="341" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="237" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="428">
+      <c r="A237" s="425">
         <v>3</v>
       </c>
-      <c r="B237" s="428"/>
-      <c r="C237" s="193" t="s">
+      <c r="B237" s="425"/>
+      <c r="C237" s="354" t="s">
         <v>350</v>
       </c>
-      <c r="D237" s="428"/>
-      <c r="E237" s="4"/>
-      <c r="F237" s="4">
+      <c r="D237" s="434"/>
+      <c r="E237" s="8"/>
+      <c r="F237" s="8">
         <v>2</v>
       </c>
-      <c r="G237" s="50">
+      <c r="G237" s="79">
         <v>2000</v>
       </c>
-      <c r="H237" s="50">
+      <c r="H237" s="79">
         <v>4000</v>
       </c>
     </row>
     <row r="238" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="428">
+      <c r="A238" s="425">
         <v>4</v>
       </c>
-      <c r="B238" s="428"/>
-      <c r="C238" s="193" t="s">
+      <c r="B238" s="425"/>
+      <c r="C238" s="385" t="s">
         <v>406</v>
       </c>
-      <c r="D238" s="428"/>
-      <c r="E238" s="4" t="s">
+      <c r="D238" s="435"/>
+      <c r="E238" s="386" t="s">
         <v>14</v>
       </c>
-      <c r="F238" s="4">
+      <c r="F238" s="386">
         <v>11</v>
       </c>
-      <c r="G238" s="50">
+      <c r="G238" s="387">
         <v>4500</v>
       </c>
-      <c r="H238" s="50">
+      <c r="H238" s="387">
         <v>49500</v>
       </c>
+      <c r="I238" s="101" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="239" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="428">
+      <c r="A239" s="425">
         <v>5</v>
       </c>
-      <c r="B239" s="428"/>
-      <c r="C239" s="357" t="s">
+      <c r="B239" s="425"/>
+      <c r="C239" s="385" t="s">
         <v>160</v>
       </c>
-      <c r="D239" s="8" t="s">
+      <c r="D239" s="386" t="s">
         <v>337</v>
       </c>
-      <c r="E239" s="8" t="s">
+      <c r="E239" s="386" t="s">
         <v>22</v>
       </c>
-      <c r="F239" s="8">
-        <v>1</v>
-      </c>
-      <c r="G239" s="79"/>
-      <c r="H239" s="79">
+      <c r="F239" s="386">
+        <v>1</v>
+      </c>
+      <c r="G239" s="387"/>
+      <c r="H239" s="387">
         <v>32000</v>
       </c>
+      <c r="I239" s="101" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="240" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="428">
+      <c r="A240" s="425">
         <v>6</v>
       </c>
-      <c r="B240" s="428"/>
-      <c r="C240" s="193" t="s">
+      <c r="B240" s="425"/>
+      <c r="C240" s="354" t="s">
         <v>223</v>
       </c>
-      <c r="D240" s="4"/>
-      <c r="E240" s="4"/>
-      <c r="F240" s="4">
-        <v>1</v>
-      </c>
-      <c r="G240" s="50"/>
-      <c r="H240" s="50">
+      <c r="D240" s="8"/>
+      <c r="E240" s="8"/>
+      <c r="F240" s="8">
+        <v>1</v>
+      </c>
+      <c r="G240" s="79"/>
+      <c r="H240" s="79">
         <v>2500</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="428">
+    <row r="241" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="425">
         <v>7</v>
       </c>
-      <c r="B241" s="428"/>
-      <c r="C241" s="193" t="s">
-        <v>460</v>
-      </c>
-      <c r="D241" s="4"/>
-      <c r="E241" s="4"/>
-      <c r="F241" s="4">
-        <v>1</v>
-      </c>
-      <c r="G241" s="50"/>
-      <c r="H241" s="50">
+      <c r="B241" s="425"/>
+      <c r="C241" s="354" t="s">
+        <v>459</v>
+      </c>
+      <c r="D241" s="8"/>
+      <c r="E241" s="8"/>
+      <c r="F241" s="8">
+        <v>1</v>
+      </c>
+      <c r="G241" s="79"/>
+      <c r="H241" s="79">
         <v>4000</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="428">
+    <row r="242" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="425">
         <v>8</v>
       </c>
-      <c r="B242" s="428"/>
-      <c r="C242" s="193" t="s">
+      <c r="B242" s="425"/>
+      <c r="C242" s="375" t="s">
         <v>204</v>
       </c>
-      <c r="D242" s="4"/>
-      <c r="E242" s="4" t="s">
+      <c r="D242" s="373"/>
+      <c r="E242" s="373" t="s">
         <v>14</v>
       </c>
-      <c r="F242" s="4">
+      <c r="F242" s="373">
         <v>3</v>
       </c>
-      <c r="G242" s="50">
+      <c r="G242" s="374">
         <v>4700</v>
       </c>
-      <c r="H242" s="50">
+      <c r="H242" s="374">
         <v>14100</v>
       </c>
-    </row>
-    <row r="243" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="428">
+      <c r="I242" s="101" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="425">
         <v>9</v>
       </c>
-      <c r="B243" s="428"/>
+      <c r="B243" s="425"/>
       <c r="C243" s="193" t="s">
         <v>71</v>
       </c>
@@ -22604,69 +22670,78 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="428">
+    <row r="244" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="425">
         <v>10</v>
       </c>
-      <c r="B244" s="428"/>
-      <c r="C244" s="193" t="s">
+      <c r="B244" s="425"/>
+      <c r="C244" s="375" t="s">
         <v>356</v>
       </c>
-      <c r="D244" s="4"/>
-      <c r="E244" s="4"/>
-      <c r="F244" s="4">
+      <c r="D244" s="373"/>
+      <c r="E244" s="373"/>
+      <c r="F244" s="373">
         <v>4</v>
       </c>
-      <c r="G244" s="50">
+      <c r="G244" s="374">
         <v>3800</v>
       </c>
-      <c r="H244" s="50">
+      <c r="H244" s="374">
         <v>15200</v>
       </c>
-    </row>
-    <row r="245" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="428">
+      <c r="I244" s="101" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="425">
         <v>11</v>
       </c>
-      <c r="B245" s="428"/>
-      <c r="C245" s="193" t="s">
+      <c r="B245" s="425"/>
+      <c r="C245" s="375" t="s">
         <v>151</v>
       </c>
-      <c r="D245" s="4"/>
-      <c r="E245" s="4" t="s">
+      <c r="D245" s="373"/>
+      <c r="E245" s="373" t="s">
         <v>22</v>
       </c>
-      <c r="F245" s="4">
-        <v>1</v>
-      </c>
-      <c r="G245" s="50"/>
-      <c r="H245" s="50">
+      <c r="F245" s="373">
+        <v>1</v>
+      </c>
+      <c r="G245" s="374"/>
+      <c r="H245" s="374">
         <v>24500</v>
       </c>
-    </row>
-    <row r="246" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="428">
+      <c r="I245" s="101" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="425">
         <v>12</v>
       </c>
-      <c r="B246" s="428"/>
-      <c r="C246" s="193" t="s">
+      <c r="B246" s="425"/>
+      <c r="C246" s="375" t="s">
         <v>127</v>
       </c>
-      <c r="D246" s="4"/>
-      <c r="E246" s="4"/>
-      <c r="F246" s="4">
-        <v>1</v>
-      </c>
-      <c r="G246" s="50"/>
-      <c r="H246" s="50">
+      <c r="D246" s="373"/>
+      <c r="E246" s="373"/>
+      <c r="F246" s="373">
+        <v>1</v>
+      </c>
+      <c r="G246" s="374"/>
+      <c r="H246" s="374">
         <v>1750</v>
       </c>
-    </row>
-    <row r="247" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="428">
+      <c r="I246" s="101" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="425">
         <v>13</v>
       </c>
-      <c r="B247" s="428"/>
+      <c r="B247" s="425"/>
       <c r="C247" s="193" t="s">
         <v>27</v>
       </c>
@@ -22682,169 +22757,229 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="428"/>
-      <c r="B248" s="428"/>
+    <row r="248" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="425"/>
+      <c r="B248" s="425"/>
       <c r="C248" s="237"/>
       <c r="D248" s="4"/>
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
-      <c r="G248" s="429"/>
+      <c r="G248" s="426"/>
       <c r="H248" s="223">
         <f>SUM(H235:H247)</f>
         <v>189550</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="428"/>
-      <c r="B249" s="428"/>
+    <row r="249" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="425"/>
+      <c r="B249" s="425"/>
       <c r="C249" s="193" t="s">
         <v>124</v>
       </c>
-      <c r="D249" s="428"/>
+      <c r="D249" s="425"/>
       <c r="E249" s="4"/>
       <c r="F249" s="4">
         <v>1</v>
       </c>
-      <c r="G249" s="429"/>
+      <c r="G249" s="426"/>
       <c r="H249" s="50">
         <v>1500</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="430"/>
-      <c r="B250" s="430"/>
+    <row r="250" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="427"/>
+      <c r="B250" s="427"/>
       <c r="C250" s="231" t="s">
-        <v>461</v>
-      </c>
-      <c r="D250" s="430"/>
+        <v>460</v>
+      </c>
+      <c r="D250" s="427"/>
       <c r="E250" s="23"/>
       <c r="F250" s="4">
         <v>1</v>
       </c>
-      <c r="G250" s="430"/>
-      <c r="H250" s="373">
+      <c r="G250" s="427"/>
+      <c r="H250" s="370">
         <v>1700</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="430"/>
-      <c r="B251" s="430"/>
-      <c r="C251" s="400" t="s">
-        <v>430</v>
+    <row r="251" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="427"/>
+      <c r="B251" s="427"/>
+      <c r="C251" s="397" t="s">
+        <v>429</v>
       </c>
       <c r="D251" s="77" t="s">
-        <v>462</v>
-      </c>
-      <c r="E251" s="430"/>
-      <c r="F251" s="430"/>
-      <c r="G251" s="430"/>
-      <c r="H251" s="373">
+        <v>461</v>
+      </c>
+      <c r="E251" s="427"/>
+      <c r="F251" s="427"/>
+      <c r="G251" s="427"/>
+      <c r="H251" s="370">
         <v>31500</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="430"/>
-      <c r="B252" s="430"/>
-      <c r="C252" s="430"/>
-      <c r="D252" s="430"/>
-      <c r="E252" s="430"/>
-      <c r="F252" s="430"/>
-      <c r="G252" s="430"/>
-      <c r="H252" s="367">
+    <row r="252" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="427"/>
+      <c r="B252" s="427"/>
+      <c r="C252" s="427"/>
+      <c r="D252" s="427"/>
+      <c r="E252" s="427"/>
+      <c r="F252" s="427"/>
+      <c r="G252" s="427"/>
+      <c r="H252" s="364">
         <f>SUM(H248:H251)</f>
         <v>224250</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="4"/>
-      <c r="B253" s="4"/>
-      <c r="C253" s="386"/>
-      <c r="D253" s="83"/>
-      <c r="E253" s="83"/>
-      <c r="F253" s="83"/>
-      <c r="G253" s="84"/>
-      <c r="H253" s="395"/>
-    </row>
-    <row r="254" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="4"/>
+    <row r="253" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="4">
+        <v>1</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="C253" s="188" t="s">
+        <v>464</v>
+      </c>
+      <c r="D253" s="4"/>
+      <c r="E253" s="4"/>
+      <c r="F253" s="4">
+        <v>2</v>
+      </c>
+      <c r="G253" s="50">
+        <v>3500</v>
+      </c>
+      <c r="H253" s="50">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="4">
+        <v>2</v>
+      </c>
       <c r="B254" s="4"/>
-      <c r="C254" s="391"/>
-      <c r="D254" s="83"/>
-      <c r="E254" s="83"/>
-      <c r="F254" s="83"/>
-      <c r="G254" s="84"/>
-      <c r="H254" s="84"/>
-    </row>
-    <row r="255" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="4"/>
+      <c r="C254" s="193" t="s">
+        <v>27</v>
+      </c>
+      <c r="D254" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E254" s="4"/>
+      <c r="F254" s="4">
+        <v>1</v>
+      </c>
+      <c r="G254" s="50"/>
+      <c r="H254" s="50">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="4">
+        <v>3</v>
+      </c>
       <c r="B255" s="4"/>
-      <c r="C255" s="391"/>
-      <c r="D255" s="83"/>
-      <c r="E255" s="83"/>
-      <c r="F255" s="83"/>
-      <c r="G255" s="84"/>
-      <c r="H255" s="84"/>
-    </row>
-    <row r="256" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="4"/>
+      <c r="C255" s="193" t="s">
+        <v>350</v>
+      </c>
+      <c r="D255" s="4"/>
+      <c r="E255" s="4"/>
+      <c r="F255" s="4">
+        <v>2</v>
+      </c>
+      <c r="G255" s="50">
+        <v>2000</v>
+      </c>
+      <c r="H255" s="50">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="4">
+        <v>4</v>
+      </c>
       <c r="B256" s="4"/>
-      <c r="C256" s="192"/>
-      <c r="D256" s="83"/>
-      <c r="E256" s="83"/>
-      <c r="F256" s="83"/>
-      <c r="G256" s="84"/>
-      <c r="H256" s="84"/>
+      <c r="C256" s="193" t="s">
+        <v>173</v>
+      </c>
+      <c r="D256" s="4"/>
+      <c r="E256" s="4"/>
+      <c r="F256" s="4">
+        <v>1</v>
+      </c>
+      <c r="G256" s="50"/>
+      <c r="H256" s="50">
+        <v>1200</v>
+      </c>
     </row>
     <row r="257" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
-      <c r="C257" s="192"/>
-      <c r="D257" s="83"/>
-      <c r="E257" s="83"/>
-      <c r="F257" s="83"/>
-      <c r="G257" s="84"/>
-      <c r="H257" s="394"/>
+      <c r="C257" s="429"/>
+      <c r="D257" s="8"/>
+      <c r="E257" s="8"/>
+      <c r="F257" s="8"/>
+      <c r="G257" s="79"/>
+      <c r="H257" s="367">
+        <f>SUM(H253:H256)</f>
+        <v>24200</v>
+      </c>
     </row>
     <row r="258" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
-      <c r="C258" s="192"/>
-      <c r="D258" s="83"/>
-      <c r="E258" s="83"/>
-      <c r="F258" s="83"/>
-      <c r="G258" s="84"/>
-      <c r="H258" s="84"/>
+      <c r="C258" s="193" t="s">
+        <v>466</v>
+      </c>
+      <c r="D258" s="4"/>
+      <c r="E258" s="4"/>
+      <c r="F258" s="4"/>
+      <c r="G258" s="50"/>
+      <c r="H258" s="50">
+        <v>31500</v>
+      </c>
     </row>
     <row r="259" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
-      <c r="C259" s="192"/>
-      <c r="D259" s="83"/>
-      <c r="E259" s="83"/>
-      <c r="F259" s="83"/>
-      <c r="G259" s="84"/>
-      <c r="H259" s="394"/>
+      <c r="C259" s="193" t="s">
+        <v>467</v>
+      </c>
+      <c r="D259" s="4"/>
+      <c r="E259" s="4"/>
+      <c r="F259" s="4">
+        <v>1</v>
+      </c>
+      <c r="G259" s="50"/>
+      <c r="H259" s="50">
+        <v>1700</v>
+      </c>
     </row>
     <row r="260" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
-      <c r="C260" s="391"/>
-      <c r="D260" s="83"/>
-      <c r="E260" s="83"/>
-      <c r="F260" s="83"/>
-      <c r="G260" s="84"/>
-      <c r="H260" s="84"/>
+      <c r="C260" s="260" t="s">
+        <v>468</v>
+      </c>
+      <c r="D260" s="4"/>
+      <c r="E260" s="4"/>
+      <c r="F260" s="4"/>
+      <c r="G260" s="50"/>
+      <c r="H260" s="50">
+        <v>2150</v>
+      </c>
     </row>
     <row r="261" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
-      <c r="C261" s="391"/>
-      <c r="D261" s="83"/>
-      <c r="E261" s="83"/>
-      <c r="F261" s="83"/>
-      <c r="G261" s="84"/>
-      <c r="H261" s="84"/>
+      <c r="C261" s="246"/>
+      <c r="D261" s="4"/>
+      <c r="E261" s="4"/>
+      <c r="F261" s="4"/>
+      <c r="G261" s="50"/>
+      <c r="H261" s="257">
+        <f>SUM(H257:H260)</f>
+        <v>59550</v>
+      </c>
     </row>
     <row r="262" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="4"/>
@@ -22889,7 +23024,7 @@
     <row r="266" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
-      <c r="C266" s="391"/>
+      <c r="C266" s="388"/>
       <c r="D266" s="83"/>
       <c r="E266" s="83"/>
       <c r="F266" s="83"/>
@@ -22899,17 +23034,17 @@
     <row r="267" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
-      <c r="C267" s="386"/>
+      <c r="C267" s="383"/>
       <c r="D267" s="83"/>
       <c r="E267" s="83"/>
       <c r="F267" s="83"/>
       <c r="G267" s="84"/>
-      <c r="H267" s="395"/>
+      <c r="H267" s="392"/>
     </row>
     <row r="268" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
-      <c r="C268" s="386"/>
+      <c r="C268" s="383"/>
       <c r="D268" s="83"/>
       <c r="E268" s="83"/>
       <c r="F268" s="83"/>
@@ -22919,7 +23054,7 @@
     <row r="269" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
-      <c r="C269" s="386"/>
+      <c r="C269" s="383"/>
       <c r="D269" s="83"/>
       <c r="E269" s="83"/>
       <c r="F269" s="83"/>
@@ -22949,7 +23084,7 @@
     <row r="272" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
-      <c r="C272" s="385"/>
+      <c r="C272" s="382"/>
       <c r="D272" s="45"/>
       <c r="E272" s="45"/>
       <c r="F272" s="45"/>
@@ -23069,7 +23204,7 @@
     <row r="284" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
-      <c r="C284" s="385"/>
+      <c r="C284" s="382"/>
       <c r="D284" s="45"/>
       <c r="E284" s="45"/>
       <c r="F284" s="45"/>
@@ -23079,7 +23214,7 @@
     <row r="285" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
-      <c r="C285" s="385"/>
+      <c r="C285" s="382"/>
       <c r="D285" s="45"/>
       <c r="E285" s="45"/>
       <c r="F285" s="45"/>
@@ -23114,7 +23249,7 @@
       <c r="E288" s="255"/>
       <c r="F288" s="255"/>
       <c r="G288" s="255"/>
-      <c r="H288" s="374"/>
+      <c r="H288" s="371"/>
     </row>
     <row r="289" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="4"/>
@@ -23217,7 +23352,7 @@
       <c r="H298" s="257"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H155">
+  <autoFilter ref="A1:H261">
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="1">
@@ -23230,10 +23365,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -23248,30 +23383,30 @@
     <col min="9" max="16384" width="9.140625" style="101"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="435" t="s">
-        <v>463</v>
-      </c>
-      <c r="B1" s="435"/>
-      <c r="C1" s="435"/>
-      <c r="D1" s="436"/>
-      <c r="E1" s="435"/>
-      <c r="F1" s="435"/>
-      <c r="G1" s="435"/>
-      <c r="H1" s="435"/>
-    </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="442" t="s">
+        <v>462</v>
+      </c>
+      <c r="B1" s="442"/>
+      <c r="C1" s="442"/>
+      <c r="D1" s="443"/>
+      <c r="E1" s="442"/>
+      <c r="F1" s="442"/>
+      <c r="G1" s="442"/>
+      <c r="H1" s="442"/>
+    </row>
+    <row r="2" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="437" t="s">
+      <c r="C2" s="444" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="438"/>
-      <c r="E2" s="439" t="s">
+      <c r="D2" s="445"/>
+      <c r="E2" s="428" t="s">
         <v>116</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -23284,55 +23419,57 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="C3" s="188" t="s">
-        <v>465</v>
+        <v>197</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="F3" s="4">
         <v>2</v>
       </c>
       <c r="G3" s="50">
-        <v>3500</v>
+        <v>24500</v>
       </c>
       <c r="H3" s="50">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="193" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>51</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="50"/>
+        <v>2</v>
+      </c>
+      <c r="G4" s="50">
+        <v>1750</v>
+      </c>
       <c r="H4" s="50">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="193" t="s">
-        <v>350</v>
+        <v>471</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -23341,130 +23478,187 @@
       </c>
       <c r="G5" s="50"/>
       <c r="H5" s="50">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="246"/>
-      <c r="D6" s="4"/>
+      <c r="C6" s="193" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
       <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="50">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="440"/>
+      <c r="C7" s="402" t="s">
+        <v>109</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="F7" s="45">
+        <v>1</v>
+      </c>
       <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="75">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>6</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="246"/>
-      <c r="D8" s="4"/>
+      <c r="C8" s="193" t="s">
+        <v>305</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
       <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="50">
+        <v>1000</v>
+      </c>
+      <c r="L8" s="101" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>7</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="246"/>
+      <c r="C9" s="193" t="s">
+        <v>342</v>
+      </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-    </row>
-    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="4">
+        <v>8</v>
+      </c>
+      <c r="G9" s="50">
+        <v>3500</v>
+      </c>
+      <c r="H9" s="50">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>8</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="246"/>
+      <c r="C10" s="260" t="s">
+        <v>171</v>
+      </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-    </row>
-    <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="4">
+        <v>4</v>
+      </c>
+      <c r="G10" s="50">
+        <v>3800</v>
+      </c>
+      <c r="H10" s="50">
+        <v>15200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>9</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="246"/>
+      <c r="C11" s="193" t="s">
+        <v>424</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
       <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-    </row>
-    <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>10</v>
-      </c>
+      <c r="H11" s="50">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="246"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-    </row>
-    <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>11</v>
-      </c>
+      <c r="H12" s="223">
+        <f>SUM(H3:H11)</f>
+        <v>117850</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="246"/>
+      <c r="C13" s="193" t="s">
+        <v>472</v>
+      </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-    </row>
-    <row r="14" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>12</v>
-      </c>
+      <c r="H13" s="50">
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="246"/>
-      <c r="D14" s="4"/>
+      <c r="C14" s="193" t="s">
+        <v>473</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>474</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-    </row>
-    <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>13</v>
-      </c>
+      <c r="H14" s="50">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="246"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-    </row>
-    <row r="16" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="223">
+        <f>SUM(H12:H14)</f>
+        <v>152350</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="246"/>
@@ -23492,7 +23686,7 @@
       <c r="E18" s="23"/>
       <c r="F18" s="4"/>
       <c r="G18" s="23"/>
-      <c r="H18" s="373"/>
+      <c r="H18" s="370"/>
     </row>
     <row r="19" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23"/>
@@ -23502,17 +23696,17 @@
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
       <c r="G19" s="23"/>
-      <c r="H19" s="373"/>
+      <c r="H19" s="370"/>
     </row>
     <row r="20" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="441"/>
-      <c r="B20" s="441"/>
-      <c r="C20" s="441"/>
-      <c r="D20" s="441"/>
-      <c r="E20" s="441"/>
-      <c r="F20" s="441"/>
-      <c r="G20" s="441"/>
-      <c r="H20" s="442"/>
+      <c r="A20" s="430"/>
+      <c r="B20" s="430"/>
+      <c r="C20" s="430"/>
+      <c r="D20" s="430"/>
+      <c r="E20" s="430"/>
+      <c r="F20" s="430"/>
+      <c r="G20" s="430"/>
+      <c r="H20" s="431"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/GB-3  Sales.xlsx
+++ b/GB-3  Sales.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="18195" windowHeight="10425" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="18195" windowHeight="10425" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sales-2017" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Jun-2018 -Sales'!$A$1:$H$256</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -2013,7 +2014,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="446">
+  <cellXfs count="445">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2991,9 +2992,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6571,10 +6569,10 @@
       <c r="B1" s="198" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="438" t="s">
+      <c r="C1" s="437" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="439"/>
+      <c r="D1" s="438"/>
       <c r="E1" s="198" t="s">
         <v>116</v>
       </c>
@@ -11951,10 +11949,10 @@
       <c r="B1" s="333" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="440" t="s">
+      <c r="C1" s="439" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="441"/>
+      <c r="D1" s="440"/>
       <c r="E1" s="333" t="s">
         <v>116</v>
       </c>
@@ -11976,10 +11974,10 @@
       <c r="B2" s="77" t="s">
         <v>243</v>
       </c>
-      <c r="C2" s="436" t="s">
+      <c r="C2" s="435" t="s">
         <v>251</v>
       </c>
-      <c r="D2" s="437"/>
+      <c r="D2" s="436"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8">
         <v>8</v>
@@ -14571,18 +14569,18 @@
         <v>8</v>
       </c>
       <c r="B127" s="4"/>
-      <c r="C127" s="385" t="s">
+      <c r="C127" s="384" t="s">
         <v>299</v>
       </c>
-      <c r="D127" s="386"/>
-      <c r="E127" s="386" t="s">
+      <c r="D127" s="385"/>
+      <c r="E127" s="385" t="s">
         <v>22</v>
       </c>
-      <c r="F127" s="386">
-        <v>1</v>
-      </c>
-      <c r="G127" s="387"/>
-      <c r="H127" s="387">
+      <c r="F127" s="385">
+        <v>1</v>
+      </c>
+      <c r="G127" s="386"/>
+      <c r="H127" s="386">
         <v>20400</v>
       </c>
       <c r="I127" s="101" t="s">
@@ -15160,16 +15158,16 @@
         <v>4</v>
       </c>
       <c r="B157" s="4"/>
-      <c r="C157" s="385" t="s">
+      <c r="C157" s="384" t="s">
         <v>320</v>
       </c>
-      <c r="D157" s="386"/>
-      <c r="E157" s="386"/>
-      <c r="F157" s="386">
-        <v>1</v>
-      </c>
-      <c r="G157" s="387"/>
-      <c r="H157" s="387">
+      <c r="D157" s="385"/>
+      <c r="E157" s="385"/>
+      <c r="F157" s="385">
+        <v>1</v>
+      </c>
+      <c r="G157" s="386"/>
+      <c r="H157" s="386">
         <v>3150</v>
       </c>
       <c r="I157" s="101" t="s">
@@ -15440,18 +15438,18 @@
         <v>4</v>
       </c>
       <c r="B171" s="4"/>
-      <c r="C171" s="385" t="s">
+      <c r="C171" s="384" t="s">
         <v>303</v>
       </c>
-      <c r="D171" s="386"/>
-      <c r="E171" s="386"/>
-      <c r="F171" s="386">
+      <c r="D171" s="385"/>
+      <c r="E171" s="385"/>
+      <c r="F171" s="385">
         <v>4</v>
       </c>
-      <c r="G171" s="387">
+      <c r="G171" s="386">
         <v>3150</v>
       </c>
-      <c r="H171" s="387">
+      <c r="H171" s="386">
         <v>12600</v>
       </c>
       <c r="I171" s="101" t="s">
@@ -15562,7 +15560,7 @@
     <row r="177" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
-      <c r="C177" s="393" t="s">
+      <c r="C177" s="392" t="s">
         <v>189</v>
       </c>
       <c r="D177" s="235" t="s">
@@ -15576,23 +15574,23 @@
       <c r="H177" s="353">
         <v>2650</v>
       </c>
-      <c r="I177" s="396"/>
+      <c r="I177" s="395"/>
     </row>
     <row r="178" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
-      <c r="C178" s="394" t="s">
+      <c r="C178" s="393" t="s">
         <v>108</v>
       </c>
-      <c r="D178" s="386" t="s">
+      <c r="D178" s="385" t="s">
         <v>332</v>
       </c>
-      <c r="E178" s="386"/>
-      <c r="F178" s="386">
-        <v>1</v>
-      </c>
-      <c r="G178" s="387"/>
-      <c r="H178" s="387">
+      <c r="E178" s="385"/>
+      <c r="F178" s="385">
+        <v>1</v>
+      </c>
+      <c r="G178" s="386"/>
+      <c r="H178" s="386">
         <v>3500</v>
       </c>
       <c r="I178" s="101" t="s">
@@ -15708,16 +15706,16 @@
         <v>2</v>
       </c>
       <c r="B185" s="4"/>
-      <c r="C185" s="413" t="s">
+      <c r="C185" s="412" t="s">
         <v>108</v>
       </c>
-      <c r="D185" s="386"/>
-      <c r="E185" s="386"/>
-      <c r="F185" s="386">
-        <v>1</v>
-      </c>
-      <c r="G185" s="387"/>
-      <c r="H185" s="387">
+      <c r="D185" s="385"/>
+      <c r="E185" s="385"/>
+      <c r="F185" s="385">
+        <v>1</v>
+      </c>
+      <c r="G185" s="386"/>
+      <c r="H185" s="386">
         <v>3500</v>
       </c>
       <c r="I185" s="101" t="s">
@@ -15990,16 +15988,16 @@
         <v>6</v>
       </c>
       <c r="B199" s="4"/>
-      <c r="C199" s="385" t="s">
+      <c r="C199" s="384" t="s">
         <v>108</v>
       </c>
-      <c r="D199" s="386"/>
-      <c r="E199" s="386"/>
-      <c r="F199" s="386">
-        <v>1</v>
-      </c>
-      <c r="G199" s="387"/>
-      <c r="H199" s="387">
+      <c r="D199" s="385"/>
+      <c r="E199" s="385"/>
+      <c r="F199" s="385">
+        <v>1</v>
+      </c>
+      <c r="G199" s="386"/>
+      <c r="H199" s="386">
         <v>3500</v>
       </c>
       <c r="I199" s="101" t="s">
@@ -16051,7 +16049,7 @@
         <v>9</v>
       </c>
       <c r="B202" s="4"/>
-      <c r="C202" s="384" t="s">
+      <c r="C202" s="383" t="s">
         <v>339</v>
       </c>
       <c r="D202" s="275"/>
@@ -16082,7 +16080,7 @@
     <row r="204" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
-      <c r="C204" s="395" t="s">
+      <c r="C204" s="394" t="s">
         <v>197</v>
       </c>
       <c r="D204" s="363"/>
@@ -16116,18 +16114,18 @@
     <row r="206" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
-      <c r="C206" s="394" t="s">
+      <c r="C206" s="393" t="s">
         <v>338</v>
       </c>
-      <c r="D206" s="386" t="s">
+      <c r="D206" s="385" t="s">
         <v>337</v>
       </c>
-      <c r="E206" s="386"/>
-      <c r="F206" s="386">
+      <c r="E206" s="385"/>
+      <c r="F206" s="385">
         <v>4</v>
       </c>
-      <c r="G206" s="387"/>
-      <c r="H206" s="403" t="s">
+      <c r="G206" s="386"/>
+      <c r="H206" s="402" t="s">
         <v>153</v>
       </c>
       <c r="I206" s="101" t="s">
@@ -17599,14 +17597,14 @@
     <row r="284" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
-      <c r="C284" s="394" t="s">
+      <c r="C284" s="393" t="s">
         <v>276</v>
       </c>
-      <c r="D284" s="386" t="s">
+      <c r="D284" s="385" t="s">
         <v>369</v>
       </c>
-      <c r="E284" s="386"/>
-      <c r="F284" s="386">
+      <c r="E284" s="385"/>
+      <c r="F284" s="385">
         <v>2</v>
       </c>
       <c r="G284" s="374">
@@ -17884,8 +17882,8 @@
   </sheetPr>
   <dimension ref="A1:Q298"/>
   <sheetViews>
-    <sheetView topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="O269" sqref="O269"/>
+    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="J270" sqref="J270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17909,10 +17907,10 @@
       <c r="B1" s="333" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="440" t="s">
+      <c r="C1" s="439" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="441"/>
+      <c r="D1" s="440"/>
       <c r="E1" s="333" t="s">
         <v>116</v>
       </c>
@@ -18666,14 +18664,14 @@
         <v>10</v>
       </c>
       <c r="B40" s="4"/>
-      <c r="C40" s="394" t="s">
+      <c r="C40" s="393" t="s">
         <v>135</v>
       </c>
-      <c r="D40" s="386"/>
-      <c r="E40" s="386" t="s">
+      <c r="D40" s="385"/>
+      <c r="E40" s="385" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="386">
+      <c r="F40" s="385">
         <v>1</v>
       </c>
       <c r="G40" s="374"/>
@@ -18841,7 +18839,7 @@
         <v>2</v>
       </c>
       <c r="B50" s="4"/>
-      <c r="C50" s="406" t="s">
+      <c r="C50" s="405" t="s">
         <v>342</v>
       </c>
       <c r="D50" s="373"/>
@@ -18864,12 +18862,12 @@
     <row r="51" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
-      <c r="C51" s="390"/>
+      <c r="C51" s="389"/>
       <c r="D51" s="235"/>
       <c r="E51" s="235"/>
       <c r="F51" s="235"/>
       <c r="G51" s="353"/>
-      <c r="H51" s="391">
+      <c r="H51" s="390">
         <f>SUM(H49:H50)</f>
         <v>39500</v>
       </c>
@@ -18877,7 +18875,7 @@
     <row r="52" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
-      <c r="C52" s="389" t="s">
+      <c r="C52" s="388" t="s">
         <v>343</v>
       </c>
       <c r="D52" s="83" t="s">
@@ -18893,12 +18891,12 @@
     <row r="53" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
-      <c r="C53" s="388"/>
+      <c r="C53" s="387"/>
       <c r="D53" s="83"/>
       <c r="E53" s="83"/>
       <c r="F53" s="83"/>
       <c r="G53" s="84"/>
-      <c r="H53" s="392">
+      <c r="H53" s="391">
         <f>SUM(H51:H52)</f>
         <v>63500</v>
       </c>
@@ -19293,11 +19291,11 @@
       <c r="B74" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="C74" s="406" t="s">
+      <c r="C74" s="405" t="s">
         <v>406</v>
       </c>
-      <c r="D74" s="404"/>
-      <c r="E74" s="404" t="s">
+      <c r="D74" s="403"/>
+      <c r="E74" s="403" t="s">
         <v>14</v>
       </c>
       <c r="F74" s="373">
@@ -19342,8 +19340,8 @@
       <c r="C76" s="375" t="s">
         <v>350</v>
       </c>
-      <c r="D76" s="404"/>
-      <c r="E76" s="404" t="s">
+      <c r="D76" s="403"/>
+      <c r="E76" s="403" t="s">
         <v>14</v>
       </c>
       <c r="F76" s="373">
@@ -19365,8 +19363,8 @@
       <c r="C77" s="375" t="s">
         <v>160</v>
       </c>
-      <c r="D77" s="404"/>
-      <c r="E77" s="404" t="s">
+      <c r="D77" s="403"/>
+      <c r="E77" s="403" t="s">
         <v>22</v>
       </c>
       <c r="F77" s="373">
@@ -19388,8 +19386,8 @@
       <c r="C78" s="375" t="s">
         <v>160</v>
       </c>
-      <c r="D78" s="404"/>
-      <c r="E78" s="404" t="s">
+      <c r="D78" s="403"/>
+      <c r="E78" s="403" t="s">
         <v>14</v>
       </c>
       <c r="F78" s="373">
@@ -19411,8 +19409,8 @@
       <c r="C79" s="375" t="s">
         <v>408</v>
       </c>
-      <c r="D79" s="404"/>
-      <c r="E79" s="404"/>
+      <c r="D79" s="403"/>
+      <c r="E79" s="403"/>
       <c r="F79" s="373">
         <v>1</v>
       </c>
@@ -19432,8 +19430,8 @@
       <c r="C80" s="375" t="s">
         <v>409</v>
       </c>
-      <c r="D80" s="404"/>
-      <c r="E80" s="404"/>
+      <c r="D80" s="403"/>
+      <c r="E80" s="403"/>
       <c r="F80" s="373">
         <v>1</v>
       </c>
@@ -19453,8 +19451,8 @@
       <c r="C81" s="375" t="s">
         <v>410</v>
       </c>
-      <c r="D81" s="404"/>
-      <c r="E81" s="404"/>
+      <c r="D81" s="403"/>
+      <c r="E81" s="403"/>
       <c r="F81" s="373">
         <v>1</v>
       </c>
@@ -19491,7 +19489,7 @@
         <v>10</v>
       </c>
       <c r="B83" s="3"/>
-      <c r="C83" s="402" t="s">
+      <c r="C83" s="401" t="s">
         <v>412</v>
       </c>
       <c r="D83" s="70" t="s">
@@ -19511,14 +19509,14 @@
         <v>11</v>
       </c>
       <c r="B84" s="3"/>
-      <c r="C84" s="385" t="s">
+      <c r="C84" s="384" t="s">
         <v>197</v>
       </c>
-      <c r="D84" s="405"/>
-      <c r="E84" s="405" t="s">
+      <c r="D84" s="404"/>
+      <c r="E84" s="404" t="s">
         <v>22</v>
       </c>
-      <c r="F84" s="386">
+      <c r="F84" s="385">
         <v>1</v>
       </c>
       <c r="G84" s="374"/>
@@ -19534,12 +19532,12 @@
         <v>12</v>
       </c>
       <c r="B85" s="3"/>
-      <c r="C85" s="385" t="s">
+      <c r="C85" s="384" t="s">
         <v>127</v>
       </c>
-      <c r="D85" s="405"/>
-      <c r="E85" s="405"/>
-      <c r="F85" s="386">
+      <c r="D85" s="404"/>
+      <c r="E85" s="404"/>
+      <c r="F85" s="385">
         <v>1</v>
       </c>
       <c r="G85" s="374"/>
@@ -19558,7 +19556,7 @@
         <v>13</v>
       </c>
       <c r="B86" s="3"/>
-      <c r="C86" s="402" t="s">
+      <c r="C86" s="401" t="s">
         <v>208</v>
       </c>
       <c r="D86" s="70" t="s">
@@ -19581,8 +19579,8 @@
       <c r="C87" s="375" t="s">
         <v>197</v>
       </c>
-      <c r="D87" s="404"/>
-      <c r="E87" s="404" t="s">
+      <c r="D87" s="403"/>
+      <c r="E87" s="403" t="s">
         <v>14</v>
       </c>
       <c r="F87" s="373">
@@ -19645,45 +19643,45 @@
     <row r="91" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="3"/>
-      <c r="C91" s="398" t="s">
+      <c r="C91" s="397" t="s">
         <v>343</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="E91" s="398"/>
-      <c r="F91" s="399"/>
-      <c r="G91" s="399"/>
-      <c r="H91" s="400">
+      <c r="E91" s="397"/>
+      <c r="F91" s="398"/>
+      <c r="G91" s="398"/>
+      <c r="H91" s="399">
         <v>28500</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
-      <c r="B92" s="397"/>
-      <c r="C92" s="398" t="s">
+      <c r="B92" s="396"/>
+      <c r="C92" s="397" t="s">
         <v>363</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="E92" s="398"/>
+      <c r="E92" s="397"/>
       <c r="F92" s="4">
         <v>5</v>
       </c>
-      <c r="G92" s="401">
+      <c r="G92" s="400">
         <v>1500</v>
       </c>
-      <c r="H92" s="401">
+      <c r="H92" s="400">
         <v>7500</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
-      <c r="B93" s="397"/>
-      <c r="C93" s="397"/>
-      <c r="D93" s="397"/>
-      <c r="E93" s="397"/>
+      <c r="B93" s="396"/>
+      <c r="C93" s="396"/>
+      <c r="D93" s="396"/>
+      <c r="E93" s="396"/>
       <c r="F93" s="77"/>
       <c r="G93" s="77"/>
       <c r="H93" s="364">
@@ -19698,11 +19696,11 @@
       <c r="B94" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="C94" s="406" t="s">
+      <c r="C94" s="405" t="s">
         <v>341</v>
       </c>
-      <c r="D94" s="404"/>
-      <c r="E94" s="404"/>
+      <c r="D94" s="403"/>
+      <c r="E94" s="403"/>
       <c r="F94" s="373">
         <v>1</v>
       </c>
@@ -19722,8 +19720,8 @@
       <c r="C95" s="375" t="s">
         <v>414</v>
       </c>
-      <c r="D95" s="404"/>
-      <c r="E95" s="404"/>
+      <c r="D95" s="403"/>
+      <c r="E95" s="403"/>
       <c r="F95" s="373">
         <v>1</v>
       </c>
@@ -19734,7 +19732,7 @@
       <c r="I95" s="101" t="s">
         <v>417</v>
       </c>
-      <c r="K95" s="407"/>
+      <c r="K95" s="406"/>
     </row>
     <row r="96" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
@@ -19744,8 +19742,8 @@
       <c r="C96" s="375" t="s">
         <v>299</v>
       </c>
-      <c r="D96" s="404"/>
-      <c r="E96" s="404" t="s">
+      <c r="D96" s="403"/>
+      <c r="E96" s="403" t="s">
         <v>22</v>
       </c>
       <c r="F96" s="373">
@@ -19767,8 +19765,8 @@
       <c r="C97" s="375" t="s">
         <v>127</v>
       </c>
-      <c r="D97" s="404"/>
-      <c r="E97" s="404"/>
+      <c r="D97" s="403"/>
+      <c r="E97" s="403"/>
       <c r="F97" s="373">
         <v>3</v>
       </c>
@@ -19810,8 +19808,8 @@
       <c r="C99" s="375" t="s">
         <v>160</v>
       </c>
-      <c r="D99" s="404"/>
-      <c r="E99" s="404" t="s">
+      <c r="D99" s="403"/>
+      <c r="E99" s="403" t="s">
         <v>22</v>
       </c>
       <c r="F99" s="373">
@@ -19892,7 +19890,7 @@
         <v>10</v>
       </c>
       <c r="B103" s="3"/>
-      <c r="C103" s="402" t="s">
+      <c r="C103" s="401" t="s">
         <v>27</v>
       </c>
       <c r="D103" s="70" t="s">
@@ -19912,12 +19910,12 @@
         <v>11</v>
       </c>
       <c r="B104" s="3"/>
-      <c r="C104" s="385" t="s">
+      <c r="C104" s="384" t="s">
         <v>109</v>
       </c>
-      <c r="D104" s="405"/>
-      <c r="E104" s="405"/>
-      <c r="F104" s="386">
+      <c r="D104" s="404"/>
+      <c r="E104" s="404"/>
+      <c r="F104" s="385">
         <v>1</v>
       </c>
       <c r="G104" s="374"/>
@@ -19931,7 +19929,7 @@
     <row r="105" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
-      <c r="C105" s="402"/>
+      <c r="C105" s="401"/>
       <c r="D105" s="70"/>
       <c r="E105" s="70"/>
       <c r="F105" s="45"/>
@@ -19944,7 +19942,7 @@
     <row r="106" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
-      <c r="C106" s="402" t="s">
+      <c r="C106" s="401" t="s">
         <v>343</v>
       </c>
       <c r="D106" s="70" t="s">
@@ -20178,12 +20176,12 @@
         <v>10</v>
       </c>
       <c r="B117" s="4"/>
-      <c r="C117" s="385" t="s">
+      <c r="C117" s="384" t="s">
         <v>161</v>
       </c>
-      <c r="D117" s="386"/>
-      <c r="E117" s="386"/>
-      <c r="F117" s="386">
+      <c r="D117" s="385"/>
+      <c r="E117" s="385"/>
+      <c r="F117" s="385">
         <v>1</v>
       </c>
       <c r="G117" s="374"/>
@@ -20199,7 +20197,7 @@
         <v>11</v>
       </c>
       <c r="B118" s="4"/>
-      <c r="C118" s="402" t="s">
+      <c r="C118" s="401" t="s">
         <v>111</v>
       </c>
       <c r="D118" s="45" t="s">
@@ -20221,7 +20219,7 @@
         <v>12</v>
       </c>
       <c r="B119" s="4"/>
-      <c r="C119" s="418" t="s">
+      <c r="C119" s="417" t="s">
         <v>350</v>
       </c>
       <c r="D119" s="235"/>
@@ -20239,12 +20237,12 @@
         <v>13</v>
       </c>
       <c r="B120" s="4"/>
-      <c r="C120" s="385" t="s">
+      <c r="C120" s="384" t="s">
         <v>132</v>
       </c>
-      <c r="D120" s="386"/>
-      <c r="E120" s="386"/>
-      <c r="F120" s="386">
+      <c r="D120" s="385"/>
+      <c r="E120" s="385"/>
+      <c r="F120" s="385">
         <v>1</v>
       </c>
       <c r="G120" s="374"/>
@@ -20258,7 +20256,7 @@
     <row r="121" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="4"/>
-      <c r="C121" s="402"/>
+      <c r="C121" s="401"/>
       <c r="D121" s="45"/>
       <c r="E121" s="45"/>
       <c r="F121" s="45"/>
@@ -20336,20 +20334,20 @@
     <row r="126" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="4"/>
-      <c r="C126" s="408" t="s">
+      <c r="C126" s="407" t="s">
         <v>299</v>
       </c>
       <c r="D126" s="373" t="s">
         <v>420</v>
       </c>
-      <c r="E126" s="408" t="s">
+      <c r="E126" s="407" t="s">
         <v>22</v>
       </c>
       <c r="F126" s="373">
         <v>1</v>
       </c>
-      <c r="G126" s="408"/>
-      <c r="H126" s="409" t="s">
+      <c r="G126" s="407"/>
+      <c r="H126" s="408" t="s">
         <v>153</v>
       </c>
       <c r="I126" s="101" t="s">
@@ -20357,20 +20355,20 @@
       </c>
     </row>
     <row r="127" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="397"/>
+      <c r="A127" s="396"/>
       <c r="B127" s="77"/>
-      <c r="C127" s="408" t="s">
+      <c r="C127" s="407" t="s">
         <v>127</v>
       </c>
       <c r="D127" s="373" t="s">
         <v>420</v>
       </c>
-      <c r="E127" s="408"/>
+      <c r="E127" s="407"/>
       <c r="F127" s="373">
         <v>1</v>
       </c>
-      <c r="G127" s="410"/>
-      <c r="H127" s="410" t="s">
+      <c r="G127" s="409"/>
+      <c r="H127" s="409" t="s">
         <v>153</v>
       </c>
       <c r="I127" s="101" t="s">
@@ -20378,7 +20376,7 @@
       </c>
     </row>
     <row r="128" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="397"/>
+      <c r="A128" s="396"/>
       <c r="B128" s="77"/>
       <c r="C128" s="372" t="s">
         <v>197</v>
@@ -20386,14 +20384,14 @@
       <c r="D128" s="373" t="s">
         <v>421</v>
       </c>
-      <c r="E128" s="411" t="s">
+      <c r="E128" s="410" t="s">
         <v>14</v>
       </c>
       <c r="F128" s="373">
         <v>1</v>
       </c>
-      <c r="G128" s="411"/>
-      <c r="H128" s="412" t="s">
+      <c r="G128" s="410"/>
+      <c r="H128" s="411" t="s">
         <v>153</v>
       </c>
       <c r="I128" s="101" t="s">
@@ -20458,11 +20456,11 @@
       <c r="B132" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="C132" s="406" t="s">
+      <c r="C132" s="405" t="s">
         <v>109</v>
       </c>
-      <c r="D132" s="404"/>
-      <c r="E132" s="404"/>
+      <c r="D132" s="403"/>
+      <c r="E132" s="403"/>
       <c r="F132" s="373">
         <v>1</v>
       </c>
@@ -20482,8 +20480,8 @@
       <c r="C133" s="376" t="s">
         <v>120</v>
       </c>
-      <c r="D133" s="404"/>
-      <c r="E133" s="404"/>
+      <c r="D133" s="403"/>
+      <c r="E133" s="403"/>
       <c r="F133" s="373">
         <v>4</v>
       </c>
@@ -20505,8 +20503,8 @@
       <c r="C134" s="375" t="s">
         <v>406</v>
       </c>
-      <c r="D134" s="404"/>
-      <c r="E134" s="404" t="s">
+      <c r="D134" s="403"/>
+      <c r="E134" s="403" t="s">
         <v>14</v>
       </c>
       <c r="F134" s="373">
@@ -20530,8 +20528,8 @@
       <c r="C135" s="376" t="s">
         <v>132</v>
       </c>
-      <c r="D135" s="404"/>
-      <c r="E135" s="404"/>
+      <c r="D135" s="403"/>
+      <c r="E135" s="403"/>
       <c r="F135" s="373">
         <v>1</v>
       </c>
@@ -20551,8 +20549,8 @@
       <c r="C136" s="376" t="s">
         <v>424</v>
       </c>
-      <c r="D136" s="404"/>
-      <c r="E136" s="404"/>
+      <c r="D136" s="403"/>
+      <c r="E136" s="403"/>
       <c r="F136" s="373"/>
       <c r="G136" s="374"/>
       <c r="H136" s="374">
@@ -20632,14 +20630,14 @@
       <c r="C141" s="372" t="s">
         <v>200</v>
       </c>
-      <c r="D141" s="404"/>
-      <c r="E141" s="404" t="s">
+      <c r="D141" s="403"/>
+      <c r="E141" s="403" t="s">
         <v>8</v>
       </c>
-      <c r="F141" s="404">
-        <v>1</v>
-      </c>
-      <c r="G141" s="414"/>
+      <c r="F141" s="403">
+        <v>1</v>
+      </c>
+      <c r="G141" s="413"/>
       <c r="H141" s="374">
         <v>40500</v>
       </c>
@@ -20655,14 +20653,14 @@
       <c r="C142" s="375" t="s">
         <v>200</v>
       </c>
-      <c r="D142" s="404"/>
-      <c r="E142" s="404" t="s">
+      <c r="D142" s="403"/>
+      <c r="E142" s="403" t="s">
         <v>14</v>
       </c>
-      <c r="F142" s="404">
-        <v>1</v>
-      </c>
-      <c r="G142" s="414"/>
+      <c r="F142" s="403">
+        <v>1</v>
+      </c>
+      <c r="G142" s="413"/>
       <c r="H142" s="374">
         <v>10500</v>
       </c>
@@ -20678,12 +20676,12 @@
       <c r="C143" s="375" t="s">
         <v>329</v>
       </c>
-      <c r="D143" s="404"/>
-      <c r="E143" s="404"/>
-      <c r="F143" s="404">
-        <v>1</v>
-      </c>
-      <c r="G143" s="414"/>
+      <c r="D143" s="403"/>
+      <c r="E143" s="403"/>
+      <c r="F143" s="403">
+        <v>1</v>
+      </c>
+      <c r="G143" s="413"/>
       <c r="H143" s="374">
         <v>3350</v>
       </c>
@@ -20761,14 +20759,14 @@
       <c r="C148" s="372" t="s">
         <v>160</v>
       </c>
-      <c r="D148" s="404"/>
-      <c r="E148" s="404" t="s">
+      <c r="D148" s="403"/>
+      <c r="E148" s="403" t="s">
         <v>22</v>
       </c>
-      <c r="F148" s="404">
-        <v>1</v>
-      </c>
-      <c r="G148" s="414"/>
+      <c r="F148" s="403">
+        <v>1</v>
+      </c>
+      <c r="G148" s="413"/>
       <c r="H148" s="374">
         <v>30500</v>
       </c>
@@ -20784,12 +20782,12 @@
       <c r="C149" s="375" t="s">
         <v>127</v>
       </c>
-      <c r="D149" s="404"/>
-      <c r="E149" s="404"/>
-      <c r="F149" s="404">
-        <v>1</v>
-      </c>
-      <c r="G149" s="414"/>
+      <c r="D149" s="403"/>
+      <c r="E149" s="403"/>
+      <c r="F149" s="403">
+        <v>1</v>
+      </c>
+      <c r="G149" s="413"/>
       <c r="H149" s="374">
         <v>1750</v>
       </c>
@@ -20805,12 +20803,12 @@
       <c r="C150" s="375" t="s">
         <v>109</v>
       </c>
-      <c r="D150" s="404"/>
-      <c r="E150" s="404"/>
-      <c r="F150" s="404">
-        <v>1</v>
-      </c>
-      <c r="G150" s="414"/>
+      <c r="D150" s="403"/>
+      <c r="E150" s="403"/>
+      <c r="F150" s="403">
+        <v>1</v>
+      </c>
+      <c r="G150" s="413"/>
       <c r="H150" s="374">
         <v>3500</v>
       </c>
@@ -20905,11 +20903,11 @@
       <c r="B156" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="C156" s="406" t="s">
+      <c r="C156" s="405" t="s">
         <v>406</v>
       </c>
-      <c r="D156" s="404"/>
-      <c r="E156" s="404" t="s">
+      <c r="D156" s="403"/>
+      <c r="E156" s="403" t="s">
         <v>14</v>
       </c>
       <c r="F156" s="373">
@@ -20956,13 +20954,13 @@
         <v>196</v>
       </c>
       <c r="D158" s="373"/>
-      <c r="E158" s="404" t="s">
+      <c r="E158" s="403" t="s">
         <v>8</v>
       </c>
-      <c r="F158" s="404">
-        <v>1</v>
-      </c>
-      <c r="G158" s="414"/>
+      <c r="F158" s="403">
+        <v>1</v>
+      </c>
+      <c r="G158" s="413"/>
       <c r="H158" s="374">
         <v>22300</v>
       </c>
@@ -20979,13 +20977,13 @@
         <v>196</v>
       </c>
       <c r="D159" s="373"/>
-      <c r="E159" s="404" t="s">
+      <c r="E159" s="403" t="s">
         <v>14</v>
       </c>
-      <c r="F159" s="404">
-        <v>1</v>
-      </c>
-      <c r="G159" s="414"/>
+      <c r="F159" s="403">
+        <v>1</v>
+      </c>
+      <c r="G159" s="413"/>
       <c r="H159" s="374">
         <v>5350</v>
       </c>
@@ -21002,11 +21000,11 @@
         <v>54</v>
       </c>
       <c r="D160" s="373"/>
-      <c r="E160" s="404"/>
-      <c r="F160" s="404">
-        <v>1</v>
-      </c>
-      <c r="G160" s="414"/>
+      <c r="E160" s="403"/>
+      <c r="F160" s="403">
+        <v>1</v>
+      </c>
+      <c r="G160" s="413"/>
       <c r="H160" s="374">
         <v>4500</v>
       </c>
@@ -21085,11 +21083,11 @@
         <v>128</v>
       </c>
       <c r="D164" s="373"/>
-      <c r="E164" s="404"/>
+      <c r="E164" s="403"/>
       <c r="F164" s="373">
         <v>4</v>
       </c>
-      <c r="G164" s="414">
+      <c r="G164" s="413">
         <v>3000</v>
       </c>
       <c r="H164" s="374">
@@ -21108,13 +21106,13 @@
         <v>197</v>
       </c>
       <c r="D165" s="373"/>
-      <c r="E165" s="404" t="s">
+      <c r="E165" s="403" t="s">
         <v>22</v>
       </c>
       <c r="F165" s="373">
         <v>1</v>
       </c>
-      <c r="G165" s="414"/>
+      <c r="G165" s="413"/>
       <c r="H165" s="374">
         <v>21350</v>
       </c>
@@ -21131,11 +21129,11 @@
         <v>127</v>
       </c>
       <c r="D166" s="373"/>
-      <c r="E166" s="404"/>
-      <c r="F166" s="404">
-        <v>1</v>
-      </c>
-      <c r="G166" s="414"/>
+      <c r="E166" s="403"/>
+      <c r="F166" s="403">
+        <v>1</v>
+      </c>
+      <c r="G166" s="413"/>
       <c r="H166" s="374">
         <v>1750</v>
       </c>
@@ -21168,15 +21166,15 @@
         <v>13</v>
       </c>
       <c r="B168" s="3"/>
-      <c r="C168" s="394" t="s">
+      <c r="C168" s="393" t="s">
         <v>109</v>
       </c>
-      <c r="D168" s="386"/>
-      <c r="E168" s="405"/>
-      <c r="F168" s="405">
-        <v>1</v>
-      </c>
-      <c r="G168" s="414"/>
+      <c r="D168" s="385"/>
+      <c r="E168" s="404"/>
+      <c r="F168" s="404">
+        <v>1</v>
+      </c>
+      <c r="G168" s="413"/>
       <c r="H168" s="374">
         <v>3500</v>
       </c>
@@ -21200,7 +21198,7 @@
     <row r="170" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
-      <c r="C170" s="402" t="s">
+      <c r="C170" s="401" t="s">
         <v>429</v>
       </c>
       <c r="D170" s="45" t="s">
@@ -21216,7 +21214,7 @@
     <row r="171" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
-      <c r="C171" s="402" t="s">
+      <c r="C171" s="401" t="s">
         <v>434</v>
       </c>
       <c r="D171" s="70"/>
@@ -21281,7 +21279,7 @@
       <c r="F174" s="47">
         <v>1</v>
       </c>
-      <c r="G174" s="419"/>
+      <c r="G174" s="418"/>
       <c r="H174" s="79">
         <v>4000</v>
       </c>
@@ -21693,13 +21691,13 @@
       </c>
     </row>
     <row r="196" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="415"/>
-      <c r="B196" s="415"/>
-      <c r="C196" s="415"/>
-      <c r="D196" s="415"/>
-      <c r="E196" s="415"/>
-      <c r="F196" s="415"/>
-      <c r="G196" s="415"/>
+      <c r="A196" s="414"/>
+      <c r="B196" s="414"/>
+      <c r="C196" s="414"/>
+      <c r="D196" s="414"/>
+      <c r="E196" s="414"/>
+      <c r="F196" s="414"/>
+      <c r="G196" s="414"/>
       <c r="H196" s="371">
         <f>SUM(H191:H195)</f>
         <v>228550</v>
@@ -21716,10 +21714,10 @@
         <v>196</v>
       </c>
       <c r="D197" s="373"/>
-      <c r="E197" s="404" t="s">
+      <c r="E197" s="403" t="s">
         <v>8</v>
       </c>
-      <c r="F197" s="404">
+      <c r="F197" s="403">
         <v>1</v>
       </c>
       <c r="G197" s="374"/>
@@ -21739,10 +21737,10 @@
         <v>196</v>
       </c>
       <c r="D198" s="373"/>
-      <c r="E198" s="404" t="s">
+      <c r="E198" s="403" t="s">
         <v>14</v>
       </c>
-      <c r="F198" s="404">
+      <c r="F198" s="403">
         <v>4</v>
       </c>
       <c r="G198" s="374">
@@ -21764,8 +21762,8 @@
         <v>436</v>
       </c>
       <c r="D199" s="373"/>
-      <c r="E199" s="404"/>
-      <c r="F199" s="404">
+      <c r="E199" s="403"/>
+      <c r="F199" s="403">
         <v>1</v>
       </c>
       <c r="G199" s="374"/>
@@ -21785,8 +21783,8 @@
         <v>350</v>
       </c>
       <c r="D200" s="373"/>
-      <c r="E200" s="404"/>
-      <c r="F200" s="404">
+      <c r="E200" s="403"/>
+      <c r="F200" s="403">
         <v>1</v>
       </c>
       <c r="G200" s="374"/>
@@ -21806,10 +21804,10 @@
         <v>444</v>
       </c>
       <c r="D201" s="373"/>
-      <c r="E201" s="404" t="s">
+      <c r="E201" s="403" t="s">
         <v>8</v>
       </c>
-      <c r="F201" s="404">
+      <c r="F201" s="403">
         <v>1</v>
       </c>
       <c r="G201" s="374"/>
@@ -21829,7 +21827,7 @@
         <v>223</v>
       </c>
       <c r="D202" s="373"/>
-      <c r="E202" s="404"/>
+      <c r="E202" s="403"/>
       <c r="F202" s="373">
         <v>1</v>
       </c>
@@ -21850,7 +21848,7 @@
         <v>151</v>
       </c>
       <c r="D203" s="373"/>
-      <c r="E203" s="404" t="s">
+      <c r="E203" s="403" t="s">
         <v>14</v>
       </c>
       <c r="F203" s="373">
@@ -21943,8 +21941,8 @@
         <v>341</v>
       </c>
       <c r="D208" s="373"/>
-      <c r="E208" s="404"/>
-      <c r="F208" s="404">
+      <c r="E208" s="403"/>
+      <c r="F208" s="403">
         <v>1</v>
       </c>
       <c r="G208" s="374"/>
@@ -21960,20 +21958,20 @@
         <v>2</v>
       </c>
       <c r="B209" s="4"/>
-      <c r="C209" s="421" t="s">
+      <c r="C209" s="420" t="s">
         <v>342</v>
       </c>
-      <c r="D209" s="422"/>
-      <c r="E209" s="423" t="s">
+      <c r="D209" s="421"/>
+      <c r="E209" s="422" t="s">
         <v>14</v>
       </c>
-      <c r="F209" s="422">
+      <c r="F209" s="421">
         <v>9</v>
       </c>
-      <c r="G209" s="424">
+      <c r="G209" s="423">
         <v>4500</v>
       </c>
-      <c r="H209" s="424">
+      <c r="H209" s="423">
         <v>40500</v>
       </c>
       <c r="I209" s="341" t="s">
@@ -21989,8 +21987,8 @@
         <v>109</v>
       </c>
       <c r="D210" s="373"/>
-      <c r="E210" s="404"/>
-      <c r="F210" s="404">
+      <c r="E210" s="403"/>
+      <c r="F210" s="403">
         <v>1</v>
       </c>
       <c r="G210" s="374"/>
@@ -22010,10 +22008,10 @@
         <v>160</v>
       </c>
       <c r="D211" s="373"/>
-      <c r="E211" s="404" t="s">
+      <c r="E211" s="403" t="s">
         <v>22</v>
       </c>
-      <c r="F211" s="404">
+      <c r="F211" s="403">
         <v>1</v>
       </c>
       <c r="G211" s="374"/>
@@ -22033,8 +22031,8 @@
         <v>127</v>
       </c>
       <c r="D212" s="373"/>
-      <c r="E212" s="404"/>
-      <c r="F212" s="404">
+      <c r="E212" s="403"/>
+      <c r="F212" s="403">
         <v>3</v>
       </c>
       <c r="G212" s="374">
@@ -22056,7 +22054,7 @@
         <v>197</v>
       </c>
       <c r="D213" s="373"/>
-      <c r="E213" s="404" t="s">
+      <c r="E213" s="403" t="s">
         <v>22</v>
       </c>
       <c r="F213" s="373">
@@ -22079,7 +22077,7 @@
         <v>108</v>
       </c>
       <c r="D214" s="373"/>
-      <c r="E214" s="404"/>
+      <c r="E214" s="403"/>
       <c r="F214" s="373">
         <v>1</v>
       </c>
@@ -22162,8 +22160,8 @@
         <v>108</v>
       </c>
       <c r="D219" s="373"/>
-      <c r="E219" s="404"/>
-      <c r="F219" s="404">
+      <c r="E219" s="403"/>
+      <c r="F219" s="403">
         <v>2</v>
       </c>
       <c r="G219" s="374">
@@ -22181,20 +22179,20 @@
         <v>2</v>
       </c>
       <c r="B220" s="4"/>
-      <c r="C220" s="421" t="s">
+      <c r="C220" s="420" t="s">
         <v>342</v>
       </c>
-      <c r="D220" s="422"/>
-      <c r="E220" s="423" t="s">
+      <c r="D220" s="421"/>
+      <c r="E220" s="422" t="s">
         <v>14</v>
       </c>
-      <c r="F220" s="422">
+      <c r="F220" s="421">
         <v>10</v>
       </c>
-      <c r="G220" s="424">
+      <c r="G220" s="423">
         <v>4500</v>
       </c>
-      <c r="H220" s="424">
+      <c r="H220" s="423">
         <v>45000</v>
       </c>
       <c r="I220" s="341" t="s">
@@ -22210,8 +22208,8 @@
         <v>402</v>
       </c>
       <c r="D221" s="373"/>
-      <c r="E221" s="404"/>
-      <c r="F221" s="404">
+      <c r="E221" s="403"/>
+      <c r="F221" s="403">
         <v>1</v>
       </c>
       <c r="G221" s="374"/>
@@ -22231,10 +22229,10 @@
         <v>449</v>
       </c>
       <c r="D222" s="373"/>
-      <c r="E222" s="404" t="s">
+      <c r="E222" s="403" t="s">
         <v>22</v>
       </c>
-      <c r="F222" s="404">
+      <c r="F222" s="403">
         <v>1</v>
       </c>
       <c r="G222" s="374"/>
@@ -22254,10 +22252,10 @@
         <v>197</v>
       </c>
       <c r="D223" s="373"/>
-      <c r="E223" s="404" t="s">
+      <c r="E223" s="403" t="s">
         <v>22</v>
       </c>
-      <c r="F223" s="404">
+      <c r="F223" s="403">
         <v>1</v>
       </c>
       <c r="G223" s="374"/>
@@ -22273,7 +22271,7 @@
         <v>6</v>
       </c>
       <c r="B224" s="3"/>
-      <c r="C224" s="420" t="s">
+      <c r="C224" s="419" t="s">
         <v>223</v>
       </c>
       <c r="D224" s="8"/>
@@ -22317,7 +22315,7 @@
         <v>450</v>
       </c>
       <c r="D226" s="373"/>
-      <c r="E226" s="404"/>
+      <c r="E226" s="403"/>
       <c r="F226" s="373">
         <v>4</v>
       </c>
@@ -22340,7 +22338,7 @@
         <v>281</v>
       </c>
       <c r="D227" s="373"/>
-      <c r="E227" s="404" t="s">
+      <c r="E227" s="403" t="s">
         <v>8</v>
       </c>
       <c r="F227" s="373">
@@ -22365,7 +22363,7 @@
         <v>281</v>
       </c>
       <c r="D228" s="373"/>
-      <c r="E228" s="404" t="s">
+      <c r="E228" s="403" t="s">
         <v>14</v>
       </c>
       <c r="F228" s="373">
@@ -22445,36 +22443,36 @@
       </c>
     </row>
     <row r="233" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="415"/>
-      <c r="B233" s="415"/>
+      <c r="A233" s="414"/>
+      <c r="B233" s="414"/>
       <c r="C233" s="231" t="s">
         <v>456</v>
       </c>
-      <c r="D233" s="415"/>
-      <c r="E233" s="415"/>
-      <c r="F233" s="415"/>
-      <c r="G233" s="415"/>
+      <c r="D233" s="414"/>
+      <c r="E233" s="414"/>
+      <c r="F233" s="414"/>
+      <c r="G233" s="414"/>
       <c r="H233" s="370">
         <v>30000</v>
       </c>
     </row>
     <row r="234" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="416"/>
-      <c r="B234" s="416"/>
-      <c r="C234" s="416"/>
-      <c r="D234" s="416"/>
-      <c r="E234" s="416" t="s">
+      <c r="A234" s="415"/>
+      <c r="B234" s="415"/>
+      <c r="C234" s="415"/>
+      <c r="D234" s="415"/>
+      <c r="E234" s="415" t="s">
         <v>266</v>
       </c>
-      <c r="F234" s="416"/>
-      <c r="G234" s="416"/>
-      <c r="H234" s="417">
+      <c r="F234" s="415"/>
+      <c r="G234" s="415"/>
+      <c r="H234" s="416">
         <f>SUM(H229:H233)</f>
         <v>289900</v>
       </c>
     </row>
     <row r="235" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="425">
+      <c r="A235" s="424">
         <v>1</v>
       </c>
       <c r="B235" s="4" t="s">
@@ -22483,7 +22481,7 @@
       <c r="C235" s="372" t="s">
         <v>341</v>
       </c>
-      <c r="D235" s="432"/>
+      <c r="D235" s="431"/>
       <c r="E235" s="373"/>
       <c r="F235" s="373">
         <v>1</v>
@@ -22497,22 +22495,22 @@
       </c>
     </row>
     <row r="236" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="425">
+      <c r="A236" s="424">
         <v>2</v>
       </c>
-      <c r="B236" s="425"/>
-      <c r="C236" s="421" t="s">
+      <c r="B236" s="424"/>
+      <c r="C236" s="420" t="s">
         <v>109</v>
       </c>
-      <c r="D236" s="433"/>
-      <c r="E236" s="422"/>
-      <c r="F236" s="422">
+      <c r="D236" s="432"/>
+      <c r="E236" s="421"/>
+      <c r="F236" s="421">
         <v>2</v>
       </c>
-      <c r="G236" s="424">
+      <c r="G236" s="423">
         <v>3500</v>
       </c>
-      <c r="H236" s="424">
+      <c r="H236" s="423">
         <v>7000</v>
       </c>
       <c r="I236" s="341" t="s">
@@ -22520,14 +22518,14 @@
       </c>
     </row>
     <row r="237" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="425">
+      <c r="A237" s="424">
         <v>3</v>
       </c>
-      <c r="B237" s="425"/>
+      <c r="B237" s="424"/>
       <c r="C237" s="354" t="s">
         <v>350</v>
       </c>
-      <c r="D237" s="434"/>
+      <c r="D237" s="433"/>
       <c r="E237" s="8"/>
       <c r="F237" s="8">
         <v>2</v>
@@ -22540,24 +22538,24 @@
       </c>
     </row>
     <row r="238" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="425">
+      <c r="A238" s="424">
         <v>4</v>
       </c>
-      <c r="B238" s="425"/>
-      <c r="C238" s="385" t="s">
+      <c r="B238" s="424"/>
+      <c r="C238" s="384" t="s">
         <v>406</v>
       </c>
-      <c r="D238" s="435"/>
-      <c r="E238" s="386" t="s">
+      <c r="D238" s="434"/>
+      <c r="E238" s="385" t="s">
         <v>14</v>
       </c>
-      <c r="F238" s="386">
+      <c r="F238" s="385">
         <v>11</v>
       </c>
-      <c r="G238" s="387">
+      <c r="G238" s="386">
         <v>4500</v>
       </c>
-      <c r="H238" s="387">
+      <c r="H238" s="386">
         <v>49500</v>
       </c>
       <c r="I238" s="101" t="s">
@@ -22565,24 +22563,24 @@
       </c>
     </row>
     <row r="239" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="425">
+      <c r="A239" s="424">
         <v>5</v>
       </c>
-      <c r="B239" s="425"/>
-      <c r="C239" s="385" t="s">
+      <c r="B239" s="424"/>
+      <c r="C239" s="384" t="s">
         <v>160</v>
       </c>
-      <c r="D239" s="386" t="s">
+      <c r="D239" s="385" t="s">
         <v>337</v>
       </c>
-      <c r="E239" s="386" t="s">
+      <c r="E239" s="385" t="s">
         <v>22</v>
       </c>
-      <c r="F239" s="386">
-        <v>1</v>
-      </c>
-      <c r="G239" s="387"/>
-      <c r="H239" s="387">
+      <c r="F239" s="385">
+        <v>1</v>
+      </c>
+      <c r="G239" s="386"/>
+      <c r="H239" s="386">
         <v>32000</v>
       </c>
       <c r="I239" s="101" t="s">
@@ -22590,10 +22588,10 @@
       </c>
     </row>
     <row r="240" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="425">
+      <c r="A240" s="424">
         <v>6</v>
       </c>
-      <c r="B240" s="425"/>
+      <c r="B240" s="424"/>
       <c r="C240" s="354" t="s">
         <v>223</v>
       </c>
@@ -22608,10 +22606,10 @@
       </c>
     </row>
     <row r="241" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="425">
+      <c r="A241" s="424">
         <v>7</v>
       </c>
-      <c r="B241" s="425"/>
+      <c r="B241" s="424"/>
       <c r="C241" s="354" t="s">
         <v>459</v>
       </c>
@@ -22626,10 +22624,10 @@
       </c>
     </row>
     <row r="242" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="425">
+      <c r="A242" s="424">
         <v>8</v>
       </c>
-      <c r="B242" s="425"/>
+      <c r="B242" s="424"/>
       <c r="C242" s="375" t="s">
         <v>204</v>
       </c>
@@ -22651,10 +22649,10 @@
       </c>
     </row>
     <row r="243" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="425">
+      <c r="A243" s="424">
         <v>9</v>
       </c>
-      <c r="B243" s="425"/>
+      <c r="B243" s="424"/>
       <c r="C243" s="193" t="s">
         <v>71</v>
       </c>
@@ -22671,10 +22669,10 @@
       </c>
     </row>
     <row r="244" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="425">
+      <c r="A244" s="424">
         <v>10</v>
       </c>
-      <c r="B244" s="425"/>
+      <c r="B244" s="424"/>
       <c r="C244" s="375" t="s">
         <v>356</v>
       </c>
@@ -22694,10 +22692,10 @@
       </c>
     </row>
     <row r="245" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="425">
+      <c r="A245" s="424">
         <v>11</v>
       </c>
-      <c r="B245" s="425"/>
+      <c r="B245" s="424"/>
       <c r="C245" s="375" t="s">
         <v>151</v>
       </c>
@@ -22717,10 +22715,10 @@
       </c>
     </row>
     <row r="246" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="425">
+      <c r="A246" s="424">
         <v>12</v>
       </c>
-      <c r="B246" s="425"/>
+      <c r="B246" s="424"/>
       <c r="C246" s="375" t="s">
         <v>127</v>
       </c>
@@ -22738,10 +22736,10 @@
       </c>
     </row>
     <row r="247" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="425">
+      <c r="A247" s="424">
         <v>13</v>
       </c>
-      <c r="B247" s="425"/>
+      <c r="B247" s="424"/>
       <c r="C247" s="193" t="s">
         <v>27</v>
       </c>
@@ -22758,74 +22756,74 @@
       </c>
     </row>
     <row r="248" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="425"/>
-      <c r="B248" s="425"/>
+      <c r="A248" s="424"/>
+      <c r="B248" s="424"/>
       <c r="C248" s="237"/>
       <c r="D248" s="4"/>
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
-      <c r="G248" s="426"/>
+      <c r="G248" s="425"/>
       <c r="H248" s="223">
         <f>SUM(H235:H247)</f>
         <v>189550</v>
       </c>
     </row>
     <row r="249" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="425"/>
-      <c r="B249" s="425"/>
+      <c r="A249" s="424"/>
+      <c r="B249" s="424"/>
       <c r="C249" s="193" t="s">
         <v>124</v>
       </c>
-      <c r="D249" s="425"/>
+      <c r="D249" s="424"/>
       <c r="E249" s="4"/>
       <c r="F249" s="4">
         <v>1</v>
       </c>
-      <c r="G249" s="426"/>
+      <c r="G249" s="425"/>
       <c r="H249" s="50">
         <v>1500</v>
       </c>
     </row>
     <row r="250" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="427"/>
-      <c r="B250" s="427"/>
+      <c r="A250" s="426"/>
+      <c r="B250" s="426"/>
       <c r="C250" s="231" t="s">
         <v>460</v>
       </c>
-      <c r="D250" s="427"/>
+      <c r="D250" s="426"/>
       <c r="E250" s="23"/>
       <c r="F250" s="4">
         <v>1</v>
       </c>
-      <c r="G250" s="427"/>
+      <c r="G250" s="426"/>
       <c r="H250" s="370">
         <v>1700</v>
       </c>
     </row>
     <row r="251" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="427"/>
-      <c r="B251" s="427"/>
-      <c r="C251" s="397" t="s">
+      <c r="A251" s="426"/>
+      <c r="B251" s="426"/>
+      <c r="C251" s="396" t="s">
         <v>429</v>
       </c>
       <c r="D251" s="77" t="s">
         <v>461</v>
       </c>
-      <c r="E251" s="427"/>
-      <c r="F251" s="427"/>
-      <c r="G251" s="427"/>
+      <c r="E251" s="426"/>
+      <c r="F251" s="426"/>
+      <c r="G251" s="426"/>
       <c r="H251" s="370">
         <v>31500</v>
       </c>
     </row>
     <row r="252" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="427"/>
-      <c r="B252" s="427"/>
-      <c r="C252" s="427"/>
-      <c r="D252" s="427"/>
-      <c r="E252" s="427"/>
-      <c r="F252" s="427"/>
-      <c r="G252" s="427"/>
+      <c r="A252" s="426"/>
+      <c r="B252" s="426"/>
+      <c r="C252" s="426"/>
+      <c r="D252" s="426"/>
+      <c r="E252" s="426"/>
+      <c r="F252" s="426"/>
+      <c r="G252" s="426"/>
       <c r="H252" s="364">
         <f>SUM(H248:H251)</f>
         <v>224250</v>
@@ -22914,7 +22912,7 @@
     <row r="257" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
-      <c r="C257" s="429"/>
+      <c r="C257" s="428"/>
       <c r="D257" s="8"/>
       <c r="E257" s="8"/>
       <c r="F257" s="8"/>
@@ -22982,134 +22980,240 @@
       </c>
     </row>
     <row r="262" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="4"/>
-      <c r="B262" s="4"/>
-      <c r="C262" s="192"/>
-      <c r="D262" s="83"/>
-      <c r="E262" s="83"/>
-      <c r="F262" s="83"/>
-      <c r="G262" s="84"/>
-      <c r="H262" s="84"/>
+      <c r="A262" s="4">
+        <v>1</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="C262" s="188" t="s">
+        <v>197</v>
+      </c>
+      <c r="D262" s="4"/>
+      <c r="E262" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F262" s="4">
+        <v>2</v>
+      </c>
+      <c r="G262" s="50">
+        <v>24500</v>
+      </c>
+      <c r="H262" s="50">
+        <v>49000</v>
+      </c>
     </row>
     <row r="263" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="4"/>
+      <c r="A263" s="4">
+        <v>2</v>
+      </c>
       <c r="B263" s="4"/>
-      <c r="C263" s="192"/>
-      <c r="D263" s="83"/>
-      <c r="E263" s="83"/>
-      <c r="F263" s="83"/>
-      <c r="G263" s="84"/>
-      <c r="H263" s="84"/>
+      <c r="C263" s="193" t="s">
+        <v>127</v>
+      </c>
+      <c r="D263" s="4"/>
+      <c r="E263" s="4"/>
+      <c r="F263" s="4">
+        <v>2</v>
+      </c>
+      <c r="G263" s="50">
+        <v>1750</v>
+      </c>
+      <c r="H263" s="50">
+        <v>3500</v>
+      </c>
     </row>
     <row r="264" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="4"/>
+      <c r="A264" s="4">
+        <v>3</v>
+      </c>
       <c r="B264" s="4"/>
-      <c r="C264" s="192"/>
-      <c r="D264" s="83"/>
-      <c r="E264" s="83"/>
-      <c r="F264" s="83"/>
-      <c r="G264" s="84"/>
-      <c r="H264" s="84"/>
+      <c r="C264" s="193" t="s">
+        <v>471</v>
+      </c>
+      <c r="D264" s="4"/>
+      <c r="E264" s="4"/>
+      <c r="F264" s="4">
+        <v>1</v>
+      </c>
+      <c r="G264" s="50"/>
+      <c r="H264" s="50">
+        <v>1000</v>
+      </c>
     </row>
     <row r="265" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="4"/>
+      <c r="A265" s="4">
+        <v>4</v>
+      </c>
       <c r="B265" s="4"/>
-      <c r="C265" s="192"/>
-      <c r="D265" s="83"/>
-      <c r="E265" s="83"/>
-      <c r="F265" s="83"/>
-      <c r="G265" s="84"/>
-      <c r="H265" s="84"/>
+      <c r="C265" s="193" t="s">
+        <v>27</v>
+      </c>
+      <c r="D265" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E265" s="4"/>
+      <c r="F265" s="4">
+        <v>1</v>
+      </c>
+      <c r="G265" s="50"/>
+      <c r="H265" s="50">
+        <v>14000</v>
+      </c>
     </row>
     <row r="266" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="4"/>
+      <c r="A266" s="4">
+        <v>5</v>
+      </c>
       <c r="B266" s="4"/>
-      <c r="C266" s="388"/>
-      <c r="D266" s="83"/>
-      <c r="E266" s="83"/>
-      <c r="F266" s="83"/>
-      <c r="G266" s="84"/>
-      <c r="H266" s="84"/>
+      <c r="C266" s="401" t="s">
+        <v>109</v>
+      </c>
+      <c r="D266" s="8"/>
+      <c r="E266" s="8"/>
+      <c r="F266" s="45">
+        <v>1</v>
+      </c>
+      <c r="G266" s="79"/>
+      <c r="H266" s="75">
+        <v>3500</v>
+      </c>
     </row>
     <row r="267" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="4"/>
+      <c r="A267" s="4">
+        <v>6</v>
+      </c>
       <c r="B267" s="4"/>
-      <c r="C267" s="383"/>
-      <c r="D267" s="83"/>
-      <c r="E267" s="83"/>
-      <c r="F267" s="83"/>
-      <c r="G267" s="84"/>
-      <c r="H267" s="392"/>
+      <c r="C267" s="193" t="s">
+        <v>305</v>
+      </c>
+      <c r="D267" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E267" s="4"/>
+      <c r="F267" s="4">
+        <v>1</v>
+      </c>
+      <c r="G267" s="50"/>
+      <c r="H267" s="50">
+        <v>1000</v>
+      </c>
     </row>
     <row r="268" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="4"/>
+      <c r="A268" s="4">
+        <v>7</v>
+      </c>
       <c r="B268" s="4"/>
-      <c r="C268" s="383"/>
-      <c r="D268" s="83"/>
-      <c r="E268" s="83"/>
-      <c r="F268" s="83"/>
-      <c r="G268" s="84"/>
-      <c r="H268" s="84"/>
+      <c r="C268" s="193" t="s">
+        <v>342</v>
+      </c>
+      <c r="D268" s="4"/>
+      <c r="E268" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F268" s="4">
+        <v>8</v>
+      </c>
+      <c r="G268" s="50">
+        <v>3500</v>
+      </c>
+      <c r="H268" s="50">
+        <v>28000</v>
+      </c>
     </row>
     <row r="269" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="4"/>
+      <c r="A269" s="4">
+        <v>8</v>
+      </c>
       <c r="B269" s="4"/>
-      <c r="C269" s="383"/>
-      <c r="D269" s="83"/>
-      <c r="E269" s="83"/>
-      <c r="F269" s="83"/>
-      <c r="G269" s="84"/>
-      <c r="H269" s="84"/>
+      <c r="C269" s="260" t="s">
+        <v>171</v>
+      </c>
+      <c r="D269" s="4"/>
+      <c r="E269" s="4"/>
+      <c r="F269" s="4">
+        <v>4</v>
+      </c>
+      <c r="G269" s="50">
+        <v>3800</v>
+      </c>
+      <c r="H269" s="50">
+        <v>15200</v>
+      </c>
     </row>
     <row r="270" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="4"/>
+      <c r="A270" s="4">
+        <v>9</v>
+      </c>
       <c r="B270" s="4"/>
-      <c r="C270" s="260"/>
+      <c r="C270" s="193" t="s">
+        <v>424</v>
+      </c>
       <c r="D270" s="4"/>
       <c r="E270" s="4"/>
-      <c r="F270" s="4"/>
+      <c r="F270" s="4">
+        <v>1</v>
+      </c>
       <c r="G270" s="50"/>
-      <c r="H270" s="50"/>
+      <c r="H270" s="50">
+        <v>2650</v>
+      </c>
     </row>
     <row r="271" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
-      <c r="C271" s="260"/>
+      <c r="C271" s="246"/>
       <c r="D271" s="4"/>
       <c r="E271" s="4"/>
       <c r="F271" s="4"/>
       <c r="G271" s="50"/>
-      <c r="H271" s="50"/>
+      <c r="H271" s="223">
+        <f>SUM(H262:H270)</f>
+        <v>117850</v>
+      </c>
     </row>
     <row r="272" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
-      <c r="C272" s="382"/>
-      <c r="D272" s="45"/>
-      <c r="E272" s="45"/>
-      <c r="F272" s="45"/>
+      <c r="C272" s="193" t="s">
+        <v>472</v>
+      </c>
+      <c r="D272" s="4"/>
+      <c r="E272" s="4"/>
+      <c r="F272" s="4"/>
       <c r="G272" s="50"/>
-      <c r="H272" s="257"/>
+      <c r="H272" s="50">
+        <v>33000</v>
+      </c>
     </row>
     <row r="273" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
-      <c r="C273" s="188"/>
-      <c r="D273" s="4"/>
+      <c r="C273" s="193" t="s">
+        <v>473</v>
+      </c>
+      <c r="D273" s="4" t="s">
+        <v>474</v>
+      </c>
       <c r="E273" s="4"/>
       <c r="F273" s="4"/>
       <c r="G273" s="50"/>
-      <c r="H273" s="50"/>
+      <c r="H273" s="50">
+        <v>1500</v>
+      </c>
     </row>
     <row r="274" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
-      <c r="C274" s="188"/>
+      <c r="C274" s="246"/>
       <c r="D274" s="4"/>
       <c r="E274" s="4"/>
       <c r="F274" s="4"/>
       <c r="G274" s="50"/>
-      <c r="H274" s="50"/>
+      <c r="H274" s="223">
+        <f>SUM(H271:H273)</f>
+        <v>152350</v>
+      </c>
     </row>
     <row r="275" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="4"/>
@@ -23367,8 +23471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -23384,16 +23488,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="442" t="s">
+      <c r="A1" s="441" t="s">
         <v>462</v>
       </c>
-      <c r="B1" s="442"/>
-      <c r="C1" s="442"/>
-      <c r="D1" s="443"/>
-      <c r="E1" s="442"/>
-      <c r="F1" s="442"/>
-      <c r="G1" s="442"/>
-      <c r="H1" s="442"/>
+      <c r="B1" s="441"/>
+      <c r="C1" s="441"/>
+      <c r="D1" s="442"/>
+      <c r="E1" s="441"/>
+      <c r="F1" s="441"/>
+      <c r="G1" s="441"/>
+      <c r="H1" s="441"/>
     </row>
     <row r="2" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -23402,11 +23506,11 @@
       <c r="B2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="444" t="s">
+      <c r="C2" s="443" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="445"/>
-      <c r="E2" s="428" t="s">
+      <c r="D2" s="444"/>
+      <c r="E2" s="427" t="s">
         <v>116</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -23423,121 +23527,73 @@
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="C3" s="188" t="s">
-        <v>197</v>
-      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="188"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="4">
-        <v>2</v>
-      </c>
-      <c r="G3" s="50">
-        <v>24500</v>
-      </c>
-      <c r="H3" s="50">
-        <v>49000</v>
-      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="193" t="s">
-        <v>127</v>
-      </c>
+      <c r="C4" s="193"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="4">
-        <v>2</v>
-      </c>
-      <c r="G4" s="50">
-        <v>1750</v>
-      </c>
-      <c r="H4" s="50">
-        <v>3500</v>
-      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
     </row>
     <row r="5" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="193" t="s">
-        <v>471</v>
-      </c>
+      <c r="C5" s="193"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="50"/>
-      <c r="H5" s="50">
-        <v>1000</v>
-      </c>
+      <c r="H5" s="50"/>
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="193" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>244</v>
-      </c>
+      <c r="C6" s="193"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
+      <c r="F6" s="4"/>
       <c r="G6" s="50"/>
-      <c r="H6" s="50">
-        <v>14000</v>
-      </c>
+      <c r="H6" s="50"/>
     </row>
     <row r="7" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="402" t="s">
-        <v>109</v>
-      </c>
+      <c r="C7" s="401"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="45">
-        <v>1</v>
-      </c>
+      <c r="F7" s="45"/>
       <c r="G7" s="79"/>
-      <c r="H7" s="75">
-        <v>3500</v>
-      </c>
+      <c r="H7" s="75"/>
     </row>
     <row r="8" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>6</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="193" t="s">
-        <v>305</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="C8" s="193"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
+      <c r="F8" s="4"/>
       <c r="G8" s="50"/>
-      <c r="H8" s="50">
-        <v>1000</v>
-      </c>
+      <c r="H8" s="50"/>
       <c r="L8" s="101" t="s">
         <v>469</v>
       </c>
@@ -23547,60 +23603,36 @@
         <v>7</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="193" t="s">
-        <v>342</v>
-      </c>
+      <c r="C9" s="193"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="4">
-        <v>8</v>
-      </c>
-      <c r="G9" s="50">
-        <v>3500</v>
-      </c>
-      <c r="H9" s="50">
-        <v>28000</v>
-      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
     </row>
     <row r="10" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>8</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="260" t="s">
-        <v>171</v>
-      </c>
+      <c r="C10" s="260"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="4">
-        <v>4</v>
-      </c>
-      <c r="G10" s="50">
-        <v>3800</v>
-      </c>
-      <c r="H10" s="50">
-        <v>15200</v>
-      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
     </row>
     <row r="11" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>9</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="193" t="s">
-        <v>424</v>
-      </c>
+      <c r="C11" s="193"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
+      <c r="F11" s="4"/>
       <c r="G11" s="50"/>
-      <c r="H11" s="50">
-        <v>2650</v>
-      </c>
+      <c r="H11" s="50"/>
     </row>
     <row r="12" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
@@ -23610,40 +23642,27 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="50"/>
-      <c r="H12" s="223">
-        <f>SUM(H3:H11)</f>
-        <v>117850</v>
-      </c>
+      <c r="H12" s="223"/>
     </row>
     <row r="13" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="193" t="s">
-        <v>472</v>
-      </c>
+      <c r="C13" s="193"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="50"/>
-      <c r="H13" s="50">
-        <v>33000</v>
-      </c>
+      <c r="H13" s="50"/>
     </row>
     <row r="14" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="193" t="s">
-        <v>473</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>474</v>
-      </c>
+      <c r="C14" s="193"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="50"/>
-      <c r="H14" s="50">
-        <v>1500</v>
-      </c>
+      <c r="H14" s="50"/>
     </row>
     <row r="15" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -23653,10 +23672,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="50"/>
-      <c r="H15" s="223">
-        <f>SUM(H12:H14)</f>
-        <v>152350</v>
-      </c>
+      <c r="H15" s="223"/>
     </row>
     <row r="16" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
@@ -23699,14 +23715,14 @@
       <c r="H19" s="370"/>
     </row>
     <row r="20" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="430"/>
-      <c r="B20" s="430"/>
-      <c r="C20" s="430"/>
-      <c r="D20" s="430"/>
-      <c r="E20" s="430"/>
-      <c r="F20" s="430"/>
-      <c r="G20" s="430"/>
-      <c r="H20" s="431"/>
+      <c r="A20" s="429"/>
+      <c r="B20" s="429"/>
+      <c r="C20" s="429"/>
+      <c r="D20" s="429"/>
+      <c r="E20" s="429"/>
+      <c r="F20" s="429"/>
+      <c r="G20" s="429"/>
+      <c r="H20" s="430"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/GB-3  Sales.xlsx
+++ b/GB-3  Sales.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="18195" windowHeight="10425" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="18195" windowHeight="10425" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sales-2017" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Jun-2018 -Sales'!$A$1:$H$256</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="482">
   <si>
     <t>Oil Filter</t>
   </si>
@@ -1472,6 +1471,27 @@
   </si>
   <si>
     <t>22/8</t>
+  </si>
+  <si>
+    <t>24.8.2018</t>
+  </si>
+  <si>
+    <t>Diesl 15W40</t>
+  </si>
+  <si>
+    <t>ေကာ္နီ</t>
+  </si>
+  <si>
+    <t>26.8.2018</t>
+  </si>
+  <si>
+    <t>Platinum Plug 12/16</t>
+  </si>
+  <si>
+    <t>Harrier</t>
+  </si>
+  <si>
+    <t>Ph Bill (Computer)</t>
   </si>
 </sst>
 </file>
@@ -2014,7 +2034,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="445">
+  <cellXfs count="446">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3120,6 +3140,9 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="39" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6569,10 +6592,10 @@
       <c r="B1" s="198" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="437" t="s">
+      <c r="C1" s="438" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="438"/>
+      <c r="D1" s="439"/>
       <c r="E1" s="198" t="s">
         <v>116</v>
       </c>
@@ -11949,10 +11972,10 @@
       <c r="B1" s="333" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="439" t="s">
+      <c r="C1" s="440" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="440"/>
+      <c r="D1" s="441"/>
       <c r="E1" s="333" t="s">
         <v>116</v>
       </c>
@@ -17882,8 +17905,8 @@
   </sheetPr>
   <dimension ref="A1:Q298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="J270" sqref="J270"/>
+    <sheetView topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="Q138" sqref="Q138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17907,10 +17930,10 @@
       <c r="B1" s="333" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="439" t="s">
+      <c r="C1" s="440" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="440"/>
+      <c r="D1" s="441"/>
       <c r="E1" s="333" t="s">
         <v>116</v>
       </c>
@@ -23216,74 +23239,133 @@
       </c>
     </row>
     <row r="275" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="4"/>
-      <c r="B275" s="4"/>
-      <c r="C275" s="193"/>
+      <c r="A275" s="4">
+        <v>1</v>
+      </c>
+      <c r="B275" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="C275" s="188" t="s">
+        <v>176</v>
+      </c>
       <c r="D275" s="4"/>
-      <c r="E275" s="4"/>
-      <c r="F275" s="4"/>
+      <c r="E275" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F275" s="4">
+        <v>1</v>
+      </c>
       <c r="G275" s="50"/>
-      <c r="H275" s="50"/>
+      <c r="H275" s="50">
+        <v>34500</v>
+      </c>
     </row>
     <row r="276" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="4"/>
+      <c r="A276" s="4">
+        <v>2</v>
+      </c>
       <c r="B276" s="4"/>
-      <c r="C276" s="193"/>
+      <c r="C276" s="193" t="s">
+        <v>476</v>
+      </c>
       <c r="D276" s="4"/>
-      <c r="E276" s="4"/>
-      <c r="F276" s="4"/>
-      <c r="G276" s="50"/>
-      <c r="H276" s="50"/>
+      <c r="E276" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F276" s="4">
+        <v>10</v>
+      </c>
+      <c r="G276" s="50">
+        <v>3500</v>
+      </c>
+      <c r="H276" s="50">
+        <v>35000</v>
+      </c>
     </row>
     <row r="277" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="4"/>
+      <c r="A277" s="4">
+        <v>3</v>
+      </c>
       <c r="B277" s="4"/>
-      <c r="C277" s="193"/>
+      <c r="C277" s="193" t="s">
+        <v>109</v>
+      </c>
       <c r="D277" s="4"/>
       <c r="E277" s="4"/>
-      <c r="F277" s="4"/>
-      <c r="G277" s="50"/>
-      <c r="H277" s="50"/>
+      <c r="F277" s="4">
+        <v>2</v>
+      </c>
+      <c r="G277" s="50">
+        <v>3500</v>
+      </c>
+      <c r="H277" s="50">
+        <v>7000</v>
+      </c>
     </row>
     <row r="278" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="4"/>
+      <c r="A278" s="4">
+        <v>4</v>
+      </c>
       <c r="B278" s="4"/>
-      <c r="C278" s="193"/>
+      <c r="C278" s="193" t="s">
+        <v>350</v>
+      </c>
       <c r="D278" s="4"/>
       <c r="E278" s="4"/>
-      <c r="F278" s="4"/>
-      <c r="G278" s="50"/>
-      <c r="H278" s="50"/>
+      <c r="F278" s="4">
+        <v>2</v>
+      </c>
+      <c r="G278" s="50">
+        <v>2000</v>
+      </c>
+      <c r="H278" s="50">
+        <v>4000</v>
+      </c>
     </row>
     <row r="279" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
-      <c r="C279" s="260"/>
-      <c r="D279" s="4"/>
-      <c r="E279" s="4"/>
-      <c r="F279" s="4"/>
-      <c r="G279" s="50"/>
-      <c r="H279" s="50"/>
+      <c r="C279" s="401"/>
+      <c r="D279" s="8"/>
+      <c r="E279" s="8"/>
+      <c r="F279" s="45"/>
+      <c r="G279" s="79"/>
+      <c r="H279" s="437">
+        <f>SUM(H275:H278)</f>
+        <v>80500</v>
+      </c>
     </row>
     <row r="280" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
-      <c r="C280" s="260"/>
+      <c r="C280" s="193" t="s">
+        <v>456</v>
+      </c>
       <c r="D280" s="4"/>
       <c r="E280" s="4"/>
       <c r="F280" s="4"/>
       <c r="G280" s="50"/>
-      <c r="H280" s="50"/>
+      <c r="H280" s="50">
+        <v>30000</v>
+      </c>
     </row>
     <row r="281" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
-      <c r="C281" s="260"/>
+      <c r="C281" s="193" t="s">
+        <v>477</v>
+      </c>
       <c r="D281" s="4"/>
       <c r="E281" s="4"/>
-      <c r="F281" s="4"/>
-      <c r="G281" s="50"/>
-      <c r="H281" s="50"/>
+      <c r="F281" s="4">
+        <v>7</v>
+      </c>
+      <c r="G281" s="50">
+        <v>1700</v>
+      </c>
+      <c r="H281" s="50">
+        <v>11900</v>
+      </c>
     </row>
     <row r="282" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="4"/>
@@ -23293,35 +23375,38 @@
       <c r="E282" s="4"/>
       <c r="F282" s="4"/>
       <c r="G282" s="50"/>
-      <c r="H282" s="50"/>
+      <c r="H282" s="257">
+        <f>SUM(H279:H281)</f>
+        <v>122400</v>
+      </c>
     </row>
     <row r="283" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
-      <c r="C283" s="260"/>
+      <c r="C283" s="188"/>
       <c r="D283" s="4"/>
       <c r="E283" s="4"/>
       <c r="F283" s="4"/>
       <c r="G283" s="50"/>
-      <c r="H283" s="257"/>
+      <c r="H283" s="50"/>
     </row>
     <row r="284" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
-      <c r="C284" s="382"/>
-      <c r="D284" s="45"/>
-      <c r="E284" s="45"/>
-      <c r="F284" s="45"/>
+      <c r="C284" s="193"/>
+      <c r="D284" s="4"/>
+      <c r="E284" s="4"/>
+      <c r="F284" s="4"/>
       <c r="G284" s="50"/>
       <c r="H284" s="50"/>
     </row>
     <row r="285" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
-      <c r="C285" s="382"/>
-      <c r="D285" s="45"/>
-      <c r="E285" s="45"/>
-      <c r="F285" s="45"/>
+      <c r="C285" s="193"/>
+      <c r="D285" s="4"/>
+      <c r="E285" s="4"/>
+      <c r="F285" s="4"/>
       <c r="G285" s="50"/>
       <c r="H285" s="50"/>
     </row>
@@ -23338,27 +23423,27 @@
     <row r="287" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
-      <c r="C287" s="188"/>
-      <c r="D287" s="4"/>
-      <c r="E287" s="4"/>
-      <c r="F287" s="4"/>
-      <c r="G287" s="50"/>
-      <c r="H287" s="50"/>
+      <c r="C287" s="401"/>
+      <c r="D287" s="8"/>
+      <c r="E287" s="8"/>
+      <c r="F287" s="45"/>
+      <c r="G287" s="79"/>
+      <c r="H287" s="437"/>
     </row>
     <row r="288" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="255"/>
-      <c r="B288" s="255"/>
-      <c r="C288" s="255"/>
-      <c r="D288" s="255"/>
-      <c r="E288" s="255"/>
-      <c r="F288" s="255"/>
-      <c r="G288" s="255"/>
-      <c r="H288" s="371"/>
+      <c r="A288" s="4"/>
+      <c r="B288" s="4"/>
+      <c r="C288" s="193"/>
+      <c r="D288" s="4"/>
+      <c r="E288" s="4"/>
+      <c r="F288" s="4"/>
+      <c r="G288" s="50"/>
+      <c r="H288" s="50"/>
     </row>
     <row r="289" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
-      <c r="C289" s="188"/>
+      <c r="C289" s="193"/>
       <c r="D289" s="4"/>
       <c r="E289" s="4"/>
       <c r="F289" s="4"/>
@@ -23368,12 +23453,12 @@
     <row r="290" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
-      <c r="C290" s="188"/>
+      <c r="C290" s="260"/>
       <c r="D290" s="4"/>
       <c r="E290" s="4"/>
       <c r="F290" s="4"/>
       <c r="G290" s="50"/>
-      <c r="H290" s="50"/>
+      <c r="H290" s="257"/>
     </row>
     <row r="291" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="4"/>
@@ -23471,8 +23556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -23488,16 +23573,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="441" t="s">
+      <c r="A1" s="442" t="s">
         <v>462</v>
       </c>
-      <c r="B1" s="441"/>
-      <c r="C1" s="441"/>
-      <c r="D1" s="442"/>
-      <c r="E1" s="441"/>
-      <c r="F1" s="441"/>
-      <c r="G1" s="441"/>
-      <c r="H1" s="441"/>
+      <c r="B1" s="442"/>
+      <c r="C1" s="442"/>
+      <c r="D1" s="443"/>
+      <c r="E1" s="442"/>
+      <c r="F1" s="442"/>
+      <c r="G1" s="442"/>
+      <c r="H1" s="442"/>
     </row>
     <row r="2" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -23506,10 +23591,10 @@
       <c r="B2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="443" t="s">
+      <c r="C2" s="444" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="444"/>
+      <c r="D2" s="445"/>
       <c r="E2" s="427" t="s">
         <v>116</v>
       </c>
@@ -23527,73 +23612,127 @@
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="188"/>
+      <c r="B3" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="C3" s="188" t="s">
+        <v>479</v>
+      </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
+      <c r="F3" s="4">
+        <v>4</v>
+      </c>
+      <c r="G3" s="50">
+        <v>3500</v>
+      </c>
+      <c r="H3" s="50">
+        <v>14000</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="193"/>
+      <c r="C4" s="193" t="s">
+        <v>197</v>
+      </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
+      <c r="E4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="50">
+        <v>6500</v>
+      </c>
+      <c r="H4" s="50">
+        <v>19500</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="193"/>
-      <c r="D5" s="4"/>
+      <c r="C5" s="193" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5" s="50">
+        <v>11000</v>
+      </c>
+      <c r="H5" s="50">
+        <v>22000</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="193"/>
-      <c r="D6" s="4"/>
+      <c r="C6" s="193" t="s">
+        <v>401</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
       <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
+      <c r="H6" s="50">
+        <v>34000</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="401"/>
+      <c r="C7" s="401" t="s">
+        <v>128</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="75"/>
+      <c r="F7" s="45">
+        <v>4</v>
+      </c>
+      <c r="G7" s="75">
+        <v>3500</v>
+      </c>
+      <c r="H7" s="75">
+        <v>14000</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>6</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="193"/>
+      <c r="C8" s="193" t="s">
+        <v>108</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+      <c r="G8" s="50">
+        <v>3500</v>
+      </c>
+      <c r="H8" s="50">
+        <v>7000</v>
+      </c>
       <c r="L8" s="101" t="s">
         <v>469</v>
       </c>
@@ -23603,36 +23742,58 @@
         <v>7</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="193"/>
+      <c r="C9" s="193" t="s">
+        <v>109</v>
+      </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
+      <c r="F9" s="4">
+        <v>4</v>
+      </c>
+      <c r="G9" s="50">
+        <v>3500</v>
+      </c>
+      <c r="H9" s="50">
+        <v>10500</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>8</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="260"/>
+      <c r="C10" s="260" t="s">
+        <v>196</v>
+      </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
       <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
+      <c r="H10" s="50">
+        <v>25500</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>9</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="193"/>
+      <c r="C11" s="193" t="s">
+        <v>189</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
       <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
+      <c r="H11" s="50">
+        <v>2650</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
@@ -23642,37 +23803,56 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="50"/>
-      <c r="H12" s="223"/>
+      <c r="H12" s="223">
+        <f>SUM(H3:H11)</f>
+        <v>149150</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="193"/>
+      <c r="C13" s="193" t="s">
+        <v>456</v>
+      </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
+      <c r="H13" s="50">
+        <v>30000</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="193"/>
+      <c r="C14" s="193" t="s">
+        <v>481</v>
+      </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
+      <c r="H14" s="50">
+        <v>5000</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="246"/>
+      <c r="C15" s="193" t="s">
+        <v>364</v>
+      </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="223"/>
+      <c r="F15" s="4">
+        <v>2</v>
+      </c>
+      <c r="G15" s="50">
+        <v>2000</v>
+      </c>
+      <c r="H15" s="50">
+        <v>4000</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
@@ -23682,7 +23862,10 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
+      <c r="H16" s="257">
+        <f>SUM(H12:H15)</f>
+        <v>188150</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>

--- a/GB-3  Sales.xlsx
+++ b/GB-3  Sales.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="493">
   <si>
     <t>Oil Filter</t>
   </si>
@@ -1492,6 +1492,39 @@
   </si>
   <si>
     <t>Ph Bill (Computer)</t>
+  </si>
+  <si>
+    <t>ေဘာဂြိ်ဳင္း</t>
+  </si>
+  <si>
+    <t>Meal 19*1500</t>
+  </si>
+  <si>
+    <t>Oil Filer 30002</t>
+  </si>
+  <si>
+    <t>27.8.2018</t>
+  </si>
+  <si>
+    <t>Acty</t>
+  </si>
+  <si>
+    <t>28.8.2018</t>
+  </si>
+  <si>
+    <t>Red End</t>
+  </si>
+  <si>
+    <t>29.8.2018</t>
+  </si>
+  <si>
+    <t>Power Gun</t>
+  </si>
+  <si>
+    <t>30.8.2018</t>
+  </si>
+  <si>
+    <t>ေကာ္ျကိုး</t>
   </si>
 </sst>
 </file>
@@ -2034,7 +2067,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="446">
+  <cellXfs count="445">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3090,9 +3123,6 @@
     <xf numFmtId="164" fontId="22" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3132,9 +3162,6 @@
     <xf numFmtId="0" fontId="39" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3145,6 +3172,7 @@
     <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6592,10 +6620,10 @@
       <c r="B1" s="198" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="438" t="s">
+      <c r="C1" s="437" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="439"/>
+      <c r="D1" s="438"/>
       <c r="E1" s="198" t="s">
         <v>116</v>
       </c>
@@ -11947,8 +11975,8 @@
   <dimension ref="A1:Q298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P126" sqref="P126"/>
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J74" sqref="J73:J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11972,10 +12000,10 @@
       <c r="B1" s="333" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="440" t="s">
+      <c r="C1" s="439" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="441"/>
+      <c r="D1" s="440"/>
       <c r="E1" s="333" t="s">
         <v>116</v>
       </c>
@@ -11997,10 +12025,10 @@
       <c r="B2" s="77" t="s">
         <v>243</v>
       </c>
-      <c r="C2" s="435" t="s">
+      <c r="C2" s="433" t="s">
         <v>251</v>
       </c>
-      <c r="D2" s="436"/>
+      <c r="D2" s="434"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8">
         <v>8</v>
@@ -13497,7 +13525,7 @@
         <v>4</v>
       </c>
       <c r="B75" s="4"/>
-      <c r="C75" s="344" t="s">
+      <c r="C75" s="313" t="s">
         <v>281</v>
       </c>
       <c r="D75" s="275"/>
@@ -17903,10 +17931,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:Q298"/>
+  <dimension ref="A1:Q335"/>
   <sheetViews>
-    <sheetView topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="Q138" sqref="Q138"/>
+    <sheetView topLeftCell="A316" workbookViewId="0">
+      <selection activeCell="K327" sqref="K327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17930,10 +17958,10 @@
       <c r="B1" s="333" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="440" t="s">
+      <c r="C1" s="439" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="441"/>
+      <c r="D1" s="440"/>
       <c r="E1" s="333" t="s">
         <v>116</v>
       </c>
@@ -19340,19 +19368,22 @@
         <v>2</v>
       </c>
       <c r="B75" s="3"/>
-      <c r="C75" s="354" t="s">
+      <c r="C75" s="384" t="s">
         <v>407</v>
       </c>
-      <c r="D75" s="47"/>
-      <c r="E75" s="47"/>
-      <c r="F75" s="8">
+      <c r="D75" s="404"/>
+      <c r="E75" s="404"/>
+      <c r="F75" s="385">
         <v>4</v>
       </c>
-      <c r="G75" s="79">
+      <c r="G75" s="386">
         <v>1200</v>
       </c>
-      <c r="H75" s="79">
+      <c r="H75" s="386">
         <v>4800</v>
+      </c>
+      <c r="I75" s="101" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20242,16 +20273,16 @@
         <v>12</v>
       </c>
       <c r="B119" s="4"/>
-      <c r="C119" s="417" t="s">
+      <c r="C119" s="419" t="s">
         <v>350</v>
       </c>
-      <c r="D119" s="235"/>
-      <c r="E119" s="235"/>
-      <c r="F119" s="235">
-        <v>1</v>
-      </c>
-      <c r="G119" s="353"/>
-      <c r="H119" s="353">
+      <c r="D119" s="420"/>
+      <c r="E119" s="420"/>
+      <c r="F119" s="420">
+        <v>1</v>
+      </c>
+      <c r="G119" s="422"/>
+      <c r="H119" s="422">
         <v>2000</v>
       </c>
     </row>
@@ -21302,7 +21333,7 @@
       <c r="F174" s="47">
         <v>1</v>
       </c>
-      <c r="G174" s="418"/>
+      <c r="G174" s="417"/>
       <c r="H174" s="79">
         <v>4000</v>
       </c>
@@ -21981,20 +22012,20 @@
         <v>2</v>
       </c>
       <c r="B209" s="4"/>
-      <c r="C209" s="420" t="s">
+      <c r="C209" s="419" t="s">
         <v>342</v>
       </c>
-      <c r="D209" s="421"/>
-      <c r="E209" s="422" t="s">
+      <c r="D209" s="420"/>
+      <c r="E209" s="421" t="s">
         <v>14</v>
       </c>
-      <c r="F209" s="421">
+      <c r="F209" s="420">
         <v>9</v>
       </c>
-      <c r="G209" s="423">
+      <c r="G209" s="422">
         <v>4500</v>
       </c>
-      <c r="H209" s="423">
+      <c r="H209" s="422">
         <v>40500</v>
       </c>
       <c r="I209" s="341" t="s">
@@ -22202,20 +22233,20 @@
         <v>2</v>
       </c>
       <c r="B220" s="4"/>
-      <c r="C220" s="420" t="s">
+      <c r="C220" s="419" t="s">
         <v>342</v>
       </c>
-      <c r="D220" s="421"/>
-      <c r="E220" s="422" t="s">
+      <c r="D220" s="420"/>
+      <c r="E220" s="421" t="s">
         <v>14</v>
       </c>
-      <c r="F220" s="421">
+      <c r="F220" s="420">
         <v>10</v>
       </c>
-      <c r="G220" s="423">
+      <c r="G220" s="422">
         <v>4500</v>
       </c>
-      <c r="H220" s="423">
+      <c r="H220" s="422">
         <v>45000</v>
       </c>
       <c r="I220" s="341" t="s">
@@ -22294,7 +22325,7 @@
         <v>6</v>
       </c>
       <c r="B224" s="3"/>
-      <c r="C224" s="419" t="s">
+      <c r="C224" s="418" t="s">
         <v>223</v>
       </c>
       <c r="D224" s="8"/>
@@ -22495,7 +22526,7 @@
       </c>
     </row>
     <row r="235" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="424">
+      <c r="A235" s="423">
         <v>1</v>
       </c>
       <c r="B235" s="4" t="s">
@@ -22504,7 +22535,7 @@
       <c r="C235" s="372" t="s">
         <v>341</v>
       </c>
-      <c r="D235" s="431"/>
+      <c r="D235" s="430"/>
       <c r="E235" s="373"/>
       <c r="F235" s="373">
         <v>1</v>
@@ -22518,57 +22549,60 @@
       </c>
     </row>
     <row r="236" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="424">
+      <c r="A236" s="423">
         <v>2</v>
       </c>
-      <c r="B236" s="424"/>
-      <c r="C236" s="420" t="s">
+      <c r="B236" s="423"/>
+      <c r="C236" s="384" t="s">
         <v>109</v>
       </c>
       <c r="D236" s="432"/>
-      <c r="E236" s="421"/>
-      <c r="F236" s="421">
+      <c r="E236" s="385"/>
+      <c r="F236" s="385">
         <v>2</v>
       </c>
-      <c r="G236" s="423">
+      <c r="G236" s="386">
         <v>3500</v>
       </c>
-      <c r="H236" s="423">
+      <c r="H236" s="386">
         <v>7000</v>
       </c>
-      <c r="I236" s="341" t="s">
-        <v>465</v>
+      <c r="I236" s="436" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="237" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="424">
+      <c r="A237" s="423">
         <v>3</v>
       </c>
-      <c r="B237" s="424"/>
-      <c r="C237" s="354" t="s">
+      <c r="B237" s="423"/>
+      <c r="C237" s="419" t="s">
         <v>350</v>
       </c>
-      <c r="D237" s="433"/>
-      <c r="E237" s="8"/>
-      <c r="F237" s="8">
+      <c r="D237" s="431"/>
+      <c r="E237" s="420"/>
+      <c r="F237" s="420">
         <v>2</v>
       </c>
-      <c r="G237" s="79">
+      <c r="G237" s="422">
         <v>2000</v>
       </c>
-      <c r="H237" s="79">
+      <c r="H237" s="422">
         <v>4000</v>
       </c>
+      <c r="I237" s="101" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="238" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="424">
+      <c r="A238" s="423">
         <v>4</v>
       </c>
-      <c r="B238" s="424"/>
+      <c r="B238" s="423"/>
       <c r="C238" s="384" t="s">
         <v>406</v>
       </c>
-      <c r="D238" s="434"/>
+      <c r="D238" s="432"/>
       <c r="E238" s="385" t="s">
         <v>14</v>
       </c>
@@ -22586,10 +22620,10 @@
       </c>
     </row>
     <row r="239" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="424">
+      <c r="A239" s="423">
         <v>5</v>
       </c>
-      <c r="B239" s="424"/>
+      <c r="B239" s="423"/>
       <c r="C239" s="384" t="s">
         <v>160</v>
       </c>
@@ -22611,10 +22645,10 @@
       </c>
     </row>
     <row r="240" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="424">
+      <c r="A240" s="423">
         <v>6</v>
       </c>
-      <c r="B240" s="424"/>
+      <c r="B240" s="423"/>
       <c r="C240" s="354" t="s">
         <v>223</v>
       </c>
@@ -22629,10 +22663,10 @@
       </c>
     </row>
     <row r="241" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="424">
+      <c r="A241" s="423">
         <v>7</v>
       </c>
-      <c r="B241" s="424"/>
+      <c r="B241" s="423"/>
       <c r="C241" s="354" t="s">
         <v>459</v>
       </c>
@@ -22647,10 +22681,10 @@
       </c>
     </row>
     <row r="242" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="424">
+      <c r="A242" s="423">
         <v>8</v>
       </c>
-      <c r="B242" s="424"/>
+      <c r="B242" s="423"/>
       <c r="C242" s="375" t="s">
         <v>204</v>
       </c>
@@ -22672,10 +22706,10 @@
       </c>
     </row>
     <row r="243" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="424">
+      <c r="A243" s="423">
         <v>9</v>
       </c>
-      <c r="B243" s="424"/>
+      <c r="B243" s="423"/>
       <c r="C243" s="193" t="s">
         <v>71</v>
       </c>
@@ -22692,10 +22726,10 @@
       </c>
     </row>
     <row r="244" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="424">
+      <c r="A244" s="423">
         <v>10</v>
       </c>
-      <c r="B244" s="424"/>
+      <c r="B244" s="423"/>
       <c r="C244" s="375" t="s">
         <v>356</v>
       </c>
@@ -22715,10 +22749,10 @@
       </c>
     </row>
     <row r="245" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="424">
+      <c r="A245" s="423">
         <v>11</v>
       </c>
-      <c r="B245" s="424"/>
+      <c r="B245" s="423"/>
       <c r="C245" s="375" t="s">
         <v>151</v>
       </c>
@@ -22738,10 +22772,10 @@
       </c>
     </row>
     <row r="246" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="424">
+      <c r="A246" s="423">
         <v>12</v>
       </c>
-      <c r="B246" s="424"/>
+      <c r="B246" s="423"/>
       <c r="C246" s="375" t="s">
         <v>127</v>
       </c>
@@ -22759,10 +22793,10 @@
       </c>
     </row>
     <row r="247" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="424">
+      <c r="A247" s="423">
         <v>13</v>
       </c>
-      <c r="B247" s="424"/>
+      <c r="B247" s="423"/>
       <c r="C247" s="193" t="s">
         <v>27</v>
       </c>
@@ -22779,74 +22813,74 @@
       </c>
     </row>
     <row r="248" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="424"/>
-      <c r="B248" s="424"/>
+      <c r="A248" s="423"/>
+      <c r="B248" s="423"/>
       <c r="C248" s="237"/>
       <c r="D248" s="4"/>
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
-      <c r="G248" s="425"/>
+      <c r="G248" s="424"/>
       <c r="H248" s="223">
         <f>SUM(H235:H247)</f>
         <v>189550</v>
       </c>
     </row>
     <row r="249" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="424"/>
-      <c r="B249" s="424"/>
+      <c r="A249" s="423"/>
+      <c r="B249" s="423"/>
       <c r="C249" s="193" t="s">
         <v>124</v>
       </c>
-      <c r="D249" s="424"/>
+      <c r="D249" s="423"/>
       <c r="E249" s="4"/>
       <c r="F249" s="4">
         <v>1</v>
       </c>
-      <c r="G249" s="425"/>
+      <c r="G249" s="424"/>
       <c r="H249" s="50">
         <v>1500</v>
       </c>
     </row>
     <row r="250" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="426"/>
-      <c r="B250" s="426"/>
+      <c r="A250" s="425"/>
+      <c r="B250" s="425"/>
       <c r="C250" s="231" t="s">
         <v>460</v>
       </c>
-      <c r="D250" s="426"/>
+      <c r="D250" s="425"/>
       <c r="E250" s="23"/>
       <c r="F250" s="4">
         <v>1</v>
       </c>
-      <c r="G250" s="426"/>
+      <c r="G250" s="425"/>
       <c r="H250" s="370">
         <v>1700</v>
       </c>
     </row>
     <row r="251" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="426"/>
-      <c r="B251" s="426"/>
+      <c r="A251" s="425"/>
+      <c r="B251" s="425"/>
       <c r="C251" s="396" t="s">
         <v>429</v>
       </c>
       <c r="D251" s="77" t="s">
         <v>461</v>
       </c>
-      <c r="E251" s="426"/>
-      <c r="F251" s="426"/>
-      <c r="G251" s="426"/>
+      <c r="E251" s="425"/>
+      <c r="F251" s="425"/>
+      <c r="G251" s="425"/>
       <c r="H251" s="370">
         <v>31500</v>
       </c>
     </row>
     <row r="252" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="426"/>
-      <c r="B252" s="426"/>
-      <c r="C252" s="426"/>
-      <c r="D252" s="426"/>
-      <c r="E252" s="426"/>
-      <c r="F252" s="426"/>
-      <c r="G252" s="426"/>
+      <c r="A252" s="425"/>
+      <c r="B252" s="425"/>
+      <c r="C252" s="425"/>
+      <c r="D252" s="425"/>
+      <c r="E252" s="425"/>
+      <c r="F252" s="425"/>
+      <c r="G252" s="425"/>
       <c r="H252" s="364">
         <f>SUM(H248:H251)</f>
         <v>224250</v>
@@ -22859,19 +22893,22 @@
       <c r="B253" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="C253" s="188" t="s">
+      <c r="C253" s="372" t="s">
         <v>464</v>
       </c>
-      <c r="D253" s="4"/>
-      <c r="E253" s="4"/>
-      <c r="F253" s="4">
+      <c r="D253" s="373"/>
+      <c r="E253" s="373"/>
+      <c r="F253" s="373">
         <v>2</v>
       </c>
-      <c r="G253" s="50">
+      <c r="G253" s="374">
         <v>3500</v>
       </c>
-      <c r="H253" s="50">
+      <c r="H253" s="374">
         <v>7000</v>
+      </c>
+      <c r="I253" s="101" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="254" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -22899,19 +22936,22 @@
         <v>3</v>
       </c>
       <c r="B255" s="4"/>
-      <c r="C255" s="193" t="s">
+      <c r="C255" s="375" t="s">
         <v>350</v>
       </c>
-      <c r="D255" s="4"/>
-      <c r="E255" s="4"/>
-      <c r="F255" s="4">
+      <c r="D255" s="373"/>
+      <c r="E255" s="373"/>
+      <c r="F255" s="373">
         <v>2</v>
       </c>
-      <c r="G255" s="50">
+      <c r="G255" s="374">
         <v>2000</v>
       </c>
-      <c r="H255" s="50">
+      <c r="H255" s="374">
         <v>4000</v>
+      </c>
+      <c r="I255" s="101" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="256" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -22919,23 +22959,26 @@
         <v>4</v>
       </c>
       <c r="B256" s="4"/>
-      <c r="C256" s="193" t="s">
+      <c r="C256" s="375" t="s">
         <v>173</v>
       </c>
-      <c r="D256" s="4"/>
-      <c r="E256" s="4"/>
-      <c r="F256" s="4">
-        <v>1</v>
-      </c>
-      <c r="G256" s="50"/>
-      <c r="H256" s="50">
+      <c r="D256" s="373"/>
+      <c r="E256" s="373"/>
+      <c r="F256" s="373">
+        <v>1</v>
+      </c>
+      <c r="G256" s="374"/>
+      <c r="H256" s="374">
         <v>1200</v>
       </c>
-    </row>
-    <row r="257" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I256" s="101" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
-      <c r="C257" s="428"/>
+      <c r="C257" s="427"/>
       <c r="D257" s="8"/>
       <c r="E257" s="8"/>
       <c r="F257" s="8"/>
@@ -22945,7 +22988,7 @@
         <v>24200</v>
       </c>
     </row>
-    <row r="258" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="193" t="s">
@@ -22959,7 +23002,7 @@
         <v>31500</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="193" t="s">
@@ -22975,7 +23018,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="260" t="s">
@@ -22989,7 +23032,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="261" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="246"/>
@@ -23002,51 +23045,57 @@
         <v>59550</v>
       </c>
     </row>
-    <row r="262" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <v>1</v>
       </c>
       <c r="B262" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="C262" s="188" t="s">
+      <c r="C262" s="372" t="s">
         <v>197</v>
       </c>
-      <c r="D262" s="4"/>
-      <c r="E262" s="4" t="s">
+      <c r="D262" s="373"/>
+      <c r="E262" s="373" t="s">
         <v>22</v>
       </c>
-      <c r="F262" s="4">
+      <c r="F262" s="373">
         <v>2</v>
       </c>
-      <c r="G262" s="50">
+      <c r="G262" s="374">
         <v>24500</v>
       </c>
-      <c r="H262" s="50">
+      <c r="H262" s="374">
         <v>49000</v>
       </c>
-    </row>
-    <row r="263" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I262" s="101" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <v>2</v>
       </c>
       <c r="B263" s="4"/>
-      <c r="C263" s="193" t="s">
+      <c r="C263" s="375" t="s">
         <v>127</v>
       </c>
-      <c r="D263" s="4"/>
-      <c r="E263" s="4"/>
-      <c r="F263" s="4">
+      <c r="D263" s="373"/>
+      <c r="E263" s="373"/>
+      <c r="F263" s="373">
         <v>2</v>
       </c>
-      <c r="G263" s="50">
+      <c r="G263" s="374">
         <v>1750</v>
       </c>
-      <c r="H263" s="50">
+      <c r="H263" s="374">
         <v>3500</v>
       </c>
-    </row>
-    <row r="264" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I263" s="101" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <v>3</v>
       </c>
@@ -23054,7 +23103,9 @@
       <c r="C264" s="193" t="s">
         <v>471</v>
       </c>
-      <c r="D264" s="4"/>
+      <c r="D264" s="4" t="s">
+        <v>254</v>
+      </c>
       <c r="E264" s="4"/>
       <c r="F264" s="4">
         <v>1</v>
@@ -23064,7 +23115,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="265" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <v>4</v>
       </c>
@@ -23084,25 +23135,28 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="266" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <v>5</v>
       </c>
       <c r="B266" s="4"/>
-      <c r="C266" s="401" t="s">
+      <c r="C266" s="384" t="s">
         <v>109</v>
       </c>
-      <c r="D266" s="8"/>
-      <c r="E266" s="8"/>
-      <c r="F266" s="45">
-        <v>1</v>
-      </c>
-      <c r="G266" s="79"/>
-      <c r="H266" s="75">
+      <c r="D266" s="420"/>
+      <c r="E266" s="420"/>
+      <c r="F266" s="385">
+        <v>1</v>
+      </c>
+      <c r="G266" s="422"/>
+      <c r="H266" s="386">
         <v>3500</v>
       </c>
-    </row>
-    <row r="267" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I266" s="101" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <v>6</v>
       </c>
@@ -23122,67 +23176,76 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
         <v>7</v>
       </c>
       <c r="B268" s="4"/>
-      <c r="C268" s="193" t="s">
+      <c r="C268" s="375" t="s">
         <v>342</v>
       </c>
-      <c r="D268" s="4"/>
-      <c r="E268" s="4" t="s">
+      <c r="D268" s="373"/>
+      <c r="E268" s="373" t="s">
         <v>14</v>
       </c>
-      <c r="F268" s="4">
+      <c r="F268" s="373">
         <v>8</v>
       </c>
-      <c r="G268" s="50">
+      <c r="G268" s="374">
         <v>3500</v>
       </c>
-      <c r="H268" s="50">
+      <c r="H268" s="374">
         <v>28000</v>
       </c>
-    </row>
-    <row r="269" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I268" s="101" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <v>8</v>
       </c>
       <c r="B269" s="4"/>
-      <c r="C269" s="260" t="s">
+      <c r="C269" s="376" t="s">
         <v>171</v>
       </c>
-      <c r="D269" s="4"/>
-      <c r="E269" s="4"/>
-      <c r="F269" s="4">
+      <c r="D269" s="373"/>
+      <c r="E269" s="373"/>
+      <c r="F269" s="373">
         <v>4</v>
       </c>
-      <c r="G269" s="50">
+      <c r="G269" s="374">
         <v>3800</v>
       </c>
-      <c r="H269" s="50">
+      <c r="H269" s="374">
         <v>15200</v>
       </c>
-    </row>
-    <row r="270" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I269" s="101" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
         <v>9</v>
       </c>
       <c r="B270" s="4"/>
-      <c r="C270" s="193" t="s">
+      <c r="C270" s="375" t="s">
         <v>424</v>
       </c>
-      <c r="D270" s="4"/>
-      <c r="E270" s="4"/>
-      <c r="F270" s="4">
-        <v>1</v>
-      </c>
-      <c r="G270" s="50"/>
-      <c r="H270" s="50">
+      <c r="D270" s="373"/>
+      <c r="E270" s="373"/>
+      <c r="F270" s="373">
+        <v>1</v>
+      </c>
+      <c r="G270" s="374"/>
+      <c r="H270" s="374">
         <v>2650</v>
       </c>
-    </row>
-    <row r="271" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I270" s="101" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="246"/>
@@ -23195,7 +23258,7 @@
         <v>117850</v>
       </c>
     </row>
-    <row r="272" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="193" t="s">
@@ -23209,7 +23272,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="193" t="s">
@@ -23225,7 +23288,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="246"/>
@@ -23238,91 +23301,103 @@
         <v>152350</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <v>1</v>
       </c>
       <c r="B275" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="C275" s="188" t="s">
+      <c r="C275" s="372" t="s">
         <v>176</v>
       </c>
-      <c r="D275" s="4"/>
-      <c r="E275" s="4" t="s">
+      <c r="D275" s="373"/>
+      <c r="E275" s="373" t="s">
         <v>22</v>
       </c>
-      <c r="F275" s="4">
-        <v>1</v>
-      </c>
-      <c r="G275" s="50"/>
-      <c r="H275" s="50">
+      <c r="F275" s="373">
+        <v>1</v>
+      </c>
+      <c r="G275" s="374"/>
+      <c r="H275" s="374">
         <v>34500</v>
       </c>
-    </row>
-    <row r="276" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I275" s="101" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <v>2</v>
       </c>
       <c r="B276" s="4"/>
-      <c r="C276" s="193" t="s">
+      <c r="C276" s="375" t="s">
         <v>476</v>
       </c>
-      <c r="D276" s="4"/>
-      <c r="E276" s="4" t="s">
+      <c r="D276" s="373"/>
+      <c r="E276" s="373" t="s">
         <v>14</v>
       </c>
-      <c r="F276" s="4">
+      <c r="F276" s="373">
         <v>10</v>
       </c>
-      <c r="G276" s="50">
+      <c r="G276" s="374">
         <v>3500</v>
       </c>
-      <c r="H276" s="50">
+      <c r="H276" s="374">
         <v>35000</v>
       </c>
-    </row>
-    <row r="277" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I276" s="101" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <v>3</v>
       </c>
       <c r="B277" s="4"/>
-      <c r="C277" s="193" t="s">
+      <c r="C277" s="375" t="s">
         <v>109</v>
       </c>
-      <c r="D277" s="4"/>
-      <c r="E277" s="4"/>
-      <c r="F277" s="4">
+      <c r="D277" s="373"/>
+      <c r="E277" s="373"/>
+      <c r="F277" s="373">
         <v>2</v>
       </c>
-      <c r="G277" s="50">
+      <c r="G277" s="374">
         <v>3500</v>
       </c>
-      <c r="H277" s="50">
+      <c r="H277" s="374">
         <v>7000</v>
       </c>
-    </row>
-    <row r="278" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I277" s="101" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <v>4</v>
       </c>
       <c r="B278" s="4"/>
-      <c r="C278" s="193" t="s">
+      <c r="C278" s="375" t="s">
         <v>350</v>
       </c>
-      <c r="D278" s="4"/>
-      <c r="E278" s="4"/>
-      <c r="F278" s="4">
+      <c r="D278" s="373"/>
+      <c r="E278" s="373"/>
+      <c r="F278" s="373">
         <v>2</v>
       </c>
-      <c r="G278" s="50">
+      <c r="G278" s="374">
         <v>2000</v>
       </c>
-      <c r="H278" s="50">
+      <c r="H278" s="374">
         <v>4000</v>
       </c>
-    </row>
-    <row r="279" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I278" s="101" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="401"/>
@@ -23330,12 +23405,12 @@
       <c r="E279" s="8"/>
       <c r="F279" s="45"/>
       <c r="G279" s="79"/>
-      <c r="H279" s="437">
+      <c r="H279" s="435">
         <f>SUM(H275:H278)</f>
         <v>80500</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="193" t="s">
@@ -23349,7 +23424,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="193" t="s">
@@ -23367,7 +23442,7 @@
         <v>11900</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="260"/>
@@ -23380,165 +23455,988 @@
         <v>122400</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="4"/>
-      <c r="B283" s="4"/>
-      <c r="C283" s="188"/>
-      <c r="D283" s="4"/>
-      <c r="E283" s="4"/>
-      <c r="F283" s="4"/>
-      <c r="G283" s="50"/>
-      <c r="H283" s="50"/>
-    </row>
-    <row r="284" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="4"/>
+    <row r="283" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="4">
+        <v>1</v>
+      </c>
+      <c r="B283" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C283" s="234" t="s">
+        <v>479</v>
+      </c>
+      <c r="D283" s="8"/>
+      <c r="E283" s="8"/>
+      <c r="F283" s="8">
+        <v>4</v>
+      </c>
+      <c r="G283" s="79">
+        <v>3500</v>
+      </c>
+      <c r="H283" s="79">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="4">
+        <v>2</v>
+      </c>
       <c r="B284" s="4"/>
-      <c r="C284" s="193"/>
-      <c r="D284" s="4"/>
-      <c r="E284" s="4"/>
-      <c r="F284" s="4"/>
-      <c r="G284" s="50"/>
-      <c r="H284" s="50"/>
-    </row>
-    <row r="285" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="4"/>
+      <c r="C284" s="375" t="s">
+        <v>197</v>
+      </c>
+      <c r="D284" s="373"/>
+      <c r="E284" s="373" t="s">
+        <v>14</v>
+      </c>
+      <c r="F284" s="373">
+        <v>3</v>
+      </c>
+      <c r="G284" s="374">
+        <v>6500</v>
+      </c>
+      <c r="H284" s="374">
+        <v>19500</v>
+      </c>
+      <c r="I284" s="101" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="4">
+        <v>3</v>
+      </c>
       <c r="B285" s="4"/>
-      <c r="C285" s="193"/>
-      <c r="D285" s="4"/>
+      <c r="C285" s="193" t="s">
+        <v>78</v>
+      </c>
+      <c r="D285" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="E285" s="4"/>
-      <c r="F285" s="4"/>
-      <c r="G285" s="50"/>
-      <c r="H285" s="50"/>
-    </row>
-    <row r="286" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="4"/>
+      <c r="F285" s="4">
+        <v>2</v>
+      </c>
+      <c r="G285" s="50">
+        <v>11000</v>
+      </c>
+      <c r="H285" s="50">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="4">
+        <v>4</v>
+      </c>
       <c r="B286" s="4"/>
-      <c r="C286" s="193"/>
-      <c r="D286" s="4"/>
+      <c r="C286" s="193" t="s">
+        <v>401</v>
+      </c>
+      <c r="D286" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="E286" s="4"/>
-      <c r="F286" s="4"/>
+      <c r="F286" s="4">
+        <v>1</v>
+      </c>
       <c r="G286" s="50"/>
-      <c r="H286" s="50"/>
-    </row>
-    <row r="287" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="4"/>
+      <c r="H286" s="50">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="4">
+        <v>5</v>
+      </c>
       <c r="B287" s="4"/>
-      <c r="C287" s="401"/>
-      <c r="D287" s="8"/>
-      <c r="E287" s="8"/>
-      <c r="F287" s="45"/>
-      <c r="G287" s="79"/>
-      <c r="H287" s="437"/>
-    </row>
-    <row r="288" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="4"/>
+      <c r="C287" s="384" t="s">
+        <v>128</v>
+      </c>
+      <c r="D287" s="420"/>
+      <c r="E287" s="420"/>
+      <c r="F287" s="385">
+        <v>4</v>
+      </c>
+      <c r="G287" s="386">
+        <v>3500</v>
+      </c>
+      <c r="H287" s="386">
+        <v>14000</v>
+      </c>
+      <c r="I287" s="101" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="4">
+        <v>6</v>
+      </c>
       <c r="B288" s="4"/>
-      <c r="C288" s="193"/>
-      <c r="D288" s="4"/>
-      <c r="E288" s="4"/>
-      <c r="F288" s="4"/>
-      <c r="G288" s="50"/>
-      <c r="H288" s="50"/>
-    </row>
-    <row r="289" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="4"/>
+      <c r="C288" s="375" t="s">
+        <v>108</v>
+      </c>
+      <c r="D288" s="373"/>
+      <c r="E288" s="373"/>
+      <c r="F288" s="373">
+        <v>2</v>
+      </c>
+      <c r="G288" s="374">
+        <v>3500</v>
+      </c>
+      <c r="H288" s="374">
+        <v>7000</v>
+      </c>
+      <c r="I288" s="101" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="4">
+        <v>7</v>
+      </c>
       <c r="B289" s="4"/>
-      <c r="C289" s="193"/>
-      <c r="D289" s="4"/>
-      <c r="E289" s="4"/>
-      <c r="F289" s="4"/>
-      <c r="G289" s="50"/>
-      <c r="H289" s="50"/>
-    </row>
-    <row r="290" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="4"/>
+      <c r="C289" s="375" t="s">
+        <v>109</v>
+      </c>
+      <c r="D289" s="373"/>
+      <c r="E289" s="373"/>
+      <c r="F289" s="373">
+        <v>4</v>
+      </c>
+      <c r="G289" s="374">
+        <v>3500</v>
+      </c>
+      <c r="H289" s="374">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="4">
+        <v>8</v>
+      </c>
       <c r="B290" s="4"/>
-      <c r="C290" s="260"/>
-      <c r="D290" s="4"/>
-      <c r="E290" s="4"/>
-      <c r="F290" s="4"/>
-      <c r="G290" s="50"/>
-      <c r="H290" s="257"/>
-    </row>
-    <row r="291" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="4"/>
+      <c r="C290" s="393" t="s">
+        <v>196</v>
+      </c>
+      <c r="D290" s="385"/>
+      <c r="E290" s="385" t="s">
+        <v>8</v>
+      </c>
+      <c r="F290" s="385">
+        <v>1</v>
+      </c>
+      <c r="G290" s="386"/>
+      <c r="H290" s="386">
+        <v>25500</v>
+      </c>
+      <c r="I290" s="101" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="4">
+        <v>9</v>
+      </c>
       <c r="B291" s="4"/>
-      <c r="C291" s="193"/>
-      <c r="D291" s="4"/>
-      <c r="E291" s="4"/>
-      <c r="F291" s="4"/>
-      <c r="G291" s="50"/>
-      <c r="H291" s="50"/>
-    </row>
-    <row r="292" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C291" s="375" t="s">
+        <v>189</v>
+      </c>
+      <c r="D291" s="373"/>
+      <c r="E291" s="373"/>
+      <c r="F291" s="373">
+        <v>1</v>
+      </c>
+      <c r="G291" s="374"/>
+      <c r="H291" s="374">
+        <v>2650</v>
+      </c>
+      <c r="I291" s="101" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
-      <c r="C292" s="193"/>
+      <c r="C292" s="246"/>
       <c r="D292" s="4"/>
       <c r="E292" s="4"/>
       <c r="F292" s="4"/>
       <c r="G292" s="50"/>
-      <c r="H292" s="50"/>
-    </row>
-    <row r="293" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H292" s="223">
+        <f>SUM(H283:H291)</f>
+        <v>149150</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
-      <c r="C293" s="193"/>
+      <c r="C293" s="193" t="s">
+        <v>456</v>
+      </c>
       <c r="D293" s="4"/>
       <c r="E293" s="4"/>
       <c r="F293" s="4"/>
       <c r="G293" s="50"/>
-      <c r="H293" s="50"/>
-    </row>
-    <row r="294" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H293" s="50">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
-      <c r="C294" s="260"/>
+      <c r="C294" s="193" t="s">
+        <v>481</v>
+      </c>
       <c r="D294" s="4"/>
       <c r="E294" s="4"/>
       <c r="F294" s="4"/>
       <c r="G294" s="50"/>
-      <c r="H294" s="257"/>
-    </row>
-    <row r="295" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H294" s="50">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
-      <c r="C295" s="260"/>
-      <c r="D295" s="4"/>
-      <c r="E295" s="4"/>
-      <c r="F295" s="4"/>
-      <c r="G295" s="50"/>
-      <c r="H295" s="50"/>
-    </row>
-    <row r="296" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C295" s="354" t="s">
+        <v>364</v>
+      </c>
+      <c r="D295" s="8"/>
+      <c r="E295" s="8"/>
+      <c r="F295" s="8">
+        <v>2</v>
+      </c>
+      <c r="G295" s="79">
+        <v>2000</v>
+      </c>
+      <c r="H295" s="79">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
-      <c r="C296" s="260"/>
+      <c r="C296" s="246"/>
       <c r="D296" s="4"/>
       <c r="E296" s="4"/>
       <c r="F296" s="4"/>
       <c r="G296" s="50"/>
-      <c r="H296" s="50"/>
-    </row>
-    <row r="297" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="4"/>
-      <c r="B297" s="4"/>
-      <c r="C297" s="260"/>
-      <c r="D297" s="4"/>
-      <c r="E297" s="4"/>
-      <c r="F297" s="4"/>
-      <c r="G297" s="50"/>
-      <c r="H297" s="50"/>
-    </row>
-    <row r="298" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="4"/>
+      <c r="H296" s="257">
+        <f>SUM(H292:H295)</f>
+        <v>188150</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="4">
+        <v>1</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="C297" s="372" t="s">
+        <v>342</v>
+      </c>
+      <c r="D297" s="373"/>
+      <c r="E297" s="373" t="s">
+        <v>14</v>
+      </c>
+      <c r="F297" s="373">
+        <v>14</v>
+      </c>
+      <c r="G297" s="374">
+        <v>3500</v>
+      </c>
+      <c r="H297" s="374">
+        <v>49000</v>
+      </c>
+      <c r="I297" s="101" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="4">
+        <v>2</v>
+      </c>
       <c r="B298" s="4"/>
-      <c r="C298" s="260"/>
-      <c r="D298" s="4"/>
-      <c r="E298" s="4"/>
-      <c r="F298" s="4"/>
-      <c r="G298" s="50"/>
-      <c r="H298" s="257"/>
+      <c r="C298" s="375" t="s">
+        <v>160</v>
+      </c>
+      <c r="D298" s="373"/>
+      <c r="E298" s="373" t="s">
+        <v>14</v>
+      </c>
+      <c r="F298" s="373">
+        <v>1</v>
+      </c>
+      <c r="G298" s="374"/>
+      <c r="H298" s="374">
+        <v>11000</v>
+      </c>
+      <c r="I298" s="101" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="4">
+        <v>3</v>
+      </c>
+      <c r="B299" s="4"/>
+      <c r="C299" s="375" t="s">
+        <v>484</v>
+      </c>
+      <c r="D299" s="373"/>
+      <c r="E299" s="373"/>
+      <c r="F299" s="373">
+        <v>1</v>
+      </c>
+      <c r="G299" s="374"/>
+      <c r="H299" s="374">
+        <v>3150</v>
+      </c>
+      <c r="I299" s="101" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="4">
+        <v>4</v>
+      </c>
+      <c r="B300" s="4"/>
+      <c r="C300" s="193" t="s">
+        <v>482</v>
+      </c>
+      <c r="D300" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E300" s="4"/>
+      <c r="F300" s="4">
+        <v>1</v>
+      </c>
+      <c r="G300" s="50"/>
+      <c r="H300" s="50">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="4">
+        <v>5</v>
+      </c>
+      <c r="B301" s="4"/>
+      <c r="C301" s="401" t="s">
+        <v>78</v>
+      </c>
+      <c r="D301" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="E301" s="8"/>
+      <c r="F301" s="45">
+        <v>2</v>
+      </c>
+      <c r="G301" s="75">
+        <v>2500</v>
+      </c>
+      <c r="H301" s="75">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="4">
+        <v>6</v>
+      </c>
+      <c r="B302" s="4"/>
+      <c r="C302" s="375" t="s">
+        <v>111</v>
+      </c>
+      <c r="D302" s="373"/>
+      <c r="E302" s="373" t="s">
+        <v>14</v>
+      </c>
+      <c r="F302" s="373">
+        <v>2</v>
+      </c>
+      <c r="G302" s="374">
+        <v>7000</v>
+      </c>
+      <c r="H302" s="374">
+        <v>14000</v>
+      </c>
+      <c r="I302" s="101" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="4"/>
+      <c r="B303" s="4"/>
+      <c r="C303" s="193"/>
+      <c r="D303" s="4"/>
+      <c r="E303" s="4"/>
+      <c r="F303" s="4"/>
+      <c r="G303" s="50"/>
+      <c r="H303" s="257">
+        <f>SUM(H297:H302)</f>
+        <v>98150</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="4"/>
+      <c r="B304" s="4"/>
+      <c r="C304" s="260" t="s">
+        <v>483</v>
+      </c>
+      <c r="D304" s="4"/>
+      <c r="E304" s="4"/>
+      <c r="F304" s="4"/>
+      <c r="G304" s="50"/>
+      <c r="H304" s="50">
+        <v>28500</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="4"/>
+      <c r="B305" s="4"/>
+      <c r="C305" s="193" t="s">
+        <v>467</v>
+      </c>
+      <c r="D305" s="4"/>
+      <c r="E305" s="4"/>
+      <c r="F305" s="4">
+        <v>2</v>
+      </c>
+      <c r="G305" s="50">
+        <v>1700</v>
+      </c>
+      <c r="H305" s="50">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="4"/>
+      <c r="B306" s="4"/>
+      <c r="C306" s="193" t="s">
+        <v>354</v>
+      </c>
+      <c r="D306" s="4"/>
+      <c r="E306" s="4"/>
+      <c r="F306" s="4">
+        <v>46</v>
+      </c>
+      <c r="G306" s="50">
+        <v>50</v>
+      </c>
+      <c r="H306" s="50">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="4"/>
+      <c r="B307" s="4"/>
+      <c r="C307" s="193"/>
+      <c r="D307" s="4"/>
+      <c r="E307" s="4"/>
+      <c r="F307" s="4"/>
+      <c r="G307" s="50"/>
+      <c r="H307" s="257">
+        <f>SUM(H303:H306)</f>
+        <v>132350</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="4">
+        <v>1</v>
+      </c>
+      <c r="B308" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="C308" s="372" t="s">
+        <v>109</v>
+      </c>
+      <c r="D308" s="373"/>
+      <c r="E308" s="373"/>
+      <c r="F308" s="373">
+        <v>1</v>
+      </c>
+      <c r="G308" s="374"/>
+      <c r="H308" s="374">
+        <v>3500</v>
+      </c>
+      <c r="I308" s="101" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="4">
+        <v>2</v>
+      </c>
+      <c r="B309" s="4"/>
+      <c r="C309" s="375" t="s">
+        <v>197</v>
+      </c>
+      <c r="D309" s="373"/>
+      <c r="E309" s="373" t="s">
+        <v>22</v>
+      </c>
+      <c r="F309" s="373">
+        <v>1</v>
+      </c>
+      <c r="G309" s="374"/>
+      <c r="H309" s="374">
+        <v>24500</v>
+      </c>
+      <c r="I309" s="101" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="4">
+        <v>3</v>
+      </c>
+      <c r="B310" s="4"/>
+      <c r="C310" s="193" t="s">
+        <v>223</v>
+      </c>
+      <c r="D310" s="4"/>
+      <c r="E310" s="4"/>
+      <c r="F310" s="4">
+        <v>1</v>
+      </c>
+      <c r="G310" s="50"/>
+      <c r="H310" s="50">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="4">
+        <v>4</v>
+      </c>
+      <c r="B311" s="4"/>
+      <c r="C311" s="193" t="s">
+        <v>27</v>
+      </c>
+      <c r="D311" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="E311" s="4"/>
+      <c r="F311" s="4">
+        <v>1</v>
+      </c>
+      <c r="G311" s="50"/>
+      <c r="H311" s="50">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="4"/>
+      <c r="B312" s="4"/>
+      <c r="C312" s="401"/>
+      <c r="D312" s="8"/>
+      <c r="E312" s="8"/>
+      <c r="F312" s="45"/>
+      <c r="G312" s="75"/>
+      <c r="H312" s="367">
+        <f>SUM(H308:H311)</f>
+        <v>49500</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="4"/>
+      <c r="B313" s="4"/>
+      <c r="C313" s="193" t="s">
+        <v>483</v>
+      </c>
+      <c r="D313" s="4"/>
+      <c r="E313" s="4"/>
+      <c r="F313" s="4"/>
+      <c r="G313" s="50"/>
+      <c r="H313" s="50">
+        <v>28500</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="4"/>
+      <c r="B314" s="4"/>
+      <c r="C314" s="193"/>
+      <c r="D314" s="4"/>
+      <c r="E314" s="4"/>
+      <c r="F314" s="4"/>
+      <c r="G314" s="50"/>
+      <c r="H314" s="257">
+        <f>SUM(H312:H313)</f>
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="4">
+        <v>1</v>
+      </c>
+      <c r="B315" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="C315" s="188" t="s">
+        <v>27</v>
+      </c>
+      <c r="D315" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="E315" s="4"/>
+      <c r="F315" s="4">
+        <v>1</v>
+      </c>
+      <c r="G315" s="50"/>
+      <c r="H315" s="50">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="4">
+        <v>2</v>
+      </c>
+      <c r="B316" s="4"/>
+      <c r="C316" s="193" t="s">
+        <v>218</v>
+      </c>
+      <c r="D316" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="E316" s="4"/>
+      <c r="F316" s="4">
+        <v>1</v>
+      </c>
+      <c r="G316" s="50"/>
+      <c r="H316" s="50">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="4">
+        <v>3</v>
+      </c>
+      <c r="B317" s="4"/>
+      <c r="C317" s="193" t="s">
+        <v>488</v>
+      </c>
+      <c r="D317" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="E317" s="4"/>
+      <c r="F317" s="4">
+        <v>1</v>
+      </c>
+      <c r="G317" s="50"/>
+      <c r="H317" s="50">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="4">
+        <v>4</v>
+      </c>
+      <c r="B318" s="4"/>
+      <c r="C318" s="193" t="s">
+        <v>188</v>
+      </c>
+      <c r="D318" s="4"/>
+      <c r="E318" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F318" s="4">
+        <v>1</v>
+      </c>
+      <c r="G318" s="50"/>
+      <c r="H318" s="50">
+        <v>25500</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="4">
+        <v>5</v>
+      </c>
+      <c r="B319" s="4"/>
+      <c r="C319" s="401" t="s">
+        <v>188</v>
+      </c>
+      <c r="D319" s="8"/>
+      <c r="E319" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F319" s="45">
+        <v>1</v>
+      </c>
+      <c r="G319" s="75"/>
+      <c r="H319" s="75">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="4">
+        <v>6</v>
+      </c>
+      <c r="B320" s="4"/>
+      <c r="C320" s="193" t="s">
+        <v>161</v>
+      </c>
+      <c r="D320" s="4"/>
+      <c r="E320" s="4"/>
+      <c r="F320" s="4">
+        <v>1</v>
+      </c>
+      <c r="G320" s="50"/>
+      <c r="H320" s="50">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="4">
+        <v>7</v>
+      </c>
+      <c r="B321" s="4"/>
+      <c r="C321" s="193" t="s">
+        <v>200</v>
+      </c>
+      <c r="D321" s="4"/>
+      <c r="E321" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F321" s="4">
+        <v>1</v>
+      </c>
+      <c r="G321" s="50"/>
+      <c r="H321" s="50">
+        <v>44500</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="4">
+        <v>8</v>
+      </c>
+      <c r="B322" s="4"/>
+      <c r="C322" s="260" t="s">
+        <v>204</v>
+      </c>
+      <c r="D322" s="4"/>
+      <c r="E322" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F322" s="4">
+        <v>2</v>
+      </c>
+      <c r="G322" s="50">
+        <v>5500</v>
+      </c>
+      <c r="H322" s="50">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="4">
+        <v>9</v>
+      </c>
+      <c r="B323" s="4"/>
+      <c r="C323" s="193" t="s">
+        <v>132</v>
+      </c>
+      <c r="D323" s="4"/>
+      <c r="E323" s="4"/>
+      <c r="F323" s="4">
+        <v>1</v>
+      </c>
+      <c r="G323" s="50"/>
+      <c r="H323" s="50">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="4"/>
+      <c r="B324" s="4"/>
+      <c r="C324" s="193"/>
+      <c r="D324" s="4"/>
+      <c r="E324" s="4"/>
+      <c r="F324" s="4"/>
+      <c r="G324" s="50"/>
+      <c r="H324" s="257">
+        <f>SUM(H315:H323)</f>
+        <v>153050</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="4"/>
+      <c r="B325" s="4"/>
+      <c r="C325" s="193" t="s">
+        <v>466</v>
+      </c>
+      <c r="D325" s="4"/>
+      <c r="E325" s="4"/>
+      <c r="F325" s="4"/>
+      <c r="G325" s="50"/>
+      <c r="H325" s="50">
+        <v>31500</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="4"/>
+      <c r="B326" s="4"/>
+      <c r="C326" s="193"/>
+      <c r="D326" s="4"/>
+      <c r="E326" s="4"/>
+      <c r="F326" s="4"/>
+      <c r="G326" s="50"/>
+      <c r="H326" s="257">
+        <f>SUM(H324:H325)</f>
+        <v>184550</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="4">
+        <v>1</v>
+      </c>
+      <c r="B327" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="C327" s="188" t="s">
+        <v>228</v>
+      </c>
+      <c r="D327" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E327" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F327" s="4"/>
+      <c r="G327" s="50"/>
+      <c r="H327" s="50">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="4">
+        <v>2</v>
+      </c>
+      <c r="B328" s="4"/>
+      <c r="C328" s="193" t="s">
+        <v>27</v>
+      </c>
+      <c r="D328" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E328" s="4"/>
+      <c r="F328" s="4">
+        <v>1</v>
+      </c>
+      <c r="G328" s="50"/>
+      <c r="H328" s="50">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="4">
+        <v>3</v>
+      </c>
+      <c r="B329" s="4"/>
+      <c r="C329" s="193" t="s">
+        <v>27</v>
+      </c>
+      <c r="D329" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="E329" s="4"/>
+      <c r="F329" s="4">
+        <v>1</v>
+      </c>
+      <c r="G329" s="50"/>
+      <c r="H329" s="50">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="4">
+        <v>4</v>
+      </c>
+      <c r="B330" s="4"/>
+      <c r="C330" s="193" t="s">
+        <v>490</v>
+      </c>
+      <c r="D330" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="E330" s="4"/>
+      <c r="F330" s="4">
+        <v>1</v>
+      </c>
+      <c r="G330" s="50"/>
+      <c r="H330" s="50">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="4">
+        <v>5</v>
+      </c>
+      <c r="B331" s="4"/>
+      <c r="C331" s="401" t="s">
+        <v>109</v>
+      </c>
+      <c r="D331" s="8"/>
+      <c r="E331" s="45"/>
+      <c r="F331" s="45">
+        <v>1</v>
+      </c>
+      <c r="G331" s="75"/>
+      <c r="H331" s="75">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="4"/>
+      <c r="B332" s="4"/>
+      <c r="C332" s="193"/>
+      <c r="D332" s="4"/>
+      <c r="E332" s="4"/>
+      <c r="F332" s="4"/>
+      <c r="G332" s="50"/>
+      <c r="H332" s="257">
+        <f>SUM(H327:H331)</f>
+        <v>75500</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="4"/>
+      <c r="B333" s="4"/>
+      <c r="C333" s="193" t="s">
+        <v>472</v>
+      </c>
+      <c r="D333" s="4"/>
+      <c r="E333" s="4"/>
+      <c r="F333" s="4"/>
+      <c r="G333" s="50"/>
+      <c r="H333" s="50">
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="4"/>
+      <c r="B334" s="4"/>
+      <c r="C334" s="260" t="s">
+        <v>390</v>
+      </c>
+      <c r="D334" s="4"/>
+      <c r="E334" s="4"/>
+      <c r="F334" s="4"/>
+      <c r="G334" s="50"/>
+      <c r="H334" s="50">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="4"/>
+      <c r="B335" s="4"/>
+      <c r="C335" s="193"/>
+      <c r="D335" s="4"/>
+      <c r="E335" s="4"/>
+      <c r="F335" s="4"/>
+      <c r="G335" s="50"/>
+      <c r="H335" s="257">
+        <f>SUM(H332:H334)</f>
+        <v>112300</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H261">
@@ -23554,10 +24452,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4:N5"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -23573,16 +24471,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="442" t="s">
+      <c r="A1" s="441" t="s">
         <v>462</v>
       </c>
-      <c r="B1" s="442"/>
-      <c r="C1" s="442"/>
-      <c r="D1" s="443"/>
-      <c r="E1" s="442"/>
-      <c r="F1" s="442"/>
-      <c r="G1" s="442"/>
-      <c r="H1" s="442"/>
+      <c r="B1" s="441"/>
+      <c r="C1" s="441"/>
+      <c r="D1" s="442"/>
+      <c r="E1" s="441"/>
+      <c r="F1" s="441"/>
+      <c r="G1" s="441"/>
+      <c r="H1" s="441"/>
     </row>
     <row r="2" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -23591,11 +24489,11 @@
       <c r="B2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="444" t="s">
+      <c r="C2" s="443" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="445"/>
-      <c r="E2" s="427" t="s">
+      <c r="D2" s="444"/>
+      <c r="E2" s="426" t="s">
         <v>116</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -23613,10 +24511,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="C3" s="188" t="s">
-        <v>479</v>
+        <v>109</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -23636,20 +24534,20 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="193" t="s">
-        <v>197</v>
+        <v>111</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F4" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="50">
-        <v>6500</v>
+        <v>25500</v>
       </c>
       <c r="H4" s="50">
-        <v>19500</v>
+        <v>51000</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -23658,20 +24556,18 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="193" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="E5" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="F5" s="4">
-        <v>2</v>
-      </c>
-      <c r="G5" s="50">
-        <v>11000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G5" s="50"/>
       <c r="H5" s="50">
-        <v>22000</v>
+        <v>24500</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -23680,18 +24576,16 @@
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="193" t="s">
-        <v>401</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>480</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4">
         <v>1</v>
       </c>
       <c r="G6" s="50"/>
       <c r="H6" s="50">
-        <v>34000</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -23700,159 +24594,120 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="401" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="E7" s="45" t="s">
+        <v>14</v>
+      </c>
       <c r="F7" s="45">
-        <v>4</v>
-      </c>
-      <c r="G7" s="75">
-        <v>3500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G7" s="75"/>
       <c r="H7" s="75">
-        <v>14000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
+      <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="193" t="s">
-        <v>108</v>
-      </c>
+      <c r="C8" s="193"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="4">
-        <v>2</v>
-      </c>
-      <c r="G8" s="50">
-        <v>3500</v>
-      </c>
-      <c r="H8" s="50">
-        <v>7000</v>
+      <c r="F8" s="4"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="257">
+        <f>SUM(H3:H7)</f>
+        <v>100000</v>
       </c>
       <c r="L8" s="101" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
+      <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="193" t="s">
-        <v>109</v>
+        <v>472</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="4">
-        <v>4</v>
-      </c>
-      <c r="G9" s="50">
-        <v>3500</v>
-      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="50"/>
       <c r="H9" s="50">
-        <v>10500</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
+      <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="260" t="s">
-        <v>196</v>
+        <v>492</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="E10" s="4"/>
       <c r="F10" s="4">
-        <v>1</v>
-      </c>
-      <c r="G10" s="50"/>
+        <v>100</v>
+      </c>
+      <c r="G10" s="50">
+        <v>50</v>
+      </c>
       <c r="H10" s="50">
-        <v>25500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>9</v>
-      </c>
+      <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="193" t="s">
-        <v>189</v>
-      </c>
+      <c r="C11" s="193"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
+      <c r="F11" s="4"/>
       <c r="G11" s="50"/>
-      <c r="H11" s="50">
-        <v>2650</v>
+      <c r="H11" s="257">
+        <f>SUM(H8:H10)</f>
+        <v>138000</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="246"/>
+      <c r="C12" s="193"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="50"/>
-      <c r="H12" s="223">
-        <f>SUM(H3:H11)</f>
-        <v>149150</v>
-      </c>
+      <c r="H12" s="257"/>
     </row>
     <row r="13" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="193" t="s">
-        <v>456</v>
-      </c>
+      <c r="C13" s="193"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="50"/>
-      <c r="H13" s="50">
-        <v>30000</v>
-      </c>
+      <c r="H13" s="50"/>
     </row>
     <row r="14" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="193" t="s">
-        <v>481</v>
-      </c>
+      <c r="C14" s="193"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="50"/>
-      <c r="H14" s="50">
-        <v>5000</v>
-      </c>
+      <c r="H14" s="257"/>
     </row>
     <row r="15" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="193" t="s">
-        <v>364</v>
-      </c>
+      <c r="C15" s="246"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="4">
-        <v>2</v>
-      </c>
-      <c r="G15" s="50">
-        <v>2000</v>
-      </c>
-      <c r="H15" s="50">
-        <v>4000</v>
-      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="257"/>
     </row>
     <row r="16" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
@@ -23862,50 +24717,37 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="50"/>
-      <c r="H16" s="257">
-        <f>SUM(H12:H15)</f>
-        <v>188150</v>
-      </c>
+      <c r="H16" s="50"/>
     </row>
     <row r="17" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="246"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="188"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="370"/>
     </row>
     <row r="18" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
       <c r="B18" s="23"/>
-      <c r="C18" s="188"/>
-      <c r="D18" s="23"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
       <c r="E18" s="23"/>
-      <c r="F18" s="4"/>
+      <c r="F18" s="23"/>
       <c r="G18" s="23"/>
       <c r="H18" s="370"/>
     </row>
     <row r="19" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="370"/>
-    </row>
-    <row r="20" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="429"/>
-      <c r="B20" s="429"/>
-      <c r="C20" s="429"/>
-      <c r="D20" s="429"/>
-      <c r="E20" s="429"/>
-      <c r="F20" s="429"/>
-      <c r="G20" s="429"/>
-      <c r="H20" s="430"/>
+      <c r="A19" s="428"/>
+      <c r="B19" s="428"/>
+      <c r="C19" s="428"/>
+      <c r="D19" s="428"/>
+      <c r="E19" s="428"/>
+      <c r="F19" s="428"/>
+      <c r="G19" s="428"/>
+      <c r="H19" s="429"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -23921,7 +24763,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/GB-3  Sales.xlsx
+++ b/GB-3  Sales.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="18195" windowHeight="10425" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="540" windowWidth="18195" windowHeight="10365" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sales-2017" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2143" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="533">
   <si>
     <t>Oil Filter</t>
   </si>
@@ -1610,6 +1610,42 @@
   </si>
   <si>
     <t>ေက်ာက္ျပား</t>
+  </si>
+  <si>
+    <t>5.9.2018</t>
+  </si>
+  <si>
+    <t>GB/Hijet</t>
+  </si>
+  <si>
+    <t>Champion Plug12-16 တုံး</t>
+  </si>
+  <si>
+    <t>Oil Filter YZBB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platinum Plug 12-16 </t>
+  </si>
+  <si>
+    <t>Light Truck</t>
+  </si>
+  <si>
+    <t>Meal 19*1*1500</t>
+  </si>
+  <si>
+    <t>6.9.2018</t>
+  </si>
+  <si>
+    <t>Bizol 10W40 (Green)</t>
+  </si>
+  <si>
+    <t>Bizol ATF Cleaner</t>
+  </si>
+  <si>
+    <t>ေကာ္သီး/ေကာ္ပတ္/အမဲဆီ</t>
+  </si>
+  <si>
+    <t>ေကာ္မဲ/ေက်ာက္ျပား</t>
   </si>
 </sst>
 </file>
@@ -3263,13 +3299,7 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3354,6 +3384,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -25156,8 +25192,8 @@
   <dimension ref="A1:Q362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O15" sqref="O15"/>
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -25383,7 +25419,7 @@
       <c r="B11" s="77" t="s">
         <v>508</v>
       </c>
-      <c r="C11" s="475" t="s">
+      <c r="C11" s="473" t="s">
         <v>500</v>
       </c>
       <c r="D11" s="77"/>
@@ -25391,7 +25427,7 @@
       <c r="F11" s="77">
         <v>1</v>
       </c>
-      <c r="G11" s="466"/>
+      <c r="G11" s="464"/>
       <c r="H11" s="184">
         <v>9000</v>
       </c>
@@ -25412,8 +25448,8 @@
       <c r="F12" s="410">
         <v>1</v>
       </c>
-      <c r="G12" s="468"/>
-      <c r="H12" s="468">
+      <c r="G12" s="466"/>
+      <c r="H12" s="466">
         <v>3500</v>
       </c>
       <c r="I12" s="338" t="s">
@@ -25428,7 +25464,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="414"/>
-      <c r="C13" s="475" t="s">
+      <c r="C13" s="473" t="s">
         <v>502</v>
       </c>
       <c r="D13" s="77"/>
@@ -25458,8 +25494,8 @@
       <c r="F14" s="410">
         <v>1</v>
       </c>
-      <c r="G14" s="468"/>
-      <c r="H14" s="468">
+      <c r="G14" s="466"/>
+      <c r="H14" s="466">
         <v>25500</v>
       </c>
       <c r="I14" s="87" t="s">
@@ -25479,8 +25515,8 @@
       <c r="F15" s="410">
         <v>1</v>
       </c>
-      <c r="G15" s="468"/>
-      <c r="H15" s="468">
+      <c r="G15" s="466"/>
+      <c r="H15" s="466">
         <v>3150</v>
       </c>
       <c r="I15" s="336" t="s">
@@ -25500,10 +25536,10 @@
       <c r="F16" s="410">
         <v>2</v>
       </c>
-      <c r="G16" s="468">
+      <c r="G16" s="466">
         <v>1500</v>
       </c>
-      <c r="H16" s="468">
+      <c r="H16" s="466">
         <v>3000</v>
       </c>
       <c r="I16" s="87" t="s">
@@ -25535,7 +25571,7 @@
       <c r="F18" s="396">
         <v>2</v>
       </c>
-      <c r="G18" s="467"/>
+      <c r="G18" s="465"/>
       <c r="H18" s="184">
         <v>7600</v>
       </c>
@@ -25552,7 +25588,7 @@
       <c r="F19" s="396">
         <v>5</v>
       </c>
-      <c r="G19" s="467"/>
+      <c r="G19" s="465"/>
       <c r="H19" s="184">
         <v>2000</v>
       </c>
@@ -25566,7 +25602,7 @@
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
       <c r="F20" s="396"/>
-      <c r="G20" s="467"/>
+      <c r="G20" s="465"/>
       <c r="H20" s="184">
         <v>28500</v>
       </c>
@@ -25601,7 +25637,7 @@
       <c r="F22" s="374">
         <v>7</v>
       </c>
-      <c r="G22" s="473">
+      <c r="G22" s="471">
         <v>3500</v>
       </c>
       <c r="H22" s="374">
@@ -25615,7 +25651,7 @@
       <c r="A23" s="4">
         <v>2</v>
       </c>
-      <c r="B23" s="471"/>
+      <c r="B23" s="469"/>
       <c r="C23" s="372" t="s">
         <v>329</v>
       </c>
@@ -25636,7 +25672,7 @@
       <c r="A24" s="4">
         <v>3</v>
       </c>
-      <c r="B24" s="471"/>
+      <c r="B24" s="469"/>
       <c r="C24" s="372" t="s">
         <v>299</v>
       </c>
@@ -25659,7 +25695,7 @@
       <c r="A25" s="4">
         <v>4</v>
       </c>
-      <c r="B25" s="471"/>
+      <c r="B25" s="469"/>
       <c r="C25" s="372" t="s">
         <v>127</v>
       </c>
@@ -25682,7 +25718,7 @@
       <c r="A26" s="4">
         <v>5</v>
       </c>
-      <c r="B26" s="471"/>
+      <c r="B26" s="469"/>
       <c r="C26" s="372" t="s">
         <v>188</v>
       </c>
@@ -25705,7 +25741,7 @@
       <c r="A27" s="4">
         <v>6</v>
       </c>
-      <c r="B27" s="471"/>
+      <c r="B27" s="469"/>
       <c r="C27" s="372" t="s">
         <v>162</v>
       </c>
@@ -25726,7 +25762,7 @@
       <c r="A28" s="4">
         <v>7</v>
       </c>
-      <c r="B28" s="472"/>
+      <c r="B28" s="470"/>
       <c r="C28" s="372" t="s">
         <v>197</v>
       </c>
@@ -25749,7 +25785,7 @@
       <c r="A29" s="4">
         <v>8</v>
       </c>
-      <c r="B29" s="472"/>
+      <c r="B29" s="470"/>
       <c r="C29" s="234" t="s">
         <v>402</v>
       </c>
@@ -25767,7 +25803,7 @@
       <c r="A30" s="4">
         <v>9</v>
       </c>
-      <c r="B30" s="472"/>
+      <c r="B30" s="470"/>
       <c r="C30" s="372" t="s">
         <v>512</v>
       </c>
@@ -25790,7 +25826,7 @@
       <c r="A31" s="4">
         <v>10</v>
       </c>
-      <c r="B31" s="472"/>
+      <c r="B31" s="470"/>
       <c r="C31" s="372" t="s">
         <v>223</v>
       </c>
@@ -25811,7 +25847,7 @@
       <c r="A32" s="4">
         <v>11</v>
       </c>
-      <c r="B32" s="472"/>
+      <c r="B32" s="470"/>
       <c r="C32" s="372" t="s">
         <v>350</v>
       </c>
@@ -25834,8 +25870,8 @@
       <c r="A33" s="4">
         <v>12</v>
       </c>
-      <c r="B33" s="472"/>
-      <c r="C33" s="474" t="s">
+      <c r="B33" s="470"/>
+      <c r="C33" s="472" t="s">
         <v>109</v>
       </c>
       <c r="D33" s="419" t="s">
@@ -25859,8 +25895,8 @@
       <c r="A34" s="4">
         <v>13</v>
       </c>
-      <c r="B34" s="472"/>
-      <c r="C34" s="474" t="s">
+      <c r="B34" s="470"/>
+      <c r="C34" s="472" t="s">
         <v>108</v>
       </c>
       <c r="D34" s="419" t="s">
@@ -25881,7 +25917,7 @@
     <row r="35" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
-      <c r="C35" s="470"/>
+      <c r="C35" s="468"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="50"/>
@@ -25924,7 +25960,7 @@
     <row r="38" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
       <c r="B38" s="255"/>
-      <c r="C38" s="470"/>
+      <c r="C38" s="468"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="50"/>
@@ -25935,324 +25971,580 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="435"/>
-      <c r="D39" s="83"/>
-      <c r="E39" s="83"/>
-      <c r="F39" s="83"/>
-      <c r="G39" s="84"/>
-      <c r="H39" s="84"/>
+      <c r="A39" s="4">
+        <v>1</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="C39" s="188" t="s">
+        <v>350</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="50">
+        <v>1</v>
+      </c>
+      <c r="G39" s="467"/>
+      <c r="H39" s="50">
+        <v>3000</v>
+      </c>
     </row>
     <row r="40" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="436"/>
-      <c r="D40" s="437"/>
-      <c r="E40" s="437"/>
-      <c r="F40" s="437"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="84"/>
+      <c r="A40" s="4">
+        <v>2</v>
+      </c>
+      <c r="B40" s="469"/>
+      <c r="C40" s="188" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="50">
+        <v>1</v>
+      </c>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50">
+        <v>3500</v>
+      </c>
     </row>
     <row r="41" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="436"/>
-      <c r="D41" s="437"/>
-      <c r="E41" s="437"/>
-      <c r="F41" s="437"/>
-      <c r="G41" s="84"/>
-      <c r="H41" s="84"/>
+      <c r="A41" s="4">
+        <v>3</v>
+      </c>
+      <c r="B41" s="469"/>
+      <c r="C41" s="188" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="50">
+        <v>1</v>
+      </c>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50">
+        <v>4500</v>
+      </c>
     </row>
     <row r="42" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="436"/>
-      <c r="D42" s="437"/>
-      <c r="E42" s="437"/>
-      <c r="F42" s="437"/>
-      <c r="G42" s="84"/>
-      <c r="H42" s="84"/>
+      <c r="A42" s="4">
+        <v>4</v>
+      </c>
+      <c r="B42" s="469"/>
+      <c r="C42" s="188" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="50">
+        <v>2</v>
+      </c>
+      <c r="G42" s="50">
+        <v>9000</v>
+      </c>
+      <c r="H42" s="50">
+        <v>18000</v>
+      </c>
     </row>
     <row r="43" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="436"/>
-      <c r="D43" s="437"/>
-      <c r="E43" s="437"/>
-      <c r="F43" s="437"/>
-      <c r="G43" s="84"/>
-      <c r="H43" s="390"/>
+      <c r="A43" s="4">
+        <v>5</v>
+      </c>
+      <c r="B43" s="469"/>
+      <c r="C43" s="188" t="s">
+        <v>197</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="50">
+        <v>1</v>
+      </c>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50">
+        <v>24500</v>
+      </c>
     </row>
     <row r="44" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="192"/>
-      <c r="D44" s="83"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="83"/>
-      <c r="G44" s="84"/>
-      <c r="H44" s="84"/>
+      <c r="A44" s="4">
+        <v>6</v>
+      </c>
+      <c r="B44" s="469"/>
+      <c r="C44" s="188" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="50">
+        <v>1</v>
+      </c>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50">
+        <v>2000</v>
+      </c>
     </row>
     <row r="45" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="192"/>
-      <c r="D45" s="83"/>
-      <c r="E45" s="83"/>
-      <c r="F45" s="83"/>
-      <c r="G45" s="84"/>
-      <c r="H45" s="84"/>
+      <c r="A45" s="4">
+        <v>7</v>
+      </c>
+      <c r="B45" s="470"/>
+      <c r="C45" s="188" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="50">
+        <v>1</v>
+      </c>
+      <c r="G45" s="50"/>
+      <c r="H45" s="50">
+        <v>3500</v>
+      </c>
     </row>
     <row r="46" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="387"/>
-      <c r="D46" s="83"/>
-      <c r="E46" s="83"/>
-      <c r="F46" s="83"/>
-      <c r="G46" s="84"/>
-      <c r="H46" s="84"/>
+      <c r="A46" s="4">
+        <v>8</v>
+      </c>
+      <c r="B46" s="470"/>
+      <c r="C46" s="193" t="s">
+        <v>517</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46" s="4"/>
+      <c r="F46" s="50">
+        <v>1</v>
+      </c>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50">
+        <v>24000</v>
+      </c>
     </row>
     <row r="47" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="255"/>
-      <c r="B47" s="255"/>
-      <c r="C47" s="387"/>
-      <c r="D47" s="83"/>
-      <c r="E47" s="438"/>
-      <c r="F47" s="438"/>
-      <c r="G47" s="438"/>
-      <c r="H47" s="85"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="470"/>
+      <c r="C47" s="188"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="257">
+        <f>SUM(H39:H46)</f>
+        <v>83000</v>
+      </c>
     </row>
     <row r="48" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="255"/>
-      <c r="B48" s="255"/>
-      <c r="C48" s="438"/>
-      <c r="D48" s="438"/>
-      <c r="E48" s="438"/>
-      <c r="F48" s="438"/>
-      <c r="G48" s="438"/>
-      <c r="H48" s="440"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="470"/>
+      <c r="C48" s="188" t="s">
+        <v>518</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="50">
+        <v>1</v>
+      </c>
+      <c r="G48" s="50"/>
+      <c r="H48" s="50">
+        <v>25500</v>
+      </c>
     </row>
     <row r="49" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="387"/>
-      <c r="D49" s="83"/>
-      <c r="E49" s="83"/>
-      <c r="F49" s="83"/>
-      <c r="G49" s="84"/>
-      <c r="H49" s="84"/>
+      <c r="B49" s="470"/>
+      <c r="C49" s="188" t="s">
+        <v>472</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50">
+        <v>1500</v>
+      </c>
     </row>
     <row r="50" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="441"/>
-      <c r="D50" s="83"/>
-      <c r="E50" s="83"/>
-      <c r="F50" s="83"/>
-      <c r="G50" s="84"/>
-      <c r="H50" s="84"/>
+      <c r="B50" s="470"/>
+      <c r="C50" s="401" t="s">
+        <v>520</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="75">
+        <v>5</v>
+      </c>
+      <c r="G50" s="79"/>
+      <c r="H50" s="75">
+        <v>2000</v>
+      </c>
     </row>
     <row r="51" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="389"/>
-      <c r="D51" s="235"/>
-      <c r="E51" s="235"/>
-      <c r="F51" s="235"/>
-      <c r="G51" s="353"/>
-      <c r="H51" s="390"/>
+      <c r="B51" s="470"/>
+      <c r="C51" s="234"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="79"/>
+      <c r="G51" s="79"/>
+      <c r="H51" s="367">
+        <f>SUM(H47:H50)</f>
+        <v>112000</v>
+      </c>
     </row>
     <row r="52" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="388"/>
-      <c r="D52" s="83"/>
-      <c r="E52" s="83"/>
-      <c r="F52" s="83"/>
-      <c r="G52" s="84"/>
-      <c r="H52" s="84"/>
+      <c r="A52" s="4">
+        <v>1</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="C52" s="188" t="s">
+        <v>196</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="50">
+        <v>1</v>
+      </c>
+      <c r="G52" s="467"/>
+      <c r="H52" s="50">
+        <v>25500</v>
+      </c>
     </row>
     <row r="53" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="387"/>
-      <c r="D53" s="83"/>
-      <c r="E53" s="83"/>
-      <c r="F53" s="83"/>
-      <c r="G53" s="84"/>
-      <c r="H53" s="391"/>
+      <c r="A53" s="4">
+        <v>2</v>
+      </c>
+      <c r="B53" s="469"/>
+      <c r="C53" s="188" t="s">
+        <v>196</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="50">
+        <v>1</v>
+      </c>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50">
+        <v>6000</v>
+      </c>
     </row>
     <row r="54" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="387"/>
-      <c r="D54" s="83"/>
-      <c r="E54" s="83"/>
-      <c r="F54" s="83"/>
-      <c r="G54" s="84"/>
-      <c r="H54" s="84"/>
+      <c r="A54" s="4">
+        <v>3</v>
+      </c>
+      <c r="B54" s="469"/>
+      <c r="C54" s="188" t="s">
+        <v>524</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="50">
+        <v>1</v>
+      </c>
+      <c r="G54" s="50"/>
+      <c r="H54" s="50">
+        <v>2500</v>
+      </c>
     </row>
     <row r="55" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="192"/>
-      <c r="D55" s="83"/>
-      <c r="E55" s="83"/>
-      <c r="F55" s="83"/>
-      <c r="G55" s="84"/>
-      <c r="H55" s="84"/>
+      <c r="A55" s="4">
+        <v>4</v>
+      </c>
+      <c r="B55" s="469"/>
+      <c r="C55" s="188" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="50">
+        <v>1</v>
+      </c>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50">
+        <v>3500</v>
+      </c>
     </row>
     <row r="56" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="192"/>
-      <c r="D56" s="83"/>
-      <c r="E56" s="83"/>
-      <c r="F56" s="83"/>
-      <c r="G56" s="84"/>
-      <c r="H56" s="84"/>
+      <c r="A56" s="4">
+        <v>5</v>
+      </c>
+      <c r="B56" s="469"/>
+      <c r="C56" s="188" t="s">
+        <v>109</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="50">
+        <v>1</v>
+      </c>
+      <c r="G56" s="50"/>
+      <c r="H56" s="50">
+        <v>3500</v>
+      </c>
     </row>
     <row r="57" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="192"/>
-      <c r="D57" s="83"/>
-      <c r="E57" s="83"/>
-      <c r="F57" s="83"/>
-      <c r="G57" s="84"/>
-      <c r="H57" s="84"/>
+      <c r="A57" s="4">
+        <v>6</v>
+      </c>
+      <c r="B57" s="469"/>
+      <c r="C57" s="188" t="s">
+        <v>176</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="50">
+        <v>1</v>
+      </c>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50">
+        <v>34500</v>
+      </c>
     </row>
     <row r="58" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="435"/>
-      <c r="D58" s="83"/>
-      <c r="E58" s="83"/>
-      <c r="F58" s="83"/>
-      <c r="G58" s="84"/>
-      <c r="H58" s="390"/>
+      <c r="A58" s="4">
+        <v>7</v>
+      </c>
+      <c r="B58" s="470"/>
+      <c r="C58" s="188" t="s">
+        <v>127</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="50">
+        <v>1</v>
+      </c>
+      <c r="G58" s="50"/>
+      <c r="H58" s="50">
+        <v>2000</v>
+      </c>
     </row>
     <row r="59" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="435"/>
-      <c r="D59" s="83"/>
-      <c r="E59" s="83"/>
-      <c r="F59" s="83"/>
-      <c r="G59" s="84"/>
-      <c r="H59" s="84"/>
+      <c r="A59" s="4">
+        <v>8</v>
+      </c>
+      <c r="B59" s="470"/>
+      <c r="C59" s="193" t="s">
+        <v>228</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="50">
+        <v>1</v>
+      </c>
+      <c r="G59" s="50"/>
+      <c r="H59" s="50">
+        <v>7000</v>
+      </c>
     </row>
     <row r="60" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="435"/>
-      <c r="D60" s="83"/>
-      <c r="E60" s="83"/>
-      <c r="F60" s="83"/>
-      <c r="G60" s="84"/>
-      <c r="H60" s="390"/>
+      <c r="A60" s="4">
+        <v>9</v>
+      </c>
+      <c r="B60" s="470"/>
+      <c r="C60" s="188" t="s">
+        <v>171</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="50">
+        <v>2</v>
+      </c>
+      <c r="G60" s="50">
+        <v>3800</v>
+      </c>
+      <c r="H60" s="50">
+        <v>7600</v>
+      </c>
     </row>
     <row r="61" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="387"/>
-      <c r="D61" s="83"/>
-      <c r="E61" s="83"/>
-      <c r="F61" s="83"/>
-      <c r="G61" s="84"/>
-      <c r="H61" s="84"/>
+      <c r="A61" s="4">
+        <v>10</v>
+      </c>
+      <c r="B61" s="470"/>
+      <c r="C61" s="401" t="s">
+        <v>197</v>
+      </c>
+      <c r="D61" s="475"/>
+      <c r="E61" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61" s="75">
+        <v>1</v>
+      </c>
+      <c r="G61" s="79"/>
+      <c r="H61" s="75">
+        <v>24500</v>
+      </c>
     </row>
     <row r="62" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="192"/>
-      <c r="D62" s="83"/>
-      <c r="E62" s="83"/>
-      <c r="F62" s="83"/>
-      <c r="G62" s="84"/>
-      <c r="H62" s="84"/>
+      <c r="A62" s="4">
+        <v>11</v>
+      </c>
+      <c r="B62" s="470"/>
+      <c r="C62" s="188" t="s">
+        <v>139</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="50">
+        <v>1</v>
+      </c>
+      <c r="G62" s="50"/>
+      <c r="H62" s="50">
+        <v>2500</v>
+      </c>
     </row>
     <row r="63" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="192"/>
-      <c r="D63" s="83"/>
-      <c r="E63" s="83"/>
-      <c r="F63" s="83"/>
-      <c r="G63" s="84"/>
-      <c r="H63" s="84"/>
+      <c r="A63" s="4">
+        <v>12</v>
+      </c>
+      <c r="B63" s="470"/>
+      <c r="C63" s="401" t="s">
+        <v>54</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="75">
+        <v>1</v>
+      </c>
+      <c r="G63" s="79"/>
+      <c r="H63" s="75">
+        <v>4500</v>
+      </c>
     </row>
     <row r="64" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="192"/>
-      <c r="D64" s="83"/>
-      <c r="E64" s="83"/>
-      <c r="F64" s="83"/>
-      <c r="G64" s="84"/>
-      <c r="H64" s="84"/>
+      <c r="A64" s="4">
+        <v>13</v>
+      </c>
+      <c r="B64" s="470"/>
+      <c r="C64" s="369" t="s">
+        <v>197</v>
+      </c>
+      <c r="D64" s="45"/>
+      <c r="E64" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" s="75">
+        <v>1</v>
+      </c>
+      <c r="G64" s="79"/>
+      <c r="H64" s="75">
+        <v>6500</v>
+      </c>
     </row>
     <row r="65" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
+      <c r="A65" s="4">
+        <v>14</v>
+      </c>
       <c r="B65" s="4"/>
-      <c r="C65" s="435"/>
-      <c r="D65" s="83"/>
-      <c r="E65" s="83"/>
-      <c r="F65" s="83"/>
-      <c r="G65" s="84"/>
-      <c r="H65" s="84"/>
+      <c r="C65" s="193" t="s">
+        <v>525</v>
+      </c>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="50">
+        <v>4</v>
+      </c>
+      <c r="G65" s="50">
+        <v>3500</v>
+      </c>
+      <c r="H65" s="50">
+        <v>14000</v>
+      </c>
     </row>
     <row r="66" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
+      <c r="A66" s="4">
+        <v>15</v>
+      </c>
       <c r="B66" s="4"/>
-      <c r="C66" s="435"/>
-      <c r="D66" s="83"/>
-      <c r="E66" s="83"/>
-      <c r="F66" s="83"/>
-      <c r="G66" s="84"/>
-      <c r="H66" s="84"/>
+      <c r="C66" s="193" t="s">
+        <v>218</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="E66" s="4"/>
+      <c r="F66" s="50">
+        <v>1</v>
+      </c>
+      <c r="G66" s="50"/>
+      <c r="H66" s="50">
+        <v>11000</v>
+      </c>
     </row>
     <row r="67" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
-      <c r="C67" s="435"/>
-      <c r="D67" s="83"/>
-      <c r="E67" s="83"/>
-      <c r="F67" s="83"/>
-      <c r="G67" s="84"/>
-      <c r="H67" s="84"/>
+      <c r="C67" s="193"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="50"/>
+      <c r="G67" s="50"/>
+      <c r="H67" s="223">
+        <f>SUM(H52:H66)</f>
+        <v>155100</v>
+      </c>
     </row>
     <row r="68" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
-      <c r="C68" s="435"/>
-      <c r="D68" s="83"/>
-      <c r="E68" s="83"/>
-      <c r="F68" s="83"/>
-      <c r="G68" s="84"/>
-      <c r="H68" s="84"/>
+      <c r="C68" s="193" t="s">
+        <v>527</v>
+      </c>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="50"/>
+      <c r="G68" s="50"/>
+      <c r="H68" s="50">
+        <v>30000</v>
+      </c>
     </row>
     <row r="69" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
-      <c r="C69" s="435"/>
-      <c r="D69" s="83"/>
-      <c r="E69" s="83"/>
-      <c r="F69" s="83"/>
-      <c r="G69" s="84"/>
-      <c r="H69" s="390"/>
+      <c r="C69" s="354" t="s">
+        <v>523</v>
+      </c>
+      <c r="D69" s="474" t="s">
+        <v>522</v>
+      </c>
+      <c r="E69" s="8"/>
+      <c r="F69" s="79">
+        <v>3</v>
+      </c>
+      <c r="G69" s="79"/>
+      <c r="H69" s="79" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="70" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="436"/>
-      <c r="D70" s="437"/>
-      <c r="E70" s="437"/>
-      <c r="F70" s="437"/>
-      <c r="G70" s="84"/>
-      <c r="H70" s="84"/>
+      <c r="A70" s="23"/>
+      <c r="B70" s="255"/>
+      <c r="C70" s="468"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="50"/>
+      <c r="G70" s="50"/>
+      <c r="H70" s="223">
+        <f>SUM(H67:H69)</f>
+        <v>185100</v>
+      </c>
     </row>
     <row r="71" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
@@ -26287,7 +26579,7 @@
     <row r="74" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="3"/>
-      <c r="C74" s="441"/>
+      <c r="C74" s="439"/>
       <c r="D74" s="89"/>
       <c r="E74" s="89"/>
       <c r="F74" s="83"/>
@@ -26299,12 +26591,12 @@
     <row r="75" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="3"/>
-      <c r="C75" s="442"/>
-      <c r="D75" s="443"/>
-      <c r="E75" s="443"/>
+      <c r="C75" s="440"/>
+      <c r="D75" s="441"/>
+      <c r="E75" s="441"/>
       <c r="F75" s="437"/>
-      <c r="G75" s="444"/>
-      <c r="H75" s="444"/>
+      <c r="G75" s="442"/>
+      <c r="H75" s="442"/>
     </row>
     <row r="76" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
@@ -26379,9 +26671,9 @@
     <row r="83" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="3"/>
-      <c r="C83" s="442"/>
-      <c r="D83" s="443"/>
-      <c r="E83" s="443"/>
+      <c r="C83" s="440"/>
+      <c r="D83" s="441"/>
+      <c r="E83" s="441"/>
       <c r="F83" s="437"/>
       <c r="G83" s="84"/>
       <c r="H83" s="84"/>
@@ -26389,9 +26681,9 @@
     <row r="84" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="3"/>
-      <c r="C84" s="442"/>
-      <c r="D84" s="443"/>
-      <c r="E84" s="443"/>
+      <c r="C84" s="440"/>
+      <c r="D84" s="441"/>
+      <c r="E84" s="441"/>
       <c r="F84" s="437"/>
       <c r="G84" s="84"/>
       <c r="H84" s="84"/>
@@ -26399,9 +26691,9 @@
     <row r="85" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="3"/>
-      <c r="C85" s="442"/>
-      <c r="D85" s="443"/>
-      <c r="E85" s="443"/>
+      <c r="C85" s="440"/>
+      <c r="D85" s="441"/>
+      <c r="E85" s="441"/>
       <c r="F85" s="437"/>
       <c r="G85" s="84"/>
       <c r="H85" s="84"/>
@@ -26412,9 +26704,9 @@
     <row r="86" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="3"/>
-      <c r="C86" s="442"/>
-      <c r="D86" s="443"/>
-      <c r="E86" s="443"/>
+      <c r="C86" s="440"/>
+      <c r="D86" s="441"/>
+      <c r="E86" s="441"/>
       <c r="F86" s="437"/>
       <c r="G86" s="84"/>
       <c r="H86" s="84"/>
@@ -26463,19 +26755,19 @@
     <row r="91" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="3"/>
-      <c r="C91" s="445"/>
+      <c r="C91" s="443"/>
       <c r="D91" s="89"/>
-      <c r="E91" s="445"/>
-      <c r="F91" s="446"/>
-      <c r="G91" s="446"/>
-      <c r="H91" s="447"/>
+      <c r="E91" s="443"/>
+      <c r="F91" s="444"/>
+      <c r="G91" s="444"/>
+      <c r="H91" s="445"/>
     </row>
     <row r="92" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="396"/>
-      <c r="C92" s="445"/>
+      <c r="C92" s="443"/>
       <c r="D92" s="89"/>
-      <c r="E92" s="445"/>
+      <c r="E92" s="443"/>
       <c r="F92" s="83"/>
       <c r="G92" s="93"/>
       <c r="H92" s="93"/>
@@ -26488,12 +26780,12 @@
       <c r="E93" s="97"/>
       <c r="F93" s="82"/>
       <c r="G93" s="82"/>
-      <c r="H93" s="448"/>
+      <c r="H93" s="446"/>
     </row>
     <row r="94" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="4"/>
-      <c r="C94" s="441"/>
+      <c r="C94" s="439"/>
       <c r="D94" s="89"/>
       <c r="E94" s="89"/>
       <c r="F94" s="83"/>
@@ -26554,9 +26846,9 @@
     <row r="100" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
-      <c r="C100" s="449"/>
-      <c r="D100" s="450"/>
-      <c r="E100" s="450"/>
+      <c r="C100" s="447"/>
+      <c r="D100" s="448"/>
+      <c r="E100" s="448"/>
       <c r="F100" s="235"/>
       <c r="G100" s="353"/>
       <c r="H100" s="353"/>
@@ -26584,9 +26876,9 @@
     <row r="103" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
-      <c r="C103" s="442"/>
-      <c r="D103" s="443"/>
-      <c r="E103" s="443"/>
+      <c r="C103" s="440"/>
+      <c r="D103" s="441"/>
+      <c r="E103" s="441"/>
       <c r="F103" s="437"/>
       <c r="G103" s="84"/>
       <c r="H103" s="84"/>
@@ -26594,9 +26886,9 @@
     <row r="104" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
-      <c r="C104" s="442"/>
-      <c r="D104" s="443"/>
-      <c r="E104" s="443"/>
+      <c r="C104" s="440"/>
+      <c r="D104" s="441"/>
+      <c r="E104" s="441"/>
       <c r="F104" s="437"/>
       <c r="G104" s="84"/>
       <c r="H104" s="84"/>
@@ -26604,9 +26896,9 @@
     <row r="105" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
-      <c r="C105" s="442"/>
-      <c r="D105" s="443"/>
-      <c r="E105" s="443"/>
+      <c r="C105" s="440"/>
+      <c r="D105" s="441"/>
+      <c r="E105" s="441"/>
       <c r="F105" s="437"/>
       <c r="G105" s="84"/>
       <c r="H105" s="390"/>
@@ -26614,9 +26906,9 @@
     <row r="106" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
-      <c r="C106" s="442"/>
-      <c r="D106" s="443"/>
-      <c r="E106" s="443"/>
+      <c r="C106" s="440"/>
+      <c r="D106" s="441"/>
+      <c r="E106" s="441"/>
       <c r="F106" s="437"/>
       <c r="G106" s="84"/>
       <c r="H106" s="84"/>
@@ -26667,7 +26959,7 @@
     <row r="111" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="4"/>
-      <c r="C111" s="449"/>
+      <c r="C111" s="447"/>
       <c r="D111" s="235"/>
       <c r="E111" s="235"/>
       <c r="F111" s="235"/>
@@ -26727,7 +27019,7 @@
     <row r="117" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="4"/>
-      <c r="C117" s="442"/>
+      <c r="C117" s="440"/>
       <c r="D117" s="437"/>
       <c r="E117" s="437"/>
       <c r="F117" s="437"/>
@@ -26737,7 +27029,7 @@
     <row r="118" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="4"/>
-      <c r="C118" s="442"/>
+      <c r="C118" s="440"/>
       <c r="D118" s="437"/>
       <c r="E118" s="437"/>
       <c r="F118" s="437"/>
@@ -26747,17 +27039,17 @@
     <row r="119" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="4"/>
-      <c r="C119" s="442"/>
+      <c r="C119" s="440"/>
       <c r="D119" s="437"/>
       <c r="E119" s="437"/>
       <c r="F119" s="437"/>
-      <c r="G119" s="444"/>
-      <c r="H119" s="444"/>
+      <c r="G119" s="442"/>
+      <c r="H119" s="442"/>
     </row>
     <row r="120" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="4"/>
-      <c r="C120" s="442"/>
+      <c r="C120" s="440"/>
       <c r="D120" s="437"/>
       <c r="E120" s="437"/>
       <c r="F120" s="437"/>
@@ -26767,7 +27059,7 @@
     <row r="121" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="4"/>
-      <c r="C121" s="442"/>
+      <c r="C121" s="440"/>
       <c r="D121" s="437"/>
       <c r="E121" s="437"/>
       <c r="F121" s="437"/>
@@ -26807,29 +27099,29 @@
     <row r="125" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="4"/>
-      <c r="C125" s="451"/>
+      <c r="C125" s="449"/>
       <c r="D125" s="83"/>
       <c r="E125" s="83"/>
       <c r="F125" s="83"/>
       <c r="G125" s="83"/>
-      <c r="H125" s="439"/>
+      <c r="H125" s="438"/>
     </row>
     <row r="126" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="4"/>
-      <c r="C126" s="446"/>
+      <c r="C126" s="444"/>
       <c r="D126" s="83"/>
-      <c r="E126" s="446"/>
+      <c r="E126" s="444"/>
       <c r="F126" s="83"/>
-      <c r="G126" s="446"/>
-      <c r="H126" s="447"/>
+      <c r="G126" s="444"/>
+      <c r="H126" s="445"/>
     </row>
     <row r="127" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="396"/>
       <c r="B127" s="77"/>
-      <c r="C127" s="446"/>
+      <c r="C127" s="444"/>
       <c r="D127" s="83"/>
-      <c r="E127" s="446"/>
+      <c r="E127" s="444"/>
       <c r="F127" s="83"/>
       <c r="G127" s="93"/>
       <c r="H127" s="93"/>
@@ -26857,11 +27149,11 @@
     <row r="130" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
-      <c r="C130" s="441"/>
+      <c r="C130" s="439"/>
       <c r="D130" s="89"/>
       <c r="E130" s="89"/>
       <c r="F130" s="89"/>
-      <c r="G130" s="452"/>
+      <c r="G130" s="450"/>
       <c r="H130" s="84"/>
     </row>
     <row r="131" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -26871,7 +27163,7 @@
       <c r="D131" s="89"/>
       <c r="E131" s="89"/>
       <c r="F131" s="83"/>
-      <c r="G131" s="452"/>
+      <c r="G131" s="450"/>
       <c r="H131" s="84"/>
     </row>
     <row r="132" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -26881,13 +27173,13 @@
       <c r="D132" s="89"/>
       <c r="E132" s="89"/>
       <c r="F132" s="89"/>
-      <c r="G132" s="452"/>
+      <c r="G132" s="450"/>
       <c r="H132" s="390"/>
     </row>
     <row r="133" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
-      <c r="C133" s="441"/>
+      <c r="C133" s="439"/>
       <c r="D133" s="89"/>
       <c r="E133" s="89"/>
       <c r="F133" s="83"/>
@@ -26941,7 +27233,7 @@
       <c r="D138" s="89"/>
       <c r="E138" s="89"/>
       <c r="F138" s="83"/>
-      <c r="G138" s="452"/>
+      <c r="G138" s="450"/>
       <c r="H138" s="391"/>
     </row>
     <row r="139" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -26951,7 +27243,7 @@
       <c r="D139" s="89"/>
       <c r="E139" s="89"/>
       <c r="F139" s="83"/>
-      <c r="G139" s="452"/>
+      <c r="G139" s="450"/>
       <c r="H139" s="84"/>
     </row>
     <row r="140" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -26961,7 +27253,7 @@
       <c r="D140" s="89"/>
       <c r="E140" s="89"/>
       <c r="F140" s="83"/>
-      <c r="G140" s="452"/>
+      <c r="G140" s="450"/>
       <c r="H140" s="84"/>
     </row>
     <row r="141" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -26971,7 +27263,7 @@
       <c r="D141" s="89"/>
       <c r="E141" s="89"/>
       <c r="F141" s="89"/>
-      <c r="G141" s="452"/>
+      <c r="G141" s="450"/>
       <c r="H141" s="390"/>
     </row>
     <row r="142" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -26981,7 +27273,7 @@
       <c r="D142" s="89"/>
       <c r="E142" s="89"/>
       <c r="F142" s="89"/>
-      <c r="G142" s="452"/>
+      <c r="G142" s="450"/>
       <c r="H142" s="84"/>
     </row>
     <row r="143" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -26991,7 +27283,7 @@
       <c r="D143" s="89"/>
       <c r="E143" s="89"/>
       <c r="F143" s="89"/>
-      <c r="G143" s="452"/>
+      <c r="G143" s="450"/>
       <c r="H143" s="84"/>
     </row>
     <row r="144" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27001,7 +27293,7 @@
       <c r="D144" s="89"/>
       <c r="E144" s="89"/>
       <c r="F144" s="89"/>
-      <c r="G144" s="452"/>
+      <c r="G144" s="450"/>
       <c r="H144" s="84"/>
     </row>
     <row r="145" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27031,7 +27323,7 @@
       <c r="D147" s="89"/>
       <c r="E147" s="89"/>
       <c r="F147" s="83"/>
-      <c r="G147" s="452"/>
+      <c r="G147" s="450"/>
       <c r="H147" s="84"/>
     </row>
     <row r="148" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27041,7 +27333,7 @@
       <c r="D148" s="89"/>
       <c r="E148" s="89"/>
       <c r="F148" s="83"/>
-      <c r="G148" s="452"/>
+      <c r="G148" s="450"/>
       <c r="H148" s="390"/>
     </row>
     <row r="149" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27051,7 +27343,7 @@
       <c r="D149" s="89"/>
       <c r="E149" s="89"/>
       <c r="F149" s="89"/>
-      <c r="G149" s="452"/>
+      <c r="G149" s="450"/>
       <c r="H149" s="84"/>
     </row>
     <row r="150" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27061,7 +27353,7 @@
       <c r="D150" s="89"/>
       <c r="E150" s="89"/>
       <c r="F150" s="89"/>
-      <c r="G150" s="452"/>
+      <c r="G150" s="450"/>
       <c r="H150" s="84"/>
     </row>
     <row r="151" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27071,7 +27363,7 @@
       <c r="D151" s="89"/>
       <c r="E151" s="89"/>
       <c r="F151" s="89"/>
-      <c r="G151" s="452"/>
+      <c r="G151" s="450"/>
       <c r="H151" s="84"/>
     </row>
     <row r="152" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27081,7 +27373,7 @@
       <c r="D152" s="89"/>
       <c r="E152" s="89"/>
       <c r="F152" s="89"/>
-      <c r="G152" s="452"/>
+      <c r="G152" s="450"/>
       <c r="H152" s="84"/>
     </row>
     <row r="153" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27091,7 +27383,7 @@
       <c r="D153" s="89"/>
       <c r="E153" s="89"/>
       <c r="F153" s="89"/>
-      <c r="G153" s="452"/>
+      <c r="G153" s="450"/>
       <c r="H153" s="84"/>
     </row>
     <row r="154" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27121,13 +27413,13 @@
       <c r="D156" s="89"/>
       <c r="E156" s="89"/>
       <c r="F156" s="83"/>
-      <c r="G156" s="452"/>
+      <c r="G156" s="450"/>
       <c r="H156" s="390"/>
     </row>
     <row r="157" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
-      <c r="C157" s="441"/>
+      <c r="C157" s="439"/>
       <c r="D157" s="89"/>
       <c r="E157" s="89"/>
       <c r="F157" s="83"/>
@@ -27141,7 +27433,7 @@
       <c r="D158" s="83"/>
       <c r="E158" s="89"/>
       <c r="F158" s="89"/>
-      <c r="G158" s="452"/>
+      <c r="G158" s="450"/>
       <c r="H158" s="84"/>
     </row>
     <row r="159" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27151,7 +27443,7 @@
       <c r="D159" s="83"/>
       <c r="E159" s="89"/>
       <c r="F159" s="89"/>
-      <c r="G159" s="452"/>
+      <c r="G159" s="450"/>
       <c r="H159" s="84"/>
     </row>
     <row r="160" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27161,7 +27453,7 @@
       <c r="D160" s="83"/>
       <c r="E160" s="89"/>
       <c r="F160" s="89"/>
-      <c r="G160" s="452"/>
+      <c r="G160" s="450"/>
       <c r="H160" s="84"/>
     </row>
     <row r="161" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27171,7 +27463,7 @@
       <c r="D161" s="83"/>
       <c r="E161" s="89"/>
       <c r="F161" s="89"/>
-      <c r="G161" s="452"/>
+      <c r="G161" s="450"/>
       <c r="H161" s="84"/>
     </row>
     <row r="162" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27201,7 +27493,7 @@
       <c r="D164" s="83"/>
       <c r="E164" s="89"/>
       <c r="F164" s="83"/>
-      <c r="G164" s="452"/>
+      <c r="G164" s="450"/>
       <c r="H164" s="84"/>
     </row>
     <row r="165" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27211,7 +27503,7 @@
       <c r="D165" s="83"/>
       <c r="E165" s="89"/>
       <c r="F165" s="83"/>
-      <c r="G165" s="452"/>
+      <c r="G165" s="450"/>
       <c r="H165" s="84"/>
     </row>
     <row r="166" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27221,7 +27513,7 @@
       <c r="D166" s="83"/>
       <c r="E166" s="89"/>
       <c r="F166" s="83"/>
-      <c r="G166" s="452"/>
+      <c r="G166" s="450"/>
       <c r="H166" s="84"/>
     </row>
     <row r="167" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27231,7 +27523,7 @@
       <c r="D167" s="83"/>
       <c r="E167" s="89"/>
       <c r="F167" s="89"/>
-      <c r="G167" s="452"/>
+      <c r="G167" s="450"/>
       <c r="H167" s="84"/>
     </row>
     <row r="168" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27239,9 +27531,9 @@
       <c r="B168" s="3"/>
       <c r="C168" s="436"/>
       <c r="D168" s="437"/>
-      <c r="E168" s="443"/>
-      <c r="F168" s="443"/>
-      <c r="G168" s="452"/>
+      <c r="E168" s="441"/>
+      <c r="F168" s="441"/>
+      <c r="G168" s="450"/>
       <c r="H168" s="84"/>
     </row>
     <row r="169" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27249,9 +27541,9 @@
       <c r="B169" s="3"/>
       <c r="C169" s="436"/>
       <c r="D169" s="437"/>
-      <c r="E169" s="443"/>
-      <c r="F169" s="443"/>
-      <c r="G169" s="452"/>
+      <c r="E169" s="441"/>
+      <c r="F169" s="441"/>
+      <c r="G169" s="450"/>
       <c r="H169" s="84"/>
     </row>
     <row r="170" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27259,29 +27551,29 @@
       <c r="B170" s="3"/>
       <c r="C170" s="436"/>
       <c r="D170" s="437"/>
-      <c r="E170" s="443"/>
-      <c r="F170" s="443"/>
-      <c r="G170" s="452"/>
+      <c r="E170" s="441"/>
+      <c r="F170" s="441"/>
+      <c r="G170" s="450"/>
       <c r="H170" s="391"/>
     </row>
     <row r="171" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
-      <c r="C171" s="442"/>
+      <c r="C171" s="440"/>
       <c r="D171" s="437"/>
-      <c r="E171" s="443"/>
-      <c r="F171" s="443"/>
-      <c r="G171" s="452"/>
+      <c r="E171" s="441"/>
+      <c r="F171" s="441"/>
+      <c r="G171" s="450"/>
       <c r="H171" s="84"/>
     </row>
     <row r="172" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
-      <c r="C172" s="442"/>
-      <c r="D172" s="443"/>
-      <c r="E172" s="443"/>
-      <c r="F172" s="443"/>
-      <c r="G172" s="452"/>
+      <c r="C172" s="440"/>
+      <c r="D172" s="441"/>
+      <c r="E172" s="441"/>
+      <c r="F172" s="441"/>
+      <c r="G172" s="450"/>
       <c r="H172" s="84"/>
     </row>
     <row r="173" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27291,7 +27583,7 @@
       <c r="D173" s="89"/>
       <c r="E173" s="89"/>
       <c r="F173" s="89"/>
-      <c r="G173" s="452"/>
+      <c r="G173" s="450"/>
       <c r="H173" s="391"/>
     </row>
     <row r="174" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27301,7 +27593,7 @@
       <c r="D174" s="83"/>
       <c r="E174" s="89"/>
       <c r="F174" s="89"/>
-      <c r="G174" s="452"/>
+      <c r="G174" s="450"/>
       <c r="H174" s="84"/>
       <c r="L174" s="101" t="s">
         <v>266</v>
@@ -27310,11 +27602,11 @@
     <row r="175" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
-      <c r="C175" s="449"/>
+      <c r="C175" s="447"/>
       <c r="D175" s="235"/>
-      <c r="E175" s="450"/>
-      <c r="F175" s="450"/>
-      <c r="G175" s="453"/>
+      <c r="E175" s="448"/>
+      <c r="F175" s="448"/>
+      <c r="G175" s="451"/>
       <c r="H175" s="353"/>
       <c r="I175" s="19"/>
       <c r="L175" s="101" t="s">
@@ -27328,7 +27620,7 @@
       <c r="D176" s="83"/>
       <c r="E176" s="89"/>
       <c r="F176" s="89"/>
-      <c r="G176" s="452"/>
+      <c r="G176" s="450"/>
       <c r="H176" s="84"/>
     </row>
     <row r="177" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27338,7 +27630,7 @@
       <c r="D177" s="83"/>
       <c r="E177" s="89"/>
       <c r="F177" s="89"/>
-      <c r="G177" s="452"/>
+      <c r="G177" s="450"/>
       <c r="H177" s="84"/>
     </row>
     <row r="178" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27348,7 +27640,7 @@
       <c r="D178" s="83"/>
       <c r="E178" s="89"/>
       <c r="F178" s="89"/>
-      <c r="G178" s="452"/>
+      <c r="G178" s="450"/>
       <c r="H178" s="84"/>
     </row>
     <row r="179" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27378,7 +27670,7 @@
       <c r="D181" s="83"/>
       <c r="E181" s="89"/>
       <c r="F181" s="83"/>
-      <c r="G181" s="452"/>
+      <c r="G181" s="450"/>
       <c r="H181" s="84"/>
     </row>
     <row r="182" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27388,7 +27680,7 @@
       <c r="D182" s="83"/>
       <c r="E182" s="89"/>
       <c r="F182" s="83"/>
-      <c r="G182" s="452"/>
+      <c r="G182" s="450"/>
       <c r="H182" s="84"/>
     </row>
     <row r="183" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27398,7 +27690,7 @@
       <c r="D183" s="89"/>
       <c r="E183" s="89"/>
       <c r="F183" s="83"/>
-      <c r="G183" s="452"/>
+      <c r="G183" s="450"/>
       <c r="H183" s="390"/>
     </row>
     <row r="184" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27408,7 +27700,7 @@
       <c r="D184" s="83"/>
       <c r="E184" s="89"/>
       <c r="F184" s="89"/>
-      <c r="G184" s="452"/>
+      <c r="G184" s="450"/>
       <c r="H184" s="84"/>
     </row>
     <row r="185" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27418,7 +27710,7 @@
       <c r="D185" s="83"/>
       <c r="E185" s="89"/>
       <c r="F185" s="89"/>
-      <c r="G185" s="452"/>
+      <c r="G185" s="450"/>
       <c r="H185" s="84"/>
     </row>
     <row r="186" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27478,7 +27770,7 @@
       <c r="D191" s="83"/>
       <c r="E191" s="89"/>
       <c r="F191" s="83"/>
-      <c r="G191" s="452"/>
+      <c r="G191" s="450"/>
       <c r="H191" s="84"/>
     </row>
     <row r="192" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27488,7 +27780,7 @@
       <c r="D192" s="83"/>
       <c r="E192" s="89"/>
       <c r="F192" s="83"/>
-      <c r="G192" s="452"/>
+      <c r="G192" s="450"/>
       <c r="H192" s="390"/>
     </row>
     <row r="193" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27498,7 +27790,7 @@
       <c r="D193" s="83"/>
       <c r="E193" s="89"/>
       <c r="F193" s="83"/>
-      <c r="G193" s="452"/>
+      <c r="G193" s="450"/>
       <c r="H193" s="84"/>
     </row>
     <row r="194" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27508,7 +27800,7 @@
       <c r="D194" s="89"/>
       <c r="E194" s="89"/>
       <c r="F194" s="83"/>
-      <c r="G194" s="452"/>
+      <c r="G194" s="450"/>
       <c r="H194" s="84"/>
     </row>
     <row r="195" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27539,7 +27831,7 @@
       <c r="E197" s="81"/>
       <c r="F197" s="81"/>
       <c r="G197" s="81"/>
-      <c r="H197" s="439"/>
+      <c r="H197" s="438"/>
     </row>
     <row r="198" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="4"/>
@@ -27664,9 +27956,9 @@
     <row r="210" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
-      <c r="C210" s="449"/>
+      <c r="C210" s="447"/>
       <c r="D210" s="235"/>
-      <c r="E210" s="450"/>
+      <c r="E210" s="448"/>
       <c r="F210" s="235"/>
       <c r="G210" s="353"/>
       <c r="H210" s="353"/>
@@ -27775,9 +28067,9 @@
     <row r="221" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
-      <c r="C221" s="449"/>
+      <c r="C221" s="447"/>
       <c r="D221" s="235"/>
-      <c r="E221" s="450"/>
+      <c r="E221" s="448"/>
       <c r="F221" s="235"/>
       <c r="G221" s="353"/>
       <c r="H221" s="353"/>
@@ -27818,10 +28110,10 @@
       <c r="B225" s="3"/>
       <c r="C225" s="436"/>
       <c r="D225" s="437"/>
-      <c r="E225" s="443"/>
+      <c r="E225" s="441"/>
       <c r="F225" s="437"/>
-      <c r="G225" s="444"/>
-      <c r="H225" s="444"/>
+      <c r="G225" s="442"/>
+      <c r="H225" s="442"/>
     </row>
     <row r="226" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
@@ -27906,7 +28198,7 @@
     <row r="234" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="414"/>
       <c r="B234" s="414"/>
-      <c r="C234" s="441"/>
+      <c r="C234" s="439"/>
       <c r="D234" s="81"/>
       <c r="E234" s="81"/>
       <c r="F234" s="81"/>
@@ -27916,18 +28208,18 @@
     <row r="235" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="415"/>
       <c r="B235" s="415"/>
-      <c r="C235" s="454"/>
-      <c r="D235" s="454"/>
-      <c r="E235" s="454"/>
-      <c r="F235" s="454"/>
-      <c r="G235" s="454"/>
-      <c r="H235" s="455"/>
+      <c r="C235" s="452"/>
+      <c r="D235" s="452"/>
+      <c r="E235" s="452"/>
+      <c r="F235" s="452"/>
+      <c r="G235" s="452"/>
+      <c r="H235" s="453"/>
     </row>
     <row r="236" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="422"/>
       <c r="B236" s="4"/>
       <c r="C236" s="387"/>
-      <c r="D236" s="456"/>
+      <c r="D236" s="454"/>
       <c r="E236" s="83"/>
       <c r="F236" s="83"/>
       <c r="G236" s="84"/>
@@ -27936,19 +28228,19 @@
     <row r="237" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="422"/>
       <c r="B237" s="422"/>
-      <c r="C237" s="442"/>
-      <c r="D237" s="457"/>
+      <c r="C237" s="440"/>
+      <c r="D237" s="455"/>
       <c r="E237" s="437"/>
       <c r="F237" s="437"/>
-      <c r="G237" s="444"/>
-      <c r="H237" s="444"/>
+      <c r="G237" s="442"/>
+      <c r="H237" s="442"/>
       <c r="I237" s="433"/>
     </row>
     <row r="238" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="422"/>
       <c r="B238" s="422"/>
-      <c r="C238" s="449"/>
-      <c r="D238" s="458"/>
+      <c r="C238" s="447"/>
+      <c r="D238" s="456"/>
       <c r="E238" s="235"/>
       <c r="F238" s="235"/>
       <c r="G238" s="353"/>
@@ -27957,37 +28249,37 @@
     <row r="239" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="422"/>
       <c r="B239" s="422"/>
-      <c r="C239" s="442"/>
-      <c r="D239" s="457"/>
+      <c r="C239" s="440"/>
+      <c r="D239" s="455"/>
       <c r="E239" s="437"/>
       <c r="F239" s="437"/>
-      <c r="G239" s="444"/>
-      <c r="H239" s="444"/>
+      <c r="G239" s="442"/>
+      <c r="H239" s="442"/>
     </row>
     <row r="240" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="422"/>
       <c r="B240" s="422"/>
-      <c r="C240" s="442"/>
+      <c r="C240" s="440"/>
       <c r="D240" s="437"/>
       <c r="E240" s="437"/>
       <c r="F240" s="437"/>
-      <c r="G240" s="444"/>
-      <c r="H240" s="444"/>
+      <c r="G240" s="442"/>
+      <c r="H240" s="442"/>
     </row>
     <row r="241" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="422"/>
       <c r="B241" s="422"/>
-      <c r="C241" s="442"/>
+      <c r="C241" s="440"/>
       <c r="D241" s="437"/>
       <c r="E241" s="437"/>
       <c r="F241" s="437"/>
-      <c r="G241" s="444"/>
-      <c r="H241" s="444"/>
+      <c r="G241" s="442"/>
+      <c r="H241" s="442"/>
     </row>
     <row r="242" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="422"/>
       <c r="B242" s="422"/>
-      <c r="C242" s="449"/>
+      <c r="C242" s="447"/>
       <c r="D242" s="235"/>
       <c r="E242" s="235"/>
       <c r="F242" s="235"/>
@@ -28061,27 +28353,27 @@
       <c r="D249" s="83"/>
       <c r="E249" s="83"/>
       <c r="F249" s="83"/>
-      <c r="G249" s="459"/>
+      <c r="G249" s="457"/>
       <c r="H249" s="390"/>
     </row>
     <row r="250" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="422"/>
       <c r="B250" s="422"/>
       <c r="C250" s="192"/>
-      <c r="D250" s="456"/>
+      <c r="D250" s="454"/>
       <c r="E250" s="83"/>
       <c r="F250" s="83"/>
-      <c r="G250" s="459"/>
+      <c r="G250" s="457"/>
       <c r="H250" s="84"/>
     </row>
     <row r="251" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="424"/>
       <c r="B251" s="424"/>
-      <c r="C251" s="441"/>
-      <c r="D251" s="460"/>
+      <c r="C251" s="439"/>
+      <c r="D251" s="458"/>
       <c r="E251" s="95"/>
       <c r="F251" s="83"/>
-      <c r="G251" s="460"/>
+      <c r="G251" s="458"/>
       <c r="H251" s="85"/>
     </row>
     <row r="252" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -28089,20 +28381,20 @@
       <c r="B252" s="424"/>
       <c r="C252" s="97"/>
       <c r="D252" s="82"/>
-      <c r="E252" s="460"/>
-      <c r="F252" s="460"/>
-      <c r="G252" s="460"/>
+      <c r="E252" s="458"/>
+      <c r="F252" s="458"/>
+      <c r="G252" s="458"/>
       <c r="H252" s="85"/>
     </row>
     <row r="253" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="424"/>
       <c r="B253" s="424"/>
-      <c r="C253" s="460"/>
-      <c r="D253" s="460"/>
-      <c r="E253" s="460"/>
-      <c r="F253" s="460"/>
-      <c r="G253" s="460"/>
-      <c r="H253" s="448"/>
+      <c r="C253" s="458"/>
+      <c r="D253" s="458"/>
+      <c r="E253" s="458"/>
+      <c r="F253" s="458"/>
+      <c r="G253" s="458"/>
+      <c r="H253" s="446"/>
     </row>
     <row r="254" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4"/>
@@ -28147,12 +28439,12 @@
     <row r="258" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
-      <c r="C258" s="461"/>
+      <c r="C258" s="459"/>
       <c r="D258" s="235"/>
       <c r="E258" s="235"/>
       <c r="F258" s="235"/>
       <c r="G258" s="353"/>
-      <c r="H258" s="462"/>
+      <c r="H258" s="460"/>
     </row>
     <row r="259" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="4"/>
@@ -28187,7 +28479,7 @@
     <row r="262" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
-      <c r="C262" s="451"/>
+      <c r="C262" s="449"/>
       <c r="D262" s="83"/>
       <c r="E262" s="83"/>
       <c r="F262" s="83"/>
@@ -28237,12 +28529,12 @@
     <row r="267" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
-      <c r="C267" s="442"/>
+      <c r="C267" s="440"/>
       <c r="D267" s="235"/>
       <c r="E267" s="235"/>
       <c r="F267" s="437"/>
       <c r="G267" s="353"/>
-      <c r="H267" s="444"/>
+      <c r="H267" s="442"/>
     </row>
     <row r="268" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="4"/>
@@ -28287,7 +28579,7 @@
     <row r="272" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
-      <c r="C272" s="451"/>
+      <c r="C272" s="449"/>
       <c r="D272" s="83"/>
       <c r="E272" s="83"/>
       <c r="F272" s="83"/>
@@ -28317,7 +28609,7 @@
     <row r="275" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
-      <c r="C275" s="451"/>
+      <c r="C275" s="449"/>
       <c r="D275" s="83"/>
       <c r="E275" s="83"/>
       <c r="F275" s="83"/>
@@ -28367,12 +28659,12 @@
     <row r="280" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
-      <c r="C280" s="442"/>
+      <c r="C280" s="440"/>
       <c r="D280" s="235"/>
       <c r="E280" s="235"/>
       <c r="F280" s="437"/>
       <c r="G280" s="353"/>
-      <c r="H280" s="463"/>
+      <c r="H280" s="461"/>
     </row>
     <row r="281" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="4"/>
@@ -28447,12 +28739,12 @@
     <row r="288" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
-      <c r="C288" s="442"/>
+      <c r="C288" s="440"/>
       <c r="D288" s="235"/>
       <c r="E288" s="235"/>
       <c r="F288" s="437"/>
-      <c r="G288" s="444"/>
-      <c r="H288" s="444"/>
+      <c r="G288" s="442"/>
+      <c r="H288" s="442"/>
     </row>
     <row r="289" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="4"/>
@@ -28481,8 +28773,8 @@
       <c r="D291" s="437"/>
       <c r="E291" s="437"/>
       <c r="F291" s="437"/>
-      <c r="G291" s="444"/>
-      <c r="H291" s="444"/>
+      <c r="G291" s="442"/>
+      <c r="H291" s="442"/>
     </row>
     <row r="292" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="4"/>
@@ -28497,7 +28789,7 @@
     <row r="293" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
-      <c r="C293" s="451"/>
+      <c r="C293" s="449"/>
       <c r="D293" s="83"/>
       <c r="E293" s="83"/>
       <c r="F293" s="83"/>
@@ -28527,7 +28819,7 @@
     <row r="296" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
-      <c r="C296" s="449"/>
+      <c r="C296" s="447"/>
       <c r="D296" s="235"/>
       <c r="E296" s="235"/>
       <c r="F296" s="235"/>
@@ -28537,7 +28829,7 @@
     <row r="297" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
-      <c r="C297" s="451"/>
+      <c r="C297" s="449"/>
       <c r="D297" s="83"/>
       <c r="E297" s="83"/>
       <c r="F297" s="83"/>
@@ -28587,12 +28879,12 @@
     <row r="302" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
-      <c r="C302" s="442"/>
+      <c r="C302" s="440"/>
       <c r="D302" s="437"/>
       <c r="E302" s="235"/>
       <c r="F302" s="437"/>
-      <c r="G302" s="444"/>
-      <c r="H302" s="444"/>
+      <c r="G302" s="442"/>
+      <c r="H302" s="442"/>
     </row>
     <row r="303" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="4"/>
@@ -28697,12 +28989,12 @@
     <row r="313" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
-      <c r="C313" s="442"/>
+      <c r="C313" s="440"/>
       <c r="D313" s="235"/>
       <c r="E313" s="235"/>
       <c r="F313" s="437"/>
-      <c r="G313" s="444"/>
-      <c r="H313" s="462"/>
+      <c r="G313" s="442"/>
+      <c r="H313" s="460"/>
     </row>
     <row r="314" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="4"/>
@@ -28767,12 +29059,12 @@
     <row r="320" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
-      <c r="C320" s="442"/>
+      <c r="C320" s="440"/>
       <c r="D320" s="235"/>
       <c r="E320" s="437"/>
       <c r="F320" s="437"/>
-      <c r="G320" s="444"/>
-      <c r="H320" s="444"/>
+      <c r="G320" s="442"/>
+      <c r="H320" s="442"/>
     </row>
     <row r="321" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="4"/>
@@ -28887,12 +29179,12 @@
     <row r="332" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
-      <c r="C332" s="442"/>
+      <c r="C332" s="440"/>
       <c r="D332" s="235"/>
       <c r="E332" s="437"/>
       <c r="F332" s="437"/>
-      <c r="G332" s="444"/>
-      <c r="H332" s="444"/>
+      <c r="G332" s="442"/>
+      <c r="H332" s="442"/>
     </row>
     <row r="333" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="4"/>
@@ -28977,12 +29269,12 @@
     <row r="341" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="4"/>
       <c r="B341" s="4"/>
-      <c r="C341" s="442"/>
+      <c r="C341" s="440"/>
       <c r="D341" s="235"/>
       <c r="E341" s="437"/>
       <c r="F341" s="437"/>
-      <c r="G341" s="444"/>
-      <c r="H341" s="444"/>
+      <c r="G341" s="442"/>
+      <c r="H341" s="442"/>
     </row>
     <row r="342" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="4"/>
@@ -29047,7 +29339,7 @@
     <row r="348" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
-      <c r="C348" s="449"/>
+      <c r="C348" s="447"/>
       <c r="D348" s="235"/>
       <c r="E348" s="235"/>
       <c r="F348" s="235"/>
@@ -29067,12 +29359,12 @@
     <row r="350" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
-      <c r="C350" s="442"/>
+      <c r="C350" s="440"/>
       <c r="D350" s="235"/>
       <c r="E350" s="437"/>
       <c r="F350" s="437"/>
-      <c r="G350" s="444"/>
-      <c r="H350" s="444"/>
+      <c r="G350" s="442"/>
+      <c r="H350" s="442"/>
     </row>
     <row r="351" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="4"/>
@@ -29157,7 +29449,7 @@
     <row r="359" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
-      <c r="C359" s="451"/>
+      <c r="C359" s="449"/>
       <c r="D359" s="83"/>
       <c r="E359" s="83"/>
       <c r="F359" s="83"/>
@@ -29187,12 +29479,12 @@
     <row r="362" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A362" s="426"/>
       <c r="B362" s="426"/>
-      <c r="C362" s="464"/>
-      <c r="D362" s="464"/>
-      <c r="E362" s="464"/>
-      <c r="F362" s="464"/>
-      <c r="G362" s="464"/>
-      <c r="H362" s="465"/>
+      <c r="C362" s="462"/>
+      <c r="D362" s="462"/>
+      <c r="E362" s="462"/>
+      <c r="F362" s="462"/>
+      <c r="G362" s="462"/>
+      <c r="H362" s="463"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1">
@@ -29208,17 +29500,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
     <col min="5" max="5" width="4.5703125" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
@@ -29267,46 +29559,52 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="C3" s="188" t="s">
-        <v>350</v>
+        <v>225</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="50">
-        <v>1</v>
-      </c>
-      <c r="G3" s="469"/>
+        <v>2</v>
+      </c>
+      <c r="G3" s="467">
+        <v>1200</v>
+      </c>
       <c r="H3" s="50">
-        <v>3000</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="471"/>
+      <c r="B4" s="469"/>
       <c r="C4" s="188" t="s">
-        <v>108</v>
+        <v>188</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="F4" s="50">
-        <v>1</v>
-      </c>
-      <c r="G4" s="50"/>
+        <v>2</v>
+      </c>
+      <c r="G4" s="50">
+        <v>6000</v>
+      </c>
       <c r="H4" s="50">
-        <v>3500</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="471"/>
+      <c r="B5" s="469"/>
       <c r="C5" s="188" t="s">
-        <v>54</v>
+        <v>529</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -29315,97 +29613,95 @@
       </c>
       <c r="G5" s="50"/>
       <c r="H5" s="50">
-        <v>4500</v>
+        <v>64500</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="471"/>
+      <c r="B6" s="469"/>
       <c r="C6" s="188" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>85</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="50">
-        <v>2</v>
-      </c>
-      <c r="G6" s="50">
-        <v>9000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G6" s="50"/>
       <c r="H6" s="50">
-        <v>18000</v>
+        <v>23500</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="471"/>
+      <c r="B7" s="469"/>
       <c r="C7" s="188" t="s">
-        <v>197</v>
+        <v>127</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="E7" s="4"/>
       <c r="F7" s="50">
         <v>1</v>
       </c>
       <c r="G7" s="50"/>
       <c r="H7" s="50">
-        <v>24500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="471"/>
+      <c r="B8" s="469"/>
       <c r="C8" s="188" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="50">
-        <v>1</v>
-      </c>
-      <c r="G8" s="50"/>
+        <v>4</v>
+      </c>
+      <c r="G8" s="50">
+        <v>3150</v>
+      </c>
       <c r="H8" s="50">
-        <v>2000</v>
+        <v>12600</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="472"/>
+      <c r="B9" s="470"/>
       <c r="C9" s="188" t="s">
-        <v>109</v>
+        <v>228</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="F9" s="50">
         <v>1</v>
       </c>
       <c r="G9" s="50"/>
       <c r="H9" s="50">
-        <v>3500</v>
+        <v>25500</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="472"/>
+      <c r="B10" s="470"/>
       <c r="C10" s="193" t="s">
-        <v>517</v>
+        <v>208</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="50">
@@ -29413,81 +29709,102 @@
       </c>
       <c r="G10" s="50"/>
       <c r="H10" s="50">
-        <v>24000</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="472"/>
-      <c r="C11" s="188"/>
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="470"/>
+      <c r="C11" s="188" t="s">
+        <v>204</v>
+      </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="257">
-        <f>SUM(H3:H10)</f>
-        <v>83000</v>
+      <c r="E11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="50">
+        <v>2</v>
+      </c>
+      <c r="G11" s="50">
+        <v>5500</v>
+      </c>
+      <c r="H11" s="50">
+        <v>11000</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="472"/>
-      <c r="C12" s="188" t="s">
-        <v>518</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="50">
-        <v>1</v>
-      </c>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50">
-        <v>25500</v>
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="470"/>
+      <c r="C12" s="401" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="475"/>
+      <c r="E12" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="75">
+        <v>1</v>
+      </c>
+      <c r="G12" s="79"/>
+      <c r="H12" s="75">
+        <v>6500</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="472"/>
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="470"/>
       <c r="C13" s="188" t="s">
-        <v>472</v>
+        <v>78</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>519</v>
+        <v>51</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
+      <c r="F13" s="50">
+        <v>1</v>
+      </c>
+      <c r="G13" s="50">
+        <v>2500</v>
+      </c>
       <c r="H13" s="50">
-        <v>1500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="472"/>
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="470"/>
       <c r="C14" s="401" t="s">
-        <v>520</v>
+        <v>223</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G14" s="79"/>
       <c r="H14" s="75">
-        <v>2000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="472"/>
-      <c r="C15" s="234"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="79"/>
+      <c r="B15" s="470"/>
+      <c r="C15" s="369"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="75"/>
       <c r="G15" s="79"/>
-      <c r="H15" s="367">
-        <f>SUM(H11:H14)</f>
-        <v>112000</v>
+      <c r="H15" s="432">
+        <f>SUM(H3:H14)</f>
+        <v>180500</v>
       </c>
       <c r="J15" t="s">
         <v>509</v>
@@ -29496,49 +29813,84 @@
     <row r="16" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="470"/>
+      <c r="C16" s="193" t="s">
+        <v>518</v>
+      </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="50"/>
       <c r="G16" s="50"/>
-      <c r="H16" s="223"/>
+      <c r="H16" s="50">
+        <v>25500</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="193"/>
+      <c r="C17" s="193" t="s">
+        <v>531</v>
+      </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="50"/>
       <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
+      <c r="H17" s="50">
+        <v>16100</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="193"/>
+      <c r="C18" s="193" t="s">
+        <v>532</v>
+      </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="50"/>
       <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
+      <c r="H18" s="50">
+        <v>8000</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="255"/>
-      <c r="C19" s="470"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="193"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="50"/>
       <c r="G19" s="50"/>
-      <c r="H19" s="223"/>
+      <c r="H19" s="223">
+        <f>SUM(H15:H18)</f>
+        <v>230100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="354"/>
+      <c r="D20" s="474"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+    </row>
+    <row r="21" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
+      <c r="B21" s="255"/>
+      <c r="C21" s="468"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="223"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="C2:D2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.59" bottom="0.13" header="0.3" footer="0.12"/>
   <pageSetup paperSize="11" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GB-3  Sales.xlsx
+++ b/GB-3  Sales.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2325" uniqueCount="572">
   <si>
     <t>Oil Filter</t>
   </si>
@@ -1646,6 +1646,123 @@
   </si>
   <si>
     <t>ေကာ္မဲ/ေက်ာက္ျပား</t>
+  </si>
+  <si>
+    <t>7.9.2018</t>
+  </si>
+  <si>
+    <t>4Pk Fan Belt</t>
+  </si>
+  <si>
+    <t>3Pk Fan Belt</t>
+  </si>
+  <si>
+    <t>Battery 50AH</t>
+  </si>
+  <si>
+    <t>Air Cleaner 1103</t>
+  </si>
+  <si>
+    <t>NGK Plug 12-16</t>
+  </si>
+  <si>
+    <t>Meal 18*1500</t>
+  </si>
+  <si>
+    <t>8.9.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toyota Plug 18-14တံုး </t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>Swift</t>
+  </si>
+  <si>
+    <t>Bush</t>
+  </si>
+  <si>
+    <t>Kluger</t>
+  </si>
+  <si>
+    <t>Brake Shoe(5.9.2018)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AB </t>
+  </si>
+  <si>
+    <t>2Pcs</t>
+  </si>
+  <si>
+    <t>9.9.2018</t>
+  </si>
+  <si>
+    <t>Toyota Plug 18/16 S</t>
+  </si>
+  <si>
+    <t>S/Shock Absorber</t>
+  </si>
+  <si>
+    <t>N/Shock Absorber</t>
+  </si>
+  <si>
+    <t>Meal 14*1500</t>
+  </si>
+  <si>
+    <t>ျဖတ္ေက်ာက္စိမ္း</t>
+  </si>
+  <si>
+    <t>10.9.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lukoil 10W30 </t>
+  </si>
+  <si>
+    <t>Toyota Plug 12/16 S</t>
+  </si>
+  <si>
+    <t>Dis Brake 56mm</t>
+  </si>
+  <si>
+    <t>Air Cleaner 62J00-1108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canter </t>
+  </si>
+  <si>
+    <t>Brake ၀ါရွာ</t>
+  </si>
+  <si>
+    <t>GD-1</t>
+  </si>
+  <si>
+    <t>Meal 16*1500</t>
+  </si>
+  <si>
+    <t>စက္ေကာ္ပတ္/ပတ္တာပင္</t>
+  </si>
+  <si>
+    <t>11.9.2018</t>
+  </si>
+  <si>
+    <t>6pcs</t>
+  </si>
+  <si>
+    <t>Air Filter LX 2521</t>
+  </si>
+  <si>
+    <t>NGK Plug 12/16 S</t>
+  </si>
+  <si>
+    <t>Toyota Plug 12/16 3ငုတ္</t>
+  </si>
+  <si>
+    <t>Toyota Plug 18/14 ခ်ြန္</t>
+  </si>
+  <si>
+    <t>ေကာ္အနီ</t>
   </si>
 </sst>
 </file>
@@ -2188,7 +2305,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="484">
+  <cellXfs count="486">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3314,9 +3431,6 @@
     <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3385,12 +3499,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3414,6 +3536,9 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6838,10 +6963,10 @@
       <c r="B1" s="198" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="476" t="s">
+      <c r="C1" s="477" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="477"/>
+      <c r="D1" s="478"/>
       <c r="E1" s="198" t="s">
         <v>116</v>
       </c>
@@ -12218,10 +12343,10 @@
       <c r="B1" s="333" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="478" t="s">
+      <c r="C1" s="479" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="479"/>
+      <c r="D1" s="480"/>
       <c r="E1" s="333" t="s">
         <v>116</v>
       </c>
@@ -18176,10 +18301,10 @@
       <c r="B1" s="333" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="478" t="s">
+      <c r="C1" s="479" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="479"/>
+      <c r="D1" s="480"/>
       <c r="E1" s="333" t="s">
         <v>116</v>
       </c>
@@ -25192,13 +25317,13 @@
   <dimension ref="A1:Q362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K65" sqref="K65"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G142" sqref="G142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="101" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="101" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" style="101" customWidth="1"/>
     <col min="3" max="3" width="24.28515625" style="101" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" style="101" customWidth="1"/>
@@ -25217,10 +25342,10 @@
       <c r="B1" s="333" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="478" t="s">
+      <c r="C1" s="479" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="479"/>
+      <c r="D1" s="480"/>
       <c r="E1" s="333" t="s">
         <v>116</v>
       </c>
@@ -25419,7 +25544,7 @@
       <c r="B11" s="77" t="s">
         <v>508</v>
       </c>
-      <c r="C11" s="473" t="s">
+      <c r="C11" s="470" t="s">
         <v>500</v>
       </c>
       <c r="D11" s="77"/>
@@ -25427,7 +25552,7 @@
       <c r="F11" s="77">
         <v>1</v>
       </c>
-      <c r="G11" s="464"/>
+      <c r="G11" s="461"/>
       <c r="H11" s="184">
         <v>9000</v>
       </c>
@@ -25448,8 +25573,8 @@
       <c r="F12" s="410">
         <v>1</v>
       </c>
-      <c r="G12" s="466"/>
-      <c r="H12" s="466">
+      <c r="G12" s="463"/>
+      <c r="H12" s="463">
         <v>3500</v>
       </c>
       <c r="I12" s="338" t="s">
@@ -25464,7 +25589,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="414"/>
-      <c r="C13" s="473" t="s">
+      <c r="C13" s="470" t="s">
         <v>502</v>
       </c>
       <c r="D13" s="77"/>
@@ -25494,8 +25619,8 @@
       <c r="F14" s="410">
         <v>1</v>
       </c>
-      <c r="G14" s="466"/>
-      <c r="H14" s="466">
+      <c r="G14" s="463"/>
+      <c r="H14" s="463">
         <v>25500</v>
       </c>
       <c r="I14" s="87" t="s">
@@ -25515,8 +25640,8 @@
       <c r="F15" s="410">
         <v>1</v>
       </c>
-      <c r="G15" s="466"/>
-      <c r="H15" s="466">
+      <c r="G15" s="463"/>
+      <c r="H15" s="463">
         <v>3150</v>
       </c>
       <c r="I15" s="336" t="s">
@@ -25536,10 +25661,10 @@
       <c r="F16" s="410">
         <v>2</v>
       </c>
-      <c r="G16" s="466">
+      <c r="G16" s="463">
         <v>1500</v>
       </c>
-      <c r="H16" s="466">
+      <c r="H16" s="463">
         <v>3000</v>
       </c>
       <c r="I16" s="87" t="s">
@@ -25571,7 +25696,7 @@
       <c r="F18" s="396">
         <v>2</v>
       </c>
-      <c r="G18" s="465"/>
+      <c r="G18" s="462"/>
       <c r="H18" s="184">
         <v>7600</v>
       </c>
@@ -25588,7 +25713,7 @@
       <c r="F19" s="396">
         <v>5</v>
       </c>
-      <c r="G19" s="465"/>
+      <c r="G19" s="462"/>
       <c r="H19" s="184">
         <v>2000</v>
       </c>
@@ -25602,7 +25727,7 @@
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
       <c r="F20" s="396"/>
-      <c r="G20" s="465"/>
+      <c r="G20" s="462"/>
       <c r="H20" s="184">
         <v>28500</v>
       </c>
@@ -25637,7 +25762,7 @@
       <c r="F22" s="374">
         <v>7</v>
       </c>
-      <c r="G22" s="471">
+      <c r="G22" s="468">
         <v>3500</v>
       </c>
       <c r="H22" s="374">
@@ -25651,7 +25776,7 @@
       <c r="A23" s="4">
         <v>2</v>
       </c>
-      <c r="B23" s="469"/>
+      <c r="B23" s="466"/>
       <c r="C23" s="372" t="s">
         <v>329</v>
       </c>
@@ -25672,7 +25797,7 @@
       <c r="A24" s="4">
         <v>3</v>
       </c>
-      <c r="B24" s="469"/>
+      <c r="B24" s="466"/>
       <c r="C24" s="372" t="s">
         <v>299</v>
       </c>
@@ -25695,7 +25820,7 @@
       <c r="A25" s="4">
         <v>4</v>
       </c>
-      <c r="B25" s="469"/>
+      <c r="B25" s="466"/>
       <c r="C25" s="372" t="s">
         <v>127</v>
       </c>
@@ -25718,7 +25843,7 @@
       <c r="A26" s="4">
         <v>5</v>
       </c>
-      <c r="B26" s="469"/>
+      <c r="B26" s="466"/>
       <c r="C26" s="372" t="s">
         <v>188</v>
       </c>
@@ -25741,7 +25866,7 @@
       <c r="A27" s="4">
         <v>6</v>
       </c>
-      <c r="B27" s="469"/>
+      <c r="B27" s="466"/>
       <c r="C27" s="372" t="s">
         <v>162</v>
       </c>
@@ -25762,7 +25887,7 @@
       <c r="A28" s="4">
         <v>7</v>
       </c>
-      <c r="B28" s="470"/>
+      <c r="B28" s="467"/>
       <c r="C28" s="372" t="s">
         <v>197</v>
       </c>
@@ -25785,7 +25910,7 @@
       <c r="A29" s="4">
         <v>8</v>
       </c>
-      <c r="B29" s="470"/>
+      <c r="B29" s="467"/>
       <c r="C29" s="234" t="s">
         <v>402</v>
       </c>
@@ -25803,7 +25928,7 @@
       <c r="A30" s="4">
         <v>9</v>
       </c>
-      <c r="B30" s="470"/>
+      <c r="B30" s="467"/>
       <c r="C30" s="372" t="s">
         <v>512</v>
       </c>
@@ -25826,7 +25951,7 @@
       <c r="A31" s="4">
         <v>10</v>
       </c>
-      <c r="B31" s="470"/>
+      <c r="B31" s="467"/>
       <c r="C31" s="372" t="s">
         <v>223</v>
       </c>
@@ -25847,7 +25972,7 @@
       <c r="A32" s="4">
         <v>11</v>
       </c>
-      <c r="B32" s="470"/>
+      <c r="B32" s="467"/>
       <c r="C32" s="372" t="s">
         <v>350</v>
       </c>
@@ -25870,8 +25995,8 @@
       <c r="A33" s="4">
         <v>12</v>
       </c>
-      <c r="B33" s="470"/>
-      <c r="C33" s="472" t="s">
+      <c r="B33" s="467"/>
+      <c r="C33" s="469" t="s">
         <v>109</v>
       </c>
       <c r="D33" s="419" t="s">
@@ -25895,8 +26020,8 @@
       <c r="A34" s="4">
         <v>13</v>
       </c>
-      <c r="B34" s="470"/>
-      <c r="C34" s="472" t="s">
+      <c r="B34" s="467"/>
+      <c r="C34" s="469" t="s">
         <v>108</v>
       </c>
       <c r="D34" s="419" t="s">
@@ -25917,7 +26042,7 @@
     <row r="35" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
-      <c r="C35" s="468"/>
+      <c r="C35" s="465"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="50"/>
@@ -25960,7 +26085,7 @@
     <row r="38" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
       <c r="B38" s="255"/>
-      <c r="C38" s="468"/>
+      <c r="C38" s="465"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="50"/>
@@ -25977,60 +26102,69 @@
       <c r="B39" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="C39" s="188" t="s">
+      <c r="C39" s="372" t="s">
         <v>350</v>
       </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="50">
-        <v>1</v>
-      </c>
-      <c r="G39" s="467"/>
-      <c r="H39" s="50">
+      <c r="D39" s="373"/>
+      <c r="E39" s="373"/>
+      <c r="F39" s="374">
+        <v>1</v>
+      </c>
+      <c r="G39" s="468"/>
+      <c r="H39" s="374">
         <v>3000</v>
+      </c>
+      <c r="I39" s="101" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>2</v>
       </c>
-      <c r="B40" s="469"/>
-      <c r="C40" s="188" t="s">
+      <c r="B40" s="466"/>
+      <c r="C40" s="372" t="s">
         <v>108</v>
       </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="50">
-        <v>1</v>
-      </c>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50">
+      <c r="D40" s="373"/>
+      <c r="E40" s="373"/>
+      <c r="F40" s="374">
+        <v>1</v>
+      </c>
+      <c r="G40" s="374"/>
+      <c r="H40" s="374">
         <v>3500</v>
+      </c>
+      <c r="I40" s="101" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>3</v>
       </c>
-      <c r="B41" s="469"/>
-      <c r="C41" s="188" t="s">
+      <c r="B41" s="466"/>
+      <c r="C41" s="372" t="s">
         <v>54</v>
       </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="50">
-        <v>1</v>
-      </c>
-      <c r="G41" s="50"/>
-      <c r="H41" s="50">
+      <c r="D41" s="373"/>
+      <c r="E41" s="373"/>
+      <c r="F41" s="374">
+        <v>1</v>
+      </c>
+      <c r="G41" s="374"/>
+      <c r="H41" s="374">
         <v>4500</v>
+      </c>
+      <c r="I41" s="101" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>4</v>
       </c>
-      <c r="B42" s="469"/>
+      <c r="B42" s="466"/>
       <c r="C42" s="188" t="s">
         <v>78</v>
       </c>
@@ -26052,63 +26186,72 @@
       <c r="A43" s="4">
         <v>5</v>
       </c>
-      <c r="B43" s="469"/>
-      <c r="C43" s="188" t="s">
+      <c r="B43" s="466"/>
+      <c r="C43" s="372" t="s">
         <v>197</v>
       </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4" t="s">
+      <c r="D43" s="373"/>
+      <c r="E43" s="373" t="s">
         <v>22</v>
       </c>
-      <c r="F43" s="50">
-        <v>1</v>
-      </c>
-      <c r="G43" s="50"/>
-      <c r="H43" s="50">
+      <c r="F43" s="374">
+        <v>1</v>
+      </c>
+      <c r="G43" s="374"/>
+      <c r="H43" s="374">
         <v>24500</v>
+      </c>
+      <c r="I43" s="101" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>6</v>
       </c>
-      <c r="B44" s="469"/>
-      <c r="C44" s="188" t="s">
+      <c r="B44" s="466"/>
+      <c r="C44" s="372" t="s">
         <v>127</v>
       </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="50">
-        <v>1</v>
-      </c>
-      <c r="G44" s="50"/>
-      <c r="H44" s="50">
+      <c r="D44" s="373"/>
+      <c r="E44" s="373"/>
+      <c r="F44" s="374">
+        <v>1</v>
+      </c>
+      <c r="G44" s="374"/>
+      <c r="H44" s="374">
         <v>2000</v>
+      </c>
+      <c r="I44" s="101" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>7</v>
       </c>
-      <c r="B45" s="470"/>
-      <c r="C45" s="188" t="s">
+      <c r="B45" s="467"/>
+      <c r="C45" s="372" t="s">
         <v>109</v>
       </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="50">
-        <v>1</v>
-      </c>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50">
+      <c r="D45" s="373"/>
+      <c r="E45" s="373"/>
+      <c r="F45" s="374">
+        <v>1</v>
+      </c>
+      <c r="G45" s="374"/>
+      <c r="H45" s="374">
         <v>3500</v>
+      </c>
+      <c r="I45" s="101" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>8</v>
       </c>
-      <c r="B46" s="470"/>
+      <c r="B46" s="467"/>
       <c r="C46" s="193" t="s">
         <v>517</v>
       </c>
@@ -26126,7 +26269,7 @@
     </row>
     <row r="47" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
-      <c r="B47" s="470"/>
+      <c r="B47" s="467"/>
       <c r="C47" s="188"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -26139,7 +26282,7 @@
     </row>
     <row r="48" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
-      <c r="B48" s="470"/>
+      <c r="B48" s="467"/>
       <c r="C48" s="188" t="s">
         <v>518</v>
       </c>
@@ -26153,9 +26296,9 @@
         <v>25500</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
-      <c r="B49" s="470"/>
+      <c r="B49" s="467"/>
       <c r="C49" s="188" t="s">
         <v>472</v>
       </c>
@@ -26169,9 +26312,9 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
-      <c r="B50" s="470"/>
+      <c r="B50" s="467"/>
       <c r="C50" s="401" t="s">
         <v>520</v>
       </c>
@@ -26185,9 +26328,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
-      <c r="B51" s="470"/>
+      <c r="B51" s="467"/>
       <c r="C51" s="234"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -26198,254 +26341,293 @@
         <v>112000</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>1</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="C52" s="188" t="s">
+      <c r="C52" s="372" t="s">
         <v>196</v>
       </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4" t="s">
+      <c r="D52" s="373"/>
+      <c r="E52" s="373" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="50">
-        <v>1</v>
-      </c>
-      <c r="G52" s="467"/>
-      <c r="H52" s="50">
+      <c r="F52" s="374">
+        <v>1</v>
+      </c>
+      <c r="G52" s="468"/>
+      <c r="H52" s="374">
         <v>25500</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I52" s="101" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>2</v>
       </c>
-      <c r="B53" s="469"/>
-      <c r="C53" s="188" t="s">
+      <c r="B53" s="466"/>
+      <c r="C53" s="372" t="s">
         <v>196</v>
       </c>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4" t="s">
+      <c r="D53" s="373"/>
+      <c r="E53" s="373" t="s">
         <v>14</v>
       </c>
-      <c r="F53" s="50">
-        <v>1</v>
-      </c>
-      <c r="G53" s="50"/>
-      <c r="H53" s="50">
+      <c r="F53" s="374">
+        <v>1</v>
+      </c>
+      <c r="G53" s="374"/>
+      <c r="H53" s="374">
         <v>6000</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I53" s="101" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>3</v>
       </c>
-      <c r="B54" s="469"/>
-      <c r="C54" s="188" t="s">
+      <c r="B54" s="466"/>
+      <c r="C54" s="372" t="s">
         <v>524</v>
       </c>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="50">
-        <v>1</v>
-      </c>
-      <c r="G54" s="50"/>
-      <c r="H54" s="50">
+      <c r="D54" s="373"/>
+      <c r="E54" s="373"/>
+      <c r="F54" s="374">
+        <v>1</v>
+      </c>
+      <c r="G54" s="374"/>
+      <c r="H54" s="374">
         <v>2500</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I54" s="101" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>4</v>
       </c>
-      <c r="B55" s="469"/>
-      <c r="C55" s="188" t="s">
+      <c r="B55" s="466"/>
+      <c r="C55" s="372" t="s">
         <v>108</v>
       </c>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="50">
-        <v>1</v>
-      </c>
-      <c r="G55" s="50"/>
-      <c r="H55" s="50">
+      <c r="D55" s="373"/>
+      <c r="E55" s="373"/>
+      <c r="F55" s="374">
+        <v>1</v>
+      </c>
+      <c r="G55" s="374"/>
+      <c r="H55" s="374">
         <v>3500</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I55" s="101" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>5</v>
       </c>
-      <c r="B56" s="469"/>
-      <c r="C56" s="188" t="s">
+      <c r="B56" s="466"/>
+      <c r="C56" s="372" t="s">
         <v>109</v>
       </c>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="50">
-        <v>1</v>
-      </c>
-      <c r="G56" s="50"/>
-      <c r="H56" s="50">
+      <c r="D56" s="373"/>
+      <c r="E56" s="373"/>
+      <c r="F56" s="374">
+        <v>1</v>
+      </c>
+      <c r="G56" s="374"/>
+      <c r="H56" s="374">
         <v>3500</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I56" s="101" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>6</v>
       </c>
-      <c r="B57" s="469"/>
-      <c r="C57" s="188" t="s">
+      <c r="B57" s="466"/>
+      <c r="C57" s="372" t="s">
         <v>176</v>
       </c>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4" t="s">
+      <c r="D57" s="373"/>
+      <c r="E57" s="373" t="s">
         <v>22</v>
       </c>
-      <c r="F57" s="50">
-        <v>1</v>
-      </c>
-      <c r="G57" s="50"/>
-      <c r="H57" s="50">
+      <c r="F57" s="374">
+        <v>1</v>
+      </c>
+      <c r="G57" s="374"/>
+      <c r="H57" s="374">
         <v>34500</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I57" s="101" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>7</v>
       </c>
-      <c r="B58" s="470"/>
-      <c r="C58" s="188" t="s">
+      <c r="B58" s="467"/>
+      <c r="C58" s="372" t="s">
         <v>127</v>
       </c>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="50">
-        <v>1</v>
-      </c>
-      <c r="G58" s="50"/>
-      <c r="H58" s="50">
+      <c r="D58" s="373"/>
+      <c r="E58" s="373"/>
+      <c r="F58" s="374">
+        <v>1</v>
+      </c>
+      <c r="G58" s="374"/>
+      <c r="H58" s="374">
         <v>2000</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I58" s="101" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>8</v>
       </c>
-      <c r="B59" s="470"/>
-      <c r="C59" s="193" t="s">
+      <c r="B59" s="467"/>
+      <c r="C59" s="375" t="s">
         <v>228</v>
       </c>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4" t="s">
+      <c r="D59" s="373"/>
+      <c r="E59" s="373" t="s">
         <v>14</v>
       </c>
-      <c r="F59" s="50">
-        <v>1</v>
-      </c>
-      <c r="G59" s="50"/>
-      <c r="H59" s="50">
+      <c r="F59" s="374">
+        <v>1</v>
+      </c>
+      <c r="G59" s="374"/>
+      <c r="H59" s="374">
         <v>7000</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I59" s="101" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>9</v>
       </c>
-      <c r="B60" s="470"/>
-      <c r="C60" s="188" t="s">
+      <c r="B60" s="467"/>
+      <c r="C60" s="372" t="s">
         <v>171</v>
       </c>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="50">
+      <c r="D60" s="373"/>
+      <c r="E60" s="373"/>
+      <c r="F60" s="374">
         <v>2</v>
       </c>
-      <c r="G60" s="50">
+      <c r="G60" s="374">
         <v>3800</v>
       </c>
-      <c r="H60" s="50">
+      <c r="H60" s="374">
         <v>7600</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I60" s="101" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>10</v>
       </c>
-      <c r="B61" s="470"/>
-      <c r="C61" s="401" t="s">
+      <c r="B61" s="467"/>
+      <c r="C61" s="384" t="s">
         <v>197</v>
       </c>
-      <c r="D61" s="475"/>
-      <c r="E61" s="45" t="s">
+      <c r="D61" s="472"/>
+      <c r="E61" s="385" t="s">
         <v>22</v>
       </c>
-      <c r="F61" s="75">
-        <v>1</v>
-      </c>
-      <c r="G61" s="79"/>
-      <c r="H61" s="75">
+      <c r="F61" s="386">
+        <v>1</v>
+      </c>
+      <c r="G61" s="421"/>
+      <c r="H61" s="386">
         <v>24500</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I61" s="101" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>11</v>
       </c>
-      <c r="B62" s="470"/>
-      <c r="C62" s="188" t="s">
+      <c r="B62" s="467"/>
+      <c r="C62" s="372" t="s">
         <v>139</v>
       </c>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="50">
-        <v>1</v>
-      </c>
-      <c r="G62" s="50"/>
-      <c r="H62" s="50">
+      <c r="D62" s="373"/>
+      <c r="E62" s="373"/>
+      <c r="F62" s="374">
+        <v>1</v>
+      </c>
+      <c r="G62" s="374"/>
+      <c r="H62" s="374">
         <v>2500</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I62" s="101" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>12</v>
       </c>
-      <c r="B63" s="470"/>
-      <c r="C63" s="401" t="s">
+      <c r="B63" s="467"/>
+      <c r="C63" s="384" t="s">
         <v>54</v>
       </c>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="75">
-        <v>1</v>
-      </c>
-      <c r="G63" s="79"/>
-      <c r="H63" s="75">
+      <c r="D63" s="419"/>
+      <c r="E63" s="419"/>
+      <c r="F63" s="386">
+        <v>1</v>
+      </c>
+      <c r="G63" s="421"/>
+      <c r="H63" s="386">
         <v>4500</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I63" s="101" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>13</v>
       </c>
-      <c r="B64" s="470"/>
-      <c r="C64" s="369" t="s">
+      <c r="B64" s="467"/>
+      <c r="C64" s="412" t="s">
         <v>197</v>
       </c>
-      <c r="D64" s="45"/>
-      <c r="E64" s="45" t="s">
+      <c r="D64" s="385"/>
+      <c r="E64" s="385" t="s">
         <v>14</v>
       </c>
-      <c r="F64" s="75">
-        <v>1</v>
-      </c>
-      <c r="G64" s="79"/>
-      <c r="H64" s="75">
+      <c r="F64" s="386">
+        <v>1</v>
+      </c>
+      <c r="G64" s="421"/>
+      <c r="H64" s="386">
         <v>6500</v>
+      </c>
+      <c r="I64" s="101" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -26453,18 +26635,18 @@
         <v>14</v>
       </c>
       <c r="B65" s="4"/>
-      <c r="C65" s="193" t="s">
+      <c r="C65" s="444" t="s">
         <v>525</v>
       </c>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="50">
+      <c r="D65" s="235"/>
+      <c r="E65" s="235"/>
+      <c r="F65" s="353">
         <v>4</v>
       </c>
-      <c r="G65" s="50">
+      <c r="G65" s="353">
         <v>3500</v>
       </c>
-      <c r="H65" s="50">
+      <c r="H65" s="353">
         <v>14000</v>
       </c>
     </row>
@@ -26518,25 +26700,28 @@
     <row r="69" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
-      <c r="C69" s="354" t="s">
+      <c r="C69" s="384" t="s">
         <v>523</v>
       </c>
-      <c r="D69" s="474" t="s">
+      <c r="D69" s="472" t="s">
         <v>522</v>
       </c>
-      <c r="E69" s="8"/>
-      <c r="F69" s="79">
+      <c r="E69" s="385"/>
+      <c r="F69" s="386">
         <v>3</v>
       </c>
-      <c r="G69" s="79"/>
-      <c r="H69" s="79" t="s">
+      <c r="G69" s="386"/>
+      <c r="H69" s="386" t="s">
         <v>153</v>
+      </c>
+      <c r="I69" s="101" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="23"/>
       <c r="B70" s="255"/>
-      <c r="C70" s="468"/>
+      <c r="C70" s="465"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="50"/>
@@ -26547,753 +26732,1390 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="436"/>
-      <c r="D71" s="437"/>
-      <c r="E71" s="437"/>
-      <c r="F71" s="437"/>
-      <c r="G71" s="84"/>
-      <c r="H71" s="84"/>
+      <c r="A71" s="4">
+        <v>1</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="C71" s="188" t="s">
+        <v>225</v>
+      </c>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="50">
+        <v>2</v>
+      </c>
+      <c r="G71" s="464">
+        <v>1200</v>
+      </c>
+      <c r="H71" s="50">
+        <v>2400</v>
+      </c>
     </row>
     <row r="72" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="436"/>
-      <c r="D72" s="437"/>
-      <c r="E72" s="437"/>
-      <c r="F72" s="437"/>
-      <c r="G72" s="84"/>
-      <c r="H72" s="84"/>
+      <c r="A72" s="4">
+        <v>2</v>
+      </c>
+      <c r="B72" s="466"/>
+      <c r="C72" s="372" t="s">
+        <v>188</v>
+      </c>
+      <c r="D72" s="373"/>
+      <c r="E72" s="373" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" s="374">
+        <v>2</v>
+      </c>
+      <c r="G72" s="374">
+        <v>6000</v>
+      </c>
+      <c r="H72" s="374">
+        <v>12000</v>
+      </c>
+      <c r="I72" s="101" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="73" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="436"/>
-      <c r="D73" s="437"/>
-      <c r="E73" s="437"/>
-      <c r="F73" s="437"/>
-      <c r="G73" s="84"/>
-      <c r="H73" s="390"/>
+      <c r="A73" s="4">
+        <v>3</v>
+      </c>
+      <c r="B73" s="466"/>
+      <c r="C73" s="372" t="s">
+        <v>529</v>
+      </c>
+      <c r="D73" s="373"/>
+      <c r="E73" s="373"/>
+      <c r="F73" s="374">
+        <v>1</v>
+      </c>
+      <c r="G73" s="374"/>
+      <c r="H73" s="374">
+        <v>64500</v>
+      </c>
+      <c r="I73" s="101" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="74" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="439"/>
-      <c r="D74" s="89"/>
-      <c r="E74" s="89"/>
-      <c r="F74" s="83"/>
-      <c r="G74" s="84"/>
-      <c r="H74" s="84"/>
-      <c r="I74" s="341"/>
+      <c r="A74" s="4">
+        <v>4</v>
+      </c>
+      <c r="B74" s="466"/>
+      <c r="C74" s="372" t="s">
+        <v>530</v>
+      </c>
+      <c r="D74" s="373"/>
+      <c r="E74" s="373"/>
+      <c r="F74" s="374">
+        <v>1</v>
+      </c>
+      <c r="G74" s="374"/>
+      <c r="H74" s="374">
+        <v>23500</v>
+      </c>
+      <c r="I74" s="101" t="s">
+        <v>540</v>
+      </c>
       <c r="J74" s="341"/>
     </row>
     <row r="75" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="440"/>
-      <c r="D75" s="441"/>
-      <c r="E75" s="441"/>
-      <c r="F75" s="437"/>
-      <c r="G75" s="442"/>
-      <c r="H75" s="442"/>
+      <c r="A75" s="4">
+        <v>5</v>
+      </c>
+      <c r="B75" s="466"/>
+      <c r="C75" s="372" t="s">
+        <v>127</v>
+      </c>
+      <c r="D75" s="373"/>
+      <c r="E75" s="373"/>
+      <c r="F75" s="374">
+        <v>1</v>
+      </c>
+      <c r="G75" s="374"/>
+      <c r="H75" s="374">
+        <v>2000</v>
+      </c>
+      <c r="I75" s="101" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="76" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="192"/>
-      <c r="D76" s="89"/>
-      <c r="E76" s="89"/>
-      <c r="F76" s="83"/>
-      <c r="G76" s="84"/>
-      <c r="H76" s="84"/>
+      <c r="A76" s="4">
+        <v>6</v>
+      </c>
+      <c r="B76" s="466"/>
+      <c r="C76" s="234" t="s">
+        <v>128</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="79">
+        <v>4</v>
+      </c>
+      <c r="G76" s="79">
+        <v>3150</v>
+      </c>
+      <c r="H76" s="79">
+        <v>12600</v>
+      </c>
     </row>
     <row r="77" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="192"/>
-      <c r="D77" s="89"/>
-      <c r="E77" s="89"/>
-      <c r="F77" s="83"/>
-      <c r="G77" s="84"/>
-      <c r="H77" s="84"/>
+      <c r="A77" s="4">
+        <v>7</v>
+      </c>
+      <c r="B77" s="467"/>
+      <c r="C77" s="234" t="s">
+        <v>228</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F77" s="79">
+        <v>1</v>
+      </c>
+      <c r="G77" s="79"/>
+      <c r="H77" s="79">
+        <v>25500</v>
+      </c>
     </row>
     <row r="78" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="192"/>
-      <c r="D78" s="89"/>
-      <c r="E78" s="89"/>
-      <c r="F78" s="83"/>
-      <c r="G78" s="84"/>
-      <c r="H78" s="84"/>
+      <c r="A78" s="4">
+        <v>8</v>
+      </c>
+      <c r="B78" s="467"/>
+      <c r="C78" s="193" t="s">
+        <v>208</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E78" s="4"/>
+      <c r="F78" s="50">
+        <v>1</v>
+      </c>
+      <c r="G78" s="50"/>
+      <c r="H78" s="50">
+        <v>13000</v>
+      </c>
     </row>
     <row r="79" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="4"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="192"/>
-      <c r="D79" s="89"/>
-      <c r="E79" s="89"/>
-      <c r="F79" s="83"/>
-      <c r="G79" s="84"/>
-      <c r="H79" s="84"/>
+      <c r="A79" s="4">
+        <v>9</v>
+      </c>
+      <c r="B79" s="467"/>
+      <c r="C79" s="372" t="s">
+        <v>204</v>
+      </c>
+      <c r="D79" s="373"/>
+      <c r="E79" s="373" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" s="374">
+        <v>2</v>
+      </c>
+      <c r="G79" s="374">
+        <v>5500</v>
+      </c>
+      <c r="H79" s="374">
+        <v>11000</v>
+      </c>
+      <c r="I79" s="101" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="80" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="192"/>
-      <c r="D80" s="89"/>
-      <c r="E80" s="89"/>
-      <c r="F80" s="83"/>
-      <c r="G80" s="84"/>
-      <c r="H80" s="84"/>
+      <c r="A80" s="4">
+        <v>10</v>
+      </c>
+      <c r="B80" s="467"/>
+      <c r="C80" s="384" t="s">
+        <v>151</v>
+      </c>
+      <c r="D80" s="472"/>
+      <c r="E80" s="385" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="386">
+        <v>1</v>
+      </c>
+      <c r="G80" s="421"/>
+      <c r="H80" s="386">
+        <v>6500</v>
+      </c>
+      <c r="I80" s="101" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="81" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="192"/>
-      <c r="D81" s="89"/>
-      <c r="E81" s="89"/>
-      <c r="F81" s="83"/>
-      <c r="G81" s="84"/>
-      <c r="H81" s="84"/>
+      <c r="A81" s="4">
+        <v>11</v>
+      </c>
+      <c r="B81" s="467"/>
+      <c r="C81" s="188" t="s">
+        <v>78</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E81" s="4"/>
+      <c r="F81" s="50">
+        <v>1</v>
+      </c>
+      <c r="G81" s="50">
+        <v>2500</v>
+      </c>
+      <c r="H81" s="50">
+        <v>5000</v>
+      </c>
     </row>
     <row r="82" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="192"/>
-      <c r="D82" s="89"/>
-      <c r="E82" s="89"/>
-      <c r="F82" s="83"/>
-      <c r="G82" s="84"/>
-      <c r="H82" s="84"/>
+      <c r="A82" s="4">
+        <v>12</v>
+      </c>
+      <c r="B82" s="467"/>
+      <c r="C82" s="384" t="s">
+        <v>223</v>
+      </c>
+      <c r="D82" s="419"/>
+      <c r="E82" s="419"/>
+      <c r="F82" s="386">
+        <v>1</v>
+      </c>
+      <c r="G82" s="421"/>
+      <c r="H82" s="386">
+        <v>2500</v>
+      </c>
+      <c r="I82" s="101" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="83" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="440"/>
-      <c r="D83" s="441"/>
-      <c r="E83" s="441"/>
-      <c r="F83" s="437"/>
-      <c r="G83" s="84"/>
-      <c r="H83" s="84"/>
+      <c r="B83" s="467"/>
+      <c r="C83" s="369"/>
+      <c r="D83" s="45"/>
+      <c r="E83" s="45"/>
+      <c r="F83" s="75"/>
+      <c r="G83" s="79"/>
+      <c r="H83" s="432">
+        <f>SUM(H71:H82)</f>
+        <v>180500</v>
+      </c>
     </row>
     <row r="84" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="440"/>
-      <c r="D84" s="441"/>
-      <c r="E84" s="441"/>
-      <c r="F84" s="437"/>
-      <c r="G84" s="84"/>
-      <c r="H84" s="84"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="193" t="s">
+        <v>518</v>
+      </c>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="50"/>
+      <c r="G84" s="50"/>
+      <c r="H84" s="50">
+        <v>25500</v>
+      </c>
     </row>
     <row r="85" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="440"/>
-      <c r="D85" s="441"/>
-      <c r="E85" s="441"/>
-      <c r="F85" s="437"/>
-      <c r="G85" s="84"/>
-      <c r="H85" s="84"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="193" t="s">
+        <v>531</v>
+      </c>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="50"/>
+      <c r="G85" s="50"/>
+      <c r="H85" s="50">
+        <v>16100</v>
+      </c>
       <c r="N85" s="101" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="440"/>
-      <c r="D86" s="441"/>
-      <c r="E86" s="441"/>
-      <c r="F86" s="437"/>
-      <c r="G86" s="84"/>
-      <c r="H86" s="84"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="193" t="s">
+        <v>532</v>
+      </c>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="50"/>
+      <c r="G86" s="50"/>
+      <c r="H86" s="50">
+        <v>8000</v>
+      </c>
     </row>
     <row r="87" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="192"/>
-      <c r="D87" s="89"/>
-      <c r="E87" s="89"/>
-      <c r="F87" s="83"/>
-      <c r="G87" s="84"/>
-      <c r="H87" s="84"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="193"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="50"/>
+      <c r="G87" s="50"/>
+      <c r="H87" s="223">
+        <f>SUM(H83:H86)</f>
+        <v>230100</v>
+      </c>
     </row>
     <row r="88" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="192"/>
-      <c r="D88" s="89"/>
-      <c r="E88" s="89"/>
-      <c r="F88" s="83"/>
-      <c r="G88" s="84"/>
-      <c r="H88" s="390"/>
-      <c r="I88" s="341"/>
+      <c r="A88" s="4">
+        <v>1</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="C88" s="372" t="s">
+        <v>197</v>
+      </c>
+      <c r="D88" s="373"/>
+      <c r="E88" s="373" t="s">
+        <v>22</v>
+      </c>
+      <c r="F88" s="374">
+        <v>1</v>
+      </c>
+      <c r="G88" s="468"/>
+      <c r="H88" s="374">
+        <v>24500</v>
+      </c>
+      <c r="I88" s="101" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="89" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="4"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="192"/>
-      <c r="D89" s="89"/>
-      <c r="E89" s="89"/>
-      <c r="F89" s="83"/>
-      <c r="G89" s="84"/>
-      <c r="H89" s="84"/>
+      <c r="A89" s="4">
+        <v>2</v>
+      </c>
+      <c r="B89" s="466"/>
+      <c r="C89" s="372" t="s">
+        <v>127</v>
+      </c>
+      <c r="D89" s="373"/>
+      <c r="E89" s="373"/>
+      <c r="F89" s="374">
+        <v>2</v>
+      </c>
+      <c r="G89" s="374">
+        <v>2000</v>
+      </c>
+      <c r="H89" s="374">
+        <v>4000</v>
+      </c>
+      <c r="I89" s="101" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="90" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="4"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="192"/>
-      <c r="D90" s="89"/>
-      <c r="E90" s="89"/>
-      <c r="F90" s="83"/>
-      <c r="G90" s="83"/>
-      <c r="H90" s="85"/>
+      <c r="A90" s="4">
+        <v>3</v>
+      </c>
+      <c r="B90" s="466"/>
+      <c r="C90" s="188" t="s">
+        <v>534</v>
+      </c>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="50">
+        <v>1</v>
+      </c>
+      <c r="G90" s="50"/>
+      <c r="H90" s="50">
+        <v>7000</v>
+      </c>
     </row>
     <row r="91" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="443"/>
-      <c r="D91" s="89"/>
-      <c r="E91" s="443"/>
-      <c r="F91" s="444"/>
-      <c r="G91" s="444"/>
-      <c r="H91" s="445"/>
+      <c r="A91" s="4">
+        <v>4</v>
+      </c>
+      <c r="B91" s="466"/>
+      <c r="C91" s="188" t="s">
+        <v>535</v>
+      </c>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="50">
+        <v>1</v>
+      </c>
+      <c r="G91" s="50"/>
+      <c r="H91" s="50">
+        <v>4000</v>
+      </c>
     </row>
     <row r="92" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="4"/>
-      <c r="B92" s="396"/>
-      <c r="C92" s="443"/>
-      <c r="D92" s="89"/>
-      <c r="E92" s="443"/>
-      <c r="F92" s="83"/>
-      <c r="G92" s="93"/>
-      <c r="H92" s="93"/>
-    </row>
-    <row r="93" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="4"/>
-      <c r="B93" s="396"/>
-      <c r="C93" s="97"/>
-      <c r="D93" s="97"/>
-      <c r="E93" s="97"/>
-      <c r="F93" s="82"/>
-      <c r="G93" s="82"/>
-      <c r="H93" s="446"/>
-    </row>
-    <row r="94" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="3"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="439"/>
-      <c r="D94" s="89"/>
-      <c r="E94" s="89"/>
-      <c r="F94" s="83"/>
-      <c r="G94" s="84"/>
-      <c r="H94" s="84"/>
+      <c r="A92" s="4">
+        <v>5</v>
+      </c>
+      <c r="B92" s="466"/>
+      <c r="C92" s="188" t="s">
+        <v>536</v>
+      </c>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="50">
+        <v>1</v>
+      </c>
+      <c r="G92" s="50"/>
+      <c r="H92" s="50">
+        <v>82000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <v>6</v>
+      </c>
+      <c r="B93" s="466"/>
+      <c r="C93" s="372" t="s">
+        <v>537</v>
+      </c>
+      <c r="D93" s="373"/>
+      <c r="E93" s="373"/>
+      <c r="F93" s="374">
+        <v>1</v>
+      </c>
+      <c r="G93" s="374"/>
+      <c r="H93" s="374">
+        <v>2650</v>
+      </c>
+      <c r="I93" s="101" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="4">
+        <v>7</v>
+      </c>
+      <c r="B94" s="467"/>
+      <c r="C94" s="469" t="s">
+        <v>538</v>
+      </c>
+      <c r="D94" s="419"/>
+      <c r="E94" s="419"/>
+      <c r="F94" s="421">
+        <v>4</v>
+      </c>
+      <c r="G94" s="421">
+        <v>3800</v>
+      </c>
+      <c r="H94" s="421">
+        <v>15200</v>
+      </c>
+      <c r="I94" s="473" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="95" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="192"/>
-      <c r="D95" s="89"/>
-      <c r="E95" s="89"/>
-      <c r="F95" s="83"/>
-      <c r="G95" s="84"/>
-      <c r="H95" s="84"/>
+      <c r="A95" s="4">
+        <v>8</v>
+      </c>
+      <c r="B95" s="467"/>
+      <c r="C95" s="375" t="s">
+        <v>160</v>
+      </c>
+      <c r="D95" s="373"/>
+      <c r="E95" s="373" t="s">
+        <v>22</v>
+      </c>
+      <c r="F95" s="374">
+        <v>1</v>
+      </c>
+      <c r="G95" s="374"/>
+      <c r="H95" s="374">
+        <v>34500</v>
+      </c>
+      <c r="I95" s="101" t="s">
+        <v>540</v>
+      </c>
       <c r="K95" s="406"/>
     </row>
     <row r="96" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="192"/>
-      <c r="D96" s="89"/>
-      <c r="E96" s="89"/>
-      <c r="F96" s="83"/>
-      <c r="G96" s="84"/>
-      <c r="H96" s="84"/>
+      <c r="A96" s="4"/>
+      <c r="B96" s="467"/>
+      <c r="C96" s="188"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="50"/>
+      <c r="G96" s="50"/>
+      <c r="H96" s="223">
+        <f>SUM(H88:H95)</f>
+        <v>173850</v>
+      </c>
     </row>
     <row r="97" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="192"/>
-      <c r="D97" s="89"/>
-      <c r="E97" s="89"/>
-      <c r="F97" s="83"/>
-      <c r="G97" s="84"/>
-      <c r="H97" s="84"/>
+      <c r="A97" s="4"/>
+      <c r="B97" s="467"/>
+      <c r="C97" s="401" t="s">
+        <v>539</v>
+      </c>
+      <c r="D97" s="471"/>
+      <c r="E97" s="45"/>
+      <c r="F97" s="75"/>
+      <c r="G97" s="79"/>
+      <c r="H97" s="75">
+        <v>27000</v>
+      </c>
     </row>
     <row r="98" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="192"/>
-      <c r="D98" s="89"/>
-      <c r="E98" s="89"/>
-      <c r="F98" s="83"/>
-      <c r="G98" s="84"/>
-      <c r="H98" s="84"/>
+      <c r="A98" s="4"/>
+      <c r="B98" s="467"/>
+      <c r="C98" s="188"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="50"/>
+      <c r="G98" s="50"/>
+      <c r="H98" s="223">
+        <f>SUM(H96:H97)</f>
+        <v>200850</v>
+      </c>
     </row>
     <row r="99" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="192"/>
-      <c r="D99" s="89"/>
-      <c r="E99" s="89"/>
-      <c r="F99" s="83"/>
-      <c r="G99" s="84"/>
-      <c r="H99" s="84"/>
+      <c r="A99" s="4">
+        <v>1</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="C99" s="372" t="s">
+        <v>109</v>
+      </c>
+      <c r="D99" s="373"/>
+      <c r="E99" s="373"/>
+      <c r="F99" s="374">
+        <v>1</v>
+      </c>
+      <c r="G99" s="468"/>
+      <c r="H99" s="374">
+        <v>3500</v>
+      </c>
+      <c r="I99" s="101" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="100" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="447"/>
-      <c r="D100" s="448"/>
-      <c r="E100" s="448"/>
-      <c r="F100" s="235"/>
-      <c r="G100" s="353"/>
-      <c r="H100" s="353"/>
+      <c r="A100" s="4">
+        <v>2</v>
+      </c>
+      <c r="B100" s="466"/>
+      <c r="C100" s="375" t="s">
+        <v>541</v>
+      </c>
+      <c r="D100" s="373"/>
+      <c r="E100" s="373"/>
+      <c r="F100" s="374">
+        <v>4</v>
+      </c>
+      <c r="G100" s="374">
+        <v>2500</v>
+      </c>
+      <c r="H100" s="374">
+        <v>10000</v>
+      </c>
+      <c r="I100" s="101" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="101" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="192"/>
-      <c r="D101" s="89"/>
-      <c r="E101" s="89"/>
-      <c r="F101" s="83"/>
-      <c r="G101" s="84"/>
-      <c r="H101" s="84"/>
+      <c r="A101" s="4">
+        <v>3</v>
+      </c>
+      <c r="B101" s="466"/>
+      <c r="C101" s="188" t="s">
+        <v>542</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E101" s="4"/>
+      <c r="F101" s="50">
+        <v>2</v>
+      </c>
+      <c r="G101" s="50">
+        <v>9000</v>
+      </c>
+      <c r="H101" s="50">
+        <v>18000</v>
+      </c>
     </row>
     <row r="102" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="192"/>
-      <c r="D102" s="89"/>
-      <c r="E102" s="89"/>
-      <c r="F102" s="83"/>
-      <c r="G102" s="84"/>
-      <c r="H102" s="84"/>
+      <c r="A102" s="4">
+        <v>4</v>
+      </c>
+      <c r="B102" s="466"/>
+      <c r="C102" s="188" t="s">
+        <v>27</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="E102" s="4"/>
+      <c r="F102" s="50">
+        <v>1</v>
+      </c>
+      <c r="G102" s="50"/>
+      <c r="H102" s="50">
+        <v>17000</v>
+      </c>
     </row>
     <row r="103" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="440"/>
-      <c r="D103" s="441"/>
-      <c r="E103" s="441"/>
-      <c r="F103" s="437"/>
-      <c r="G103" s="84"/>
-      <c r="H103" s="84"/>
+      <c r="A103" s="4">
+        <v>5</v>
+      </c>
+      <c r="B103" s="466"/>
+      <c r="C103" s="188" t="s">
+        <v>544</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="E103" s="4"/>
+      <c r="F103" s="50">
+        <v>2</v>
+      </c>
+      <c r="G103" s="50">
+        <v>8000</v>
+      </c>
+      <c r="H103" s="50">
+        <v>16000</v>
+      </c>
     </row>
     <row r="104" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="440"/>
-      <c r="D104" s="441"/>
-      <c r="E104" s="441"/>
-      <c r="F104" s="437"/>
-      <c r="G104" s="84"/>
-      <c r="H104" s="84"/>
+      <c r="A104" s="4">
+        <v>6</v>
+      </c>
+      <c r="B104" s="466"/>
+      <c r="C104" s="188" t="s">
+        <v>218</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="E104" s="4"/>
+      <c r="F104" s="50">
+        <v>1</v>
+      </c>
+      <c r="G104" s="50">
+        <v>17000</v>
+      </c>
+      <c r="H104" s="50">
+        <v>34000</v>
+      </c>
     </row>
     <row r="105" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="440"/>
-      <c r="D105" s="441"/>
-      <c r="E105" s="441"/>
-      <c r="F105" s="437"/>
-      <c r="G105" s="84"/>
-      <c r="H105" s="390"/>
+      <c r="A105" s="4">
+        <v>7</v>
+      </c>
+      <c r="B105" s="467"/>
+      <c r="C105" s="188" t="s">
+        <v>542</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E105" s="4"/>
+      <c r="F105" s="50">
+        <v>2</v>
+      </c>
+      <c r="G105" s="50">
+        <v>9000</v>
+      </c>
+      <c r="H105" s="50">
+        <v>18000</v>
+      </c>
     </row>
     <row r="106" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="440"/>
-      <c r="D106" s="441"/>
-      <c r="E106" s="441"/>
-      <c r="F106" s="437"/>
-      <c r="G106" s="84"/>
-      <c r="H106" s="84"/>
+      <c r="A106" s="4"/>
+      <c r="B106" s="467"/>
+      <c r="C106" s="193"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="50"/>
+      <c r="G106" s="50"/>
+      <c r="H106" s="257">
+        <f>SUM(H99:H105)</f>
+        <v>116500</v>
+      </c>
     </row>
     <row r="107" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="192"/>
-      <c r="D107" s="89"/>
-      <c r="E107" s="89"/>
-      <c r="F107" s="83"/>
-      <c r="G107" s="84"/>
-      <c r="H107" s="390"/>
+      <c r="A107" s="4"/>
+      <c r="B107" s="467"/>
+      <c r="C107" s="188" t="s">
+        <v>546</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E107" s="4"/>
+      <c r="F107" s="50">
+        <v>1</v>
+      </c>
+      <c r="G107" s="50"/>
+      <c r="H107" s="50">
+        <v>14000</v>
+      </c>
       <c r="N107" s="101" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
-      <c r="B108" s="4"/>
-      <c r="C108" s="387"/>
-      <c r="D108" s="83"/>
-      <c r="E108" s="83"/>
-      <c r="F108" s="83"/>
-      <c r="G108" s="84"/>
-      <c r="H108" s="84"/>
+      <c r="A108" s="4"/>
+      <c r="B108" s="467"/>
+      <c r="C108" s="401" t="s">
+        <v>102</v>
+      </c>
+      <c r="D108" s="471"/>
+      <c r="E108" s="45"/>
+      <c r="F108" s="75">
+        <v>1</v>
+      </c>
+      <c r="G108" s="79"/>
+      <c r="H108" s="75">
+        <v>500</v>
+      </c>
     </row>
     <row r="109" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="3"/>
-      <c r="B109" s="4"/>
-      <c r="C109" s="192"/>
-      <c r="D109" s="83"/>
-      <c r="E109" s="83"/>
-      <c r="F109" s="83"/>
-      <c r="G109" s="84"/>
-      <c r="H109" s="84"/>
+      <c r="A109" s="4"/>
+      <c r="B109" s="467"/>
+      <c r="C109" s="188" t="s">
+        <v>547</v>
+      </c>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="50">
+        <v>3</v>
+      </c>
+      <c r="G109" s="50">
+        <v>4000</v>
+      </c>
+      <c r="H109" s="50">
+        <v>12000</v>
+      </c>
     </row>
     <row r="110" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="3"/>
-      <c r="B110" s="4"/>
-      <c r="C110" s="192"/>
-      <c r="D110" s="83"/>
-      <c r="E110" s="83"/>
-      <c r="F110" s="83"/>
-      <c r="G110" s="84"/>
-      <c r="H110" s="84"/>
+      <c r="A110" s="4"/>
+      <c r="B110" s="467"/>
+      <c r="C110" s="401" t="s">
+        <v>539</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="75"/>
+      <c r="G110" s="79"/>
+      <c r="H110" s="75">
+        <v>27000</v>
+      </c>
     </row>
     <row r="111" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="3"/>
-      <c r="B111" s="4"/>
-      <c r="C111" s="447"/>
-      <c r="D111" s="235"/>
-      <c r="E111" s="235"/>
-      <c r="F111" s="235"/>
-      <c r="G111" s="353"/>
-      <c r="H111" s="353"/>
-    </row>
-    <row r="112" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="3"/>
-      <c r="B112" s="4"/>
-      <c r="C112" s="192"/>
-      <c r="D112" s="83"/>
-      <c r="E112" s="83"/>
-      <c r="F112" s="83"/>
-      <c r="G112" s="84"/>
-      <c r="H112" s="84"/>
-    </row>
-    <row r="113" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="3"/>
-      <c r="B113" s="4"/>
-      <c r="C113" s="192"/>
-      <c r="D113" s="83"/>
-      <c r="E113" s="83"/>
-      <c r="F113" s="83"/>
-      <c r="G113" s="84"/>
-      <c r="H113" s="84"/>
-    </row>
-    <row r="114" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="3"/>
-      <c r="B114" s="4"/>
-      <c r="C114" s="192"/>
-      <c r="D114" s="83"/>
-      <c r="E114" s="83"/>
-      <c r="F114" s="83"/>
-      <c r="G114" s="84"/>
-      <c r="H114" s="84"/>
-    </row>
-    <row r="115" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="3"/>
-      <c r="B115" s="4"/>
-      <c r="C115" s="192"/>
-      <c r="D115" s="83"/>
-      <c r="E115" s="83"/>
-      <c r="F115" s="83"/>
-      <c r="G115" s="84"/>
-      <c r="H115" s="84"/>
-    </row>
-    <row r="116" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="3"/>
-      <c r="B116" s="4"/>
-      <c r="C116" s="192"/>
-      <c r="D116" s="83"/>
-      <c r="E116" s="83"/>
-      <c r="F116" s="83"/>
-      <c r="G116" s="84"/>
-      <c r="H116" s="84"/>
-    </row>
-    <row r="117" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="3"/>
-      <c r="B117" s="4"/>
-      <c r="C117" s="440"/>
-      <c r="D117" s="437"/>
-      <c r="E117" s="437"/>
-      <c r="F117" s="437"/>
-      <c r="G117" s="84"/>
-      <c r="H117" s="84"/>
-    </row>
-    <row r="118" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="3"/>
-      <c r="B118" s="4"/>
-      <c r="C118" s="440"/>
-      <c r="D118" s="437"/>
-      <c r="E118" s="437"/>
-      <c r="F118" s="437"/>
-      <c r="G118" s="84"/>
-      <c r="H118" s="84"/>
-    </row>
-    <row r="119" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
-      <c r="B119" s="4"/>
-      <c r="C119" s="440"/>
-      <c r="D119" s="437"/>
-      <c r="E119" s="437"/>
-      <c r="F119" s="437"/>
-      <c r="G119" s="442"/>
-      <c r="H119" s="442"/>
-    </row>
-    <row r="120" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
-      <c r="B120" s="4"/>
-      <c r="C120" s="440"/>
-      <c r="D120" s="437"/>
-      <c r="E120" s="437"/>
-      <c r="F120" s="437"/>
-      <c r="G120" s="84"/>
-      <c r="H120" s="84"/>
-    </row>
-    <row r="121" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
-      <c r="B121" s="4"/>
-      <c r="C121" s="440"/>
-      <c r="D121" s="437"/>
-      <c r="E121" s="437"/>
-      <c r="F121" s="437"/>
-      <c r="G121" s="84"/>
-      <c r="H121" s="391"/>
-    </row>
-    <row r="122" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="3"/>
-      <c r="B122" s="4"/>
-      <c r="C122" s="192"/>
-      <c r="D122" s="83"/>
-      <c r="E122" s="83"/>
-      <c r="F122" s="83"/>
-      <c r="G122" s="84"/>
-      <c r="H122" s="84"/>
-    </row>
-    <row r="123" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="3"/>
-      <c r="B123" s="4"/>
-      <c r="C123" s="192"/>
-      <c r="D123" s="83"/>
-      <c r="E123" s="83"/>
-      <c r="F123" s="83"/>
-      <c r="G123" s="84"/>
-      <c r="H123" s="84"/>
-    </row>
-    <row r="124" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="3"/>
-      <c r="B124" s="4"/>
-      <c r="C124" s="192"/>
-      <c r="D124" s="83"/>
-      <c r="E124" s="83"/>
-      <c r="F124" s="83"/>
-      <c r="G124" s="84"/>
-      <c r="H124" s="84"/>
-    </row>
-    <row r="125" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="3"/>
-      <c r="B125" s="4"/>
-      <c r="C125" s="449"/>
-      <c r="D125" s="83"/>
-      <c r="E125" s="83"/>
-      <c r="F125" s="83"/>
-      <c r="G125" s="83"/>
-      <c r="H125" s="438"/>
-    </row>
-    <row r="126" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="3"/>
-      <c r="B126" s="4"/>
-      <c r="C126" s="444"/>
-      <c r="D126" s="83"/>
-      <c r="E126" s="444"/>
-      <c r="F126" s="83"/>
-      <c r="G126" s="444"/>
-      <c r="H126" s="445"/>
-    </row>
-    <row r="127" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="396"/>
-      <c r="B127" s="77"/>
-      <c r="C127" s="444"/>
-      <c r="D127" s="83"/>
-      <c r="E127" s="444"/>
-      <c r="F127" s="83"/>
-      <c r="G127" s="93"/>
-      <c r="H127" s="93"/>
-    </row>
-    <row r="128" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="396"/>
-      <c r="B128" s="77"/>
-      <c r="C128" s="387"/>
-      <c r="D128" s="83"/>
-      <c r="E128" s="82"/>
-      <c r="F128" s="83"/>
-      <c r="G128" s="82"/>
-      <c r="H128" s="98"/>
-    </row>
-    <row r="129" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="396"/>
-      <c r="B129" s="77"/>
-      <c r="C129" s="387"/>
-      <c r="D129" s="83"/>
-      <c r="E129" s="82"/>
-      <c r="F129" s="83"/>
-      <c r="G129" s="82"/>
-      <c r="H129" s="98"/>
-    </row>
-    <row r="130" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
-      <c r="C130" s="439"/>
-      <c r="D130" s="89"/>
-      <c r="E130" s="89"/>
-      <c r="F130" s="89"/>
-      <c r="G130" s="450"/>
-      <c r="H130" s="84"/>
-    </row>
-    <row r="131" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
-      <c r="C131" s="435"/>
-      <c r="D131" s="89"/>
-      <c r="E131" s="89"/>
-      <c r="F131" s="83"/>
-      <c r="G131" s="450"/>
-      <c r="H131" s="84"/>
-    </row>
-    <row r="132" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="435"/>
-      <c r="D132" s="89"/>
-      <c r="E132" s="89"/>
-      <c r="F132" s="89"/>
-      <c r="G132" s="450"/>
-      <c r="H132" s="390"/>
-    </row>
-    <row r="133" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="4"/>
-      <c r="B133" s="4"/>
-      <c r="C133" s="439"/>
-      <c r="D133" s="89"/>
-      <c r="E133" s="89"/>
-      <c r="F133" s="83"/>
-      <c r="G133" s="84"/>
-      <c r="H133" s="84"/>
-    </row>
-    <row r="134" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="4"/>
-      <c r="B134" s="3"/>
-      <c r="C134" s="435"/>
-      <c r="D134" s="89"/>
-      <c r="E134" s="89"/>
-      <c r="F134" s="83"/>
-      <c r="G134" s="84"/>
-      <c r="H134" s="84"/>
-    </row>
-    <row r="135" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="4"/>
-      <c r="B135" s="3"/>
-      <c r="C135" s="192"/>
-      <c r="D135" s="89"/>
-      <c r="E135" s="89"/>
-      <c r="F135" s="83"/>
-      <c r="G135" s="84"/>
-      <c r="H135" s="84"/>
-    </row>
-    <row r="136" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="4"/>
-      <c r="B136" s="3"/>
-      <c r="C136" s="435"/>
-      <c r="D136" s="89"/>
-      <c r="E136" s="89"/>
-      <c r="F136" s="83"/>
-      <c r="G136" s="84"/>
-      <c r="H136" s="84"/>
-    </row>
-    <row r="137" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="4"/>
-      <c r="B137" s="3"/>
-      <c r="C137" s="435"/>
-      <c r="D137" s="89"/>
-      <c r="E137" s="89"/>
-      <c r="F137" s="83"/>
-      <c r="G137" s="84"/>
-      <c r="H137" s="84"/>
-    </row>
-    <row r="138" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="3"/>
-      <c r="B138" s="3"/>
-      <c r="C138" s="435"/>
-      <c r="D138" s="89"/>
-      <c r="E138" s="89"/>
-      <c r="F138" s="83"/>
-      <c r="G138" s="450"/>
-      <c r="H138" s="391"/>
-    </row>
-    <row r="139" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
-      <c r="C139" s="435"/>
-      <c r="D139" s="89"/>
-      <c r="E139" s="89"/>
-      <c r="F139" s="83"/>
-      <c r="G139" s="450"/>
-      <c r="H139" s="84"/>
-    </row>
-    <row r="140" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="4"/>
+      <c r="B111" s="467"/>
+      <c r="C111" s="369"/>
+      <c r="D111" s="45"/>
+      <c r="E111" s="45"/>
+      <c r="F111" s="75"/>
+      <c r="G111" s="79"/>
+      <c r="H111" s="432">
+        <f>SUM(H106:H110)</f>
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="4">
+        <v>1</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="C112" s="469" t="s">
+        <v>550</v>
+      </c>
+      <c r="D112" s="419"/>
+      <c r="E112" s="419"/>
+      <c r="F112" s="421">
+        <v>8</v>
+      </c>
+      <c r="G112" s="475">
+        <v>3000</v>
+      </c>
+      <c r="H112" s="421">
+        <v>24000</v>
+      </c>
+      <c r="I112" s="473" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="4">
+        <v>2</v>
+      </c>
+      <c r="B113" s="466"/>
+      <c r="C113" s="193" t="s">
+        <v>551</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E113" s="4"/>
+      <c r="F113" s="50">
+        <v>2</v>
+      </c>
+      <c r="G113" s="50">
+        <v>34000</v>
+      </c>
+      <c r="H113" s="50">
+        <v>68000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="4">
+        <v>3</v>
+      </c>
+      <c r="B114" s="466"/>
+      <c r="C114" s="188" t="s">
+        <v>552</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E114" s="4"/>
+      <c r="F114" s="50">
+        <v>2</v>
+      </c>
+      <c r="G114" s="50">
+        <v>24000</v>
+      </c>
+      <c r="H114" s="50">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="4">
+        <v>4</v>
+      </c>
+      <c r="B115" s="466"/>
+      <c r="C115" s="372" t="s">
+        <v>151</v>
+      </c>
+      <c r="D115" s="373"/>
+      <c r="E115" s="373" t="s">
+        <v>14</v>
+      </c>
+      <c r="F115" s="374">
+        <v>2</v>
+      </c>
+      <c r="G115" s="374">
+        <v>6500</v>
+      </c>
+      <c r="H115" s="374">
+        <v>13000</v>
+      </c>
+      <c r="I115" s="101" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="4"/>
+      <c r="B116" s="466"/>
+      <c r="C116" s="188"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="50"/>
+      <c r="G116" s="50"/>
+      <c r="H116" s="223">
+        <f>SUM(H112:H115)</f>
+        <v>153000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="4"/>
+      <c r="B117" s="466"/>
+      <c r="C117" s="188" t="s">
+        <v>553</v>
+      </c>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="50"/>
+      <c r="G117" s="50"/>
+      <c r="H117" s="50">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="4"/>
+      <c r="B118" s="467"/>
+      <c r="C118" s="193" t="s">
+        <v>554</v>
+      </c>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="50">
+        <v>8</v>
+      </c>
+      <c r="G118" s="50">
+        <v>400</v>
+      </c>
+      <c r="H118" s="50">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="4"/>
+      <c r="B119" s="467"/>
+      <c r="C119" s="193"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="50"/>
+      <c r="G119" s="50"/>
+      <c r="H119" s="257">
+        <f>SUM(H116:H118)</f>
+        <v>177200</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
+        <v>1</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="C120" s="372" t="s">
+        <v>556</v>
+      </c>
+      <c r="D120" s="373"/>
+      <c r="E120" s="373" t="s">
+        <v>22</v>
+      </c>
+      <c r="F120" s="374">
+        <v>1</v>
+      </c>
+      <c r="G120" s="468"/>
+      <c r="H120" s="374">
+        <v>23400</v>
+      </c>
+      <c r="I120" s="101" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="4">
+        <v>2</v>
+      </c>
+      <c r="B121" s="466"/>
+      <c r="C121" s="375" t="s">
+        <v>127</v>
+      </c>
+      <c r="D121" s="373"/>
+      <c r="E121" s="373"/>
+      <c r="F121" s="374">
+        <v>2</v>
+      </c>
+      <c r="G121" s="374">
+        <v>2000</v>
+      </c>
+      <c r="H121" s="374">
+        <v>4000</v>
+      </c>
+      <c r="I121" s="101" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="4">
+        <v>3</v>
+      </c>
+      <c r="B122" s="466"/>
+      <c r="C122" s="234" t="s">
+        <v>557</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="79">
+        <v>3</v>
+      </c>
+      <c r="G122" s="79">
+        <v>3150</v>
+      </c>
+      <c r="H122" s="79">
+        <v>9450</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="4">
+        <v>4</v>
+      </c>
+      <c r="B123" s="466"/>
+      <c r="C123" s="372" t="s">
+        <v>109</v>
+      </c>
+      <c r="D123" s="373"/>
+      <c r="E123" s="373"/>
+      <c r="F123" s="374">
+        <v>6</v>
+      </c>
+      <c r="G123" s="374">
+        <v>3500</v>
+      </c>
+      <c r="H123" s="374">
+        <v>21000</v>
+      </c>
+      <c r="I123" s="101" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="4">
+        <v>5</v>
+      </c>
+      <c r="B124" s="466"/>
+      <c r="C124" s="188" t="s">
+        <v>558</v>
+      </c>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="50">
+        <v>2</v>
+      </c>
+      <c r="G124" s="50">
+        <v>500</v>
+      </c>
+      <c r="H124" s="50">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="4">
+        <v>6</v>
+      </c>
+      <c r="B125" s="466"/>
+      <c r="C125" s="372" t="s">
+        <v>151</v>
+      </c>
+      <c r="D125" s="373"/>
+      <c r="E125" s="373" t="s">
+        <v>22</v>
+      </c>
+      <c r="F125" s="374">
+        <v>1</v>
+      </c>
+      <c r="G125" s="374"/>
+      <c r="H125" s="374">
+        <v>24500</v>
+      </c>
+      <c r="I125" s="101" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="4">
+        <v>7</v>
+      </c>
+      <c r="B126" s="467"/>
+      <c r="C126" s="375" t="s">
+        <v>284</v>
+      </c>
+      <c r="D126" s="373"/>
+      <c r="E126" s="373" t="s">
+        <v>22</v>
+      </c>
+      <c r="F126" s="374">
+        <v>1</v>
+      </c>
+      <c r="G126" s="374"/>
+      <c r="H126" s="374">
+        <v>36500</v>
+      </c>
+      <c r="I126" s="101" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="4">
+        <v>8</v>
+      </c>
+      <c r="B127" s="467"/>
+      <c r="C127" s="354" t="s">
+        <v>559</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="79">
+        <v>1</v>
+      </c>
+      <c r="G127" s="79"/>
+      <c r="H127" s="79">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="4">
+        <v>9</v>
+      </c>
+      <c r="B128" s="467"/>
+      <c r="C128" s="188" t="s">
+        <v>27</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="E128" s="4"/>
+      <c r="F128" s="50">
+        <v>1</v>
+      </c>
+      <c r="G128" s="50"/>
+      <c r="H128" s="50">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="4">
+        <v>10</v>
+      </c>
+      <c r="B129" s="467"/>
+      <c r="C129" s="401" t="s">
+        <v>27</v>
+      </c>
+      <c r="D129" s="471" t="s">
+        <v>562</v>
+      </c>
+      <c r="E129" s="45"/>
+      <c r="F129" s="75">
+        <v>1</v>
+      </c>
+      <c r="G129" s="79"/>
+      <c r="H129" s="75">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="4">
+        <v>11</v>
+      </c>
+      <c r="B130" s="467"/>
+      <c r="C130" s="384" t="s">
+        <v>54</v>
+      </c>
+      <c r="D130" s="472"/>
+      <c r="E130" s="385"/>
+      <c r="F130" s="386">
+        <v>1</v>
+      </c>
+      <c r="G130" s="421"/>
+      <c r="H130" s="386">
+        <v>4500</v>
+      </c>
+      <c r="I130" s="101" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="4">
+        <v>12</v>
+      </c>
+      <c r="B131" s="467"/>
+      <c r="C131" s="372" t="s">
+        <v>223</v>
+      </c>
+      <c r="D131" s="373"/>
+      <c r="E131" s="373"/>
+      <c r="F131" s="374">
+        <v>1</v>
+      </c>
+      <c r="G131" s="374"/>
+      <c r="H131" s="374">
+        <v>2500</v>
+      </c>
+      <c r="I131" s="101" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="4">
+        <v>13</v>
+      </c>
+      <c r="B132" s="467"/>
+      <c r="C132" s="401" t="s">
+        <v>561</v>
+      </c>
+      <c r="D132" s="45" t="s">
+        <v>560</v>
+      </c>
+      <c r="E132" s="8"/>
+      <c r="F132" s="75">
+        <v>2</v>
+      </c>
+      <c r="G132" s="75">
+        <v>500</v>
+      </c>
+      <c r="H132" s="75">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="4">
+        <v>14</v>
+      </c>
+      <c r="B133" s="467"/>
+      <c r="C133" s="369" t="s">
+        <v>27</v>
+      </c>
+      <c r="D133" s="45" t="s">
+        <v>560</v>
+      </c>
+      <c r="E133" s="45"/>
+      <c r="F133" s="75">
+        <v>2</v>
+      </c>
+      <c r="G133" s="75">
+        <v>16000</v>
+      </c>
+      <c r="H133" s="75">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="50">
+        <v>15</v>
+      </c>
+      <c r="B134" s="50"/>
+      <c r="C134" s="476" t="s">
+        <v>228</v>
+      </c>
+      <c r="D134" s="79"/>
+      <c r="E134" s="79" t="s">
+        <v>22</v>
+      </c>
+      <c r="F134" s="79">
+        <v>1</v>
+      </c>
+      <c r="G134" s="79"/>
+      <c r="H134" s="79">
+        <v>25500</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="50"/>
+      <c r="B135" s="50"/>
+      <c r="C135" s="50"/>
+      <c r="D135" s="50"/>
+      <c r="E135" s="50"/>
+      <c r="F135" s="50"/>
+      <c r="G135" s="50"/>
+      <c r="H135" s="223">
+        <f>SUM(H120:H134)</f>
+        <v>231000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="50"/>
+      <c r="B136" s="50"/>
+      <c r="C136" s="238" t="s">
+        <v>563</v>
+      </c>
+      <c r="D136" s="50"/>
+      <c r="E136" s="50"/>
+      <c r="F136" s="50"/>
+      <c r="G136" s="50"/>
+      <c r="H136" s="50">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A137" s="26"/>
+      <c r="B137" s="26"/>
+      <c r="C137" s="474" t="s">
+        <v>554</v>
+      </c>
+      <c r="D137" s="26"/>
+      <c r="E137" s="26"/>
+      <c r="F137" s="4">
+        <v>1</v>
+      </c>
+      <c r="G137" s="26"/>
+      <c r="H137" s="50">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A138" s="26"/>
+      <c r="B138" s="26"/>
+      <c r="C138" s="474" t="s">
+        <v>564</v>
+      </c>
+      <c r="D138" s="26"/>
+      <c r="E138" s="26"/>
+      <c r="F138" s="4">
+        <v>2</v>
+      </c>
+      <c r="G138" s="26"/>
+      <c r="H138" s="50">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="26"/>
+      <c r="B139" s="26"/>
+      <c r="C139" s="26"/>
+      <c r="D139" s="26"/>
+      <c r="E139" s="26"/>
+      <c r="F139" s="26"/>
+      <c r="G139" s="26"/>
+      <c r="H139" s="364">
+        <f>SUM(H135:H138)</f>
+        <v>261600</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="435"/>
       <c r="D140" s="89"/>
       <c r="E140" s="89"/>
       <c r="F140" s="83"/>
-      <c r="G140" s="450"/>
+      <c r="G140" s="447"/>
       <c r="H140" s="84"/>
     </row>
-    <row r="141" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="435"/>
       <c r="D141" s="89"/>
       <c r="E141" s="89"/>
       <c r="F141" s="89"/>
-      <c r="G141" s="450"/>
+      <c r="G141" s="447"/>
       <c r="H141" s="390"/>
     </row>
-    <row r="142" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="387"/>
       <c r="D142" s="89"/>
       <c r="E142" s="89"/>
       <c r="F142" s="89"/>
-      <c r="G142" s="450"/>
+      <c r="G142" s="447"/>
       <c r="H142" s="84"/>
     </row>
-    <row r="143" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="3"/>
       <c r="C143" s="192"/>
       <c r="D143" s="89"/>
       <c r="E143" s="89"/>
       <c r="F143" s="89"/>
-      <c r="G143" s="450"/>
+      <c r="G143" s="447"/>
       <c r="H143" s="84"/>
     </row>
-    <row r="144" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="3"/>
       <c r="C144" s="192"/>
       <c r="D144" s="89"/>
       <c r="E144" s="89"/>
       <c r="F144" s="89"/>
-      <c r="G144" s="450"/>
+      <c r="G144" s="447"/>
       <c r="H144" s="84"/>
     </row>
     <row r="145" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27323,7 +28145,7 @@
       <c r="D147" s="89"/>
       <c r="E147" s="89"/>
       <c r="F147" s="83"/>
-      <c r="G147" s="450"/>
+      <c r="G147" s="447"/>
       <c r="H147" s="84"/>
     </row>
     <row r="148" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27333,7 +28155,7 @@
       <c r="D148" s="89"/>
       <c r="E148" s="89"/>
       <c r="F148" s="83"/>
-      <c r="G148" s="450"/>
+      <c r="G148" s="447"/>
       <c r="H148" s="390"/>
     </row>
     <row r="149" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27343,7 +28165,7 @@
       <c r="D149" s="89"/>
       <c r="E149" s="89"/>
       <c r="F149" s="89"/>
-      <c r="G149" s="450"/>
+      <c r="G149" s="447"/>
       <c r="H149" s="84"/>
     </row>
     <row r="150" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27353,7 +28175,7 @@
       <c r="D150" s="89"/>
       <c r="E150" s="89"/>
       <c r="F150" s="89"/>
-      <c r="G150" s="450"/>
+      <c r="G150" s="447"/>
       <c r="H150" s="84"/>
     </row>
     <row r="151" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27363,7 +28185,7 @@
       <c r="D151" s="89"/>
       <c r="E151" s="89"/>
       <c r="F151" s="89"/>
-      <c r="G151" s="450"/>
+      <c r="G151" s="447"/>
       <c r="H151" s="84"/>
     </row>
     <row r="152" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27373,7 +28195,7 @@
       <c r="D152" s="89"/>
       <c r="E152" s="89"/>
       <c r="F152" s="89"/>
-      <c r="G152" s="450"/>
+      <c r="G152" s="447"/>
       <c r="H152" s="84"/>
     </row>
     <row r="153" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27383,7 +28205,7 @@
       <c r="D153" s="89"/>
       <c r="E153" s="89"/>
       <c r="F153" s="89"/>
-      <c r="G153" s="450"/>
+      <c r="G153" s="447"/>
       <c r="H153" s="84"/>
     </row>
     <row r="154" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27413,7 +28235,7 @@
       <c r="D156" s="89"/>
       <c r="E156" s="89"/>
       <c r="F156" s="83"/>
-      <c r="G156" s="450"/>
+      <c r="G156" s="447"/>
       <c r="H156" s="390"/>
     </row>
     <row r="157" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27433,7 +28255,7 @@
       <c r="D158" s="83"/>
       <c r="E158" s="89"/>
       <c r="F158" s="89"/>
-      <c r="G158" s="450"/>
+      <c r="G158" s="447"/>
       <c r="H158" s="84"/>
     </row>
     <row r="159" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27443,7 +28265,7 @@
       <c r="D159" s="83"/>
       <c r="E159" s="89"/>
       <c r="F159" s="89"/>
-      <c r="G159" s="450"/>
+      <c r="G159" s="447"/>
       <c r="H159" s="84"/>
     </row>
     <row r="160" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27453,7 +28275,7 @@
       <c r="D160" s="83"/>
       <c r="E160" s="89"/>
       <c r="F160" s="89"/>
-      <c r="G160" s="450"/>
+      <c r="G160" s="447"/>
       <c r="H160" s="84"/>
     </row>
     <row r="161" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27463,7 +28285,7 @@
       <c r="D161" s="83"/>
       <c r="E161" s="89"/>
       <c r="F161" s="89"/>
-      <c r="G161" s="450"/>
+      <c r="G161" s="447"/>
       <c r="H161" s="84"/>
     </row>
     <row r="162" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27493,7 +28315,7 @@
       <c r="D164" s="83"/>
       <c r="E164" s="89"/>
       <c r="F164" s="83"/>
-      <c r="G164" s="450"/>
+      <c r="G164" s="447"/>
       <c r="H164" s="84"/>
     </row>
     <row r="165" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27503,7 +28325,7 @@
       <c r="D165" s="83"/>
       <c r="E165" s="89"/>
       <c r="F165" s="83"/>
-      <c r="G165" s="450"/>
+      <c r="G165" s="447"/>
       <c r="H165" s="84"/>
     </row>
     <row r="166" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27513,7 +28335,7 @@
       <c r="D166" s="83"/>
       <c r="E166" s="89"/>
       <c r="F166" s="83"/>
-      <c r="G166" s="450"/>
+      <c r="G166" s="447"/>
       <c r="H166" s="84"/>
     </row>
     <row r="167" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27523,7 +28345,7 @@
       <c r="D167" s="83"/>
       <c r="E167" s="89"/>
       <c r="F167" s="89"/>
-      <c r="G167" s="450"/>
+      <c r="G167" s="447"/>
       <c r="H167" s="84"/>
     </row>
     <row r="168" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27533,7 +28355,7 @@
       <c r="D168" s="437"/>
       <c r="E168" s="441"/>
       <c r="F168" s="441"/>
-      <c r="G168" s="450"/>
+      <c r="G168" s="447"/>
       <c r="H168" s="84"/>
     </row>
     <row r="169" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27543,7 +28365,7 @@
       <c r="D169" s="437"/>
       <c r="E169" s="441"/>
       <c r="F169" s="441"/>
-      <c r="G169" s="450"/>
+      <c r="G169" s="447"/>
       <c r="H169" s="84"/>
     </row>
     <row r="170" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27553,7 +28375,7 @@
       <c r="D170" s="437"/>
       <c r="E170" s="441"/>
       <c r="F170" s="441"/>
-      <c r="G170" s="450"/>
+      <c r="G170" s="447"/>
       <c r="H170" s="391"/>
     </row>
     <row r="171" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27563,7 +28385,7 @@
       <c r="D171" s="437"/>
       <c r="E171" s="441"/>
       <c r="F171" s="441"/>
-      <c r="G171" s="450"/>
+      <c r="G171" s="447"/>
       <c r="H171" s="84"/>
     </row>
     <row r="172" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27573,7 +28395,7 @@
       <c r="D172" s="441"/>
       <c r="E172" s="441"/>
       <c r="F172" s="441"/>
-      <c r="G172" s="450"/>
+      <c r="G172" s="447"/>
       <c r="H172" s="84"/>
     </row>
     <row r="173" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27583,7 +28405,7 @@
       <c r="D173" s="89"/>
       <c r="E173" s="89"/>
       <c r="F173" s="89"/>
-      <c r="G173" s="450"/>
+      <c r="G173" s="447"/>
       <c r="H173" s="391"/>
     </row>
     <row r="174" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27593,7 +28415,7 @@
       <c r="D174" s="83"/>
       <c r="E174" s="89"/>
       <c r="F174" s="89"/>
-      <c r="G174" s="450"/>
+      <c r="G174" s="447"/>
       <c r="H174" s="84"/>
       <c r="L174" s="101" t="s">
         <v>266</v>
@@ -27602,11 +28424,11 @@
     <row r="175" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
-      <c r="C175" s="447"/>
+      <c r="C175" s="444"/>
       <c r="D175" s="235"/>
-      <c r="E175" s="448"/>
-      <c r="F175" s="448"/>
-      <c r="G175" s="451"/>
+      <c r="E175" s="445"/>
+      <c r="F175" s="445"/>
+      <c r="G175" s="448"/>
       <c r="H175" s="353"/>
       <c r="I175" s="19"/>
       <c r="L175" s="101" t="s">
@@ -27620,7 +28442,7 @@
       <c r="D176" s="83"/>
       <c r="E176" s="89"/>
       <c r="F176" s="89"/>
-      <c r="G176" s="450"/>
+      <c r="G176" s="447"/>
       <c r="H176" s="84"/>
     </row>
     <row r="177" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27630,7 +28452,7 @@
       <c r="D177" s="83"/>
       <c r="E177" s="89"/>
       <c r="F177" s="89"/>
-      <c r="G177" s="450"/>
+      <c r="G177" s="447"/>
       <c r="H177" s="84"/>
     </row>
     <row r="178" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27640,7 +28462,7 @@
       <c r="D178" s="83"/>
       <c r="E178" s="89"/>
       <c r="F178" s="89"/>
-      <c r="G178" s="450"/>
+      <c r="G178" s="447"/>
       <c r="H178" s="84"/>
     </row>
     <row r="179" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27670,7 +28492,7 @@
       <c r="D181" s="83"/>
       <c r="E181" s="89"/>
       <c r="F181" s="83"/>
-      <c r="G181" s="450"/>
+      <c r="G181" s="447"/>
       <c r="H181" s="84"/>
     </row>
     <row r="182" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27680,7 +28502,7 @@
       <c r="D182" s="83"/>
       <c r="E182" s="89"/>
       <c r="F182" s="83"/>
-      <c r="G182" s="450"/>
+      <c r="G182" s="447"/>
       <c r="H182" s="84"/>
     </row>
     <row r="183" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27690,7 +28512,7 @@
       <c r="D183" s="89"/>
       <c r="E183" s="89"/>
       <c r="F183" s="83"/>
-      <c r="G183" s="450"/>
+      <c r="G183" s="447"/>
       <c r="H183" s="390"/>
     </row>
     <row r="184" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27700,7 +28522,7 @@
       <c r="D184" s="83"/>
       <c r="E184" s="89"/>
       <c r="F184" s="89"/>
-      <c r="G184" s="450"/>
+      <c r="G184" s="447"/>
       <c r="H184" s="84"/>
     </row>
     <row r="185" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27710,7 +28532,7 @@
       <c r="D185" s="83"/>
       <c r="E185" s="89"/>
       <c r="F185" s="89"/>
-      <c r="G185" s="450"/>
+      <c r="G185" s="447"/>
       <c r="H185" s="84"/>
     </row>
     <row r="186" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27770,7 +28592,7 @@
       <c r="D191" s="83"/>
       <c r="E191" s="89"/>
       <c r="F191" s="83"/>
-      <c r="G191" s="450"/>
+      <c r="G191" s="447"/>
       <c r="H191" s="84"/>
     </row>
     <row r="192" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27780,7 +28602,7 @@
       <c r="D192" s="83"/>
       <c r="E192" s="89"/>
       <c r="F192" s="83"/>
-      <c r="G192" s="450"/>
+      <c r="G192" s="447"/>
       <c r="H192" s="390"/>
     </row>
     <row r="193" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27790,7 +28612,7 @@
       <c r="D193" s="83"/>
       <c r="E193" s="89"/>
       <c r="F193" s="83"/>
-      <c r="G193" s="450"/>
+      <c r="G193" s="447"/>
       <c r="H193" s="84"/>
     </row>
     <row r="194" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27800,7 +28622,7 @@
       <c r="D194" s="89"/>
       <c r="E194" s="89"/>
       <c r="F194" s="83"/>
-      <c r="G194" s="450"/>
+      <c r="G194" s="447"/>
       <c r="H194" s="84"/>
     </row>
     <row r="195" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27956,9 +28778,9 @@
     <row r="210" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
-      <c r="C210" s="447"/>
+      <c r="C210" s="444"/>
       <c r="D210" s="235"/>
-      <c r="E210" s="448"/>
+      <c r="E210" s="445"/>
       <c r="F210" s="235"/>
       <c r="G210" s="353"/>
       <c r="H210" s="353"/>
@@ -28067,9 +28889,9 @@
     <row r="221" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
-      <c r="C221" s="447"/>
+      <c r="C221" s="444"/>
       <c r="D221" s="235"/>
-      <c r="E221" s="448"/>
+      <c r="E221" s="445"/>
       <c r="F221" s="235"/>
       <c r="G221" s="353"/>
       <c r="H221" s="353"/>
@@ -28208,18 +29030,18 @@
     <row r="235" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="415"/>
       <c r="B235" s="415"/>
-      <c r="C235" s="452"/>
-      <c r="D235" s="452"/>
-      <c r="E235" s="452"/>
-      <c r="F235" s="452"/>
-      <c r="G235" s="452"/>
-      <c r="H235" s="453"/>
+      <c r="C235" s="449"/>
+      <c r="D235" s="449"/>
+      <c r="E235" s="449"/>
+      <c r="F235" s="449"/>
+      <c r="G235" s="449"/>
+      <c r="H235" s="450"/>
     </row>
     <row r="236" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="422"/>
       <c r="B236" s="4"/>
       <c r="C236" s="387"/>
-      <c r="D236" s="454"/>
+      <c r="D236" s="451"/>
       <c r="E236" s="83"/>
       <c r="F236" s="83"/>
       <c r="G236" s="84"/>
@@ -28229,7 +29051,7 @@
       <c r="A237" s="422"/>
       <c r="B237" s="422"/>
       <c r="C237" s="440"/>
-      <c r="D237" s="455"/>
+      <c r="D237" s="452"/>
       <c r="E237" s="437"/>
       <c r="F237" s="437"/>
       <c r="G237" s="442"/>
@@ -28239,8 +29061,8 @@
     <row r="238" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="422"/>
       <c r="B238" s="422"/>
-      <c r="C238" s="447"/>
-      <c r="D238" s="456"/>
+      <c r="C238" s="444"/>
+      <c r="D238" s="453"/>
       <c r="E238" s="235"/>
       <c r="F238" s="235"/>
       <c r="G238" s="353"/>
@@ -28250,7 +29072,7 @@
       <c r="A239" s="422"/>
       <c r="B239" s="422"/>
       <c r="C239" s="440"/>
-      <c r="D239" s="455"/>
+      <c r="D239" s="452"/>
       <c r="E239" s="437"/>
       <c r="F239" s="437"/>
       <c r="G239" s="442"/>
@@ -28279,7 +29101,7 @@
     <row r="242" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="422"/>
       <c r="B242" s="422"/>
-      <c r="C242" s="447"/>
+      <c r="C242" s="444"/>
       <c r="D242" s="235"/>
       <c r="E242" s="235"/>
       <c r="F242" s="235"/>
@@ -28353,27 +29175,27 @@
       <c r="D249" s="83"/>
       <c r="E249" s="83"/>
       <c r="F249" s="83"/>
-      <c r="G249" s="457"/>
+      <c r="G249" s="454"/>
       <c r="H249" s="390"/>
     </row>
     <row r="250" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="422"/>
       <c r="B250" s="422"/>
       <c r="C250" s="192"/>
-      <c r="D250" s="454"/>
+      <c r="D250" s="451"/>
       <c r="E250" s="83"/>
       <c r="F250" s="83"/>
-      <c r="G250" s="457"/>
+      <c r="G250" s="454"/>
       <c r="H250" s="84"/>
     </row>
     <row r="251" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="424"/>
       <c r="B251" s="424"/>
       <c r="C251" s="439"/>
-      <c r="D251" s="458"/>
+      <c r="D251" s="455"/>
       <c r="E251" s="95"/>
       <c r="F251" s="83"/>
-      <c r="G251" s="458"/>
+      <c r="G251" s="455"/>
       <c r="H251" s="85"/>
     </row>
     <row r="252" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -28381,20 +29203,20 @@
       <c r="B252" s="424"/>
       <c r="C252" s="97"/>
       <c r="D252" s="82"/>
-      <c r="E252" s="458"/>
-      <c r="F252" s="458"/>
-      <c r="G252" s="458"/>
+      <c r="E252" s="455"/>
+      <c r="F252" s="455"/>
+      <c r="G252" s="455"/>
       <c r="H252" s="85"/>
     </row>
     <row r="253" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="424"/>
       <c r="B253" s="424"/>
-      <c r="C253" s="458"/>
-      <c r="D253" s="458"/>
-      <c r="E253" s="458"/>
-      <c r="F253" s="458"/>
-      <c r="G253" s="458"/>
-      <c r="H253" s="446"/>
+      <c r="C253" s="455"/>
+      <c r="D253" s="455"/>
+      <c r="E253" s="455"/>
+      <c r="F253" s="455"/>
+      <c r="G253" s="455"/>
+      <c r="H253" s="443"/>
     </row>
     <row r="254" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4"/>
@@ -28439,12 +29261,12 @@
     <row r="258" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
-      <c r="C258" s="459"/>
+      <c r="C258" s="456"/>
       <c r="D258" s="235"/>
       <c r="E258" s="235"/>
       <c r="F258" s="235"/>
       <c r="G258" s="353"/>
-      <c r="H258" s="460"/>
+      <c r="H258" s="457"/>
     </row>
     <row r="259" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="4"/>
@@ -28479,7 +29301,7 @@
     <row r="262" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
-      <c r="C262" s="449"/>
+      <c r="C262" s="446"/>
       <c r="D262" s="83"/>
       <c r="E262" s="83"/>
       <c r="F262" s="83"/>
@@ -28579,7 +29401,7 @@
     <row r="272" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
-      <c r="C272" s="449"/>
+      <c r="C272" s="446"/>
       <c r="D272" s="83"/>
       <c r="E272" s="83"/>
       <c r="F272" s="83"/>
@@ -28609,7 +29431,7 @@
     <row r="275" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
-      <c r="C275" s="449"/>
+      <c r="C275" s="446"/>
       <c r="D275" s="83"/>
       <c r="E275" s="83"/>
       <c r="F275" s="83"/>
@@ -28664,7 +29486,7 @@
       <c r="E280" s="235"/>
       <c r="F280" s="437"/>
       <c r="G280" s="353"/>
-      <c r="H280" s="461"/>
+      <c r="H280" s="458"/>
     </row>
     <row r="281" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="4"/>
@@ -28789,7 +29611,7 @@
     <row r="293" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
-      <c r="C293" s="449"/>
+      <c r="C293" s="446"/>
       <c r="D293" s="83"/>
       <c r="E293" s="83"/>
       <c r="F293" s="83"/>
@@ -28819,7 +29641,7 @@
     <row r="296" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
-      <c r="C296" s="447"/>
+      <c r="C296" s="444"/>
       <c r="D296" s="235"/>
       <c r="E296" s="235"/>
       <c r="F296" s="235"/>
@@ -28829,7 +29651,7 @@
     <row r="297" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
-      <c r="C297" s="449"/>
+      <c r="C297" s="446"/>
       <c r="D297" s="83"/>
       <c r="E297" s="83"/>
       <c r="F297" s="83"/>
@@ -28994,7 +29816,7 @@
       <c r="E313" s="235"/>
       <c r="F313" s="437"/>
       <c r="G313" s="442"/>
-      <c r="H313" s="460"/>
+      <c r="H313" s="457"/>
     </row>
     <row r="314" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="4"/>
@@ -29339,7 +30161,7 @@
     <row r="348" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
-      <c r="C348" s="447"/>
+      <c r="C348" s="444"/>
       <c r="D348" s="235"/>
       <c r="E348" s="235"/>
       <c r="F348" s="235"/>
@@ -29449,7 +30271,7 @@
     <row r="359" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
-      <c r="C359" s="449"/>
+      <c r="C359" s="446"/>
       <c r="D359" s="83"/>
       <c r="E359" s="83"/>
       <c r="F359" s="83"/>
@@ -29479,12 +30301,12 @@
     <row r="362" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A362" s="426"/>
       <c r="B362" s="426"/>
-      <c r="C362" s="462"/>
-      <c r="D362" s="462"/>
-      <c r="E362" s="462"/>
-      <c r="F362" s="462"/>
-      <c r="G362" s="462"/>
-      <c r="H362" s="463"/>
+      <c r="C362" s="459"/>
+      <c r="D362" s="459"/>
+      <c r="E362" s="459"/>
+      <c r="F362" s="459"/>
+      <c r="G362" s="459"/>
+      <c r="H362" s="460"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1">
@@ -29500,13 +30322,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
@@ -29518,29 +30340,29 @@
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="480" t="s">
+    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="481" t="s">
         <v>462</v>
       </c>
-      <c r="B1" s="480"/>
-      <c r="C1" s="480"/>
-      <c r="D1" s="481"/>
-      <c r="E1" s="480"/>
-      <c r="F1" s="480"/>
-      <c r="G1" s="480"/>
-      <c r="H1" s="480"/>
-    </row>
-    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="481"/>
+      <c r="C1" s="481"/>
+      <c r="D1" s="482"/>
+      <c r="E1" s="481"/>
+      <c r="F1" s="481"/>
+      <c r="G1" s="481"/>
+      <c r="H1" s="481"/>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="482" t="s">
+      <c r="C2" s="483" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="483"/>
+      <c r="D2" s="484"/>
       <c r="E2" s="434" t="s">
         <v>116</v>
       </c>
@@ -29554,35 +30376,33 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>528</v>
+        <v>565</v>
       </c>
       <c r="C3" s="188" t="s">
-        <v>225</v>
+        <v>567</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="50">
-        <v>2</v>
-      </c>
-      <c r="G3" s="467">
-        <v>1200</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G3" s="464"/>
       <c r="H3" s="50">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6050</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="469"/>
-      <c r="C4" s="188" t="s">
-        <v>188</v>
+      <c r="B4" s="466"/>
+      <c r="C4" s="193" t="s">
+        <v>228</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
@@ -29592,298 +30412,308 @@
         <v>2</v>
       </c>
       <c r="G4" s="50">
-        <v>6000</v>
+        <v>6550</v>
       </c>
       <c r="H4" s="50">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="469"/>
+      <c r="B5" s="466"/>
       <c r="C5" s="188" t="s">
-        <v>529</v>
+        <v>568</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="50">
-        <v>1</v>
-      </c>
-      <c r="G5" s="50"/>
+        <v>4</v>
+      </c>
+      <c r="G5" s="50">
+        <v>3800</v>
+      </c>
       <c r="H5" s="50">
-        <v>64500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="469"/>
-      <c r="C6" s="188" t="s">
-        <v>530</v>
+      <c r="B6" s="466"/>
+      <c r="C6" s="260" t="s">
+        <v>569</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="50">
-        <v>1</v>
-      </c>
-      <c r="G6" s="50"/>
+        <v>4</v>
+      </c>
+      <c r="G6" s="50">
+        <v>3000</v>
+      </c>
       <c r="H6" s="50">
-        <v>23500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="469"/>
+      <c r="B7" s="466"/>
       <c r="C7" s="188" t="s">
-        <v>127</v>
+        <v>197</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="F7" s="50">
         <v>1</v>
       </c>
       <c r="G7" s="50"/>
       <c r="H7" s="50">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="469"/>
+      <c r="B8" s="466"/>
       <c r="C8" s="188" t="s">
-        <v>128</v>
+        <v>299</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="F8" s="50">
-        <v>4</v>
-      </c>
-      <c r="G8" s="50">
-        <v>3150</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G8" s="50"/>
       <c r="H8" s="50">
-        <v>12600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="470"/>
-      <c r="C9" s="188" t="s">
-        <v>228</v>
+      <c r="B9" s="467"/>
+      <c r="C9" s="193" t="s">
+        <v>299</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F9" s="50">
-        <v>1</v>
-      </c>
-      <c r="G9" s="50"/>
+        <v>2</v>
+      </c>
+      <c r="G9" s="50">
+        <v>23400</v>
+      </c>
       <c r="H9" s="50">
-        <v>25500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="470"/>
+      <c r="B10" s="467"/>
       <c r="C10" s="193" t="s">
-        <v>208</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="4"/>
+        <v>197</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="F10" s="50">
-        <v>1</v>
-      </c>
-      <c r="G10" s="50"/>
+        <v>2</v>
+      </c>
+      <c r="G10" s="50">
+        <v>21350</v>
+      </c>
       <c r="H10" s="50">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>42700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="470"/>
+      <c r="B11" s="467"/>
       <c r="C11" s="188" t="s">
-        <v>204</v>
+        <v>127</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="E11" s="4"/>
       <c r="F11" s="50">
         <v>2</v>
       </c>
       <c r="G11" s="50">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="H11" s="50">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="470"/>
+      <c r="B12" s="467"/>
       <c r="C12" s="401" t="s">
-        <v>151</v>
-      </c>
-      <c r="D12" s="475"/>
-      <c r="E12" s="45" t="s">
-        <v>14</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="D12" s="471"/>
+      <c r="E12" s="45"/>
       <c r="F12" s="75">
         <v>1</v>
       </c>
       <c r="G12" s="79"/>
       <c r="H12" s="75">
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="470"/>
-      <c r="C13" s="188" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="50">
-        <v>1</v>
-      </c>
-      <c r="G13" s="50">
-        <v>2500</v>
-      </c>
-      <c r="H13" s="50">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="467"/>
+      <c r="C13" s="401" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" s="471"/>
+      <c r="E13" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="75">
+        <v>2</v>
+      </c>
+      <c r="G13" s="75">
+        <v>34500</v>
+      </c>
+      <c r="H13" s="75">
+        <v>69000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="470"/>
-      <c r="C14" s="401" t="s">
-        <v>223</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="75">
-        <v>1</v>
-      </c>
-      <c r="G14" s="79"/>
-      <c r="H14" s="75">
+      <c r="B14" s="467"/>
+      <c r="C14" s="188" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="50">
+        <v>1</v>
+      </c>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50">
         <v>2500</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="470"/>
-      <c r="C15" s="369"/>
+    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="467"/>
+      <c r="C15" s="401" t="s">
+        <v>54</v>
+      </c>
       <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="432">
-        <f>SUM(H3:H14)</f>
-        <v>180500</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="E15" s="8"/>
+      <c r="F15" s="75">
+        <v>1</v>
+      </c>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="467"/>
+      <c r="C16" s="369"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="432">
+        <f>SUM(H3:H15)</f>
+        <v>232350</v>
+      </c>
+      <c r="J16" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="193" t="s">
+    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="50"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="238" t="s">
         <v>518</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50">
-        <v>25500</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="193" t="s">
-        <v>531</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
       <c r="F17" s="50"/>
       <c r="G17" s="50"/>
       <c r="H17" s="50">
-        <v>16100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="193" t="s">
-        <v>532</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
+        <v>25500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="50"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="485" t="s">
+        <v>571</v>
+      </c>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50">
+        <v>5</v>
+      </c>
+      <c r="G18" s="50">
+        <v>2000</v>
+      </c>
       <c r="H18" s="50">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="193"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="50"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="50"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="485" t="s">
+        <v>554</v>
+      </c>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50">
+        <v>1</v>
+      </c>
       <c r="G19" s="50"/>
-      <c r="H19" s="223">
-        <f>SUM(H15:H18)</f>
-        <v>230100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="354"/>
-      <c r="D20" s="474"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-    </row>
-    <row r="21" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="255"/>
-      <c r="C21" s="468"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="223"/>
+      <c r="H19" s="50">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="474"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="223">
+        <f>SUM(H16:H19)</f>
+        <v>269850</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/GB-3  Sales.xlsx
+++ b/GB-3  Sales.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2325" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2345" uniqueCount="575">
   <si>
     <t>Oil Filter</t>
   </si>
@@ -1763,6 +1763,15 @@
   </si>
   <si>
     <t>ေကာ္အနီ</t>
+  </si>
+  <si>
+    <t>12.9.2018</t>
+  </si>
+  <si>
+    <t>Alphard Toyota Plug 12/16  4pcs</t>
+  </si>
+  <si>
+    <t>သံ့ျဖတ္လွြ/၀ါရွာ</t>
   </si>
 </sst>
 </file>
@@ -2305,7 +2314,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="486">
+  <cellXfs count="490">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3513,6 +3522,17 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3536,9 +3556,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6963,10 +6980,10 @@
       <c r="B1" s="198" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="477" t="s">
+      <c r="C1" s="482" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="478"/>
+      <c r="D1" s="483"/>
       <c r="E1" s="198" t="s">
         <v>116</v>
       </c>
@@ -12343,10 +12360,10 @@
       <c r="B1" s="333" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="479" t="s">
+      <c r="C1" s="484" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="480"/>
+      <c r="D1" s="485"/>
       <c r="E1" s="333" t="s">
         <v>116</v>
       </c>
@@ -18301,10 +18318,10 @@
       <c r="B1" s="333" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="479" t="s">
+      <c r="C1" s="484" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="480"/>
+      <c r="D1" s="485"/>
       <c r="E1" s="333" t="s">
         <v>116</v>
       </c>
@@ -25317,8 +25334,8 @@
   <dimension ref="A1:Q362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G142" sqref="G142"/>
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G163" sqref="G163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -25342,10 +25359,10 @@
       <c r="B1" s="333" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="479" t="s">
+      <c r="C1" s="484" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="480"/>
+      <c r="D1" s="485"/>
       <c r="E1" s="333" t="s">
         <v>116</v>
       </c>
@@ -28069,186 +28086,375 @@
       </c>
     </row>
     <row r="140" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="3"/>
-      <c r="B140" s="3"/>
-      <c r="C140" s="435"/>
-      <c r="D140" s="89"/>
-      <c r="E140" s="89"/>
-      <c r="F140" s="83"/>
-      <c r="G140" s="447"/>
-      <c r="H140" s="84"/>
+      <c r="A140" s="4">
+        <v>1</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="C140" s="234" t="s">
+        <v>567</v>
+      </c>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="79">
+        <v>1</v>
+      </c>
+      <c r="G140" s="478"/>
+      <c r="H140" s="79">
+        <v>6050</v>
+      </c>
     </row>
     <row r="141" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="3"/>
-      <c r="B141" s="3"/>
-      <c r="C141" s="435"/>
-      <c r="D141" s="89"/>
-      <c r="E141" s="89"/>
-      <c r="F141" s="89"/>
-      <c r="G141" s="447"/>
-      <c r="H141" s="390"/>
+      <c r="A141" s="4">
+        <v>2</v>
+      </c>
+      <c r="B141" s="466"/>
+      <c r="C141" s="375" t="s">
+        <v>228</v>
+      </c>
+      <c r="D141" s="373"/>
+      <c r="E141" s="373" t="s">
+        <v>14</v>
+      </c>
+      <c r="F141" s="374">
+        <v>2</v>
+      </c>
+      <c r="G141" s="374">
+        <v>6550</v>
+      </c>
+      <c r="H141" s="374">
+        <v>13100</v>
+      </c>
+      <c r="I141" s="101" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="142" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="4"/>
-      <c r="B142" s="4"/>
-      <c r="C142" s="387"/>
-      <c r="D142" s="89"/>
-      <c r="E142" s="89"/>
-      <c r="F142" s="89"/>
-      <c r="G142" s="447"/>
-      <c r="H142" s="84"/>
+      <c r="A142" s="4">
+        <v>3</v>
+      </c>
+      <c r="B142" s="466"/>
+      <c r="C142" s="372" t="s">
+        <v>568</v>
+      </c>
+      <c r="D142" s="373"/>
+      <c r="E142" s="373"/>
+      <c r="F142" s="374">
+        <v>4</v>
+      </c>
+      <c r="G142" s="374">
+        <v>3800</v>
+      </c>
+      <c r="H142" s="374">
+        <v>15200</v>
+      </c>
+      <c r="I142" s="101" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="143" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="4"/>
-      <c r="B143" s="3"/>
-      <c r="C143" s="192"/>
-      <c r="D143" s="89"/>
-      <c r="E143" s="89"/>
-      <c r="F143" s="89"/>
-      <c r="G143" s="447"/>
-      <c r="H143" s="84"/>
+      <c r="A143" s="4">
+        <v>4</v>
+      </c>
+      <c r="B143" s="466"/>
+      <c r="C143" s="479" t="s">
+        <v>569</v>
+      </c>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="79">
+        <v>4</v>
+      </c>
+      <c r="G143" s="79">
+        <v>3000</v>
+      </c>
+      <c r="H143" s="79">
+        <v>12000</v>
+      </c>
     </row>
     <row r="144" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="4"/>
-      <c r="B144" s="3"/>
-      <c r="C144" s="192"/>
-      <c r="D144" s="89"/>
-      <c r="E144" s="89"/>
-      <c r="F144" s="89"/>
-      <c r="G144" s="447"/>
-      <c r="H144" s="84"/>
-    </row>
-    <row r="145" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="4"/>
-      <c r="B145" s="3"/>
-      <c r="C145" s="435"/>
-      <c r="D145" s="89"/>
-      <c r="E145" s="89"/>
-      <c r="F145" s="83"/>
-      <c r="G145" s="84"/>
-      <c r="H145" s="390"/>
-    </row>
-    <row r="146" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="4"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="192"/>
-      <c r="D146" s="89"/>
-      <c r="E146" s="89"/>
-      <c r="F146" s="83"/>
-      <c r="G146" s="84"/>
-      <c r="H146" s="84"/>
-    </row>
-    <row r="147" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="3"/>
-      <c r="B147" s="3"/>
-      <c r="C147" s="192"/>
-      <c r="D147" s="89"/>
-      <c r="E147" s="89"/>
-      <c r="F147" s="83"/>
-      <c r="G147" s="447"/>
-      <c r="H147" s="84"/>
-    </row>
-    <row r="148" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="3"/>
-      <c r="B148" s="3"/>
-      <c r="C148" s="435"/>
-      <c r="D148" s="89"/>
-      <c r="E148" s="89"/>
-      <c r="F148" s="83"/>
-      <c r="G148" s="447"/>
-      <c r="H148" s="390"/>
-    </row>
-    <row r="149" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="4"/>
-      <c r="B149" s="4"/>
-      <c r="C149" s="387"/>
-      <c r="D149" s="89"/>
-      <c r="E149" s="89"/>
-      <c r="F149" s="89"/>
-      <c r="G149" s="447"/>
-      <c r="H149" s="84"/>
-    </row>
-    <row r="150" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="4"/>
-      <c r="B150" s="4"/>
-      <c r="C150" s="192"/>
-      <c r="D150" s="89"/>
-      <c r="E150" s="89"/>
-      <c r="F150" s="89"/>
-      <c r="G150" s="447"/>
-      <c r="H150" s="84"/>
-    </row>
-    <row r="151" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="4"/>
-      <c r="B151" s="4"/>
-      <c r="C151" s="192"/>
-      <c r="D151" s="89"/>
-      <c r="E151" s="89"/>
-      <c r="F151" s="89"/>
-      <c r="G151" s="447"/>
-      <c r="H151" s="84"/>
-    </row>
-    <row r="152" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="4"/>
-      <c r="B152" s="3"/>
-      <c r="C152" s="192"/>
-      <c r="D152" s="89"/>
-      <c r="E152" s="89"/>
-      <c r="F152" s="89"/>
-      <c r="G152" s="447"/>
-      <c r="H152" s="84"/>
-    </row>
-    <row r="153" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="4">
+        <v>5</v>
+      </c>
+      <c r="B144" s="466"/>
+      <c r="C144" s="372" t="s">
+        <v>197</v>
+      </c>
+      <c r="D144" s="373"/>
+      <c r="E144" s="373" t="s">
+        <v>14</v>
+      </c>
+      <c r="F144" s="374">
+        <v>1</v>
+      </c>
+      <c r="G144" s="374"/>
+      <c r="H144" s="374">
+        <v>6500</v>
+      </c>
+      <c r="I144" s="101" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="4">
+        <v>6</v>
+      </c>
+      <c r="B145" s="466"/>
+      <c r="C145" s="372" t="s">
+        <v>299</v>
+      </c>
+      <c r="D145" s="373"/>
+      <c r="E145" s="373" t="s">
+        <v>14</v>
+      </c>
+      <c r="F145" s="374">
+        <v>1</v>
+      </c>
+      <c r="G145" s="374"/>
+      <c r="H145" s="374">
+        <v>6000</v>
+      </c>
+      <c r="I145" s="101" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="4">
+        <v>7</v>
+      </c>
+      <c r="B146" s="467"/>
+      <c r="C146" s="375" t="s">
+        <v>299</v>
+      </c>
+      <c r="D146" s="373"/>
+      <c r="E146" s="373" t="s">
+        <v>22</v>
+      </c>
+      <c r="F146" s="374">
+        <v>2</v>
+      </c>
+      <c r="G146" s="374">
+        <v>23400</v>
+      </c>
+      <c r="H146" s="374">
+        <v>46800</v>
+      </c>
+      <c r="I146" s="101" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="4">
+        <v>8</v>
+      </c>
+      <c r="B147" s="467"/>
+      <c r="C147" s="375" t="s">
+        <v>197</v>
+      </c>
+      <c r="D147" s="373"/>
+      <c r="E147" s="373" t="s">
+        <v>22</v>
+      </c>
+      <c r="F147" s="374">
+        <v>2</v>
+      </c>
+      <c r="G147" s="374">
+        <v>21350</v>
+      </c>
+      <c r="H147" s="374">
+        <v>42700</v>
+      </c>
+      <c r="I147" s="101" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="4">
+        <v>9</v>
+      </c>
+      <c r="B148" s="467"/>
+      <c r="C148" s="372" t="s">
+        <v>127</v>
+      </c>
+      <c r="D148" s="373"/>
+      <c r="E148" s="373"/>
+      <c r="F148" s="374">
+        <v>2</v>
+      </c>
+      <c r="G148" s="374">
+        <v>2500</v>
+      </c>
+      <c r="H148" s="374">
+        <v>5000</v>
+      </c>
+      <c r="I148" s="101" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="4">
+        <v>10</v>
+      </c>
+      <c r="B149" s="467"/>
+      <c r="C149" s="384" t="s">
+        <v>570</v>
+      </c>
+      <c r="D149" s="472"/>
+      <c r="E149" s="385"/>
+      <c r="F149" s="386">
+        <v>1</v>
+      </c>
+      <c r="G149" s="421"/>
+      <c r="H149" s="386">
+        <v>3000</v>
+      </c>
+      <c r="I149" s="101" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="4">
+        <v>11</v>
+      </c>
+      <c r="B150" s="467"/>
+      <c r="C150" s="384" t="s">
+        <v>176</v>
+      </c>
+      <c r="D150" s="472"/>
+      <c r="E150" s="385" t="s">
+        <v>22</v>
+      </c>
+      <c r="F150" s="386">
+        <v>2</v>
+      </c>
+      <c r="G150" s="386">
+        <v>34500</v>
+      </c>
+      <c r="H150" s="386">
+        <v>69000</v>
+      </c>
+      <c r="I150" s="101" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="4">
+        <v>12</v>
+      </c>
+      <c r="B151" s="467"/>
+      <c r="C151" s="372" t="s">
+        <v>139</v>
+      </c>
+      <c r="D151" s="373"/>
+      <c r="E151" s="373"/>
+      <c r="F151" s="374">
+        <v>1</v>
+      </c>
+      <c r="G151" s="374"/>
+      <c r="H151" s="374">
+        <v>2500</v>
+      </c>
+      <c r="I151" s="101" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="4">
+        <v>13</v>
+      </c>
+      <c r="B152" s="467"/>
+      <c r="C152" s="384" t="s">
+        <v>54</v>
+      </c>
+      <c r="D152" s="385"/>
+      <c r="E152" s="419"/>
+      <c r="F152" s="386">
+        <v>1</v>
+      </c>
+      <c r="G152" s="386"/>
+      <c r="H152" s="386">
+        <v>4500</v>
+      </c>
+      <c r="I152" s="101" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
-      <c r="B153" s="3"/>
-      <c r="C153" s="192"/>
-      <c r="D153" s="89"/>
-      <c r="E153" s="89"/>
-      <c r="F153" s="89"/>
-      <c r="G153" s="447"/>
-      <c r="H153" s="84"/>
-    </row>
-    <row r="154" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="4"/>
-      <c r="B154" s="3"/>
-      <c r="C154" s="435"/>
-      <c r="D154" s="89"/>
-      <c r="E154" s="89"/>
-      <c r="F154" s="83"/>
-      <c r="G154" s="84"/>
-      <c r="H154" s="390"/>
-    </row>
-    <row r="155" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="4"/>
-      <c r="B155" s="3"/>
-      <c r="C155" s="435"/>
-      <c r="D155" s="83"/>
-      <c r="E155" s="89"/>
-      <c r="F155" s="83"/>
-      <c r="G155" s="84"/>
-      <c r="H155" s="84"/>
-    </row>
-    <row r="156" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="3"/>
-      <c r="B156" s="3"/>
-      <c r="C156" s="435"/>
-      <c r="D156" s="89"/>
-      <c r="E156" s="89"/>
-      <c r="F156" s="83"/>
-      <c r="G156" s="447"/>
-      <c r="H156" s="390"/>
-    </row>
-    <row r="157" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="4"/>
-      <c r="B157" s="4"/>
-      <c r="C157" s="439"/>
-      <c r="D157" s="89"/>
-      <c r="E157" s="89"/>
-      <c r="F157" s="83"/>
-      <c r="G157" s="84"/>
-      <c r="H157" s="84"/>
-    </row>
-    <row r="158" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="467"/>
+      <c r="C153" s="369"/>
+      <c r="D153" s="45"/>
+      <c r="E153" s="45"/>
+      <c r="F153" s="75"/>
+      <c r="G153" s="75"/>
+      <c r="H153" s="432">
+        <f>SUM(H140:H152)</f>
+        <v>232350</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="50"/>
+      <c r="B154" s="50"/>
+      <c r="C154" s="238" t="s">
+        <v>518</v>
+      </c>
+      <c r="D154" s="50"/>
+      <c r="E154" s="50"/>
+      <c r="F154" s="50"/>
+      <c r="G154" s="50"/>
+      <c r="H154" s="50">
+        <v>25500</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="50"/>
+      <c r="B155" s="50"/>
+      <c r="C155" s="477" t="s">
+        <v>571</v>
+      </c>
+      <c r="D155" s="50"/>
+      <c r="E155" s="50"/>
+      <c r="F155" s="50">
+        <v>5</v>
+      </c>
+      <c r="G155" s="50">
+        <v>2000</v>
+      </c>
+      <c r="H155" s="50">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="50"/>
+      <c r="B156" s="50"/>
+      <c r="C156" s="477" t="s">
+        <v>554</v>
+      </c>
+      <c r="D156" s="50"/>
+      <c r="E156" s="50"/>
+      <c r="F156" s="50">
+        <v>1</v>
+      </c>
+      <c r="G156" s="50"/>
+      <c r="H156" s="50">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A157" s="26"/>
+      <c r="B157" s="26"/>
+      <c r="C157" s="474"/>
+      <c r="D157" s="26"/>
+      <c r="E157" s="26"/>
+      <c r="F157" s="4"/>
+      <c r="G157" s="26"/>
+      <c r="H157" s="223">
+        <f>SUM(H153:H156)</f>
+        <v>269850</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="192"/>
@@ -28258,7 +28464,7 @@
       <c r="G158" s="447"/>
       <c r="H158" s="84"/>
     </row>
-    <row r="159" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="192"/>
@@ -28268,7 +28474,7 @@
       <c r="G159" s="447"/>
       <c r="H159" s="84"/>
     </row>
-    <row r="160" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4"/>
       <c r="B160" s="3"/>
       <c r="C160" s="192"/>
@@ -30322,10 +30528,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30340,29 +30546,29 @@
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="481" t="s">
+    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="486" t="s">
         <v>462</v>
       </c>
-      <c r="B1" s="481"/>
-      <c r="C1" s="481"/>
-      <c r="D1" s="482"/>
-      <c r="E1" s="481"/>
-      <c r="F1" s="481"/>
-      <c r="G1" s="481"/>
-      <c r="H1" s="481"/>
-    </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="486"/>
+      <c r="C1" s="486"/>
+      <c r="D1" s="487"/>
+      <c r="E1" s="486"/>
+      <c r="F1" s="486"/>
+      <c r="G1" s="486"/>
+      <c r="H1" s="486"/>
+    </row>
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="483" t="s">
+      <c r="C2" s="488" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="484"/>
+      <c r="D2" s="489"/>
       <c r="E2" s="434" t="s">
         <v>116</v>
       </c>
@@ -30376,343 +30582,132 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="C3" s="188" t="s">
-        <v>567</v>
+        <v>109</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="50">
-        <v>1</v>
-      </c>
-      <c r="G3" s="464"/>
+        <v>5</v>
+      </c>
+      <c r="G3" s="464">
+        <v>3500</v>
+      </c>
       <c r="H3" s="50">
-        <v>6050</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17500</v>
+      </c>
+      <c r="I3" s="481" t="s">
+        <v>573</v>
+      </c>
+      <c r="J3" s="480"/>
+      <c r="K3" s="480"/>
+      <c r="L3" s="480"/>
+      <c r="M3" s="480"/>
+    </row>
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="466"/>
-      <c r="C4" s="193" t="s">
-        <v>228</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="50">
-        <v>2</v>
-      </c>
-      <c r="G4" s="50">
-        <v>6550</v>
-      </c>
-      <c r="H4" s="50">
-        <v>13100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="192" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="83" t="s">
+        <v>244</v>
+      </c>
+      <c r="E4" s="83"/>
+      <c r="F4" s="84">
+        <v>1</v>
+      </c>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="466"/>
-      <c r="C5" s="188" t="s">
-        <v>568</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="50">
-        <v>4</v>
-      </c>
-      <c r="G5" s="50">
-        <v>3800</v>
-      </c>
-      <c r="H5" s="50">
-        <v>15200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
+      <c r="C5" s="387" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="83" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="83"/>
+      <c r="F5" s="84">
+        <v>1</v>
+      </c>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
       <c r="B6" s="466"/>
-      <c r="C6" s="260" t="s">
-        <v>569</v>
-      </c>
+      <c r="C6" s="260"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="50">
-        <v>4</v>
-      </c>
-      <c r="G6" s="50">
-        <v>3000</v>
-      </c>
-      <c r="H6" s="50">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="223">
+        <f>SUM(H3:H5)</f>
+        <v>44500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
       <c r="B7" s="466"/>
       <c r="C7" s="188" t="s">
-        <v>197</v>
+        <v>539</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="50">
-        <v>1</v>
-      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="50"/>
       <c r="G7" s="50"/>
       <c r="H7" s="50">
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
       <c r="B8" s="466"/>
-      <c r="C8" s="188" t="s">
-        <v>299</v>
+      <c r="C8" s="193" t="s">
+        <v>574</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="50">
-        <v>1</v>
-      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="50"/>
       <c r="G8" s="50"/>
       <c r="H8" s="50">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
       <c r="B9" s="467"/>
-      <c r="C9" s="193" t="s">
-        <v>299</v>
-      </c>
+      <c r="C9" s="193"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="50">
-        <v>2</v>
-      </c>
-      <c r="G9" s="50">
-        <v>23400</v>
-      </c>
-      <c r="H9" s="50">
-        <v>46800</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="467"/>
-      <c r="C10" s="193" t="s">
-        <v>197</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="50">
-        <v>2</v>
-      </c>
-      <c r="G10" s="50">
-        <v>21350</v>
-      </c>
-      <c r="H10" s="50">
-        <v>42700</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>9</v>
-      </c>
-      <c r="B11" s="467"/>
-      <c r="C11" s="188" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="50">
-        <v>2</v>
-      </c>
-      <c r="G11" s="50">
-        <v>2500</v>
-      </c>
-      <c r="H11" s="50">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>10</v>
-      </c>
-      <c r="B12" s="467"/>
-      <c r="C12" s="401" t="s">
-        <v>570</v>
-      </c>
-      <c r="D12" s="471"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="75">
-        <v>1</v>
-      </c>
-      <c r="G12" s="79"/>
-      <c r="H12" s="75">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>11</v>
-      </c>
-      <c r="B13" s="467"/>
-      <c r="C13" s="401" t="s">
-        <v>176</v>
-      </c>
-      <c r="D13" s="471"/>
-      <c r="E13" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="75">
-        <v>2</v>
-      </c>
-      <c r="G13" s="75">
-        <v>34500</v>
-      </c>
-      <c r="H13" s="75">
-        <v>69000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>12</v>
-      </c>
-      <c r="B14" s="467"/>
-      <c r="C14" s="188" t="s">
-        <v>139</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="50">
-        <v>1</v>
-      </c>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>13</v>
-      </c>
-      <c r="B15" s="467"/>
-      <c r="C15" s="401" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="75">
-        <v>1</v>
-      </c>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="467"/>
-      <c r="C16" s="369"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="432">
-        <f>SUM(H3:H15)</f>
-        <v>232350</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="E9" s="4"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="223">
+        <f>SUM(H6:H8)</f>
+        <v>73500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>509</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="238" t="s">
-        <v>518</v>
-      </c>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50">
-        <v>25500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="485" t="s">
-        <v>571</v>
-      </c>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50">
-        <v>5</v>
-      </c>
-      <c r="G18" s="50">
-        <v>2000</v>
-      </c>
-      <c r="H18" s="50">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="485" t="s">
-        <v>554</v>
-      </c>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50">
-        <v>1</v>
-      </c>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="474"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="223">
-        <f>SUM(H16:H19)</f>
-        <v>269850</v>
       </c>
     </row>
   </sheetData>

--- a/GB-3  Sales.xlsx
+++ b/GB-3  Sales.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2345" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2400" uniqueCount="584">
   <si>
     <t>Oil Filter</t>
   </si>
@@ -1772,6 +1772,33 @@
   </si>
   <si>
     <t>သံ့ျဖတ္လွြ/၀ါရွာ</t>
+  </si>
+  <si>
+    <t>13.9.2018</t>
+  </si>
+  <si>
+    <t>Dis Brake54mm</t>
+  </si>
+  <si>
+    <t>14.9.2018</t>
+  </si>
+  <si>
+    <t>CRV</t>
+  </si>
+  <si>
+    <t>Oil Filter 38010</t>
+  </si>
+  <si>
+    <t>Air Cleaner 1102</t>
+  </si>
+  <si>
+    <t>Oil Filter ME 215002</t>
+  </si>
+  <si>
+    <t>15.9.2018</t>
+  </si>
+  <si>
+    <t>RAV 4</t>
   </si>
 </sst>
 </file>
@@ -2314,7 +2341,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="490">
+  <cellXfs count="496">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3453,9 +3480,6 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3528,11 +3552,32 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6980,10 +7025,10 @@
       <c r="B1" s="198" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="482" t="s">
+      <c r="C1" s="488" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="483"/>
+      <c r="D1" s="489"/>
       <c r="E1" s="198" t="s">
         <v>116</v>
       </c>
@@ -12360,10 +12405,10 @@
       <c r="B1" s="333" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="484" t="s">
+      <c r="C1" s="490" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="485"/>
+      <c r="D1" s="491"/>
       <c r="E1" s="333" t="s">
         <v>116</v>
       </c>
@@ -18318,10 +18363,10 @@
       <c r="B1" s="333" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="484" t="s">
+      <c r="C1" s="490" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="485"/>
+      <c r="D1" s="491"/>
       <c r="E1" s="333" t="s">
         <v>116</v>
       </c>
@@ -25334,8 +25379,8 @@
   <dimension ref="A1:Q362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G163" sqref="G163"/>
+      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G196" sqref="G196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -25359,10 +25404,10 @@
       <c r="B1" s="333" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="484" t="s">
+      <c r="C1" s="490" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="485"/>
+      <c r="D1" s="491"/>
       <c r="E1" s="333" t="s">
         <v>116</v>
       </c>
@@ -25561,7 +25606,7 @@
       <c r="B11" s="77" t="s">
         <v>508</v>
       </c>
-      <c r="C11" s="470" t="s">
+      <c r="C11" s="469" t="s">
         <v>500</v>
       </c>
       <c r="D11" s="77"/>
@@ -25569,7 +25614,7 @@
       <c r="F11" s="77">
         <v>1</v>
       </c>
-      <c r="G11" s="461"/>
+      <c r="G11" s="460"/>
       <c r="H11" s="184">
         <v>9000</v>
       </c>
@@ -25590,8 +25635,8 @@
       <c r="F12" s="410">
         <v>1</v>
       </c>
-      <c r="G12" s="463"/>
-      <c r="H12" s="463">
+      <c r="G12" s="462"/>
+      <c r="H12" s="462">
         <v>3500</v>
       </c>
       <c r="I12" s="338" t="s">
@@ -25606,7 +25651,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="414"/>
-      <c r="C13" s="470" t="s">
+      <c r="C13" s="469" t="s">
         <v>502</v>
       </c>
       <c r="D13" s="77"/>
@@ -25636,8 +25681,8 @@
       <c r="F14" s="410">
         <v>1</v>
       </c>
-      <c r="G14" s="463"/>
-      <c r="H14" s="463">
+      <c r="G14" s="462"/>
+      <c r="H14" s="462">
         <v>25500</v>
       </c>
       <c r="I14" s="87" t="s">
@@ -25657,8 +25702,8 @@
       <c r="F15" s="410">
         <v>1</v>
       </c>
-      <c r="G15" s="463"/>
-      <c r="H15" s="463">
+      <c r="G15" s="462"/>
+      <c r="H15" s="462">
         <v>3150</v>
       </c>
       <c r="I15" s="336" t="s">
@@ -25678,10 +25723,10 @@
       <c r="F16" s="410">
         <v>2</v>
       </c>
-      <c r="G16" s="463">
+      <c r="G16" s="462">
         <v>1500</v>
       </c>
-      <c r="H16" s="463">
+      <c r="H16" s="462">
         <v>3000</v>
       </c>
       <c r="I16" s="87" t="s">
@@ -25713,7 +25758,7 @@
       <c r="F18" s="396">
         <v>2</v>
       </c>
-      <c r="G18" s="462"/>
+      <c r="G18" s="461"/>
       <c r="H18" s="184">
         <v>7600</v>
       </c>
@@ -25730,7 +25775,7 @@
       <c r="F19" s="396">
         <v>5</v>
       </c>
-      <c r="G19" s="462"/>
+      <c r="G19" s="461"/>
       <c r="H19" s="184">
         <v>2000</v>
       </c>
@@ -25744,7 +25789,7 @@
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
       <c r="F20" s="396"/>
-      <c r="G20" s="462"/>
+      <c r="G20" s="461"/>
       <c r="H20" s="184">
         <v>28500</v>
       </c>
@@ -25779,7 +25824,7 @@
       <c r="F22" s="374">
         <v>7</v>
       </c>
-      <c r="G22" s="468">
+      <c r="G22" s="467">
         <v>3500</v>
       </c>
       <c r="H22" s="374">
@@ -25793,7 +25838,7 @@
       <c r="A23" s="4">
         <v>2</v>
       </c>
-      <c r="B23" s="466"/>
+      <c r="B23" s="465"/>
       <c r="C23" s="372" t="s">
         <v>329</v>
       </c>
@@ -25814,7 +25859,7 @@
       <c r="A24" s="4">
         <v>3</v>
       </c>
-      <c r="B24" s="466"/>
+      <c r="B24" s="465"/>
       <c r="C24" s="372" t="s">
         <v>299</v>
       </c>
@@ -25837,7 +25882,7 @@
       <c r="A25" s="4">
         <v>4</v>
       </c>
-      <c r="B25" s="466"/>
+      <c r="B25" s="465"/>
       <c r="C25" s="372" t="s">
         <v>127</v>
       </c>
@@ -25860,7 +25905,7 @@
       <c r="A26" s="4">
         <v>5</v>
       </c>
-      <c r="B26" s="466"/>
+      <c r="B26" s="465"/>
       <c r="C26" s="372" t="s">
         <v>188</v>
       </c>
@@ -25883,7 +25928,7 @@
       <c r="A27" s="4">
         <v>6</v>
       </c>
-      <c r="B27" s="466"/>
+      <c r="B27" s="465"/>
       <c r="C27" s="372" t="s">
         <v>162</v>
       </c>
@@ -25904,7 +25949,7 @@
       <c r="A28" s="4">
         <v>7</v>
       </c>
-      <c r="B28" s="467"/>
+      <c r="B28" s="466"/>
       <c r="C28" s="372" t="s">
         <v>197</v>
       </c>
@@ -25927,25 +25972,28 @@
       <c r="A29" s="4">
         <v>8</v>
       </c>
-      <c r="B29" s="467"/>
-      <c r="C29" s="234" t="s">
+      <c r="B29" s="466"/>
+      <c r="C29" s="412" t="s">
         <v>402</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="79">
-        <v>1</v>
-      </c>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79">
+      <c r="D29" s="385"/>
+      <c r="E29" s="385"/>
+      <c r="F29" s="386">
+        <v>1</v>
+      </c>
+      <c r="G29" s="386"/>
+      <c r="H29" s="386">
         <v>5000</v>
+      </c>
+      <c r="I29" s="101" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>9</v>
       </c>
-      <c r="B30" s="467"/>
+      <c r="B30" s="466"/>
       <c r="C30" s="372" t="s">
         <v>512</v>
       </c>
@@ -25968,7 +26016,7 @@
       <c r="A31" s="4">
         <v>10</v>
       </c>
-      <c r="B31" s="467"/>
+      <c r="B31" s="466"/>
       <c r="C31" s="372" t="s">
         <v>223</v>
       </c>
@@ -25989,7 +26037,7 @@
       <c r="A32" s="4">
         <v>11</v>
       </c>
-      <c r="B32" s="467"/>
+      <c r="B32" s="466"/>
       <c r="C32" s="372" t="s">
         <v>350</v>
       </c>
@@ -26012,8 +26060,8 @@
       <c r="A33" s="4">
         <v>12</v>
       </c>
-      <c r="B33" s="467"/>
-      <c r="C33" s="469" t="s">
+      <c r="B33" s="466"/>
+      <c r="C33" s="468" t="s">
         <v>109</v>
       </c>
       <c r="D33" s="419" t="s">
@@ -26037,8 +26085,8 @@
       <c r="A34" s="4">
         <v>13</v>
       </c>
-      <c r="B34" s="467"/>
-      <c r="C34" s="469" t="s">
+      <c r="B34" s="466"/>
+      <c r="C34" s="468" t="s">
         <v>108</v>
       </c>
       <c r="D34" s="419" t="s">
@@ -26059,7 +26107,7 @@
     <row r="35" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
-      <c r="C35" s="465"/>
+      <c r="C35" s="464"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="50"/>
@@ -26102,7 +26150,7 @@
     <row r="38" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
       <c r="B38" s="255"/>
-      <c r="C38" s="465"/>
+      <c r="C38" s="464"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="50"/>
@@ -26127,7 +26175,7 @@
       <c r="F39" s="374">
         <v>1</v>
       </c>
-      <c r="G39" s="468"/>
+      <c r="G39" s="467"/>
       <c r="H39" s="374">
         <v>3000</v>
       </c>
@@ -26139,7 +26187,7 @@
       <c r="A40" s="4">
         <v>2</v>
       </c>
-      <c r="B40" s="466"/>
+      <c r="B40" s="465"/>
       <c r="C40" s="372" t="s">
         <v>108</v>
       </c>
@@ -26160,7 +26208,7 @@
       <c r="A41" s="4">
         <v>3</v>
       </c>
-      <c r="B41" s="466"/>
+      <c r="B41" s="465"/>
       <c r="C41" s="372" t="s">
         <v>54</v>
       </c>
@@ -26181,7 +26229,7 @@
       <c r="A42" s="4">
         <v>4</v>
       </c>
-      <c r="B42" s="466"/>
+      <c r="B42" s="465"/>
       <c r="C42" s="188" t="s">
         <v>78</v>
       </c>
@@ -26203,7 +26251,7 @@
       <c r="A43" s="4">
         <v>5</v>
       </c>
-      <c r="B43" s="466"/>
+      <c r="B43" s="465"/>
       <c r="C43" s="372" t="s">
         <v>197</v>
       </c>
@@ -26226,7 +26274,7 @@
       <c r="A44" s="4">
         <v>6</v>
       </c>
-      <c r="B44" s="466"/>
+      <c r="B44" s="465"/>
       <c r="C44" s="372" t="s">
         <v>127</v>
       </c>
@@ -26247,7 +26295,7 @@
       <c r="A45" s="4">
         <v>7</v>
       </c>
-      <c r="B45" s="467"/>
+      <c r="B45" s="466"/>
       <c r="C45" s="372" t="s">
         <v>109</v>
       </c>
@@ -26268,7 +26316,7 @@
       <c r="A46" s="4">
         <v>8</v>
       </c>
-      <c r="B46" s="467"/>
+      <c r="B46" s="466"/>
       <c r="C46" s="193" t="s">
         <v>517</v>
       </c>
@@ -26286,7 +26334,7 @@
     </row>
     <row r="47" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
-      <c r="B47" s="467"/>
+      <c r="B47" s="466"/>
       <c r="C47" s="188"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -26299,7 +26347,7 @@
     </row>
     <row r="48" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
-      <c r="B48" s="467"/>
+      <c r="B48" s="466"/>
       <c r="C48" s="188" t="s">
         <v>518</v>
       </c>
@@ -26315,7 +26363,7 @@
     </row>
     <row r="49" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
-      <c r="B49" s="467"/>
+      <c r="B49" s="466"/>
       <c r="C49" s="188" t="s">
         <v>472</v>
       </c>
@@ -26331,7 +26379,7 @@
     </row>
     <row r="50" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
-      <c r="B50" s="467"/>
+      <c r="B50" s="466"/>
       <c r="C50" s="401" t="s">
         <v>520</v>
       </c>
@@ -26347,7 +26395,7 @@
     </row>
     <row r="51" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
-      <c r="B51" s="467"/>
+      <c r="B51" s="466"/>
       <c r="C51" s="234"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -26375,7 +26423,7 @@
       <c r="F52" s="374">
         <v>1</v>
       </c>
-      <c r="G52" s="468"/>
+      <c r="G52" s="467"/>
       <c r="H52" s="374">
         <v>25500</v>
       </c>
@@ -26387,7 +26435,7 @@
       <c r="A53" s="4">
         <v>2</v>
       </c>
-      <c r="B53" s="466"/>
+      <c r="B53" s="465"/>
       <c r="C53" s="372" t="s">
         <v>196</v>
       </c>
@@ -26410,7 +26458,7 @@
       <c r="A54" s="4">
         <v>3</v>
       </c>
-      <c r="B54" s="466"/>
+      <c r="B54" s="465"/>
       <c r="C54" s="372" t="s">
         <v>524</v>
       </c>
@@ -26431,7 +26479,7 @@
       <c r="A55" s="4">
         <v>4</v>
       </c>
-      <c r="B55" s="466"/>
+      <c r="B55" s="465"/>
       <c r="C55" s="372" t="s">
         <v>108</v>
       </c>
@@ -26452,7 +26500,7 @@
       <c r="A56" s="4">
         <v>5</v>
       </c>
-      <c r="B56" s="466"/>
+      <c r="B56" s="465"/>
       <c r="C56" s="372" t="s">
         <v>109</v>
       </c>
@@ -26473,7 +26521,7 @@
       <c r="A57" s="4">
         <v>6</v>
       </c>
-      <c r="B57" s="466"/>
+      <c r="B57" s="465"/>
       <c r="C57" s="372" t="s">
         <v>176</v>
       </c>
@@ -26496,7 +26544,7 @@
       <c r="A58" s="4">
         <v>7</v>
       </c>
-      <c r="B58" s="467"/>
+      <c r="B58" s="466"/>
       <c r="C58" s="372" t="s">
         <v>127</v>
       </c>
@@ -26517,7 +26565,7 @@
       <c r="A59" s="4">
         <v>8</v>
       </c>
-      <c r="B59" s="467"/>
+      <c r="B59" s="466"/>
       <c r="C59" s="375" t="s">
         <v>228</v>
       </c>
@@ -26540,7 +26588,7 @@
       <c r="A60" s="4">
         <v>9</v>
       </c>
-      <c r="B60" s="467"/>
+      <c r="B60" s="466"/>
       <c r="C60" s="372" t="s">
         <v>171</v>
       </c>
@@ -26563,11 +26611,11 @@
       <c r="A61" s="4">
         <v>10</v>
       </c>
-      <c r="B61" s="467"/>
+      <c r="B61" s="466"/>
       <c r="C61" s="384" t="s">
         <v>197</v>
       </c>
-      <c r="D61" s="472"/>
+      <c r="D61" s="471"/>
       <c r="E61" s="385" t="s">
         <v>22</v>
       </c>
@@ -26586,7 +26634,7 @@
       <c r="A62" s="4">
         <v>11</v>
       </c>
-      <c r="B62" s="467"/>
+      <c r="B62" s="466"/>
       <c r="C62" s="372" t="s">
         <v>139</v>
       </c>
@@ -26607,7 +26655,7 @@
       <c r="A63" s="4">
         <v>12</v>
       </c>
-      <c r="B63" s="467"/>
+      <c r="B63" s="466"/>
       <c r="C63" s="384" t="s">
         <v>54</v>
       </c>
@@ -26628,7 +26676,7 @@
       <c r="A64" s="4">
         <v>13</v>
       </c>
-      <c r="B64" s="467"/>
+      <c r="B64" s="466"/>
       <c r="C64" s="412" t="s">
         <v>197</v>
       </c>
@@ -26720,7 +26768,7 @@
       <c r="C69" s="384" t="s">
         <v>523</v>
       </c>
-      <c r="D69" s="472" t="s">
+      <c r="D69" s="471" t="s">
         <v>522</v>
       </c>
       <c r="E69" s="385"/>
@@ -26738,7 +26786,7 @@
     <row r="70" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="23"/>
       <c r="B70" s="255"/>
-      <c r="C70" s="465"/>
+      <c r="C70" s="464"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="50"/>
@@ -26763,7 +26811,7 @@
       <c r="F71" s="50">
         <v>2</v>
       </c>
-      <c r="G71" s="464">
+      <c r="G71" s="463">
         <v>1200</v>
       </c>
       <c r="H71" s="50">
@@ -26774,7 +26822,7 @@
       <c r="A72" s="4">
         <v>2</v>
       </c>
-      <c r="B72" s="466"/>
+      <c r="B72" s="465"/>
       <c r="C72" s="372" t="s">
         <v>188</v>
       </c>
@@ -26799,7 +26847,7 @@
       <c r="A73" s="4">
         <v>3</v>
       </c>
-      <c r="B73" s="466"/>
+      <c r="B73" s="465"/>
       <c r="C73" s="372" t="s">
         <v>529</v>
       </c>
@@ -26820,7 +26868,7 @@
       <c r="A74" s="4">
         <v>4</v>
       </c>
-      <c r="B74" s="466"/>
+      <c r="B74" s="465"/>
       <c r="C74" s="372" t="s">
         <v>530</v>
       </c>
@@ -26842,7 +26890,7 @@
       <c r="A75" s="4">
         <v>5</v>
       </c>
-      <c r="B75" s="466"/>
+      <c r="B75" s="465"/>
       <c r="C75" s="372" t="s">
         <v>127</v>
       </c>
@@ -26863,27 +26911,30 @@
       <c r="A76" s="4">
         <v>6</v>
       </c>
-      <c r="B76" s="466"/>
-      <c r="C76" s="234" t="s">
+      <c r="B76" s="465"/>
+      <c r="C76" s="412" t="s">
         <v>128</v>
       </c>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="79">
+      <c r="D76" s="385"/>
+      <c r="E76" s="385"/>
+      <c r="F76" s="386">
         <v>4</v>
       </c>
-      <c r="G76" s="79">
+      <c r="G76" s="386">
         <v>3150</v>
       </c>
-      <c r="H76" s="79">
+      <c r="H76" s="386">
         <v>12600</v>
+      </c>
+      <c r="I76" s="101" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>7</v>
       </c>
-      <c r="B77" s="467"/>
+      <c r="B77" s="466"/>
       <c r="C77" s="234" t="s">
         <v>228</v>
       </c>
@@ -26903,7 +26954,7 @@
       <c r="A78" s="4">
         <v>8</v>
       </c>
-      <c r="B78" s="467"/>
+      <c r="B78" s="466"/>
       <c r="C78" s="193" t="s">
         <v>208</v>
       </c>
@@ -26923,7 +26974,7 @@
       <c r="A79" s="4">
         <v>9</v>
       </c>
-      <c r="B79" s="467"/>
+      <c r="B79" s="466"/>
       <c r="C79" s="372" t="s">
         <v>204</v>
       </c>
@@ -26948,11 +26999,11 @@
       <c r="A80" s="4">
         <v>10</v>
       </c>
-      <c r="B80" s="467"/>
+      <c r="B80" s="466"/>
       <c r="C80" s="384" t="s">
         <v>151</v>
       </c>
-      <c r="D80" s="472"/>
+      <c r="D80" s="471"/>
       <c r="E80" s="385" t="s">
         <v>14</v>
       </c>
@@ -26971,7 +27022,7 @@
       <c r="A81" s="4">
         <v>11</v>
       </c>
-      <c r="B81" s="467"/>
+      <c r="B81" s="466"/>
       <c r="C81" s="188" t="s">
         <v>78</v>
       </c>
@@ -26993,7 +27044,7 @@
       <c r="A82" s="4">
         <v>12</v>
       </c>
-      <c r="B82" s="467"/>
+      <c r="B82" s="466"/>
       <c r="C82" s="384" t="s">
         <v>223</v>
       </c>
@@ -27012,7 +27063,7 @@
     </row>
     <row r="83" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
-      <c r="B83" s="467"/>
+      <c r="B83" s="466"/>
       <c r="C83" s="369"/>
       <c r="D83" s="45"/>
       <c r="E83" s="45"/>
@@ -27098,7 +27149,7 @@
       <c r="F88" s="374">
         <v>1</v>
       </c>
-      <c r="G88" s="468"/>
+      <c r="G88" s="467"/>
       <c r="H88" s="374">
         <v>24500</v>
       </c>
@@ -27110,7 +27161,7 @@
       <c r="A89" s="4">
         <v>2</v>
       </c>
-      <c r="B89" s="466"/>
+      <c r="B89" s="465"/>
       <c r="C89" s="372" t="s">
         <v>127</v>
       </c>
@@ -27133,7 +27184,7 @@
       <c r="A90" s="4">
         <v>3</v>
       </c>
-      <c r="B90" s="466"/>
+      <c r="B90" s="465"/>
       <c r="C90" s="188" t="s">
         <v>534</v>
       </c>
@@ -27151,7 +27202,7 @@
       <c r="A91" s="4">
         <v>4</v>
       </c>
-      <c r="B91" s="466"/>
+      <c r="B91" s="465"/>
       <c r="C91" s="188" t="s">
         <v>535</v>
       </c>
@@ -27169,7 +27220,7 @@
       <c r="A92" s="4">
         <v>5</v>
       </c>
-      <c r="B92" s="466"/>
+      <c r="B92" s="465"/>
       <c r="C92" s="188" t="s">
         <v>536</v>
       </c>
@@ -27187,7 +27238,7 @@
       <c r="A93" s="4">
         <v>6</v>
       </c>
-      <c r="B93" s="466"/>
+      <c r="B93" s="465"/>
       <c r="C93" s="372" t="s">
         <v>537</v>
       </c>
@@ -27208,8 +27259,8 @@
       <c r="A94" s="4">
         <v>7</v>
       </c>
-      <c r="B94" s="467"/>
-      <c r="C94" s="469" t="s">
+      <c r="B94" s="466"/>
+      <c r="C94" s="468" t="s">
         <v>538</v>
       </c>
       <c r="D94" s="419"/>
@@ -27223,7 +27274,7 @@
       <c r="H94" s="421">
         <v>15200</v>
       </c>
-      <c r="I94" s="473" t="s">
+      <c r="I94" s="472" t="s">
         <v>548</v>
       </c>
     </row>
@@ -27231,7 +27282,7 @@
       <c r="A95" s="4">
         <v>8</v>
       </c>
-      <c r="B95" s="467"/>
+      <c r="B95" s="466"/>
       <c r="C95" s="375" t="s">
         <v>160</v>
       </c>
@@ -27253,7 +27304,7 @@
     </row>
     <row r="96" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
-      <c r="B96" s="467"/>
+      <c r="B96" s="466"/>
       <c r="C96" s="188"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
@@ -27266,11 +27317,11 @@
     </row>
     <row r="97" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
-      <c r="B97" s="467"/>
+      <c r="B97" s="466"/>
       <c r="C97" s="401" t="s">
         <v>539</v>
       </c>
-      <c r="D97" s="471"/>
+      <c r="D97" s="470"/>
       <c r="E97" s="45"/>
       <c r="F97" s="75"/>
       <c r="G97" s="79"/>
@@ -27280,7 +27331,7 @@
     </row>
     <row r="98" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
-      <c r="B98" s="467"/>
+      <c r="B98" s="466"/>
       <c r="C98" s="188"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
@@ -27306,7 +27357,7 @@
       <c r="F99" s="374">
         <v>1</v>
       </c>
-      <c r="G99" s="468"/>
+      <c r="G99" s="467"/>
       <c r="H99" s="374">
         <v>3500</v>
       </c>
@@ -27318,7 +27369,7 @@
       <c r="A100" s="4">
         <v>2</v>
       </c>
-      <c r="B100" s="466"/>
+      <c r="B100" s="465"/>
       <c r="C100" s="375" t="s">
         <v>541</v>
       </c>
@@ -27341,7 +27392,7 @@
       <c r="A101" s="4">
         <v>3</v>
       </c>
-      <c r="B101" s="466"/>
+      <c r="B101" s="465"/>
       <c r="C101" s="188" t="s">
         <v>542</v>
       </c>
@@ -27363,7 +27414,7 @@
       <c r="A102" s="4">
         <v>4</v>
       </c>
-      <c r="B102" s="466"/>
+      <c r="B102" s="465"/>
       <c r="C102" s="188" t="s">
         <v>27</v>
       </c>
@@ -27383,7 +27434,7 @@
       <c r="A103" s="4">
         <v>5</v>
       </c>
-      <c r="B103" s="466"/>
+      <c r="B103" s="465"/>
       <c r="C103" s="188" t="s">
         <v>544</v>
       </c>
@@ -27405,7 +27456,7 @@
       <c r="A104" s="4">
         <v>6</v>
       </c>
-      <c r="B104" s="466"/>
+      <c r="B104" s="465"/>
       <c r="C104" s="188" t="s">
         <v>218</v>
       </c>
@@ -27427,7 +27478,7 @@
       <c r="A105" s="4">
         <v>7</v>
       </c>
-      <c r="B105" s="467"/>
+      <c r="B105" s="466"/>
       <c r="C105" s="188" t="s">
         <v>542</v>
       </c>
@@ -27447,7 +27498,7 @@
     </row>
     <row r="106" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
-      <c r="B106" s="467"/>
+      <c r="B106" s="466"/>
       <c r="C106" s="193"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
@@ -27460,7 +27511,7 @@
     </row>
     <row r="107" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
-      <c r="B107" s="467"/>
+      <c r="B107" s="466"/>
       <c r="C107" s="188" t="s">
         <v>546</v>
       </c>
@@ -27481,11 +27532,11 @@
     </row>
     <row r="108" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
-      <c r="B108" s="467"/>
+      <c r="B108" s="466"/>
       <c r="C108" s="401" t="s">
         <v>102</v>
       </c>
-      <c r="D108" s="471"/>
+      <c r="D108" s="470"/>
       <c r="E108" s="45"/>
       <c r="F108" s="75">
         <v>1</v>
@@ -27497,7 +27548,7 @@
     </row>
     <row r="109" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
-      <c r="B109" s="467"/>
+      <c r="B109" s="466"/>
       <c r="C109" s="188" t="s">
         <v>547</v>
       </c>
@@ -27515,7 +27566,7 @@
     </row>
     <row r="110" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
-      <c r="B110" s="467"/>
+      <c r="B110" s="466"/>
       <c r="C110" s="401" t="s">
         <v>539</v>
       </c>
@@ -27529,7 +27580,7 @@
     </row>
     <row r="111" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
-      <c r="B111" s="467"/>
+      <c r="B111" s="466"/>
       <c r="C111" s="369"/>
       <c r="D111" s="45"/>
       <c r="E111" s="45"/>
@@ -27547,7 +27598,7 @@
       <c r="B112" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="C112" s="469" t="s">
+      <c r="C112" s="468" t="s">
         <v>550</v>
       </c>
       <c r="D112" s="419"/>
@@ -27555,13 +27606,13 @@
       <c r="F112" s="421">
         <v>8</v>
       </c>
-      <c r="G112" s="475">
+      <c r="G112" s="474">
         <v>3000</v>
       </c>
       <c r="H112" s="421">
         <v>24000</v>
       </c>
-      <c r="I112" s="473" t="s">
+      <c r="I112" s="472" t="s">
         <v>566</v>
       </c>
     </row>
@@ -27569,7 +27620,7 @@
       <c r="A113" s="4">
         <v>2</v>
       </c>
-      <c r="B113" s="466"/>
+      <c r="B113" s="465"/>
       <c r="C113" s="193" t="s">
         <v>551</v>
       </c>
@@ -27591,7 +27642,7 @@
       <c r="A114" s="4">
         <v>3</v>
       </c>
-      <c r="B114" s="466"/>
+      <c r="B114" s="465"/>
       <c r="C114" s="188" t="s">
         <v>552</v>
       </c>
@@ -27613,7 +27664,7 @@
       <c r="A115" s="4">
         <v>4</v>
       </c>
-      <c r="B115" s="466"/>
+      <c r="B115" s="465"/>
       <c r="C115" s="372" t="s">
         <v>151</v>
       </c>
@@ -27636,7 +27687,7 @@
     </row>
     <row r="116" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
-      <c r="B116" s="466"/>
+      <c r="B116" s="465"/>
       <c r="C116" s="188"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
@@ -27649,7 +27700,7 @@
     </row>
     <row r="117" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
-      <c r="B117" s="466"/>
+      <c r="B117" s="465"/>
       <c r="C117" s="188" t="s">
         <v>553</v>
       </c>
@@ -27663,7 +27714,7 @@
     </row>
     <row r="118" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
-      <c r="B118" s="467"/>
+      <c r="B118" s="466"/>
       <c r="C118" s="193" t="s">
         <v>554</v>
       </c>
@@ -27681,7 +27732,7 @@
     </row>
     <row r="119" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
-      <c r="B119" s="467"/>
+      <c r="B119" s="466"/>
       <c r="C119" s="193"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
@@ -27709,7 +27760,7 @@
       <c r="F120" s="374">
         <v>1</v>
       </c>
-      <c r="G120" s="468"/>
+      <c r="G120" s="467"/>
       <c r="H120" s="374">
         <v>23400</v>
       </c>
@@ -27721,7 +27772,7 @@
       <c r="A121" s="4">
         <v>2</v>
       </c>
-      <c r="B121" s="466"/>
+      <c r="B121" s="465"/>
       <c r="C121" s="375" t="s">
         <v>127</v>
       </c>
@@ -27744,27 +27795,30 @@
       <c r="A122" s="4">
         <v>3</v>
       </c>
-      <c r="B122" s="466"/>
-      <c r="C122" s="234" t="s">
+      <c r="B122" s="465"/>
+      <c r="C122" s="412" t="s">
         <v>557</v>
       </c>
-      <c r="D122" s="8"/>
-      <c r="E122" s="8"/>
-      <c r="F122" s="79">
+      <c r="D122" s="385"/>
+      <c r="E122" s="385"/>
+      <c r="F122" s="386">
         <v>3</v>
       </c>
-      <c r="G122" s="79">
+      <c r="G122" s="386">
         <v>3150</v>
       </c>
-      <c r="H122" s="79">
+      <c r="H122" s="386">
         <v>9450</v>
+      </c>
+      <c r="I122" s="101" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>4</v>
       </c>
-      <c r="B123" s="466"/>
+      <c r="B123" s="465"/>
       <c r="C123" s="372" t="s">
         <v>109</v>
       </c>
@@ -27787,7 +27841,7 @@
       <c r="A124" s="4">
         <v>5</v>
       </c>
-      <c r="B124" s="466"/>
+      <c r="B124" s="465"/>
       <c r="C124" s="188" t="s">
         <v>558</v>
       </c>
@@ -27807,7 +27861,7 @@
       <c r="A125" s="4">
         <v>6</v>
       </c>
-      <c r="B125" s="466"/>
+      <c r="B125" s="465"/>
       <c r="C125" s="372" t="s">
         <v>151</v>
       </c>
@@ -27830,7 +27884,7 @@
       <c r="A126" s="4">
         <v>7</v>
       </c>
-      <c r="B126" s="467"/>
+      <c r="B126" s="466"/>
       <c r="C126" s="375" t="s">
         <v>284</v>
       </c>
@@ -27853,7 +27907,7 @@
       <c r="A127" s="4">
         <v>8</v>
       </c>
-      <c r="B127" s="467"/>
+      <c r="B127" s="466"/>
       <c r="C127" s="354" t="s">
         <v>559</v>
       </c>
@@ -27871,7 +27925,7 @@
       <c r="A128" s="4">
         <v>9</v>
       </c>
-      <c r="B128" s="467"/>
+      <c r="B128" s="466"/>
       <c r="C128" s="188" t="s">
         <v>27</v>
       </c>
@@ -27891,11 +27945,11 @@
       <c r="A129" s="4">
         <v>10</v>
       </c>
-      <c r="B129" s="467"/>
+      <c r="B129" s="466"/>
       <c r="C129" s="401" t="s">
         <v>27</v>
       </c>
-      <c r="D129" s="471" t="s">
+      <c r="D129" s="470" t="s">
         <v>562</v>
       </c>
       <c r="E129" s="45"/>
@@ -27911,11 +27965,11 @@
       <c r="A130" s="4">
         <v>11</v>
       </c>
-      <c r="B130" s="467"/>
+      <c r="B130" s="466"/>
       <c r="C130" s="384" t="s">
         <v>54</v>
       </c>
-      <c r="D130" s="472"/>
+      <c r="D130" s="471"/>
       <c r="E130" s="385"/>
       <c r="F130" s="386">
         <v>1</v>
@@ -27932,7 +27986,7 @@
       <c r="A131" s="4">
         <v>12</v>
       </c>
-      <c r="B131" s="467"/>
+      <c r="B131" s="466"/>
       <c r="C131" s="372" t="s">
         <v>223</v>
       </c>
@@ -27953,7 +28007,7 @@
       <c r="A132" s="4">
         <v>13</v>
       </c>
-      <c r="B132" s="467"/>
+      <c r="B132" s="466"/>
       <c r="C132" s="401" t="s">
         <v>561</v>
       </c>
@@ -27975,7 +28029,7 @@
       <c r="A133" s="4">
         <v>14</v>
       </c>
-      <c r="B133" s="467"/>
+      <c r="B133" s="466"/>
       <c r="C133" s="369" t="s">
         <v>27</v>
       </c>
@@ -27998,7 +28052,7 @@
         <v>15</v>
       </c>
       <c r="B134" s="50"/>
-      <c r="C134" s="476" t="s">
+      <c r="C134" s="475" t="s">
         <v>228</v>
       </c>
       <c r="D134" s="79"/>
@@ -28043,7 +28097,7 @@
     <row r="137" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A137" s="26"/>
       <c r="B137" s="26"/>
-      <c r="C137" s="474" t="s">
+      <c r="C137" s="473" t="s">
         <v>554</v>
       </c>
       <c r="D137" s="26"/>
@@ -28059,7 +28113,7 @@
     <row r="138" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A138" s="26"/>
       <c r="B138" s="26"/>
-      <c r="C138" s="474" t="s">
+      <c r="C138" s="473" t="s">
         <v>564</v>
       </c>
       <c r="D138" s="26"/>
@@ -28100,7 +28154,7 @@
       <c r="F140" s="79">
         <v>1</v>
       </c>
-      <c r="G140" s="478"/>
+      <c r="G140" s="477"/>
       <c r="H140" s="79">
         <v>6050</v>
       </c>
@@ -28109,7 +28163,7 @@
       <c r="A141" s="4">
         <v>2</v>
       </c>
-      <c r="B141" s="466"/>
+      <c r="B141" s="465"/>
       <c r="C141" s="375" t="s">
         <v>228</v>
       </c>
@@ -28134,7 +28188,7 @@
       <c r="A142" s="4">
         <v>3</v>
       </c>
-      <c r="B142" s="466"/>
+      <c r="B142" s="465"/>
       <c r="C142" s="372" t="s">
         <v>568</v>
       </c>
@@ -28157,27 +28211,30 @@
       <c r="A143" s="4">
         <v>4</v>
       </c>
-      <c r="B143" s="466"/>
-      <c r="C143" s="479" t="s">
+      <c r="B143" s="465"/>
+      <c r="C143" s="393" t="s">
         <v>569</v>
       </c>
-      <c r="D143" s="8"/>
-      <c r="E143" s="8"/>
-      <c r="F143" s="79">
+      <c r="D143" s="385"/>
+      <c r="E143" s="385"/>
+      <c r="F143" s="386">
         <v>4</v>
       </c>
-      <c r="G143" s="79">
+      <c r="G143" s="386">
         <v>3000</v>
       </c>
-      <c r="H143" s="79">
+      <c r="H143" s="386">
         <v>12000</v>
+      </c>
+      <c r="I143" s="101" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>5</v>
       </c>
-      <c r="B144" s="466"/>
+      <c r="B144" s="465"/>
       <c r="C144" s="372" t="s">
         <v>197</v>
       </c>
@@ -28200,7 +28257,7 @@
       <c r="A145" s="4">
         <v>6</v>
       </c>
-      <c r="B145" s="466"/>
+      <c r="B145" s="465"/>
       <c r="C145" s="372" t="s">
         <v>299</v>
       </c>
@@ -28223,7 +28280,7 @@
       <c r="A146" s="4">
         <v>7</v>
       </c>
-      <c r="B146" s="467"/>
+      <c r="B146" s="466"/>
       <c r="C146" s="375" t="s">
         <v>299</v>
       </c>
@@ -28248,7 +28305,7 @@
       <c r="A147" s="4">
         <v>8</v>
       </c>
-      <c r="B147" s="467"/>
+      <c r="B147" s="466"/>
       <c r="C147" s="375" t="s">
         <v>197</v>
       </c>
@@ -28273,7 +28330,7 @@
       <c r="A148" s="4">
         <v>9</v>
       </c>
-      <c r="B148" s="467"/>
+      <c r="B148" s="466"/>
       <c r="C148" s="372" t="s">
         <v>127</v>
       </c>
@@ -28296,11 +28353,11 @@
       <c r="A149" s="4">
         <v>10</v>
       </c>
-      <c r="B149" s="467"/>
+      <c r="B149" s="466"/>
       <c r="C149" s="384" t="s">
         <v>570</v>
       </c>
-      <c r="D149" s="472"/>
+      <c r="D149" s="471"/>
       <c r="E149" s="385"/>
       <c r="F149" s="386">
         <v>1</v>
@@ -28317,11 +28374,11 @@
       <c r="A150" s="4">
         <v>11</v>
       </c>
-      <c r="B150" s="467"/>
+      <c r="B150" s="466"/>
       <c r="C150" s="384" t="s">
         <v>176</v>
       </c>
-      <c r="D150" s="472"/>
+      <c r="D150" s="471"/>
       <c r="E150" s="385" t="s">
         <v>22</v>
       </c>
@@ -28342,7 +28399,7 @@
       <c r="A151" s="4">
         <v>12</v>
       </c>
-      <c r="B151" s="467"/>
+      <c r="B151" s="466"/>
       <c r="C151" s="372" t="s">
         <v>139</v>
       </c>
@@ -28363,7 +28420,7 @@
       <c r="A152" s="4">
         <v>13</v>
       </c>
-      <c r="B152" s="467"/>
+      <c r="B152" s="466"/>
       <c r="C152" s="384" t="s">
         <v>54</v>
       </c>
@@ -28382,7 +28439,7 @@
     </row>
     <row r="153" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
-      <c r="B153" s="467"/>
+      <c r="B153" s="466"/>
       <c r="C153" s="369"/>
       <c r="D153" s="45"/>
       <c r="E153" s="45"/>
@@ -28410,7 +28467,7 @@
     <row r="155" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="50"/>
       <c r="B155" s="50"/>
-      <c r="C155" s="477" t="s">
+      <c r="C155" s="476" t="s">
         <v>571</v>
       </c>
       <c r="D155" s="50"/>
@@ -28428,7 +28485,7 @@
     <row r="156" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="50"/>
       <c r="B156" s="50"/>
-      <c r="C156" s="477" t="s">
+      <c r="C156" s="476" t="s">
         <v>554</v>
       </c>
       <c r="D156" s="50"/>
@@ -28444,7 +28501,7 @@
     <row r="157" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A157" s="26"/>
       <c r="B157" s="26"/>
-      <c r="C157" s="474"/>
+      <c r="C157" s="473"/>
       <c r="D157" s="26"/>
       <c r="E157" s="26"/>
       <c r="F157" s="4"/>
@@ -28455,351 +28512,631 @@
       </c>
     </row>
     <row r="158" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="4"/>
-      <c r="B158" s="4"/>
-      <c r="C158" s="192"/>
-      <c r="D158" s="83"/>
-      <c r="E158" s="89"/>
-      <c r="F158" s="89"/>
-      <c r="G158" s="447"/>
-      <c r="H158" s="84"/>
+      <c r="A158" s="4">
+        <v>1</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="C158" s="372" t="s">
+        <v>109</v>
+      </c>
+      <c r="D158" s="373"/>
+      <c r="E158" s="373"/>
+      <c r="F158" s="374">
+        <v>5</v>
+      </c>
+      <c r="G158" s="467">
+        <v>3500</v>
+      </c>
+      <c r="H158" s="374">
+        <v>17500</v>
+      </c>
+      <c r="I158" s="101" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="159" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="4"/>
-      <c r="B159" s="4"/>
-      <c r="C159" s="192"/>
-      <c r="D159" s="83"/>
-      <c r="E159" s="89"/>
-      <c r="F159" s="89"/>
-      <c r="G159" s="447"/>
-      <c r="H159" s="84"/>
+      <c r="A159" s="4">
+        <v>2</v>
+      </c>
+      <c r="B159" s="465"/>
+      <c r="C159" s="192" t="s">
+        <v>27</v>
+      </c>
+      <c r="D159" s="83" t="s">
+        <v>244</v>
+      </c>
+      <c r="E159" s="83"/>
+      <c r="F159" s="84">
+        <v>1</v>
+      </c>
+      <c r="G159" s="84"/>
+      <c r="H159" s="84">
+        <v>14000</v>
+      </c>
     </row>
     <row r="160" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="4"/>
-      <c r="B160" s="3"/>
-      <c r="C160" s="192"/>
-      <c r="D160" s="83"/>
-      <c r="E160" s="89"/>
-      <c r="F160" s="89"/>
-      <c r="G160" s="447"/>
-      <c r="H160" s="84"/>
+      <c r="A160" s="4">
+        <v>3</v>
+      </c>
+      <c r="B160" s="465"/>
+      <c r="C160" s="387" t="s">
+        <v>27</v>
+      </c>
+      <c r="D160" s="83" t="s">
+        <v>51</v>
+      </c>
+      <c r="E160" s="83"/>
+      <c r="F160" s="84">
+        <v>1</v>
+      </c>
+      <c r="G160" s="84"/>
+      <c r="H160" s="84">
+        <v>13000</v>
+      </c>
     </row>
     <row r="161" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4"/>
-      <c r="B161" s="3"/>
-      <c r="C161" s="192"/>
-      <c r="D161" s="83"/>
-      <c r="E161" s="89"/>
-      <c r="F161" s="89"/>
-      <c r="G161" s="447"/>
-      <c r="H161" s="84"/>
+      <c r="B161" s="465"/>
+      <c r="C161" s="260"/>
+      <c r="D161" s="4"/>
+      <c r="E161" s="4"/>
+      <c r="F161" s="50"/>
+      <c r="G161" s="50"/>
+      <c r="H161" s="223">
+        <f>SUM(H158:H160)</f>
+        <v>44500</v>
+      </c>
     </row>
     <row r="162" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4"/>
-      <c r="B162" s="3"/>
-      <c r="C162" s="435"/>
-      <c r="D162" s="83"/>
-      <c r="E162" s="89"/>
-      <c r="F162" s="83"/>
-      <c r="G162" s="84"/>
-      <c r="H162" s="84"/>
+      <c r="B162" s="465"/>
+      <c r="C162" s="188" t="s">
+        <v>539</v>
+      </c>
+      <c r="D162" s="4"/>
+      <c r="E162" s="4"/>
+      <c r="F162" s="50"/>
+      <c r="G162" s="50"/>
+      <c r="H162" s="50">
+        <v>27000</v>
+      </c>
     </row>
     <row r="163" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4"/>
-      <c r="B163" s="3"/>
-      <c r="C163" s="435"/>
-      <c r="D163" s="83"/>
-      <c r="E163" s="89"/>
-      <c r="F163" s="83"/>
-      <c r="G163" s="84"/>
-      <c r="H163" s="84"/>
+      <c r="B163" s="465"/>
+      <c r="C163" s="193" t="s">
+        <v>574</v>
+      </c>
+      <c r="D163" s="4"/>
+      <c r="E163" s="4"/>
+      <c r="F163" s="50"/>
+      <c r="G163" s="50"/>
+      <c r="H163" s="50">
+        <v>2000</v>
+      </c>
     </row>
     <row r="164" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4"/>
-      <c r="B164" s="3"/>
-      <c r="C164" s="435"/>
-      <c r="D164" s="83"/>
-      <c r="E164" s="89"/>
-      <c r="F164" s="83"/>
-      <c r="G164" s="447"/>
-      <c r="H164" s="84"/>
+      <c r="B164" s="466"/>
+      <c r="C164" s="193"/>
+      <c r="D164" s="4"/>
+      <c r="E164" s="4"/>
+      <c r="F164" s="50"/>
+      <c r="G164" s="50"/>
+      <c r="H164" s="223">
+        <f>SUM(H161:H163)</f>
+        <v>73500</v>
+      </c>
     </row>
     <row r="165" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="4"/>
-      <c r="B165" s="3"/>
-      <c r="C165" s="435"/>
-      <c r="D165" s="83"/>
-      <c r="E165" s="89"/>
-      <c r="F165" s="83"/>
-      <c r="G165" s="447"/>
-      <c r="H165" s="84"/>
+      <c r="A165" s="222">
+        <v>1</v>
+      </c>
+      <c r="B165" s="222" t="s">
+        <v>575</v>
+      </c>
+      <c r="C165" s="484" t="s">
+        <v>109</v>
+      </c>
+      <c r="D165" s="413"/>
+      <c r="E165" s="413"/>
+      <c r="F165" s="413">
+        <v>4</v>
+      </c>
+      <c r="G165" s="485">
+        <v>3500</v>
+      </c>
+      <c r="H165" s="374">
+        <v>14000</v>
+      </c>
+      <c r="I165" s="101" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="166" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="4"/>
-      <c r="B166" s="3"/>
-      <c r="C166" s="435"/>
-      <c r="D166" s="83"/>
-      <c r="E166" s="89"/>
-      <c r="F166" s="83"/>
-      <c r="G166" s="447"/>
-      <c r="H166" s="84"/>
+      <c r="A166" s="222">
+        <v>2</v>
+      </c>
+      <c r="B166" s="222"/>
+      <c r="C166" s="486" t="s">
+        <v>223</v>
+      </c>
+      <c r="D166" s="413"/>
+      <c r="E166" s="413"/>
+      <c r="F166" s="413">
+        <v>1</v>
+      </c>
+      <c r="G166" s="413"/>
+      <c r="H166" s="374">
+        <v>2500</v>
+      </c>
+      <c r="I166" s="101" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="167" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="4"/>
-      <c r="B167" s="3"/>
-      <c r="C167" s="435"/>
-      <c r="D167" s="83"/>
-      <c r="E167" s="89"/>
-      <c r="F167" s="89"/>
-      <c r="G167" s="447"/>
-      <c r="H167" s="84"/>
+      <c r="A167" s="222">
+        <v>3</v>
+      </c>
+      <c r="B167" s="222"/>
+      <c r="C167" s="484" t="s">
+        <v>176</v>
+      </c>
+      <c r="D167" s="413"/>
+      <c r="E167" s="413" t="s">
+        <v>22</v>
+      </c>
+      <c r="F167" s="413">
+        <v>2</v>
+      </c>
+      <c r="G167" s="413">
+        <v>34500</v>
+      </c>
+      <c r="H167" s="374">
+        <v>69000</v>
+      </c>
+      <c r="I167" s="101" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="168" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="4"/>
-      <c r="B168" s="3"/>
-      <c r="C168" s="436"/>
-      <c r="D168" s="437"/>
-      <c r="E168" s="441"/>
-      <c r="F168" s="441"/>
-      <c r="G168" s="447"/>
-      <c r="H168" s="84"/>
+      <c r="A168" s="222">
+        <v>4</v>
+      </c>
+      <c r="B168" s="222"/>
+      <c r="C168" s="476" t="s">
+        <v>544</v>
+      </c>
+      <c r="D168" s="222" t="s">
+        <v>44</v>
+      </c>
+      <c r="E168" s="222"/>
+      <c r="F168" s="222">
+        <v>2</v>
+      </c>
+      <c r="G168" s="222">
+        <v>8000</v>
+      </c>
+      <c r="H168" s="50">
+        <v>16000</v>
+      </c>
     </row>
     <row r="169" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="4"/>
-      <c r="B169" s="3"/>
-      <c r="C169" s="436"/>
-      <c r="D169" s="437"/>
-      <c r="E169" s="441"/>
-      <c r="F169" s="441"/>
-      <c r="G169" s="447"/>
-      <c r="H169" s="84"/>
+      <c r="A169" s="222">
+        <v>5</v>
+      </c>
+      <c r="B169" s="222"/>
+      <c r="C169" s="482" t="s">
+        <v>27</v>
+      </c>
+      <c r="D169" s="222" t="s">
+        <v>51</v>
+      </c>
+      <c r="E169" s="222"/>
+      <c r="F169" s="222">
+        <v>1</v>
+      </c>
+      <c r="G169" s="222"/>
+      <c r="H169" s="50">
+        <v>13000</v>
+      </c>
     </row>
     <row r="170" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="3"/>
-      <c r="B170" s="3"/>
-      <c r="C170" s="436"/>
-      <c r="D170" s="437"/>
-      <c r="E170" s="441"/>
-      <c r="F170" s="441"/>
-      <c r="G170" s="447"/>
-      <c r="H170" s="391"/>
+      <c r="A170" s="222">
+        <v>6</v>
+      </c>
+      <c r="B170" s="222"/>
+      <c r="C170" s="476" t="s">
+        <v>576</v>
+      </c>
+      <c r="D170" s="222"/>
+      <c r="E170" s="222"/>
+      <c r="F170" s="222">
+        <v>2</v>
+      </c>
+      <c r="G170" s="222">
+        <v>500</v>
+      </c>
+      <c r="H170" s="50">
+        <v>1000</v>
+      </c>
     </row>
     <row r="171" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="3"/>
-      <c r="B171" s="3"/>
-      <c r="C171" s="440"/>
-      <c r="D171" s="437"/>
-      <c r="E171" s="441"/>
-      <c r="F171" s="441"/>
-      <c r="G171" s="447"/>
-      <c r="H171" s="84"/>
+      <c r="A171" s="222">
+        <v>7</v>
+      </c>
+      <c r="B171" s="222"/>
+      <c r="C171" s="486" t="s">
+        <v>139</v>
+      </c>
+      <c r="D171" s="413"/>
+      <c r="E171" s="413"/>
+      <c r="F171" s="413">
+        <v>1</v>
+      </c>
+      <c r="G171" s="413"/>
+      <c r="H171" s="374">
+        <v>2500</v>
+      </c>
+      <c r="I171" s="101" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="172" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="3"/>
-      <c r="B172" s="3"/>
-      <c r="C172" s="440"/>
-      <c r="D172" s="441"/>
-      <c r="E172" s="441"/>
-      <c r="F172" s="441"/>
-      <c r="G172" s="447"/>
-      <c r="H172" s="84"/>
+      <c r="A172" s="222">
+        <v>8</v>
+      </c>
+      <c r="B172" s="222"/>
+      <c r="C172" s="484" t="s">
+        <v>350</v>
+      </c>
+      <c r="D172" s="413"/>
+      <c r="E172" s="413"/>
+      <c r="F172" s="413">
+        <v>1</v>
+      </c>
+      <c r="G172" s="413"/>
+      <c r="H172" s="374">
+        <v>2500</v>
+      </c>
+      <c r="I172" s="101" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="173" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="3"/>
-      <c r="B173" s="3"/>
-      <c r="C173" s="435"/>
-      <c r="D173" s="89"/>
-      <c r="E173" s="89"/>
-      <c r="F173" s="89"/>
-      <c r="G173" s="447"/>
-      <c r="H173" s="391"/>
+      <c r="A173" s="222"/>
+      <c r="B173" s="222"/>
+      <c r="C173" s="482"/>
+      <c r="D173" s="222"/>
+      <c r="E173" s="222"/>
+      <c r="F173" s="222"/>
+      <c r="G173" s="222"/>
+      <c r="H173" s="223">
+        <f>SUM(H165:H172)</f>
+        <v>120500</v>
+      </c>
     </row>
     <row r="174" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="4"/>
-      <c r="B174" s="4"/>
-      <c r="C174" s="387"/>
-      <c r="D174" s="83"/>
-      <c r="E174" s="89"/>
-      <c r="F174" s="89"/>
-      <c r="G174" s="447"/>
-      <c r="H174" s="84"/>
+      <c r="A174" s="222"/>
+      <c r="B174" s="222"/>
+      <c r="C174" s="482" t="s">
+        <v>539</v>
+      </c>
+      <c r="D174" s="222"/>
+      <c r="E174" s="222"/>
+      <c r="F174" s="222"/>
+      <c r="G174" s="222"/>
+      <c r="H174" s="50">
+        <v>27000</v>
+      </c>
       <c r="L174" s="101" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="175" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="4"/>
-      <c r="B175" s="4"/>
-      <c r="C175" s="444"/>
-      <c r="D175" s="235"/>
-      <c r="E175" s="445"/>
-      <c r="F175" s="445"/>
-      <c r="G175" s="448"/>
-      <c r="H175" s="353"/>
+      <c r="A175" s="222"/>
+      <c r="B175" s="222"/>
+      <c r="C175" s="476" t="s">
+        <v>192</v>
+      </c>
+      <c r="D175" s="222"/>
+      <c r="E175" s="222"/>
+      <c r="F175" s="222"/>
+      <c r="G175" s="222"/>
+      <c r="H175" s="50">
+        <v>1800</v>
+      </c>
       <c r="I175" s="19"/>
       <c r="L175" s="101" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="176" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="4"/>
-      <c r="B176" s="4"/>
-      <c r="C176" s="192"/>
-      <c r="D176" s="83"/>
-      <c r="E176" s="89"/>
-      <c r="F176" s="89"/>
-      <c r="G176" s="447"/>
-      <c r="H176" s="84"/>
+      <c r="A176" s="222"/>
+      <c r="B176" s="222"/>
+      <c r="C176" s="482"/>
+      <c r="D176" s="222"/>
+      <c r="E176" s="222"/>
+      <c r="F176" s="222"/>
+      <c r="G176" s="222"/>
+      <c r="H176" s="223">
+        <f>SUM(H173:H175)</f>
+        <v>149300</v>
+      </c>
     </row>
     <row r="177" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="4"/>
-      <c r="B177" s="3"/>
-      <c r="C177" s="192"/>
-      <c r="D177" s="83"/>
-      <c r="E177" s="89"/>
-      <c r="F177" s="89"/>
-      <c r="G177" s="447"/>
-      <c r="H177" s="84"/>
+      <c r="A177" s="222">
+        <v>1</v>
+      </c>
+      <c r="B177" s="222" t="s">
+        <v>577</v>
+      </c>
+      <c r="C177" s="481" t="s">
+        <v>109</v>
+      </c>
+      <c r="D177" s="447"/>
+      <c r="E177" s="447"/>
+      <c r="F177" s="447">
+        <v>1</v>
+      </c>
+      <c r="G177" s="480"/>
+      <c r="H177" s="84">
+        <v>3500</v>
+      </c>
     </row>
     <row r="178" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="4"/>
-      <c r="B178" s="3"/>
-      <c r="C178" s="192"/>
-      <c r="D178" s="83"/>
-      <c r="E178" s="89"/>
-      <c r="F178" s="89"/>
+      <c r="A178" s="222">
+        <v>2</v>
+      </c>
+      <c r="B178" s="222"/>
+      <c r="C178" s="483" t="s">
+        <v>108</v>
+      </c>
+      <c r="D178" s="447"/>
+      <c r="E178" s="447"/>
+      <c r="F178" s="447">
+        <v>1</v>
+      </c>
       <c r="G178" s="447"/>
-      <c r="H178" s="84"/>
+      <c r="H178" s="84">
+        <v>3500</v>
+      </c>
     </row>
     <row r="179" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="4"/>
-      <c r="B179" s="3"/>
-      <c r="C179" s="435"/>
-      <c r="D179" s="83"/>
-      <c r="E179" s="89"/>
-      <c r="F179" s="83"/>
-      <c r="G179" s="84"/>
-      <c r="H179" s="390"/>
+      <c r="A179" s="222">
+        <v>3</v>
+      </c>
+      <c r="B179" s="222"/>
+      <c r="C179" s="481" t="s">
+        <v>171</v>
+      </c>
+      <c r="D179" s="447"/>
+      <c r="E179" s="447"/>
+      <c r="F179" s="447">
+        <v>4</v>
+      </c>
+      <c r="G179" s="447">
+        <v>3800</v>
+      </c>
+      <c r="H179" s="84">
+        <v>15200</v>
+      </c>
     </row>
     <row r="180" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="4"/>
-      <c r="B180" s="3"/>
-      <c r="C180" s="192"/>
-      <c r="D180" s="83"/>
-      <c r="E180" s="89"/>
-      <c r="F180" s="83"/>
-      <c r="G180" s="84"/>
-      <c r="H180" s="84"/>
+      <c r="A180" s="222">
+        <v>4</v>
+      </c>
+      <c r="B180" s="222"/>
+      <c r="C180" s="476" t="s">
+        <v>364</v>
+      </c>
+      <c r="D180" s="222"/>
+      <c r="E180" s="222"/>
+      <c r="F180" s="222">
+        <v>2</v>
+      </c>
+      <c r="G180" s="222">
+        <v>2500</v>
+      </c>
+      <c r="H180" s="50">
+        <v>5000</v>
+      </c>
     </row>
     <row r="181" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="4"/>
-      <c r="B181" s="3"/>
-      <c r="C181" s="192"/>
-      <c r="D181" s="83"/>
-      <c r="E181" s="89"/>
-      <c r="F181" s="83"/>
-      <c r="G181" s="447"/>
-      <c r="H181" s="84"/>
+      <c r="A181" s="222">
+        <v>5</v>
+      </c>
+      <c r="B181" s="222"/>
+      <c r="C181" s="482" t="s">
+        <v>121</v>
+      </c>
+      <c r="D181" s="222"/>
+      <c r="E181" s="222" t="s">
+        <v>14</v>
+      </c>
+      <c r="F181" s="222">
+        <v>2</v>
+      </c>
+      <c r="G181" s="222">
+        <v>11500</v>
+      </c>
+      <c r="H181" s="50">
+        <v>23000</v>
+      </c>
     </row>
     <row r="182" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="4"/>
-      <c r="B182" s="3"/>
-      <c r="C182" s="192"/>
-      <c r="D182" s="83"/>
-      <c r="E182" s="89"/>
-      <c r="F182" s="83"/>
-      <c r="G182" s="447"/>
-      <c r="H182" s="84"/>
+      <c r="A182" s="222">
+        <v>6</v>
+      </c>
+      <c r="B182" s="222"/>
+      <c r="C182" s="476" t="s">
+        <v>580</v>
+      </c>
+      <c r="D182" s="222"/>
+      <c r="E182" s="222"/>
+      <c r="F182" s="222">
+        <v>1</v>
+      </c>
+      <c r="G182" s="222"/>
+      <c r="H182" s="50">
+        <v>2650</v>
+      </c>
     </row>
     <row r="183" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="4"/>
-      <c r="B183" s="3"/>
-      <c r="C183" s="435"/>
-      <c r="D183" s="89"/>
-      <c r="E183" s="89"/>
-      <c r="F183" s="83"/>
-      <c r="G183" s="447"/>
-      <c r="H183" s="390"/>
+      <c r="A183" s="222">
+        <v>7</v>
+      </c>
+      <c r="B183" s="222"/>
+      <c r="C183" s="476" t="s">
+        <v>200</v>
+      </c>
+      <c r="D183" s="222"/>
+      <c r="E183" s="222" t="s">
+        <v>14</v>
+      </c>
+      <c r="F183" s="222">
+        <v>1</v>
+      </c>
+      <c r="G183" s="222"/>
+      <c r="H183" s="50">
+        <v>12000</v>
+      </c>
     </row>
     <row r="184" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="4"/>
-      <c r="B184" s="4"/>
-      <c r="C184" s="387"/>
-      <c r="D184" s="83"/>
-      <c r="E184" s="89"/>
-      <c r="F184" s="89"/>
-      <c r="G184" s="447"/>
-      <c r="H184" s="84"/>
+      <c r="A184" s="222">
+        <v>8</v>
+      </c>
+      <c r="B184" s="222"/>
+      <c r="C184" s="482" t="s">
+        <v>581</v>
+      </c>
+      <c r="D184" s="222"/>
+      <c r="E184" s="222"/>
+      <c r="F184" s="222">
+        <v>1</v>
+      </c>
+      <c r="G184" s="222"/>
+      <c r="H184" s="50">
+        <v>5500</v>
+      </c>
     </row>
     <row r="185" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="4"/>
-      <c r="B185" s="4"/>
-      <c r="C185" s="192"/>
-      <c r="D185" s="83"/>
-      <c r="E185" s="89"/>
-      <c r="F185" s="89"/>
-      <c r="G185" s="447"/>
-      <c r="H185" s="84"/>
+      <c r="A185" s="222">
+        <v>9</v>
+      </c>
+      <c r="B185" s="222"/>
+      <c r="C185" s="482" t="s">
+        <v>342</v>
+      </c>
+      <c r="D185" s="222"/>
+      <c r="E185" s="222" t="s">
+        <v>14</v>
+      </c>
+      <c r="F185" s="222">
+        <v>9</v>
+      </c>
+      <c r="G185" s="222">
+        <v>4000</v>
+      </c>
+      <c r="H185" s="50">
+        <v>36000</v>
+      </c>
     </row>
     <row r="186" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="4"/>
-      <c r="B186" s="4"/>
-      <c r="C186" s="192"/>
-      <c r="D186" s="83"/>
-      <c r="E186" s="89"/>
-      <c r="F186" s="89"/>
-      <c r="G186" s="84"/>
-      <c r="H186" s="84"/>
+      <c r="A186" s="222">
+        <v>10</v>
+      </c>
+      <c r="B186" s="222"/>
+      <c r="C186" s="482" t="s">
+        <v>284</v>
+      </c>
+      <c r="D186" s="222"/>
+      <c r="E186" s="222" t="s">
+        <v>22</v>
+      </c>
+      <c r="F186" s="222">
+        <v>1</v>
+      </c>
+      <c r="G186" s="222"/>
+      <c r="H186" s="50">
+        <v>36500</v>
+      </c>
     </row>
     <row r="187" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="4"/>
-      <c r="B187" s="3"/>
-      <c r="C187" s="192"/>
-      <c r="D187" s="83"/>
-      <c r="E187" s="89"/>
-      <c r="F187" s="89"/>
-      <c r="G187" s="84"/>
-      <c r="H187" s="84"/>
+      <c r="A187" s="222"/>
+      <c r="B187" s="222"/>
+      <c r="C187" s="476"/>
+      <c r="D187" s="222"/>
+      <c r="E187" s="222"/>
+      <c r="F187" s="222"/>
+      <c r="G187" s="222"/>
+      <c r="H187" s="223">
+        <f>SUM(H177:H186)</f>
+        <v>142850</v>
+      </c>
     </row>
     <row r="188" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="4"/>
-      <c r="B188" s="3"/>
-      <c r="C188" s="192"/>
-      <c r="D188" s="83"/>
-      <c r="E188" s="89"/>
-      <c r="F188" s="89"/>
-      <c r="G188" s="84"/>
-      <c r="H188" s="84"/>
+      <c r="A188" s="222"/>
+      <c r="B188" s="222"/>
+      <c r="C188" s="482" t="s">
+        <v>518</v>
+      </c>
+      <c r="D188" s="222"/>
+      <c r="E188" s="222"/>
+      <c r="F188" s="222"/>
+      <c r="G188" s="222"/>
+      <c r="H188" s="50">
+        <v>25500</v>
+      </c>
     </row>
     <row r="189" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="4"/>
-      <c r="B189" s="3"/>
-      <c r="C189" s="435"/>
-      <c r="D189" s="83"/>
-      <c r="E189" s="89"/>
-      <c r="F189" s="83"/>
-      <c r="G189" s="84"/>
-      <c r="H189" s="84"/>
+      <c r="A189" s="222"/>
+      <c r="B189" s="222" t="s">
+        <v>509</v>
+      </c>
+      <c r="C189" s="487" t="s">
+        <v>54</v>
+      </c>
+      <c r="D189" s="417" t="s">
+        <v>578</v>
+      </c>
+      <c r="E189" s="417"/>
+      <c r="F189" s="417"/>
+      <c r="G189" s="417"/>
+      <c r="H189" s="417" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="190" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="4"/>
-      <c r="B190" s="3"/>
-      <c r="C190" s="192"/>
-      <c r="D190" s="83"/>
-      <c r="E190" s="89"/>
-      <c r="F190" s="83"/>
-      <c r="G190" s="84"/>
-      <c r="H190" s="84"/>
+      <c r="A190" s="222"/>
+      <c r="B190" s="222"/>
+      <c r="C190" s="487" t="s">
+        <v>579</v>
+      </c>
+      <c r="D190" s="417" t="s">
+        <v>578</v>
+      </c>
+      <c r="E190" s="417"/>
+      <c r="F190" s="417"/>
+      <c r="G190" s="417"/>
+      <c r="H190" s="417" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="191" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="4"/>
-      <c r="B191" s="3"/>
-      <c r="C191" s="192"/>
-      <c r="D191" s="83"/>
-      <c r="E191" s="89"/>
-      <c r="F191" s="83"/>
-      <c r="G191" s="447"/>
-      <c r="H191" s="84"/>
+      <c r="A191" s="222"/>
+      <c r="B191" s="222"/>
+      <c r="C191" s="482"/>
+      <c r="D191" s="222"/>
+      <c r="E191" s="222"/>
+      <c r="F191" s="222"/>
+      <c r="G191" s="222"/>
+      <c r="H191" s="223">
+        <f>SUM(H187:H190)</f>
+        <v>168350</v>
+      </c>
     </row>
     <row r="192" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4"/>
@@ -29236,18 +29573,18 @@
     <row r="235" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="415"/>
       <c r="B235" s="415"/>
-      <c r="C235" s="449"/>
-      <c r="D235" s="449"/>
-      <c r="E235" s="449"/>
-      <c r="F235" s="449"/>
-      <c r="G235" s="449"/>
-      <c r="H235" s="450"/>
+      <c r="C235" s="448"/>
+      <c r="D235" s="448"/>
+      <c r="E235" s="448"/>
+      <c r="F235" s="448"/>
+      <c r="G235" s="448"/>
+      <c r="H235" s="449"/>
     </row>
     <row r="236" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="422"/>
       <c r="B236" s="4"/>
       <c r="C236" s="387"/>
-      <c r="D236" s="451"/>
+      <c r="D236" s="450"/>
       <c r="E236" s="83"/>
       <c r="F236" s="83"/>
       <c r="G236" s="84"/>
@@ -29257,7 +29594,7 @@
       <c r="A237" s="422"/>
       <c r="B237" s="422"/>
       <c r="C237" s="440"/>
-      <c r="D237" s="452"/>
+      <c r="D237" s="451"/>
       <c r="E237" s="437"/>
       <c r="F237" s="437"/>
       <c r="G237" s="442"/>
@@ -29268,7 +29605,7 @@
       <c r="A238" s="422"/>
       <c r="B238" s="422"/>
       <c r="C238" s="444"/>
-      <c r="D238" s="453"/>
+      <c r="D238" s="452"/>
       <c r="E238" s="235"/>
       <c r="F238" s="235"/>
       <c r="G238" s="353"/>
@@ -29278,7 +29615,7 @@
       <c r="A239" s="422"/>
       <c r="B239" s="422"/>
       <c r="C239" s="440"/>
-      <c r="D239" s="452"/>
+      <c r="D239" s="451"/>
       <c r="E239" s="437"/>
       <c r="F239" s="437"/>
       <c r="G239" s="442"/>
@@ -29381,27 +29718,27 @@
       <c r="D249" s="83"/>
       <c r="E249" s="83"/>
       <c r="F249" s="83"/>
-      <c r="G249" s="454"/>
+      <c r="G249" s="453"/>
       <c r="H249" s="390"/>
     </row>
     <row r="250" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="422"/>
       <c r="B250" s="422"/>
       <c r="C250" s="192"/>
-      <c r="D250" s="451"/>
+      <c r="D250" s="450"/>
       <c r="E250" s="83"/>
       <c r="F250" s="83"/>
-      <c r="G250" s="454"/>
+      <c r="G250" s="453"/>
       <c r="H250" s="84"/>
     </row>
     <row r="251" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="424"/>
       <c r="B251" s="424"/>
       <c r="C251" s="439"/>
-      <c r="D251" s="455"/>
+      <c r="D251" s="454"/>
       <c r="E251" s="95"/>
       <c r="F251" s="83"/>
-      <c r="G251" s="455"/>
+      <c r="G251" s="454"/>
       <c r="H251" s="85"/>
     </row>
     <row r="252" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -29409,19 +29746,19 @@
       <c r="B252" s="424"/>
       <c r="C252" s="97"/>
       <c r="D252" s="82"/>
-      <c r="E252" s="455"/>
-      <c r="F252" s="455"/>
-      <c r="G252" s="455"/>
+      <c r="E252" s="454"/>
+      <c r="F252" s="454"/>
+      <c r="G252" s="454"/>
       <c r="H252" s="85"/>
     </row>
     <row r="253" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="424"/>
       <c r="B253" s="424"/>
-      <c r="C253" s="455"/>
-      <c r="D253" s="455"/>
-      <c r="E253" s="455"/>
-      <c r="F253" s="455"/>
-      <c r="G253" s="455"/>
+      <c r="C253" s="454"/>
+      <c r="D253" s="454"/>
+      <c r="E253" s="454"/>
+      <c r="F253" s="454"/>
+      <c r="G253" s="454"/>
       <c r="H253" s="443"/>
     </row>
     <row r="254" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -29467,12 +29804,12 @@
     <row r="258" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
-      <c r="C258" s="456"/>
+      <c r="C258" s="455"/>
       <c r="D258" s="235"/>
       <c r="E258" s="235"/>
       <c r="F258" s="235"/>
       <c r="G258" s="353"/>
-      <c r="H258" s="457"/>
+      <c r="H258" s="456"/>
     </row>
     <row r="259" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="4"/>
@@ -29692,7 +30029,7 @@
       <c r="E280" s="235"/>
       <c r="F280" s="437"/>
       <c r="G280" s="353"/>
-      <c r="H280" s="458"/>
+      <c r="H280" s="457"/>
     </row>
     <row r="281" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="4"/>
@@ -30022,7 +30359,7 @@
       <c r="E313" s="235"/>
       <c r="F313" s="437"/>
       <c r="G313" s="442"/>
-      <c r="H313" s="457"/>
+      <c r="H313" s="456"/>
     </row>
     <row r="314" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="4"/>
@@ -30507,12 +30844,12 @@
     <row r="362" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A362" s="426"/>
       <c r="B362" s="426"/>
-      <c r="C362" s="459"/>
-      <c r="D362" s="459"/>
-      <c r="E362" s="459"/>
-      <c r="F362" s="459"/>
-      <c r="G362" s="459"/>
-      <c r="H362" s="460"/>
+      <c r="C362" s="458"/>
+      <c r="D362" s="458"/>
+      <c r="E362" s="458"/>
+      <c r="F362" s="458"/>
+      <c r="G362" s="458"/>
+      <c r="H362" s="459"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1">
@@ -30528,10 +30865,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30546,29 +30883,29 @@
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="486" t="s">
+    <row r="1" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="492" t="s">
         <v>462</v>
       </c>
-      <c r="B1" s="486"/>
-      <c r="C1" s="486"/>
-      <c r="D1" s="487"/>
-      <c r="E1" s="486"/>
-      <c r="F1" s="486"/>
-      <c r="G1" s="486"/>
-      <c r="H1" s="486"/>
-    </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="492"/>
+      <c r="C1" s="492"/>
+      <c r="D1" s="493"/>
+      <c r="E1" s="492"/>
+      <c r="F1" s="492"/>
+      <c r="G1" s="492"/>
+      <c r="H1" s="492"/>
+    </row>
+    <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="488" t="s">
+      <c r="C2" s="494" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="489"/>
+      <c r="D2" s="495"/>
       <c r="E2" s="434" t="s">
         <v>116</v>
       </c>
@@ -30582,133 +30919,219 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C3" s="188" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="50">
-        <v>5</v>
-      </c>
-      <c r="G3" s="464">
-        <v>3500</v>
-      </c>
-      <c r="H3" s="50">
-        <v>17500</v>
-      </c>
-      <c r="I3" s="481" t="s">
+    <row r="3" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="222">
+        <v>1</v>
+      </c>
+      <c r="B3" s="222" t="s">
+        <v>582</v>
+      </c>
+      <c r="C3" s="481" t="s">
+        <v>544</v>
+      </c>
+      <c r="D3" s="447" t="s">
+        <v>583</v>
+      </c>
+      <c r="E3" s="447"/>
+      <c r="F3" s="447">
+        <v>2</v>
+      </c>
+      <c r="G3" s="480">
+        <v>8000</v>
+      </c>
+      <c r="H3" s="84">
+        <v>16000</v>
+      </c>
+      <c r="I3" s="479" t="s">
         <v>573</v>
       </c>
-      <c r="J3" s="480"/>
-      <c r="K3" s="480"/>
-      <c r="L3" s="480"/>
-      <c r="M3" s="480"/>
-    </row>
-    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="J3" s="478"/>
+      <c r="K3" s="478"/>
+      <c r="L3" s="478"/>
+      <c r="M3" s="478"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="222">
         <v>2</v>
       </c>
-      <c r="B4" s="466"/>
-      <c r="C4" s="192" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="83" t="s">
-        <v>244</v>
-      </c>
-      <c r="E4" s="83"/>
-      <c r="F4" s="84">
-        <v>1</v>
-      </c>
-      <c r="G4" s="84"/>
+      <c r="B4" s="222"/>
+      <c r="C4" s="483" t="s">
+        <v>406</v>
+      </c>
+      <c r="D4" s="447"/>
+      <c r="E4" s="447" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="447">
+        <v>8</v>
+      </c>
+      <c r="G4" s="447">
+        <v>4000</v>
+      </c>
       <c r="H4" s="84">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="222">
         <v>3</v>
       </c>
-      <c r="B5" s="466"/>
-      <c r="C5" s="387" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="83" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="83"/>
-      <c r="F5" s="84">
-        <v>1</v>
-      </c>
-      <c r="G5" s="84"/>
+      <c r="B5" s="222"/>
+      <c r="C5" s="481" t="s">
+        <v>228</v>
+      </c>
+      <c r="D5" s="447"/>
+      <c r="E5" s="447" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="447">
+        <v>1</v>
+      </c>
+      <c r="G5" s="447"/>
       <c r="H5" s="84">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="466"/>
-      <c r="C6" s="260"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
+        <v>25500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="222"/>
+      <c r="B6" s="222"/>
+      <c r="C6" s="476"/>
+      <c r="D6" s="222"/>
+      <c r="E6" s="222"/>
+      <c r="F6" s="222"/>
+      <c r="G6" s="222"/>
       <c r="H6" s="223">
         <f>SUM(H3:H5)</f>
-        <v>44500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="466"/>
-      <c r="C7" s="188" t="s">
-        <v>539</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
+        <v>73500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="222"/>
+      <c r="B7" s="222"/>
+      <c r="C7" s="482" t="s">
+        <v>518</v>
+      </c>
+      <c r="D7" s="222"/>
+      <c r="E7" s="222"/>
+      <c r="F7" s="222"/>
+      <c r="G7" s="222"/>
       <c r="H7" s="50">
-        <v>27000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="466"/>
-      <c r="C8" s="193" t="s">
-        <v>574</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
+        <v>25500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="222"/>
+      <c r="B8" s="222"/>
+      <c r="C8" s="476" t="s">
+        <v>455</v>
+      </c>
+      <c r="D8" s="222"/>
+      <c r="E8" s="222"/>
+      <c r="F8" s="222">
+        <v>5</v>
+      </c>
+      <c r="G8" s="222">
+        <v>2000</v>
+      </c>
       <c r="H8" s="50">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="467"/>
-      <c r="C9" s="193"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="222"/>
+      <c r="B9" s="222"/>
+      <c r="C9" s="476"/>
+      <c r="D9" s="222"/>
+      <c r="E9" s="222"/>
+      <c r="F9" s="222"/>
+      <c r="G9" s="222"/>
       <c r="H9" s="223">
         <f>SUM(H6:H8)</f>
-        <v>73500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>509</v>
-      </c>
+        <v>109000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="222"/>
+      <c r="B10" s="222"/>
+      <c r="C10" s="482"/>
+      <c r="D10" s="222"/>
+      <c r="E10" s="222"/>
+      <c r="F10" s="222"/>
+      <c r="G10" s="222"/>
+      <c r="H10" s="50"/>
+    </row>
+    <row r="11" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="222"/>
+      <c r="B11" s="222"/>
+      <c r="C11" s="482"/>
+      <c r="D11" s="222"/>
+      <c r="E11" s="222"/>
+      <c r="F11" s="222"/>
+      <c r="G11" s="222"/>
+      <c r="H11" s="50"/>
+    </row>
+    <row r="12" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="222"/>
+      <c r="B12" s="222"/>
+      <c r="C12" s="482"/>
+      <c r="D12" s="222"/>
+      <c r="E12" s="222"/>
+      <c r="F12" s="222"/>
+      <c r="G12" s="222"/>
+      <c r="H12" s="50"/>
+    </row>
+    <row r="13" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="222"/>
+      <c r="B13" s="222"/>
+      <c r="C13" s="476"/>
+      <c r="D13" s="222"/>
+      <c r="E13" s="222"/>
+      <c r="F13" s="222"/>
+      <c r="G13" s="222"/>
+      <c r="H13" s="223"/>
+    </row>
+    <row r="14" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="222"/>
+      <c r="B14" s="222"/>
+      <c r="C14" s="482"/>
+      <c r="D14" s="222"/>
+      <c r="E14" s="222"/>
+      <c r="F14" s="222"/>
+      <c r="G14" s="222"/>
+      <c r="H14" s="50"/>
+      <c r="O14">
+        <v>36500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="222"/>
+      <c r="B15" s="222"/>
+      <c r="C15" s="487"/>
+      <c r="D15" s="417"/>
+      <c r="E15" s="417"/>
+      <c r="F15" s="417"/>
+      <c r="G15" s="417"/>
+      <c r="H15" s="417"/>
+    </row>
+    <row r="16" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="222"/>
+      <c r="B16" s="222"/>
+      <c r="C16" s="487"/>
+      <c r="D16" s="417"/>
+      <c r="E16" s="417"/>
+      <c r="F16" s="417"/>
+      <c r="G16" s="417"/>
+      <c r="H16" s="417"/>
+    </row>
+    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="222"/>
+      <c r="B17" s="222"/>
+      <c r="C17" s="482"/>
+      <c r="D17" s="222"/>
+      <c r="E17" s="222"/>
+      <c r="F17" s="222"/>
+      <c r="G17" s="222"/>
+      <c r="H17" s="223"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/GB-3  Sales.xlsx
+++ b/GB-3  Sales.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2400" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2506" uniqueCount="604">
   <si>
     <t>Oil Filter</t>
   </si>
@@ -1799,6 +1799,66 @@
   </si>
   <si>
     <t>RAV 4</t>
+  </si>
+  <si>
+    <t>16.9.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGK Plug 18/16 </t>
+  </si>
+  <si>
+    <t>ဂိုင္း</t>
+  </si>
+  <si>
+    <t>ေရွာ့ဘား</t>
+  </si>
+  <si>
+    <t>Meal 13*1500</t>
+  </si>
+  <si>
+    <t>ေဘာဂိ်ြဳင္း</t>
+  </si>
+  <si>
+    <t>17.9.2018</t>
+  </si>
+  <si>
+    <t>Fuel Filter 15E01</t>
+  </si>
+  <si>
+    <t>Lukoil 15W40 5Li</t>
+  </si>
+  <si>
+    <t>Toyota Plug 18-14 S</t>
+  </si>
+  <si>
+    <t>18.9.2018</t>
+  </si>
+  <si>
+    <t>19.9.2018</t>
+  </si>
+  <si>
+    <t>Lukoil 80W90</t>
+  </si>
+  <si>
+    <t>ဆပ္ျပာဆီ</t>
+  </si>
+  <si>
+    <t>20.9.2018</t>
+  </si>
+  <si>
+    <t>(Bongo)</t>
+  </si>
+  <si>
+    <t>နက္တိုင္/၀ါ၇ွာ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aircon Filter </t>
+  </si>
+  <si>
+    <t>Oil Filter 0L010</t>
+  </si>
+  <si>
+    <t>19.9.18</t>
   </si>
 </sst>
 </file>
@@ -2341,7 +2401,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="496">
+  <cellXfs count="501">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3452,17 +3512,11 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3471,26 +3525,13 @@
     <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="31" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3529,9 +3570,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3577,6 +3615,45 @@
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7025,10 +7102,10 @@
       <c r="B1" s="198" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="488" t="s">
+      <c r="C1" s="493" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="489"/>
+      <c r="D1" s="494"/>
       <c r="E1" s="198" t="s">
         <v>116</v>
       </c>
@@ -12380,7 +12457,7 @@
   <dimension ref="A1:Q298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J74" sqref="J73:J74"/>
     </sheetView>
   </sheetViews>
@@ -12405,10 +12482,10 @@
       <c r="B1" s="333" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="490" t="s">
+      <c r="C1" s="495" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="491"/>
+      <c r="D1" s="496"/>
       <c r="E1" s="333" t="s">
         <v>116</v>
       </c>
@@ -18338,8 +18415,8 @@
   </sheetPr>
   <dimension ref="A1:Q361"/>
   <sheetViews>
-    <sheetView topLeftCell="A322" workbookViewId="0">
-      <selection activeCell="J349" sqref="J349"/>
+    <sheetView topLeftCell="A343" workbookViewId="0">
+      <selection activeCell="L135" sqref="L135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18363,10 +18440,10 @@
       <c r="B1" s="333" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="490" t="s">
+      <c r="C1" s="495" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="491"/>
+      <c r="D1" s="496"/>
       <c r="E1" s="333" t="s">
         <v>116</v>
       </c>
@@ -20871,7 +20948,7 @@
       <c r="A130" s="3">
         <v>1</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="4" t="s">
         <v>422</v>
       </c>
       <c r="C130" s="231" t="s">
@@ -25379,8 +25456,8 @@
   <dimension ref="A1:Q362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G196" sqref="G196"/>
+      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O230" sqref="O230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -25404,10 +25481,10 @@
       <c r="B1" s="333" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="490" t="s">
+      <c r="C1" s="495" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="491"/>
+      <c r="D1" s="496"/>
       <c r="E1" s="333" t="s">
         <v>116</v>
       </c>
@@ -25606,7 +25683,7 @@
       <c r="B11" s="77" t="s">
         <v>508</v>
       </c>
-      <c r="C11" s="469" t="s">
+      <c r="C11" s="490" t="s">
         <v>500</v>
       </c>
       <c r="D11" s="77"/>
@@ -25614,7 +25691,7 @@
       <c r="F11" s="77">
         <v>1</v>
       </c>
-      <c r="G11" s="460"/>
+      <c r="G11" s="453"/>
       <c r="H11" s="184">
         <v>9000</v>
       </c>
@@ -25625,7 +25702,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="414"/>
-      <c r="C12" s="410" t="s">
+      <c r="C12" s="405" t="s">
         <v>501</v>
       </c>
       <c r="D12" s="410"/>
@@ -25635,11 +25712,11 @@
       <c r="F12" s="410">
         <v>1</v>
       </c>
-      <c r="G12" s="462"/>
-      <c r="H12" s="462">
+      <c r="G12" s="455"/>
+      <c r="H12" s="455">
         <v>3500</v>
       </c>
-      <c r="I12" s="338" t="s">
+      <c r="I12" s="491" t="s">
         <v>510</v>
       </c>
       <c r="Q12" s="101" t="s">
@@ -25651,7 +25728,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="414"/>
-      <c r="C13" s="469" t="s">
+      <c r="C13" s="490" t="s">
         <v>502</v>
       </c>
       <c r="D13" s="77"/>
@@ -25671,7 +25748,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="414"/>
-      <c r="C14" s="410" t="s">
+      <c r="C14" s="492" t="s">
         <v>503</v>
       </c>
       <c r="D14" s="410"/>
@@ -25681,8 +25758,8 @@
       <c r="F14" s="410">
         <v>1</v>
       </c>
-      <c r="G14" s="462"/>
-      <c r="H14" s="462">
+      <c r="G14" s="455"/>
+      <c r="H14" s="455">
         <v>25500</v>
       </c>
       <c r="I14" s="87" t="s">
@@ -25694,7 +25771,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="414"/>
-      <c r="C15" s="410" t="s">
+      <c r="C15" s="492" t="s">
         <v>507</v>
       </c>
       <c r="D15" s="410"/>
@@ -25702,8 +25779,8 @@
       <c r="F15" s="410">
         <v>1</v>
       </c>
-      <c r="G15" s="462"/>
-      <c r="H15" s="462">
+      <c r="G15" s="455"/>
+      <c r="H15" s="455">
         <v>3150</v>
       </c>
       <c r="I15" s="336" t="s">
@@ -25715,7 +25792,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="414"/>
-      <c r="C16" s="410" t="s">
+      <c r="C16" s="492" t="s">
         <v>504</v>
       </c>
       <c r="D16" s="410"/>
@@ -25723,10 +25800,10 @@
       <c r="F16" s="410">
         <v>2</v>
       </c>
-      <c r="G16" s="462">
+      <c r="G16" s="455">
         <v>1500</v>
       </c>
-      <c r="H16" s="462">
+      <c r="H16" s="455">
         <v>3000</v>
       </c>
       <c r="I16" s="87" t="s">
@@ -25758,7 +25835,7 @@
       <c r="F18" s="396">
         <v>2</v>
       </c>
-      <c r="G18" s="461"/>
+      <c r="G18" s="454"/>
       <c r="H18" s="184">
         <v>7600</v>
       </c>
@@ -25775,7 +25852,7 @@
       <c r="F19" s="396">
         <v>5</v>
       </c>
-      <c r="G19" s="461"/>
+      <c r="G19" s="454"/>
       <c r="H19" s="184">
         <v>2000</v>
       </c>
@@ -25789,7 +25866,7 @@
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
       <c r="F20" s="396"/>
-      <c r="G20" s="461"/>
+      <c r="G20" s="454"/>
       <c r="H20" s="184">
         <v>28500</v>
       </c>
@@ -25824,7 +25901,7 @@
       <c r="F22" s="374">
         <v>7</v>
       </c>
-      <c r="G22" s="467">
+      <c r="G22" s="460">
         <v>3500</v>
       </c>
       <c r="H22" s="374">
@@ -25838,7 +25915,7 @@
       <c r="A23" s="4">
         <v>2</v>
       </c>
-      <c r="B23" s="465"/>
+      <c r="B23" s="458"/>
       <c r="C23" s="372" t="s">
         <v>329</v>
       </c>
@@ -25859,7 +25936,7 @@
       <c r="A24" s="4">
         <v>3</v>
       </c>
-      <c r="B24" s="465"/>
+      <c r="B24" s="458"/>
       <c r="C24" s="372" t="s">
         <v>299</v>
       </c>
@@ -25882,7 +25959,7 @@
       <c r="A25" s="4">
         <v>4</v>
       </c>
-      <c r="B25" s="465"/>
+      <c r="B25" s="458"/>
       <c r="C25" s="372" t="s">
         <v>127</v>
       </c>
@@ -25905,7 +25982,7 @@
       <c r="A26" s="4">
         <v>5</v>
       </c>
-      <c r="B26" s="465"/>
+      <c r="B26" s="458"/>
       <c r="C26" s="372" t="s">
         <v>188</v>
       </c>
@@ -25928,7 +26005,7 @@
       <c r="A27" s="4">
         <v>6</v>
       </c>
-      <c r="B27" s="465"/>
+      <c r="B27" s="458"/>
       <c r="C27" s="372" t="s">
         <v>162</v>
       </c>
@@ -25949,7 +26026,7 @@
       <c r="A28" s="4">
         <v>7</v>
       </c>
-      <c r="B28" s="466"/>
+      <c r="B28" s="459"/>
       <c r="C28" s="372" t="s">
         <v>197</v>
       </c>
@@ -25972,7 +26049,7 @@
       <c r="A29" s="4">
         <v>8</v>
       </c>
-      <c r="B29" s="466"/>
+      <c r="B29" s="459"/>
       <c r="C29" s="412" t="s">
         <v>402</v>
       </c>
@@ -25993,7 +26070,7 @@
       <c r="A30" s="4">
         <v>9</v>
       </c>
-      <c r="B30" s="466"/>
+      <c r="B30" s="459"/>
       <c r="C30" s="372" t="s">
         <v>512</v>
       </c>
@@ -26016,7 +26093,7 @@
       <c r="A31" s="4">
         <v>10</v>
       </c>
-      <c r="B31" s="466"/>
+      <c r="B31" s="459"/>
       <c r="C31" s="372" t="s">
         <v>223</v>
       </c>
@@ -26037,7 +26114,7 @@
       <c r="A32" s="4">
         <v>11</v>
       </c>
-      <c r="B32" s="466"/>
+      <c r="B32" s="459"/>
       <c r="C32" s="372" t="s">
         <v>350</v>
       </c>
@@ -26060,8 +26137,8 @@
       <c r="A33" s="4">
         <v>12</v>
       </c>
-      <c r="B33" s="466"/>
-      <c r="C33" s="468" t="s">
+      <c r="B33" s="459"/>
+      <c r="C33" s="461" t="s">
         <v>109</v>
       </c>
       <c r="D33" s="419" t="s">
@@ -26085,8 +26162,8 @@
       <c r="A34" s="4">
         <v>13</v>
       </c>
-      <c r="B34" s="466"/>
-      <c r="C34" s="468" t="s">
+      <c r="B34" s="459"/>
+      <c r="C34" s="461" t="s">
         <v>108</v>
       </c>
       <c r="D34" s="419" t="s">
@@ -26107,7 +26184,7 @@
     <row r="35" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
-      <c r="C35" s="464"/>
+      <c r="C35" s="457"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="50"/>
@@ -26150,7 +26227,7 @@
     <row r="38" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
       <c r="B38" s="255"/>
-      <c r="C38" s="464"/>
+      <c r="C38" s="457"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="50"/>
@@ -26175,7 +26252,7 @@
       <c r="F39" s="374">
         <v>1</v>
       </c>
-      <c r="G39" s="467"/>
+      <c r="G39" s="460"/>
       <c r="H39" s="374">
         <v>3000</v>
       </c>
@@ -26187,7 +26264,7 @@
       <c r="A40" s="4">
         <v>2</v>
       </c>
-      <c r="B40" s="465"/>
+      <c r="B40" s="458"/>
       <c r="C40" s="372" t="s">
         <v>108</v>
       </c>
@@ -26208,7 +26285,7 @@
       <c r="A41" s="4">
         <v>3</v>
       </c>
-      <c r="B41" s="465"/>
+      <c r="B41" s="458"/>
       <c r="C41" s="372" t="s">
         <v>54</v>
       </c>
@@ -26229,7 +26306,7 @@
       <c r="A42" s="4">
         <v>4</v>
       </c>
-      <c r="B42" s="465"/>
+      <c r="B42" s="458"/>
       <c r="C42" s="188" t="s">
         <v>78</v>
       </c>
@@ -26251,7 +26328,7 @@
       <c r="A43" s="4">
         <v>5</v>
       </c>
-      <c r="B43" s="465"/>
+      <c r="B43" s="458"/>
       <c r="C43" s="372" t="s">
         <v>197</v>
       </c>
@@ -26274,7 +26351,7 @@
       <c r="A44" s="4">
         <v>6</v>
       </c>
-      <c r="B44" s="465"/>
+      <c r="B44" s="458"/>
       <c r="C44" s="372" t="s">
         <v>127</v>
       </c>
@@ -26295,7 +26372,7 @@
       <c r="A45" s="4">
         <v>7</v>
       </c>
-      <c r="B45" s="466"/>
+      <c r="B45" s="459"/>
       <c r="C45" s="372" t="s">
         <v>109</v>
       </c>
@@ -26316,7 +26393,7 @@
       <c r="A46" s="4">
         <v>8</v>
       </c>
-      <c r="B46" s="466"/>
+      <c r="B46" s="459"/>
       <c r="C46" s="193" t="s">
         <v>517</v>
       </c>
@@ -26334,7 +26411,7 @@
     </row>
     <row r="47" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
-      <c r="B47" s="466"/>
+      <c r="B47" s="459"/>
       <c r="C47" s="188"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -26347,7 +26424,7 @@
     </row>
     <row r="48" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
-      <c r="B48" s="466"/>
+      <c r="B48" s="459"/>
       <c r="C48" s="188" t="s">
         <v>518</v>
       </c>
@@ -26363,7 +26440,7 @@
     </row>
     <row r="49" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
-      <c r="B49" s="466"/>
+      <c r="B49" s="459"/>
       <c r="C49" s="188" t="s">
         <v>472</v>
       </c>
@@ -26379,7 +26456,7 @@
     </row>
     <row r="50" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
-      <c r="B50" s="466"/>
+      <c r="B50" s="459"/>
       <c r="C50" s="401" t="s">
         <v>520</v>
       </c>
@@ -26395,7 +26472,7 @@
     </row>
     <row r="51" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
-      <c r="B51" s="466"/>
+      <c r="B51" s="459"/>
       <c r="C51" s="234"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -26423,7 +26500,7 @@
       <c r="F52" s="374">
         <v>1</v>
       </c>
-      <c r="G52" s="467"/>
+      <c r="G52" s="460"/>
       <c r="H52" s="374">
         <v>25500</v>
       </c>
@@ -26435,7 +26512,7 @@
       <c r="A53" s="4">
         <v>2</v>
       </c>
-      <c r="B53" s="465"/>
+      <c r="B53" s="458"/>
       <c r="C53" s="372" t="s">
         <v>196</v>
       </c>
@@ -26458,7 +26535,7 @@
       <c r="A54" s="4">
         <v>3</v>
       </c>
-      <c r="B54" s="465"/>
+      <c r="B54" s="458"/>
       <c r="C54" s="372" t="s">
         <v>524</v>
       </c>
@@ -26479,7 +26556,7 @@
       <c r="A55" s="4">
         <v>4</v>
       </c>
-      <c r="B55" s="465"/>
+      <c r="B55" s="458"/>
       <c r="C55" s="372" t="s">
         <v>108</v>
       </c>
@@ -26500,7 +26577,7 @@
       <c r="A56" s="4">
         <v>5</v>
       </c>
-      <c r="B56" s="465"/>
+      <c r="B56" s="458"/>
       <c r="C56" s="372" t="s">
         <v>109</v>
       </c>
@@ -26521,7 +26598,7 @@
       <c r="A57" s="4">
         <v>6</v>
       </c>
-      <c r="B57" s="465"/>
+      <c r="B57" s="458"/>
       <c r="C57" s="372" t="s">
         <v>176</v>
       </c>
@@ -26544,7 +26621,7 @@
       <c r="A58" s="4">
         <v>7</v>
       </c>
-      <c r="B58" s="466"/>
+      <c r="B58" s="459"/>
       <c r="C58" s="372" t="s">
         <v>127</v>
       </c>
@@ -26565,7 +26642,7 @@
       <c r="A59" s="4">
         <v>8</v>
       </c>
-      <c r="B59" s="466"/>
+      <c r="B59" s="459"/>
       <c r="C59" s="375" t="s">
         <v>228</v>
       </c>
@@ -26588,7 +26665,7 @@
       <c r="A60" s="4">
         <v>9</v>
       </c>
-      <c r="B60" s="466"/>
+      <c r="B60" s="459"/>
       <c r="C60" s="372" t="s">
         <v>171</v>
       </c>
@@ -26611,11 +26688,11 @@
       <c r="A61" s="4">
         <v>10</v>
       </c>
-      <c r="B61" s="466"/>
+      <c r="B61" s="459"/>
       <c r="C61" s="384" t="s">
         <v>197</v>
       </c>
-      <c r="D61" s="471"/>
+      <c r="D61" s="463"/>
       <c r="E61" s="385" t="s">
         <v>22</v>
       </c>
@@ -26634,7 +26711,7 @@
       <c r="A62" s="4">
         <v>11</v>
       </c>
-      <c r="B62" s="466"/>
+      <c r="B62" s="459"/>
       <c r="C62" s="372" t="s">
         <v>139</v>
       </c>
@@ -26655,7 +26732,7 @@
       <c r="A63" s="4">
         <v>12</v>
       </c>
-      <c r="B63" s="466"/>
+      <c r="B63" s="459"/>
       <c r="C63" s="384" t="s">
         <v>54</v>
       </c>
@@ -26676,7 +26753,7 @@
       <c r="A64" s="4">
         <v>13</v>
       </c>
-      <c r="B64" s="466"/>
+      <c r="B64" s="459"/>
       <c r="C64" s="412" t="s">
         <v>197</v>
       </c>
@@ -26700,7 +26777,7 @@
         <v>14</v>
       </c>
       <c r="B65" s="4"/>
-      <c r="C65" s="444" t="s">
+      <c r="C65" s="442" t="s">
         <v>525</v>
       </c>
       <c r="D65" s="235"/>
@@ -26768,7 +26845,7 @@
       <c r="C69" s="384" t="s">
         <v>523</v>
       </c>
-      <c r="D69" s="471" t="s">
+      <c r="D69" s="463" t="s">
         <v>522</v>
       </c>
       <c r="E69" s="385"/>
@@ -26786,7 +26863,7 @@
     <row r="70" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="23"/>
       <c r="B70" s="255"/>
-      <c r="C70" s="464"/>
+      <c r="C70" s="457"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="50"/>
@@ -26811,7 +26888,7 @@
       <c r="F71" s="50">
         <v>2</v>
       </c>
-      <c r="G71" s="463">
+      <c r="G71" s="456">
         <v>1200</v>
       </c>
       <c r="H71" s="50">
@@ -26822,7 +26899,7 @@
       <c r="A72" s="4">
         <v>2</v>
       </c>
-      <c r="B72" s="465"/>
+      <c r="B72" s="458"/>
       <c r="C72" s="372" t="s">
         <v>188</v>
       </c>
@@ -26847,7 +26924,7 @@
       <c r="A73" s="4">
         <v>3</v>
       </c>
-      <c r="B73" s="465"/>
+      <c r="B73" s="458"/>
       <c r="C73" s="372" t="s">
         <v>529</v>
       </c>
@@ -26868,7 +26945,7 @@
       <c r="A74" s="4">
         <v>4</v>
       </c>
-      <c r="B74" s="465"/>
+      <c r="B74" s="458"/>
       <c r="C74" s="372" t="s">
         <v>530</v>
       </c>
@@ -26890,7 +26967,7 @@
       <c r="A75" s="4">
         <v>5</v>
       </c>
-      <c r="B75" s="465"/>
+      <c r="B75" s="458"/>
       <c r="C75" s="372" t="s">
         <v>127</v>
       </c>
@@ -26911,7 +26988,7 @@
       <c r="A76" s="4">
         <v>6</v>
       </c>
-      <c r="B76" s="465"/>
+      <c r="B76" s="458"/>
       <c r="C76" s="412" t="s">
         <v>128</v>
       </c>
@@ -26934,7 +27011,7 @@
       <c r="A77" s="4">
         <v>7</v>
       </c>
-      <c r="B77" s="466"/>
+      <c r="B77" s="459"/>
       <c r="C77" s="234" t="s">
         <v>228</v>
       </c>
@@ -26954,7 +27031,7 @@
       <c r="A78" s="4">
         <v>8</v>
       </c>
-      <c r="B78" s="466"/>
+      <c r="B78" s="459"/>
       <c r="C78" s="193" t="s">
         <v>208</v>
       </c>
@@ -26974,7 +27051,7 @@
       <c r="A79" s="4">
         <v>9</v>
       </c>
-      <c r="B79" s="466"/>
+      <c r="B79" s="459"/>
       <c r="C79" s="372" t="s">
         <v>204</v>
       </c>
@@ -26999,11 +27076,11 @@
       <c r="A80" s="4">
         <v>10</v>
       </c>
-      <c r="B80" s="466"/>
+      <c r="B80" s="459"/>
       <c r="C80" s="384" t="s">
         <v>151</v>
       </c>
-      <c r="D80" s="471"/>
+      <c r="D80" s="463"/>
       <c r="E80" s="385" t="s">
         <v>14</v>
       </c>
@@ -27022,7 +27099,7 @@
       <c r="A81" s="4">
         <v>11</v>
       </c>
-      <c r="B81" s="466"/>
+      <c r="B81" s="459"/>
       <c r="C81" s="188" t="s">
         <v>78</v>
       </c>
@@ -27044,7 +27121,7 @@
       <c r="A82" s="4">
         <v>12</v>
       </c>
-      <c r="B82" s="466"/>
+      <c r="B82" s="459"/>
       <c r="C82" s="384" t="s">
         <v>223</v>
       </c>
@@ -27063,7 +27140,7 @@
     </row>
     <row r="83" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
-      <c r="B83" s="466"/>
+      <c r="B83" s="459"/>
       <c r="C83" s="369"/>
       <c r="D83" s="45"/>
       <c r="E83" s="45"/>
@@ -27149,7 +27226,7 @@
       <c r="F88" s="374">
         <v>1</v>
       </c>
-      <c r="G88" s="467"/>
+      <c r="G88" s="460"/>
       <c r="H88" s="374">
         <v>24500</v>
       </c>
@@ -27161,7 +27238,7 @@
       <c r="A89" s="4">
         <v>2</v>
       </c>
-      <c r="B89" s="465"/>
+      <c r="B89" s="458"/>
       <c r="C89" s="372" t="s">
         <v>127</v>
       </c>
@@ -27184,7 +27261,7 @@
       <c r="A90" s="4">
         <v>3</v>
       </c>
-      <c r="B90" s="465"/>
+      <c r="B90" s="458"/>
       <c r="C90" s="188" t="s">
         <v>534</v>
       </c>
@@ -27202,7 +27279,7 @@
       <c r="A91" s="4">
         <v>4</v>
       </c>
-      <c r="B91" s="465"/>
+      <c r="B91" s="458"/>
       <c r="C91" s="188" t="s">
         <v>535</v>
       </c>
@@ -27220,7 +27297,7 @@
       <c r="A92" s="4">
         <v>5</v>
       </c>
-      <c r="B92" s="465"/>
+      <c r="B92" s="458"/>
       <c r="C92" s="188" t="s">
         <v>536</v>
       </c>
@@ -27238,7 +27315,7 @@
       <c r="A93" s="4">
         <v>6</v>
       </c>
-      <c r="B93" s="465"/>
+      <c r="B93" s="458"/>
       <c r="C93" s="372" t="s">
         <v>537</v>
       </c>
@@ -27259,8 +27336,8 @@
       <c r="A94" s="4">
         <v>7</v>
       </c>
-      <c r="B94" s="466"/>
-      <c r="C94" s="468" t="s">
+      <c r="B94" s="459"/>
+      <c r="C94" s="461" t="s">
         <v>538</v>
       </c>
       <c r="D94" s="419"/>
@@ -27274,7 +27351,7 @@
       <c r="H94" s="421">
         <v>15200</v>
       </c>
-      <c r="I94" s="472" t="s">
+      <c r="I94" s="464" t="s">
         <v>548</v>
       </c>
     </row>
@@ -27282,7 +27359,7 @@
       <c r="A95" s="4">
         <v>8</v>
       </c>
-      <c r="B95" s="466"/>
+      <c r="B95" s="459"/>
       <c r="C95" s="375" t="s">
         <v>160</v>
       </c>
@@ -27304,7 +27381,7 @@
     </row>
     <row r="96" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
-      <c r="B96" s="466"/>
+      <c r="B96" s="459"/>
       <c r="C96" s="188"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
@@ -27317,11 +27394,11 @@
     </row>
     <row r="97" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
-      <c r="B97" s="466"/>
+      <c r="B97" s="459"/>
       <c r="C97" s="401" t="s">
         <v>539</v>
       </c>
-      <c r="D97" s="470"/>
+      <c r="D97" s="462"/>
       <c r="E97" s="45"/>
       <c r="F97" s="75"/>
       <c r="G97" s="79"/>
@@ -27331,7 +27408,7 @@
     </row>
     <row r="98" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
-      <c r="B98" s="466"/>
+      <c r="B98" s="459"/>
       <c r="C98" s="188"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
@@ -27357,7 +27434,7 @@
       <c r="F99" s="374">
         <v>1</v>
       </c>
-      <c r="G99" s="467"/>
+      <c r="G99" s="460"/>
       <c r="H99" s="374">
         <v>3500</v>
       </c>
@@ -27369,7 +27446,7 @@
       <c r="A100" s="4">
         <v>2</v>
       </c>
-      <c r="B100" s="465"/>
+      <c r="B100" s="458"/>
       <c r="C100" s="375" t="s">
         <v>541</v>
       </c>
@@ -27392,7 +27469,7 @@
       <c r="A101" s="4">
         <v>3</v>
       </c>
-      <c r="B101" s="465"/>
+      <c r="B101" s="458"/>
       <c r="C101" s="188" t="s">
         <v>542</v>
       </c>
@@ -27414,7 +27491,7 @@
       <c r="A102" s="4">
         <v>4</v>
       </c>
-      <c r="B102" s="465"/>
+      <c r="B102" s="458"/>
       <c r="C102" s="188" t="s">
         <v>27</v>
       </c>
@@ -27434,7 +27511,7 @@
       <c r="A103" s="4">
         <v>5</v>
       </c>
-      <c r="B103" s="465"/>
+      <c r="B103" s="458"/>
       <c r="C103" s="188" t="s">
         <v>544</v>
       </c>
@@ -27456,7 +27533,7 @@
       <c r="A104" s="4">
         <v>6</v>
       </c>
-      <c r="B104" s="465"/>
+      <c r="B104" s="458"/>
       <c r="C104" s="188" t="s">
         <v>218</v>
       </c>
@@ -27478,7 +27555,7 @@
       <c r="A105" s="4">
         <v>7</v>
       </c>
-      <c r="B105" s="466"/>
+      <c r="B105" s="459"/>
       <c r="C105" s="188" t="s">
         <v>542</v>
       </c>
@@ -27498,7 +27575,7 @@
     </row>
     <row r="106" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
-      <c r="B106" s="466"/>
+      <c r="B106" s="459"/>
       <c r="C106" s="193"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
@@ -27511,7 +27588,7 @@
     </row>
     <row r="107" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
-      <c r="B107" s="466"/>
+      <c r="B107" s="459"/>
       <c r="C107" s="188" t="s">
         <v>546</v>
       </c>
@@ -27532,11 +27609,11 @@
     </row>
     <row r="108" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
-      <c r="B108" s="466"/>
+      <c r="B108" s="459"/>
       <c r="C108" s="401" t="s">
         <v>102</v>
       </c>
-      <c r="D108" s="470"/>
+      <c r="D108" s="462"/>
       <c r="E108" s="45"/>
       <c r="F108" s="75">
         <v>1</v>
@@ -27548,7 +27625,7 @@
     </row>
     <row r="109" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
-      <c r="B109" s="466"/>
+      <c r="B109" s="459"/>
       <c r="C109" s="188" t="s">
         <v>547</v>
       </c>
@@ -27566,7 +27643,7 @@
     </row>
     <row r="110" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
-      <c r="B110" s="466"/>
+      <c r="B110" s="459"/>
       <c r="C110" s="401" t="s">
         <v>539</v>
       </c>
@@ -27580,7 +27657,7 @@
     </row>
     <row r="111" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
-      <c r="B111" s="466"/>
+      <c r="B111" s="459"/>
       <c r="C111" s="369"/>
       <c r="D111" s="45"/>
       <c r="E111" s="45"/>
@@ -27598,7 +27675,7 @@
       <c r="B112" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="C112" s="468" t="s">
+      <c r="C112" s="461" t="s">
         <v>550</v>
       </c>
       <c r="D112" s="419"/>
@@ -27606,13 +27683,13 @@
       <c r="F112" s="421">
         <v>8</v>
       </c>
-      <c r="G112" s="474">
+      <c r="G112" s="466">
         <v>3000</v>
       </c>
       <c r="H112" s="421">
         <v>24000</v>
       </c>
-      <c r="I112" s="472" t="s">
+      <c r="I112" s="464" t="s">
         <v>566</v>
       </c>
     </row>
@@ -27620,7 +27697,7 @@
       <c r="A113" s="4">
         <v>2</v>
       </c>
-      <c r="B113" s="465"/>
+      <c r="B113" s="458"/>
       <c r="C113" s="193" t="s">
         <v>551</v>
       </c>
@@ -27642,7 +27719,7 @@
       <c r="A114" s="4">
         <v>3</v>
       </c>
-      <c r="B114" s="465"/>
+      <c r="B114" s="458"/>
       <c r="C114" s="188" t="s">
         <v>552</v>
       </c>
@@ -27664,7 +27741,7 @@
       <c r="A115" s="4">
         <v>4</v>
       </c>
-      <c r="B115" s="465"/>
+      <c r="B115" s="458"/>
       <c r="C115" s="372" t="s">
         <v>151</v>
       </c>
@@ -27687,7 +27764,7 @@
     </row>
     <row r="116" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
-      <c r="B116" s="465"/>
+      <c r="B116" s="458"/>
       <c r="C116" s="188"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
@@ -27700,7 +27777,7 @@
     </row>
     <row r="117" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
-      <c r="B117" s="465"/>
+      <c r="B117" s="458"/>
       <c r="C117" s="188" t="s">
         <v>553</v>
       </c>
@@ -27714,7 +27791,7 @@
     </row>
     <row r="118" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
-      <c r="B118" s="466"/>
+      <c r="B118" s="459"/>
       <c r="C118" s="193" t="s">
         <v>554</v>
       </c>
@@ -27732,7 +27809,7 @@
     </row>
     <row r="119" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
-      <c r="B119" s="466"/>
+      <c r="B119" s="459"/>
       <c r="C119" s="193"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
@@ -27760,7 +27837,7 @@
       <c r="F120" s="374">
         <v>1</v>
       </c>
-      <c r="G120" s="467"/>
+      <c r="G120" s="460"/>
       <c r="H120" s="374">
         <v>23400</v>
       </c>
@@ -27772,7 +27849,7 @@
       <c r="A121" s="4">
         <v>2</v>
       </c>
-      <c r="B121" s="465"/>
+      <c r="B121" s="458"/>
       <c r="C121" s="375" t="s">
         <v>127</v>
       </c>
@@ -27795,7 +27872,7 @@
       <c r="A122" s="4">
         <v>3</v>
       </c>
-      <c r="B122" s="465"/>
+      <c r="B122" s="458"/>
       <c r="C122" s="412" t="s">
         <v>557</v>
       </c>
@@ -27818,7 +27895,7 @@
       <c r="A123" s="4">
         <v>4</v>
       </c>
-      <c r="B123" s="465"/>
+      <c r="B123" s="458"/>
       <c r="C123" s="372" t="s">
         <v>109</v>
       </c>
@@ -27841,7 +27918,7 @@
       <c r="A124" s="4">
         <v>5</v>
       </c>
-      <c r="B124" s="465"/>
+      <c r="B124" s="458"/>
       <c r="C124" s="188" t="s">
         <v>558</v>
       </c>
@@ -27861,7 +27938,7 @@
       <c r="A125" s="4">
         <v>6</v>
       </c>
-      <c r="B125" s="465"/>
+      <c r="B125" s="458"/>
       <c r="C125" s="372" t="s">
         <v>151</v>
       </c>
@@ -27884,7 +27961,7 @@
       <c r="A126" s="4">
         <v>7</v>
       </c>
-      <c r="B126" s="466"/>
+      <c r="B126" s="459"/>
       <c r="C126" s="375" t="s">
         <v>284</v>
       </c>
@@ -27907,7 +27984,7 @@
       <c r="A127" s="4">
         <v>8</v>
       </c>
-      <c r="B127" s="466"/>
+      <c r="B127" s="459"/>
       <c r="C127" s="354" t="s">
         <v>559</v>
       </c>
@@ -27925,7 +28002,7 @@
       <c r="A128" s="4">
         <v>9</v>
       </c>
-      <c r="B128" s="466"/>
+      <c r="B128" s="459"/>
       <c r="C128" s="188" t="s">
         <v>27</v>
       </c>
@@ -27945,11 +28022,11 @@
       <c r="A129" s="4">
         <v>10</v>
       </c>
-      <c r="B129" s="466"/>
+      <c r="B129" s="459"/>
       <c r="C129" s="401" t="s">
         <v>27</v>
       </c>
-      <c r="D129" s="470" t="s">
+      <c r="D129" s="462" t="s">
         <v>562</v>
       </c>
       <c r="E129" s="45"/>
@@ -27965,11 +28042,11 @@
       <c r="A130" s="4">
         <v>11</v>
       </c>
-      <c r="B130" s="466"/>
+      <c r="B130" s="459"/>
       <c r="C130" s="384" t="s">
         <v>54</v>
       </c>
-      <c r="D130" s="471"/>
+      <c r="D130" s="463"/>
       <c r="E130" s="385"/>
       <c r="F130" s="386">
         <v>1</v>
@@ -27986,7 +28063,7 @@
       <c r="A131" s="4">
         <v>12</v>
       </c>
-      <c r="B131" s="466"/>
+      <c r="B131" s="459"/>
       <c r="C131" s="372" t="s">
         <v>223</v>
       </c>
@@ -28007,7 +28084,7 @@
       <c r="A132" s="4">
         <v>13</v>
       </c>
-      <c r="B132" s="466"/>
+      <c r="B132" s="459"/>
       <c r="C132" s="401" t="s">
         <v>561</v>
       </c>
@@ -28029,7 +28106,7 @@
       <c r="A133" s="4">
         <v>14</v>
       </c>
-      <c r="B133" s="466"/>
+      <c r="B133" s="459"/>
       <c r="C133" s="369" t="s">
         <v>27</v>
       </c>
@@ -28052,7 +28129,7 @@
         <v>15</v>
       </c>
       <c r="B134" s="50"/>
-      <c r="C134" s="475" t="s">
+      <c r="C134" s="467" t="s">
         <v>228</v>
       </c>
       <c r="D134" s="79"/>
@@ -28097,7 +28174,7 @@
     <row r="137" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A137" s="26"/>
       <c r="B137" s="26"/>
-      <c r="C137" s="473" t="s">
+      <c r="C137" s="465" t="s">
         <v>554</v>
       </c>
       <c r="D137" s="26"/>
@@ -28113,7 +28190,7 @@
     <row r="138" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A138" s="26"/>
       <c r="B138" s="26"/>
-      <c r="C138" s="473" t="s">
+      <c r="C138" s="465" t="s">
         <v>564</v>
       </c>
       <c r="D138" s="26"/>
@@ -28154,7 +28231,7 @@
       <c r="F140" s="79">
         <v>1</v>
       </c>
-      <c r="G140" s="477"/>
+      <c r="G140" s="469"/>
       <c r="H140" s="79">
         <v>6050</v>
       </c>
@@ -28163,7 +28240,7 @@
       <c r="A141" s="4">
         <v>2</v>
       </c>
-      <c r="B141" s="465"/>
+      <c r="B141" s="458"/>
       <c r="C141" s="375" t="s">
         <v>228</v>
       </c>
@@ -28188,7 +28265,7 @@
       <c r="A142" s="4">
         <v>3</v>
       </c>
-      <c r="B142" s="465"/>
+      <c r="B142" s="458"/>
       <c r="C142" s="372" t="s">
         <v>568</v>
       </c>
@@ -28211,7 +28288,7 @@
       <c r="A143" s="4">
         <v>4</v>
       </c>
-      <c r="B143" s="465"/>
+      <c r="B143" s="458"/>
       <c r="C143" s="393" t="s">
         <v>569</v>
       </c>
@@ -28234,7 +28311,7 @@
       <c r="A144" s="4">
         <v>5</v>
       </c>
-      <c r="B144" s="465"/>
+      <c r="B144" s="458"/>
       <c r="C144" s="372" t="s">
         <v>197</v>
       </c>
@@ -28257,7 +28334,7 @@
       <c r="A145" s="4">
         <v>6</v>
       </c>
-      <c r="B145" s="465"/>
+      <c r="B145" s="458"/>
       <c r="C145" s="372" t="s">
         <v>299</v>
       </c>
@@ -28280,7 +28357,7 @@
       <c r="A146" s="4">
         <v>7</v>
       </c>
-      <c r="B146" s="466"/>
+      <c r="B146" s="459"/>
       <c r="C146" s="375" t="s">
         <v>299</v>
       </c>
@@ -28305,7 +28382,7 @@
       <c r="A147" s="4">
         <v>8</v>
       </c>
-      <c r="B147" s="466"/>
+      <c r="B147" s="459"/>
       <c r="C147" s="375" t="s">
         <v>197</v>
       </c>
@@ -28330,7 +28407,7 @@
       <c r="A148" s="4">
         <v>9</v>
       </c>
-      <c r="B148" s="466"/>
+      <c r="B148" s="459"/>
       <c r="C148" s="372" t="s">
         <v>127</v>
       </c>
@@ -28353,11 +28430,11 @@
       <c r="A149" s="4">
         <v>10</v>
       </c>
-      <c r="B149" s="466"/>
+      <c r="B149" s="459"/>
       <c r="C149" s="384" t="s">
         <v>570</v>
       </c>
-      <c r="D149" s="471"/>
+      <c r="D149" s="463"/>
       <c r="E149" s="385"/>
       <c r="F149" s="386">
         <v>1</v>
@@ -28374,11 +28451,11 @@
       <c r="A150" s="4">
         <v>11</v>
       </c>
-      <c r="B150" s="466"/>
+      <c r="B150" s="459"/>
       <c r="C150" s="384" t="s">
         <v>176</v>
       </c>
-      <c r="D150" s="471"/>
+      <c r="D150" s="463"/>
       <c r="E150" s="385" t="s">
         <v>22</v>
       </c>
@@ -28399,7 +28476,7 @@
       <c r="A151" s="4">
         <v>12</v>
       </c>
-      <c r="B151" s="466"/>
+      <c r="B151" s="459"/>
       <c r="C151" s="372" t="s">
         <v>139</v>
       </c>
@@ -28420,7 +28497,7 @@
       <c r="A152" s="4">
         <v>13</v>
       </c>
-      <c r="B152" s="466"/>
+      <c r="B152" s="459"/>
       <c r="C152" s="384" t="s">
         <v>54</v>
       </c>
@@ -28439,7 +28516,7 @@
     </row>
     <row r="153" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
-      <c r="B153" s="466"/>
+      <c r="B153" s="459"/>
       <c r="C153" s="369"/>
       <c r="D153" s="45"/>
       <c r="E153" s="45"/>
@@ -28467,7 +28544,7 @@
     <row r="155" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="50"/>
       <c r="B155" s="50"/>
-      <c r="C155" s="476" t="s">
+      <c r="C155" s="468" t="s">
         <v>571</v>
       </c>
       <c r="D155" s="50"/>
@@ -28485,7 +28562,7 @@
     <row r="156" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="50"/>
       <c r="B156" s="50"/>
-      <c r="C156" s="476" t="s">
+      <c r="C156" s="468" t="s">
         <v>554</v>
       </c>
       <c r="D156" s="50"/>
@@ -28501,7 +28578,7 @@
     <row r="157" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A157" s="26"/>
       <c r="B157" s="26"/>
-      <c r="C157" s="473"/>
+      <c r="C157" s="465"/>
       <c r="D157" s="26"/>
       <c r="E157" s="26"/>
       <c r="F157" s="4"/>
@@ -28526,7 +28603,7 @@
       <c r="F158" s="374">
         <v>5</v>
       </c>
-      <c r="G158" s="467">
+      <c r="G158" s="460">
         <v>3500</v>
       </c>
       <c r="H158" s="374">
@@ -28540,7 +28617,7 @@
       <c r="A159" s="4">
         <v>2</v>
       </c>
-      <c r="B159" s="465"/>
+      <c r="B159" s="458"/>
       <c r="C159" s="192" t="s">
         <v>27</v>
       </c>
@@ -28560,7 +28637,7 @@
       <c r="A160" s="4">
         <v>3</v>
       </c>
-      <c r="B160" s="465"/>
+      <c r="B160" s="458"/>
       <c r="C160" s="387" t="s">
         <v>27</v>
       </c>
@@ -28578,7 +28655,7 @@
     </row>
     <row r="161" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4"/>
-      <c r="B161" s="465"/>
+      <c r="B161" s="458"/>
       <c r="C161" s="260"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
@@ -28591,7 +28668,7 @@
     </row>
     <row r="162" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4"/>
-      <c r="B162" s="465"/>
+      <c r="B162" s="458"/>
       <c r="C162" s="188" t="s">
         <v>539</v>
       </c>
@@ -28605,7 +28682,7 @@
     </row>
     <row r="163" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4"/>
-      <c r="B163" s="465"/>
+      <c r="B163" s="458"/>
       <c r="C163" s="193" t="s">
         <v>574</v>
       </c>
@@ -28619,7 +28696,7 @@
     </row>
     <row r="164" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4"/>
-      <c r="B164" s="466"/>
+      <c r="B164" s="459"/>
       <c r="C164" s="193"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
@@ -28637,7 +28714,7 @@
       <c r="B165" s="222" t="s">
         <v>575</v>
       </c>
-      <c r="C165" s="484" t="s">
+      <c r="C165" s="476" t="s">
         <v>109</v>
       </c>
       <c r="D165" s="413"/>
@@ -28645,7 +28722,7 @@
       <c r="F165" s="413">
         <v>4</v>
       </c>
-      <c r="G165" s="485">
+      <c r="G165" s="477">
         <v>3500</v>
       </c>
       <c r="H165" s="374">
@@ -28660,7 +28737,7 @@
         <v>2</v>
       </c>
       <c r="B166" s="222"/>
-      <c r="C166" s="486" t="s">
+      <c r="C166" s="478" t="s">
         <v>223</v>
       </c>
       <c r="D166" s="413"/>
@@ -28681,7 +28758,7 @@
         <v>3</v>
       </c>
       <c r="B167" s="222"/>
-      <c r="C167" s="484" t="s">
+      <c r="C167" s="476" t="s">
         <v>176</v>
       </c>
       <c r="D167" s="413"/>
@@ -28706,7 +28783,7 @@
         <v>4</v>
       </c>
       <c r="B168" s="222"/>
-      <c r="C168" s="476" t="s">
+      <c r="C168" s="468" t="s">
         <v>544</v>
       </c>
       <c r="D168" s="222" t="s">
@@ -28728,7 +28805,7 @@
         <v>5</v>
       </c>
       <c r="B169" s="222"/>
-      <c r="C169" s="482" t="s">
+      <c r="C169" s="474" t="s">
         <v>27</v>
       </c>
       <c r="D169" s="222" t="s">
@@ -28748,7 +28825,7 @@
         <v>6</v>
       </c>
       <c r="B170" s="222"/>
-      <c r="C170" s="476" t="s">
+      <c r="C170" s="468" t="s">
         <v>576</v>
       </c>
       <c r="D170" s="222"/>
@@ -28768,7 +28845,7 @@
         <v>7</v>
       </c>
       <c r="B171" s="222"/>
-      <c r="C171" s="486" t="s">
+      <c r="C171" s="478" t="s">
         <v>139</v>
       </c>
       <c r="D171" s="413"/>
@@ -28789,7 +28866,7 @@
         <v>8</v>
       </c>
       <c r="B172" s="222"/>
-      <c r="C172" s="484" t="s">
+      <c r="C172" s="476" t="s">
         <v>350</v>
       </c>
       <c r="D172" s="413"/>
@@ -28808,7 +28885,7 @@
     <row r="173" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="222"/>
       <c r="B173" s="222"/>
-      <c r="C173" s="482"/>
+      <c r="C173" s="474"/>
       <c r="D173" s="222"/>
       <c r="E173" s="222"/>
       <c r="F173" s="222"/>
@@ -28821,7 +28898,7 @@
     <row r="174" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="222"/>
       <c r="B174" s="222"/>
-      <c r="C174" s="482" t="s">
+      <c r="C174" s="474" t="s">
         <v>539</v>
       </c>
       <c r="D174" s="222"/>
@@ -28838,7 +28915,7 @@
     <row r="175" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="222"/>
       <c r="B175" s="222"/>
-      <c r="C175" s="476" t="s">
+      <c r="C175" s="468" t="s">
         <v>192</v>
       </c>
       <c r="D175" s="222"/>
@@ -28856,7 +28933,7 @@
     <row r="176" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="222"/>
       <c r="B176" s="222"/>
-      <c r="C176" s="482"/>
+      <c r="C176" s="474"/>
       <c r="D176" s="222"/>
       <c r="E176" s="222"/>
       <c r="F176" s="222"/>
@@ -28866,208 +28943,235 @@
         <v>149300</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="222">
         <v>1</v>
       </c>
       <c r="B177" s="222" t="s">
         <v>577</v>
       </c>
-      <c r="C177" s="481" t="s">
+      <c r="C177" s="476" t="s">
         <v>109</v>
       </c>
-      <c r="D177" s="447"/>
-      <c r="E177" s="447"/>
-      <c r="F177" s="447">
-        <v>1</v>
-      </c>
-      <c r="G177" s="480"/>
-      <c r="H177" s="84">
+      <c r="D177" s="413"/>
+      <c r="E177" s="413"/>
+      <c r="F177" s="413">
+        <v>1</v>
+      </c>
+      <c r="G177" s="477"/>
+      <c r="H177" s="374">
         <v>3500</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I177" s="101" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="222">
         <v>2</v>
       </c>
       <c r="B178" s="222"/>
-      <c r="C178" s="483" t="s">
+      <c r="C178" s="488" t="s">
         <v>108</v>
       </c>
-      <c r="D178" s="447"/>
-      <c r="E178" s="447"/>
-      <c r="F178" s="447">
-        <v>1</v>
-      </c>
-      <c r="G178" s="447"/>
-      <c r="H178" s="84">
+      <c r="D178" s="486"/>
+      <c r="E178" s="486"/>
+      <c r="F178" s="486">
+        <v>1</v>
+      </c>
+      <c r="G178" s="486"/>
+      <c r="H178" s="353">
         <v>3500</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="222">
         <v>3</v>
       </c>
       <c r="B179" s="222"/>
-      <c r="C179" s="481" t="s">
+      <c r="C179" s="476" t="s">
         <v>171</v>
       </c>
-      <c r="D179" s="447"/>
-      <c r="E179" s="447"/>
-      <c r="F179" s="447">
+      <c r="D179" s="413"/>
+      <c r="E179" s="413"/>
+      <c r="F179" s="413">
         <v>4</v>
       </c>
-      <c r="G179" s="447">
+      <c r="G179" s="413">
         <v>3800</v>
       </c>
-      <c r="H179" s="84">
+      <c r="H179" s="374">
         <v>15200</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I179" s="101" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="222">
         <v>4</v>
       </c>
       <c r="B180" s="222"/>
-      <c r="C180" s="476" t="s">
+      <c r="C180" s="478" t="s">
         <v>364</v>
       </c>
-      <c r="D180" s="222"/>
-      <c r="E180" s="222"/>
-      <c r="F180" s="222">
+      <c r="D180" s="413"/>
+      <c r="E180" s="413"/>
+      <c r="F180" s="413">
         <v>2</v>
       </c>
-      <c r="G180" s="222">
+      <c r="G180" s="413">
         <v>2500</v>
       </c>
-      <c r="H180" s="50">
+      <c r="H180" s="374">
         <v>5000</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I180" s="101" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="222">
         <v>5</v>
       </c>
       <c r="B181" s="222"/>
-      <c r="C181" s="482" t="s">
+      <c r="C181" s="476" t="s">
         <v>121</v>
       </c>
-      <c r="D181" s="222"/>
-      <c r="E181" s="222" t="s">
+      <c r="D181" s="413"/>
+      <c r="E181" s="413" t="s">
         <v>14</v>
       </c>
-      <c r="F181" s="222">
+      <c r="F181" s="413">
         <v>2</v>
       </c>
-      <c r="G181" s="222">
+      <c r="G181" s="413">
         <v>11500</v>
       </c>
-      <c r="H181" s="50">
+      <c r="H181" s="374">
         <v>23000</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I181" s="101" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="222">
         <v>6</v>
       </c>
       <c r="B182" s="222"/>
-      <c r="C182" s="476" t="s">
+      <c r="C182" s="478" t="s">
         <v>580</v>
       </c>
-      <c r="D182" s="222"/>
-      <c r="E182" s="222"/>
-      <c r="F182" s="222">
-        <v>1</v>
-      </c>
-      <c r="G182" s="222"/>
-      <c r="H182" s="50">
+      <c r="D182" s="413"/>
+      <c r="E182" s="413"/>
+      <c r="F182" s="413">
+        <v>1</v>
+      </c>
+      <c r="G182" s="413"/>
+      <c r="H182" s="374">
         <v>2650</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I182" s="101" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="222">
         <v>7</v>
       </c>
       <c r="B183" s="222"/>
-      <c r="C183" s="476" t="s">
+      <c r="C183" s="478" t="s">
         <v>200</v>
       </c>
-      <c r="D183" s="222"/>
-      <c r="E183" s="222" t="s">
+      <c r="D183" s="413"/>
+      <c r="E183" s="413" t="s">
         <v>14</v>
       </c>
-      <c r="F183" s="222">
-        <v>1</v>
-      </c>
-      <c r="G183" s="222"/>
-      <c r="H183" s="50">
+      <c r="F183" s="413">
+        <v>1</v>
+      </c>
+      <c r="G183" s="413"/>
+      <c r="H183" s="374">
         <v>12000</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I183" s="101" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="222">
         <v>8</v>
       </c>
       <c r="B184" s="222"/>
-      <c r="C184" s="482" t="s">
+      <c r="C184" s="476" t="s">
         <v>581</v>
       </c>
-      <c r="D184" s="222"/>
-      <c r="E184" s="222"/>
-      <c r="F184" s="222">
-        <v>1</v>
-      </c>
-      <c r="G184" s="222"/>
-      <c r="H184" s="50">
+      <c r="D184" s="413"/>
+      <c r="E184" s="413"/>
+      <c r="F184" s="413">
+        <v>1</v>
+      </c>
+      <c r="G184" s="413"/>
+      <c r="H184" s="374">
         <v>5500</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I184" s="101" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="222">
         <v>9</v>
       </c>
       <c r="B185" s="222"/>
-      <c r="C185" s="482" t="s">
+      <c r="C185" s="476" t="s">
         <v>342</v>
       </c>
-      <c r="D185" s="222"/>
-      <c r="E185" s="222" t="s">
+      <c r="D185" s="413"/>
+      <c r="E185" s="413" t="s">
         <v>14</v>
       </c>
-      <c r="F185" s="222">
+      <c r="F185" s="413">
         <v>9</v>
       </c>
-      <c r="G185" s="222">
+      <c r="G185" s="413">
         <v>4000</v>
       </c>
-      <c r="H185" s="50">
+      <c r="H185" s="374">
         <v>36000</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I185" s="101" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="222">
         <v>10</v>
       </c>
       <c r="B186" s="222"/>
-      <c r="C186" s="482" t="s">
+      <c r="C186" s="476" t="s">
         <v>284</v>
       </c>
-      <c r="D186" s="222"/>
-      <c r="E186" s="222" t="s">
+      <c r="D186" s="413"/>
+      <c r="E186" s="413" t="s">
         <v>22</v>
       </c>
-      <c r="F186" s="222">
-        <v>1</v>
-      </c>
-      <c r="G186" s="222"/>
-      <c r="H186" s="50">
+      <c r="F186" s="413">
+        <v>1</v>
+      </c>
+      <c r="G186" s="413"/>
+      <c r="H186" s="374">
         <v>36500</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I186" s="101" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="222"/>
       <c r="B187" s="222"/>
-      <c r="C187" s="476"/>
+      <c r="C187" s="468"/>
       <c r="D187" s="222"/>
       <c r="E187" s="222"/>
       <c r="F187" s="222"/>
@@ -29077,10 +29181,10 @@
         <v>142850</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="222"/>
       <c r="B188" s="222"/>
-      <c r="C188" s="482" t="s">
+      <c r="C188" s="474" t="s">
         <v>518</v>
       </c>
       <c r="D188" s="222"/>
@@ -29091,44 +29195,50 @@
         <v>25500</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="222"/>
       <c r="B189" s="222" t="s">
         <v>509</v>
       </c>
-      <c r="C189" s="487" t="s">
+      <c r="C189" s="483" t="s">
         <v>54</v>
       </c>
-      <c r="D189" s="417" t="s">
+      <c r="D189" s="484" t="s">
         <v>578</v>
       </c>
-      <c r="E189" s="417"/>
-      <c r="F189" s="417"/>
-      <c r="G189" s="417"/>
-      <c r="H189" s="417" t="s">
+      <c r="E189" s="484"/>
+      <c r="F189" s="484"/>
+      <c r="G189" s="484"/>
+      <c r="H189" s="484" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I189" s="101" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="222"/>
       <c r="B190" s="222"/>
-      <c r="C190" s="487" t="s">
+      <c r="C190" s="483" t="s">
         <v>579</v>
       </c>
-      <c r="D190" s="417" t="s">
+      <c r="D190" s="484" t="s">
         <v>578</v>
       </c>
-      <c r="E190" s="417"/>
-      <c r="F190" s="417"/>
-      <c r="G190" s="417"/>
-      <c r="H190" s="417" t="s">
+      <c r="E190" s="484"/>
+      <c r="F190" s="484"/>
+      <c r="G190" s="484"/>
+      <c r="H190" s="484" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I190" s="101" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="222"/>
       <c r="B191" s="222"/>
-      <c r="C191" s="482"/>
+      <c r="C191" s="474"/>
       <c r="D191" s="222"/>
       <c r="E191" s="222"/>
       <c r="F191" s="222"/>
@@ -29138,538 +29248,1026 @@
         <v>168350</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="4"/>
-      <c r="B192" s="3"/>
-      <c r="C192" s="192"/>
-      <c r="D192" s="83"/>
-      <c r="E192" s="89"/>
-      <c r="F192" s="83"/>
-      <c r="G192" s="447"/>
-      <c r="H192" s="390"/>
-    </row>
-    <row r="193" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="4"/>
-      <c r="B193" s="3"/>
-      <c r="C193" s="192"/>
-      <c r="D193" s="83"/>
-      <c r="E193" s="89"/>
-      <c r="F193" s="83"/>
-      <c r="G193" s="447"/>
-      <c r="H193" s="84"/>
-    </row>
-    <row r="194" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="4"/>
-      <c r="B194" s="3"/>
-      <c r="C194" s="435"/>
-      <c r="D194" s="89"/>
-      <c r="E194" s="89"/>
-      <c r="F194" s="83"/>
-      <c r="G194" s="447"/>
-      <c r="H194" s="84"/>
-    </row>
-    <row r="195" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="4"/>
-      <c r="B195" s="3"/>
-      <c r="C195" s="435"/>
-      <c r="D195" s="89"/>
-      <c r="E195" s="89"/>
-      <c r="F195" s="83"/>
-      <c r="G195" s="84"/>
-      <c r="H195" s="84"/>
-    </row>
-    <row r="196" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="4"/>
-      <c r="B196" s="3"/>
-      <c r="C196" s="435"/>
-      <c r="D196" s="89"/>
-      <c r="E196" s="89"/>
-      <c r="F196" s="89"/>
-      <c r="G196" s="84"/>
-      <c r="H196" s="84"/>
-    </row>
-    <row r="197" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="414"/>
-      <c r="B197" s="414"/>
-      <c r="C197" s="81"/>
-      <c r="D197" s="81"/>
-      <c r="E197" s="81"/>
-      <c r="F197" s="81"/>
-      <c r="G197" s="81"/>
-      <c r="H197" s="438"/>
-    </row>
-    <row r="198" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="4"/>
-      <c r="B198" s="4"/>
-      <c r="C198" s="387"/>
-      <c r="D198" s="83"/>
-      <c r="E198" s="89"/>
-      <c r="F198" s="89"/>
-      <c r="G198" s="84"/>
-      <c r="H198" s="84"/>
-    </row>
-    <row r="199" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="4"/>
-      <c r="B199" s="4"/>
-      <c r="C199" s="192"/>
-      <c r="D199" s="83"/>
-      <c r="E199" s="89"/>
-      <c r="F199" s="89"/>
-      <c r="G199" s="84"/>
-      <c r="H199" s="84"/>
-    </row>
-    <row r="200" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="4"/>
-      <c r="B200" s="4"/>
-      <c r="C200" s="192"/>
-      <c r="D200" s="83"/>
-      <c r="E200" s="89"/>
-      <c r="F200" s="89"/>
-      <c r="G200" s="84"/>
-      <c r="H200" s="84"/>
-    </row>
-    <row r="201" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="4"/>
-      <c r="B201" s="3"/>
-      <c r="C201" s="192"/>
-      <c r="D201" s="83"/>
-      <c r="E201" s="89"/>
-      <c r="F201" s="89"/>
-      <c r="G201" s="84"/>
-      <c r="H201" s="84"/>
-    </row>
-    <row r="202" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="4"/>
-      <c r="B202" s="3"/>
-      <c r="C202" s="192"/>
-      <c r="D202" s="83"/>
-      <c r="E202" s="89"/>
-      <c r="F202" s="89"/>
-      <c r="G202" s="84"/>
-      <c r="H202" s="84"/>
-    </row>
-    <row r="203" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="4"/>
-      <c r="B203" s="3"/>
-      <c r="C203" s="435"/>
-      <c r="D203" s="83"/>
-      <c r="E203" s="89"/>
-      <c r="F203" s="83"/>
-      <c r="G203" s="84"/>
-      <c r="H203" s="84"/>
-    </row>
-    <row r="204" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="4"/>
-      <c r="B204" s="3"/>
-      <c r="C204" s="435"/>
-      <c r="D204" s="83"/>
-      <c r="E204" s="89"/>
-      <c r="F204" s="83"/>
-      <c r="G204" s="84"/>
-      <c r="H204" s="84"/>
-    </row>
-    <row r="205" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="4"/>
-      <c r="B205" s="3"/>
-      <c r="C205" s="192"/>
-      <c r="D205" s="83"/>
-      <c r="E205" s="89"/>
-      <c r="F205" s="83"/>
-      <c r="G205" s="84"/>
-      <c r="H205" s="390"/>
-    </row>
-    <row r="206" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="4"/>
-      <c r="B206" s="3"/>
-      <c r="C206" s="192"/>
-      <c r="D206" s="83"/>
-      <c r="E206" s="89"/>
-      <c r="F206" s="83"/>
-      <c r="G206" s="84"/>
-      <c r="H206" s="84"/>
-    </row>
-    <row r="207" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="4"/>
-      <c r="B207" s="3"/>
-      <c r="C207" s="192"/>
-      <c r="D207" s="83"/>
-      <c r="E207" s="89"/>
-      <c r="F207" s="83"/>
-      <c r="G207" s="84"/>
-      <c r="H207" s="84"/>
-    </row>
-    <row r="208" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="4"/>
-      <c r="B208" s="3"/>
-      <c r="C208" s="192"/>
-      <c r="D208" s="83"/>
-      <c r="E208" s="89"/>
-      <c r="F208" s="83"/>
-      <c r="G208" s="84"/>
-      <c r="H208" s="390"/>
+    <row r="192" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="222">
+        <v>1</v>
+      </c>
+      <c r="B192" s="222" t="s">
+        <v>582</v>
+      </c>
+      <c r="C192" s="473" t="s">
+        <v>544</v>
+      </c>
+      <c r="D192" s="444" t="s">
+        <v>583</v>
+      </c>
+      <c r="E192" s="444"/>
+      <c r="F192" s="444">
+        <v>2</v>
+      </c>
+      <c r="G192" s="472">
+        <v>8000</v>
+      </c>
+      <c r="H192" s="84">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="222">
+        <v>2</v>
+      </c>
+      <c r="B193" s="222"/>
+      <c r="C193" s="478" t="s">
+        <v>406</v>
+      </c>
+      <c r="D193" s="413"/>
+      <c r="E193" s="413" t="s">
+        <v>14</v>
+      </c>
+      <c r="F193" s="413">
+        <v>8</v>
+      </c>
+      <c r="G193" s="413">
+        <v>4000</v>
+      </c>
+      <c r="H193" s="374">
+        <v>32000</v>
+      </c>
+      <c r="I193" s="101" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="222">
+        <v>3</v>
+      </c>
+      <c r="B194" s="222"/>
+      <c r="C194" s="485" t="s">
+        <v>228</v>
+      </c>
+      <c r="D194" s="486"/>
+      <c r="E194" s="486" t="s">
+        <v>22</v>
+      </c>
+      <c r="F194" s="486">
+        <v>1</v>
+      </c>
+      <c r="G194" s="486"/>
+      <c r="H194" s="353">
+        <v>25500</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="222"/>
+      <c r="B195" s="222"/>
+      <c r="C195" s="468"/>
+      <c r="D195" s="222"/>
+      <c r="E195" s="222"/>
+      <c r="F195" s="222"/>
+      <c r="G195" s="222"/>
+      <c r="H195" s="223">
+        <f>SUM(H192:H194)</f>
+        <v>73500</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="222"/>
+      <c r="B196" s="222"/>
+      <c r="C196" s="474" t="s">
+        <v>518</v>
+      </c>
+      <c r="D196" s="222"/>
+      <c r="E196" s="222"/>
+      <c r="F196" s="222"/>
+      <c r="G196" s="222"/>
+      <c r="H196" s="50">
+        <v>25500</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="222"/>
+      <c r="B197" s="222"/>
+      <c r="C197" s="468" t="s">
+        <v>455</v>
+      </c>
+      <c r="D197" s="222"/>
+      <c r="E197" s="222"/>
+      <c r="F197" s="222">
+        <v>5</v>
+      </c>
+      <c r="G197" s="222">
+        <v>2000</v>
+      </c>
+      <c r="H197" s="50">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="222"/>
+      <c r="B198" s="222"/>
+      <c r="C198" s="468"/>
+      <c r="D198" s="222"/>
+      <c r="E198" s="222"/>
+      <c r="F198" s="222"/>
+      <c r="G198" s="222"/>
+      <c r="H198" s="223">
+        <f>SUM(H195:H197)</f>
+        <v>109000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="222">
+        <v>1</v>
+      </c>
+      <c r="B199" s="222" t="s">
+        <v>584</v>
+      </c>
+      <c r="C199" s="485" t="s">
+        <v>585</v>
+      </c>
+      <c r="D199" s="486"/>
+      <c r="E199" s="486"/>
+      <c r="F199" s="486">
+        <v>4</v>
+      </c>
+      <c r="G199" s="487">
+        <v>2500</v>
+      </c>
+      <c r="H199" s="353">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="222">
+        <v>2</v>
+      </c>
+      <c r="B200" s="222"/>
+      <c r="C200" s="478" t="s">
+        <v>204</v>
+      </c>
+      <c r="D200" s="413"/>
+      <c r="E200" s="413" t="s">
+        <v>14</v>
+      </c>
+      <c r="F200" s="413">
+        <v>1</v>
+      </c>
+      <c r="G200" s="413"/>
+      <c r="H200" s="374">
+        <v>5500</v>
+      </c>
+      <c r="I200" s="101" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="222">
+        <v>3</v>
+      </c>
+      <c r="B201" s="222"/>
+      <c r="C201" s="475" t="s">
+        <v>586</v>
+      </c>
+      <c r="D201" s="444" t="s">
+        <v>165</v>
+      </c>
+      <c r="E201" s="444"/>
+      <c r="F201" s="444">
+        <v>1</v>
+      </c>
+      <c r="G201" s="444"/>
+      <c r="H201" s="84">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="222">
+        <v>4</v>
+      </c>
+      <c r="B202" s="222"/>
+      <c r="C202" s="480" t="s">
+        <v>587</v>
+      </c>
+      <c r="D202" s="222" t="s">
+        <v>165</v>
+      </c>
+      <c r="E202" s="222"/>
+      <c r="F202" s="222">
+        <v>2</v>
+      </c>
+      <c r="G202" s="222">
+        <v>29000</v>
+      </c>
+      <c r="H202" s="50">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="222">
+        <v>5</v>
+      </c>
+      <c r="B203" s="222"/>
+      <c r="C203" s="474" t="s">
+        <v>27</v>
+      </c>
+      <c r="D203" s="222" t="s">
+        <v>165</v>
+      </c>
+      <c r="E203" s="222"/>
+      <c r="F203" s="222">
+        <v>1</v>
+      </c>
+      <c r="G203" s="222"/>
+      <c r="H203" s="50">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="222">
+        <v>6</v>
+      </c>
+      <c r="B204" s="222"/>
+      <c r="C204" s="468" t="s">
+        <v>78</v>
+      </c>
+      <c r="D204" s="222" t="s">
+        <v>87</v>
+      </c>
+      <c r="E204" s="222"/>
+      <c r="F204" s="222">
+        <v>2</v>
+      </c>
+      <c r="G204" s="222">
+        <v>9000</v>
+      </c>
+      <c r="H204" s="50">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="222">
+        <v>7</v>
+      </c>
+      <c r="B205" s="222"/>
+      <c r="C205" s="468" t="s">
+        <v>174</v>
+      </c>
+      <c r="D205" s="222"/>
+      <c r="E205" s="222"/>
+      <c r="F205" s="222">
+        <v>1</v>
+      </c>
+      <c r="G205" s="222"/>
+      <c r="H205" s="50">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="222">
+        <v>8</v>
+      </c>
+      <c r="B206" s="222"/>
+      <c r="C206" s="479" t="s">
+        <v>108</v>
+      </c>
+      <c r="D206" s="417"/>
+      <c r="E206" s="417"/>
+      <c r="F206" s="417">
+        <v>1</v>
+      </c>
+      <c r="G206" s="417"/>
+      <c r="H206" s="79">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="222">
+        <v>9</v>
+      </c>
+      <c r="B207" s="222"/>
+      <c r="C207" s="476" t="s">
+        <v>188</v>
+      </c>
+      <c r="D207" s="413"/>
+      <c r="E207" s="413" t="s">
+        <v>8</v>
+      </c>
+      <c r="F207" s="413">
+        <v>1</v>
+      </c>
+      <c r="G207" s="413"/>
+      <c r="H207" s="374">
+        <v>25500</v>
+      </c>
+      <c r="I207" s="101" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="222">
+        <v>10</v>
+      </c>
+      <c r="B208" s="222"/>
+      <c r="C208" s="476" t="s">
+        <v>188</v>
+      </c>
+      <c r="D208" s="413"/>
+      <c r="E208" s="413" t="s">
+        <v>14</v>
+      </c>
+      <c r="F208" s="413">
+        <v>2</v>
+      </c>
+      <c r="G208" s="413">
+        <v>6000</v>
+      </c>
+      <c r="H208" s="374">
+        <v>12000</v>
+      </c>
+      <c r="I208" s="101" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="209" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="4"/>
-      <c r="B209" s="4"/>
-      <c r="C209" s="387"/>
-      <c r="D209" s="83"/>
-      <c r="E209" s="89"/>
-      <c r="F209" s="89"/>
-      <c r="G209" s="84"/>
-      <c r="H209" s="84"/>
+      <c r="A209" s="222">
+        <v>11</v>
+      </c>
+      <c r="B209" s="222"/>
+      <c r="C209" s="478" t="s">
+        <v>109</v>
+      </c>
+      <c r="D209" s="413"/>
+      <c r="E209" s="413"/>
+      <c r="F209" s="413">
+        <v>2</v>
+      </c>
+      <c r="G209" s="413">
+        <v>3500</v>
+      </c>
+      <c r="H209" s="374">
+        <v>7000</v>
+      </c>
+      <c r="I209" s="101" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="210" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="4"/>
-      <c r="B210" s="4"/>
-      <c r="C210" s="444"/>
-      <c r="D210" s="235"/>
-      <c r="E210" s="445"/>
-      <c r="F210" s="235"/>
-      <c r="G210" s="353"/>
-      <c r="H210" s="353"/>
-      <c r="I210" s="341"/>
+      <c r="A210" s="222">
+        <v>12</v>
+      </c>
+      <c r="B210" s="222"/>
+      <c r="C210" s="478" t="s">
+        <v>556</v>
+      </c>
+      <c r="D210" s="413"/>
+      <c r="E210" s="413" t="s">
+        <v>14</v>
+      </c>
+      <c r="F210" s="413">
+        <v>4</v>
+      </c>
+      <c r="G210" s="413">
+        <v>6200</v>
+      </c>
+      <c r="H210" s="374">
+        <v>24800</v>
+      </c>
+      <c r="I210" s="101" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="211" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="4"/>
-      <c r="B211" s="4"/>
-      <c r="C211" s="192"/>
-      <c r="D211" s="83"/>
-      <c r="E211" s="89"/>
-      <c r="F211" s="89"/>
-      <c r="G211" s="84"/>
-      <c r="H211" s="84"/>
+      <c r="A211" s="222">
+        <v>13</v>
+      </c>
+      <c r="B211" s="222"/>
+      <c r="C211" s="478" t="s">
+        <v>127</v>
+      </c>
+      <c r="D211" s="413"/>
+      <c r="E211" s="413"/>
+      <c r="F211" s="413">
+        <v>1</v>
+      </c>
+      <c r="G211" s="413"/>
+      <c r="H211" s="374">
+        <v>2500</v>
+      </c>
+      <c r="I211" s="101" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="212" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="4"/>
-      <c r="B212" s="3"/>
-      <c r="C212" s="192"/>
-      <c r="D212" s="83"/>
-      <c r="E212" s="89"/>
-      <c r="F212" s="89"/>
-      <c r="G212" s="84"/>
-      <c r="H212" s="84"/>
+      <c r="A212" s="222">
+        <v>14</v>
+      </c>
+      <c r="B212" s="222"/>
+      <c r="C212" s="478" t="s">
+        <v>121</v>
+      </c>
+      <c r="D212" s="413"/>
+      <c r="E212" s="413" t="s">
+        <v>14</v>
+      </c>
+      <c r="F212" s="413">
+        <v>2</v>
+      </c>
+      <c r="G212" s="413">
+        <v>11500</v>
+      </c>
+      <c r="H212" s="374">
+        <v>23000</v>
+      </c>
+      <c r="I212" s="101" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="213" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="4"/>
-      <c r="B213" s="3"/>
-      <c r="C213" s="192"/>
-      <c r="D213" s="83"/>
-      <c r="E213" s="89"/>
-      <c r="F213" s="89"/>
-      <c r="G213" s="84"/>
-      <c r="H213" s="84"/>
+      <c r="A213" s="222">
+        <v>15</v>
+      </c>
+      <c r="B213" s="222"/>
+      <c r="C213" s="478" t="s">
+        <v>568</v>
+      </c>
+      <c r="D213" s="413"/>
+      <c r="E213" s="413"/>
+      <c r="F213" s="413">
+        <v>8</v>
+      </c>
+      <c r="G213" s="413">
+        <v>3800</v>
+      </c>
+      <c r="H213" s="374">
+        <v>30400</v>
+      </c>
+      <c r="I213" s="101" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="214" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="4"/>
-      <c r="B214" s="3"/>
-      <c r="C214" s="435"/>
-      <c r="D214" s="83"/>
-      <c r="E214" s="89"/>
-      <c r="F214" s="83"/>
-      <c r="G214" s="84"/>
-      <c r="H214" s="84"/>
+      <c r="A214" s="222">
+        <v>16</v>
+      </c>
+      <c r="B214" s="222"/>
+      <c r="C214" s="468" t="s">
+        <v>10</v>
+      </c>
+      <c r="D214" s="222" t="s">
+        <v>285</v>
+      </c>
+      <c r="E214" s="222"/>
+      <c r="F214" s="222">
+        <v>2</v>
+      </c>
+      <c r="G214" s="222">
+        <v>8000</v>
+      </c>
+      <c r="H214" s="50">
+        <v>16000</v>
+      </c>
     </row>
     <row r="215" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="4"/>
-      <c r="B215" s="3"/>
-      <c r="C215" s="435"/>
-      <c r="D215" s="83"/>
-      <c r="E215" s="89"/>
-      <c r="F215" s="83"/>
-      <c r="G215" s="84"/>
-      <c r="H215" s="84"/>
+      <c r="A215" s="222">
+        <v>17</v>
+      </c>
+      <c r="B215" s="222"/>
+      <c r="C215" s="468" t="s">
+        <v>589</v>
+      </c>
+      <c r="D215" s="222" t="s">
+        <v>285</v>
+      </c>
+      <c r="E215" s="222"/>
+      <c r="F215" s="222">
+        <v>2</v>
+      </c>
+      <c r="G215" s="222">
+        <v>11000</v>
+      </c>
+      <c r="H215" s="50">
+        <v>22000</v>
+      </c>
     </row>
     <row r="216" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="4"/>
-      <c r="B216" s="3"/>
-      <c r="C216" s="192"/>
-      <c r="D216" s="83"/>
-      <c r="E216" s="89"/>
-      <c r="F216" s="83"/>
-      <c r="G216" s="84"/>
-      <c r="H216" s="84"/>
+      <c r="A216" s="222">
+        <v>18</v>
+      </c>
+      <c r="B216" s="222"/>
+      <c r="C216" s="468" t="s">
+        <v>589</v>
+      </c>
+      <c r="D216" s="222" t="s">
+        <v>185</v>
+      </c>
+      <c r="E216" s="222"/>
+      <c r="F216" s="222">
+        <v>2</v>
+      </c>
+      <c r="G216" s="222">
+        <v>13000</v>
+      </c>
+      <c r="H216" s="50">
+        <v>26000</v>
+      </c>
     </row>
     <row r="217" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="4"/>
-      <c r="B217" s="3"/>
-      <c r="C217" s="192"/>
-      <c r="D217" s="83"/>
-      <c r="E217" s="89"/>
-      <c r="F217" s="83"/>
-      <c r="G217" s="84"/>
-      <c r="H217" s="390"/>
+      <c r="A217" s="222">
+        <v>19</v>
+      </c>
+      <c r="B217" s="222"/>
+      <c r="C217" s="474" t="s">
+        <v>78</v>
+      </c>
+      <c r="D217" s="222" t="s">
+        <v>285</v>
+      </c>
+      <c r="E217" s="222"/>
+      <c r="F217" s="222">
+        <v>2</v>
+      </c>
+      <c r="G217" s="222">
+        <v>9000</v>
+      </c>
+      <c r="H217" s="50">
+        <v>18000</v>
+      </c>
     </row>
     <row r="218" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="4"/>
-      <c r="B218" s="3"/>
-      <c r="C218" s="192"/>
-      <c r="D218" s="83"/>
-      <c r="E218" s="89"/>
-      <c r="F218" s="83"/>
-      <c r="G218" s="84"/>
-      <c r="H218" s="84"/>
+      <c r="A218" s="222"/>
+      <c r="B218" s="222"/>
+      <c r="C218" s="474"/>
+      <c r="D218" s="222"/>
+      <c r="E218" s="222"/>
+      <c r="F218" s="222"/>
+      <c r="G218" s="222"/>
+      <c r="H218" s="223">
+        <f>SUM(H199:H217)</f>
+        <v>334200</v>
+      </c>
     </row>
     <row r="219" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="4"/>
-      <c r="B219" s="3"/>
-      <c r="C219" s="192"/>
-      <c r="D219" s="83"/>
-      <c r="E219" s="89"/>
-      <c r="F219" s="83"/>
-      <c r="G219" s="84"/>
-      <c r="H219" s="390"/>
+      <c r="A219" s="222"/>
+      <c r="B219" s="222"/>
+      <c r="C219" s="482" t="s">
+        <v>588</v>
+      </c>
+      <c r="D219" s="417"/>
+      <c r="E219" s="417"/>
+      <c r="F219" s="417"/>
+      <c r="G219" s="417"/>
+      <c r="H219" s="75">
+        <v>19500</v>
+      </c>
     </row>
     <row r="220" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="4"/>
-      <c r="B220" s="4"/>
-      <c r="C220" s="387"/>
-      <c r="D220" s="83"/>
-      <c r="E220" s="89"/>
-      <c r="F220" s="89"/>
-      <c r="G220" s="84"/>
-      <c r="H220" s="84"/>
+      <c r="A220" s="222"/>
+      <c r="B220" s="222"/>
+      <c r="C220" s="479"/>
+      <c r="D220" s="417"/>
+      <c r="E220" s="417"/>
+      <c r="F220" s="417"/>
+      <c r="G220" s="417"/>
+      <c r="H220" s="432">
+        <f>SUM(H218:H219)</f>
+        <v>353700</v>
+      </c>
     </row>
     <row r="221" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="4"/>
-      <c r="B221" s="4"/>
-      <c r="C221" s="444"/>
-      <c r="D221" s="235"/>
-      <c r="E221" s="445"/>
-      <c r="F221" s="235"/>
-      <c r="G221" s="353"/>
-      <c r="H221" s="353"/>
-      <c r="I221" s="341"/>
+      <c r="A221" s="222">
+        <v>1</v>
+      </c>
+      <c r="B221" s="222" t="s">
+        <v>590</v>
+      </c>
+      <c r="C221" s="476" t="s">
+        <v>161</v>
+      </c>
+      <c r="D221" s="413"/>
+      <c r="E221" s="413"/>
+      <c r="F221" s="413">
+        <v>1</v>
+      </c>
+      <c r="G221" s="460"/>
+      <c r="H221" s="374">
+        <v>3500</v>
+      </c>
+      <c r="I221" s="433" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="222" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="4"/>
-      <c r="B222" s="4"/>
-      <c r="C222" s="192"/>
-      <c r="D222" s="83"/>
-      <c r="E222" s="89"/>
-      <c r="F222" s="89"/>
-      <c r="G222" s="84"/>
-      <c r="H222" s="84"/>
+      <c r="A222" s="222">
+        <v>2</v>
+      </c>
+      <c r="B222" s="222"/>
+      <c r="C222" s="478" t="s">
+        <v>591</v>
+      </c>
+      <c r="D222" s="413"/>
+      <c r="E222" s="413"/>
+      <c r="F222" s="413">
+        <v>1</v>
+      </c>
+      <c r="G222" s="413"/>
+      <c r="H222" s="374">
+        <v>3000</v>
+      </c>
+      <c r="I222" s="433" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="223" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="4"/>
-      <c r="B223" s="3"/>
-      <c r="C223" s="192"/>
-      <c r="D223" s="83"/>
-      <c r="E223" s="89"/>
-      <c r="F223" s="89"/>
-      <c r="G223" s="84"/>
-      <c r="H223" s="84"/>
+      <c r="A223" s="222">
+        <v>3</v>
+      </c>
+      <c r="B223" s="222"/>
+      <c r="C223" s="478" t="s">
+        <v>592</v>
+      </c>
+      <c r="D223" s="413"/>
+      <c r="E223" s="413" t="s">
+        <v>8</v>
+      </c>
+      <c r="F223" s="413">
+        <v>2</v>
+      </c>
+      <c r="G223" s="413">
+        <v>25500</v>
+      </c>
+      <c r="H223" s="374">
+        <v>51000</v>
+      </c>
+      <c r="I223" s="433" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="224" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="4"/>
-      <c r="B224" s="3"/>
-      <c r="C224" s="192"/>
-      <c r="D224" s="83"/>
-      <c r="E224" s="89"/>
-      <c r="F224" s="89"/>
-      <c r="G224" s="84"/>
-      <c r="H224" s="84"/>
+      <c r="A224" s="222">
+        <v>4</v>
+      </c>
+      <c r="B224" s="222"/>
+      <c r="C224" s="489" t="s">
+        <v>350</v>
+      </c>
+      <c r="D224" s="413"/>
+      <c r="E224" s="413"/>
+      <c r="F224" s="413">
+        <v>2</v>
+      </c>
+      <c r="G224" s="413">
+        <v>3000</v>
+      </c>
+      <c r="H224" s="374">
+        <v>6000</v>
+      </c>
+      <c r="I224" s="433" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="225" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="4"/>
-      <c r="B225" s="3"/>
-      <c r="C225" s="436"/>
-      <c r="D225" s="437"/>
-      <c r="E225" s="441"/>
-      <c r="F225" s="437"/>
-      <c r="G225" s="442"/>
-      <c r="H225" s="442"/>
+      <c r="A225" s="222">
+        <v>5</v>
+      </c>
+      <c r="B225" s="222"/>
+      <c r="C225" s="474" t="s">
+        <v>27</v>
+      </c>
+      <c r="D225" s="222" t="s">
+        <v>51</v>
+      </c>
+      <c r="E225" s="222"/>
+      <c r="F225" s="222">
+        <v>1</v>
+      </c>
+      <c r="G225" s="222"/>
+      <c r="H225" s="50">
+        <v>17000</v>
+      </c>
+      <c r="I225" s="433"/>
     </row>
     <row r="226" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="4"/>
-      <c r="B226" s="3"/>
-      <c r="C226" s="192"/>
-      <c r="D226" s="83"/>
-      <c r="E226" s="89"/>
-      <c r="F226" s="83"/>
-      <c r="G226" s="84"/>
-      <c r="H226" s="84"/>
+      <c r="A226" s="222">
+        <v>6</v>
+      </c>
+      <c r="B226" s="222"/>
+      <c r="C226" s="478" t="s">
+        <v>204</v>
+      </c>
+      <c r="D226" s="413"/>
+      <c r="E226" s="413" t="s">
+        <v>14</v>
+      </c>
+      <c r="F226" s="413">
+        <v>1</v>
+      </c>
+      <c r="G226" s="413"/>
+      <c r="H226" s="374">
+        <v>5500</v>
+      </c>
+      <c r="I226" s="433" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="227" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="4"/>
-      <c r="B227" s="3"/>
-      <c r="C227" s="192"/>
-      <c r="D227" s="83"/>
-      <c r="E227" s="89"/>
-      <c r="F227" s="83"/>
-      <c r="G227" s="84"/>
-      <c r="H227" s="84"/>
+      <c r="A227" s="222">
+        <v>7</v>
+      </c>
+      <c r="B227" s="222"/>
+      <c r="C227" s="478" t="s">
+        <v>557</v>
+      </c>
+      <c r="D227" s="413"/>
+      <c r="E227" s="413"/>
+      <c r="F227" s="413">
+        <v>6</v>
+      </c>
+      <c r="G227" s="413">
+        <v>3150</v>
+      </c>
+      <c r="H227" s="374">
+        <v>18900</v>
+      </c>
+      <c r="I227" s="433" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="228" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="4"/>
-      <c r="B228" s="3"/>
-      <c r="C228" s="192"/>
-      <c r="D228" s="83"/>
-      <c r="E228" s="89"/>
-      <c r="F228" s="83"/>
-      <c r="G228" s="84"/>
-      <c r="H228" s="84"/>
+      <c r="A228" s="222">
+        <v>8</v>
+      </c>
+      <c r="B228" s="222"/>
+      <c r="C228" s="467" t="s">
+        <v>593</v>
+      </c>
+      <c r="D228" s="417"/>
+      <c r="E228" s="417"/>
+      <c r="F228" s="417">
+        <v>4</v>
+      </c>
+      <c r="G228" s="417">
+        <v>3000</v>
+      </c>
+      <c r="H228" s="79">
+        <v>12000</v>
+      </c>
     </row>
     <row r="229" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="4"/>
-      <c r="B229" s="3"/>
-      <c r="C229" s="192"/>
-      <c r="D229" s="83"/>
-      <c r="E229" s="89"/>
-      <c r="F229" s="83"/>
-      <c r="G229" s="84"/>
-      <c r="H229" s="84"/>
+      <c r="A229" s="222"/>
+      <c r="B229" s="222"/>
+      <c r="C229" s="474"/>
+      <c r="D229" s="222"/>
+      <c r="E229" s="222"/>
+      <c r="F229" s="222"/>
+      <c r="G229" s="222"/>
+      <c r="H229" s="223">
+        <f>SUM(H221:H228)</f>
+        <v>116900</v>
+      </c>
     </row>
     <row r="230" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="4"/>
-      <c r="B230" s="3"/>
-      <c r="C230" s="192"/>
-      <c r="D230" s="83"/>
-      <c r="E230" s="89"/>
-      <c r="F230" s="83"/>
-      <c r="G230" s="84"/>
-      <c r="H230" s="390"/>
+      <c r="A230" s="222"/>
+      <c r="B230" s="222"/>
+      <c r="C230" s="474" t="s">
+        <v>447</v>
+      </c>
+      <c r="D230" s="222"/>
+      <c r="E230" s="222"/>
+      <c r="F230" s="222"/>
+      <c r="G230" s="222"/>
+      <c r="H230" s="50">
+        <v>22500</v>
+      </c>
     </row>
     <row r="231" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="4"/>
-      <c r="B231" s="3"/>
-      <c r="C231" s="435"/>
-      <c r="D231" s="89"/>
-      <c r="E231" s="89"/>
-      <c r="F231" s="83"/>
-      <c r="G231" s="84"/>
-      <c r="H231" s="84"/>
+      <c r="A231" s="222"/>
+      <c r="B231" s="222"/>
+      <c r="C231" s="468"/>
+      <c r="D231" s="222"/>
+      <c r="E231" s="222"/>
+      <c r="F231" s="222"/>
+      <c r="G231" s="222"/>
+      <c r="H231" s="223">
+        <f>SUM(H229:H230)</f>
+        <v>139400</v>
+      </c>
     </row>
     <row r="232" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="4"/>
-      <c r="B232" s="3"/>
-      <c r="C232" s="435"/>
-      <c r="D232" s="89"/>
-      <c r="E232" s="89"/>
-      <c r="F232" s="83"/>
-      <c r="G232" s="84"/>
-      <c r="H232" s="84"/>
+      <c r="A232" s="222">
+        <v>1</v>
+      </c>
+      <c r="B232" s="222" t="s">
+        <v>594</v>
+      </c>
+      <c r="C232" s="473" t="s">
+        <v>406</v>
+      </c>
+      <c r="D232" s="444"/>
+      <c r="E232" s="444" t="s">
+        <v>14</v>
+      </c>
+      <c r="F232" s="444">
+        <v>7</v>
+      </c>
+      <c r="G232" s="481">
+        <v>4000</v>
+      </c>
+      <c r="H232" s="84">
+        <v>28000</v>
+      </c>
     </row>
     <row r="233" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="4"/>
-      <c r="B233" s="3"/>
-      <c r="C233" s="435"/>
-      <c r="D233" s="89"/>
-      <c r="E233" s="89"/>
-      <c r="F233" s="89"/>
-      <c r="G233" s="84"/>
-      <c r="H233" s="84"/>
+      <c r="A233" s="222">
+        <v>2</v>
+      </c>
+      <c r="B233" s="222"/>
+      <c r="C233" s="475" t="s">
+        <v>161</v>
+      </c>
+      <c r="D233" s="444"/>
+      <c r="E233" s="444"/>
+      <c r="F233" s="444">
+        <v>1</v>
+      </c>
+      <c r="G233" s="444"/>
+      <c r="H233" s="84">
+        <v>3500</v>
+      </c>
     </row>
     <row r="234" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="414"/>
-      <c r="B234" s="414"/>
-      <c r="C234" s="439"/>
-      <c r="D234" s="81"/>
-      <c r="E234" s="81"/>
-      <c r="F234" s="81"/>
-      <c r="G234" s="81"/>
-      <c r="H234" s="85"/>
+      <c r="A234" s="222">
+        <v>3</v>
+      </c>
+      <c r="B234" s="222"/>
+      <c r="C234" s="475" t="s">
+        <v>109</v>
+      </c>
+      <c r="D234" s="444"/>
+      <c r="E234" s="444"/>
+      <c r="F234" s="444">
+        <v>1</v>
+      </c>
+      <c r="G234" s="444"/>
+      <c r="H234" s="84">
+        <v>3500</v>
+      </c>
     </row>
     <row r="235" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="415"/>
-      <c r="B235" s="415"/>
-      <c r="C235" s="448"/>
-      <c r="D235" s="448"/>
-      <c r="E235" s="448"/>
-      <c r="F235" s="448"/>
-      <c r="G235" s="448"/>
-      <c r="H235" s="449"/>
+      <c r="A235" s="222"/>
+      <c r="B235" s="222"/>
+      <c r="C235" s="480"/>
+      <c r="D235" s="222"/>
+      <c r="E235" s="222"/>
+      <c r="F235" s="222"/>
+      <c r="G235" s="222"/>
+      <c r="H235" s="223">
+        <f>SUM(H232:H234)</f>
+        <v>35000</v>
+      </c>
     </row>
     <row r="236" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="422"/>
-      <c r="B236" s="4"/>
-      <c r="C236" s="387"/>
-      <c r="D236" s="450"/>
-      <c r="E236" s="83"/>
-      <c r="F236" s="83"/>
-      <c r="G236" s="84"/>
-      <c r="H236" s="84"/>
+      <c r="A236" s="222"/>
+      <c r="B236" s="222"/>
+      <c r="C236" s="474" t="s">
+        <v>518</v>
+      </c>
+      <c r="D236" s="222"/>
+      <c r="E236" s="222"/>
+      <c r="F236" s="222"/>
+      <c r="G236" s="222"/>
+      <c r="H236" s="50">
+        <v>25500</v>
+      </c>
     </row>
     <row r="237" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="422"/>
-      <c r="B237" s="422"/>
-      <c r="C237" s="440"/>
-      <c r="D237" s="451"/>
-      <c r="E237" s="437"/>
-      <c r="F237" s="437"/>
-      <c r="G237" s="442"/>
-      <c r="H237" s="442"/>
+      <c r="A237" s="222"/>
+      <c r="B237" s="222"/>
+      <c r="C237" s="468"/>
+      <c r="D237" s="222"/>
+      <c r="E237" s="222"/>
+      <c r="F237" s="222"/>
+      <c r="G237" s="222"/>
+      <c r="H237" s="223">
+        <f>SUM(H235:H236)</f>
+        <v>60500</v>
+      </c>
       <c r="I237" s="433"/>
     </row>
     <row r="238" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="422"/>
-      <c r="B238" s="422"/>
-      <c r="C238" s="444"/>
-      <c r="D238" s="452"/>
-      <c r="E238" s="235"/>
-      <c r="F238" s="235"/>
-      <c r="G238" s="353"/>
-      <c r="H238" s="353"/>
+      <c r="A238" s="222">
+        <v>1</v>
+      </c>
+      <c r="B238" s="222" t="s">
+        <v>595</v>
+      </c>
+      <c r="C238" s="473" t="s">
+        <v>406</v>
+      </c>
+      <c r="D238" s="444"/>
+      <c r="E238" s="444" t="s">
+        <v>14</v>
+      </c>
+      <c r="F238" s="444">
+        <v>6</v>
+      </c>
+      <c r="G238" s="481">
+        <v>4000</v>
+      </c>
+      <c r="H238" s="84">
+        <v>24000</v>
+      </c>
     </row>
     <row r="239" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="422"/>
-      <c r="B239" s="422"/>
-      <c r="C239" s="440"/>
-      <c r="D239" s="451"/>
-      <c r="E239" s="437"/>
-      <c r="F239" s="437"/>
-      <c r="G239" s="442"/>
-      <c r="H239" s="442"/>
+      <c r="A239" s="222">
+        <v>2</v>
+      </c>
+      <c r="B239" s="222"/>
+      <c r="C239" s="475" t="s">
+        <v>596</v>
+      </c>
+      <c r="D239" s="444"/>
+      <c r="E239" s="444" t="s">
+        <v>22</v>
+      </c>
+      <c r="F239" s="444">
+        <v>1</v>
+      </c>
+      <c r="G239" s="444"/>
+      <c r="H239" s="84">
+        <v>21500</v>
+      </c>
     </row>
     <row r="240" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="422"/>
-      <c r="B240" s="422"/>
-      <c r="C240" s="440"/>
-      <c r="D240" s="437"/>
-      <c r="E240" s="437"/>
-      <c r="F240" s="437"/>
-      <c r="G240" s="442"/>
-      <c r="H240" s="442"/>
+      <c r="A240" s="222">
+        <v>3</v>
+      </c>
+      <c r="B240" s="222"/>
+      <c r="C240" s="475" t="s">
+        <v>109</v>
+      </c>
+      <c r="D240" s="444"/>
+      <c r="E240" s="444"/>
+      <c r="F240" s="444">
+        <v>1</v>
+      </c>
+      <c r="G240" s="444"/>
+      <c r="H240" s="84">
+        <v>3500</v>
+      </c>
     </row>
     <row r="241" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="422"/>
-      <c r="B241" s="422"/>
-      <c r="C241" s="440"/>
-      <c r="D241" s="437"/>
-      <c r="E241" s="437"/>
-      <c r="F241" s="437"/>
-      <c r="G241" s="442"/>
-      <c r="H241" s="442"/>
+      <c r="A241" s="222"/>
+      <c r="B241" s="222"/>
+      <c r="C241" s="480"/>
+      <c r="D241" s="222"/>
+      <c r="E241" s="222"/>
+      <c r="F241" s="222"/>
+      <c r="G241" s="222"/>
+      <c r="H241" s="223">
+        <f>SUM(H238:H240)</f>
+        <v>49000</v>
+      </c>
     </row>
     <row r="242" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="422"/>
-      <c r="B242" s="422"/>
-      <c r="C242" s="444"/>
-      <c r="D242" s="235"/>
-      <c r="E242" s="235"/>
-      <c r="F242" s="235"/>
-      <c r="G242" s="353"/>
-      <c r="H242" s="353"/>
+      <c r="A242" s="222"/>
+      <c r="B242" s="222"/>
+      <c r="C242" s="474" t="s">
+        <v>518</v>
+      </c>
+      <c r="D242" s="222"/>
+      <c r="E242" s="222"/>
+      <c r="F242" s="222"/>
+      <c r="G242" s="222"/>
+      <c r="H242" s="50">
+        <v>25500</v>
+      </c>
     </row>
     <row r="243" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="422"/>
-      <c r="B243" s="422"/>
-      <c r="C243" s="192"/>
-      <c r="D243" s="83"/>
-      <c r="E243" s="83"/>
-      <c r="F243" s="83"/>
-      <c r="G243" s="84"/>
-      <c r="H243" s="84"/>
+      <c r="A243" s="222"/>
+      <c r="B243" s="222"/>
+      <c r="C243" s="468" t="s">
+        <v>597</v>
+      </c>
+      <c r="D243" s="222"/>
+      <c r="E243" s="222"/>
+      <c r="F243" s="222"/>
+      <c r="G243" s="222"/>
+      <c r="H243" s="50">
+        <v>2000</v>
+      </c>
     </row>
     <row r="244" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="422"/>
-      <c r="B244" s="422"/>
-      <c r="C244" s="192"/>
-      <c r="D244" s="83"/>
-      <c r="E244" s="83"/>
-      <c r="F244" s="83"/>
-      <c r="G244" s="84"/>
-      <c r="H244" s="84"/>
+      <c r="A244" s="222"/>
+      <c r="B244" s="222"/>
+      <c r="C244" s="468"/>
+      <c r="D244" s="222"/>
+      <c r="E244" s="222"/>
+      <c r="F244" s="222"/>
+      <c r="G244" s="222"/>
+      <c r="H244" s="223">
+        <f>SUM(H241:H243)</f>
+        <v>76500</v>
+      </c>
     </row>
     <row r="245" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="422"/>
@@ -29718,27 +30316,27 @@
       <c r="D249" s="83"/>
       <c r="E249" s="83"/>
       <c r="F249" s="83"/>
-      <c r="G249" s="453"/>
+      <c r="G249" s="446"/>
       <c r="H249" s="390"/>
     </row>
     <row r="250" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="422"/>
       <c r="B250" s="422"/>
       <c r="C250" s="192"/>
-      <c r="D250" s="450"/>
+      <c r="D250" s="445"/>
       <c r="E250" s="83"/>
       <c r="F250" s="83"/>
-      <c r="G250" s="453"/>
+      <c r="G250" s="446"/>
       <c r="H250" s="84"/>
     </row>
     <row r="251" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="424"/>
       <c r="B251" s="424"/>
-      <c r="C251" s="439"/>
-      <c r="D251" s="454"/>
+      <c r="C251" s="438"/>
+      <c r="D251" s="447"/>
       <c r="E251" s="95"/>
       <c r="F251" s="83"/>
-      <c r="G251" s="454"/>
+      <c r="G251" s="447"/>
       <c r="H251" s="85"/>
     </row>
     <row r="252" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -29746,20 +30344,20 @@
       <c r="B252" s="424"/>
       <c r="C252" s="97"/>
       <c r="D252" s="82"/>
-      <c r="E252" s="454"/>
-      <c r="F252" s="454"/>
-      <c r="G252" s="454"/>
+      <c r="E252" s="447"/>
+      <c r="F252" s="447"/>
+      <c r="G252" s="447"/>
       <c r="H252" s="85"/>
     </row>
     <row r="253" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="424"/>
       <c r="B253" s="424"/>
-      <c r="C253" s="454"/>
-      <c r="D253" s="454"/>
-      <c r="E253" s="454"/>
-      <c r="F253" s="454"/>
-      <c r="G253" s="454"/>
-      <c r="H253" s="443"/>
+      <c r="C253" s="447"/>
+      <c r="D253" s="447"/>
+      <c r="E253" s="447"/>
+      <c r="F253" s="447"/>
+      <c r="G253" s="447"/>
+      <c r="H253" s="441"/>
     </row>
     <row r="254" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4"/>
@@ -29804,12 +30402,12 @@
     <row r="258" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
-      <c r="C258" s="455"/>
+      <c r="C258" s="448"/>
       <c r="D258" s="235"/>
       <c r="E258" s="235"/>
       <c r="F258" s="235"/>
       <c r="G258" s="353"/>
-      <c r="H258" s="456"/>
+      <c r="H258" s="449"/>
     </row>
     <row r="259" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="4"/>
@@ -29844,7 +30442,7 @@
     <row r="262" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
-      <c r="C262" s="446"/>
+      <c r="C262" s="443"/>
       <c r="D262" s="83"/>
       <c r="E262" s="83"/>
       <c r="F262" s="83"/>
@@ -29894,12 +30492,12 @@
     <row r="267" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
-      <c r="C267" s="440"/>
+      <c r="C267" s="439"/>
       <c r="D267" s="235"/>
       <c r="E267" s="235"/>
       <c r="F267" s="437"/>
       <c r="G267" s="353"/>
-      <c r="H267" s="442"/>
+      <c r="H267" s="440"/>
     </row>
     <row r="268" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="4"/>
@@ -29944,7 +30542,7 @@
     <row r="272" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
-      <c r="C272" s="446"/>
+      <c r="C272" s="443"/>
       <c r="D272" s="83"/>
       <c r="E272" s="83"/>
       <c r="F272" s="83"/>
@@ -29974,7 +30572,7 @@
     <row r="275" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
-      <c r="C275" s="446"/>
+      <c r="C275" s="443"/>
       <c r="D275" s="83"/>
       <c r="E275" s="83"/>
       <c r="F275" s="83"/>
@@ -30024,12 +30622,12 @@
     <row r="280" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
-      <c r="C280" s="440"/>
+      <c r="C280" s="439"/>
       <c r="D280" s="235"/>
       <c r="E280" s="235"/>
       <c r="F280" s="437"/>
       <c r="G280" s="353"/>
-      <c r="H280" s="457"/>
+      <c r="H280" s="450"/>
     </row>
     <row r="281" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="4"/>
@@ -30104,12 +30702,12 @@
     <row r="288" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
-      <c r="C288" s="440"/>
+      <c r="C288" s="439"/>
       <c r="D288" s="235"/>
       <c r="E288" s="235"/>
       <c r="F288" s="437"/>
-      <c r="G288" s="442"/>
-      <c r="H288" s="442"/>
+      <c r="G288" s="440"/>
+      <c r="H288" s="440"/>
     </row>
     <row r="289" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="4"/>
@@ -30138,8 +30736,8 @@
       <c r="D291" s="437"/>
       <c r="E291" s="437"/>
       <c r="F291" s="437"/>
-      <c r="G291" s="442"/>
-      <c r="H291" s="442"/>
+      <c r="G291" s="440"/>
+      <c r="H291" s="440"/>
     </row>
     <row r="292" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="4"/>
@@ -30154,7 +30752,7 @@
     <row r="293" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
-      <c r="C293" s="446"/>
+      <c r="C293" s="443"/>
       <c r="D293" s="83"/>
       <c r="E293" s="83"/>
       <c r="F293" s="83"/>
@@ -30184,7 +30782,7 @@
     <row r="296" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
-      <c r="C296" s="444"/>
+      <c r="C296" s="442"/>
       <c r="D296" s="235"/>
       <c r="E296" s="235"/>
       <c r="F296" s="235"/>
@@ -30194,7 +30792,7 @@
     <row r="297" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
-      <c r="C297" s="446"/>
+      <c r="C297" s="443"/>
       <c r="D297" s="83"/>
       <c r="E297" s="83"/>
       <c r="F297" s="83"/>
@@ -30244,12 +30842,12 @@
     <row r="302" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
-      <c r="C302" s="440"/>
+      <c r="C302" s="439"/>
       <c r="D302" s="437"/>
       <c r="E302" s="235"/>
       <c r="F302" s="437"/>
-      <c r="G302" s="442"/>
-      <c r="H302" s="442"/>
+      <c r="G302" s="440"/>
+      <c r="H302" s="440"/>
     </row>
     <row r="303" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="4"/>
@@ -30354,12 +30952,12 @@
     <row r="313" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
-      <c r="C313" s="440"/>
+      <c r="C313" s="439"/>
       <c r="D313" s="235"/>
       <c r="E313" s="235"/>
       <c r="F313" s="437"/>
-      <c r="G313" s="442"/>
-      <c r="H313" s="456"/>
+      <c r="G313" s="440"/>
+      <c r="H313" s="449"/>
     </row>
     <row r="314" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="4"/>
@@ -30424,12 +31022,12 @@
     <row r="320" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
-      <c r="C320" s="440"/>
+      <c r="C320" s="439"/>
       <c r="D320" s="235"/>
       <c r="E320" s="437"/>
       <c r="F320" s="437"/>
-      <c r="G320" s="442"/>
-      <c r="H320" s="442"/>
+      <c r="G320" s="440"/>
+      <c r="H320" s="440"/>
     </row>
     <row r="321" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="4"/>
@@ -30544,12 +31142,12 @@
     <row r="332" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
-      <c r="C332" s="440"/>
+      <c r="C332" s="439"/>
       <c r="D332" s="235"/>
       <c r="E332" s="437"/>
       <c r="F332" s="437"/>
-      <c r="G332" s="442"/>
-      <c r="H332" s="442"/>
+      <c r="G332" s="440"/>
+      <c r="H332" s="440"/>
     </row>
     <row r="333" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="4"/>
@@ -30634,12 +31232,12 @@
     <row r="341" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="4"/>
       <c r="B341" s="4"/>
-      <c r="C341" s="440"/>
+      <c r="C341" s="439"/>
       <c r="D341" s="235"/>
       <c r="E341" s="437"/>
       <c r="F341" s="437"/>
-      <c r="G341" s="442"/>
-      <c r="H341" s="442"/>
+      <c r="G341" s="440"/>
+      <c r="H341" s="440"/>
     </row>
     <row r="342" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="4"/>
@@ -30704,7 +31302,7 @@
     <row r="348" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
-      <c r="C348" s="444"/>
+      <c r="C348" s="442"/>
       <c r="D348" s="235"/>
       <c r="E348" s="235"/>
       <c r="F348" s="235"/>
@@ -30724,12 +31322,12 @@
     <row r="350" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
-      <c r="C350" s="440"/>
+      <c r="C350" s="439"/>
       <c r="D350" s="235"/>
       <c r="E350" s="437"/>
       <c r="F350" s="437"/>
-      <c r="G350" s="442"/>
-      <c r="H350" s="442"/>
+      <c r="G350" s="440"/>
+      <c r="H350" s="440"/>
     </row>
     <row r="351" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="4"/>
@@ -30814,7 +31412,7 @@
     <row r="359" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
-      <c r="C359" s="446"/>
+      <c r="C359" s="443"/>
       <c r="D359" s="83"/>
       <c r="E359" s="83"/>
       <c r="F359" s="83"/>
@@ -30844,12 +31442,12 @@
     <row r="362" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A362" s="426"/>
       <c r="B362" s="426"/>
-      <c r="C362" s="458"/>
-      <c r="D362" s="458"/>
-      <c r="E362" s="458"/>
-      <c r="F362" s="458"/>
-      <c r="G362" s="458"/>
-      <c r="H362" s="459"/>
+      <c r="C362" s="451"/>
+      <c r="D362" s="451"/>
+      <c r="E362" s="451"/>
+      <c r="F362" s="451"/>
+      <c r="G362" s="451"/>
+      <c r="H362" s="452"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1">
@@ -30865,47 +31463,47 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
     <col min="5" max="5" width="4.5703125" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="492" t="s">
+    <row r="1" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="497" t="s">
         <v>462</v>
       </c>
-      <c r="B1" s="492"/>
-      <c r="C1" s="492"/>
-      <c r="D1" s="493"/>
-      <c r="E1" s="492"/>
-      <c r="F1" s="492"/>
-      <c r="G1" s="492"/>
-      <c r="H1" s="492"/>
-    </row>
-    <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="497"/>
+      <c r="C1" s="497"/>
+      <c r="D1" s="498"/>
+      <c r="E1" s="497"/>
+      <c r="F1" s="497"/>
+      <c r="G1" s="497"/>
+      <c r="H1" s="497"/>
+    </row>
+    <row r="2" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="494" t="s">
+      <c r="C2" s="499" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="495"/>
+      <c r="D2" s="500"/>
       <c r="E2" s="434" t="s">
         <v>116</v>
       </c>
@@ -30919,219 +31517,244 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="222">
         <v>1</v>
       </c>
       <c r="B3" s="222" t="s">
-        <v>582</v>
-      </c>
-      <c r="C3" s="481" t="s">
-        <v>544</v>
-      </c>
-      <c r="D3" s="447" t="s">
-        <v>583</v>
-      </c>
-      <c r="E3" s="447"/>
-      <c r="F3" s="447">
-        <v>2</v>
-      </c>
-      <c r="G3" s="480">
-        <v>8000</v>
+        <v>598</v>
+      </c>
+      <c r="C3" s="473" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="444" t="s">
+        <v>254</v>
+      </c>
+      <c r="E3" s="444"/>
+      <c r="F3" s="444">
+        <v>8</v>
+      </c>
+      <c r="G3" s="481">
+        <v>3800</v>
       </c>
       <c r="H3" s="84">
-        <v>16000</v>
-      </c>
-      <c r="I3" s="479" t="s">
+        <v>30400</v>
+      </c>
+      <c r="I3" s="471" t="s">
         <v>573</v>
       </c>
-      <c r="J3" s="478"/>
-      <c r="K3" s="478"/>
-      <c r="L3" s="478"/>
-      <c r="M3" s="478"/>
-    </row>
-    <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="470"/>
+      <c r="K3" s="470"/>
+      <c r="L3" s="470"/>
+      <c r="M3" s="470"/>
+    </row>
+    <row r="4" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="222">
         <v>2</v>
       </c>
       <c r="B4" s="222"/>
-      <c r="C4" s="483" t="s">
-        <v>406</v>
-      </c>
-      <c r="D4" s="447"/>
-      <c r="E4" s="447" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="447">
-        <v>8</v>
-      </c>
-      <c r="G4" s="447">
-        <v>4000</v>
-      </c>
+      <c r="C4" s="475" t="s">
+        <v>601</v>
+      </c>
+      <c r="D4" s="444" t="s">
+        <v>254</v>
+      </c>
+      <c r="E4" s="444"/>
+      <c r="F4" s="444">
+        <v>1</v>
+      </c>
+      <c r="G4" s="444"/>
       <c r="H4" s="84">
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="222">
         <v>3</v>
       </c>
       <c r="B5" s="222"/>
-      <c r="C5" s="481" t="s">
-        <v>228</v>
-      </c>
-      <c r="D5" s="447"/>
-      <c r="E5" s="447" t="s">
+      <c r="C5" s="475" t="s">
+        <v>602</v>
+      </c>
+      <c r="D5" s="444"/>
+      <c r="E5" s="444"/>
+      <c r="F5" s="444">
+        <v>1</v>
+      </c>
+      <c r="G5" s="444"/>
+      <c r="H5" s="84">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="222">
+        <v>4</v>
+      </c>
+      <c r="B6" s="222"/>
+      <c r="C6" s="480" t="s">
+        <v>299</v>
+      </c>
+      <c r="D6" s="222"/>
+      <c r="E6" s="222" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="447">
-        <v>1</v>
-      </c>
-      <c r="G5" s="447"/>
-      <c r="H5" s="84">
-        <v>25500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="222"/>
-      <c r="B6" s="222"/>
-      <c r="C6" s="476"/>
-      <c r="D6" s="222"/>
-      <c r="E6" s="222"/>
-      <c r="F6" s="222"/>
+      <c r="F6" s="222">
+        <v>1</v>
+      </c>
       <c r="G6" s="222"/>
-      <c r="H6" s="223">
-        <f>SUM(H3:H5)</f>
-        <v>73500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="222"/>
+      <c r="H6" s="50">
+        <v>23400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="222">
+        <v>5</v>
+      </c>
       <c r="B7" s="222"/>
-      <c r="C7" s="482" t="s">
-        <v>518</v>
+      <c r="C7" s="474" t="s">
+        <v>197</v>
       </c>
       <c r="D7" s="222"/>
-      <c r="E7" s="222"/>
-      <c r="F7" s="222"/>
+      <c r="E7" s="222" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="222">
+        <v>1</v>
+      </c>
       <c r="G7" s="222"/>
       <c r="H7" s="50">
-        <v>25500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="222"/>
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="222">
+        <v>5</v>
+      </c>
       <c r="B8" s="222"/>
-      <c r="C8" s="476" t="s">
-        <v>455</v>
+      <c r="C8" s="468" t="s">
+        <v>127</v>
       </c>
       <c r="D8" s="222"/>
       <c r="E8" s="222"/>
       <c r="F8" s="222">
-        <v>5</v>
-      </c>
-      <c r="G8" s="222">
-        <v>2000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G8" s="222"/>
       <c r="H8" s="50">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="222"/>
       <c r="B9" s="222"/>
-      <c r="C9" s="476"/>
+      <c r="C9" s="468"/>
       <c r="D9" s="222"/>
       <c r="E9" s="222"/>
       <c r="F9" s="222"/>
       <c r="G9" s="222"/>
       <c r="H9" s="223">
-        <f>SUM(H6:H8)</f>
-        <v>109000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>SUM(H3:H8)</f>
+        <v>70500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="222"/>
       <c r="B10" s="222"/>
-      <c r="C10" s="482"/>
+      <c r="C10" s="480" t="s">
+        <v>600</v>
+      </c>
       <c r="D10" s="222"/>
       <c r="E10" s="222"/>
       <c r="F10" s="222"/>
       <c r="G10" s="222"/>
-      <c r="H10" s="50"/>
-    </row>
-    <row r="11" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="50">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="222"/>
       <c r="B11" s="222"/>
-      <c r="C11" s="482"/>
+      <c r="C11" s="468" t="s">
+        <v>390</v>
+      </c>
       <c r="D11" s="222"/>
       <c r="E11" s="222"/>
-      <c r="F11" s="222"/>
-      <c r="G11" s="222"/>
-      <c r="H11" s="50"/>
-    </row>
-    <row r="12" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="222">
+        <v>3</v>
+      </c>
+      <c r="G11" s="222">
+        <v>3800</v>
+      </c>
+      <c r="H11" s="50">
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="222"/>
       <c r="B12" s="222"/>
-      <c r="C12" s="482"/>
-      <c r="D12" s="222"/>
-      <c r="E12" s="222"/>
-      <c r="F12" s="222"/>
-      <c r="G12" s="222"/>
-      <c r="H12" s="50"/>
-    </row>
-    <row r="13" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="474" t="s">
+        <v>406</v>
+      </c>
+      <c r="D12" s="222" t="s">
+        <v>599</v>
+      </c>
+      <c r="E12" s="222" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="222">
+        <v>14</v>
+      </c>
+      <c r="G12" s="222">
+        <v>4000</v>
+      </c>
+      <c r="H12" s="50">
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="222"/>
       <c r="B13" s="222"/>
-      <c r="C13" s="476"/>
+      <c r="C13" s="474" t="s">
+        <v>563</v>
+      </c>
       <c r="D13" s="222"/>
       <c r="E13" s="222"/>
       <c r="F13" s="222"/>
       <c r="G13" s="222"/>
-      <c r="H13" s="223"/>
-    </row>
-    <row r="14" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="222"/>
-      <c r="B14" s="222"/>
-      <c r="C14" s="482"/>
-      <c r="D14" s="222"/>
-      <c r="E14" s="222"/>
-      <c r="F14" s="222"/>
-      <c r="G14" s="222"/>
-      <c r="H14" s="50"/>
-      <c r="O14">
-        <v>36500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="50">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="473" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="486" t="s">
+        <v>603</v>
+      </c>
+      <c r="E14" s="444"/>
+      <c r="F14" s="444">
+        <v>1</v>
+      </c>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="222"/>
       <c r="B15" s="222"/>
-      <c r="C15" s="487"/>
-      <c r="D15" s="417"/>
-      <c r="E15" s="417"/>
-      <c r="F15" s="417"/>
-      <c r="G15" s="417"/>
-      <c r="H15" s="417"/>
-    </row>
-    <row r="16" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="222"/>
-      <c r="B16" s="222"/>
-      <c r="C16" s="487"/>
-      <c r="D16" s="417"/>
-      <c r="E16" s="417"/>
-      <c r="F16" s="417"/>
-      <c r="G16" s="417"/>
-      <c r="H16" s="417"/>
-    </row>
-    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="222"/>
-      <c r="B17" s="222"/>
-      <c r="C17" s="482"/>
-      <c r="D17" s="222"/>
-      <c r="E17" s="222"/>
-      <c r="F17" s="222"/>
-      <c r="G17" s="222"/>
-      <c r="H17" s="223"/>
+      <c r="C15" s="473"/>
+      <c r="D15" s="444"/>
+      <c r="E15" s="444"/>
+      <c r="F15" s="444"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="390">
+        <f>SUM(H9:H14)</f>
+        <v>165900</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/GB-3  Sales.xlsx
+++ b/GB-3  Sales.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2506" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2644" uniqueCount="628">
   <si>
     <t>Oil Filter</t>
   </si>
@@ -1768,9 +1768,6 @@
     <t>12.9.2018</t>
   </si>
   <si>
-    <t>Alphard Toyota Plug 12/16  4pcs</t>
-  </si>
-  <si>
     <t>သံ့ျဖတ္လွြ/၀ါရွာ</t>
   </si>
   <si>
@@ -1859,6 +1856,81 @@
   </si>
   <si>
     <t>19.9.18</t>
+  </si>
+  <si>
+    <t>21.9.2018</t>
+  </si>
+  <si>
+    <t>Hero power Oil</t>
+  </si>
+  <si>
+    <t>22.9.2018</t>
+  </si>
+  <si>
+    <t>Oil Filter 135737</t>
+  </si>
+  <si>
+    <t>Lukoil 10W30 4Li</t>
+  </si>
+  <si>
+    <t>ရွဴးကလစ္</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engine Flush </t>
+  </si>
+  <si>
+    <t>Oil Fiter 10001</t>
+  </si>
+  <si>
+    <t>Toyota Plug 12/16 3 ငုတ္</t>
+  </si>
+  <si>
+    <t>Plug Coil (20/9/18)</t>
+  </si>
+  <si>
+    <t>Air Filter 52010</t>
+  </si>
+  <si>
+    <t>ေရသုတ္၀တ္/စက္ေကာ္ပတ္</t>
+  </si>
+  <si>
+    <t>Vanette</t>
+  </si>
+  <si>
+    <t>NGK Plug 18/16 S</t>
+  </si>
+  <si>
+    <t>23.9.2018</t>
+  </si>
+  <si>
+    <t>Oil Filter 96777</t>
+  </si>
+  <si>
+    <t>လက္၀ါးဂိုင္း</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon Cleaner </t>
+  </si>
+  <si>
+    <t>Disk Brake 13/16mm</t>
+  </si>
+  <si>
+    <t>24.9.2018</t>
+  </si>
+  <si>
+    <t>Oil Filter 1511</t>
+  </si>
+  <si>
+    <t>Fuel Filter ME526</t>
+  </si>
+  <si>
+    <t>GB/Probox</t>
+  </si>
+  <si>
+    <t>25.9.2018</t>
+  </si>
+  <si>
+    <t>Crown</t>
   </si>
 </sst>
 </file>
@@ -2401,7 +2473,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="501">
+  <cellXfs count="494">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3506,22 +3578,15 @@
     <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3529,22 +3594,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3654,6 +3703,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7102,10 +7157,10 @@
       <c r="B1" s="198" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="493" t="s">
+      <c r="C1" s="486" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="494"/>
+      <c r="D1" s="487"/>
       <c r="E1" s="198" t="s">
         <v>116</v>
       </c>
@@ -12482,10 +12537,10 @@
       <c r="B1" s="333" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="495" t="s">
+      <c r="C1" s="488" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="496"/>
+      <c r="D1" s="489"/>
       <c r="E1" s="333" t="s">
         <v>116</v>
       </c>
@@ -18440,10 +18495,10 @@
       <c r="B1" s="333" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="495" t="s">
+      <c r="C1" s="488" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="496"/>
+      <c r="D1" s="489"/>
       <c r="E1" s="333" t="s">
         <v>116</v>
       </c>
@@ -25456,15 +25511,15 @@
   <dimension ref="A1:Q362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O230" sqref="O230"/>
+      <pane ySplit="1" topLeftCell="A305" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J310" sqref="J310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" style="101" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" style="101" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" style="101" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" style="101" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" style="101" customWidth="1"/>
     <col min="5" max="5" width="4.5703125" style="101" customWidth="1"/>
     <col min="6" max="6" width="4.85546875" style="101" customWidth="1"/>
@@ -25481,10 +25536,10 @@
       <c r="B1" s="333" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="495" t="s">
+      <c r="C1" s="488" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="496"/>
+      <c r="D1" s="489"/>
       <c r="E1" s="333" t="s">
         <v>116</v>
       </c>
@@ -25683,7 +25738,7 @@
       <c r="B11" s="77" t="s">
         <v>508</v>
       </c>
-      <c r="C11" s="490" t="s">
+      <c r="C11" s="481" t="s">
         <v>500</v>
       </c>
       <c r="D11" s="77"/>
@@ -25691,7 +25746,7 @@
       <c r="F11" s="77">
         <v>1</v>
       </c>
-      <c r="G11" s="453"/>
+      <c r="G11" s="444"/>
       <c r="H11" s="184">
         <v>9000</v>
       </c>
@@ -25712,11 +25767,11 @@
       <c r="F12" s="410">
         <v>1</v>
       </c>
-      <c r="G12" s="455"/>
-      <c r="H12" s="455">
+      <c r="G12" s="446"/>
+      <c r="H12" s="446">
         <v>3500</v>
       </c>
-      <c r="I12" s="491" t="s">
+      <c r="I12" s="482" t="s">
         <v>510</v>
       </c>
       <c r="Q12" s="101" t="s">
@@ -25728,7 +25783,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="414"/>
-      <c r="C13" s="490" t="s">
+      <c r="C13" s="481" t="s">
         <v>502</v>
       </c>
       <c r="D13" s="77"/>
@@ -25748,7 +25803,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="414"/>
-      <c r="C14" s="492" t="s">
+      <c r="C14" s="483" t="s">
         <v>503</v>
       </c>
       <c r="D14" s="410"/>
@@ -25758,8 +25813,8 @@
       <c r="F14" s="410">
         <v>1</v>
       </c>
-      <c r="G14" s="455"/>
-      <c r="H14" s="455">
+      <c r="G14" s="446"/>
+      <c r="H14" s="446">
         <v>25500</v>
       </c>
       <c r="I14" s="87" t="s">
@@ -25771,7 +25826,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="414"/>
-      <c r="C15" s="492" t="s">
+      <c r="C15" s="483" t="s">
         <v>507</v>
       </c>
       <c r="D15" s="410"/>
@@ -25779,8 +25834,8 @@
       <c r="F15" s="410">
         <v>1</v>
       </c>
-      <c r="G15" s="455"/>
-      <c r="H15" s="455">
+      <c r="G15" s="446"/>
+      <c r="H15" s="446">
         <v>3150</v>
       </c>
       <c r="I15" s="336" t="s">
@@ -25792,7 +25847,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="414"/>
-      <c r="C16" s="492" t="s">
+      <c r="C16" s="483" t="s">
         <v>504</v>
       </c>
       <c r="D16" s="410"/>
@@ -25800,10 +25855,10 @@
       <c r="F16" s="410">
         <v>2</v>
       </c>
-      <c r="G16" s="455">
+      <c r="G16" s="446">
         <v>1500</v>
       </c>
-      <c r="H16" s="455">
+      <c r="H16" s="446">
         <v>3000</v>
       </c>
       <c r="I16" s="87" t="s">
@@ -25835,7 +25890,7 @@
       <c r="F18" s="396">
         <v>2</v>
       </c>
-      <c r="G18" s="454"/>
+      <c r="G18" s="445"/>
       <c r="H18" s="184">
         <v>7600</v>
       </c>
@@ -25852,7 +25907,7 @@
       <c r="F19" s="396">
         <v>5</v>
       </c>
-      <c r="G19" s="454"/>
+      <c r="G19" s="445"/>
       <c r="H19" s="184">
         <v>2000</v>
       </c>
@@ -25866,7 +25921,7 @@
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
       <c r="F20" s="396"/>
-      <c r="G20" s="454"/>
+      <c r="G20" s="445"/>
       <c r="H20" s="184">
         <v>28500</v>
       </c>
@@ -25901,7 +25956,7 @@
       <c r="F22" s="374">
         <v>7</v>
       </c>
-      <c r="G22" s="460">
+      <c r="G22" s="451">
         <v>3500</v>
       </c>
       <c r="H22" s="374">
@@ -25915,7 +25970,7 @@
       <c r="A23" s="4">
         <v>2</v>
       </c>
-      <c r="B23" s="458"/>
+      <c r="B23" s="449"/>
       <c r="C23" s="372" t="s">
         <v>329</v>
       </c>
@@ -25936,7 +25991,7 @@
       <c r="A24" s="4">
         <v>3</v>
       </c>
-      <c r="B24" s="458"/>
+      <c r="B24" s="449"/>
       <c r="C24" s="372" t="s">
         <v>299</v>
       </c>
@@ -25959,7 +26014,7 @@
       <c r="A25" s="4">
         <v>4</v>
       </c>
-      <c r="B25" s="458"/>
+      <c r="B25" s="449"/>
       <c r="C25" s="372" t="s">
         <v>127</v>
       </c>
@@ -25982,7 +26037,7 @@
       <c r="A26" s="4">
         <v>5</v>
       </c>
-      <c r="B26" s="458"/>
+      <c r="B26" s="449"/>
       <c r="C26" s="372" t="s">
         <v>188</v>
       </c>
@@ -26005,7 +26060,7 @@
       <c r="A27" s="4">
         <v>6</v>
       </c>
-      <c r="B27" s="458"/>
+      <c r="B27" s="449"/>
       <c r="C27" s="372" t="s">
         <v>162</v>
       </c>
@@ -26026,7 +26081,7 @@
       <c r="A28" s="4">
         <v>7</v>
       </c>
-      <c r="B28" s="459"/>
+      <c r="B28" s="450"/>
       <c r="C28" s="372" t="s">
         <v>197</v>
       </c>
@@ -26049,7 +26104,7 @@
       <c r="A29" s="4">
         <v>8</v>
       </c>
-      <c r="B29" s="459"/>
+      <c r="B29" s="450"/>
       <c r="C29" s="412" t="s">
         <v>402</v>
       </c>
@@ -26063,14 +26118,14 @@
         <v>5000</v>
       </c>
       <c r="I29" s="101" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>9</v>
       </c>
-      <c r="B30" s="459"/>
+      <c r="B30" s="450"/>
       <c r="C30" s="372" t="s">
         <v>512</v>
       </c>
@@ -26093,7 +26148,7 @@
       <c r="A31" s="4">
         <v>10</v>
       </c>
-      <c r="B31" s="459"/>
+      <c r="B31" s="450"/>
       <c r="C31" s="372" t="s">
         <v>223</v>
       </c>
@@ -26114,7 +26169,7 @@
       <c r="A32" s="4">
         <v>11</v>
       </c>
-      <c r="B32" s="459"/>
+      <c r="B32" s="450"/>
       <c r="C32" s="372" t="s">
         <v>350</v>
       </c>
@@ -26137,8 +26192,8 @@
       <c r="A33" s="4">
         <v>12</v>
       </c>
-      <c r="B33" s="459"/>
-      <c r="C33" s="461" t="s">
+      <c r="B33" s="450"/>
+      <c r="C33" s="452" t="s">
         <v>109</v>
       </c>
       <c r="D33" s="419" t="s">
@@ -26162,8 +26217,8 @@
       <c r="A34" s="4">
         <v>13</v>
       </c>
-      <c r="B34" s="459"/>
-      <c r="C34" s="461" t="s">
+      <c r="B34" s="450"/>
+      <c r="C34" s="452" t="s">
         <v>108</v>
       </c>
       <c r="D34" s="419" t="s">
@@ -26184,7 +26239,7 @@
     <row r="35" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
-      <c r="C35" s="457"/>
+      <c r="C35" s="448"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="50"/>
@@ -26227,7 +26282,7 @@
     <row r="38" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
       <c r="B38" s="255"/>
-      <c r="C38" s="457"/>
+      <c r="C38" s="448"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="50"/>
@@ -26252,7 +26307,7 @@
       <c r="F39" s="374">
         <v>1</v>
       </c>
-      <c r="G39" s="460"/>
+      <c r="G39" s="451"/>
       <c r="H39" s="374">
         <v>3000</v>
       </c>
@@ -26264,7 +26319,7 @@
       <c r="A40" s="4">
         <v>2</v>
       </c>
-      <c r="B40" s="458"/>
+      <c r="B40" s="449"/>
       <c r="C40" s="372" t="s">
         <v>108</v>
       </c>
@@ -26285,7 +26340,7 @@
       <c r="A41" s="4">
         <v>3</v>
       </c>
-      <c r="B41" s="458"/>
+      <c r="B41" s="449"/>
       <c r="C41" s="372" t="s">
         <v>54</v>
       </c>
@@ -26306,7 +26361,7 @@
       <c r="A42" s="4">
         <v>4</v>
       </c>
-      <c r="B42" s="458"/>
+      <c r="B42" s="449"/>
       <c r="C42" s="188" t="s">
         <v>78</v>
       </c>
@@ -26328,7 +26383,7 @@
       <c r="A43" s="4">
         <v>5</v>
       </c>
-      <c r="B43" s="458"/>
+      <c r="B43" s="449"/>
       <c r="C43" s="372" t="s">
         <v>197</v>
       </c>
@@ -26351,7 +26406,7 @@
       <c r="A44" s="4">
         <v>6</v>
       </c>
-      <c r="B44" s="458"/>
+      <c r="B44" s="449"/>
       <c r="C44" s="372" t="s">
         <v>127</v>
       </c>
@@ -26372,7 +26427,7 @@
       <c r="A45" s="4">
         <v>7</v>
       </c>
-      <c r="B45" s="459"/>
+      <c r="B45" s="450"/>
       <c r="C45" s="372" t="s">
         <v>109</v>
       </c>
@@ -26393,7 +26448,7 @@
       <c r="A46" s="4">
         <v>8</v>
       </c>
-      <c r="B46" s="459"/>
+      <c r="B46" s="450"/>
       <c r="C46" s="193" t="s">
         <v>517</v>
       </c>
@@ -26411,7 +26466,7 @@
     </row>
     <row r="47" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
-      <c r="B47" s="459"/>
+      <c r="B47" s="450"/>
       <c r="C47" s="188"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -26424,7 +26479,7 @@
     </row>
     <row r="48" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
-      <c r="B48" s="459"/>
+      <c r="B48" s="450"/>
       <c r="C48" s="188" t="s">
         <v>518</v>
       </c>
@@ -26440,7 +26495,7 @@
     </row>
     <row r="49" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
-      <c r="B49" s="459"/>
+      <c r="B49" s="450"/>
       <c r="C49" s="188" t="s">
         <v>472</v>
       </c>
@@ -26456,7 +26511,7 @@
     </row>
     <row r="50" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
-      <c r="B50" s="459"/>
+      <c r="B50" s="450"/>
       <c r="C50" s="401" t="s">
         <v>520</v>
       </c>
@@ -26472,7 +26527,7 @@
     </row>
     <row r="51" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
-      <c r="B51" s="459"/>
+      <c r="B51" s="450"/>
       <c r="C51" s="234"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -26500,7 +26555,7 @@
       <c r="F52" s="374">
         <v>1</v>
       </c>
-      <c r="G52" s="460"/>
+      <c r="G52" s="451"/>
       <c r="H52" s="374">
         <v>25500</v>
       </c>
@@ -26512,7 +26567,7 @@
       <c r="A53" s="4">
         <v>2</v>
       </c>
-      <c r="B53" s="458"/>
+      <c r="B53" s="449"/>
       <c r="C53" s="372" t="s">
         <v>196</v>
       </c>
@@ -26535,7 +26590,7 @@
       <c r="A54" s="4">
         <v>3</v>
       </c>
-      <c r="B54" s="458"/>
+      <c r="B54" s="449"/>
       <c r="C54" s="372" t="s">
         <v>524</v>
       </c>
@@ -26556,7 +26611,7 @@
       <c r="A55" s="4">
         <v>4</v>
       </c>
-      <c r="B55" s="458"/>
+      <c r="B55" s="449"/>
       <c r="C55" s="372" t="s">
         <v>108</v>
       </c>
@@ -26577,7 +26632,7 @@
       <c r="A56" s="4">
         <v>5</v>
       </c>
-      <c r="B56" s="458"/>
+      <c r="B56" s="449"/>
       <c r="C56" s="372" t="s">
         <v>109</v>
       </c>
@@ -26598,7 +26653,7 @@
       <c r="A57" s="4">
         <v>6</v>
       </c>
-      <c r="B57" s="458"/>
+      <c r="B57" s="449"/>
       <c r="C57" s="372" t="s">
         <v>176</v>
       </c>
@@ -26621,7 +26676,7 @@
       <c r="A58" s="4">
         <v>7</v>
       </c>
-      <c r="B58" s="459"/>
+      <c r="B58" s="450"/>
       <c r="C58" s="372" t="s">
         <v>127</v>
       </c>
@@ -26642,7 +26697,7 @@
       <c r="A59" s="4">
         <v>8</v>
       </c>
-      <c r="B59" s="459"/>
+      <c r="B59" s="450"/>
       <c r="C59" s="375" t="s">
         <v>228</v>
       </c>
@@ -26665,7 +26720,7 @@
       <c r="A60" s="4">
         <v>9</v>
       </c>
-      <c r="B60" s="459"/>
+      <c r="B60" s="450"/>
       <c r="C60" s="372" t="s">
         <v>171</v>
       </c>
@@ -26688,11 +26743,11 @@
       <c r="A61" s="4">
         <v>10</v>
       </c>
-      <c r="B61" s="459"/>
+      <c r="B61" s="450"/>
       <c r="C61" s="384" t="s">
         <v>197</v>
       </c>
-      <c r="D61" s="463"/>
+      <c r="D61" s="454"/>
       <c r="E61" s="385" t="s">
         <v>22</v>
       </c>
@@ -26711,7 +26766,7 @@
       <c r="A62" s="4">
         <v>11</v>
       </c>
-      <c r="B62" s="459"/>
+      <c r="B62" s="450"/>
       <c r="C62" s="372" t="s">
         <v>139</v>
       </c>
@@ -26732,7 +26787,7 @@
       <c r="A63" s="4">
         <v>12</v>
       </c>
-      <c r="B63" s="459"/>
+      <c r="B63" s="450"/>
       <c r="C63" s="384" t="s">
         <v>54</v>
       </c>
@@ -26753,7 +26808,7 @@
       <c r="A64" s="4">
         <v>13</v>
       </c>
-      <c r="B64" s="459"/>
+      <c r="B64" s="450"/>
       <c r="C64" s="412" t="s">
         <v>197</v>
       </c>
@@ -26777,7 +26832,7 @@
         <v>14</v>
       </c>
       <c r="B65" s="4"/>
-      <c r="C65" s="442" t="s">
+      <c r="C65" s="439" t="s">
         <v>525</v>
       </c>
       <c r="D65" s="235"/>
@@ -26845,7 +26900,7 @@
       <c r="C69" s="384" t="s">
         <v>523</v>
       </c>
-      <c r="D69" s="463" t="s">
+      <c r="D69" s="454" t="s">
         <v>522</v>
       </c>
       <c r="E69" s="385"/>
@@ -26863,7 +26918,7 @@
     <row r="70" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="23"/>
       <c r="B70" s="255"/>
-      <c r="C70" s="457"/>
+      <c r="C70" s="448"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="50"/>
@@ -26888,7 +26943,7 @@
       <c r="F71" s="50">
         <v>2</v>
       </c>
-      <c r="G71" s="456">
+      <c r="G71" s="447">
         <v>1200</v>
       </c>
       <c r="H71" s="50">
@@ -26899,7 +26954,7 @@
       <c r="A72" s="4">
         <v>2</v>
       </c>
-      <c r="B72" s="458"/>
+      <c r="B72" s="449"/>
       <c r="C72" s="372" t="s">
         <v>188</v>
       </c>
@@ -26924,7 +26979,7 @@
       <c r="A73" s="4">
         <v>3</v>
       </c>
-      <c r="B73" s="458"/>
+      <c r="B73" s="449"/>
       <c r="C73" s="372" t="s">
         <v>529</v>
       </c>
@@ -26945,7 +27000,7 @@
       <c r="A74" s="4">
         <v>4</v>
       </c>
-      <c r="B74" s="458"/>
+      <c r="B74" s="449"/>
       <c r="C74" s="372" t="s">
         <v>530</v>
       </c>
@@ -26967,7 +27022,7 @@
       <c r="A75" s="4">
         <v>5</v>
       </c>
-      <c r="B75" s="458"/>
+      <c r="B75" s="449"/>
       <c r="C75" s="372" t="s">
         <v>127</v>
       </c>
@@ -26988,7 +27043,7 @@
       <c r="A76" s="4">
         <v>6</v>
       </c>
-      <c r="B76" s="458"/>
+      <c r="B76" s="449"/>
       <c r="C76" s="412" t="s">
         <v>128</v>
       </c>
@@ -27004,14 +27059,14 @@
         <v>12600</v>
       </c>
       <c r="I76" s="101" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>7</v>
       </c>
-      <c r="B77" s="459"/>
+      <c r="B77" s="450"/>
       <c r="C77" s="234" t="s">
         <v>228</v>
       </c>
@@ -27031,7 +27086,7 @@
       <c r="A78" s="4">
         <v>8</v>
       </c>
-      <c r="B78" s="459"/>
+      <c r="B78" s="450"/>
       <c r="C78" s="193" t="s">
         <v>208</v>
       </c>
@@ -27051,7 +27106,7 @@
       <c r="A79" s="4">
         <v>9</v>
       </c>
-      <c r="B79" s="459"/>
+      <c r="B79" s="450"/>
       <c r="C79" s="372" t="s">
         <v>204</v>
       </c>
@@ -27076,11 +27131,11 @@
       <c r="A80" s="4">
         <v>10</v>
       </c>
-      <c r="B80" s="459"/>
+      <c r="B80" s="450"/>
       <c r="C80" s="384" t="s">
         <v>151</v>
       </c>
-      <c r="D80" s="463"/>
+      <c r="D80" s="454"/>
       <c r="E80" s="385" t="s">
         <v>14</v>
       </c>
@@ -27099,7 +27154,7 @@
       <c r="A81" s="4">
         <v>11</v>
       </c>
-      <c r="B81" s="459"/>
+      <c r="B81" s="450"/>
       <c r="C81" s="188" t="s">
         <v>78</v>
       </c>
@@ -27121,7 +27176,7 @@
       <c r="A82" s="4">
         <v>12</v>
       </c>
-      <c r="B82" s="459"/>
+      <c r="B82" s="450"/>
       <c r="C82" s="384" t="s">
         <v>223</v>
       </c>
@@ -27140,7 +27195,7 @@
     </row>
     <row r="83" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
-      <c r="B83" s="459"/>
+      <c r="B83" s="450"/>
       <c r="C83" s="369"/>
       <c r="D83" s="45"/>
       <c r="E83" s="45"/>
@@ -27226,7 +27281,7 @@
       <c r="F88" s="374">
         <v>1</v>
       </c>
-      <c r="G88" s="460"/>
+      <c r="G88" s="451"/>
       <c r="H88" s="374">
         <v>24500</v>
       </c>
@@ -27238,7 +27293,7 @@
       <c r="A89" s="4">
         <v>2</v>
       </c>
-      <c r="B89" s="458"/>
+      <c r="B89" s="449"/>
       <c r="C89" s="372" t="s">
         <v>127</v>
       </c>
@@ -27261,7 +27316,7 @@
       <c r="A90" s="4">
         <v>3</v>
       </c>
-      <c r="B90" s="458"/>
+      <c r="B90" s="449"/>
       <c r="C90" s="188" t="s">
         <v>534</v>
       </c>
@@ -27279,7 +27334,7 @@
       <c r="A91" s="4">
         <v>4</v>
       </c>
-      <c r="B91" s="458"/>
+      <c r="B91" s="449"/>
       <c r="C91" s="188" t="s">
         <v>535</v>
       </c>
@@ -27297,7 +27352,7 @@
       <c r="A92" s="4">
         <v>5</v>
       </c>
-      <c r="B92" s="458"/>
+      <c r="B92" s="449"/>
       <c r="C92" s="188" t="s">
         <v>536</v>
       </c>
@@ -27315,7 +27370,7 @@
       <c r="A93" s="4">
         <v>6</v>
       </c>
-      <c r="B93" s="458"/>
+      <c r="B93" s="449"/>
       <c r="C93" s="372" t="s">
         <v>537</v>
       </c>
@@ -27336,8 +27391,8 @@
       <c r="A94" s="4">
         <v>7</v>
       </c>
-      <c r="B94" s="459"/>
-      <c r="C94" s="461" t="s">
+      <c r="B94" s="450"/>
+      <c r="C94" s="452" t="s">
         <v>538</v>
       </c>
       <c r="D94" s="419"/>
@@ -27351,7 +27406,7 @@
       <c r="H94" s="421">
         <v>15200</v>
       </c>
-      <c r="I94" s="464" t="s">
+      <c r="I94" s="455" t="s">
         <v>548</v>
       </c>
     </row>
@@ -27359,7 +27414,7 @@
       <c r="A95" s="4">
         <v>8</v>
       </c>
-      <c r="B95" s="459"/>
+      <c r="B95" s="450"/>
       <c r="C95" s="375" t="s">
         <v>160</v>
       </c>
@@ -27381,7 +27436,7 @@
     </row>
     <row r="96" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
-      <c r="B96" s="459"/>
+      <c r="B96" s="450"/>
       <c r="C96" s="188"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
@@ -27394,11 +27449,11 @@
     </row>
     <row r="97" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
-      <c r="B97" s="459"/>
+      <c r="B97" s="450"/>
       <c r="C97" s="401" t="s">
         <v>539</v>
       </c>
-      <c r="D97" s="462"/>
+      <c r="D97" s="453"/>
       <c r="E97" s="45"/>
       <c r="F97" s="75"/>
       <c r="G97" s="79"/>
@@ -27408,7 +27463,7 @@
     </row>
     <row r="98" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
-      <c r="B98" s="459"/>
+      <c r="B98" s="450"/>
       <c r="C98" s="188"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
@@ -27434,7 +27489,7 @@
       <c r="F99" s="374">
         <v>1</v>
       </c>
-      <c r="G99" s="460"/>
+      <c r="G99" s="451"/>
       <c r="H99" s="374">
         <v>3500</v>
       </c>
@@ -27446,7 +27501,7 @@
       <c r="A100" s="4">
         <v>2</v>
       </c>
-      <c r="B100" s="458"/>
+      <c r="B100" s="449"/>
       <c r="C100" s="375" t="s">
         <v>541</v>
       </c>
@@ -27469,7 +27524,7 @@
       <c r="A101" s="4">
         <v>3</v>
       </c>
-      <c r="B101" s="458"/>
+      <c r="B101" s="449"/>
       <c r="C101" s="188" t="s">
         <v>542</v>
       </c>
@@ -27491,7 +27546,7 @@
       <c r="A102" s="4">
         <v>4</v>
       </c>
-      <c r="B102" s="458"/>
+      <c r="B102" s="449"/>
       <c r="C102" s="188" t="s">
         <v>27</v>
       </c>
@@ -27511,7 +27566,7 @@
       <c r="A103" s="4">
         <v>5</v>
       </c>
-      <c r="B103" s="458"/>
+      <c r="B103" s="449"/>
       <c r="C103" s="188" t="s">
         <v>544</v>
       </c>
@@ -27533,7 +27588,7 @@
       <c r="A104" s="4">
         <v>6</v>
       </c>
-      <c r="B104" s="458"/>
+      <c r="B104" s="449"/>
       <c r="C104" s="188" t="s">
         <v>218</v>
       </c>
@@ -27555,7 +27610,7 @@
       <c r="A105" s="4">
         <v>7</v>
       </c>
-      <c r="B105" s="459"/>
+      <c r="B105" s="450"/>
       <c r="C105" s="188" t="s">
         <v>542</v>
       </c>
@@ -27575,7 +27630,7 @@
     </row>
     <row r="106" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
-      <c r="B106" s="459"/>
+      <c r="B106" s="450"/>
       <c r="C106" s="193"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
@@ -27588,7 +27643,7 @@
     </row>
     <row r="107" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
-      <c r="B107" s="459"/>
+      <c r="B107" s="450"/>
       <c r="C107" s="188" t="s">
         <v>546</v>
       </c>
@@ -27609,11 +27664,11 @@
     </row>
     <row r="108" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
-      <c r="B108" s="459"/>
+      <c r="B108" s="450"/>
       <c r="C108" s="401" t="s">
         <v>102</v>
       </c>
-      <c r="D108" s="462"/>
+      <c r="D108" s="453"/>
       <c r="E108" s="45"/>
       <c r="F108" s="75">
         <v>1</v>
@@ -27625,7 +27680,7 @@
     </row>
     <row r="109" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
-      <c r="B109" s="459"/>
+      <c r="B109" s="450"/>
       <c r="C109" s="188" t="s">
         <v>547</v>
       </c>
@@ -27643,7 +27698,7 @@
     </row>
     <row r="110" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
-      <c r="B110" s="459"/>
+      <c r="B110" s="450"/>
       <c r="C110" s="401" t="s">
         <v>539</v>
       </c>
@@ -27657,7 +27712,7 @@
     </row>
     <row r="111" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
-      <c r="B111" s="459"/>
+      <c r="B111" s="450"/>
       <c r="C111" s="369"/>
       <c r="D111" s="45"/>
       <c r="E111" s="45"/>
@@ -27675,7 +27730,7 @@
       <c r="B112" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="C112" s="461" t="s">
+      <c r="C112" s="452" t="s">
         <v>550</v>
       </c>
       <c r="D112" s="419"/>
@@ -27683,13 +27738,13 @@
       <c r="F112" s="421">
         <v>8</v>
       </c>
-      <c r="G112" s="466">
+      <c r="G112" s="457">
         <v>3000</v>
       </c>
       <c r="H112" s="421">
         <v>24000</v>
       </c>
-      <c r="I112" s="464" t="s">
+      <c r="I112" s="455" t="s">
         <v>566</v>
       </c>
     </row>
@@ -27697,7 +27752,7 @@
       <c r="A113" s="4">
         <v>2</v>
       </c>
-      <c r="B113" s="458"/>
+      <c r="B113" s="449"/>
       <c r="C113" s="193" t="s">
         <v>551</v>
       </c>
@@ -27719,7 +27774,7 @@
       <c r="A114" s="4">
         <v>3</v>
       </c>
-      <c r="B114" s="458"/>
+      <c r="B114" s="449"/>
       <c r="C114" s="188" t="s">
         <v>552</v>
       </c>
@@ -27741,7 +27796,7 @@
       <c r="A115" s="4">
         <v>4</v>
       </c>
-      <c r="B115" s="458"/>
+      <c r="B115" s="449"/>
       <c r="C115" s="372" t="s">
         <v>151</v>
       </c>
@@ -27764,7 +27819,7 @@
     </row>
     <row r="116" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
-      <c r="B116" s="458"/>
+      <c r="B116" s="449"/>
       <c r="C116" s="188"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
@@ -27777,7 +27832,7 @@
     </row>
     <row r="117" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
-      <c r="B117" s="458"/>
+      <c r="B117" s="449"/>
       <c r="C117" s="188" t="s">
         <v>553</v>
       </c>
@@ -27791,7 +27846,7 @@
     </row>
     <row r="118" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
-      <c r="B118" s="459"/>
+      <c r="B118" s="450"/>
       <c r="C118" s="193" t="s">
         <v>554</v>
       </c>
@@ -27809,7 +27864,7 @@
     </row>
     <row r="119" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
-      <c r="B119" s="459"/>
+      <c r="B119" s="450"/>
       <c r="C119" s="193"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
@@ -27837,7 +27892,7 @@
       <c r="F120" s="374">
         <v>1</v>
       </c>
-      <c r="G120" s="460"/>
+      <c r="G120" s="451"/>
       <c r="H120" s="374">
         <v>23400</v>
       </c>
@@ -27849,7 +27904,7 @@
       <c r="A121" s="4">
         <v>2</v>
       </c>
-      <c r="B121" s="458"/>
+      <c r="B121" s="449"/>
       <c r="C121" s="375" t="s">
         <v>127</v>
       </c>
@@ -27872,7 +27927,7 @@
       <c r="A122" s="4">
         <v>3</v>
       </c>
-      <c r="B122" s="458"/>
+      <c r="B122" s="449"/>
       <c r="C122" s="412" t="s">
         <v>557</v>
       </c>
@@ -27888,14 +27943,14 @@
         <v>9450</v>
       </c>
       <c r="I122" s="101" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>4</v>
       </c>
-      <c r="B123" s="458"/>
+      <c r="B123" s="449"/>
       <c r="C123" s="372" t="s">
         <v>109</v>
       </c>
@@ -27918,7 +27973,7 @@
       <c r="A124" s="4">
         <v>5</v>
       </c>
-      <c r="B124" s="458"/>
+      <c r="B124" s="449"/>
       <c r="C124" s="188" t="s">
         <v>558</v>
       </c>
@@ -27938,7 +27993,7 @@
       <c r="A125" s="4">
         <v>6</v>
       </c>
-      <c r="B125" s="458"/>
+      <c r="B125" s="449"/>
       <c r="C125" s="372" t="s">
         <v>151</v>
       </c>
@@ -27961,7 +28016,7 @@
       <c r="A126" s="4">
         <v>7</v>
       </c>
-      <c r="B126" s="459"/>
+      <c r="B126" s="450"/>
       <c r="C126" s="375" t="s">
         <v>284</v>
       </c>
@@ -27984,25 +28039,28 @@
       <c r="A127" s="4">
         <v>8</v>
       </c>
-      <c r="B127" s="459"/>
-      <c r="C127" s="354" t="s">
+      <c r="B127" s="450"/>
+      <c r="C127" s="384" t="s">
         <v>559</v>
       </c>
-      <c r="D127" s="8"/>
-      <c r="E127" s="8"/>
-      <c r="F127" s="79">
-        <v>1</v>
-      </c>
-      <c r="G127" s="79"/>
-      <c r="H127" s="79">
+      <c r="D127" s="385"/>
+      <c r="E127" s="385"/>
+      <c r="F127" s="386">
+        <v>1</v>
+      </c>
+      <c r="G127" s="386"/>
+      <c r="H127" s="386">
         <v>2650</v>
+      </c>
+      <c r="I127" s="101" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>9</v>
       </c>
-      <c r="B128" s="459"/>
+      <c r="B128" s="450"/>
       <c r="C128" s="188" t="s">
         <v>27</v>
       </c>
@@ -28022,11 +28080,11 @@
       <c r="A129" s="4">
         <v>10</v>
       </c>
-      <c r="B129" s="459"/>
+      <c r="B129" s="450"/>
       <c r="C129" s="401" t="s">
         <v>27</v>
       </c>
-      <c r="D129" s="462" t="s">
+      <c r="D129" s="453" t="s">
         <v>562</v>
       </c>
       <c r="E129" s="45"/>
@@ -28042,11 +28100,11 @@
       <c r="A130" s="4">
         <v>11</v>
       </c>
-      <c r="B130" s="459"/>
+      <c r="B130" s="450"/>
       <c r="C130" s="384" t="s">
         <v>54</v>
       </c>
-      <c r="D130" s="463"/>
+      <c r="D130" s="454"/>
       <c r="E130" s="385"/>
       <c r="F130" s="386">
         <v>1</v>
@@ -28063,7 +28121,7 @@
       <c r="A131" s="4">
         <v>12</v>
       </c>
-      <c r="B131" s="459"/>
+      <c r="B131" s="450"/>
       <c r="C131" s="372" t="s">
         <v>223</v>
       </c>
@@ -28084,7 +28142,7 @@
       <c r="A132" s="4">
         <v>13</v>
       </c>
-      <c r="B132" s="459"/>
+      <c r="B132" s="450"/>
       <c r="C132" s="401" t="s">
         <v>561</v>
       </c>
@@ -28106,7 +28164,7 @@
       <c r="A133" s="4">
         <v>14</v>
       </c>
-      <c r="B133" s="459"/>
+      <c r="B133" s="450"/>
       <c r="C133" s="369" t="s">
         <v>27</v>
       </c>
@@ -28129,7 +28187,7 @@
         <v>15</v>
       </c>
       <c r="B134" s="50"/>
-      <c r="C134" s="467" t="s">
+      <c r="C134" s="458" t="s">
         <v>228</v>
       </c>
       <c r="D134" s="79"/>
@@ -28174,7 +28232,7 @@
     <row r="137" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A137" s="26"/>
       <c r="B137" s="26"/>
-      <c r="C137" s="465" t="s">
+      <c r="C137" s="456" t="s">
         <v>554</v>
       </c>
       <c r="D137" s="26"/>
@@ -28190,7 +28248,7 @@
     <row r="138" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A138" s="26"/>
       <c r="B138" s="26"/>
-      <c r="C138" s="465" t="s">
+      <c r="C138" s="456" t="s">
         <v>564</v>
       </c>
       <c r="D138" s="26"/>
@@ -28231,7 +28289,7 @@
       <c r="F140" s="79">
         <v>1</v>
       </c>
-      <c r="G140" s="469"/>
+      <c r="G140" s="460"/>
       <c r="H140" s="79">
         <v>6050</v>
       </c>
@@ -28240,7 +28298,7 @@
       <c r="A141" s="4">
         <v>2</v>
       </c>
-      <c r="B141" s="458"/>
+      <c r="B141" s="449"/>
       <c r="C141" s="375" t="s">
         <v>228</v>
       </c>
@@ -28265,7 +28323,7 @@
       <c r="A142" s="4">
         <v>3</v>
       </c>
-      <c r="B142" s="458"/>
+      <c r="B142" s="449"/>
       <c r="C142" s="372" t="s">
         <v>568</v>
       </c>
@@ -28288,7 +28346,7 @@
       <c r="A143" s="4">
         <v>4</v>
       </c>
-      <c r="B143" s="458"/>
+      <c r="B143" s="449"/>
       <c r="C143" s="393" t="s">
         <v>569</v>
       </c>
@@ -28304,14 +28362,14 @@
         <v>12000</v>
       </c>
       <c r="I143" s="101" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>5</v>
       </c>
-      <c r="B144" s="458"/>
+      <c r="B144" s="449"/>
       <c r="C144" s="372" t="s">
         <v>197</v>
       </c>
@@ -28334,7 +28392,7 @@
       <c r="A145" s="4">
         <v>6</v>
       </c>
-      <c r="B145" s="458"/>
+      <c r="B145" s="449"/>
       <c r="C145" s="372" t="s">
         <v>299</v>
       </c>
@@ -28357,7 +28415,7 @@
       <c r="A146" s="4">
         <v>7</v>
       </c>
-      <c r="B146" s="459"/>
+      <c r="B146" s="450"/>
       <c r="C146" s="375" t="s">
         <v>299</v>
       </c>
@@ -28382,7 +28440,7 @@
       <c r="A147" s="4">
         <v>8</v>
       </c>
-      <c r="B147" s="459"/>
+      <c r="B147" s="450"/>
       <c r="C147" s="375" t="s">
         <v>197</v>
       </c>
@@ -28407,7 +28465,7 @@
       <c r="A148" s="4">
         <v>9</v>
       </c>
-      <c r="B148" s="459"/>
+      <c r="B148" s="450"/>
       <c r="C148" s="372" t="s">
         <v>127</v>
       </c>
@@ -28430,11 +28488,11 @@
       <c r="A149" s="4">
         <v>10</v>
       </c>
-      <c r="B149" s="459"/>
+      <c r="B149" s="450"/>
       <c r="C149" s="384" t="s">
         <v>570</v>
       </c>
-      <c r="D149" s="463"/>
+      <c r="D149" s="454"/>
       <c r="E149" s="385"/>
       <c r="F149" s="386">
         <v>1</v>
@@ -28451,11 +28509,11 @@
       <c r="A150" s="4">
         <v>11</v>
       </c>
-      <c r="B150" s="459"/>
+      <c r="B150" s="450"/>
       <c r="C150" s="384" t="s">
         <v>176</v>
       </c>
-      <c r="D150" s="463"/>
+      <c r="D150" s="454"/>
       <c r="E150" s="385" t="s">
         <v>22</v>
       </c>
@@ -28476,7 +28534,7 @@
       <c r="A151" s="4">
         <v>12</v>
       </c>
-      <c r="B151" s="459"/>
+      <c r="B151" s="450"/>
       <c r="C151" s="372" t="s">
         <v>139</v>
       </c>
@@ -28497,7 +28555,7 @@
       <c r="A152" s="4">
         <v>13</v>
       </c>
-      <c r="B152" s="459"/>
+      <c r="B152" s="450"/>
       <c r="C152" s="384" t="s">
         <v>54</v>
       </c>
@@ -28516,7 +28574,7 @@
     </row>
     <row r="153" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
-      <c r="B153" s="459"/>
+      <c r="B153" s="450"/>
       <c r="C153" s="369"/>
       <c r="D153" s="45"/>
       <c r="E153" s="45"/>
@@ -28544,7 +28602,7 @@
     <row r="155" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="50"/>
       <c r="B155" s="50"/>
-      <c r="C155" s="468" t="s">
+      <c r="C155" s="459" t="s">
         <v>571</v>
       </c>
       <c r="D155" s="50"/>
@@ -28562,7 +28620,7 @@
     <row r="156" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="50"/>
       <c r="B156" s="50"/>
-      <c r="C156" s="468" t="s">
+      <c r="C156" s="459" t="s">
         <v>554</v>
       </c>
       <c r="D156" s="50"/>
@@ -28578,7 +28636,7 @@
     <row r="157" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A157" s="26"/>
       <c r="B157" s="26"/>
-      <c r="C157" s="465"/>
+      <c r="C157" s="456"/>
       <c r="D157" s="26"/>
       <c r="E157" s="26"/>
       <c r="F157" s="4"/>
@@ -28603,21 +28661,21 @@
       <c r="F158" s="374">
         <v>5</v>
       </c>
-      <c r="G158" s="460">
+      <c r="G158" s="451">
         <v>3500</v>
       </c>
       <c r="H158" s="374">
         <v>17500</v>
       </c>
       <c r="I158" s="101" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>2</v>
       </c>
-      <c r="B159" s="458"/>
+      <c r="B159" s="449"/>
       <c r="C159" s="192" t="s">
         <v>27</v>
       </c>
@@ -28637,7 +28695,7 @@
       <c r="A160" s="4">
         <v>3</v>
       </c>
-      <c r="B160" s="458"/>
+      <c r="B160" s="449"/>
       <c r="C160" s="387" t="s">
         <v>27</v>
       </c>
@@ -28655,7 +28713,7 @@
     </row>
     <row r="161" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4"/>
-      <c r="B161" s="458"/>
+      <c r="B161" s="449"/>
       <c r="C161" s="260"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
@@ -28668,7 +28726,7 @@
     </row>
     <row r="162" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4"/>
-      <c r="B162" s="458"/>
+      <c r="B162" s="449"/>
       <c r="C162" s="188" t="s">
         <v>539</v>
       </c>
@@ -28682,9 +28740,9 @@
     </row>
     <row r="163" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4"/>
-      <c r="B163" s="458"/>
+      <c r="B163" s="449"/>
       <c r="C163" s="193" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
@@ -28696,7 +28754,7 @@
     </row>
     <row r="164" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4"/>
-      <c r="B164" s="459"/>
+      <c r="B164" s="450"/>
       <c r="C164" s="193"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
@@ -28712,9 +28770,9 @@
         <v>1</v>
       </c>
       <c r="B165" s="222" t="s">
-        <v>575</v>
-      </c>
-      <c r="C165" s="476" t="s">
+        <v>574</v>
+      </c>
+      <c r="C165" s="467" t="s">
         <v>109</v>
       </c>
       <c r="D165" s="413"/>
@@ -28722,14 +28780,14 @@
       <c r="F165" s="413">
         <v>4</v>
       </c>
-      <c r="G165" s="477">
+      <c r="G165" s="468">
         <v>3500</v>
       </c>
       <c r="H165" s="374">
         <v>14000</v>
       </c>
       <c r="I165" s="101" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -28737,7 +28795,7 @@
         <v>2</v>
       </c>
       <c r="B166" s="222"/>
-      <c r="C166" s="478" t="s">
+      <c r="C166" s="469" t="s">
         <v>223</v>
       </c>
       <c r="D166" s="413"/>
@@ -28750,7 +28808,7 @@
         <v>2500</v>
       </c>
       <c r="I166" s="101" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="167" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -28758,7 +28816,7 @@
         <v>3</v>
       </c>
       <c r="B167" s="222"/>
-      <c r="C167" s="476" t="s">
+      <c r="C167" s="467" t="s">
         <v>176</v>
       </c>
       <c r="D167" s="413"/>
@@ -28775,7 +28833,7 @@
         <v>69000</v>
       </c>
       <c r="I167" s="101" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="168" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -28783,7 +28841,7 @@
         <v>4</v>
       </c>
       <c r="B168" s="222"/>
-      <c r="C168" s="468" t="s">
+      <c r="C168" s="459" t="s">
         <v>544</v>
       </c>
       <c r="D168" s="222" t="s">
@@ -28805,7 +28863,7 @@
         <v>5</v>
       </c>
       <c r="B169" s="222"/>
-      <c r="C169" s="474" t="s">
+      <c r="C169" s="465" t="s">
         <v>27</v>
       </c>
       <c r="D169" s="222" t="s">
@@ -28825,8 +28883,8 @@
         <v>6</v>
       </c>
       <c r="B170" s="222"/>
-      <c r="C170" s="468" t="s">
-        <v>576</v>
+      <c r="C170" s="459" t="s">
+        <v>575</v>
       </c>
       <c r="D170" s="222"/>
       <c r="E170" s="222"/>
@@ -28845,7 +28903,7 @@
         <v>7</v>
       </c>
       <c r="B171" s="222"/>
-      <c r="C171" s="478" t="s">
+      <c r="C171" s="469" t="s">
         <v>139</v>
       </c>
       <c r="D171" s="413"/>
@@ -28858,7 +28916,7 @@
         <v>2500</v>
       </c>
       <c r="I171" s="101" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="172" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -28866,7 +28924,7 @@
         <v>8</v>
       </c>
       <c r="B172" s="222"/>
-      <c r="C172" s="476" t="s">
+      <c r="C172" s="467" t="s">
         <v>350</v>
       </c>
       <c r="D172" s="413"/>
@@ -28879,13 +28937,13 @@
         <v>2500</v>
       </c>
       <c r="I172" s="101" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="173" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="222"/>
       <c r="B173" s="222"/>
-      <c r="C173" s="474"/>
+      <c r="C173" s="465"/>
       <c r="D173" s="222"/>
       <c r="E173" s="222"/>
       <c r="F173" s="222"/>
@@ -28898,7 +28956,7 @@
     <row r="174" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="222"/>
       <c r="B174" s="222"/>
-      <c r="C174" s="474" t="s">
+      <c r="C174" s="465" t="s">
         <v>539</v>
       </c>
       <c r="D174" s="222"/>
@@ -28915,7 +28973,7 @@
     <row r="175" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="222"/>
       <c r="B175" s="222"/>
-      <c r="C175" s="468" t="s">
+      <c r="C175" s="459" t="s">
         <v>192</v>
       </c>
       <c r="D175" s="222"/>
@@ -28933,7 +28991,7 @@
     <row r="176" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="222"/>
       <c r="B176" s="222"/>
-      <c r="C176" s="474"/>
+      <c r="C176" s="465"/>
       <c r="D176" s="222"/>
       <c r="E176" s="222"/>
       <c r="F176" s="222"/>
@@ -28948,9 +29006,9 @@
         <v>1</v>
       </c>
       <c r="B177" s="222" t="s">
-        <v>577</v>
-      </c>
-      <c r="C177" s="476" t="s">
+        <v>576</v>
+      </c>
+      <c r="C177" s="467" t="s">
         <v>109</v>
       </c>
       <c r="D177" s="413"/>
@@ -28958,12 +29016,12 @@
       <c r="F177" s="413">
         <v>1</v>
       </c>
-      <c r="G177" s="477"/>
+      <c r="G177" s="468"/>
       <c r="H177" s="374">
         <v>3500</v>
       </c>
       <c r="I177" s="101" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -28971,15 +29029,15 @@
         <v>2</v>
       </c>
       <c r="B178" s="222"/>
-      <c r="C178" s="488" t="s">
+      <c r="C178" s="479" t="s">
         <v>108</v>
       </c>
-      <c r="D178" s="486"/>
-      <c r="E178" s="486"/>
-      <c r="F178" s="486">
-        <v>1</v>
-      </c>
-      <c r="G178" s="486"/>
+      <c r="D178" s="477"/>
+      <c r="E178" s="477"/>
+      <c r="F178" s="477">
+        <v>1</v>
+      </c>
+      <c r="G178" s="477"/>
       <c r="H178" s="353">
         <v>3500</v>
       </c>
@@ -28989,7 +29047,7 @@
         <v>3</v>
       </c>
       <c r="B179" s="222"/>
-      <c r="C179" s="476" t="s">
+      <c r="C179" s="467" t="s">
         <v>171</v>
       </c>
       <c r="D179" s="413"/>
@@ -29004,7 +29062,7 @@
         <v>15200</v>
       </c>
       <c r="I179" s="101" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -29012,7 +29070,7 @@
         <v>4</v>
       </c>
       <c r="B180" s="222"/>
-      <c r="C180" s="478" t="s">
+      <c r="C180" s="469" t="s">
         <v>364</v>
       </c>
       <c r="D180" s="413"/>
@@ -29027,7 +29085,7 @@
         <v>5000</v>
       </c>
       <c r="I180" s="101" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -29035,7 +29093,7 @@
         <v>5</v>
       </c>
       <c r="B181" s="222"/>
-      <c r="C181" s="476" t="s">
+      <c r="C181" s="467" t="s">
         <v>121</v>
       </c>
       <c r="D181" s="413"/>
@@ -29052,7 +29110,7 @@
         <v>23000</v>
       </c>
       <c r="I181" s="101" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -29060,8 +29118,8 @@
         <v>6</v>
       </c>
       <c r="B182" s="222"/>
-      <c r="C182" s="478" t="s">
-        <v>580</v>
+      <c r="C182" s="469" t="s">
+        <v>579</v>
       </c>
       <c r="D182" s="413"/>
       <c r="E182" s="413"/>
@@ -29073,7 +29131,7 @@
         <v>2650</v>
       </c>
       <c r="I182" s="101" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -29081,7 +29139,7 @@
         <v>7</v>
       </c>
       <c r="B183" s="222"/>
-      <c r="C183" s="478" t="s">
+      <c r="C183" s="469" t="s">
         <v>200</v>
       </c>
       <c r="D183" s="413"/>
@@ -29096,7 +29154,7 @@
         <v>12000</v>
       </c>
       <c r="I183" s="101" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -29104,8 +29162,8 @@
         <v>8</v>
       </c>
       <c r="B184" s="222"/>
-      <c r="C184" s="476" t="s">
-        <v>581</v>
+      <c r="C184" s="467" t="s">
+        <v>580</v>
       </c>
       <c r="D184" s="413"/>
       <c r="E184" s="413"/>
@@ -29117,7 +29175,7 @@
         <v>5500</v>
       </c>
       <c r="I184" s="101" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -29125,7 +29183,7 @@
         <v>9</v>
       </c>
       <c r="B185" s="222"/>
-      <c r="C185" s="476" t="s">
+      <c r="C185" s="467" t="s">
         <v>342</v>
       </c>
       <c r="D185" s="413"/>
@@ -29142,7 +29200,7 @@
         <v>36000</v>
       </c>
       <c r="I185" s="101" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -29150,7 +29208,7 @@
         <v>10</v>
       </c>
       <c r="B186" s="222"/>
-      <c r="C186" s="476" t="s">
+      <c r="C186" s="467" t="s">
         <v>284</v>
       </c>
       <c r="D186" s="413"/>
@@ -29165,13 +29223,13 @@
         <v>36500</v>
       </c>
       <c r="I186" s="101" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="222"/>
       <c r="B187" s="222"/>
-      <c r="C187" s="468"/>
+      <c r="C187" s="459"/>
       <c r="D187" s="222"/>
       <c r="E187" s="222"/>
       <c r="F187" s="222"/>
@@ -29184,7 +29242,7 @@
     <row r="188" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="222"/>
       <c r="B188" s="222"/>
-      <c r="C188" s="474" t="s">
+      <c r="C188" s="465" t="s">
         <v>518</v>
       </c>
       <c r="D188" s="222"/>
@@ -29200,45 +29258,45 @@
       <c r="B189" s="222" t="s">
         <v>509</v>
       </c>
-      <c r="C189" s="483" t="s">
+      <c r="C189" s="474" t="s">
         <v>54</v>
       </c>
-      <c r="D189" s="484" t="s">
-        <v>578</v>
-      </c>
-      <c r="E189" s="484"/>
-      <c r="F189" s="484"/>
-      <c r="G189" s="484"/>
-      <c r="H189" s="484" t="s">
+      <c r="D189" s="475" t="s">
+        <v>577</v>
+      </c>
+      <c r="E189" s="475"/>
+      <c r="F189" s="475"/>
+      <c r="G189" s="475"/>
+      <c r="H189" s="475" t="s">
         <v>153</v>
       </c>
       <c r="I189" s="101" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="222"/>
       <c r="B190" s="222"/>
-      <c r="C190" s="483" t="s">
-        <v>579</v>
-      </c>
-      <c r="D190" s="484" t="s">
+      <c r="C190" s="474" t="s">
         <v>578</v>
       </c>
-      <c r="E190" s="484"/>
-      <c r="F190" s="484"/>
-      <c r="G190" s="484"/>
-      <c r="H190" s="484" t="s">
+      <c r="D190" s="475" t="s">
+        <v>577</v>
+      </c>
+      <c r="E190" s="475"/>
+      <c r="F190" s="475"/>
+      <c r="G190" s="475"/>
+      <c r="H190" s="475" t="s">
         <v>153</v>
       </c>
       <c r="I190" s="101" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="222"/>
       <c r="B191" s="222"/>
-      <c r="C191" s="474"/>
+      <c r="C191" s="465"/>
       <c r="D191" s="222"/>
       <c r="E191" s="222"/>
       <c r="F191" s="222"/>
@@ -29253,19 +29311,19 @@
         <v>1</v>
       </c>
       <c r="B192" s="222" t="s">
+        <v>581</v>
+      </c>
+      <c r="C192" s="464" t="s">
+        <v>544</v>
+      </c>
+      <c r="D192" s="441" t="s">
         <v>582</v>
       </c>
-      <c r="C192" s="473" t="s">
-        <v>544</v>
-      </c>
-      <c r="D192" s="444" t="s">
-        <v>583</v>
-      </c>
-      <c r="E192" s="444"/>
-      <c r="F192" s="444">
+      <c r="E192" s="441"/>
+      <c r="F192" s="441">
         <v>2</v>
       </c>
-      <c r="G192" s="472">
+      <c r="G192" s="463">
         <v>8000</v>
       </c>
       <c r="H192" s="84">
@@ -29277,7 +29335,7 @@
         <v>2</v>
       </c>
       <c r="B193" s="222"/>
-      <c r="C193" s="478" t="s">
+      <c r="C193" s="469" t="s">
         <v>406</v>
       </c>
       <c r="D193" s="413"/>
@@ -29294,7 +29352,7 @@
         <v>32000</v>
       </c>
       <c r="I193" s="101" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -29302,17 +29360,17 @@
         <v>3</v>
       </c>
       <c r="B194" s="222"/>
-      <c r="C194" s="485" t="s">
+      <c r="C194" s="476" t="s">
         <v>228</v>
       </c>
-      <c r="D194" s="486"/>
-      <c r="E194" s="486" t="s">
+      <c r="D194" s="477"/>
+      <c r="E194" s="477" t="s">
         <v>22</v>
       </c>
-      <c r="F194" s="486">
-        <v>1</v>
-      </c>
-      <c r="G194" s="486"/>
+      <c r="F194" s="477">
+        <v>1</v>
+      </c>
+      <c r="G194" s="477"/>
       <c r="H194" s="353">
         <v>25500</v>
       </c>
@@ -29320,7 +29378,7 @@
     <row r="195" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="222"/>
       <c r="B195" s="222"/>
-      <c r="C195" s="468"/>
+      <c r="C195" s="459"/>
       <c r="D195" s="222"/>
       <c r="E195" s="222"/>
       <c r="F195" s="222"/>
@@ -29333,7 +29391,7 @@
     <row r="196" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="222"/>
       <c r="B196" s="222"/>
-      <c r="C196" s="474" t="s">
+      <c r="C196" s="465" t="s">
         <v>518</v>
       </c>
       <c r="D196" s="222"/>
@@ -29347,7 +29405,7 @@
     <row r="197" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="222"/>
       <c r="B197" s="222"/>
-      <c r="C197" s="468" t="s">
+      <c r="C197" s="459" t="s">
         <v>455</v>
       </c>
       <c r="D197" s="222"/>
@@ -29365,7 +29423,7 @@
     <row r="198" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="222"/>
       <c r="B198" s="222"/>
-      <c r="C198" s="468"/>
+      <c r="C198" s="459"/>
       <c r="D198" s="222"/>
       <c r="E198" s="222"/>
       <c r="F198" s="222"/>
@@ -29380,17 +29438,17 @@
         <v>1</v>
       </c>
       <c r="B199" s="222" t="s">
+        <v>583</v>
+      </c>
+      <c r="C199" s="476" t="s">
         <v>584</v>
       </c>
-      <c r="C199" s="485" t="s">
-        <v>585</v>
-      </c>
-      <c r="D199" s="486"/>
-      <c r="E199" s="486"/>
-      <c r="F199" s="486">
+      <c r="D199" s="477"/>
+      <c r="E199" s="477"/>
+      <c r="F199" s="477">
         <v>4</v>
       </c>
-      <c r="G199" s="487">
+      <c r="G199" s="478">
         <v>2500</v>
       </c>
       <c r="H199" s="353">
@@ -29402,7 +29460,7 @@
         <v>2</v>
       </c>
       <c r="B200" s="222"/>
-      <c r="C200" s="478" t="s">
+      <c r="C200" s="469" t="s">
         <v>204</v>
       </c>
       <c r="D200" s="413"/>
@@ -29417,7 +29475,7 @@
         <v>5500</v>
       </c>
       <c r="I200" s="101" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -29425,17 +29483,17 @@
         <v>3</v>
       </c>
       <c r="B201" s="222"/>
-      <c r="C201" s="475" t="s">
-        <v>586</v>
-      </c>
-      <c r="D201" s="444" t="s">
+      <c r="C201" s="466" t="s">
+        <v>585</v>
+      </c>
+      <c r="D201" s="441" t="s">
         <v>165</v>
       </c>
-      <c r="E201" s="444"/>
-      <c r="F201" s="444">
-        <v>1</v>
-      </c>
-      <c r="G201" s="444"/>
+      <c r="E201" s="441"/>
+      <c r="F201" s="441">
+        <v>1</v>
+      </c>
+      <c r="G201" s="441"/>
       <c r="H201" s="84">
         <v>13000</v>
       </c>
@@ -29445,8 +29503,8 @@
         <v>4</v>
       </c>
       <c r="B202" s="222"/>
-      <c r="C202" s="480" t="s">
-        <v>587</v>
+      <c r="C202" s="471" t="s">
+        <v>586</v>
       </c>
       <c r="D202" s="222" t="s">
         <v>165</v>
@@ -29467,7 +29525,7 @@
         <v>5</v>
       </c>
       <c r="B203" s="222"/>
-      <c r="C203" s="474" t="s">
+      <c r="C203" s="465" t="s">
         <v>27</v>
       </c>
       <c r="D203" s="222" t="s">
@@ -29487,7 +29545,7 @@
         <v>6</v>
       </c>
       <c r="B204" s="222"/>
-      <c r="C204" s="468" t="s">
+      <c r="C204" s="459" t="s">
         <v>78</v>
       </c>
       <c r="D204" s="222" t="s">
@@ -29509,7 +29567,7 @@
         <v>7</v>
       </c>
       <c r="B205" s="222"/>
-      <c r="C205" s="468" t="s">
+      <c r="C205" s="459" t="s">
         <v>174</v>
       </c>
       <c r="D205" s="222"/>
@@ -29527,7 +29585,7 @@
         <v>8</v>
       </c>
       <c r="B206" s="222"/>
-      <c r="C206" s="479" t="s">
+      <c r="C206" s="470" t="s">
         <v>108</v>
       </c>
       <c r="D206" s="417"/>
@@ -29545,7 +29603,7 @@
         <v>9</v>
       </c>
       <c r="B207" s="222"/>
-      <c r="C207" s="476" t="s">
+      <c r="C207" s="467" t="s">
         <v>188</v>
       </c>
       <c r="D207" s="413"/>
@@ -29560,7 +29618,7 @@
         <v>25500</v>
       </c>
       <c r="I207" s="101" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -29568,7 +29626,7 @@
         <v>10</v>
       </c>
       <c r="B208" s="222"/>
-      <c r="C208" s="476" t="s">
+      <c r="C208" s="467" t="s">
         <v>188</v>
       </c>
       <c r="D208" s="413"/>
@@ -29585,7 +29643,7 @@
         <v>12000</v>
       </c>
       <c r="I208" s="101" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -29593,7 +29651,7 @@
         <v>11</v>
       </c>
       <c r="B209" s="222"/>
-      <c r="C209" s="478" t="s">
+      <c r="C209" s="469" t="s">
         <v>109</v>
       </c>
       <c r="D209" s="413"/>
@@ -29608,7 +29666,7 @@
         <v>7000</v>
       </c>
       <c r="I209" s="101" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -29616,7 +29674,7 @@
         <v>12</v>
       </c>
       <c r="B210" s="222"/>
-      <c r="C210" s="478" t="s">
+      <c r="C210" s="469" t="s">
         <v>556</v>
       </c>
       <c r="D210" s="413"/>
@@ -29633,7 +29691,7 @@
         <v>24800</v>
       </c>
       <c r="I210" s="101" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="211" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -29641,7 +29699,7 @@
         <v>13</v>
       </c>
       <c r="B211" s="222"/>
-      <c r="C211" s="478" t="s">
+      <c r="C211" s="469" t="s">
         <v>127</v>
       </c>
       <c r="D211" s="413"/>
@@ -29654,7 +29712,7 @@
         <v>2500</v>
       </c>
       <c r="I211" s="101" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -29662,7 +29720,7 @@
         <v>14</v>
       </c>
       <c r="B212" s="222"/>
-      <c r="C212" s="478" t="s">
+      <c r="C212" s="469" t="s">
         <v>121</v>
       </c>
       <c r="D212" s="413"/>
@@ -29679,7 +29737,7 @@
         <v>23000</v>
       </c>
       <c r="I212" s="101" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="213" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -29687,7 +29745,7 @@
         <v>15</v>
       </c>
       <c r="B213" s="222"/>
-      <c r="C213" s="478" t="s">
+      <c r="C213" s="469" t="s">
         <v>568</v>
       </c>
       <c r="D213" s="413"/>
@@ -29702,7 +29760,7 @@
         <v>30400</v>
       </c>
       <c r="I213" s="101" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -29710,7 +29768,7 @@
         <v>16</v>
       </c>
       <c r="B214" s="222"/>
-      <c r="C214" s="468" t="s">
+      <c r="C214" s="459" t="s">
         <v>10</v>
       </c>
       <c r="D214" s="222" t="s">
@@ -29732,8 +29790,8 @@
         <v>17</v>
       </c>
       <c r="B215" s="222"/>
-      <c r="C215" s="468" t="s">
-        <v>589</v>
+      <c r="C215" s="459" t="s">
+        <v>588</v>
       </c>
       <c r="D215" s="222" t="s">
         <v>285</v>
@@ -29754,8 +29812,8 @@
         <v>18</v>
       </c>
       <c r="B216" s="222"/>
-      <c r="C216" s="468" t="s">
-        <v>589</v>
+      <c r="C216" s="459" t="s">
+        <v>588</v>
       </c>
       <c r="D216" s="222" t="s">
         <v>185</v>
@@ -29776,7 +29834,7 @@
         <v>19</v>
       </c>
       <c r="B217" s="222"/>
-      <c r="C217" s="474" t="s">
+      <c r="C217" s="465" t="s">
         <v>78</v>
       </c>
       <c r="D217" s="222" t="s">
@@ -29796,7 +29854,7 @@
     <row r="218" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="222"/>
       <c r="B218" s="222"/>
-      <c r="C218" s="474"/>
+      <c r="C218" s="465"/>
       <c r="D218" s="222"/>
       <c r="E218" s="222"/>
       <c r="F218" s="222"/>
@@ -29809,8 +29867,8 @@
     <row r="219" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="222"/>
       <c r="B219" s="222"/>
-      <c r="C219" s="482" t="s">
-        <v>588</v>
+      <c r="C219" s="473" t="s">
+        <v>587</v>
       </c>
       <c r="D219" s="417"/>
       <c r="E219" s="417"/>
@@ -29823,7 +29881,7 @@
     <row r="220" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="222"/>
       <c r="B220" s="222"/>
-      <c r="C220" s="479"/>
+      <c r="C220" s="470"/>
       <c r="D220" s="417"/>
       <c r="E220" s="417"/>
       <c r="F220" s="417"/>
@@ -29838,9 +29896,9 @@
         <v>1</v>
       </c>
       <c r="B221" s="222" t="s">
-        <v>590</v>
-      </c>
-      <c r="C221" s="476" t="s">
+        <v>589</v>
+      </c>
+      <c r="C221" s="467" t="s">
         <v>161</v>
       </c>
       <c r="D221" s="413"/>
@@ -29848,12 +29906,12 @@
       <c r="F221" s="413">
         <v>1</v>
       </c>
-      <c r="G221" s="460"/>
+      <c r="G221" s="451"/>
       <c r="H221" s="374">
         <v>3500</v>
       </c>
       <c r="I221" s="433" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -29861,8 +29919,8 @@
         <v>2</v>
       </c>
       <c r="B222" s="222"/>
-      <c r="C222" s="478" t="s">
-        <v>591</v>
+      <c r="C222" s="469" t="s">
+        <v>590</v>
       </c>
       <c r="D222" s="413"/>
       <c r="E222" s="413"/>
@@ -29874,7 +29932,7 @@
         <v>3000</v>
       </c>
       <c r="I222" s="433" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="223" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -29882,8 +29940,8 @@
         <v>3</v>
       </c>
       <c r="B223" s="222"/>
-      <c r="C223" s="478" t="s">
-        <v>592</v>
+      <c r="C223" s="469" t="s">
+        <v>591</v>
       </c>
       <c r="D223" s="413"/>
       <c r="E223" s="413" t="s">
@@ -29899,7 +29957,7 @@
         <v>51000</v>
       </c>
       <c r="I223" s="433" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="224" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -29907,7 +29965,7 @@
         <v>4</v>
       </c>
       <c r="B224" s="222"/>
-      <c r="C224" s="489" t="s">
+      <c r="C224" s="480" t="s">
         <v>350</v>
       </c>
       <c r="D224" s="413"/>
@@ -29922,7 +29980,7 @@
         <v>6000</v>
       </c>
       <c r="I224" s="433" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="225" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -29930,7 +29988,7 @@
         <v>5</v>
       </c>
       <c r="B225" s="222"/>
-      <c r="C225" s="474" t="s">
+      <c r="C225" s="465" t="s">
         <v>27</v>
       </c>
       <c r="D225" s="222" t="s">
@@ -29951,7 +30009,7 @@
         <v>6</v>
       </c>
       <c r="B226" s="222"/>
-      <c r="C226" s="478" t="s">
+      <c r="C226" s="469" t="s">
         <v>204</v>
       </c>
       <c r="D226" s="413"/>
@@ -29966,7 +30024,7 @@
         <v>5500</v>
       </c>
       <c r="I226" s="433" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="227" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -29974,7 +30032,7 @@
         <v>7</v>
       </c>
       <c r="B227" s="222"/>
-      <c r="C227" s="478" t="s">
+      <c r="C227" s="469" t="s">
         <v>557</v>
       </c>
       <c r="D227" s="413"/>
@@ -29989,7 +30047,7 @@
         <v>18900</v>
       </c>
       <c r="I227" s="433" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="228" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -29997,8 +30055,8 @@
         <v>8</v>
       </c>
       <c r="B228" s="222"/>
-      <c r="C228" s="467" t="s">
-        <v>593</v>
+      <c r="C228" s="458" t="s">
+        <v>592</v>
       </c>
       <c r="D228" s="417"/>
       <c r="E228" s="417"/>
@@ -30015,7 +30073,7 @@
     <row r="229" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="222"/>
       <c r="B229" s="222"/>
-      <c r="C229" s="474"/>
+      <c r="C229" s="465"/>
       <c r="D229" s="222"/>
       <c r="E229" s="222"/>
       <c r="F229" s="222"/>
@@ -30028,7 +30086,7 @@
     <row r="230" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="222"/>
       <c r="B230" s="222"/>
-      <c r="C230" s="474" t="s">
+      <c r="C230" s="465" t="s">
         <v>447</v>
       </c>
       <c r="D230" s="222"/>
@@ -30042,7 +30100,7 @@
     <row r="231" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="222"/>
       <c r="B231" s="222"/>
-      <c r="C231" s="468"/>
+      <c r="C231" s="459"/>
       <c r="D231" s="222"/>
       <c r="E231" s="222"/>
       <c r="F231" s="222"/>
@@ -30057,23 +30115,26 @@
         <v>1</v>
       </c>
       <c r="B232" s="222" t="s">
-        <v>594</v>
-      </c>
-      <c r="C232" s="473" t="s">
+        <v>593</v>
+      </c>
+      <c r="C232" s="467" t="s">
         <v>406</v>
       </c>
-      <c r="D232" s="444"/>
-      <c r="E232" s="444" t="s">
+      <c r="D232" s="413"/>
+      <c r="E232" s="413" t="s">
         <v>14</v>
       </c>
-      <c r="F232" s="444">
+      <c r="F232" s="413">
         <v>7</v>
       </c>
-      <c r="G232" s="481">
+      <c r="G232" s="451">
         <v>4000</v>
       </c>
-      <c r="H232" s="84">
+      <c r="H232" s="374">
         <v>28000</v>
+      </c>
+      <c r="I232" s="101" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="233" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -30081,17 +30142,20 @@
         <v>2</v>
       </c>
       <c r="B233" s="222"/>
-      <c r="C233" s="475" t="s">
+      <c r="C233" s="469" t="s">
         <v>161</v>
       </c>
-      <c r="D233" s="444"/>
-      <c r="E233" s="444"/>
-      <c r="F233" s="444">
-        <v>1</v>
-      </c>
-      <c r="G233" s="444"/>
-      <c r="H233" s="84">
+      <c r="D233" s="413"/>
+      <c r="E233" s="413"/>
+      <c r="F233" s="413">
+        <v>1</v>
+      </c>
+      <c r="G233" s="413"/>
+      <c r="H233" s="374">
         <v>3500</v>
+      </c>
+      <c r="I233" s="101" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="234" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -30099,23 +30163,26 @@
         <v>3</v>
       </c>
       <c r="B234" s="222"/>
-      <c r="C234" s="475" t="s">
+      <c r="C234" s="469" t="s">
         <v>109</v>
       </c>
-      <c r="D234" s="444"/>
-      <c r="E234" s="444"/>
-      <c r="F234" s="444">
-        <v>1</v>
-      </c>
-      <c r="G234" s="444"/>
-      <c r="H234" s="84">
+      <c r="D234" s="413"/>
+      <c r="E234" s="413"/>
+      <c r="F234" s="413">
+        <v>1</v>
+      </c>
+      <c r="G234" s="413"/>
+      <c r="H234" s="374">
         <v>3500</v>
+      </c>
+      <c r="I234" s="101" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="235" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="222"/>
       <c r="B235" s="222"/>
-      <c r="C235" s="480"/>
+      <c r="C235" s="471"/>
       <c r="D235" s="222"/>
       <c r="E235" s="222"/>
       <c r="F235" s="222"/>
@@ -30128,7 +30195,7 @@
     <row r="236" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="222"/>
       <c r="B236" s="222"/>
-      <c r="C236" s="474" t="s">
+      <c r="C236" s="465" t="s">
         <v>518</v>
       </c>
       <c r="D236" s="222"/>
@@ -30142,7 +30209,7 @@
     <row r="237" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="222"/>
       <c r="B237" s="222"/>
-      <c r="C237" s="468"/>
+      <c r="C237" s="459"/>
       <c r="D237" s="222"/>
       <c r="E237" s="222"/>
       <c r="F237" s="222"/>
@@ -30158,22 +30225,22 @@
         <v>1</v>
       </c>
       <c r="B238" s="222" t="s">
-        <v>595</v>
-      </c>
-      <c r="C238" s="473" t="s">
+        <v>594</v>
+      </c>
+      <c r="C238" s="476" t="s">
         <v>406</v>
       </c>
-      <c r="D238" s="444"/>
-      <c r="E238" s="444" t="s">
+      <c r="D238" s="477"/>
+      <c r="E238" s="477" t="s">
         <v>14</v>
       </c>
-      <c r="F238" s="444">
+      <c r="F238" s="477">
         <v>6</v>
       </c>
-      <c r="G238" s="481">
+      <c r="G238" s="478">
         <v>4000</v>
       </c>
-      <c r="H238" s="84">
+      <c r="H238" s="353">
         <v>24000</v>
       </c>
     </row>
@@ -30182,19 +30249,22 @@
         <v>2</v>
       </c>
       <c r="B239" s="222"/>
-      <c r="C239" s="475" t="s">
-        <v>596</v>
-      </c>
-      <c r="D239" s="444"/>
-      <c r="E239" s="444" t="s">
+      <c r="C239" s="469" t="s">
+        <v>595</v>
+      </c>
+      <c r="D239" s="413"/>
+      <c r="E239" s="413" t="s">
         <v>22</v>
       </c>
-      <c r="F239" s="444">
-        <v>1</v>
-      </c>
-      <c r="G239" s="444"/>
-      <c r="H239" s="84">
+      <c r="F239" s="413">
+        <v>1</v>
+      </c>
+      <c r="G239" s="413"/>
+      <c r="H239" s="374">
         <v>21500</v>
+      </c>
+      <c r="I239" s="101" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="240" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -30202,23 +30272,26 @@
         <v>3</v>
       </c>
       <c r="B240" s="222"/>
-      <c r="C240" s="475" t="s">
+      <c r="C240" s="469" t="s">
         <v>109</v>
       </c>
-      <c r="D240" s="444"/>
-      <c r="E240" s="444"/>
-      <c r="F240" s="444">
-        <v>1</v>
-      </c>
-      <c r="G240" s="444"/>
-      <c r="H240" s="84">
+      <c r="D240" s="413"/>
+      <c r="E240" s="413"/>
+      <c r="F240" s="413">
+        <v>1</v>
+      </c>
+      <c r="G240" s="413"/>
+      <c r="H240" s="374">
         <v>3500</v>
       </c>
-    </row>
-    <row r="241" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I240" s="101" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="222"/>
       <c r="B241" s="222"/>
-      <c r="C241" s="480"/>
+      <c r="C241" s="471"/>
       <c r="D241" s="222"/>
       <c r="E241" s="222"/>
       <c r="F241" s="222"/>
@@ -30228,10 +30301,10 @@
         <v>49000</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="222"/>
       <c r="B242" s="222"/>
-      <c r="C242" s="474" t="s">
+      <c r="C242" s="465" t="s">
         <v>518</v>
       </c>
       <c r="D242" s="222"/>
@@ -30242,11 +30315,11 @@
         <v>25500</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="222"/>
       <c r="B243" s="222"/>
-      <c r="C243" s="468" t="s">
-        <v>597</v>
+      <c r="C243" s="459" t="s">
+        <v>596</v>
       </c>
       <c r="D243" s="222"/>
       <c r="E243" s="222"/>
@@ -30256,10 +30329,10 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="222"/>
       <c r="B244" s="222"/>
-      <c r="C244" s="468"/>
+      <c r="C244" s="459"/>
       <c r="D244" s="222"/>
       <c r="E244" s="222"/>
       <c r="F244" s="222"/>
@@ -30269,775 +30342,1508 @@
         <v>76500</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="422"/>
-      <c r="B245" s="422"/>
-      <c r="C245" s="192"/>
-      <c r="D245" s="83"/>
-      <c r="E245" s="83"/>
-      <c r="F245" s="83"/>
-      <c r="G245" s="84"/>
-      <c r="H245" s="84"/>
-    </row>
-    <row r="246" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="422"/>
-      <c r="B246" s="422"/>
-      <c r="C246" s="192"/>
-      <c r="D246" s="83"/>
-      <c r="E246" s="83"/>
-      <c r="F246" s="83"/>
-      <c r="G246" s="84"/>
-      <c r="H246" s="84"/>
-    </row>
-    <row r="247" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="422"/>
-      <c r="B247" s="422"/>
-      <c r="C247" s="192"/>
-      <c r="D247" s="83"/>
-      <c r="E247" s="83"/>
-      <c r="F247" s="83"/>
-      <c r="G247" s="84"/>
-      <c r="H247" s="84"/>
-    </row>
-    <row r="248" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="422"/>
-      <c r="B248" s="422"/>
-      <c r="C248" s="192"/>
-      <c r="D248" s="83"/>
-      <c r="E248" s="83"/>
-      <c r="F248" s="83"/>
-      <c r="G248" s="84"/>
-      <c r="H248" s="84"/>
-    </row>
-    <row r="249" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="422"/>
-      <c r="B249" s="422"/>
-      <c r="C249" s="388"/>
-      <c r="D249" s="83"/>
-      <c r="E249" s="83"/>
-      <c r="F249" s="83"/>
-      <c r="G249" s="446"/>
-      <c r="H249" s="390"/>
-    </row>
-    <row r="250" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="422"/>
-      <c r="B250" s="422"/>
-      <c r="C250" s="192"/>
-      <c r="D250" s="445"/>
-      <c r="E250" s="83"/>
-      <c r="F250" s="83"/>
-      <c r="G250" s="446"/>
-      <c r="H250" s="84"/>
-    </row>
-    <row r="251" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="424"/>
-      <c r="B251" s="424"/>
-      <c r="C251" s="438"/>
-      <c r="D251" s="447"/>
-      <c r="E251" s="95"/>
-      <c r="F251" s="83"/>
-      <c r="G251" s="447"/>
-      <c r="H251" s="85"/>
-    </row>
-    <row r="252" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="424"/>
-      <c r="B252" s="424"/>
-      <c r="C252" s="97"/>
-      <c r="D252" s="82"/>
-      <c r="E252" s="447"/>
-      <c r="F252" s="447"/>
-      <c r="G252" s="447"/>
-      <c r="H252" s="85"/>
-    </row>
-    <row r="253" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="424"/>
-      <c r="B253" s="424"/>
-      <c r="C253" s="447"/>
-      <c r="D253" s="447"/>
-      <c r="E253" s="447"/>
-      <c r="F253" s="447"/>
-      <c r="G253" s="447"/>
-      <c r="H253" s="441"/>
-    </row>
-    <row r="254" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="4"/>
-      <c r="B254" s="4"/>
-      <c r="C254" s="387"/>
-      <c r="D254" s="83"/>
-      <c r="E254" s="83"/>
-      <c r="F254" s="83"/>
-      <c r="G254" s="84"/>
-      <c r="H254" s="84"/>
-    </row>
-    <row r="255" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="4"/>
-      <c r="B255" s="4"/>
-      <c r="C255" s="192"/>
-      <c r="D255" s="83"/>
-      <c r="E255" s="83"/>
-      <c r="F255" s="83"/>
-      <c r="G255" s="84"/>
-      <c r="H255" s="84"/>
-    </row>
-    <row r="256" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="4"/>
-      <c r="B256" s="4"/>
-      <c r="C256" s="192"/>
-      <c r="D256" s="83"/>
-      <c r="E256" s="83"/>
-      <c r="F256" s="83"/>
-      <c r="G256" s="84"/>
-      <c r="H256" s="84"/>
-    </row>
-    <row r="257" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="4"/>
-      <c r="B257" s="4"/>
-      <c r="C257" s="192"/>
-      <c r="D257" s="83"/>
-      <c r="E257" s="83"/>
-      <c r="F257" s="83"/>
+    <row r="245" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="222">
+        <v>1</v>
+      </c>
+      <c r="B245" s="222" t="s">
+        <v>597</v>
+      </c>
+      <c r="C245" s="464" t="s">
+        <v>125</v>
+      </c>
+      <c r="D245" s="441" t="s">
+        <v>254</v>
+      </c>
+      <c r="E245" s="441"/>
+      <c r="F245" s="441">
+        <v>8</v>
+      </c>
+      <c r="G245" s="472">
+        <v>3800</v>
+      </c>
+      <c r="H245" s="84">
+        <v>30400</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="222">
+        <v>2</v>
+      </c>
+      <c r="B246" s="222"/>
+      <c r="C246" s="466" t="s">
+        <v>600</v>
+      </c>
+      <c r="D246" s="441" t="s">
+        <v>254</v>
+      </c>
+      <c r="E246" s="441"/>
+      <c r="F246" s="441">
+        <v>1</v>
+      </c>
+      <c r="G246" s="441"/>
+      <c r="H246" s="84">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="222">
+        <v>3</v>
+      </c>
+      <c r="B247" s="222"/>
+      <c r="C247" s="469" t="s">
+        <v>601</v>
+      </c>
+      <c r="D247" s="413"/>
+      <c r="E247" s="413"/>
+      <c r="F247" s="413">
+        <v>1</v>
+      </c>
+      <c r="G247" s="413"/>
+      <c r="H247" s="374">
+        <v>4700</v>
+      </c>
+      <c r="I247" s="101" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="222">
+        <v>4</v>
+      </c>
+      <c r="B248" s="222"/>
+      <c r="C248" s="480" t="s">
+        <v>299</v>
+      </c>
+      <c r="D248" s="413"/>
+      <c r="E248" s="413" t="s">
+        <v>22</v>
+      </c>
+      <c r="F248" s="413">
+        <v>1</v>
+      </c>
+      <c r="G248" s="413"/>
+      <c r="H248" s="374">
+        <v>23400</v>
+      </c>
+      <c r="I248" s="101" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="222">
+        <v>5</v>
+      </c>
+      <c r="B249" s="222"/>
+      <c r="C249" s="467" t="s">
+        <v>197</v>
+      </c>
+      <c r="D249" s="413"/>
+      <c r="E249" s="413" t="s">
+        <v>14</v>
+      </c>
+      <c r="F249" s="413">
+        <v>1</v>
+      </c>
+      <c r="G249" s="413"/>
+      <c r="H249" s="374">
+        <v>6500</v>
+      </c>
+      <c r="I249" s="101" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="222">
+        <v>5</v>
+      </c>
+      <c r="B250" s="222"/>
+      <c r="C250" s="469" t="s">
+        <v>127</v>
+      </c>
+      <c r="D250" s="413"/>
+      <c r="E250" s="413"/>
+      <c r="F250" s="413">
+        <v>1</v>
+      </c>
+      <c r="G250" s="413"/>
+      <c r="H250" s="374">
+        <v>2500</v>
+      </c>
+      <c r="I250" s="101" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="222"/>
+      <c r="B251" s="222"/>
+      <c r="C251" s="459"/>
+      <c r="D251" s="222"/>
+      <c r="E251" s="222"/>
+      <c r="F251" s="222"/>
+      <c r="G251" s="222"/>
+      <c r="H251" s="223">
+        <f>SUM(H245:H250)</f>
+        <v>70500</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="222"/>
+      <c r="B252" s="222"/>
+      <c r="C252" s="471" t="s">
+        <v>599</v>
+      </c>
+      <c r="D252" s="222"/>
+      <c r="E252" s="222"/>
+      <c r="F252" s="222"/>
+      <c r="G252" s="222"/>
+      <c r="H252" s="50">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="222"/>
+      <c r="B253" s="222"/>
+      <c r="C253" s="459" t="s">
+        <v>390</v>
+      </c>
+      <c r="D253" s="222"/>
+      <c r="E253" s="222"/>
+      <c r="F253" s="222">
+        <v>3</v>
+      </c>
+      <c r="G253" s="222">
+        <v>3800</v>
+      </c>
+      <c r="H253" s="50">
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="222"/>
+      <c r="B254" s="222"/>
+      <c r="C254" s="467" t="s">
+        <v>406</v>
+      </c>
+      <c r="D254" s="413" t="s">
+        <v>598</v>
+      </c>
+      <c r="E254" s="413" t="s">
+        <v>14</v>
+      </c>
+      <c r="F254" s="413">
+        <v>14</v>
+      </c>
+      <c r="G254" s="413">
+        <v>4000</v>
+      </c>
+      <c r="H254" s="374">
+        <v>56000</v>
+      </c>
+      <c r="I254" s="101" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="222"/>
+      <c r="B255" s="222"/>
+      <c r="C255" s="465" t="s">
+        <v>563</v>
+      </c>
+      <c r="D255" s="222"/>
+      <c r="E255" s="222"/>
+      <c r="F255" s="222"/>
+      <c r="G255" s="222"/>
+      <c r="H255" s="50">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="26"/>
+      <c r="B256" s="26"/>
+      <c r="C256" s="467" t="s">
+        <v>109</v>
+      </c>
+      <c r="D256" s="475" t="s">
+        <v>602</v>
+      </c>
+      <c r="E256" s="413"/>
+      <c r="F256" s="413">
+        <v>1</v>
+      </c>
+      <c r="G256" s="374"/>
+      <c r="H256" s="374">
+        <v>3500</v>
+      </c>
+      <c r="I256" s="101" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="222"/>
+      <c r="B257" s="222"/>
+      <c r="C257" s="464"/>
+      <c r="D257" s="441"/>
+      <c r="E257" s="441"/>
+      <c r="F257" s="441"/>
       <c r="G257" s="84"/>
-      <c r="H257" s="84"/>
-    </row>
-    <row r="258" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="4"/>
-      <c r="B258" s="4"/>
-      <c r="C258" s="448"/>
-      <c r="D258" s="235"/>
-      <c r="E258" s="235"/>
-      <c r="F258" s="235"/>
-      <c r="G258" s="353"/>
-      <c r="H258" s="449"/>
-    </row>
-    <row r="259" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="4"/>
-      <c r="B259" s="4"/>
-      <c r="C259" s="192"/>
-      <c r="D259" s="83"/>
-      <c r="E259" s="83"/>
-      <c r="F259" s="83"/>
-      <c r="G259" s="84"/>
-      <c r="H259" s="84"/>
-    </row>
-    <row r="260" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="4"/>
-      <c r="B260" s="4"/>
-      <c r="C260" s="192"/>
-      <c r="D260" s="83"/>
-      <c r="E260" s="83"/>
-      <c r="F260" s="83"/>
-      <c r="G260" s="84"/>
-      <c r="H260" s="84"/>
-    </row>
-    <row r="261" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="4"/>
-      <c r="B261" s="4"/>
-      <c r="C261" s="435"/>
-      <c r="D261" s="83"/>
-      <c r="E261" s="83"/>
-      <c r="F261" s="83"/>
-      <c r="G261" s="84"/>
-      <c r="H261" s="84"/>
-    </row>
-    <row r="262" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="4"/>
-      <c r="B262" s="4"/>
-      <c r="C262" s="443"/>
-      <c r="D262" s="83"/>
-      <c r="E262" s="83"/>
-      <c r="F262" s="83"/>
-      <c r="G262" s="84"/>
-      <c r="H262" s="391"/>
-    </row>
-    <row r="263" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="4"/>
-      <c r="B263" s="4"/>
-      <c r="C263" s="387"/>
-      <c r="D263" s="83"/>
-      <c r="E263" s="83"/>
-      <c r="F263" s="83"/>
-      <c r="G263" s="84"/>
-      <c r="H263" s="84"/>
-    </row>
-    <row r="264" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="4"/>
-      <c r="B264" s="4"/>
-      <c r="C264" s="192"/>
-      <c r="D264" s="83"/>
-      <c r="E264" s="83"/>
-      <c r="F264" s="83"/>
-      <c r="G264" s="84"/>
-      <c r="H264" s="84"/>
-    </row>
-    <row r="265" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="4"/>
-      <c r="B265" s="4"/>
-      <c r="C265" s="192"/>
-      <c r="D265" s="83"/>
-      <c r="E265" s="83"/>
-      <c r="F265" s="83"/>
-      <c r="G265" s="84"/>
-      <c r="H265" s="84"/>
-    </row>
-    <row r="266" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="4"/>
-      <c r="B266" s="4"/>
-      <c r="C266" s="192"/>
-      <c r="D266" s="83"/>
-      <c r="E266" s="83"/>
-      <c r="F266" s="83"/>
-      <c r="G266" s="84"/>
-      <c r="H266" s="84"/>
-    </row>
-    <row r="267" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="4"/>
-      <c r="B267" s="4"/>
-      <c r="C267" s="439"/>
-      <c r="D267" s="235"/>
-      <c r="E267" s="235"/>
-      <c r="F267" s="437"/>
-      <c r="G267" s="353"/>
-      <c r="H267" s="440"/>
-    </row>
-    <row r="268" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="4"/>
-      <c r="B268" s="4"/>
-      <c r="C268" s="192"/>
-      <c r="D268" s="83"/>
-      <c r="E268" s="83"/>
-      <c r="F268" s="83"/>
-      <c r="G268" s="84"/>
-      <c r="H268" s="84"/>
-    </row>
-    <row r="269" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="4"/>
-      <c r="B269" s="4"/>
-      <c r="C269" s="192"/>
-      <c r="D269" s="83"/>
-      <c r="E269" s="83"/>
-      <c r="F269" s="83"/>
-      <c r="G269" s="84"/>
-      <c r="H269" s="84"/>
-    </row>
-    <row r="270" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="4"/>
-      <c r="B270" s="4"/>
-      <c r="C270" s="435"/>
-      <c r="D270" s="83"/>
-      <c r="E270" s="83"/>
-      <c r="F270" s="83"/>
-      <c r="G270" s="84"/>
-      <c r="H270" s="84"/>
-    </row>
-    <row r="271" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="4"/>
-      <c r="B271" s="4"/>
-      <c r="C271" s="192"/>
-      <c r="D271" s="83"/>
-      <c r="E271" s="83"/>
-      <c r="F271" s="83"/>
-      <c r="G271" s="84"/>
-      <c r="H271" s="84"/>
-    </row>
-    <row r="272" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="4"/>
-      <c r="B272" s="4"/>
-      <c r="C272" s="443"/>
-      <c r="D272" s="83"/>
-      <c r="E272" s="83"/>
-      <c r="F272" s="83"/>
-      <c r="G272" s="84"/>
-      <c r="H272" s="390"/>
-    </row>
-    <row r="273" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="4"/>
-      <c r="B273" s="4"/>
-      <c r="C273" s="192"/>
-      <c r="D273" s="83"/>
-      <c r="E273" s="83"/>
-      <c r="F273" s="83"/>
-      <c r="G273" s="84"/>
-      <c r="H273" s="84"/>
-    </row>
-    <row r="274" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="4"/>
-      <c r="B274" s="4"/>
-      <c r="C274" s="192"/>
-      <c r="D274" s="83"/>
-      <c r="E274" s="83"/>
-      <c r="F274" s="83"/>
-      <c r="G274" s="84"/>
-      <c r="H274" s="84"/>
-    </row>
-    <row r="275" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="4"/>
-      <c r="B275" s="4"/>
-      <c r="C275" s="443"/>
-      <c r="D275" s="83"/>
-      <c r="E275" s="83"/>
-      <c r="F275" s="83"/>
-      <c r="G275" s="84"/>
-      <c r="H275" s="390"/>
-    </row>
-    <row r="276" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="4"/>
-      <c r="B276" s="4"/>
-      <c r="C276" s="387"/>
-      <c r="D276" s="83"/>
-      <c r="E276" s="83"/>
-      <c r="F276" s="83"/>
-      <c r="G276" s="84"/>
-      <c r="H276" s="84"/>
-    </row>
-    <row r="277" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="4"/>
-      <c r="B277" s="4"/>
-      <c r="C277" s="192"/>
-      <c r="D277" s="83"/>
-      <c r="E277" s="83"/>
-      <c r="F277" s="83"/>
-      <c r="G277" s="84"/>
-      <c r="H277" s="84"/>
-    </row>
-    <row r="278" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="4"/>
-      <c r="B278" s="4"/>
-      <c r="C278" s="192"/>
-      <c r="D278" s="83"/>
-      <c r="E278" s="83"/>
-      <c r="F278" s="83"/>
-      <c r="G278" s="84"/>
-      <c r="H278" s="84"/>
-    </row>
-    <row r="279" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="4"/>
-      <c r="B279" s="4"/>
-      <c r="C279" s="192"/>
-      <c r="D279" s="83"/>
-      <c r="E279" s="83"/>
-      <c r="F279" s="83"/>
-      <c r="G279" s="84"/>
-      <c r="H279" s="84"/>
-    </row>
-    <row r="280" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="4"/>
-      <c r="B280" s="4"/>
-      <c r="C280" s="439"/>
-      <c r="D280" s="235"/>
-      <c r="E280" s="235"/>
-      <c r="F280" s="437"/>
-      <c r="G280" s="353"/>
-      <c r="H280" s="450"/>
-    </row>
-    <row r="281" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="4"/>
-      <c r="B281" s="4"/>
-      <c r="C281" s="192"/>
-      <c r="D281" s="83"/>
-      <c r="E281" s="83"/>
-      <c r="F281" s="83"/>
-      <c r="G281" s="84"/>
-      <c r="H281" s="84"/>
-    </row>
-    <row r="282" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="4"/>
-      <c r="B282" s="4"/>
-      <c r="C282" s="192"/>
-      <c r="D282" s="83"/>
-      <c r="E282" s="83"/>
-      <c r="F282" s="83"/>
-      <c r="G282" s="84"/>
-      <c r="H282" s="84"/>
-    </row>
-    <row r="283" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="4"/>
-      <c r="B283" s="4"/>
-      <c r="C283" s="435"/>
-      <c r="D283" s="83"/>
-      <c r="E283" s="83"/>
-      <c r="F283" s="83"/>
-      <c r="G283" s="84"/>
-      <c r="H283" s="391"/>
-    </row>
-    <row r="284" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="4"/>
-      <c r="B284" s="4"/>
-      <c r="C284" s="389"/>
-      <c r="D284" s="235"/>
-      <c r="E284" s="235"/>
-      <c r="F284" s="235"/>
-      <c r="G284" s="353"/>
-      <c r="H284" s="353"/>
-    </row>
-    <row r="285" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="4"/>
-      <c r="B285" s="4"/>
-      <c r="C285" s="192"/>
-      <c r="D285" s="83"/>
-      <c r="E285" s="83"/>
-      <c r="F285" s="83"/>
-      <c r="G285" s="84"/>
-      <c r="H285" s="84"/>
-    </row>
-    <row r="286" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="4"/>
-      <c r="B286" s="4"/>
-      <c r="C286" s="192"/>
-      <c r="D286" s="83"/>
-      <c r="E286" s="83"/>
-      <c r="F286" s="83"/>
-      <c r="G286" s="84"/>
-      <c r="H286" s="84"/>
-    </row>
-    <row r="287" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="4"/>
-      <c r="B287" s="4"/>
-      <c r="C287" s="192"/>
-      <c r="D287" s="83"/>
-      <c r="E287" s="83"/>
-      <c r="F287" s="83"/>
-      <c r="G287" s="84"/>
-      <c r="H287" s="84"/>
-    </row>
-    <row r="288" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="4"/>
-      <c r="B288" s="4"/>
-      <c r="C288" s="439"/>
-      <c r="D288" s="235"/>
-      <c r="E288" s="235"/>
-      <c r="F288" s="437"/>
-      <c r="G288" s="440"/>
-      <c r="H288" s="440"/>
-    </row>
-    <row r="289" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="4"/>
-      <c r="B289" s="4"/>
-      <c r="C289" s="192"/>
-      <c r="D289" s="83"/>
-      <c r="E289" s="83"/>
-      <c r="F289" s="83"/>
-      <c r="G289" s="84"/>
-      <c r="H289" s="84"/>
-    </row>
-    <row r="290" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="4"/>
-      <c r="B290" s="4"/>
-      <c r="C290" s="192"/>
-      <c r="D290" s="83"/>
-      <c r="E290" s="83"/>
-      <c r="F290" s="83"/>
-      <c r="G290" s="84"/>
-      <c r="H290" s="84"/>
-    </row>
-    <row r="291" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="4"/>
-      <c r="B291" s="4"/>
-      <c r="C291" s="436"/>
-      <c r="D291" s="437"/>
-      <c r="E291" s="437"/>
-      <c r="F291" s="437"/>
-      <c r="G291" s="440"/>
-      <c r="H291" s="440"/>
-    </row>
-    <row r="292" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="4"/>
-      <c r="B292" s="4"/>
-      <c r="C292" s="192"/>
-      <c r="D292" s="83"/>
-      <c r="E292" s="83"/>
-      <c r="F292" s="83"/>
-      <c r="G292" s="84"/>
-      <c r="H292" s="84"/>
-    </row>
-    <row r="293" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="4"/>
-      <c r="B293" s="4"/>
-      <c r="C293" s="443"/>
-      <c r="D293" s="83"/>
-      <c r="E293" s="83"/>
-      <c r="F293" s="83"/>
-      <c r="G293" s="84"/>
-      <c r="H293" s="390"/>
-    </row>
-    <row r="294" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="4"/>
-      <c r="B294" s="4"/>
-      <c r="C294" s="192"/>
-      <c r="D294" s="83"/>
-      <c r="E294" s="83"/>
-      <c r="F294" s="83"/>
+      <c r="H257" s="390">
+        <f>SUM(H251:H256)</f>
+        <v>165900</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="222">
+        <v>1</v>
+      </c>
+      <c r="B258" s="222" t="s">
+        <v>603</v>
+      </c>
+      <c r="C258" s="464" t="s">
+        <v>604</v>
+      </c>
+      <c r="D258" s="441"/>
+      <c r="E258" s="441"/>
+      <c r="F258" s="441">
+        <v>1</v>
+      </c>
+      <c r="G258" s="472"/>
+      <c r="H258" s="84">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="222">
+        <v>2</v>
+      </c>
+      <c r="B259" s="222"/>
+      <c r="C259" s="466" t="s">
+        <v>160</v>
+      </c>
+      <c r="D259" s="441"/>
+      <c r="E259" s="441" t="s">
+        <v>14</v>
+      </c>
+      <c r="F259" s="441">
+        <v>2</v>
+      </c>
+      <c r="G259" s="441">
+        <v>11000</v>
+      </c>
+      <c r="H259" s="84">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="222">
+        <v>3</v>
+      </c>
+      <c r="B260" s="222"/>
+      <c r="C260" s="469" t="s">
+        <v>406</v>
+      </c>
+      <c r="D260" s="413"/>
+      <c r="E260" s="413" t="s">
+        <v>14</v>
+      </c>
+      <c r="F260" s="413">
+        <v>1</v>
+      </c>
+      <c r="G260" s="413"/>
+      <c r="H260" s="374">
+        <v>4000</v>
+      </c>
+      <c r="I260" s="101" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="222">
+        <v>4</v>
+      </c>
+      <c r="B261" s="222"/>
+      <c r="C261" s="480" t="s">
+        <v>197</v>
+      </c>
+      <c r="D261" s="413"/>
+      <c r="E261" s="413" t="s">
+        <v>22</v>
+      </c>
+      <c r="F261" s="413">
+        <v>1</v>
+      </c>
+      <c r="G261" s="413"/>
+      <c r="H261" s="374">
+        <v>24500</v>
+      </c>
+      <c r="I261" s="101" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="222">
+        <v>5</v>
+      </c>
+      <c r="B262" s="222"/>
+      <c r="C262" s="467" t="s">
+        <v>127</v>
+      </c>
+      <c r="D262" s="413"/>
+      <c r="E262" s="413"/>
+      <c r="F262" s="413">
+        <v>1</v>
+      </c>
+      <c r="G262" s="413"/>
+      <c r="H262" s="374">
+        <v>2500</v>
+      </c>
+      <c r="I262" s="101" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="222">
+        <v>5</v>
+      </c>
+      <c r="B263" s="222"/>
+      <c r="C263" s="469" t="s">
+        <v>109</v>
+      </c>
+      <c r="D263" s="413"/>
+      <c r="E263" s="413"/>
+      <c r="F263" s="413">
+        <v>4</v>
+      </c>
+      <c r="G263" s="374">
+        <v>3500</v>
+      </c>
+      <c r="H263" s="374">
+        <v>14000</v>
+      </c>
+      <c r="I263" s="101" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="222"/>
+      <c r="B264" s="222"/>
+      <c r="C264" s="459"/>
+      <c r="D264" s="222"/>
+      <c r="E264" s="222"/>
+      <c r="F264" s="222"/>
+      <c r="G264" s="222"/>
+      <c r="H264" s="223">
+        <f>SUM(H258:H263)</f>
+        <v>70500</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="222"/>
+      <c r="B265" s="222"/>
+      <c r="C265" s="471" t="s">
+        <v>518</v>
+      </c>
+      <c r="D265" s="222"/>
+      <c r="E265" s="222"/>
+      <c r="F265" s="222"/>
+      <c r="G265" s="222"/>
+      <c r="H265" s="50">
+        <v>25500</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="222"/>
+      <c r="B266" s="222"/>
+      <c r="C266" s="459"/>
+      <c r="D266" s="222"/>
+      <c r="E266" s="222"/>
+      <c r="F266" s="222"/>
+      <c r="G266" s="222"/>
+      <c r="H266" s="223">
+        <f>SUM(H264:H265)</f>
+        <v>96000</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="222">
+        <v>1</v>
+      </c>
+      <c r="B267" s="222" t="s">
+        <v>605</v>
+      </c>
+      <c r="C267" s="464" t="s">
+        <v>612</v>
+      </c>
+      <c r="D267" s="441" t="s">
+        <v>254</v>
+      </c>
+      <c r="E267" s="441"/>
+      <c r="F267" s="441">
+        <v>2</v>
+      </c>
+      <c r="G267" s="463">
+        <v>16000</v>
+      </c>
+      <c r="H267" s="84">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="222">
+        <v>2</v>
+      </c>
+      <c r="B268" s="222"/>
+      <c r="C268" s="469" t="s">
+        <v>606</v>
+      </c>
+      <c r="D268" s="413"/>
+      <c r="E268" s="413"/>
+      <c r="F268" s="413">
+        <v>1</v>
+      </c>
+      <c r="G268" s="413"/>
+      <c r="H268" s="374">
+        <v>3000</v>
+      </c>
+      <c r="I268" s="101" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="222">
+        <v>3</v>
+      </c>
+      <c r="B269" s="222"/>
+      <c r="C269" s="469" t="s">
+        <v>607</v>
+      </c>
+      <c r="D269" s="413"/>
+      <c r="E269" s="413"/>
+      <c r="F269" s="413">
+        <v>1</v>
+      </c>
+      <c r="G269" s="413"/>
+      <c r="H269" s="374">
+        <v>23400</v>
+      </c>
+      <c r="I269" s="101" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="222">
+        <v>4</v>
+      </c>
+      <c r="B270" s="222"/>
+      <c r="C270" s="480" t="s">
+        <v>121</v>
+      </c>
+      <c r="D270" s="413"/>
+      <c r="E270" s="413" t="s">
+        <v>14</v>
+      </c>
+      <c r="F270" s="413">
+        <v>2</v>
+      </c>
+      <c r="G270" s="413">
+        <v>11500</v>
+      </c>
+      <c r="H270" s="374">
+        <v>23000</v>
+      </c>
+      <c r="I270" s="101" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="222">
+        <v>5</v>
+      </c>
+      <c r="B271" s="222"/>
+      <c r="C271" s="470" t="s">
+        <v>436</v>
+      </c>
+      <c r="D271" s="417"/>
+      <c r="E271" s="417"/>
+      <c r="F271" s="417">
+        <v>1</v>
+      </c>
+      <c r="G271" s="417"/>
+      <c r="H271" s="79">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="222">
+        <v>6</v>
+      </c>
+      <c r="B272" s="222"/>
+      <c r="C272" s="459" t="s">
+        <v>608</v>
+      </c>
+      <c r="D272" s="222"/>
+      <c r="E272" s="222"/>
+      <c r="F272" s="222">
+        <v>1</v>
+      </c>
+      <c r="G272" s="50"/>
+      <c r="H272" s="50">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="222">
+        <v>7</v>
+      </c>
+      <c r="B273" s="222"/>
+      <c r="C273" s="469" t="s">
+        <v>609</v>
+      </c>
+      <c r="D273" s="413"/>
+      <c r="E273" s="413"/>
+      <c r="F273" s="413">
+        <v>1</v>
+      </c>
+      <c r="G273" s="413"/>
+      <c r="H273" s="374">
+        <v>4500</v>
+      </c>
+      <c r="I273" s="101" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="222">
+        <v>8</v>
+      </c>
+      <c r="B274" s="222"/>
+      <c r="C274" s="469" t="s">
+        <v>161</v>
+      </c>
+      <c r="D274" s="413"/>
+      <c r="E274" s="413"/>
+      <c r="F274" s="413">
+        <v>1</v>
+      </c>
+      <c r="G274" s="413"/>
+      <c r="H274" s="374">
+        <v>3500</v>
+      </c>
+      <c r="I274" s="101" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="222">
+        <v>9</v>
+      </c>
+      <c r="B275" s="222"/>
+      <c r="C275" s="469" t="s">
+        <v>400</v>
+      </c>
+      <c r="D275" s="413"/>
+      <c r="E275" s="413"/>
+      <c r="F275" s="413">
+        <v>1</v>
+      </c>
+      <c r="G275" s="413"/>
+      <c r="H275" s="374">
+        <v>3300</v>
+      </c>
+      <c r="I275" s="101" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="222">
+        <v>10</v>
+      </c>
+      <c r="B276" s="222"/>
+      <c r="C276" s="459" t="s">
+        <v>78</v>
+      </c>
+      <c r="D276" s="222" t="s">
+        <v>319</v>
+      </c>
+      <c r="E276" s="222"/>
+      <c r="F276" s="222">
+        <v>2</v>
+      </c>
+      <c r="G276" s="222">
+        <v>9000</v>
+      </c>
+      <c r="H276" s="50">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="222">
+        <v>11</v>
+      </c>
+      <c r="B277" s="222"/>
+      <c r="C277" s="480" t="s">
+        <v>176</v>
+      </c>
+      <c r="D277" s="413"/>
+      <c r="E277" s="413" t="s">
+        <v>22</v>
+      </c>
+      <c r="F277" s="413">
+        <v>2</v>
+      </c>
+      <c r="G277" s="413">
+        <v>34500</v>
+      </c>
+      <c r="H277" s="374">
+        <v>69000</v>
+      </c>
+      <c r="I277" s="101" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="222">
+        <v>12</v>
+      </c>
+      <c r="B278" s="222"/>
+      <c r="C278" s="469" t="s">
+        <v>610</v>
+      </c>
+      <c r="D278" s="413"/>
+      <c r="E278" s="413"/>
+      <c r="F278" s="413">
+        <v>2</v>
+      </c>
+      <c r="G278" s="413">
+        <v>2500</v>
+      </c>
+      <c r="H278" s="374">
+        <v>5000</v>
+      </c>
+      <c r="I278" s="101" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="222">
+        <v>13</v>
+      </c>
+      <c r="B279" s="222"/>
+      <c r="C279" s="484" t="s">
+        <v>611</v>
+      </c>
+      <c r="D279" s="417"/>
+      <c r="E279" s="417"/>
+      <c r="F279" s="417">
+        <v>4</v>
+      </c>
+      <c r="G279" s="417">
+        <v>3000</v>
+      </c>
+      <c r="H279" s="79">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="222">
+        <v>14</v>
+      </c>
+      <c r="B280" s="222"/>
+      <c r="C280" s="467" t="s">
+        <v>320</v>
+      </c>
+      <c r="D280" s="413"/>
+      <c r="E280" s="413"/>
+      <c r="F280" s="413">
+        <v>1</v>
+      </c>
+      <c r="G280" s="413"/>
+      <c r="H280" s="374">
+        <v>3150</v>
+      </c>
+      <c r="I280" s="101" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="222">
+        <v>15</v>
+      </c>
+      <c r="B281" s="26"/>
+      <c r="C281" s="467" t="s">
+        <v>200</v>
+      </c>
+      <c r="D281" s="475"/>
+      <c r="E281" s="413" t="s">
+        <v>8</v>
+      </c>
+      <c r="F281" s="413">
+        <v>1</v>
+      </c>
+      <c r="G281" s="413"/>
+      <c r="H281" s="374">
+        <v>44500</v>
+      </c>
+      <c r="I281" s="101" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="222">
+        <v>16</v>
+      </c>
+      <c r="B282" s="222"/>
+      <c r="C282" s="467" t="s">
+        <v>200</v>
+      </c>
+      <c r="D282" s="413"/>
+      <c r="E282" s="413" t="s">
+        <v>14</v>
+      </c>
+      <c r="F282" s="413">
+        <v>2</v>
+      </c>
+      <c r="G282" s="413">
+        <v>12000</v>
+      </c>
+      <c r="H282" s="374">
+        <v>24000</v>
+      </c>
+      <c r="I282" s="101" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="222">
+        <v>17</v>
+      </c>
+      <c r="B283" s="222"/>
+      <c r="C283" s="464" t="s">
+        <v>551</v>
+      </c>
+      <c r="D283" s="441" t="s">
+        <v>85</v>
+      </c>
+      <c r="E283" s="441"/>
+      <c r="F283" s="441">
+        <v>2</v>
+      </c>
+      <c r="G283" s="222">
+        <v>31000</v>
+      </c>
+      <c r="H283" s="50">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="222">
+        <v>18</v>
+      </c>
+      <c r="B284" s="222"/>
+      <c r="C284" s="464" t="s">
+        <v>552</v>
+      </c>
+      <c r="D284" s="441" t="s">
+        <v>85</v>
+      </c>
+      <c r="E284" s="441"/>
+      <c r="F284" s="441">
+        <v>2</v>
+      </c>
+      <c r="G284" s="222">
+        <v>26000</v>
+      </c>
+      <c r="H284" s="50">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="222">
+        <v>19</v>
+      </c>
+      <c r="B285" s="222"/>
+      <c r="C285" s="467" t="s">
+        <v>228</v>
+      </c>
+      <c r="D285" s="413"/>
+      <c r="E285" s="413" t="s">
+        <v>14</v>
+      </c>
+      <c r="F285" s="413">
+        <v>5</v>
+      </c>
+      <c r="G285" s="413">
+        <v>7000</v>
+      </c>
+      <c r="H285" s="374">
+        <v>35000</v>
+      </c>
+      <c r="I285" s="101" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="222">
+        <v>20</v>
+      </c>
+      <c r="B286" s="222"/>
+      <c r="C286" s="476" t="s">
+        <v>613</v>
+      </c>
+      <c r="D286" s="477"/>
+      <c r="E286" s="477"/>
+      <c r="F286" s="477">
+        <v>1</v>
+      </c>
+      <c r="G286" s="417"/>
+      <c r="H286" s="79">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="222">
+        <v>21</v>
+      </c>
+      <c r="B287" s="222"/>
+      <c r="C287" s="476" t="s">
+        <v>109</v>
+      </c>
+      <c r="D287" s="477"/>
+      <c r="E287" s="477"/>
+      <c r="F287" s="477">
+        <v>1</v>
+      </c>
+      <c r="G287" s="417"/>
+      <c r="H287" s="79">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="222">
+        <v>22</v>
+      </c>
+      <c r="B288" s="222"/>
+      <c r="C288" s="464" t="s">
+        <v>27</v>
+      </c>
+      <c r="D288" s="441" t="s">
+        <v>64</v>
+      </c>
+      <c r="E288" s="441"/>
+      <c r="F288" s="441">
+        <v>1</v>
+      </c>
+      <c r="G288" s="222"/>
+      <c r="H288" s="50">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="222">
+        <v>23</v>
+      </c>
+      <c r="B289" s="222"/>
+      <c r="C289" s="464" t="s">
+        <v>27</v>
+      </c>
+      <c r="D289" s="441" t="s">
+        <v>615</v>
+      </c>
+      <c r="E289" s="441"/>
+      <c r="F289" s="441">
+        <v>1</v>
+      </c>
+      <c r="G289" s="222"/>
+      <c r="H289" s="50">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="222">
+        <v>24</v>
+      </c>
+      <c r="B290" s="222"/>
+      <c r="C290" s="467" t="s">
+        <v>350</v>
+      </c>
+      <c r="D290" s="413"/>
+      <c r="E290" s="413"/>
+      <c r="F290" s="413">
+        <v>1</v>
+      </c>
+      <c r="G290" s="413"/>
+      <c r="H290" s="374">
+        <v>3000</v>
+      </c>
+      <c r="I290" s="101" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="222">
+        <v>25</v>
+      </c>
+      <c r="B291" s="222"/>
+      <c r="C291" s="476" t="s">
+        <v>616</v>
+      </c>
+      <c r="D291" s="477"/>
+      <c r="E291" s="477"/>
+      <c r="F291" s="477">
+        <v>4</v>
+      </c>
+      <c r="G291" s="417">
+        <v>3800</v>
+      </c>
+      <c r="H291" s="79">
+        <v>15200</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="222"/>
+      <c r="B292" s="222"/>
+      <c r="C292" s="464"/>
+      <c r="D292" s="441"/>
+      <c r="E292" s="441"/>
+      <c r="F292" s="441"/>
+      <c r="G292" s="222"/>
+      <c r="H292" s="223">
+        <f>SUM(H267:H291)</f>
+        <v>484050</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="222"/>
+      <c r="B293" s="222"/>
+      <c r="C293" s="465" t="s">
+        <v>563</v>
+      </c>
+      <c r="D293" s="222"/>
+      <c r="E293" s="222"/>
+      <c r="F293" s="222"/>
+      <c r="G293" s="222"/>
+      <c r="H293" s="50">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="222"/>
+      <c r="B294" s="26"/>
+      <c r="C294" s="466" t="s">
+        <v>614</v>
+      </c>
+      <c r="D294" s="477"/>
+      <c r="E294" s="441"/>
+      <c r="F294" s="441"/>
       <c r="G294" s="84"/>
-      <c r="H294" s="84"/>
-    </row>
-    <row r="295" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="4"/>
-      <c r="B295" s="4"/>
-      <c r="C295" s="192"/>
-      <c r="D295" s="83"/>
-      <c r="E295" s="83"/>
-      <c r="F295" s="83"/>
+      <c r="H294" s="84">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="222"/>
+      <c r="B295" s="222"/>
+      <c r="C295" s="464"/>
+      <c r="D295" s="441"/>
+      <c r="E295" s="441"/>
+      <c r="F295" s="441"/>
       <c r="G295" s="84"/>
-      <c r="H295" s="84"/>
-    </row>
-    <row r="296" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="4"/>
-      <c r="B296" s="4"/>
-      <c r="C296" s="442"/>
-      <c r="D296" s="235"/>
-      <c r="E296" s="235"/>
-      <c r="F296" s="235"/>
-      <c r="G296" s="353"/>
-      <c r="H296" s="353"/>
-    </row>
-    <row r="297" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="4"/>
-      <c r="B297" s="4"/>
-      <c r="C297" s="443"/>
-      <c r="D297" s="83"/>
-      <c r="E297" s="83"/>
-      <c r="F297" s="83"/>
-      <c r="G297" s="84"/>
-      <c r="H297" s="391"/>
-    </row>
-    <row r="298" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="4"/>
-      <c r="B298" s="4"/>
-      <c r="C298" s="387"/>
-      <c r="D298" s="83"/>
-      <c r="E298" s="83"/>
-      <c r="F298" s="83"/>
-      <c r="G298" s="84"/>
-      <c r="H298" s="84"/>
-    </row>
-    <row r="299" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="4"/>
-      <c r="B299" s="4"/>
-      <c r="C299" s="192"/>
-      <c r="D299" s="83"/>
-      <c r="E299" s="83"/>
-      <c r="F299" s="83"/>
-      <c r="G299" s="84"/>
-      <c r="H299" s="84"/>
-    </row>
-    <row r="300" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="4"/>
-      <c r="B300" s="4"/>
-      <c r="C300" s="192"/>
-      <c r="D300" s="83"/>
-      <c r="E300" s="83"/>
-      <c r="F300" s="83"/>
-      <c r="G300" s="84"/>
-      <c r="H300" s="84"/>
-    </row>
-    <row r="301" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="4"/>
-      <c r="B301" s="4"/>
-      <c r="C301" s="192"/>
-      <c r="D301" s="83"/>
-      <c r="E301" s="83"/>
-      <c r="F301" s="83"/>
-      <c r="G301" s="84"/>
-      <c r="H301" s="84"/>
-    </row>
-    <row r="302" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="4"/>
-      <c r="B302" s="4"/>
-      <c r="C302" s="439"/>
-      <c r="D302" s="437"/>
-      <c r="E302" s="235"/>
-      <c r="F302" s="437"/>
-      <c r="G302" s="440"/>
-      <c r="H302" s="440"/>
-    </row>
-    <row r="303" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="4"/>
-      <c r="B303" s="4"/>
-      <c r="C303" s="192"/>
-      <c r="D303" s="83"/>
-      <c r="E303" s="83"/>
-      <c r="F303" s="83"/>
-      <c r="G303" s="84"/>
-      <c r="H303" s="84"/>
-    </row>
-    <row r="304" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="4"/>
-      <c r="B304" s="4"/>
-      <c r="C304" s="192"/>
-      <c r="D304" s="83"/>
-      <c r="E304" s="83"/>
-      <c r="F304" s="83"/>
-      <c r="G304" s="84"/>
-      <c r="H304" s="391"/>
+      <c r="H295" s="390">
+        <f>SUM(H292:H294)</f>
+        <v>512050</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="222">
+        <v>1</v>
+      </c>
+      <c r="B296" s="222" t="s">
+        <v>617</v>
+      </c>
+      <c r="C296" s="467" t="s">
+        <v>196</v>
+      </c>
+      <c r="D296" s="413"/>
+      <c r="E296" s="413" t="s">
+        <v>8</v>
+      </c>
+      <c r="F296" s="413">
+        <v>1</v>
+      </c>
+      <c r="G296" s="468"/>
+      <c r="H296" s="374">
+        <v>25500</v>
+      </c>
+      <c r="I296" s="101" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="222">
+        <v>2</v>
+      </c>
+      <c r="B297" s="222"/>
+      <c r="C297" s="469" t="s">
+        <v>196</v>
+      </c>
+      <c r="D297" s="413"/>
+      <c r="E297" s="413" t="s">
+        <v>14</v>
+      </c>
+      <c r="F297" s="413">
+        <v>2</v>
+      </c>
+      <c r="G297" s="413">
+        <v>6000</v>
+      </c>
+      <c r="H297" s="374">
+        <v>12000</v>
+      </c>
+      <c r="I297" s="101" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="222">
+        <v>3</v>
+      </c>
+      <c r="B298" s="222"/>
+      <c r="C298" s="469" t="s">
+        <v>618</v>
+      </c>
+      <c r="D298" s="413"/>
+      <c r="E298" s="413"/>
+      <c r="F298" s="413"/>
+      <c r="G298" s="413"/>
+      <c r="H298" s="374">
+        <v>8300</v>
+      </c>
+      <c r="I298" s="101" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="222">
+        <v>4</v>
+      </c>
+      <c r="B299" s="222"/>
+      <c r="C299" s="480" t="s">
+        <v>207</v>
+      </c>
+      <c r="D299" s="413"/>
+      <c r="E299" s="413"/>
+      <c r="F299" s="413"/>
+      <c r="G299" s="413"/>
+      <c r="H299" s="374">
+        <v>4000</v>
+      </c>
+      <c r="I299" s="101" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="222">
+        <v>5</v>
+      </c>
+      <c r="B300" s="222"/>
+      <c r="C300" s="459" t="s">
+        <v>619</v>
+      </c>
+      <c r="D300" s="222" t="s">
+        <v>298</v>
+      </c>
+      <c r="E300" s="222"/>
+      <c r="F300" s="222">
+        <v>1</v>
+      </c>
+      <c r="G300" s="222"/>
+      <c r="H300" s="50">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="222">
+        <v>6</v>
+      </c>
+      <c r="B301" s="222"/>
+      <c r="C301" s="459" t="s">
+        <v>216</v>
+      </c>
+      <c r="D301" s="222" t="s">
+        <v>298</v>
+      </c>
+      <c r="E301" s="222"/>
+      <c r="F301" s="222">
+        <v>2</v>
+      </c>
+      <c r="G301" s="50">
+        <v>34000</v>
+      </c>
+      <c r="H301" s="50">
+        <v>68000</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="222">
+        <v>7</v>
+      </c>
+      <c r="B302" s="222"/>
+      <c r="C302" s="459" t="s">
+        <v>619</v>
+      </c>
+      <c r="D302" s="222" t="s">
+        <v>165</v>
+      </c>
+      <c r="E302" s="222"/>
+      <c r="F302" s="222">
+        <v>2</v>
+      </c>
+      <c r="G302" s="222">
+        <v>12000</v>
+      </c>
+      <c r="H302" s="50">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="222">
+        <v>8</v>
+      </c>
+      <c r="B303" s="222"/>
+      <c r="C303" s="485" t="s">
+        <v>109</v>
+      </c>
+      <c r="D303" s="417"/>
+      <c r="E303" s="417"/>
+      <c r="F303" s="417">
+        <v>2</v>
+      </c>
+      <c r="G303" s="417">
+        <v>3500</v>
+      </c>
+      <c r="H303" s="79">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="222">
+        <v>9</v>
+      </c>
+      <c r="B304" s="222"/>
+      <c r="C304" s="459" t="s">
+        <v>27</v>
+      </c>
+      <c r="D304" s="222"/>
+      <c r="E304" s="222"/>
+      <c r="F304" s="222">
+        <v>1</v>
+      </c>
+      <c r="G304" s="222"/>
+      <c r="H304" s="50">
+        <v>18000</v>
+      </c>
     </row>
     <row r="305" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="4"/>
-      <c r="B305" s="4"/>
-      <c r="C305" s="435"/>
-      <c r="D305" s="83"/>
-      <c r="E305" s="83"/>
-      <c r="F305" s="83"/>
-      <c r="G305" s="84"/>
-      <c r="H305" s="84"/>
+      <c r="A305" s="222">
+        <v>10</v>
+      </c>
+      <c r="B305" s="222"/>
+      <c r="C305" s="459" t="s">
+        <v>620</v>
+      </c>
+      <c r="D305" s="222"/>
+      <c r="E305" s="222"/>
+      <c r="F305" s="222">
+        <v>1</v>
+      </c>
+      <c r="G305" s="222"/>
+      <c r="H305" s="50">
+        <v>30000</v>
+      </c>
     </row>
     <row r="306" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="4"/>
-      <c r="B306" s="4"/>
-      <c r="C306" s="192"/>
-      <c r="D306" s="83"/>
-      <c r="E306" s="83"/>
-      <c r="F306" s="83"/>
-      <c r="G306" s="84"/>
-      <c r="H306" s="84"/>
+      <c r="A306" s="222">
+        <v>11</v>
+      </c>
+      <c r="B306" s="222"/>
+      <c r="C306" s="459" t="s">
+        <v>621</v>
+      </c>
+      <c r="D306" s="222"/>
+      <c r="E306" s="222"/>
+      <c r="F306" s="222">
+        <v>3</v>
+      </c>
+      <c r="G306" s="222">
+        <v>1000</v>
+      </c>
+      <c r="H306" s="50">
+        <v>3000</v>
+      </c>
     </row>
     <row r="307" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="4"/>
-      <c r="B307" s="4"/>
-      <c r="C307" s="192"/>
-      <c r="D307" s="83"/>
-      <c r="E307" s="83"/>
-      <c r="F307" s="83"/>
-      <c r="G307" s="84"/>
-      <c r="H307" s="84"/>
+      <c r="A307" s="222">
+        <v>12</v>
+      </c>
+      <c r="B307" s="222"/>
+      <c r="C307" s="459" t="s">
+        <v>27</v>
+      </c>
+      <c r="D307" s="222" t="s">
+        <v>51</v>
+      </c>
+      <c r="E307" s="222"/>
+      <c r="F307" s="222"/>
+      <c r="G307" s="222"/>
+      <c r="H307" s="50">
+        <v>13000</v>
+      </c>
     </row>
     <row r="308" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="4"/>
-      <c r="B308" s="4"/>
-      <c r="C308" s="192"/>
-      <c r="D308" s="83"/>
-      <c r="E308" s="83"/>
-      <c r="F308" s="83"/>
-      <c r="G308" s="84"/>
-      <c r="H308" s="391"/>
+      <c r="A308" s="222"/>
+      <c r="B308" s="222"/>
+      <c r="C308" s="459"/>
+      <c r="D308" s="222"/>
+      <c r="E308" s="222"/>
+      <c r="F308" s="222"/>
+      <c r="G308" s="222"/>
+      <c r="H308" s="223">
+        <f>SUM(H296:H307)</f>
+        <v>231800</v>
+      </c>
     </row>
     <row r="309" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="4"/>
-      <c r="B309" s="4"/>
-      <c r="C309" s="387"/>
-      <c r="D309" s="83"/>
-      <c r="E309" s="83"/>
-      <c r="F309" s="83"/>
-      <c r="G309" s="84"/>
-      <c r="H309" s="84"/>
+      <c r="A309" s="222"/>
+      <c r="B309" s="222"/>
+      <c r="C309" s="459" t="s">
+        <v>587</v>
+      </c>
+      <c r="D309" s="222"/>
+      <c r="E309" s="222"/>
+      <c r="F309" s="222"/>
+      <c r="G309" s="222"/>
+      <c r="H309" s="50">
+        <v>19500</v>
+      </c>
     </row>
     <row r="310" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="4"/>
-      <c r="B310" s="4"/>
-      <c r="C310" s="192"/>
-      <c r="D310" s="83"/>
-      <c r="E310" s="83"/>
-      <c r="F310" s="83"/>
-      <c r="G310" s="84"/>
-      <c r="H310" s="84"/>
+      <c r="A310" s="26"/>
+      <c r="B310" s="26"/>
+      <c r="C310" s="26"/>
+      <c r="D310" s="26"/>
+      <c r="E310" s="26"/>
+      <c r="F310" s="26"/>
+      <c r="G310" s="26"/>
+      <c r="H310" s="230">
+        <f>SUM(H308:H309)</f>
+        <v>251300</v>
+      </c>
     </row>
     <row r="311" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="4"/>
-      <c r="B311" s="4"/>
-      <c r="C311" s="192"/>
-      <c r="D311" s="83"/>
-      <c r="E311" s="83"/>
-      <c r="F311" s="83"/>
-      <c r="G311" s="84"/>
-      <c r="H311" s="84"/>
+      <c r="A311" s="222">
+        <v>1</v>
+      </c>
+      <c r="B311" s="222" t="s">
+        <v>622</v>
+      </c>
+      <c r="C311" s="464" t="s">
+        <v>248</v>
+      </c>
+      <c r="D311" s="441" t="s">
+        <v>219</v>
+      </c>
+      <c r="E311" s="441"/>
+      <c r="F311" s="441">
+        <v>2</v>
+      </c>
+      <c r="G311" s="463">
+        <v>9000</v>
+      </c>
+      <c r="H311" s="84">
+        <v>18000</v>
+      </c>
     </row>
     <row r="312" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="4"/>
-      <c r="B312" s="4"/>
-      <c r="C312" s="192"/>
-      <c r="D312" s="83"/>
-      <c r="E312" s="83"/>
-      <c r="F312" s="83"/>
-      <c r="G312" s="84"/>
-      <c r="H312" s="84"/>
+      <c r="A312" s="222">
+        <v>2</v>
+      </c>
+      <c r="B312" s="222"/>
+      <c r="C312" s="466" t="s">
+        <v>211</v>
+      </c>
+      <c r="D312" s="441" t="s">
+        <v>298</v>
+      </c>
+      <c r="E312" s="441"/>
+      <c r="F312" s="441">
+        <v>2</v>
+      </c>
+      <c r="G312" s="441">
+        <v>9000</v>
+      </c>
+      <c r="H312" s="84">
+        <v>18000</v>
+      </c>
     </row>
     <row r="313" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="4"/>
-      <c r="B313" s="4"/>
-      <c r="C313" s="439"/>
-      <c r="D313" s="235"/>
-      <c r="E313" s="235"/>
-      <c r="F313" s="437"/>
-      <c r="G313" s="440"/>
-      <c r="H313" s="449"/>
+      <c r="A313" s="222">
+        <v>3</v>
+      </c>
+      <c r="B313" s="222"/>
+      <c r="C313" s="466" t="s">
+        <v>623</v>
+      </c>
+      <c r="D313" s="441"/>
+      <c r="E313" s="441"/>
+      <c r="F313" s="441">
+        <v>1</v>
+      </c>
+      <c r="G313" s="441"/>
+      <c r="H313" s="84">
+        <v>3500</v>
+      </c>
     </row>
     <row r="314" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="4"/>
-      <c r="B314" s="4"/>
-      <c r="C314" s="192"/>
-      <c r="D314" s="83"/>
-      <c r="E314" s="83"/>
-      <c r="F314" s="83"/>
-      <c r="G314" s="84"/>
-      <c r="H314" s="84"/>
+      <c r="A314" s="222">
+        <v>4</v>
+      </c>
+      <c r="B314" s="222"/>
+      <c r="C314" s="471" t="s">
+        <v>624</v>
+      </c>
+      <c r="D314" s="222"/>
+      <c r="E314" s="222"/>
+      <c r="F314" s="222">
+        <v>1</v>
+      </c>
+      <c r="G314" s="222"/>
+      <c r="H314" s="50">
+        <v>5300</v>
+      </c>
     </row>
     <row r="315" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="4"/>
-      <c r="B315" s="4"/>
-      <c r="C315" s="192"/>
-      <c r="D315" s="83"/>
-      <c r="E315" s="83"/>
-      <c r="F315" s="83"/>
-      <c r="G315" s="84"/>
-      <c r="H315" s="391"/>
+      <c r="A315" s="222">
+        <v>5</v>
+      </c>
+      <c r="B315" s="222"/>
+      <c r="C315" s="459" t="s">
+        <v>188</v>
+      </c>
+      <c r="D315" s="222"/>
+      <c r="E315" s="222" t="s">
+        <v>8</v>
+      </c>
+      <c r="F315" s="222">
+        <v>1</v>
+      </c>
+      <c r="G315" s="222"/>
+      <c r="H315" s="50">
+        <v>25500</v>
+      </c>
     </row>
     <row r="316" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="4"/>
-      <c r="B316" s="4"/>
-      <c r="C316" s="387"/>
-      <c r="D316" s="83"/>
-      <c r="E316" s="83"/>
-      <c r="F316" s="83"/>
-      <c r="G316" s="84"/>
-      <c r="H316" s="84"/>
+      <c r="A316" s="222">
+        <v>6</v>
+      </c>
+      <c r="B316" s="222"/>
+      <c r="C316" s="459" t="s">
+        <v>188</v>
+      </c>
+      <c r="D316" s="222"/>
+      <c r="E316" s="222" t="s">
+        <v>14</v>
+      </c>
+      <c r="F316" s="222">
+        <v>2</v>
+      </c>
+      <c r="G316" s="50">
+        <v>6000</v>
+      </c>
+      <c r="H316" s="50">
+        <v>12000</v>
+      </c>
     </row>
     <row r="317" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="4"/>
-      <c r="B317" s="4"/>
-      <c r="C317" s="192"/>
-      <c r="D317" s="83"/>
-      <c r="E317" s="83"/>
-      <c r="F317" s="83"/>
-      <c r="G317" s="84"/>
-      <c r="H317" s="84"/>
+      <c r="A317" s="222">
+        <v>7</v>
+      </c>
+      <c r="B317" s="222"/>
+      <c r="C317" s="459" t="s">
+        <v>248</v>
+      </c>
+      <c r="D317" s="222" t="s">
+        <v>85</v>
+      </c>
+      <c r="E317" s="222"/>
+      <c r="F317" s="222">
+        <v>2</v>
+      </c>
+      <c r="G317" s="222">
+        <v>10000</v>
+      </c>
+      <c r="H317" s="50">
+        <v>20000</v>
+      </c>
     </row>
     <row r="318" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="4"/>
-      <c r="B318" s="4"/>
-      <c r="C318" s="192"/>
-      <c r="D318" s="83"/>
-      <c r="E318" s="83"/>
-      <c r="F318" s="83"/>
-      <c r="G318" s="84"/>
-      <c r="H318" s="84"/>
+      <c r="A318" s="222"/>
+      <c r="B318" s="222"/>
+      <c r="C318" s="459"/>
+      <c r="D318" s="222"/>
+      <c r="E318" s="222"/>
+      <c r="F318" s="222"/>
+      <c r="G318" s="222"/>
+      <c r="H318" s="223">
+        <f>SUM(H311:H317)</f>
+        <v>102300</v>
+      </c>
     </row>
     <row r="319" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="4"/>
-      <c r="B319" s="4"/>
-      <c r="C319" s="192"/>
-      <c r="D319" s="83"/>
-      <c r="E319" s="83"/>
-      <c r="F319" s="83"/>
-      <c r="G319" s="84"/>
-      <c r="H319" s="84"/>
+      <c r="A319" s="222"/>
+      <c r="B319" s="222"/>
+      <c r="C319" s="459" t="s">
+        <v>553</v>
+      </c>
+      <c r="D319" s="222"/>
+      <c r="E319" s="222"/>
+      <c r="F319" s="222"/>
+      <c r="G319" s="222"/>
+      <c r="H319" s="50">
+        <v>21000</v>
+      </c>
     </row>
     <row r="320" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="4"/>
-      <c r="B320" s="4"/>
-      <c r="C320" s="439"/>
-      <c r="D320" s="235"/>
-      <c r="E320" s="437"/>
-      <c r="F320" s="437"/>
-      <c r="G320" s="440"/>
-      <c r="H320" s="440"/>
+      <c r="A320" s="222"/>
+      <c r="B320" s="222"/>
+      <c r="C320" s="459" t="s">
+        <v>350</v>
+      </c>
+      <c r="D320" s="222" t="s">
+        <v>625</v>
+      </c>
+      <c r="E320" s="222" t="s">
+        <v>14</v>
+      </c>
+      <c r="F320" s="222">
+        <v>1</v>
+      </c>
+      <c r="G320" s="222"/>
+      <c r="H320" s="50" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="321" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="4"/>
-      <c r="B321" s="4"/>
-      <c r="C321" s="192"/>
-      <c r="D321" s="83"/>
-      <c r="E321" s="83"/>
-      <c r="F321" s="83"/>
-      <c r="G321" s="84"/>
-      <c r="H321" s="84"/>
+      <c r="A321" s="222"/>
+      <c r="B321" s="222"/>
+      <c r="C321" s="459"/>
+      <c r="D321" s="222"/>
+      <c r="E321" s="222"/>
+      <c r="F321" s="222"/>
+      <c r="G321" s="222"/>
+      <c r="H321" s="223">
+        <f>SUM(H318:H320)</f>
+        <v>123300</v>
+      </c>
     </row>
     <row r="322" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="4"/>
@@ -31142,12 +31948,12 @@
     <row r="332" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
-      <c r="C332" s="439"/>
+      <c r="C332" s="437"/>
       <c r="D332" s="235"/>
-      <c r="E332" s="437"/>
-      <c r="F332" s="437"/>
-      <c r="G332" s="440"/>
-      <c r="H332" s="440"/>
+      <c r="E332" s="436"/>
+      <c r="F332" s="436"/>
+      <c r="G332" s="438"/>
+      <c r="H332" s="438"/>
     </row>
     <row r="333" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="4"/>
@@ -31232,12 +32038,12 @@
     <row r="341" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="4"/>
       <c r="B341" s="4"/>
-      <c r="C341" s="439"/>
+      <c r="C341" s="437"/>
       <c r="D341" s="235"/>
-      <c r="E341" s="437"/>
-      <c r="F341" s="437"/>
-      <c r="G341" s="440"/>
-      <c r="H341" s="440"/>
+      <c r="E341" s="436"/>
+      <c r="F341" s="436"/>
+      <c r="G341" s="438"/>
+      <c r="H341" s="438"/>
     </row>
     <row r="342" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="4"/>
@@ -31302,7 +32108,7 @@
     <row r="348" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
-      <c r="C348" s="442"/>
+      <c r="C348" s="439"/>
       <c r="D348" s="235"/>
       <c r="E348" s="235"/>
       <c r="F348" s="235"/>
@@ -31322,12 +32128,12 @@
     <row r="350" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
-      <c r="C350" s="439"/>
+      <c r="C350" s="437"/>
       <c r="D350" s="235"/>
-      <c r="E350" s="437"/>
-      <c r="F350" s="437"/>
-      <c r="G350" s="440"/>
-      <c r="H350" s="440"/>
+      <c r="E350" s="436"/>
+      <c r="F350" s="436"/>
+      <c r="G350" s="438"/>
+      <c r="H350" s="438"/>
     </row>
     <row r="351" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="4"/>
@@ -31412,7 +32218,7 @@
     <row r="359" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
-      <c r="C359" s="443"/>
+      <c r="C359" s="440"/>
       <c r="D359" s="83"/>
       <c r="E359" s="83"/>
       <c r="F359" s="83"/>
@@ -31442,12 +32248,12 @@
     <row r="362" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A362" s="426"/>
       <c r="B362" s="426"/>
-      <c r="C362" s="451"/>
-      <c r="D362" s="451"/>
-      <c r="E362" s="451"/>
-      <c r="F362" s="451"/>
-      <c r="G362" s="451"/>
-      <c r="H362" s="452"/>
+      <c r="C362" s="442"/>
+      <c r="D362" s="442"/>
+      <c r="E362" s="442"/>
+      <c r="F362" s="442"/>
+      <c r="G362" s="442"/>
+      <c r="H362" s="443"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1">
@@ -31463,47 +32269,47 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
     <col min="5" max="5" width="4.5703125" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="497" t="s">
+    <row r="1" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="490" t="s">
         <v>462</v>
       </c>
-      <c r="B1" s="497"/>
-      <c r="C1" s="497"/>
-      <c r="D1" s="498"/>
-      <c r="E1" s="497"/>
-      <c r="F1" s="497"/>
-      <c r="G1" s="497"/>
-      <c r="H1" s="497"/>
-    </row>
-    <row r="2" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="490"/>
+      <c r="C1" s="490"/>
+      <c r="D1" s="491"/>
+      <c r="E1" s="490"/>
+      <c r="F1" s="490"/>
+      <c r="G1" s="490"/>
+      <c r="H1" s="490"/>
+    </row>
+    <row r="2" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="499" t="s">
+      <c r="C2" s="492" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="500"/>
+      <c r="D2" s="493"/>
       <c r="E2" s="434" t="s">
         <v>116</v>
       </c>
@@ -31517,121 +32323,123 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="222">
         <v>1</v>
       </c>
       <c r="B3" s="222" t="s">
-        <v>598</v>
-      </c>
-      <c r="C3" s="473" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" s="444" t="s">
-        <v>254</v>
-      </c>
-      <c r="E3" s="444"/>
-      <c r="F3" s="444">
-        <v>8</v>
-      </c>
-      <c r="G3" s="481">
-        <v>3800</v>
+        <v>626</v>
+      </c>
+      <c r="C3" s="464" t="s">
+        <v>342</v>
+      </c>
+      <c r="D3" s="441"/>
+      <c r="E3" s="441" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="441">
+        <v>4</v>
+      </c>
+      <c r="G3" s="463">
+        <v>4000</v>
       </c>
       <c r="H3" s="84">
-        <v>30400</v>
-      </c>
-      <c r="I3" s="471" t="s">
-        <v>573</v>
-      </c>
-      <c r="J3" s="470"/>
-      <c r="K3" s="470"/>
-      <c r="L3" s="470"/>
-      <c r="M3" s="470"/>
-    </row>
-    <row r="4" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16000</v>
+      </c>
+      <c r="I3" s="462"/>
+      <c r="J3" s="461"/>
+      <c r="K3" s="461"/>
+      <c r="L3" s="461"/>
+      <c r="M3" s="461"/>
+    </row>
+    <row r="4" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="222">
         <v>2</v>
       </c>
       <c r="B4" s="222"/>
-      <c r="C4" s="475" t="s">
-        <v>601</v>
-      </c>
-      <c r="D4" s="444" t="s">
-        <v>254</v>
-      </c>
-      <c r="E4" s="444"/>
-      <c r="F4" s="444">
-        <v>1</v>
-      </c>
-      <c r="G4" s="444"/>
+      <c r="C4" s="466" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="441"/>
+      <c r="E4" s="441"/>
+      <c r="F4" s="441">
+        <v>1</v>
+      </c>
+      <c r="G4" s="441"/>
       <c r="H4" s="84">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="222">
         <v>3</v>
       </c>
       <c r="B5" s="222"/>
-      <c r="C5" s="475" t="s">
-        <v>602</v>
-      </c>
-      <c r="D5" s="444"/>
-      <c r="E5" s="444"/>
-      <c r="F5" s="444">
-        <v>1</v>
-      </c>
-      <c r="G5" s="444"/>
+      <c r="C5" s="466" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="441" t="s">
+        <v>178</v>
+      </c>
+      <c r="E5" s="441"/>
+      <c r="F5" s="441">
+        <v>2</v>
+      </c>
+      <c r="G5" s="441">
+        <v>34000</v>
+      </c>
       <c r="H5" s="84">
-        <v>4700</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>68000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="222">
         <v>4</v>
       </c>
       <c r="B6" s="222"/>
-      <c r="C6" s="480" t="s">
-        <v>299</v>
+      <c r="C6" s="471" t="s">
+        <v>111</v>
       </c>
       <c r="D6" s="222"/>
       <c r="E6" s="222" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F6" s="222">
-        <v>1</v>
-      </c>
-      <c r="G6" s="222"/>
+        <v>4</v>
+      </c>
+      <c r="G6" s="222">
+        <v>7000</v>
+      </c>
       <c r="H6" s="50">
-        <v>23400</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="222">
         <v>5</v>
       </c>
       <c r="B7" s="222"/>
-      <c r="C7" s="474" t="s">
-        <v>197</v>
+      <c r="C7" s="459" t="s">
+        <v>176</v>
       </c>
       <c r="D7" s="222"/>
       <c r="E7" s="222" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F7" s="222">
         <v>1</v>
       </c>
       <c r="G7" s="222"/>
       <c r="H7" s="50">
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="222">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="222"/>
-      <c r="C8" s="468" t="s">
+      <c r="C8" s="459" t="s">
         <v>127</v>
       </c>
       <c r="D8" s="222"/>
@@ -31639,122 +32447,149 @@
       <c r="F8" s="222">
         <v>1</v>
       </c>
-      <c r="G8" s="222"/>
+      <c r="G8" s="50"/>
       <c r="H8" s="50">
         <v>2500</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="222"/>
+    <row r="9" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="222">
+        <v>7</v>
+      </c>
       <c r="B9" s="222"/>
-      <c r="C9" s="468"/>
-      <c r="D9" s="222"/>
+      <c r="C9" s="459" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="222" t="s">
+        <v>627</v>
+      </c>
       <c r="E9" s="222"/>
-      <c r="F9" s="222"/>
+      <c r="F9" s="222">
+        <v>1</v>
+      </c>
       <c r="G9" s="222"/>
-      <c r="H9" s="223">
-        <f>SUM(H3:H8)</f>
-        <v>70500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="222"/>
+      <c r="H9" s="50">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="222">
+        <v>8</v>
+      </c>
       <c r="B10" s="222"/>
-      <c r="C10" s="480" t="s">
-        <v>600</v>
-      </c>
-      <c r="D10" s="222"/>
+      <c r="C10" s="459" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="222" t="s">
+        <v>325</v>
+      </c>
       <c r="E10" s="222"/>
-      <c r="F10" s="222"/>
-      <c r="G10" s="222"/>
+      <c r="F10" s="222">
+        <v>2</v>
+      </c>
+      <c r="G10" s="222">
+        <v>10000</v>
+      </c>
       <c r="H10" s="50">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="222"/>
       <c r="B11" s="222"/>
-      <c r="C11" s="468" t="s">
-        <v>390</v>
-      </c>
+      <c r="C11" s="459"/>
       <c r="D11" s="222"/>
       <c r="E11" s="222"/>
-      <c r="F11" s="222">
-        <v>3</v>
-      </c>
-      <c r="G11" s="222">
-        <v>3800</v>
-      </c>
-      <c r="H11" s="50">
-        <v>11400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="222"/>
+      <c r="G11" s="222"/>
+      <c r="H11" s="223">
+        <f>SUM(H3:H10)</f>
+        <v>189500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="222"/>
       <c r="B12" s="222"/>
-      <c r="C12" s="474" t="s">
-        <v>406</v>
-      </c>
-      <c r="D12" s="222" t="s">
-        <v>599</v>
-      </c>
-      <c r="E12" s="222" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="222">
-        <v>14</v>
-      </c>
-      <c r="G12" s="222">
-        <v>4000</v>
-      </c>
+      <c r="C12" s="459" t="s">
+        <v>447</v>
+      </c>
+      <c r="D12" s="222"/>
+      <c r="E12" s="222"/>
+      <c r="F12" s="222"/>
+      <c r="G12" s="222"/>
       <c r="H12" s="50">
-        <v>56000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="222"/>
       <c r="B13" s="222"/>
-      <c r="C13" s="474" t="s">
-        <v>563</v>
+      <c r="C13" s="459" t="s">
+        <v>350</v>
       </c>
       <c r="D13" s="222"/>
       <c r="E13" s="222"/>
-      <c r="F13" s="222"/>
+      <c r="F13" s="222">
+        <v>1</v>
+      </c>
       <c r="G13" s="222"/>
       <c r="H13" s="50">
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="473" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="486" t="s">
-        <v>603</v>
-      </c>
-      <c r="E14" s="444"/>
-      <c r="F14" s="444">
-        <v>1</v>
-      </c>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="222"/>
+      <c r="B14" s="222"/>
+      <c r="C14" s="459" t="s">
+        <v>363</v>
+      </c>
+      <c r="D14" s="222"/>
+      <c r="E14" s="222"/>
+      <c r="F14" s="222">
+        <v>6</v>
+      </c>
+      <c r="G14" s="222">
+        <v>1500</v>
+      </c>
+      <c r="H14" s="50">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="222"/>
       <c r="B15" s="222"/>
-      <c r="C15" s="473"/>
-      <c r="D15" s="444"/>
-      <c r="E15" s="444"/>
-      <c r="F15" s="444"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="390">
-        <f>SUM(H9:H14)</f>
-        <v>165900</v>
-      </c>
+      <c r="C15" s="459"/>
+      <c r="D15" s="222"/>
+      <c r="E15" s="222"/>
+      <c r="F15" s="222"/>
+      <c r="G15" s="222"/>
+      <c r="H15" s="223">
+        <f>SUM(H11:H14)</f>
+        <v>224000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="222"/>
+      <c r="B16" s="222"/>
+      <c r="C16" s="459"/>
+      <c r="D16" s="222"/>
+      <c r="E16" s="222"/>
+      <c r="F16" s="222"/>
+      <c r="G16" s="222"/>
+      <c r="H16" s="223"/>
+    </row>
+    <row r="17" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="222"/>
+      <c r="B17" s="222"/>
+      <c r="C17" s="459"/>
+      <c r="D17" s="222"/>
+      <c r="E17" s="222"/>
+      <c r="F17" s="222"/>
+      <c r="G17" s="222"/>
+      <c r="H17" s="50"/>
+    </row>
+    <row r="18" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="230"/>
     </row>
   </sheetData>
   <mergeCells count="2">
